--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A85D2-7AC5-4FBD-B614-9E31A1DB4B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707A7D2D-DBF9-4C6B-8865-26353808A68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7445" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7455" uniqueCount="1237">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3796,6 +3796,9 @@
   </si>
   <si>
     <t>opdracht_15</t>
+  </si>
+  <si>
+    <t>opdracht_16</t>
   </si>
 </sst>
 </file>
@@ -5323,8 +5326,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N518" sqref="N518"/>
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O523" sqref="O523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28322,8 +28325,12 @@
       <c r="M518" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N518" s="11"/>
-      <c r="O518" s="11"/>
+      <c r="N518" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O518" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="519" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="29">
@@ -28365,8 +28372,12 @@
       <c r="M519" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N519" s="11"/>
-      <c r="O519" s="11"/>
+      <c r="N519" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O519" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="520" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="29">
@@ -28408,8 +28419,12 @@
       <c r="M520" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N520" s="11"/>
-      <c r="O520" s="11"/>
+      <c r="N520" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O520" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="521" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="29">
@@ -28451,8 +28466,12 @@
       <c r="M521" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N521" s="11"/>
-      <c r="O521" s="11"/>
+      <c r="N521" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O521" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="522" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="29">
@@ -28494,8 +28513,12 @@
       <c r="M522" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N522" s="11"/>
-      <c r="O522" s="11"/>
+      <c r="N522" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O522" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="523" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="29">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707A7D2D-DBF9-4C6B-8865-26353808A68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5574E5F8-5D0C-4B71-84AB-334A22A337A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7455" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="1237">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5326,8 +5326,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O523" sqref="O523"/>
+      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N528" sqref="N528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28560,8 +28560,12 @@
       <c r="M523" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N523" s="11"/>
-      <c r="O523" s="11"/>
+      <c r="N523" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O523" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="524" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="29">
@@ -28603,8 +28607,12 @@
       <c r="M524" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N524" s="11"/>
-      <c r="O524" s="11"/>
+      <c r="N524" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O524" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="525" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="29">
@@ -28646,8 +28654,12 @@
       <c r="M525" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N525" s="11"/>
-      <c r="O525" s="11"/>
+      <c r="N525" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O525" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="526" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="29">
@@ -28689,8 +28701,12 @@
       <c r="M526" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N526" s="11"/>
-      <c r="O526" s="11"/>
+      <c r="N526" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O526" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="527" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="29">
@@ -28732,8 +28748,12 @@
       <c r="M527" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N527" s="11"/>
-      <c r="O527" s="11"/>
+      <c r="N527" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O527" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="528" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="29">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5574E5F8-5D0C-4B71-84AB-334A22A337A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6039A3C2-1C49-46EB-9F8E-94A4612CCD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="1237">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5327,7 +5327,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N528" sqref="N528"/>
+      <selection pane="bottomLeft" activeCell="N530" sqref="N530:O530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28795,8 +28795,12 @@
       <c r="M528" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N528" s="11"/>
-      <c r="O528" s="11"/>
+      <c r="N528" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O528" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="529" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="29">
@@ -28838,8 +28842,12 @@
       <c r="M529" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N529" s="11"/>
-      <c r="O529" s="11"/>
+      <c r="N529" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O529" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="530" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="29">
@@ -28881,8 +28889,12 @@
       <c r="M530" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N530" s="11"/>
-      <c r="O530" s="11"/>
+      <c r="N530" s="22" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O530" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="531" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="27">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6039A3C2-1C49-46EB-9F8E-94A4612CCD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB69F7D-BF0B-4DEB-B396-EB336EAC5BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7483" uniqueCount="1237">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5326,8 +5326,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N530" sqref="N530:O530"/>
+      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N537" sqref="N537:O537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28979,8 +28979,12 @@
       <c r="M532" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N532" s="11"/>
-      <c r="O532" s="11"/>
+      <c r="N532" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O532" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="533" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="29">
@@ -29022,8 +29026,12 @@
       <c r="M533" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N533" s="11"/>
-      <c r="O533" s="11"/>
+      <c r="N533" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O533" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="534" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="29">
@@ -29065,8 +29073,12 @@
       <c r="M534" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N534" s="11"/>
-      <c r="O534" s="11"/>
+      <c r="N534" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O534" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="535" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="29">
@@ -29108,8 +29120,12 @@
       <c r="M535" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N535" s="11"/>
-      <c r="O535" s="11"/>
+      <c r="N535" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O535" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="536" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="29">
@@ -29151,8 +29167,12 @@
       <c r="M536" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N536" s="11"/>
-      <c r="O536" s="11"/>
+      <c r="N536" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O536" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="537" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="29">
@@ -29194,8 +29214,12 @@
       <c r="M537" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N537" s="11"/>
-      <c r="O537" s="11"/>
+      <c r="N537" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O537" s="22" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="538" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="29">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_validatietestcontent\1.0.4-rc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34053E6A-8387-43FE-A2A1-770C3AE2AF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F00B1E8-196F-4FCD-8D58-B29CE5546B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7797" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7800" uniqueCount="1258">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3855,6 +3855,12 @@
   </si>
   <si>
     <t>Voltooid</t>
+  </si>
+  <si>
+    <t>Internal Server Error</t>
+  </si>
+  <si>
+    <t>opdracht_17</t>
   </si>
 </sst>
 </file>
@@ -5400,28 +5406,28 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="74" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="13" customWidth="1"/>
     <col min="9" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
     <col min="17" max="18" width="11" style="44" customWidth="1"/>
-    <col min="19" max="19" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>449</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -5527,7 +5533,7 @@
       <c r="R2" s="46"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5574,7 +5580,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -5621,7 +5627,7 @@
       <c r="R4" s="46"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -5668,7 +5674,7 @@
       <c r="R5" s="46"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -5715,7 +5721,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="21"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -5762,7 +5768,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>2</v>
       </c>
@@ -5809,7 +5815,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -5856,7 +5862,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>2</v>
       </c>
@@ -5903,7 +5909,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -5950,7 +5956,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>2</v>
       </c>
@@ -5997,7 +6003,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -6044,7 +6050,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>2</v>
       </c>
@@ -6091,7 +6097,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>2</v>
       </c>
@@ -6138,7 +6144,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>2</v>
       </c>
@@ -6185,7 +6191,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -6232,7 +6238,7 @@
       <c r="R17" s="46"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>2</v>
       </c>
@@ -6279,7 +6285,7 @@
       <c r="R18" s="46"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>2</v>
       </c>
@@ -6326,7 +6332,7 @@
       <c r="R19" s="46"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>4</v>
       </c>
@@ -6383,7 +6389,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>4</v>
       </c>
@@ -6440,7 +6446,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>4</v>
       </c>
@@ -6497,7 +6503,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>4</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>4</v>
       </c>
@@ -6611,7 +6617,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>4</v>
       </c>
@@ -6668,7 +6674,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>4</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>4</v>
       </c>
@@ -6782,7 +6788,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>4</v>
       </c>
@@ -6839,7 +6845,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>4</v>
       </c>
@@ -6896,7 +6902,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>4</v>
       </c>
@@ -6953,7 +6959,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>4</v>
       </c>
@@ -7010,7 +7016,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>4</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>4</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>4</v>
       </c>
@@ -7173,7 +7179,7 @@
       <c r="R34" s="46"/>
       <c r="S34" s="21"/>
     </row>
-    <row r="35" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>4</v>
       </c>
@@ -7222,7 +7228,7 @@
       <c r="R35" s="46"/>
       <c r="S35" s="21"/>
     </row>
-    <row r="36" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>1</v>
       </c>
@@ -7273,7 +7279,7 @@
       <c r="R36" s="46"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27">
         <v>1</v>
       </c>
@@ -7324,7 +7330,7 @@
       <c r="R37" s="46"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
         <v>1</v>
       </c>
@@ -7370,12 +7376,18 @@
       <c r="O38" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="46"/>
+      <c r="P38" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q38" s="46">
+        <v>44167</v>
+      </c>
       <c r="R38" s="46"/>
-      <c r="S38" s="21"/>
-    </row>
-    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="21" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -7421,12 +7433,18 @@
       <c r="O39" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="46"/>
+      <c r="P39" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q39" s="46">
+        <v>44167</v>
+      </c>
       <c r="R39" s="46"/>
-      <c r="S39" s="21"/>
-    </row>
-    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="21" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -7472,12 +7490,18 @@
       <c r="O40" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="46"/>
+      <c r="P40" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q40" s="46">
+        <v>44167</v>
+      </c>
       <c r="R40" s="46"/>
-      <c r="S40" s="21"/>
-    </row>
-    <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S40" s="21" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <v>1</v>
       </c>
@@ -7518,7 +7542,7 @@
         <v>25</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>1066</v>
@@ -7528,7 +7552,7 @@
       <c r="R41" s="46"/>
       <c r="S41" s="21"/>
     </row>
-    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -7585,7 +7609,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <v>1</v>
       </c>
@@ -7636,7 +7660,7 @@
       <c r="R43" s="46"/>
       <c r="S43" s="21"/>
     </row>
-    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>1</v>
       </c>
@@ -7693,7 +7717,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27">
         <v>1</v>
       </c>
@@ -7744,7 +7768,7 @@
       <c r="R45" s="46"/>
       <c r="S45" s="21"/>
     </row>
-    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27">
         <v>1</v>
       </c>
@@ -7803,7 +7827,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27">
         <v>1</v>
       </c>
@@ -7862,7 +7886,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27">
         <v>1</v>
       </c>
@@ -7913,7 +7937,7 @@
       <c r="R48" s="46"/>
       <c r="S48" s="21"/>
     </row>
-    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27">
         <v>1</v>
       </c>
@@ -7972,7 +7996,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27">
         <v>1</v>
       </c>
@@ -8031,7 +8055,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>1</v>
       </c>
@@ -8082,7 +8106,7 @@
       <c r="R51" s="46"/>
       <c r="S51" s="21"/>
     </row>
-    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27">
         <v>1</v>
       </c>
@@ -8139,7 +8163,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <v>1</v>
       </c>
@@ -8196,7 +8220,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27">
         <v>1</v>
       </c>
@@ -8253,7 +8277,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27">
         <v>1</v>
       </c>
@@ -8310,7 +8334,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27">
         <v>1</v>
       </c>
@@ -8367,7 +8391,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>1</v>
       </c>
@@ -8424,7 +8448,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>1</v>
       </c>
@@ -8475,7 +8499,7 @@
       <c r="R58" s="46"/>
       <c r="S58" s="21"/>
     </row>
-    <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>1</v>
       </c>
@@ -8526,7 +8550,7 @@
       <c r="R59" s="46"/>
       <c r="S59" s="21"/>
     </row>
-    <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <v>1</v>
       </c>
@@ -8573,7 +8597,7 @@
       <c r="R60" s="46"/>
       <c r="S60" s="21"/>
     </row>
-    <row r="61" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>1</v>
       </c>
@@ -8620,7 +8644,7 @@
       <c r="R61" s="46"/>
       <c r="S61" s="21"/>
     </row>
-    <row r="62" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>1</v>
       </c>
@@ -8667,7 +8691,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>2</v>
       </c>
@@ -8718,7 +8742,7 @@
       <c r="R63" s="46"/>
       <c r="S63" s="21"/>
     </row>
-    <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>2</v>
       </c>
@@ -8765,7 +8789,7 @@
       <c r="R64" s="46"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>2</v>
       </c>
@@ -8816,7 +8840,7 @@
       <c r="R65" s="46"/>
       <c r="S65" s="21"/>
     </row>
-    <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
         <v>2</v>
       </c>
@@ -8867,7 +8891,7 @@
       <c r="R66" s="46"/>
       <c r="S66" s="21"/>
     </row>
-    <row r="67" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
         <v>2</v>
       </c>
@@ -8918,7 +8942,7 @@
       <c r="R67" s="46"/>
       <c r="S67" s="21"/>
     </row>
-    <row r="68" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
         <v>2</v>
       </c>
@@ -8969,7 +8993,7 @@
       <c r="R68" s="46"/>
       <c r="S68" s="21"/>
     </row>
-    <row r="69" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="29">
         <v>2</v>
       </c>
@@ -9016,7 +9040,7 @@
       <c r="R69" s="46"/>
       <c r="S69" s="21"/>
     </row>
-    <row r="70" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="29">
         <v>2</v>
       </c>
@@ -9063,7 +9087,7 @@
       <c r="R70" s="46"/>
       <c r="S70" s="21"/>
     </row>
-    <row r="71" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="29">
         <v>2</v>
       </c>
@@ -9114,7 +9138,7 @@
       <c r="R71" s="46"/>
       <c r="S71" s="21"/>
     </row>
-    <row r="72" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29">
         <v>2</v>
       </c>
@@ -9165,7 +9189,7 @@
       <c r="R72" s="46"/>
       <c r="S72" s="21"/>
     </row>
-    <row r="73" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -9212,7 +9236,7 @@
       <c r="R73" s="46"/>
       <c r="S73" s="21"/>
     </row>
-    <row r="74" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30">
         <v>2</v>
       </c>
@@ -9259,7 +9283,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>2</v>
       </c>
@@ -9310,7 +9334,7 @@
       <c r="R75" s="46"/>
       <c r="S75" s="21"/>
     </row>
-    <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="29">
         <v>2</v>
       </c>
@@ -9357,7 +9381,7 @@
       <c r="R76" s="46"/>
       <c r="S76" s="21"/>
     </row>
-    <row r="77" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29">
         <v>2</v>
       </c>
@@ -9404,7 +9428,7 @@
       <c r="R77" s="46"/>
       <c r="S77" s="21"/>
     </row>
-    <row r="78" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="29">
         <v>2</v>
       </c>
@@ -9451,7 +9475,7 @@
       <c r="R78" s="46"/>
       <c r="S78" s="21"/>
     </row>
-    <row r="79" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
         <v>2</v>
       </c>
@@ -9498,7 +9522,7 @@
       <c r="R79" s="46"/>
       <c r="S79" s="21"/>
     </row>
-    <row r="80" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>2</v>
       </c>
@@ -9545,7 +9569,7 @@
       <c r="R80" s="46"/>
       <c r="S80" s="21"/>
     </row>
-    <row r="81" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
         <v>2</v>
       </c>
@@ -9592,7 +9616,7 @@
       <c r="R81" s="46"/>
       <c r="S81" s="21"/>
     </row>
-    <row r="82" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="29">
         <v>2</v>
       </c>
@@ -9639,7 +9663,7 @@
       <c r="R82" s="46"/>
       <c r="S82" s="21"/>
     </row>
-    <row r="83" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29">
         <v>2</v>
       </c>
@@ -9686,7 +9710,7 @@
       <c r="R83" s="46"/>
       <c r="S83" s="21"/>
     </row>
-    <row r="84" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="29">
         <v>2</v>
       </c>
@@ -9737,7 +9761,7 @@
       <c r="R84" s="46"/>
       <c r="S84" s="21"/>
     </row>
-    <row r="85" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28">
         <v>2</v>
       </c>
@@ -9784,7 +9808,7 @@
       <c r="R85" s="46"/>
       <c r="S85" s="21"/>
     </row>
-    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="28">
         <v>2</v>
       </c>
@@ -9841,7 +9865,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28">
         <v>2</v>
       </c>
@@ -9888,7 +9912,7 @@
       <c r="R87" s="46"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>2</v>
       </c>
@@ -9939,7 +9963,7 @@
       <c r="R88" s="46"/>
       <c r="S88" s="21"/>
     </row>
-    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>2</v>
       </c>
@@ -9990,7 +10014,7 @@
       <c r="R89" s="46"/>
       <c r="S89" s="21"/>
     </row>
-    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>2</v>
       </c>
@@ -10041,7 +10065,7 @@
       <c r="R90" s="46"/>
       <c r="S90" s="21"/>
     </row>
-    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>2</v>
       </c>
@@ -10092,7 +10116,7 @@
       <c r="R91" s="46"/>
       <c r="S91" s="21"/>
     </row>
-    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>2</v>
       </c>
@@ -10143,7 +10167,7 @@
       <c r="R92" s="46"/>
       <c r="S92" s="21"/>
     </row>
-    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>2</v>
       </c>
@@ -10194,7 +10218,7 @@
       <c r="R93" s="46"/>
       <c r="S93" s="21"/>
     </row>
-    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -10245,7 +10269,7 @@
       <c r="R94" s="46"/>
       <c r="S94" s="21"/>
     </row>
-    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>2</v>
       </c>
@@ -10296,7 +10320,7 @@
       <c r="R95" s="46"/>
       <c r="S95" s="21"/>
     </row>
-    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>2</v>
       </c>
@@ -10347,7 +10371,7 @@
       <c r="R96" s="46"/>
       <c r="S96" s="21"/>
     </row>
-    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>2</v>
       </c>
@@ -10398,7 +10422,7 @@
       <c r="R97" s="46"/>
       <c r="S97" s="21"/>
     </row>
-    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>2</v>
       </c>
@@ -10449,7 +10473,7 @@
       <c r="R98" s="46"/>
       <c r="S98" s="21"/>
     </row>
-    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>2</v>
       </c>
@@ -10500,7 +10524,7 @@
       <c r="R99" s="46"/>
       <c r="S99" s="21"/>
     </row>
-    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28">
         <v>2</v>
       </c>
@@ -10551,7 +10575,7 @@
       <c r="R100" s="46"/>
       <c r="S100" s="21"/>
     </row>
-    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
         <v>2</v>
       </c>
@@ -10602,7 +10626,7 @@
       <c r="R101" s="46"/>
       <c r="S101" s="21"/>
     </row>
-    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28">
         <v>2</v>
       </c>
@@ -10653,7 +10677,7 @@
       <c r="R102" s="46"/>
       <c r="S102" s="21"/>
     </row>
-    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>2</v>
       </c>
@@ -10704,7 +10728,7 @@
       <c r="R103" s="46"/>
       <c r="S103" s="21"/>
     </row>
-    <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>2</v>
       </c>
@@ -10751,7 +10775,7 @@
       <c r="R104" s="46"/>
       <c r="S104" s="21"/>
     </row>
-    <row r="105" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>2</v>
       </c>
@@ -10798,7 +10822,7 @@
       <c r="R105" s="46"/>
       <c r="S105" s="21"/>
     </row>
-    <row r="106" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="29">
         <v>2</v>
       </c>
@@ -10845,7 +10869,7 @@
       <c r="R106" s="46"/>
       <c r="S106" s="21"/>
     </row>
-    <row r="107" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>2</v>
       </c>
@@ -10892,7 +10916,7 @@
       <c r="R107" s="46"/>
       <c r="S107" s="21"/>
     </row>
-    <row r="108" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>2</v>
       </c>
@@ -10939,7 +10963,7 @@
       <c r="R108" s="46"/>
       <c r="S108" s="21"/>
     </row>
-    <row r="109" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="30">
         <v>2</v>
       </c>
@@ -10986,7 +11010,7 @@
       <c r="R109" s="46"/>
       <c r="S109" s="21"/>
     </row>
-    <row r="110" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>2</v>
       </c>
@@ -11033,7 +11057,7 @@
       <c r="R110" s="46"/>
       <c r="S110" s="21"/>
     </row>
-    <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="30">
         <v>2</v>
       </c>
@@ -11090,7 +11114,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="29">
         <v>2</v>
       </c>
@@ -11137,7 +11161,7 @@
       <c r="R112" s="46"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="29">
         <v>2</v>
       </c>
@@ -11188,7 +11212,7 @@
       <c r="R113" s="46"/>
       <c r="S113" s="21"/>
     </row>
-    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="29">
         <v>2</v>
       </c>
@@ -11245,7 +11269,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="30">
         <v>2</v>
       </c>
@@ -11302,7 +11326,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="30">
         <v>2</v>
       </c>
@@ -11359,7 +11383,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>2</v>
       </c>
@@ -11406,7 +11430,7 @@
       <c r="R117" s="46"/>
       <c r="S117" s="21"/>
     </row>
-    <row r="118" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="29">
         <v>2</v>
       </c>
@@ -11453,7 +11477,7 @@
       <c r="R118" s="46"/>
       <c r="S118" s="21"/>
     </row>
-    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="29">
         <v>2</v>
       </c>
@@ -11510,7 +11534,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="29">
         <v>2</v>
       </c>
@@ -11567,7 +11591,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>2</v>
       </c>
@@ -11624,7 +11648,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="28">
         <v>2</v>
       </c>
@@ -11681,7 +11705,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="28">
         <v>2</v>
       </c>
@@ -11738,7 +11762,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28">
         <v>2</v>
       </c>
@@ -11785,7 +11809,7 @@
       <c r="R124" s="46"/>
       <c r="S124" s="21"/>
     </row>
-    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="28">
         <v>2</v>
       </c>
@@ -11842,7 +11866,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28">
         <v>2</v>
       </c>
@@ -11893,7 +11917,7 @@
       <c r="R126" s="46"/>
       <c r="S126" s="21"/>
     </row>
-    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28">
         <v>2</v>
       </c>
@@ -11944,7 +11968,7 @@
       <c r="R127" s="46"/>
       <c r="S127" s="21"/>
     </row>
-    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28">
         <v>2</v>
       </c>
@@ -11995,7 +12019,7 @@
       <c r="R128" s="46"/>
       <c r="S128" s="21"/>
     </row>
-    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28">
         <v>2</v>
       </c>
@@ -12046,7 +12070,7 @@
       <c r="R129" s="46"/>
       <c r="S129" s="21"/>
     </row>
-    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28">
         <v>2</v>
       </c>
@@ -12097,7 +12121,7 @@
       <c r="R130" s="46"/>
       <c r="S130" s="21"/>
     </row>
-    <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28">
         <v>2</v>
       </c>
@@ -12144,7 +12168,7 @@
       <c r="R131" s="46"/>
       <c r="S131" s="21"/>
     </row>
-    <row r="132" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28">
         <v>2</v>
       </c>
@@ -12195,7 +12219,7 @@
       <c r="R132" s="46"/>
       <c r="S132" s="21"/>
     </row>
-    <row r="133" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="28">
         <v>2</v>
       </c>
@@ -12242,7 +12266,7 @@
       <c r="R133" s="46"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28">
         <v>2</v>
       </c>
@@ -12293,7 +12317,7 @@
       <c r="R134" s="46"/>
       <c r="S134" s="21"/>
     </row>
-    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28">
         <v>2</v>
       </c>
@@ -12344,7 +12368,7 @@
       <c r="R135" s="46"/>
       <c r="S135" s="21"/>
     </row>
-    <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28">
         <v>2</v>
       </c>
@@ -12391,7 +12415,7 @@
       <c r="R136" s="46"/>
       <c r="S136" s="21"/>
     </row>
-    <row r="137" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28">
         <v>2</v>
       </c>
@@ -12440,7 +12464,7 @@
       <c r="R137" s="46"/>
       <c r="S137" s="21"/>
     </row>
-    <row r="138" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -12487,7 +12511,7 @@
       <c r="R138" s="46"/>
       <c r="S138" s="21"/>
     </row>
-    <row r="139" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>5</v>
       </c>
@@ -12534,7 +12558,7 @@
       <c r="R139" s="46"/>
       <c r="S139" s="21"/>
     </row>
-    <row r="140" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>5</v>
       </c>
@@ -12581,7 +12605,7 @@
       <c r="R140" s="46"/>
       <c r="S140" s="21"/>
     </row>
-    <row r="141" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>5</v>
       </c>
@@ -12632,7 +12656,7 @@
       <c r="R141" s="46"/>
       <c r="S141" s="21"/>
     </row>
-    <row r="142" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>5</v>
       </c>
@@ -12679,7 +12703,7 @@
       <c r="R142" s="46"/>
       <c r="S142" s="21"/>
     </row>
-    <row r="143" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>5</v>
       </c>
@@ -12726,7 +12750,7 @@
       <c r="R143" s="46"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -12777,7 +12801,7 @@
       <c r="R144" s="46"/>
       <c r="S144" s="21"/>
     </row>
-    <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="28">
         <v>2</v>
       </c>
@@ -12824,7 +12848,7 @@
       <c r="R145" s="46"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28">
         <v>2</v>
       </c>
@@ -12875,7 +12899,7 @@
       <c r="R146" s="46"/>
       <c r="S146" s="21"/>
     </row>
-    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28">
         <v>2</v>
       </c>
@@ -12926,7 +12950,7 @@
       <c r="R147" s="46"/>
       <c r="S147" s="21"/>
     </row>
-    <row r="148" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28">
         <v>2</v>
       </c>
@@ -12983,7 +13007,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28">
         <v>2</v>
       </c>
@@ -13040,7 +13064,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28">
         <v>2</v>
       </c>
@@ -13097,7 +13121,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28">
         <v>2</v>
       </c>
@@ -13144,7 +13168,7 @@
       <c r="R151" s="46"/>
       <c r="S151" s="21"/>
     </row>
-    <row r="152" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28">
         <v>2</v>
       </c>
@@ -13201,7 +13225,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
         <v>2</v>
       </c>
@@ -13248,7 +13272,7 @@
       <c r="R153" s="46"/>
       <c r="S153" s="21"/>
     </row>
-    <row r="154" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28">
         <v>2</v>
       </c>
@@ -13295,7 +13319,7 @@
       <c r="R154" s="46"/>
       <c r="S154" s="21"/>
     </row>
-    <row r="155" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="28">
         <v>2</v>
       </c>
@@ -13346,7 +13370,7 @@
       <c r="R155" s="46"/>
       <c r="S155" s="21"/>
     </row>
-    <row r="156" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28">
         <v>2</v>
       </c>
@@ -13397,7 +13421,7 @@
       <c r="R156" s="46"/>
       <c r="S156" s="21"/>
     </row>
-    <row r="157" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="32">
         <v>2</v>
       </c>
@@ -13448,7 +13472,7 @@
       <c r="R157" s="46"/>
       <c r="S157" s="21"/>
     </row>
-    <row r="158" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="32">
         <v>2</v>
       </c>
@@ -13494,7 +13518,7 @@
       <c r="R158" s="46"/>
       <c r="S158" s="21"/>
     </row>
-    <row r="159" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="32">
         <v>2</v>
       </c>
@@ -13545,7 +13569,7 @@
       <c r="R159" s="46"/>
       <c r="S159" s="21"/>
     </row>
-    <row r="160" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28">
         <v>2</v>
       </c>
@@ -13592,7 +13616,7 @@
       <c r="R160" s="46"/>
       <c r="S160" s="21"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="32">
         <v>2</v>
       </c>
@@ -13639,7 +13663,7 @@
       <c r="R161" s="46"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32">
         <v>2</v>
       </c>
@@ -13690,7 +13714,7 @@
       <c r="R162" s="46"/>
       <c r="S162" s="21"/>
     </row>
-    <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="32">
         <v>2</v>
       </c>
@@ -13737,7 +13761,7 @@
       <c r="R163" s="46"/>
       <c r="S163" s="21"/>
     </row>
-    <row r="164" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="27">
         <v>5</v>
       </c>
@@ -13784,7 +13808,7 @@
       <c r="R164" s="46"/>
       <c r="S164" s="21"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="27">
         <v>5</v>
       </c>
@@ -13831,7 +13855,7 @@
       <c r="R165" s="46"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="27">
         <v>5</v>
       </c>
@@ -13888,7 +13912,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="27">
         <v>5</v>
       </c>
@@ -13945,7 +13969,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="27">
         <v>5</v>
       </c>
@@ -13996,7 +14020,7 @@
       <c r="R168" s="46"/>
       <c r="S168" s="21"/>
     </row>
-    <row r="169" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="27">
         <v>5</v>
       </c>
@@ -14043,7 +14067,7 @@
       <c r="R169" s="46"/>
       <c r="S169" s="21"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
         <v>5</v>
       </c>
@@ -14094,7 +14118,7 @@
       <c r="R170" s="46"/>
       <c r="S170" s="21"/>
     </row>
-    <row r="171" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="27">
         <v>5</v>
       </c>
@@ -14145,7 +14169,7 @@
       <c r="R171" s="46"/>
       <c r="S171" s="21"/>
     </row>
-    <row r="172" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="27">
         <v>5</v>
       </c>
@@ -14196,7 +14220,7 @@
       <c r="R172" s="46"/>
       <c r="S172" s="21"/>
     </row>
-    <row r="173" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="27">
         <v>5</v>
       </c>
@@ -14243,7 +14267,7 @@
       <c r="R173" s="46"/>
       <c r="S173" s="21"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="27">
         <v>5</v>
       </c>
@@ -14290,7 +14314,7 @@
       <c r="R174" s="46"/>
       <c r="S174" s="21"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="27">
         <v>5</v>
       </c>
@@ -14337,7 +14361,7 @@
       <c r="R175" s="46"/>
       <c r="S175" s="21"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="27">
         <v>5</v>
       </c>
@@ -14384,7 +14408,7 @@
       <c r="R176" s="46"/>
       <c r="S176" s="21"/>
     </row>
-    <row r="177" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="27">
         <v>5</v>
       </c>
@@ -14431,7 +14455,7 @@
       <c r="R177" s="46"/>
       <c r="S177" s="21"/>
     </row>
-    <row r="178" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="27">
         <v>5</v>
       </c>
@@ -14478,7 +14502,7 @@
       <c r="R178" s="46"/>
       <c r="S178" s="21"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="27">
         <v>5</v>
       </c>
@@ -14525,7 +14549,7 @@
       <c r="R179" s="46"/>
       <c r="S179" s="21"/>
     </row>
-    <row r="180" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="27">
         <v>5</v>
       </c>
@@ -14572,7 +14596,7 @@
       <c r="R180" s="46"/>
       <c r="S180" s="21"/>
     </row>
-    <row r="181" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="27">
         <v>5</v>
       </c>
@@ -14619,7 +14643,7 @@
       <c r="R181" s="46"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="27">
         <v>5</v>
       </c>
@@ -14666,7 +14690,7 @@
       <c r="R182" s="46"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="27">
         <v>5</v>
       </c>
@@ -14713,7 +14737,7 @@
       <c r="R183" s="46"/>
       <c r="S183" s="21"/>
     </row>
-    <row r="184" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="27">
         <v>5</v>
       </c>
@@ -14760,7 +14784,7 @@
       <c r="R184" s="46"/>
       <c r="S184" s="21"/>
     </row>
-    <row r="185" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="27">
         <v>5</v>
       </c>
@@ -14807,7 +14831,7 @@
       <c r="R185" s="46"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="27">
         <v>5</v>
       </c>
@@ -14854,7 +14878,7 @@
       <c r="R186" s="46"/>
       <c r="S186" s="21"/>
     </row>
-    <row r="187" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="27">
         <v>5</v>
       </c>
@@ -14901,7 +14925,7 @@
       <c r="R187" s="46"/>
       <c r="S187" s="21"/>
     </row>
-    <row r="188" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="27">
         <v>5</v>
       </c>
@@ -14948,7 +14972,7 @@
       <c r="R188" s="46"/>
       <c r="S188" s="21"/>
     </row>
-    <row r="189" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="27">
         <v>5</v>
       </c>
@@ -14995,7 +15019,7 @@
       <c r="R189" s="46"/>
       <c r="S189" s="21"/>
     </row>
-    <row r="190" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="27">
         <v>5</v>
       </c>
@@ -15042,7 +15066,7 @@
       <c r="R190" s="46"/>
       <c r="S190" s="21"/>
     </row>
-    <row r="191" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="27">
         <v>5</v>
       </c>
@@ -15089,7 +15113,7 @@
       <c r="R191" s="46"/>
       <c r="S191" s="21"/>
     </row>
-    <row r="192" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="27">
         <v>5</v>
       </c>
@@ -15136,7 +15160,7 @@
       <c r="R192" s="46"/>
       <c r="S192" s="21"/>
     </row>
-    <row r="193" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="27">
         <v>5</v>
       </c>
@@ -15183,7 +15207,7 @@
       <c r="R193" s="46"/>
       <c r="S193" s="21"/>
     </row>
-    <row r="194" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="27">
         <v>5</v>
       </c>
@@ -15230,7 +15254,7 @@
       <c r="R194" s="46"/>
       <c r="S194" s="21"/>
     </row>
-    <row r="195" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="27">
         <v>5</v>
       </c>
@@ -15277,7 +15301,7 @@
       <c r="R195" s="46"/>
       <c r="S195" s="21"/>
     </row>
-    <row r="196" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="27">
         <v>5</v>
       </c>
@@ -15324,7 +15348,7 @@
       <c r="R196" s="46"/>
       <c r="S196" s="21"/>
     </row>
-    <row r="197" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="27">
         <v>5</v>
       </c>
@@ -15371,7 +15395,7 @@
       <c r="R197" s="46"/>
       <c r="S197" s="21"/>
     </row>
-    <row r="198" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="27">
         <v>5</v>
       </c>
@@ -15418,7 +15442,7 @@
       <c r="R198" s="46"/>
       <c r="S198" s="21"/>
     </row>
-    <row r="199" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="27">
         <v>5</v>
       </c>
@@ -15465,7 +15489,7 @@
       <c r="R199" s="46"/>
       <c r="S199" s="21"/>
     </row>
-    <row r="200" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="27">
         <v>5</v>
       </c>
@@ -15512,7 +15536,7 @@
       <c r="R200" s="46"/>
       <c r="S200" s="21"/>
     </row>
-    <row r="201" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="27">
         <v>5</v>
       </c>
@@ -15559,7 +15583,7 @@
       <c r="R201" s="46"/>
       <c r="S201" s="21"/>
     </row>
-    <row r="202" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="27">
         <v>5</v>
       </c>
@@ -15606,7 +15630,7 @@
       <c r="R202" s="46"/>
       <c r="S202" s="21"/>
     </row>
-    <row r="203" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="27">
         <v>5</v>
       </c>
@@ -15653,7 +15677,7 @@
       <c r="R203" s="46"/>
       <c r="S203" s="21"/>
     </row>
-    <row r="204" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="27">
         <v>5</v>
       </c>
@@ -15700,7 +15724,7 @@
       <c r="R204" s="46"/>
       <c r="S204" s="21"/>
     </row>
-    <row r="205" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="27">
         <v>5</v>
       </c>
@@ -15747,7 +15771,7 @@
       <c r="R205" s="46"/>
       <c r="S205" s="21"/>
     </row>
-    <row r="206" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="27">
         <v>5</v>
       </c>
@@ -15794,7 +15818,7 @@
       <c r="R206" s="46"/>
       <c r="S206" s="21"/>
     </row>
-    <row r="207" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="27">
         <v>5</v>
       </c>
@@ -15841,7 +15865,7 @@
       <c r="R207" s="46"/>
       <c r="S207" s="21"/>
     </row>
-    <row r="208" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="27">
         <v>5</v>
       </c>
@@ -15888,7 +15912,7 @@
       <c r="R208" s="46"/>
       <c r="S208" s="21"/>
     </row>
-    <row r="209" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="27">
         <v>5</v>
       </c>
@@ -15935,7 +15959,7 @@
       <c r="R209" s="46"/>
       <c r="S209" s="21"/>
     </row>
-    <row r="210" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="27">
         <v>5</v>
       </c>
@@ -15982,7 +16006,7 @@
       <c r="R210" s="46"/>
       <c r="S210" s="21"/>
     </row>
-    <row r="211" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="27">
         <v>5</v>
       </c>
@@ -16029,7 +16053,7 @@
       <c r="R211" s="46"/>
       <c r="S211" s="21"/>
     </row>
-    <row r="212" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="27">
         <v>5</v>
       </c>
@@ -16076,7 +16100,7 @@
       <c r="R212" s="46"/>
       <c r="S212" s="21"/>
     </row>
-    <row r="213" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="27">
         <v>5</v>
       </c>
@@ -16123,7 +16147,7 @@
       <c r="R213" s="46"/>
       <c r="S213" s="21"/>
     </row>
-    <row r="214" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="27">
         <v>5</v>
       </c>
@@ -16170,7 +16194,7 @@
       <c r="R214" s="46"/>
       <c r="S214" s="21"/>
     </row>
-    <row r="215" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="27">
         <v>5</v>
       </c>
@@ -16217,7 +16241,7 @@
       <c r="R215" s="46"/>
       <c r="S215" s="21"/>
     </row>
-    <row r="216" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="27">
         <v>5</v>
       </c>
@@ -16264,7 +16288,7 @@
       <c r="R216" s="46"/>
       <c r="S216" s="21"/>
     </row>
-    <row r="217" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="27">
         <v>5</v>
       </c>
@@ -16311,7 +16335,7 @@
       <c r="R217" s="46"/>
       <c r="S217" s="21"/>
     </row>
-    <row r="218" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="27">
         <v>5</v>
       </c>
@@ -16358,7 +16382,7 @@
       <c r="R218" s="46"/>
       <c r="S218" s="21"/>
     </row>
-    <row r="219" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="27">
         <v>5</v>
       </c>
@@ -16405,7 +16429,7 @@
       <c r="R219" s="46"/>
       <c r="S219" s="21"/>
     </row>
-    <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="27">
         <v>1</v>
       </c>
@@ -16462,7 +16486,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="27">
         <v>5</v>
       </c>
@@ -16509,7 +16533,7 @@
       <c r="R221" s="46"/>
       <c r="S221" s="21"/>
     </row>
-    <row r="222" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="29">
         <v>8</v>
       </c>
@@ -16566,7 +16590,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="29">
         <v>8</v>
       </c>
@@ -16623,7 +16647,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="29">
         <v>8</v>
       </c>
@@ -16680,7 +16704,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="29">
         <v>8</v>
       </c>
@@ -16737,7 +16761,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="29">
         <v>8</v>
       </c>
@@ -16794,7 +16818,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="29">
         <v>8</v>
       </c>
@@ -16851,7 +16875,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="29">
         <v>8</v>
       </c>
@@ -16908,7 +16932,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="29">
         <v>8</v>
       </c>
@@ -16965,7 +16989,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="29">
         <v>8</v>
       </c>
@@ -17022,7 +17046,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="29">
         <v>8</v>
       </c>
@@ -17079,7 +17103,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="29">
         <v>8</v>
       </c>
@@ -17136,7 +17160,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="29">
         <v>8</v>
       </c>
@@ -17193,7 +17217,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="29">
         <v>8</v>
       </c>
@@ -17250,7 +17274,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="29">
         <v>8</v>
       </c>
@@ -17307,7 +17331,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="29">
         <v>8</v>
       </c>
@@ -17364,7 +17388,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="29">
         <v>8</v>
       </c>
@@ -17421,7 +17445,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="29">
         <v>8</v>
       </c>
@@ -17478,7 +17502,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="29">
         <v>8</v>
       </c>
@@ -17535,7 +17559,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="29">
         <v>8</v>
       </c>
@@ -17592,7 +17616,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="29">
         <v>8</v>
       </c>
@@ -17649,7 +17673,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="29">
         <v>8</v>
       </c>
@@ -17706,7 +17730,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="29">
         <v>8</v>
       </c>
@@ -17763,7 +17787,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="29">
         <v>8</v>
       </c>
@@ -17820,7 +17844,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="29">
         <v>8</v>
       </c>
@@ -17877,7 +17901,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="29">
         <v>8</v>
       </c>
@@ -17934,7 +17958,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="29">
         <v>8</v>
       </c>
@@ -17991,7 +18015,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="29">
         <v>8</v>
       </c>
@@ -18048,7 +18072,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="29">
         <v>8</v>
       </c>
@@ -18105,7 +18129,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="29">
         <v>8</v>
       </c>
@@ -18162,7 +18186,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="29">
         <v>8</v>
       </c>
@@ -18219,7 +18243,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="29">
         <v>8</v>
       </c>
@@ -18276,7 +18300,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="29">
         <v>8</v>
       </c>
@@ -18333,7 +18357,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="28">
         <v>8</v>
       </c>
@@ -18390,7 +18414,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="29">
         <v>8</v>
       </c>
@@ -18447,7 +18471,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="29">
         <v>8</v>
       </c>
@@ -18504,7 +18528,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="29">
         <v>8</v>
       </c>
@@ -18561,7 +18585,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="29">
         <v>8</v>
       </c>
@@ -18618,7 +18642,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="29">
         <v>8</v>
       </c>
@@ -18675,7 +18699,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="29">
         <v>8</v>
       </c>
@@ -18732,7 +18756,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="29">
         <v>8</v>
       </c>
@@ -18789,7 +18813,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="29">
         <v>8</v>
       </c>
@@ -18846,7 +18870,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="29">
         <v>8</v>
       </c>
@@ -18903,7 +18927,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="28">
         <v>8</v>
       </c>
@@ -18960,7 +18984,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="29">
         <v>8</v>
       </c>
@@ -19017,7 +19041,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="29">
         <v>8</v>
       </c>
@@ -19074,7 +19098,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="29">
         <v>8</v>
       </c>
@@ -19131,7 +19155,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="29">
         <v>8</v>
       </c>
@@ -19178,7 +19202,7 @@
       <c r="R268" s="46"/>
       <c r="S268" s="21"/>
     </row>
-    <row r="269" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="29">
         <v>8</v>
       </c>
@@ -19229,7 +19253,7 @@
       <c r="R269" s="46"/>
       <c r="S269" s="21"/>
     </row>
-    <row r="270" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="29">
         <v>8</v>
       </c>
@@ -19280,7 +19304,7 @@
       <c r="R270" s="46"/>
       <c r="S270" s="21"/>
     </row>
-    <row r="271" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="29">
         <v>8</v>
       </c>
@@ -19331,7 +19355,7 @@
       <c r="R271" s="46"/>
       <c r="S271" s="21"/>
     </row>
-    <row r="272" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="29">
         <v>8</v>
       </c>
@@ -19388,7 +19412,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="29">
         <v>8</v>
       </c>
@@ -19445,7 +19469,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="29">
         <v>8</v>
       </c>
@@ -19492,7 +19516,7 @@
       <c r="R274" s="46"/>
       <c r="S274" s="21"/>
     </row>
-    <row r="275" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="29">
         <v>8</v>
       </c>
@@ -19539,7 +19563,7 @@
       <c r="R275" s="46"/>
       <c r="S275" s="21"/>
     </row>
-    <row r="276" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="29">
         <v>8</v>
       </c>
@@ -19596,7 +19620,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="29">
         <v>8</v>
       </c>
@@ -19653,7 +19677,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="29">
         <v>8</v>
       </c>
@@ -19710,7 +19734,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="29">
         <v>8</v>
       </c>
@@ -19767,7 +19791,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="29">
         <v>8</v>
       </c>
@@ -19814,7 +19838,7 @@
       <c r="R280" s="46"/>
       <c r="S280" s="21"/>
     </row>
-    <row r="281" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="29">
         <v>8</v>
       </c>
@@ -19861,7 +19885,7 @@
       <c r="R281" s="46"/>
       <c r="S281" s="21"/>
     </row>
-    <row r="282" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="29">
         <v>8</v>
       </c>
@@ -19908,7 +19932,7 @@
       <c r="R282" s="46"/>
       <c r="S282" s="21"/>
     </row>
-    <row r="283" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="29">
         <v>8</v>
       </c>
@@ -19955,7 +19979,7 @@
       <c r="R283" s="46"/>
       <c r="S283" s="21"/>
     </row>
-    <row r="284" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="29">
         <v>8</v>
       </c>
@@ -20012,7 +20036,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="29">
         <v>8</v>
       </c>
@@ -20059,7 +20083,7 @@
       <c r="R285" s="46"/>
       <c r="S285" s="21"/>
     </row>
-    <row r="286" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="29">
         <v>8</v>
       </c>
@@ -20106,7 +20130,7 @@
       <c r="R286" s="46"/>
       <c r="S286" s="21"/>
     </row>
-    <row r="287" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="29">
         <v>8</v>
       </c>
@@ -20153,7 +20177,7 @@
       <c r="R287" s="46"/>
       <c r="S287" s="21"/>
     </row>
-    <row r="288" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="29">
         <v>8</v>
       </c>
@@ -20210,7 +20234,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="29">
         <v>8</v>
       </c>
@@ -20267,7 +20291,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="29">
         <v>8</v>
       </c>
@@ -20324,7 +20348,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="29">
         <v>8</v>
       </c>
@@ -20381,7 +20405,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="29">
         <v>8</v>
       </c>
@@ -20438,7 +20462,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="29">
         <v>8</v>
       </c>
@@ -20495,7 +20519,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="29">
         <v>8</v>
       </c>
@@ -20552,7 +20576,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="29">
         <v>8</v>
       </c>
@@ -20603,7 +20627,7 @@
       <c r="R295" s="46"/>
       <c r="S295" s="21"/>
     </row>
-    <row r="296" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="27">
         <v>8</v>
       </c>
@@ -20660,7 +20684,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="29">
         <v>8</v>
       </c>
@@ -20707,7 +20731,7 @@
       <c r="R297" s="46"/>
       <c r="S297" s="21"/>
     </row>
-    <row r="298" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="29">
         <v>8</v>
       </c>
@@ -20754,7 +20778,7 @@
       <c r="R298" s="46"/>
       <c r="S298" s="21"/>
     </row>
-    <row r="299" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="29">
         <v>8</v>
       </c>
@@ -20801,7 +20825,7 @@
       <c r="R299" s="46"/>
       <c r="S299" s="21"/>
     </row>
-    <row r="300" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="29">
         <v>8</v>
       </c>
@@ -20848,7 +20872,7 @@
       <c r="R300" s="46"/>
       <c r="S300" s="21"/>
     </row>
-    <row r="301" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="29">
         <v>8</v>
       </c>
@@ -20899,7 +20923,7 @@
       <c r="R301" s="46"/>
       <c r="S301" s="21"/>
     </row>
-    <row r="302" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="29">
         <v>8</v>
       </c>
@@ -20956,7 +20980,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="29">
         <v>8</v>
       </c>
@@ -21013,7 +21037,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="29">
         <v>8</v>
       </c>
@@ -21070,7 +21094,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="29">
         <v>8</v>
       </c>
@@ -21127,7 +21151,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="29">
         <v>8</v>
       </c>
@@ -21174,7 +21198,7 @@
       <c r="R306" s="46"/>
       <c r="S306" s="21"/>
     </row>
-    <row r="307" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="29">
         <v>8</v>
       </c>
@@ -21221,7 +21245,7 @@
       <c r="R307" s="46"/>
       <c r="S307" s="21"/>
     </row>
-    <row r="308" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="29">
         <v>8</v>
       </c>
@@ -21268,7 +21292,7 @@
       <c r="R308" s="46"/>
       <c r="S308" s="21"/>
     </row>
-    <row r="309" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="29">
         <v>8</v>
       </c>
@@ -21315,7 +21339,7 @@
       <c r="R309" s="46"/>
       <c r="S309" s="21"/>
     </row>
-    <row r="310" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="29">
         <v>8</v>
       </c>
@@ -21362,7 +21386,7 @@
       <c r="R310" s="46"/>
       <c r="S310" s="21"/>
     </row>
-    <row r="311" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="29">
         <v>8</v>
       </c>
@@ -21409,7 +21433,7 @@
       <c r="R311" s="46"/>
       <c r="S311" s="21"/>
     </row>
-    <row r="312" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="29">
         <v>8</v>
       </c>
@@ -21456,7 +21480,7 @@
       <c r="R312" s="46"/>
       <c r="S312" s="21"/>
     </row>
-    <row r="313" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="29">
         <v>8</v>
       </c>
@@ -21503,7 +21527,7 @@
       <c r="R313" s="46"/>
       <c r="S313" s="21"/>
     </row>
-    <row r="314" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="29">
         <v>8</v>
       </c>
@@ -21550,7 +21574,7 @@
       <c r="R314" s="46"/>
       <c r="S314" s="21"/>
     </row>
-    <row r="315" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="29">
         <v>8</v>
       </c>
@@ -21597,7 +21621,7 @@
       <c r="R315" s="46"/>
       <c r="S315" s="21"/>
     </row>
-    <row r="316" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="29">
         <v>8</v>
       </c>
@@ -21654,7 +21678,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="29">
         <v>8</v>
       </c>
@@ -21711,7 +21735,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="27">
         <v>8</v>
       </c>
@@ -21768,7 +21792,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="27">
         <v>8</v>
       </c>
@@ -21825,7 +21849,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="27">
         <v>8</v>
       </c>
@@ -21882,7 +21906,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="27">
         <v>8</v>
       </c>
@@ -21929,7 +21953,7 @@
       <c r="R321" s="46"/>
       <c r="S321" s="21"/>
     </row>
-    <row r="322" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="27">
         <v>8</v>
       </c>
@@ -21976,7 +22000,7 @@
       <c r="R322" s="46"/>
       <c r="S322" s="21"/>
     </row>
-    <row r="323" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="27">
         <v>8</v>
       </c>
@@ -22033,7 +22057,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="27">
         <v>8</v>
       </c>
@@ -22080,7 +22104,7 @@
       <c r="R324" s="46"/>
       <c r="S324" s="21"/>
     </row>
-    <row r="325" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="27">
         <v>8</v>
       </c>
@@ -22131,7 +22155,7 @@
       <c r="R325" s="46"/>
       <c r="S325" s="21"/>
     </row>
-    <row r="326" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="27">
         <v>8</v>
       </c>
@@ -22188,7 +22212,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="27">
         <v>8</v>
       </c>
@@ -22245,7 +22269,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="27">
         <v>8</v>
       </c>
@@ -22296,7 +22320,7 @@
       <c r="R328" s="46"/>
       <c r="S328" s="21"/>
     </row>
-    <row r="329" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="27">
         <v>8</v>
       </c>
@@ -22353,7 +22377,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="27">
         <v>8</v>
       </c>
@@ -22410,7 +22434,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="27">
         <v>8</v>
       </c>
@@ -22461,7 +22485,7 @@
       <c r="R331" s="46"/>
       <c r="S331" s="21"/>
     </row>
-    <row r="332" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="27">
         <v>8</v>
       </c>
@@ -22518,7 +22542,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="27">
         <v>8</v>
       </c>
@@ -22575,7 +22599,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="27">
         <v>8</v>
       </c>
@@ -22632,7 +22656,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="27">
         <v>8</v>
       </c>
@@ -22689,7 +22713,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="27">
         <v>8</v>
       </c>
@@ -22746,7 +22770,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="37">
         <v>2</v>
       </c>
@@ -22793,7 +22817,7 @@
       <c r="R337" s="46"/>
       <c r="S337" s="21"/>
     </row>
-    <row r="338" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="37">
         <v>2</v>
       </c>
@@ -22840,7 +22864,7 @@
       <c r="R338" s="46"/>
       <c r="S338" s="21"/>
     </row>
-    <row r="339" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="37">
         <v>2</v>
       </c>
@@ -22887,7 +22911,7 @@
       <c r="R339" s="46"/>
       <c r="S339" s="21"/>
     </row>
-    <row r="340" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="37">
         <v>2</v>
       </c>
@@ -22934,7 +22958,7 @@
       <c r="R340" s="46"/>
       <c r="S340" s="21"/>
     </row>
-    <row r="341" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="37">
         <v>2</v>
       </c>
@@ -22981,7 +23005,7 @@
       <c r="R341" s="46"/>
       <c r="S341" s="21"/>
     </row>
-    <row r="342" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="37">
         <v>2</v>
       </c>
@@ -23028,7 +23052,7 @@
       <c r="R342" s="46"/>
       <c r="S342" s="21"/>
     </row>
-    <row r="343" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="37">
         <v>2</v>
       </c>
@@ -23075,7 +23099,7 @@
       <c r="R343" s="46"/>
       <c r="S343" s="21"/>
     </row>
-    <row r="344" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="20">
         <v>2</v>
       </c>
@@ -23122,7 +23146,7 @@
       <c r="R344" s="46"/>
       <c r="S344" s="21"/>
     </row>
-    <row r="345" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="37">
         <v>2</v>
       </c>
@@ -23169,7 +23193,7 @@
       <c r="R345" s="46"/>
       <c r="S345" s="21"/>
     </row>
-    <row r="346" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="37">
         <v>2</v>
       </c>
@@ -23216,7 +23240,7 @@
       <c r="R346" s="46"/>
       <c r="S346" s="21"/>
     </row>
-    <row r="347" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="37">
         <v>2</v>
       </c>
@@ -23263,7 +23287,7 @@
       <c r="R347" s="46"/>
       <c r="S347" s="21"/>
     </row>
-    <row r="348" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="37">
         <v>2</v>
       </c>
@@ -23310,7 +23334,7 @@
       <c r="R348" s="46"/>
       <c r="S348" s="21"/>
     </row>
-    <row r="349" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="37">
         <v>2</v>
       </c>
@@ -23357,7 +23381,7 @@
       <c r="R349" s="46"/>
       <c r="S349" s="21"/>
     </row>
-    <row r="350" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="37">
         <v>2</v>
       </c>
@@ -23404,7 +23428,7 @@
       <c r="R350" s="46"/>
       <c r="S350" s="21"/>
     </row>
-    <row r="351" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="37">
         <v>2</v>
       </c>
@@ -23451,7 +23475,7 @@
       <c r="R351" s="46"/>
       <c r="S351" s="21"/>
     </row>
-    <row r="352" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="37">
         <v>2</v>
       </c>
@@ -23498,7 +23522,7 @@
       <c r="R352" s="46"/>
       <c r="S352" s="21"/>
     </row>
-    <row r="353" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="37">
         <v>2</v>
       </c>
@@ -23545,7 +23569,7 @@
       <c r="R353" s="46"/>
       <c r="S353" s="21"/>
     </row>
-    <row r="354" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="37">
         <v>2</v>
       </c>
@@ -23592,7 +23616,7 @@
       <c r="R354" s="46"/>
       <c r="S354" s="21"/>
     </row>
-    <row r="355" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="37">
         <v>2</v>
       </c>
@@ -23639,7 +23663,7 @@
       <c r="R355" s="46"/>
       <c r="S355" s="21"/>
     </row>
-    <row r="356" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="37">
         <v>2</v>
       </c>
@@ -23686,7 +23710,7 @@
       <c r="R356" s="46"/>
       <c r="S356" s="21"/>
     </row>
-    <row r="357" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="37">
         <v>2</v>
       </c>
@@ -23733,7 +23757,7 @@
       <c r="R357" s="46"/>
       <c r="S357" s="21"/>
     </row>
-    <row r="358" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="37">
         <v>2</v>
       </c>
@@ -23780,7 +23804,7 @@
       <c r="R358" s="46"/>
       <c r="S358" s="21"/>
     </row>
-    <row r="359" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="37">
         <v>2</v>
       </c>
@@ -23827,7 +23851,7 @@
       <c r="R359" s="46"/>
       <c r="S359" s="21"/>
     </row>
-    <row r="360" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="37">
         <v>2</v>
       </c>
@@ -23874,7 +23898,7 @@
       <c r="R360" s="46"/>
       <c r="S360" s="21"/>
     </row>
-    <row r="361" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="37">
         <v>2</v>
       </c>
@@ -23921,7 +23945,7 @@
       <c r="R361" s="46"/>
       <c r="S361" s="21"/>
     </row>
-    <row r="362" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="37">
         <v>2</v>
       </c>
@@ -23968,7 +23992,7 @@
       <c r="R362" s="46"/>
       <c r="S362" s="21"/>
     </row>
-    <row r="363" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="37">
         <v>2</v>
       </c>
@@ -24015,7 +24039,7 @@
       <c r="R363" s="46"/>
       <c r="S363" s="21"/>
     </row>
-    <row r="364" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="37">
         <v>2</v>
       </c>
@@ -24062,7 +24086,7 @@
       <c r="R364" s="46"/>
       <c r="S364" s="21"/>
     </row>
-    <row r="365" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="37">
         <v>2</v>
       </c>
@@ -24109,7 +24133,7 @@
       <c r="R365" s="46"/>
       <c r="S365" s="21"/>
     </row>
-    <row r="366" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="37">
         <v>2</v>
       </c>
@@ -24156,7 +24180,7 @@
       <c r="R366" s="46"/>
       <c r="S366" s="21"/>
     </row>
-    <row r="367" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="37">
         <v>2</v>
       </c>
@@ -24203,7 +24227,7 @@
       <c r="R367" s="46"/>
       <c r="S367" s="21"/>
     </row>
-    <row r="368" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="37">
         <v>2</v>
       </c>
@@ -24250,7 +24274,7 @@
       <c r="R368" s="46"/>
       <c r="S368" s="21"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="37">
         <v>2</v>
       </c>
@@ -24297,7 +24321,7 @@
       <c r="R369" s="46"/>
       <c r="S369" s="21"/>
     </row>
-    <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="37">
         <v>2</v>
       </c>
@@ -24344,7 +24368,7 @@
       <c r="R370" s="46"/>
       <c r="S370" s="21"/>
     </row>
-    <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="37">
         <v>2</v>
       </c>
@@ -24391,7 +24415,7 @@
       <c r="R371" s="46"/>
       <c r="S371" s="21"/>
     </row>
-    <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="37">
         <v>2</v>
       </c>
@@ -24438,7 +24462,7 @@
       <c r="R372" s="46"/>
       <c r="S372" s="21"/>
     </row>
-    <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="37">
         <v>2</v>
       </c>
@@ -24485,7 +24509,7 @@
       <c r="R373" s="46"/>
       <c r="S373" s="21"/>
     </row>
-    <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="20">
         <v>2</v>
       </c>
@@ -24532,7 +24556,7 @@
       <c r="R374" s="46"/>
       <c r="S374" s="21"/>
     </row>
-    <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="20">
         <v>2</v>
       </c>
@@ -24579,7 +24603,7 @@
       <c r="R375" s="46"/>
       <c r="S375" s="21"/>
     </row>
-    <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="20">
         <v>2</v>
       </c>
@@ -24626,7 +24650,7 @@
       <c r="R376" s="46"/>
       <c r="S376" s="21"/>
     </row>
-    <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="20">
         <v>2</v>
       </c>
@@ -24673,7 +24697,7 @@
       <c r="R377" s="46"/>
       <c r="S377" s="21"/>
     </row>
-    <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="20">
         <v>2</v>
       </c>
@@ -24720,7 +24744,7 @@
       <c r="R378" s="46"/>
       <c r="S378" s="21"/>
     </row>
-    <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="20">
         <v>2</v>
       </c>
@@ -24767,7 +24791,7 @@
       <c r="R379" s="46"/>
       <c r="S379" s="21"/>
     </row>
-    <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="20">
         <v>2</v>
       </c>
@@ -24814,7 +24838,7 @@
       <c r="R380" s="46"/>
       <c r="S380" s="21"/>
     </row>
-    <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="20">
         <v>2</v>
       </c>
@@ -24861,7 +24885,7 @@
       <c r="R381" s="46"/>
       <c r="S381" s="21"/>
     </row>
-    <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="20">
         <v>2</v>
       </c>
@@ -24908,7 +24932,7 @@
       <c r="R382" s="46"/>
       <c r="S382" s="21"/>
     </row>
-    <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="20">
         <v>2</v>
       </c>
@@ -24955,7 +24979,7 @@
       <c r="R383" s="46"/>
       <c r="S383" s="21"/>
     </row>
-    <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="20">
         <v>2</v>
       </c>
@@ -25002,7 +25026,7 @@
       <c r="R384" s="46"/>
       <c r="S384" s="21"/>
     </row>
-    <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="20">
         <v>2</v>
       </c>
@@ -25049,7 +25073,7 @@
       <c r="R385" s="46"/>
       <c r="S385" s="21"/>
     </row>
-    <row r="386" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="20">
         <v>2</v>
       </c>
@@ -25096,7 +25120,7 @@
       <c r="R386" s="46"/>
       <c r="S386" s="21"/>
     </row>
-    <row r="387" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="20">
         <v>2</v>
       </c>
@@ -25143,7 +25167,7 @@
       <c r="R387" s="46"/>
       <c r="S387" s="21"/>
     </row>
-    <row r="388" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="20">
         <v>2</v>
       </c>
@@ -25190,7 +25214,7 @@
       <c r="R388" s="46"/>
       <c r="S388" s="21"/>
     </row>
-    <row r="389" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="20">
         <v>2</v>
       </c>
@@ -25237,7 +25261,7 @@
       <c r="R389" s="46"/>
       <c r="S389" s="21"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="20">
         <v>2</v>
       </c>
@@ -25284,7 +25308,7 @@
       <c r="R390" s="46"/>
       <c r="S390" s="21"/>
     </row>
-    <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="20">
         <v>2</v>
       </c>
@@ -25331,7 +25355,7 @@
       <c r="R391" s="46"/>
       <c r="S391" s="21"/>
     </row>
-    <row r="392" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="20">
         <v>2</v>
       </c>
@@ -25378,7 +25402,7 @@
       <c r="R392" s="46"/>
       <c r="S392" s="21"/>
     </row>
-    <row r="393" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="20">
         <v>2</v>
       </c>
@@ -25425,7 +25449,7 @@
       <c r="R393" s="46"/>
       <c r="S393" s="21"/>
     </row>
-    <row r="394" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="20">
         <v>2</v>
       </c>
@@ -25472,7 +25496,7 @@
       <c r="R394" s="46"/>
       <c r="S394" s="21"/>
     </row>
-    <row r="395" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="20">
         <v>2</v>
       </c>
@@ -25519,7 +25543,7 @@
       <c r="R395" s="46"/>
       <c r="S395" s="21"/>
     </row>
-    <row r="396" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="20">
         <v>2</v>
       </c>
@@ -25566,7 +25590,7 @@
       <c r="R396" s="46"/>
       <c r="S396" s="21"/>
     </row>
-    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="20">
         <v>2</v>
       </c>
@@ -25613,7 +25637,7 @@
       <c r="R397" s="46"/>
       <c r="S397" s="21"/>
     </row>
-    <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="20">
         <v>2</v>
       </c>
@@ -25660,7 +25684,7 @@
       <c r="R398" s="46"/>
       <c r="S398" s="21"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="20">
         <v>2</v>
       </c>
@@ -25707,7 +25731,7 @@
       <c r="R399" s="46"/>
       <c r="S399" s="21"/>
     </row>
-    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="20">
         <v>2</v>
       </c>
@@ -25754,7 +25778,7 @@
       <c r="R400" s="46"/>
       <c r="S400" s="21"/>
     </row>
-    <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="20">
         <v>2</v>
       </c>
@@ -25801,7 +25825,7 @@
       <c r="R401" s="46"/>
       <c r="S401" s="21"/>
     </row>
-    <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="20">
         <v>2</v>
       </c>
@@ -25848,7 +25872,7 @@
       <c r="R402" s="46"/>
       <c r="S402" s="21"/>
     </row>
-    <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="20">
         <v>2</v>
       </c>
@@ -25895,7 +25919,7 @@
       <c r="R403" s="46"/>
       <c r="S403" s="21"/>
     </row>
-    <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="20">
         <v>2</v>
       </c>
@@ -25942,7 +25966,7 @@
       <c r="R404" s="46"/>
       <c r="S404" s="21"/>
     </row>
-    <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="20">
         <v>2</v>
       </c>
@@ -25989,7 +26013,7 @@
       <c r="R405" s="46"/>
       <c r="S405" s="21"/>
     </row>
-    <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="20">
         <v>2</v>
       </c>
@@ -26036,7 +26060,7 @@
       <c r="R406" s="46"/>
       <c r="S406" s="21"/>
     </row>
-    <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="20">
         <v>2</v>
       </c>
@@ -26083,7 +26107,7 @@
       <c r="R407" s="46"/>
       <c r="S407" s="21"/>
     </row>
-    <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="20">
         <v>2</v>
       </c>
@@ -26130,7 +26154,7 @@
       <c r="R408" s="46"/>
       <c r="S408" s="21"/>
     </row>
-    <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="20">
         <v>2</v>
       </c>
@@ -26177,7 +26201,7 @@
       <c r="R409" s="46"/>
       <c r="S409" s="21"/>
     </row>
-    <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="20">
         <v>2</v>
       </c>
@@ -26224,7 +26248,7 @@
       <c r="R410" s="46"/>
       <c r="S410" s="21"/>
     </row>
-    <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="20">
         <v>2</v>
       </c>
@@ -26271,7 +26295,7 @@
       <c r="R411" s="46"/>
       <c r="S411" s="21"/>
     </row>
-    <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20">
         <v>2</v>
       </c>
@@ -26318,7 +26342,7 @@
       <c r="R412" s="46"/>
       <c r="S412" s="21"/>
     </row>
-    <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="20">
         <v>2</v>
       </c>
@@ -26365,7 +26389,7 @@
       <c r="R413" s="46"/>
       <c r="S413" s="21"/>
     </row>
-    <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="20">
         <v>2</v>
       </c>
@@ -26412,7 +26436,7 @@
       <c r="R414" s="46"/>
       <c r="S414" s="21"/>
     </row>
-    <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="20">
         <v>2</v>
       </c>
@@ -26459,7 +26483,7 @@
       <c r="R415" s="46"/>
       <c r="S415" s="21"/>
     </row>
-    <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="20">
         <v>2</v>
       </c>
@@ -26506,7 +26530,7 @@
       <c r="R416" s="46"/>
       <c r="S416" s="21"/>
     </row>
-    <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="20">
         <v>4</v>
       </c>
@@ -26553,7 +26577,7 @@
       <c r="R417" s="46"/>
       <c r="S417" s="21"/>
     </row>
-    <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="20">
         <v>4</v>
       </c>
@@ -26600,7 +26624,7 @@
       <c r="R418" s="46"/>
       <c r="S418" s="21"/>
     </row>
-    <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="20">
         <v>4</v>
       </c>
@@ -26647,7 +26671,7 @@
       <c r="R419" s="46"/>
       <c r="S419" s="21"/>
     </row>
-    <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="20">
         <v>4</v>
       </c>
@@ -26694,7 +26718,7 @@
       <c r="R420" s="46"/>
       <c r="S420" s="21"/>
     </row>
-    <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="20">
         <v>4</v>
       </c>
@@ -26741,7 +26765,7 @@
       <c r="R421" s="46"/>
       <c r="S421" s="21"/>
     </row>
-    <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="20">
         <v>4</v>
       </c>
@@ -26788,7 +26812,7 @@
       <c r="R422" s="46"/>
       <c r="S422" s="21"/>
     </row>
-    <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="20">
         <v>4</v>
       </c>
@@ -26835,7 +26859,7 @@
       <c r="R423" s="46"/>
       <c r="S423" s="21"/>
     </row>
-    <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="20">
         <v>4</v>
       </c>
@@ -26882,7 +26906,7 @@
       <c r="R424" s="46"/>
       <c r="S424" s="21"/>
     </row>
-    <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="20">
         <v>4</v>
       </c>
@@ -26929,7 +26953,7 @@
       <c r="R425" s="46"/>
       <c r="S425" s="21"/>
     </row>
-    <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="20">
         <v>4</v>
       </c>
@@ -26976,7 +27000,7 @@
       <c r="R426" s="46"/>
       <c r="S426" s="21"/>
     </row>
-    <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="20">
         <v>4</v>
       </c>
@@ -27023,7 +27047,7 @@
       <c r="R427" s="46"/>
       <c r="S427" s="21"/>
     </row>
-    <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="20">
         <v>4</v>
       </c>
@@ -27070,7 +27094,7 @@
       <c r="R428" s="46"/>
       <c r="S428" s="21"/>
     </row>
-    <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="20">
         <v>4</v>
       </c>
@@ -27117,7 +27141,7 @@
       <c r="R429" s="46"/>
       <c r="S429" s="21"/>
     </row>
-    <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="20">
         <v>4</v>
       </c>
@@ -27164,7 +27188,7 @@
       <c r="R430" s="46"/>
       <c r="S430" s="21"/>
     </row>
-    <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="20">
         <v>4</v>
       </c>
@@ -27211,7 +27235,7 @@
       <c r="R431" s="46"/>
       <c r="S431" s="21"/>
     </row>
-    <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="20">
         <v>2</v>
       </c>
@@ -27258,7 +27282,7 @@
       <c r="R432" s="46"/>
       <c r="S432" s="21"/>
     </row>
-    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="20">
         <v>4</v>
       </c>
@@ -27305,7 +27329,7 @@
       <c r="R433" s="46"/>
       <c r="S433" s="21"/>
     </row>
-    <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="20">
         <v>4</v>
       </c>
@@ -27352,7 +27376,7 @@
       <c r="R434" s="46"/>
       <c r="S434" s="21"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="20">
         <v>4</v>
       </c>
@@ -27399,7 +27423,7 @@
       <c r="R435" s="46"/>
       <c r="S435" s="21"/>
     </row>
-    <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="20">
         <v>4</v>
       </c>
@@ -27446,7 +27470,7 @@
       <c r="R436" s="46"/>
       <c r="S436" s="21"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="20">
         <v>4</v>
       </c>
@@ -27493,7 +27517,7 @@
       <c r="R437" s="46"/>
       <c r="S437" s="21"/>
     </row>
-    <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="20">
         <v>4</v>
       </c>
@@ -27540,7 +27564,7 @@
       <c r="R438" s="46"/>
       <c r="S438" s="21"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="20">
         <v>4</v>
       </c>
@@ -27587,7 +27611,7 @@
       <c r="R439" s="46"/>
       <c r="S439" s="21"/>
     </row>
-    <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="20">
         <v>4</v>
       </c>
@@ -27634,7 +27658,7 @@
       <c r="R440" s="46"/>
       <c r="S440" s="21"/>
     </row>
-    <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="20">
         <v>4</v>
       </c>
@@ -27681,7 +27705,7 @@
       <c r="R441" s="46"/>
       <c r="S441" s="21"/>
     </row>
-    <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="20">
         <v>4</v>
       </c>
@@ -27728,7 +27752,7 @@
       <c r="R442" s="46"/>
       <c r="S442" s="21"/>
     </row>
-    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="20">
         <v>4</v>
       </c>
@@ -27775,7 +27799,7 @@
       <c r="R443" s="46"/>
       <c r="S443" s="21"/>
     </row>
-    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="20">
         <v>4</v>
       </c>
@@ -27822,7 +27846,7 @@
       <c r="R444" s="46"/>
       <c r="S444" s="21"/>
     </row>
-    <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="20">
         <v>4</v>
       </c>
@@ -27869,7 +27893,7 @@
       <c r="R445" s="46"/>
       <c r="S445" s="21"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="20">
         <v>4</v>
       </c>
@@ -27916,7 +27940,7 @@
       <c r="R446" s="46"/>
       <c r="S446" s="21"/>
     </row>
-    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="20">
         <v>4</v>
       </c>
@@ -27963,7 +27987,7 @@
       <c r="R447" s="46"/>
       <c r="S447" s="21"/>
     </row>
-    <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="20">
         <v>4</v>
       </c>
@@ -28010,7 +28034,7 @@
       <c r="R448" s="46"/>
       <c r="S448" s="21"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="20">
         <v>4</v>
       </c>
@@ -28057,7 +28081,7 @@
       <c r="R449" s="46"/>
       <c r="S449" s="21"/>
     </row>
-    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="20">
         <v>4</v>
       </c>
@@ -28104,7 +28128,7 @@
       <c r="R450" s="46"/>
       <c r="S450" s="21"/>
     </row>
-    <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="20">
         <v>4</v>
       </c>
@@ -28151,7 +28175,7 @@
       <c r="R451" s="46"/>
       <c r="S451" s="21"/>
     </row>
-    <row r="452" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="20">
         <v>4</v>
       </c>
@@ -28198,7 +28222,7 @@
       <c r="R452" s="46"/>
       <c r="S452" s="21"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="20">
         <v>4</v>
       </c>
@@ -28245,7 +28269,7 @@
       <c r="R453" s="46"/>
       <c r="S453" s="21"/>
     </row>
-    <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="20">
         <v>4</v>
       </c>
@@ -28292,7 +28316,7 @@
       <c r="R454" s="46"/>
       <c r="S454" s="21"/>
     </row>
-    <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="20">
         <v>4</v>
       </c>
@@ -28339,7 +28363,7 @@
       <c r="R455" s="46"/>
       <c r="S455" s="21"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="20">
         <v>4</v>
       </c>
@@ -28386,7 +28410,7 @@
       <c r="R456" s="46"/>
       <c r="S456" s="21"/>
     </row>
-    <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="20">
         <v>4</v>
       </c>
@@ -28433,7 +28457,7 @@
       <c r="R457" s="46"/>
       <c r="S457" s="21"/>
     </row>
-    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="20">
         <v>4</v>
       </c>
@@ -28480,7 +28504,7 @@
       <c r="R458" s="46"/>
       <c r="S458" s="21"/>
     </row>
-    <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="20">
         <v>4</v>
       </c>
@@ -28527,7 +28551,7 @@
       <c r="R459" s="46"/>
       <c r="S459" s="21"/>
     </row>
-    <row r="460" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="20">
         <v>4</v>
       </c>
@@ -28574,7 +28598,7 @@
       <c r="R460" s="46"/>
       <c r="S460" s="21"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="20">
         <v>4</v>
       </c>
@@ -28621,7 +28645,7 @@
       <c r="R461" s="46"/>
       <c r="S461" s="21"/>
     </row>
-    <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="20">
         <v>4</v>
       </c>
@@ -28668,7 +28692,7 @@
       <c r="R462" s="46"/>
       <c r="S462" s="21"/>
     </row>
-    <row r="463" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="26">
         <v>2</v>
       </c>
@@ -28715,7 +28739,7 @@
       <c r="R463" s="46"/>
       <c r="S463" s="21"/>
     </row>
-    <row r="464" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="28">
         <v>2</v>
       </c>
@@ -28762,7 +28786,7 @@
       <c r="R464" s="46"/>
       <c r="S464" s="21"/>
     </row>
-    <row r="465" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="38">
         <v>2</v>
       </c>
@@ -28809,7 +28833,7 @@
       <c r="R465" s="46"/>
       <c r="S465" s="21"/>
     </row>
-    <row r="466" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="28">
         <v>2</v>
       </c>
@@ -28856,7 +28880,7 @@
       <c r="R466" s="46"/>
       <c r="S466" s="21"/>
     </row>
-    <row r="467" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="28">
         <v>2</v>
       </c>
@@ -28903,7 +28927,7 @@
       <c r="R467" s="46"/>
       <c r="S467" s="21"/>
     </row>
-    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="28">
         <v>2</v>
       </c>
@@ -28950,7 +28974,7 @@
       <c r="R468" s="46"/>
       <c r="S468" s="21"/>
     </row>
-    <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="38">
         <v>2</v>
       </c>
@@ -28997,7 +29021,7 @@
       <c r="R469" s="46"/>
       <c r="S469" s="21"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="28">
         <v>2</v>
       </c>
@@ -29044,7 +29068,7 @@
       <c r="R470" s="46"/>
       <c r="S470" s="21"/>
     </row>
-    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="28">
         <v>2</v>
       </c>
@@ -29091,7 +29115,7 @@
       <c r="R471" s="46"/>
       <c r="S471" s="21"/>
     </row>
-    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="28">
         <v>2</v>
       </c>
@@ -29138,7 +29162,7 @@
       <c r="R472" s="46"/>
       <c r="S472" s="21"/>
     </row>
-    <row r="473" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="28">
         <v>2</v>
       </c>
@@ -29185,7 +29209,7 @@
       <c r="R473" s="46"/>
       <c r="S473" s="21"/>
     </row>
-    <row r="474" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="28" t="s">
         <v>450</v>
       </c>
@@ -29232,7 +29256,7 @@
       <c r="R474" s="46"/>
       <c r="S474" s="21"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="28">
         <v>2</v>
       </c>
@@ -29279,7 +29303,7 @@
       <c r="R475" s="46"/>
       <c r="S475" s="21"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="28">
         <v>2</v>
       </c>
@@ -29326,7 +29350,7 @@
       <c r="R476" s="46"/>
       <c r="S476" s="21"/>
     </row>
-    <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="28">
         <v>2</v>
       </c>
@@ -29373,7 +29397,7 @@
       <c r="R477" s="46"/>
       <c r="S477" s="21"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="38">
         <v>2</v>
       </c>
@@ -29420,7 +29444,7 @@
       <c r="R478" s="46"/>
       <c r="S478" s="21"/>
     </row>
-    <row r="479" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="28" t="s">
         <v>450</v>
       </c>
@@ -29467,7 +29491,7 @@
       <c r="R479" s="46"/>
       <c r="S479" s="21"/>
     </row>
-    <row r="480" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="28">
         <v>2</v>
       </c>
@@ -29514,7 +29538,7 @@
       <c r="R480" s="46"/>
       <c r="S480" s="21"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="28">
         <v>2</v>
       </c>
@@ -29561,7 +29585,7 @@
       <c r="R481" s="46"/>
       <c r="S481" s="21"/>
     </row>
-    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="38">
         <v>2</v>
       </c>
@@ -29608,7 +29632,7 @@
       <c r="R482" s="46"/>
       <c r="S482" s="21"/>
     </row>
-    <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="28" t="s">
         <v>450</v>
       </c>
@@ -29655,7 +29679,7 @@
       <c r="R483" s="46"/>
       <c r="S483" s="21"/>
     </row>
-    <row r="484" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="28">
         <v>2</v>
       </c>
@@ -29702,7 +29726,7 @@
       <c r="R484" s="46"/>
       <c r="S484" s="21"/>
     </row>
-    <row r="485" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="28">
         <v>2</v>
       </c>
@@ -29749,7 +29773,7 @@
       <c r="R485" s="46"/>
       <c r="S485" s="21"/>
     </row>
-    <row r="486" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="38">
         <v>2</v>
       </c>
@@ -29796,7 +29820,7 @@
       <c r="R486" s="46"/>
       <c r="S486" s="21"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="28">
         <v>2</v>
       </c>
@@ -29843,7 +29867,7 @@
       <c r="R487" s="46"/>
       <c r="S487" s="21"/>
     </row>
-    <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="28">
         <v>2</v>
       </c>
@@ -29890,7 +29914,7 @@
       <c r="R488" s="46"/>
       <c r="S488" s="21"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="28" t="s">
         <v>450</v>
       </c>
@@ -29937,7 +29961,7 @@
       <c r="R489" s="46"/>
       <c r="S489" s="21"/>
     </row>
-    <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="28">
         <v>2</v>
       </c>
@@ -29984,7 +30008,7 @@
       <c r="R490" s="46"/>
       <c r="S490" s="21"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="28">
         <v>2</v>
       </c>
@@ -30031,7 +30055,7 @@
       <c r="R491" s="46"/>
       <c r="S491" s="21"/>
     </row>
-    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="28" t="s">
         <v>450</v>
       </c>
@@ -30078,7 +30102,7 @@
       <c r="R492" s="46"/>
       <c r="S492" s="21"/>
     </row>
-    <row r="493" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="28">
         <v>2</v>
       </c>
@@ -30125,7 +30149,7 @@
       <c r="R493" s="46"/>
       <c r="S493" s="21"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="28">
         <v>2</v>
       </c>
@@ -30172,7 +30196,7 @@
       <c r="R494" s="46"/>
       <c r="S494" s="21"/>
     </row>
-    <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="28" t="s">
         <v>450</v>
       </c>
@@ -30219,7 +30243,7 @@
       <c r="R495" s="46"/>
       <c r="S495" s="21"/>
     </row>
-    <row r="496" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="28">
         <v>2</v>
       </c>
@@ -30266,7 +30290,7 @@
       <c r="R496" s="46"/>
       <c r="S496" s="21"/>
     </row>
-    <row r="497" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="28" t="s">
         <v>450</v>
       </c>
@@ -30313,7 +30337,7 @@
       <c r="R497" s="46"/>
       <c r="S497" s="21"/>
     </row>
-    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="28">
         <v>2</v>
       </c>
@@ -30360,7 +30384,7 @@
       <c r="R498" s="46"/>
       <c r="S498" s="21"/>
     </row>
-    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="28" t="s">
         <v>450</v>
       </c>
@@ -30407,7 +30431,7 @@
       <c r="R499" s="46"/>
       <c r="S499" s="21"/>
     </row>
-    <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="28">
         <v>2</v>
       </c>
@@ -30454,7 +30478,7 @@
       <c r="R500" s="46"/>
       <c r="S500" s="21"/>
     </row>
-    <row r="501" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="28">
         <v>4</v>
       </c>
@@ -30501,7 +30525,7 @@
       <c r="R501" s="46"/>
       <c r="S501" s="21"/>
     </row>
-    <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="28">
         <v>4</v>
       </c>
@@ -30548,7 +30572,7 @@
       <c r="R502" s="46"/>
       <c r="S502" s="21"/>
     </row>
-    <row r="503" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="28" t="s">
         <v>450</v>
       </c>
@@ -30595,7 +30619,7 @@
       <c r="R503" s="46"/>
       <c r="S503" s="21"/>
     </row>
-    <row r="504" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="38">
         <v>2</v>
       </c>
@@ -30642,7 +30666,7 @@
       <c r="R504" s="46"/>
       <c r="S504" s="21"/>
     </row>
-    <row r="505" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="28" t="s">
         <v>450</v>
       </c>
@@ -30689,7 +30713,7 @@
       <c r="R505" s="46"/>
       <c r="S505" s="21"/>
     </row>
-    <row r="506" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="28" t="s">
         <v>450</v>
       </c>
@@ -30736,7 +30760,7 @@
       <c r="R506" s="46"/>
       <c r="S506" s="21"/>
     </row>
-    <row r="507" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="28" t="s">
         <v>450</v>
       </c>
@@ -30783,7 +30807,7 @@
       <c r="R507" s="46"/>
       <c r="S507" s="21"/>
     </row>
-    <row r="508" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="38">
         <v>2</v>
       </c>
@@ -30816,7 +30840,7 @@
       <c r="R508" s="46"/>
       <c r="S508" s="21"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="38">
         <v>2</v>
       </c>
@@ -30849,7 +30873,7 @@
       <c r="R509" s="46"/>
       <c r="S509" s="21"/>
     </row>
-    <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="38">
         <v>2</v>
       </c>
@@ -30882,7 +30906,7 @@
       <c r="R510" s="46"/>
       <c r="S510" s="21"/>
     </row>
-    <row r="511" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="38">
         <v>2</v>
       </c>
@@ -30915,7 +30939,7 @@
       <c r="R511" s="46"/>
       <c r="S511" s="21"/>
     </row>
-    <row r="512" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="28" t="s">
         <v>450</v>
       </c>
@@ -30962,7 +30986,7 @@
       <c r="R512" s="46"/>
       <c r="S512" s="21"/>
     </row>
-    <row r="513" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="28">
         <v>8</v>
       </c>
@@ -31019,7 +31043,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="28">
         <v>8</v>
       </c>
@@ -31076,7 +31100,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="28">
         <v>8</v>
       </c>
@@ -31133,7 +31157,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="28">
         <v>8</v>
       </c>
@@ -31190,7 +31214,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="28">
         <v>8</v>
       </c>
@@ -31247,7 +31271,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="28">
         <v>8</v>
       </c>
@@ -31304,7 +31328,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="28">
         <v>8</v>
       </c>
@@ -31361,7 +31385,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="28">
         <v>8</v>
       </c>
@@ -31418,7 +31442,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="28">
         <v>8</v>
       </c>
@@ -31469,7 +31493,7 @@
       <c r="R521" s="46"/>
       <c r="S521" s="21"/>
     </row>
-    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="28">
         <v>8</v>
       </c>
@@ -31520,7 +31544,7 @@
       <c r="R522" s="46"/>
       <c r="S522" s="21"/>
     </row>
-    <row r="523" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="28">
         <v>8</v>
       </c>
@@ -31577,7 +31601,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="28">
         <v>8</v>
       </c>
@@ -31634,7 +31658,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="28">
         <v>8</v>
       </c>
@@ -31691,7 +31715,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="28">
         <v>8</v>
       </c>
@@ -31748,7 +31772,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="28">
         <v>8</v>
       </c>
@@ -31805,7 +31829,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="28">
         <v>8</v>
       </c>
@@ -31862,7 +31886,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="28">
         <v>8</v>
       </c>
@@ -31919,7 +31943,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="28">
         <v>8</v>
       </c>
@@ -31976,7 +32000,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="26">
         <v>1</v>
       </c>
@@ -32023,7 +32047,7 @@
       <c r="R531" s="46"/>
       <c r="S531" s="21"/>
     </row>
-    <row r="532" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="28">
         <v>8</v>
       </c>
@@ -32080,7 +32104,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="28">
         <v>8</v>
       </c>
@@ -32137,7 +32161,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="28">
         <v>8</v>
       </c>
@@ -32194,7 +32218,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="28">
         <v>8</v>
       </c>
@@ -32251,7 +32275,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="28">
         <v>8</v>
       </c>
@@ -32308,7 +32332,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="28">
         <v>8</v>
       </c>
@@ -32365,7 +32389,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="28">
         <v>8</v>
       </c>
@@ -32412,7 +32436,7 @@
       <c r="R538" s="46"/>
       <c r="S538" s="21"/>
     </row>
-    <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="28">
         <v>8</v>
       </c>
@@ -32459,7 +32483,7 @@
       <c r="R539" s="46"/>
       <c r="S539" s="21"/>
     </row>
-    <row r="540" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="28">
         <v>8</v>
       </c>
@@ -32506,7 +32530,7 @@
       <c r="R540" s="46"/>
       <c r="S540" s="21"/>
     </row>
-    <row r="541" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="26">
         <v>1</v>
       </c>
@@ -32553,7 +32577,7 @@
       <c r="R541" s="46"/>
       <c r="S541" s="21"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="28">
         <v>8</v>
       </c>
@@ -32600,7 +32624,7 @@
       <c r="R542" s="46"/>
       <c r="S542" s="21"/>
     </row>
-    <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="28">
         <v>8</v>
       </c>
@@ -32647,7 +32671,7 @@
       <c r="R543" s="46"/>
       <c r="S543" s="21"/>
     </row>
-    <row r="544" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="28">
         <v>8</v>
       </c>
@@ -32694,7 +32718,7 @@
       <c r="R544" s="46"/>
       <c r="S544" s="21"/>
     </row>
-    <row r="545" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="28">
         <v>8</v>
       </c>
@@ -32741,7 +32765,7 @@
       <c r="R545" s="46"/>
       <c r="S545" s="21"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="28">
         <v>8</v>
       </c>
@@ -32788,7 +32812,7 @@
       <c r="R546" s="46"/>
       <c r="S546" s="21"/>
     </row>
-    <row r="547" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="28">
         <v>8</v>
       </c>
@@ -32835,7 +32859,7 @@
       <c r="R547" s="46"/>
       <c r="S547" s="21"/>
     </row>
-    <row r="548" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="28">
         <v>8</v>
       </c>
@@ -32882,7 +32906,7 @@
       <c r="R548" s="46"/>
       <c r="S548" s="21"/>
     </row>
-    <row r="549" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="28">
         <v>8</v>
       </c>
@@ -32929,7 +32953,7 @@
       <c r="R549" s="46"/>
       <c r="S549" s="21"/>
     </row>
-    <row r="550" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="28">
         <v>8</v>
       </c>
@@ -32976,7 +33000,7 @@
       <c r="R550" s="46"/>
       <c r="S550" s="21"/>
     </row>
-    <row r="551" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="28">
         <v>8</v>
       </c>
@@ -33023,7 +33047,7 @@
       <c r="R551" s="46"/>
       <c r="S551" s="21"/>
     </row>
-    <row r="552" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="28">
         <v>8</v>
       </c>
@@ -33070,7 +33094,7 @@
       <c r="R552" s="46"/>
       <c r="S552" s="21"/>
     </row>
-    <row r="553" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="28">
         <v>8</v>
       </c>
@@ -33117,7 +33141,7 @@
       <c r="R553" s="46"/>
       <c r="S553" s="21"/>
     </row>
-    <row r="554" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="28">
         <v>3</v>
       </c>
@@ -33164,7 +33188,7 @@
       <c r="R554" s="46"/>
       <c r="S554" s="21"/>
     </row>
-    <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="28">
         <v>3</v>
       </c>
@@ -33211,7 +33235,7 @@
       <c r="R555" s="46"/>
       <c r="S555" s="21"/>
     </row>
-    <row r="556" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="26">
         <v>8</v>
       </c>
@@ -33258,7 +33282,7 @@
       <c r="R556" s="46"/>
       <c r="S556" s="21"/>
     </row>
-    <row r="557" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="26">
         <v>8</v>
       </c>
@@ -33305,7 +33329,7 @@
       <c r="R557" s="46"/>
       <c r="S557" s="21"/>
     </row>
-    <row r="558" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="26">
         <v>8</v>
       </c>
@@ -33352,7 +33376,7 @@
       <c r="R558" s="46"/>
       <c r="S558" s="21"/>
     </row>
-    <row r="559" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="26">
         <v>8</v>
       </c>
@@ -33399,7 +33423,7 @@
       <c r="R559" s="46"/>
       <c r="S559" s="21"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="26">
         <v>8</v>
       </c>
@@ -33446,7 +33470,7 @@
       <c r="R560" s="46"/>
       <c r="S560" s="21"/>
     </row>
-    <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="26">
         <v>8</v>
       </c>
@@ -33493,7 +33517,7 @@
       <c r="R561" s="46"/>
       <c r="S561" s="21"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="26">
         <v>8</v>
       </c>
@@ -33540,7 +33564,7 @@
       <c r="R562" s="46"/>
       <c r="S562" s="21"/>
     </row>
-    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="26">
         <v>8</v>
       </c>
@@ -33587,7 +33611,7 @@
       <c r="R563" s="46"/>
       <c r="S563" s="21"/>
     </row>
-    <row r="564" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="26">
         <v>8</v>
       </c>
@@ -33634,7 +33658,7 @@
       <c r="R564" s="46"/>
       <c r="S564" s="21"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="26">
         <v>8</v>
       </c>
@@ -33681,7 +33705,7 @@
       <c r="R565" s="46"/>
       <c r="S565" s="21"/>
     </row>
-    <row r="566" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="26">
         <v>8</v>
       </c>
@@ -33728,7 +33752,7 @@
       <c r="R566" s="46"/>
       <c r="S566" s="21"/>
     </row>
-    <row r="567" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="26">
         <v>8</v>
       </c>
@@ -33775,7 +33799,7 @@
       <c r="R567" s="46"/>
       <c r="S567" s="21"/>
     </row>
-    <row r="568" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="26">
         <v>8</v>
       </c>
@@ -33822,7 +33846,7 @@
       <c r="R568" s="46"/>
       <c r="S568" s="21"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="26">
         <v>8</v>
       </c>
@@ -33869,7 +33893,7 @@
       <c r="R569" s="46"/>
       <c r="S569" s="21"/>
     </row>
-    <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="26">
         <v>8</v>
       </c>
@@ -33916,7 +33940,7 @@
       <c r="R570" s="46"/>
       <c r="S570" s="21"/>
     </row>
-    <row r="571" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="26">
         <v>8</v>
       </c>
@@ -33963,7 +33987,7 @@
       <c r="R571" s="46"/>
       <c r="S571" s="21"/>
     </row>
-    <row r="572" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="26">
         <v>8</v>
       </c>
@@ -34010,7 +34034,7 @@
       <c r="R572" s="46"/>
       <c r="S572" s="21"/>
     </row>
-    <row r="573" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="26">
         <v>8</v>
       </c>
@@ -34057,7 +34081,7 @@
       <c r="R573" s="46"/>
       <c r="S573" s="21"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="26">
         <v>8</v>
       </c>
@@ -34104,7 +34128,7 @@
       <c r="R574" s="46"/>
       <c r="S574" s="21"/>
     </row>
-    <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="26">
         <v>8</v>
       </c>
@@ -34151,7 +34175,7 @@
       <c r="R575" s="46"/>
       <c r="S575" s="21"/>
     </row>
-    <row r="576" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="26">
         <v>8</v>
       </c>
@@ -34198,7 +34222,7 @@
       <c r="R576" s="46"/>
       <c r="S576" s="21"/>
     </row>
-    <row r="577" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="26">
         <v>8</v>
       </c>
@@ -34245,7 +34269,7 @@
       <c r="R577" s="46"/>
       <c r="S577" s="21"/>
     </row>
-    <row r="578" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="26">
         <v>8</v>
       </c>
@@ -34292,7 +34316,7 @@
       <c r="R578" s="46"/>
       <c r="S578" s="21"/>
     </row>
-    <row r="579" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="26">
         <v>8</v>
       </c>
@@ -34339,7 +34363,7 @@
       <c r="R579" s="46"/>
       <c r="S579" s="21"/>
     </row>
-    <row r="580" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="26">
         <v>8</v>
       </c>
@@ -34386,7 +34410,7 @@
       <c r="R580" s="46"/>
       <c r="S580" s="21"/>
     </row>
-    <row r="581" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="26">
         <v>8</v>
       </c>
@@ -34433,7 +34457,7 @@
       <c r="R581" s="46"/>
       <c r="S581" s="21"/>
     </row>
-    <row r="582" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="26">
         <v>8</v>
       </c>
@@ -34480,7 +34504,7 @@
       <c r="R582" s="46"/>
       <c r="S582" s="21"/>
     </row>
-    <row r="583" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="26">
         <v>8</v>
       </c>
@@ -34527,7 +34551,7 @@
       <c r="R583" s="46"/>
       <c r="S583" s="21"/>
     </row>
-    <row r="584" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="26">
         <v>8</v>
       </c>
@@ -34574,7 +34598,7 @@
       <c r="R584" s="46"/>
       <c r="S584" s="21"/>
     </row>
-    <row r="585" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="26">
         <v>8</v>
       </c>
@@ -34623,9 +34647,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S585" xr:uid="{462B357B-D08B-41C7-9173-012688EAF9F7}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Ja"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="13">
       <filters>
-        <filter val="opdracht_6"/>
+        <filter val="opdracht_3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -34893,7 +34922,7 @@
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34908,17 +34937,17 @@
       <selection activeCell="A22" sqref="A22:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="117.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="117.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="9.109375" style="1"/>
     <col min="26" max="45" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="1"/>
+    <col min="46" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="47" t="s">
         <v>65</v>
       </c>
@@ -34927,7 +34956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>449</v>
       </c>
@@ -34935,7 +34964,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -34943,7 +34972,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -34951,7 +34980,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -34959,7 +34988,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -34967,7 +34996,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -34975,7 +35004,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -34983,7 +35012,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -34991,7 +35020,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -34999,7 +35028,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>450</v>
       </c>
@@ -35007,8 +35036,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -35016,7 +35045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>453</v>
       </c>
@@ -35024,8 +35053,8 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
@@ -35033,7 +35062,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>503</v>
       </c>
@@ -35041,7 +35070,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>462</v>
       </c>
@@ -35049,7 +35078,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>159</v>
       </c>
@@ -35057,7 +35086,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1014</v>
       </c>
@@ -35065,10 +35094,10 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>66</v>
       </c>
@@ -35076,7 +35105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -35084,7 +35113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>160</v>
       </c>
@@ -35092,10 +35121,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1035</v>
       </c>
@@ -35103,7 +35132,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -35111,7 +35140,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -35119,10 +35148,10 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
@@ -35130,7 +35159,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1016</v>
       </c>
@@ -35138,7 +35167,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1017</v>
       </c>
@@ -35146,7 +35175,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1018</v>
       </c>
@@ -35154,7 +35183,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1019</v>
       </c>
@@ -35162,7 +35191,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1020</v>
       </c>
@@ -35170,7 +35199,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1022</v>
       </c>
@@ -35178,7 +35207,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1021</v>
       </c>
@@ -35186,20 +35215,20 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
   </sheetData>
@@ -35442,18 +35471,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35476,14 +35505,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -35498,4 +35519,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F00B1E8-196F-4FCD-8D58-B29CE5546B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15C0116-5B58-452C-A02E-934E9AC5953F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7800" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7801" uniqueCount="1257">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3831,9 +3831,6 @@
   </si>
   <si>
     <t>(Geonovum) DatumBekendmaking-fout (LVBB1511)</t>
-  </si>
-  <si>
-    <t>(Geonovum) Nog te testen zodra we een Digikoppeling zonder transformaties hebben.</t>
   </si>
   <si>
     <t>(Geonovum) kijken hoe en wat.</t>
@@ -5406,9 +5403,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42:S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5480,7 +5477,7 @@
         <v>1234</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="S1" s="43" t="s">
         <v>1233</v>
@@ -6383,7 +6380,7 @@
         <v>44166</v>
       </c>
       <c r="R20" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S20" s="21" t="s">
         <v>1237</v>
@@ -6440,7 +6437,7 @@
         <v>44166</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S21" s="21" t="s">
         <v>1237</v>
@@ -6497,7 +6494,7 @@
         <v>44166</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S22" s="21" t="s">
         <v>1237</v>
@@ -6554,7 +6551,7 @@
         <v>44166</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S23" s="21" t="s">
         <v>1237</v>
@@ -6611,7 +6608,7 @@
         <v>44166</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S24" s="21" t="s">
         <v>1237</v>
@@ -6668,7 +6665,7 @@
         <v>44166</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S25" s="21" t="s">
         <v>1237</v>
@@ -6725,7 +6722,7 @@
         <v>44166</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S26" s="21" t="s">
         <v>1237</v>
@@ -6782,7 +6779,7 @@
         <v>44166</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S27" s="21" t="s">
         <v>1237</v>
@@ -6839,7 +6836,7 @@
         <v>44166</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S28" s="21" t="s">
         <v>1237</v>
@@ -6896,7 +6893,7 @@
         <v>44166</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S29" s="21" t="s">
         <v>1237</v>
@@ -6953,7 +6950,7 @@
         <v>44166</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S30" s="21" t="s">
         <v>1237</v>
@@ -7010,7 +7007,7 @@
         <v>44166</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S31" s="21" t="s">
         <v>1237</v>
@@ -7067,7 +7064,7 @@
         <v>44166</v>
       </c>
       <c r="R32" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S32" s="21" t="s">
         <v>1237</v>
@@ -7124,7 +7121,7 @@
         <v>44166</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S33" s="21" t="s">
         <v>1237</v>
@@ -7384,7 +7381,7 @@
       </c>
       <c r="R38" s="46"/>
       <c r="S38" s="21" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7441,7 +7438,7 @@
       </c>
       <c r="R39" s="46"/>
       <c r="S39" s="21" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7498,10 +7495,10 @@
       </c>
       <c r="R40" s="46"/>
       <c r="S40" s="21" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <v>1</v>
       </c>
@@ -7542,17 +7539,23 @@
         <v>25</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="46"/>
+      <c r="P41" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q41" s="46">
+        <v>44167</v>
+      </c>
       <c r="R41" s="46"/>
-      <c r="S41" s="21"/>
-    </row>
-    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S41" s="21" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -7598,15 +7601,15 @@
       <c r="O42" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P42" s="21" t="s">
-        <v>1236</v>
+      <c r="P42" s="21">
+        <v>500</v>
       </c>
       <c r="Q42" s="46">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="R42" s="46"/>
       <c r="S42" s="21" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7660,7 +7663,7 @@
       <c r="R43" s="46"/>
       <c r="S43" s="21"/>
     </row>
-    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>1</v>
       </c>
@@ -7706,15 +7709,15 @@
       <c r="O44" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P44" s="21" t="s">
-        <v>1236</v>
+      <c r="P44" s="21">
+        <v>500</v>
       </c>
       <c r="Q44" s="46">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="R44" s="46"/>
       <c r="S44" s="21" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7821,7 +7824,7 @@
         <v>44166</v>
       </c>
       <c r="R46" s="46" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="S46" s="21" t="s">
         <v>1238</v>
@@ -7880,7 +7883,7 @@
         <v>44166</v>
       </c>
       <c r="R47" s="46" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="S47" s="21" t="s">
         <v>1239</v>
@@ -7990,10 +7993,10 @@
         <v>44166</v>
       </c>
       <c r="R49" s="46" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8049,7 +8052,7 @@
         <v>44166</v>
       </c>
       <c r="R50" s="46" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="S50" s="21" t="s">
         <v>1235</v>
@@ -8494,10 +8497,16 @@
       <c r="O58" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="46"/>
+      <c r="P58" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="46">
+        <v>44167</v>
+      </c>
       <c r="R58" s="46"/>
-      <c r="S58" s="21"/>
+      <c r="S58" s="21" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
@@ -8545,10 +8554,16 @@
       <c r="O59" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="46"/>
+      <c r="P59" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="46">
+        <v>44167</v>
+      </c>
       <c r="R59" s="46"/>
-      <c r="S59" s="21"/>
+      <c r="S59" s="21" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
@@ -20977,7 +20992,7 @@
       </c>
       <c r="R302" s="46"/>
       <c r="S302" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22209,7 +22224,7 @@
       </c>
       <c r="R326" s="46"/>
       <c r="S326" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22374,7 +22389,7 @@
       </c>
       <c r="R329" s="46"/>
       <c r="S329" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22539,7 +22554,7 @@
       </c>
       <c r="R332" s="46"/>
       <c r="S332" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34655,6 +34670,7 @@
     <filterColumn colId="13">
       <filters>
         <filter val="opdracht_3"/>
+        <filter val="opdracht_4"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15C0116-5B58-452C-A02E-934E9AC5953F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C3F6CC-649E-4DE4-BE17-9D967CA18228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Legenda!$A:$B,Legenda!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7801" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7805" uniqueCount="1258">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3858,6 +3859,9 @@
   </si>
   <si>
     <t>opdracht_17</t>
+  </si>
+  <si>
+    <t>opdracht_18</t>
   </si>
 </sst>
 </file>
@@ -5403,9 +5407,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42:S42"/>
+      <selection pane="bottomLeft" activeCell="O593" sqref="O593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7384,7 +7388,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -7441,7 +7445,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>25</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1242</v>
+        <v>1257</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>1066</v>
@@ -7555,7 +7559,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -7658,12 +7662,18 @@
       <c r="O43" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="46"/>
+      <c r="P43" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="46">
+        <v>44167</v>
+      </c>
       <c r="R43" s="46"/>
-      <c r="S43" s="21"/>
-    </row>
-    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S43" s="21" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>1</v>
       </c>
@@ -7766,10 +7776,16 @@
       <c r="O45" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="46"/>
+      <c r="P45" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="46">
+        <v>44167</v>
+      </c>
       <c r="R45" s="46"/>
-      <c r="S45" s="21"/>
+      <c r="S45" s="21" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27">
@@ -7935,10 +7951,16 @@
       <c r="O48" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="46"/>
+      <c r="P48" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q48" s="46">
+        <v>44167</v>
+      </c>
       <c r="R48" s="46"/>
-      <c r="S48" s="21"/>
+      <c r="S48" s="21" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27">
@@ -8104,10 +8126,16 @@
       <c r="O51" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="46"/>
+      <c r="P51" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q51" s="46">
+        <v>44167</v>
+      </c>
       <c r="R51" s="46"/>
-      <c r="S51" s="21"/>
+      <c r="S51" s="21" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="52" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27">
@@ -8451,7 +8479,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>1</v>
       </c>
@@ -8508,7 +8536,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>1</v>
       </c>
@@ -34669,8 +34697,7 @@
     </filterColumn>
     <filterColumn colId="13">
       <filters>
-        <filter val="opdracht_3"/>
-        <filter val="opdracht_4"/>
+        <filter val="opdracht_2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -35487,18 +35514,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35521,6 +35548,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -35535,12 +35570,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C3F6CC-649E-4DE4-BE17-9D967CA18228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A912BA-140E-408C-AF27-3D29E8B377BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7805" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7836" uniqueCount="1263">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3795,9 +3795,6 @@
     <t>TestDatum</t>
   </si>
   <si>
-    <t>Deze fout kwam terug via OOW-web</t>
-  </si>
-  <si>
     <t>NOK</t>
   </si>
   <si>
@@ -3816,18 +3813,9 @@
     <t>opdracht_1</t>
   </si>
   <si>
-    <t>opdracht_2</t>
-  </si>
-  <si>
     <t>opdracht_3</t>
   </si>
   <si>
-    <t>opdracht_4</t>
-  </si>
-  <si>
-    <t>opdracht_5</t>
-  </si>
-  <si>
     <t>Request entity too large (413 http fout)</t>
   </si>
   <si>
@@ -3858,10 +3846,37 @@
     <t>Internal Server Error</t>
   </si>
   <si>
-    <t>opdracht_17</t>
-  </si>
-  <si>
-    <t>opdracht_18</t>
+    <t>opdracht_lvbb1002</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1003</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1005</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1006</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1007</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1008</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1004</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1011</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1015</t>
+  </si>
+  <si>
+    <t>Deze fout kwam terug via OOW-web, maar op het foute bestand</t>
+  </si>
+  <si>
+    <t>Internal server error</t>
   </si>
 </sst>
 </file>
@@ -5409,7 +5424,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O593" sqref="O593"/>
+      <selection pane="bottomLeft" activeCell="P65" sqref="P65:P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5421,7 +5436,7 @@
     <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" style="13" customWidth="1"/>
     <col min="9" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" customWidth="1"/>
     <col min="15" max="15" width="5.33203125" customWidth="1"/>
     <col min="16" max="16" width="15.44140625" customWidth="1"/>
     <col min="17" max="18" width="11" style="44" customWidth="1"/>
@@ -5481,7 +5496,7 @@
         <v>1234</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="S1" s="43" t="s">
         <v>1233</v>
@@ -6378,16 +6393,16 @@
       </c>
       <c r="O20" s="21"/>
       <c r="P20" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q20" s="46">
         <v>44166</v>
       </c>
       <c r="R20" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6435,16 +6450,16 @@
       </c>
       <c r="O21" s="21"/>
       <c r="P21" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q21" s="46">
         <v>44166</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6492,16 +6507,16 @@
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q22" s="46">
         <v>44166</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6549,16 +6564,16 @@
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q23" s="46">
         <v>44166</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6606,16 +6621,16 @@
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q24" s="46">
         <v>44166</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6663,16 +6678,16 @@
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q25" s="46">
         <v>44166</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6720,16 +6735,16 @@
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q26" s="46">
         <v>44166</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6777,16 +6792,16 @@
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q27" s="46">
         <v>44166</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6834,16 +6849,16 @@
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q28" s="46">
         <v>44166</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6891,16 +6906,16 @@
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q29" s="46">
         <v>44166</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6948,16 +6963,16 @@
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q30" s="46">
         <v>44166</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7005,16 +7020,16 @@
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q31" s="46">
         <v>44166</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7062,16 +7077,16 @@
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q32" s="46">
         <v>44166</v>
       </c>
       <c r="R32" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7119,16 +7134,16 @@
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q33" s="46">
         <v>44166</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7372,7 +7387,7 @@
         <v>25</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>1066</v>
@@ -7385,10 +7400,10 @@
       </c>
       <c r="R38" s="46"/>
       <c r="S38" s="21" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -7429,7 +7444,7 @@
         <v>25</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>1242</v>
+        <v>1252</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>1066</v>
@@ -7442,10 +7457,10 @@
       </c>
       <c r="R39" s="46"/>
       <c r="S39" s="21" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -7486,7 +7501,7 @@
         <v>25</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>1066</v>
@@ -7499,7 +7514,7 @@
       </c>
       <c r="R40" s="46"/>
       <c r="S40" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7543,7 +7558,7 @@
         <v>25</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>1066</v>
@@ -7556,7 +7571,7 @@
       </c>
       <c r="R41" s="46"/>
       <c r="S41" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7600,7 +7615,7 @@
         <v>25</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>1244</v>
+        <v>1254</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>1066</v>
@@ -7613,7 +7628,7 @@
       </c>
       <c r="R42" s="46"/>
       <c r="S42" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7657,7 +7672,7 @@
         <v>25</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>1245</v>
+        <v>1255</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>1066</v>
@@ -7670,7 +7685,7 @@
       </c>
       <c r="R43" s="46"/>
       <c r="S43" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7714,7 +7729,7 @@
         <v>25</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>1066</v>
@@ -7727,7 +7742,7 @@
       </c>
       <c r="R44" s="46"/>
       <c r="S44" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7771,7 +7786,7 @@
         <v>25</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>1066</v>
@@ -7784,7 +7799,7 @@
       </c>
       <c r="R45" s="46"/>
       <c r="S45" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7834,16 +7849,16 @@
         <v>1067</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q46" s="46">
         <v>44166</v>
       </c>
       <c r="R46" s="46" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7893,16 +7908,16 @@
         <v>1067</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q47" s="46">
         <v>44166</v>
       </c>
       <c r="R47" s="46" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7946,7 +7961,7 @@
         <v>25</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>1245</v>
+        <v>1259</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>1066</v>
@@ -7959,7 +7974,7 @@
       </c>
       <c r="R48" s="46"/>
       <c r="S48" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8009,16 +8024,16 @@
         <v>1067</v>
       </c>
       <c r="P49" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q49" s="46">
         <v>44166</v>
       </c>
       <c r="R49" s="46" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8074,10 +8089,10 @@
         <v>44166</v>
       </c>
       <c r="R50" s="46" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>1235</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8136,7 @@
         <v>25</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>1245</v>
+        <v>1260</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>1066</v>
@@ -8134,7 +8149,7 @@
       </c>
       <c r="R51" s="46"/>
       <c r="S51" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8184,14 +8199,14 @@
         <v>1067</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q52" s="46">
         <v>44166</v>
       </c>
       <c r="R52" s="46"/>
       <c r="S52" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8241,14 +8256,14 @@
         <v>1067</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q53" s="46">
         <v>44166</v>
       </c>
       <c r="R53" s="46"/>
       <c r="S53" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8298,14 +8313,14 @@
         <v>1067</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q54" s="46">
         <v>44166</v>
       </c>
       <c r="R54" s="46"/>
       <c r="S54" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8355,14 +8370,14 @@
         <v>1067</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q55" s="46">
         <v>44166</v>
       </c>
       <c r="R55" s="46"/>
       <c r="S55" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8412,14 +8427,14 @@
         <v>1067</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q56" s="46">
         <v>44166</v>
       </c>
       <c r="R56" s="46"/>
       <c r="S56" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8469,14 +8484,14 @@
         <v>1067</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q57" s="46">
         <v>44166</v>
       </c>
       <c r="R57" s="46"/>
       <c r="S57" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8520,7 +8535,7 @@
         <v>25</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>1067</v>
@@ -8533,7 +8548,7 @@
       </c>
       <c r="R58" s="46"/>
       <c r="S58" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8577,7 +8592,7 @@
         <v>25</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="O59" s="21" t="s">
         <v>1067</v>
@@ -8590,7 +8605,7 @@
       </c>
       <c r="R59" s="46"/>
       <c r="S59" s="21" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8734,7 +8749,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>2</v>
       </c>
@@ -8780,10 +8795,16 @@
       <c r="O63" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="46"/>
+      <c r="P63" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q63" s="46">
+        <v>44167</v>
+      </c>
       <c r="R63" s="46"/>
-      <c r="S63" s="21"/>
+      <c r="S63" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
@@ -8832,7 +8853,7 @@
       <c r="R64" s="46"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>2</v>
       </c>
@@ -8878,10 +8899,16 @@
       <c r="O65" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="46"/>
+      <c r="P65" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q65" s="46">
+        <v>44167</v>
+      </c>
       <c r="R65" s="46"/>
-      <c r="S65" s="21"/>
+      <c r="S65" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
@@ -9326,7 +9353,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>2</v>
       </c>
@@ -9372,10 +9399,16 @@
       <c r="O75" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="46"/>
+      <c r="P75" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q75" s="46">
+        <v>44167</v>
+      </c>
       <c r="R75" s="46"/>
-      <c r="S75" s="21"/>
+      <c r="S75" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="29">
@@ -9898,14 +9931,14 @@
         <v>1067</v>
       </c>
       <c r="P86" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q86" s="46">
         <v>44166</v>
       </c>
       <c r="R86" s="46"/>
       <c r="S86" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9955,7 +9988,7 @@
       <c r="R87" s="46"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>2</v>
       </c>
@@ -10001,12 +10034,18 @@
       <c r="O88" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="46"/>
+      <c r="P88" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q88" s="46">
+        <v>44167</v>
+      </c>
       <c r="R88" s="46"/>
-      <c r="S88" s="21"/>
-    </row>
-    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S88" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>2</v>
       </c>
@@ -10052,12 +10091,18 @@
       <c r="O89" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="46"/>
+      <c r="P89" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q89" s="46">
+        <v>44167</v>
+      </c>
       <c r="R89" s="46"/>
-      <c r="S89" s="21"/>
-    </row>
-    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S89" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>2</v>
       </c>
@@ -10103,12 +10148,18 @@
       <c r="O90" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="46"/>
+      <c r="P90" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q90" s="46">
+        <v>44167</v>
+      </c>
       <c r="R90" s="46"/>
-      <c r="S90" s="21"/>
-    </row>
-    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S90" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>2</v>
       </c>
@@ -10154,12 +10205,18 @@
       <c r="O91" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="46"/>
+      <c r="P91" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q91" s="46">
+        <v>44167</v>
+      </c>
       <c r="R91" s="46"/>
-      <c r="S91" s="21"/>
-    </row>
-    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S91" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>2</v>
       </c>
@@ -10205,12 +10262,18 @@
       <c r="O92" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="46"/>
+      <c r="P92" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q92" s="46">
+        <v>44167</v>
+      </c>
       <c r="R92" s="46"/>
-      <c r="S92" s="21"/>
-    </row>
-    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S92" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>2</v>
       </c>
@@ -10256,12 +10319,18 @@
       <c r="O93" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P93" s="21"/>
-      <c r="Q93" s="46"/>
+      <c r="P93" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q93" s="46">
+        <v>44167</v>
+      </c>
       <c r="R93" s="46"/>
-      <c r="S93" s="21"/>
-    </row>
-    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S93" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -10307,12 +10376,18 @@
       <c r="O94" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="46"/>
+      <c r="P94" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q94" s="46">
+        <v>44167</v>
+      </c>
       <c r="R94" s="46"/>
-      <c r="S94" s="21"/>
-    </row>
-    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S94" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>2</v>
       </c>
@@ -10358,12 +10433,18 @@
       <c r="O95" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P95" s="21"/>
-      <c r="Q95" s="46"/>
+      <c r="P95" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q95" s="46">
+        <v>44167</v>
+      </c>
       <c r="R95" s="46"/>
-      <c r="S95" s="21"/>
-    </row>
-    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S95" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>2</v>
       </c>
@@ -10409,12 +10490,18 @@
       <c r="O96" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P96" s="21"/>
-      <c r="Q96" s="46"/>
+      <c r="P96" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q96" s="46">
+        <v>44167</v>
+      </c>
       <c r="R96" s="46"/>
-      <c r="S96" s="21"/>
-    </row>
-    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S96" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>2</v>
       </c>
@@ -10460,12 +10547,18 @@
       <c r="O97" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="46"/>
+      <c r="P97" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q97" s="46">
+        <v>44167</v>
+      </c>
       <c r="R97" s="46"/>
-      <c r="S97" s="21"/>
-    </row>
-    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S97" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>2</v>
       </c>
@@ -10511,12 +10604,18 @@
       <c r="O98" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P98" s="21"/>
-      <c r="Q98" s="46"/>
+      <c r="P98" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q98" s="46">
+        <v>44167</v>
+      </c>
       <c r="R98" s="46"/>
-      <c r="S98" s="21"/>
-    </row>
-    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S98" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>2</v>
       </c>
@@ -10562,12 +10661,18 @@
       <c r="O99" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P99" s="21"/>
-      <c r="Q99" s="46"/>
+      <c r="P99" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q99" s="46">
+        <v>44167</v>
+      </c>
       <c r="R99" s="46"/>
-      <c r="S99" s="21"/>
-    </row>
-    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S99" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28">
         <v>2</v>
       </c>
@@ -10613,12 +10718,18 @@
       <c r="O100" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="46"/>
+      <c r="P100" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q100" s="46">
+        <v>44167</v>
+      </c>
       <c r="R100" s="46"/>
-      <c r="S100" s="21"/>
-    </row>
-    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S100" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
         <v>2</v>
       </c>
@@ -10664,12 +10775,18 @@
       <c r="O101" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="46"/>
+      <c r="P101" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q101" s="46">
+        <v>44167</v>
+      </c>
       <c r="R101" s="46"/>
-      <c r="S101" s="21"/>
-    </row>
-    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S101" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28">
         <v>2</v>
       </c>
@@ -10715,12 +10832,18 @@
       <c r="O102" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P102" s="21"/>
-      <c r="Q102" s="46"/>
+      <c r="P102" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q102" s="46">
+        <v>44167</v>
+      </c>
       <c r="R102" s="46"/>
-      <c r="S102" s="21"/>
-    </row>
-    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S102" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>2</v>
       </c>
@@ -10766,10 +10889,16 @@
       <c r="O103" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="46"/>
+      <c r="P103" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q103" s="46">
+        <v>44167</v>
+      </c>
       <c r="R103" s="46"/>
-      <c r="S103" s="21"/>
+      <c r="S103" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
@@ -11147,14 +11276,14 @@
         <v>1067</v>
       </c>
       <c r="P111" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q111" s="46">
         <v>44166</v>
       </c>
       <c r="R111" s="46"/>
       <c r="S111" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11204,7 +11333,7 @@
       <c r="R112" s="46"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="29">
         <v>2</v>
       </c>
@@ -11250,10 +11379,16 @@
       <c r="O113" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P113" s="21"/>
-      <c r="Q113" s="46"/>
+      <c r="P113" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q113" s="46">
+        <v>44167</v>
+      </c>
       <c r="R113" s="46"/>
-      <c r="S113" s="21"/>
+      <c r="S113" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="29">
@@ -11302,14 +11437,14 @@
         <v>1067</v>
       </c>
       <c r="P114" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q114" s="46">
         <v>44166</v>
       </c>
       <c r="R114" s="46"/>
       <c r="S114" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11359,14 +11494,14 @@
         <v>1067</v>
       </c>
       <c r="P115" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q115" s="46">
         <v>44166</v>
       </c>
       <c r="R115" s="46"/>
       <c r="S115" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11416,14 +11551,14 @@
         <v>1067</v>
       </c>
       <c r="P116" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q116" s="46">
         <v>44166</v>
       </c>
       <c r="R116" s="46"/>
       <c r="S116" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11567,14 +11702,14 @@
         <v>1067</v>
       </c>
       <c r="P119" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q119" s="46">
         <v>44166</v>
       </c>
       <c r="R119" s="46"/>
       <c r="S119" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11624,14 +11759,14 @@
         <v>1067</v>
       </c>
       <c r="P120" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q120" s="46">
         <v>44166</v>
       </c>
       <c r="R120" s="46"/>
       <c r="S120" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11681,14 +11816,14 @@
         <v>1067</v>
       </c>
       <c r="P121" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q121" s="46">
         <v>44166</v>
       </c>
       <c r="R121" s="46"/>
       <c r="S121" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11738,14 +11873,14 @@
         <v>1067</v>
       </c>
       <c r="P122" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q122" s="46">
         <v>44166</v>
       </c>
       <c r="R122" s="46"/>
       <c r="S122" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11795,14 +11930,14 @@
         <v>1067</v>
       </c>
       <c r="P123" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q123" s="46">
         <v>44166</v>
       </c>
       <c r="R123" s="46"/>
       <c r="S123" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11899,17 +12034,17 @@
         <v>1067</v>
       </c>
       <c r="P125" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q125" s="46">
         <v>44166</v>
       </c>
       <c r="R125" s="46"/>
       <c r="S125" s="21" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28">
         <v>2</v>
       </c>
@@ -11955,12 +12090,18 @@
       <c r="O126" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P126" s="21"/>
-      <c r="Q126" s="46"/>
+      <c r="P126" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q126" s="46">
+        <v>44167</v>
+      </c>
       <c r="R126" s="46"/>
-      <c r="S126" s="21"/>
-    </row>
-    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S126" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28">
         <v>2</v>
       </c>
@@ -12006,12 +12147,18 @@
       <c r="O127" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="46"/>
+      <c r="P127" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q127" s="46">
+        <v>44167</v>
+      </c>
       <c r="R127" s="46"/>
-      <c r="S127" s="21"/>
-    </row>
-    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S127" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28">
         <v>2</v>
       </c>
@@ -12057,12 +12204,18 @@
       <c r="O128" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P128" s="21"/>
-      <c r="Q128" s="46"/>
+      <c r="P128" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q128" s="46">
+        <v>44167</v>
+      </c>
       <c r="R128" s="46"/>
-      <c r="S128" s="21"/>
-    </row>
-    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S128" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28">
         <v>2</v>
       </c>
@@ -12108,12 +12261,18 @@
       <c r="O129" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P129" s="21"/>
-      <c r="Q129" s="46"/>
+      <c r="P129" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q129" s="46">
+        <v>44167</v>
+      </c>
       <c r="R129" s="46"/>
-      <c r="S129" s="21"/>
-    </row>
-    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S129" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28">
         <v>2</v>
       </c>
@@ -12159,10 +12318,16 @@
       <c r="O130" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P130" s="21"/>
-      <c r="Q130" s="46"/>
+      <c r="P130" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q130" s="46">
+        <v>44167</v>
+      </c>
       <c r="R130" s="46"/>
-      <c r="S130" s="21"/>
+      <c r="S130" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28">
@@ -12309,7 +12474,7 @@
       <c r="R133" s="46"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28">
         <v>2</v>
       </c>
@@ -12355,12 +12520,18 @@
       <c r="O134" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P134" s="21"/>
-      <c r="Q134" s="46"/>
+      <c r="P134" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q134" s="46">
+        <v>44167</v>
+      </c>
       <c r="R134" s="46"/>
-      <c r="S134" s="21"/>
-    </row>
-    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S134" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28">
         <v>2</v>
       </c>
@@ -12406,10 +12577,16 @@
       <c r="O135" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P135" s="21"/>
-      <c r="Q135" s="46"/>
+      <c r="P135" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q135" s="46">
+        <v>44167</v>
+      </c>
       <c r="R135" s="46"/>
-      <c r="S135" s="21"/>
+      <c r="S135" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28">
@@ -12793,7 +12970,7 @@
       <c r="R143" s="46"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -12839,10 +13016,16 @@
       <c r="O144" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P144" s="21"/>
-      <c r="Q144" s="46"/>
+      <c r="P144" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q144" s="46">
+        <v>44167</v>
+      </c>
       <c r="R144" s="46"/>
-      <c r="S144" s="21"/>
+      <c r="S144" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="28">
@@ -12891,7 +13074,7 @@
       <c r="R145" s="46"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28">
         <v>2</v>
       </c>
@@ -12937,12 +13120,18 @@
       <c r="O146" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P146" s="21"/>
-      <c r="Q146" s="46"/>
+      <c r="P146" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q146" s="46">
+        <v>44167</v>
+      </c>
       <c r="R146" s="46"/>
-      <c r="S146" s="21"/>
-    </row>
-    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S146" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28">
         <v>2</v>
       </c>
@@ -12988,10 +13177,16 @@
       <c r="O147" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P147" s="21"/>
-      <c r="Q147" s="46"/>
+      <c r="P147" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q147" s="46">
+        <v>44167</v>
+      </c>
       <c r="R147" s="46"/>
-      <c r="S147" s="21"/>
+      <c r="S147" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="148" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28">
@@ -13040,14 +13235,14 @@
         <v>1067</v>
       </c>
       <c r="P148" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q148" s="46">
         <v>44166</v>
       </c>
       <c r="R148" s="46"/>
       <c r="S148" s="21" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="149" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13097,14 +13292,14 @@
         <v>1067</v>
       </c>
       <c r="P149" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q149" s="46">
         <v>44166</v>
       </c>
       <c r="R149" s="46"/>
       <c r="S149" s="21" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="150" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13154,14 +13349,14 @@
         <v>1067</v>
       </c>
       <c r="P150" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q150" s="46">
         <v>44166</v>
       </c>
       <c r="R150" s="46"/>
       <c r="S150" s="21" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13258,14 +13453,14 @@
         <v>1067</v>
       </c>
       <c r="P152" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q152" s="46">
         <v>44166</v>
       </c>
       <c r="R152" s="46"/>
       <c r="S152" s="21" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13706,7 +13901,7 @@
       <c r="R161" s="46"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32">
         <v>2</v>
       </c>
@@ -13752,10 +13947,16 @@
       <c r="O162" s="25" t="s">
         <v>1067</v>
       </c>
-      <c r="P162" s="21"/>
-      <c r="Q162" s="46"/>
+      <c r="P162" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q162" s="46">
+        <v>44167</v>
+      </c>
       <c r="R162" s="46"/>
-      <c r="S162" s="21"/>
+      <c r="S162" s="21" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="32">
@@ -13945,14 +14146,14 @@
         <v>1067</v>
       </c>
       <c r="P166" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q166" s="46">
         <v>44166</v>
       </c>
       <c r="R166" s="46"/>
       <c r="S166" s="21" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="167" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -14002,14 +14203,14 @@
         <v>1067</v>
       </c>
       <c r="P167" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q167" s="46">
         <v>44166</v>
       </c>
       <c r="R167" s="46"/>
       <c r="S167" s="21" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16519,14 +16720,14 @@
         <v>1067</v>
       </c>
       <c r="P220" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q220" s="46">
         <v>44166</v>
       </c>
       <c r="R220" s="46"/>
       <c r="S220" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16623,14 +16824,14 @@
         <v>1067</v>
       </c>
       <c r="P222" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q222" s="46">
         <v>44166</v>
       </c>
       <c r="R222" s="46"/>
       <c r="S222" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16680,14 +16881,14 @@
         <v>1067</v>
       </c>
       <c r="P223" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q223" s="46">
         <v>44166</v>
       </c>
       <c r="R223" s="46"/>
       <c r="S223" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16737,14 +16938,14 @@
         <v>1067</v>
       </c>
       <c r="P224" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q224" s="46">
         <v>44166</v>
       </c>
       <c r="R224" s="46"/>
       <c r="S224" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16794,14 +16995,14 @@
         <v>1067</v>
       </c>
       <c r="P225" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q225" s="46">
         <v>44166</v>
       </c>
       <c r="R225" s="46"/>
       <c r="S225" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16851,14 +17052,14 @@
         <v>1067</v>
       </c>
       <c r="P226" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q226" s="46">
         <v>44166</v>
       </c>
       <c r="R226" s="46"/>
       <c r="S226" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16908,14 +17109,14 @@
         <v>1067</v>
       </c>
       <c r="P227" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q227" s="46">
         <v>44166</v>
       </c>
       <c r="R227" s="46"/>
       <c r="S227" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16965,14 +17166,14 @@
         <v>1067</v>
       </c>
       <c r="P228" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q228" s="46">
         <v>44166</v>
       </c>
       <c r="R228" s="46"/>
       <c r="S228" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17022,14 +17223,14 @@
         <v>1067</v>
       </c>
       <c r="P229" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q229" s="46">
         <v>44166</v>
       </c>
       <c r="R229" s="46"/>
       <c r="S229" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17079,14 +17280,14 @@
         <v>1067</v>
       </c>
       <c r="P230" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q230" s="46">
         <v>44166</v>
       </c>
       <c r="R230" s="46"/>
       <c r="S230" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17136,14 +17337,14 @@
         <v>1067</v>
       </c>
       <c r="P231" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q231" s="46">
         <v>44166</v>
       </c>
       <c r="R231" s="46"/>
       <c r="S231" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17193,14 +17394,14 @@
         <v>1067</v>
       </c>
       <c r="P232" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q232" s="46">
         <v>44166</v>
       </c>
       <c r="R232" s="46"/>
       <c r="S232" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17250,14 +17451,14 @@
         <v>1067</v>
       </c>
       <c r="P233" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q233" s="46">
         <v>44166</v>
       </c>
       <c r="R233" s="46"/>
       <c r="S233" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17307,14 +17508,14 @@
         <v>1067</v>
       </c>
       <c r="P234" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q234" s="46">
         <v>44166</v>
       </c>
       <c r="R234" s="46"/>
       <c r="S234" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17364,14 +17565,14 @@
         <v>1067</v>
       </c>
       <c r="P235" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q235" s="46">
         <v>44166</v>
       </c>
       <c r="R235" s="46"/>
       <c r="S235" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17421,14 +17622,14 @@
         <v>1067</v>
       </c>
       <c r="P236" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q236" s="46">
         <v>44166</v>
       </c>
       <c r="R236" s="46"/>
       <c r="S236" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17478,14 +17679,14 @@
         <v>1067</v>
       </c>
       <c r="P237" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q237" s="46">
         <v>44166</v>
       </c>
       <c r="R237" s="46"/>
       <c r="S237" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17535,14 +17736,14 @@
         <v>1067</v>
       </c>
       <c r="P238" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q238" s="46">
         <v>44166</v>
       </c>
       <c r="R238" s="46"/>
       <c r="S238" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17592,14 +17793,14 @@
         <v>1067</v>
       </c>
       <c r="P239" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q239" s="46">
         <v>44166</v>
       </c>
       <c r="R239" s="46"/>
       <c r="S239" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17649,14 +17850,14 @@
         <v>1067</v>
       </c>
       <c r="P240" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q240" s="46">
         <v>44166</v>
       </c>
       <c r="R240" s="46"/>
       <c r="S240" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17706,14 +17907,14 @@
         <v>1067</v>
       </c>
       <c r="P241" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q241" s="46">
         <v>44166</v>
       </c>
       <c r="R241" s="46"/>
       <c r="S241" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17763,14 +17964,14 @@
         <v>1067</v>
       </c>
       <c r="P242" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q242" s="46">
         <v>44166</v>
       </c>
       <c r="R242" s="46"/>
       <c r="S242" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17820,14 +18021,14 @@
         <v>1067</v>
       </c>
       <c r="P243" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q243" s="46">
         <v>44166</v>
       </c>
       <c r="R243" s="46"/>
       <c r="S243" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17877,14 +18078,14 @@
         <v>1067</v>
       </c>
       <c r="P244" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q244" s="46">
         <v>44166</v>
       </c>
       <c r="R244" s="46"/>
       <c r="S244" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17934,14 +18135,14 @@
         <v>1067</v>
       </c>
       <c r="P245" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q245" s="46">
         <v>44166</v>
       </c>
       <c r="R245" s="46"/>
       <c r="S245" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17991,14 +18192,14 @@
         <v>1067</v>
       </c>
       <c r="P246" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q246" s="46">
         <v>44166</v>
       </c>
       <c r="R246" s="46"/>
       <c r="S246" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18048,14 +18249,14 @@
         <v>1067</v>
       </c>
       <c r="P247" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q247" s="46">
         <v>44166</v>
       </c>
       <c r="R247" s="46"/>
       <c r="S247" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18105,14 +18306,14 @@
         <v>1067</v>
       </c>
       <c r="P248" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q248" s="46">
         <v>44166</v>
       </c>
       <c r="R248" s="46"/>
       <c r="S248" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18162,14 +18363,14 @@
         <v>1067</v>
       </c>
       <c r="P249" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q249" s="46">
         <v>44166</v>
       </c>
       <c r="R249" s="46"/>
       <c r="S249" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18219,14 +18420,14 @@
         <v>1067</v>
       </c>
       <c r="P250" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q250" s="46">
         <v>44166</v>
       </c>
       <c r="R250" s="46"/>
       <c r="S250" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18276,14 +18477,14 @@
         <v>1067</v>
       </c>
       <c r="P251" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q251" s="46">
         <v>44166</v>
       </c>
       <c r="R251" s="46"/>
       <c r="S251" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18333,14 +18534,14 @@
         <v>1067</v>
       </c>
       <c r="P252" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q252" s="46">
         <v>44166</v>
       </c>
       <c r="R252" s="46"/>
       <c r="S252" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18390,14 +18591,14 @@
         <v>1067</v>
       </c>
       <c r="P253" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q253" s="46">
         <v>44166</v>
       </c>
       <c r="R253" s="46"/>
       <c r="S253" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18447,14 +18648,14 @@
         <v>1067</v>
       </c>
       <c r="P254" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q254" s="46">
         <v>44166</v>
       </c>
       <c r="R254" s="46"/>
       <c r="S254" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18504,14 +18705,14 @@
         <v>1067</v>
       </c>
       <c r="P255" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q255" s="46">
         <v>44166</v>
       </c>
       <c r="R255" s="46"/>
       <c r="S255" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18561,14 +18762,14 @@
         <v>1067</v>
       </c>
       <c r="P256" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q256" s="46">
         <v>44166</v>
       </c>
       <c r="R256" s="46"/>
       <c r="S256" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18618,14 +18819,14 @@
         <v>1067</v>
       </c>
       <c r="P257" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q257" s="46">
         <v>44166</v>
       </c>
       <c r="R257" s="46"/>
       <c r="S257" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18675,14 +18876,14 @@
         <v>1067</v>
       </c>
       <c r="P258" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q258" s="46">
         <v>44166</v>
       </c>
       <c r="R258" s="46"/>
       <c r="S258" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18732,14 +18933,14 @@
         <v>1067</v>
       </c>
       <c r="P259" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q259" s="46">
         <v>44166</v>
       </c>
       <c r="R259" s="46"/>
       <c r="S259" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18789,14 +18990,14 @@
         <v>1067</v>
       </c>
       <c r="P260" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q260" s="46">
         <v>44166</v>
       </c>
       <c r="R260" s="46"/>
       <c r="S260" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18846,14 +19047,14 @@
         <v>1067</v>
       </c>
       <c r="P261" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q261" s="46">
         <v>44166</v>
       </c>
       <c r="R261" s="46"/>
       <c r="S261" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18903,14 +19104,14 @@
         <v>1067</v>
       </c>
       <c r="P262" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q262" s="46">
         <v>44166</v>
       </c>
       <c r="R262" s="46"/>
       <c r="S262" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18960,14 +19161,14 @@
         <v>1067</v>
       </c>
       <c r="P263" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q263" s="46">
         <v>44166</v>
       </c>
       <c r="R263" s="46"/>
       <c r="S263" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19017,14 +19218,14 @@
         <v>1067</v>
       </c>
       <c r="P264" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q264" s="46">
         <v>44166</v>
       </c>
       <c r="R264" s="46"/>
       <c r="S264" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19074,14 +19275,14 @@
         <v>1067</v>
       </c>
       <c r="P265" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q265" s="46">
         <v>44166</v>
       </c>
       <c r="R265" s="46"/>
       <c r="S265" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19131,14 +19332,14 @@
         <v>1067</v>
       </c>
       <c r="P266" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q266" s="46">
         <v>44166</v>
       </c>
       <c r="R266" s="46"/>
       <c r="S266" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19188,14 +19389,14 @@
         <v>1067</v>
       </c>
       <c r="P267" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q267" s="46">
         <v>44166</v>
       </c>
       <c r="R267" s="46"/>
       <c r="S267" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19445,14 +19646,14 @@
         <v>1067</v>
       </c>
       <c r="P272" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q272" s="46">
         <v>44166</v>
       </c>
       <c r="R272" s="46"/>
       <c r="S272" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19502,14 +19703,14 @@
         <v>1067</v>
       </c>
       <c r="P273" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q273" s="46">
         <v>44166</v>
       </c>
       <c r="R273" s="46"/>
       <c r="S273" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19653,14 +19854,14 @@
         <v>1067</v>
       </c>
       <c r="P276" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q276" s="46">
         <v>44166</v>
       </c>
       <c r="R276" s="46"/>
       <c r="S276" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19710,14 +19911,14 @@
         <v>1067</v>
       </c>
       <c r="P277" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q277" s="46">
         <v>44166</v>
       </c>
       <c r="R277" s="46"/>
       <c r="S277" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19767,14 +19968,14 @@
         <v>1067</v>
       </c>
       <c r="P278" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q278" s="46">
         <v>44166</v>
       </c>
       <c r="R278" s="46"/>
       <c r="S278" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19824,14 +20025,14 @@
         <v>1067</v>
       </c>
       <c r="P279" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q279" s="46">
         <v>44166</v>
       </c>
       <c r="R279" s="46"/>
       <c r="S279" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20069,14 +20270,14 @@
         <v>1067</v>
       </c>
       <c r="P284" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q284" s="46">
         <v>44166</v>
       </c>
       <c r="R284" s="46"/>
       <c r="S284" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20267,14 +20468,14 @@
         <v>1067</v>
       </c>
       <c r="P288" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q288" s="46">
         <v>44166</v>
       </c>
       <c r="R288" s="46"/>
       <c r="S288" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20324,14 +20525,14 @@
         <v>1067</v>
       </c>
       <c r="P289" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q289" s="46">
         <v>44166</v>
       </c>
       <c r="R289" s="46"/>
       <c r="S289" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20381,14 +20582,14 @@
         <v>1067</v>
       </c>
       <c r="P290" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q290" s="46">
         <v>44166</v>
       </c>
       <c r="R290" s="46"/>
       <c r="S290" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20438,14 +20639,14 @@
         <v>1067</v>
       </c>
       <c r="P291" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q291" s="46">
         <v>44166</v>
       </c>
       <c r="R291" s="46"/>
       <c r="S291" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20495,14 +20696,14 @@
         <v>1067</v>
       </c>
       <c r="P292" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q292" s="46">
         <v>44166</v>
       </c>
       <c r="R292" s="46"/>
       <c r="S292" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20552,14 +20753,14 @@
         <v>1067</v>
       </c>
       <c r="P293" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q293" s="46">
         <v>44166</v>
       </c>
       <c r="R293" s="46"/>
       <c r="S293" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20609,14 +20810,14 @@
         <v>1067</v>
       </c>
       <c r="P294" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q294" s="46">
         <v>44166</v>
       </c>
       <c r="R294" s="46"/>
       <c r="S294" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20717,14 +20918,14 @@
         <v>1067</v>
       </c>
       <c r="P296" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q296" s="46">
         <v>44166</v>
       </c>
       <c r="R296" s="46"/>
       <c r="S296" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21013,14 +21214,14 @@
         <v>1067</v>
       </c>
       <c r="P302" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q302" s="46">
         <v>44166</v>
       </c>
       <c r="R302" s="46"/>
       <c r="S302" s="21" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21070,14 +21271,14 @@
         <v>1067</v>
       </c>
       <c r="P303" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q303" s="46">
         <v>44166</v>
       </c>
       <c r="R303" s="46"/>
       <c r="S303" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21127,14 +21328,14 @@
         <v>1067</v>
       </c>
       <c r="P304" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q304" s="46">
         <v>44166</v>
       </c>
       <c r="R304" s="46"/>
       <c r="S304" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21184,14 +21385,14 @@
         <v>1067</v>
       </c>
       <c r="P305" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q305" s="46">
         <v>44166</v>
       </c>
       <c r="R305" s="46"/>
       <c r="S305" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21711,14 +21912,14 @@
         <v>1067</v>
       </c>
       <c r="P316" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q316" s="46">
         <v>44166</v>
       </c>
       <c r="R316" s="46"/>
       <c r="S316" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21768,14 +21969,14 @@
         <v>1067</v>
       </c>
       <c r="P317" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q317" s="46">
         <v>44166</v>
       </c>
       <c r="R317" s="46"/>
       <c r="S317" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21825,14 +22026,14 @@
         <v>1067</v>
       </c>
       <c r="P318" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q318" s="46">
         <v>44166</v>
       </c>
       <c r="R318" s="46"/>
       <c r="S318" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21882,14 +22083,14 @@
         <v>1067</v>
       </c>
       <c r="P319" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q319" s="46">
         <v>44166</v>
       </c>
       <c r="R319" s="46"/>
       <c r="S319" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21939,14 +22140,14 @@
         <v>1067</v>
       </c>
       <c r="P320" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q320" s="46">
         <v>44166</v>
       </c>
       <c r="R320" s="46"/>
       <c r="S320" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22090,14 +22291,14 @@
         <v>1067</v>
       </c>
       <c r="P323" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q323" s="46">
         <v>44166</v>
       </c>
       <c r="R323" s="46"/>
       <c r="S323" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22245,14 +22446,14 @@
         <v>1067</v>
       </c>
       <c r="P326" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q326" s="46">
         <v>44166</v>
       </c>
       <c r="R326" s="46"/>
       <c r="S326" s="21" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22302,14 +22503,14 @@
         <v>1067</v>
       </c>
       <c r="P327" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q327" s="46">
         <v>44166</v>
       </c>
       <c r="R327" s="46"/>
       <c r="S327" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22410,14 +22611,14 @@
         <v>1067</v>
       </c>
       <c r="P329" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q329" s="46">
         <v>44166</v>
       </c>
       <c r="R329" s="46"/>
       <c r="S329" s="21" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22467,14 +22668,14 @@
         <v>1067</v>
       </c>
       <c r="P330" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q330" s="46">
         <v>44166</v>
       </c>
       <c r="R330" s="46"/>
       <c r="S330" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22575,14 +22776,14 @@
         <v>1067</v>
       </c>
       <c r="P332" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q332" s="46">
         <v>44166</v>
       </c>
       <c r="R332" s="46"/>
       <c r="S332" s="21" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22632,14 +22833,14 @@
         <v>1067</v>
       </c>
       <c r="P333" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q333" s="46">
         <v>44166</v>
       </c>
       <c r="R333" s="46"/>
       <c r="S333" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22689,14 +22890,14 @@
         <v>1067</v>
       </c>
       <c r="P334" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q334" s="46">
         <v>44166</v>
       </c>
       <c r="R334" s="46"/>
       <c r="S334" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22746,14 +22947,14 @@
         <v>1067</v>
       </c>
       <c r="P335" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q335" s="46">
         <v>44166</v>
       </c>
       <c r="R335" s="46"/>
       <c r="S335" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22803,14 +23004,14 @@
         <v>1067</v>
       </c>
       <c r="P336" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q336" s="46">
         <v>44166</v>
       </c>
       <c r="R336" s="46"/>
       <c r="S336" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31076,14 +31277,14 @@
         <v>1067</v>
       </c>
       <c r="P513" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q513" s="46">
         <v>44166</v>
       </c>
       <c r="R513" s="46"/>
       <c r="S513" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31133,14 +31334,14 @@
         <v>1067</v>
       </c>
       <c r="P514" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q514" s="46">
         <v>44166</v>
       </c>
       <c r="R514" s="46"/>
       <c r="S514" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31190,14 +31391,14 @@
         <v>1067</v>
       </c>
       <c r="P515" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q515" s="46">
         <v>44166</v>
       </c>
       <c r="R515" s="46"/>
       <c r="S515" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31247,14 +31448,14 @@
         <v>1067</v>
       </c>
       <c r="P516" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q516" s="46">
         <v>44166</v>
       </c>
       <c r="R516" s="46"/>
       <c r="S516" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31304,14 +31505,14 @@
         <v>1067</v>
       </c>
       <c r="P517" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q517" s="46">
         <v>44166</v>
       </c>
       <c r="R517" s="46"/>
       <c r="S517" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31361,14 +31562,14 @@
         <v>1067</v>
       </c>
       <c r="P518" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q518" s="46">
         <v>44166</v>
       </c>
       <c r="R518" s="46"/>
       <c r="S518" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31418,14 +31619,14 @@
         <v>1067</v>
       </c>
       <c r="P519" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q519" s="46">
         <v>44166</v>
       </c>
       <c r="R519" s="46"/>
       <c r="S519" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31475,14 +31676,14 @@
         <v>1067</v>
       </c>
       <c r="P520" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q520" s="46">
         <v>44166</v>
       </c>
       <c r="R520" s="46"/>
       <c r="S520" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31634,14 +31835,14 @@
         <v>1067</v>
       </c>
       <c r="P523" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q523" s="46">
         <v>44166</v>
       </c>
       <c r="R523" s="46"/>
       <c r="S523" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31691,14 +31892,14 @@
         <v>1067</v>
       </c>
       <c r="P524" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q524" s="46">
         <v>44166</v>
       </c>
       <c r="R524" s="46"/>
       <c r="S524" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31748,14 +31949,14 @@
         <v>1067</v>
       </c>
       <c r="P525" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q525" s="46">
         <v>44166</v>
       </c>
       <c r="R525" s="46"/>
       <c r="S525" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31805,14 +32006,14 @@
         <v>1067</v>
       </c>
       <c r="P526" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q526" s="46">
         <v>44166</v>
       </c>
       <c r="R526" s="46"/>
       <c r="S526" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31862,14 +32063,14 @@
         <v>1067</v>
       </c>
       <c r="P527" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q527" s="46">
         <v>44166</v>
       </c>
       <c r="R527" s="46"/>
       <c r="S527" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31919,14 +32120,14 @@
         <v>1067</v>
       </c>
       <c r="P528" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q528" s="46">
         <v>44166</v>
       </c>
       <c r="R528" s="46"/>
       <c r="S528" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31976,14 +32177,14 @@
         <v>1067</v>
       </c>
       <c r="P529" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q529" s="46">
         <v>44166</v>
       </c>
       <c r="R529" s="46"/>
       <c r="S529" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32033,14 +32234,14 @@
         <v>1067</v>
       </c>
       <c r="P530" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q530" s="46">
         <v>44166</v>
       </c>
       <c r="R530" s="46"/>
       <c r="S530" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32137,14 +32338,14 @@
         <v>1067</v>
       </c>
       <c r="P532" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q532" s="46">
         <v>44166</v>
       </c>
       <c r="R532" s="46"/>
       <c r="S532" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32194,14 +32395,14 @@
         <v>1067</v>
       </c>
       <c r="P533" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q533" s="46">
         <v>44166</v>
       </c>
       <c r="R533" s="46"/>
       <c r="S533" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32251,14 +32452,14 @@
         <v>1067</v>
       </c>
       <c r="P534" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q534" s="46">
         <v>44166</v>
       </c>
       <c r="R534" s="46"/>
       <c r="S534" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32308,14 +32509,14 @@
         <v>1067</v>
       </c>
       <c r="P535" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q535" s="46">
         <v>44166</v>
       </c>
       <c r="R535" s="46"/>
       <c r="S535" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32365,14 +32566,14 @@
         <v>1067</v>
       </c>
       <c r="P536" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q536" s="46">
         <v>44166</v>
       </c>
       <c r="R536" s="46"/>
       <c r="S536" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32422,14 +32623,14 @@
         <v>1067</v>
       </c>
       <c r="P537" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q537" s="46">
         <v>44166</v>
       </c>
       <c r="R537" s="46"/>
       <c r="S537" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34697,7 +34898,7 @@
     </filterColumn>
     <filterColumn colId="13">
       <filters>
-        <filter val="opdracht_2"/>
+        <filter val="opdracht_7"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A912BA-140E-408C-AF27-3D29E8B377BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F580DB-291E-4917-AC41-88B0A4E83F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7836" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7834" uniqueCount="1262">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3738,9 +3738,6 @@
     <t>geo-validatie</t>
   </si>
   <si>
-    <t>opdracht_9</t>
-  </si>
-  <si>
     <t>opdracht_10</t>
   </si>
   <si>
@@ -3750,9 +3747,6 @@
     <t>opdracht_11</t>
   </si>
   <si>
-    <t>opdracht_10 en 11</t>
-  </si>
-  <si>
     <t>opdracht_12</t>
   </si>
   <si>
@@ -3844,6 +3838,9 @@
   </si>
   <si>
     <t>Internal Server Error</t>
+  </si>
+  <si>
+    <t>opdracht_17</t>
   </si>
   <si>
     <t>opdracht_lvbb1002</t>
@@ -5422,9 +5419,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P65" sqref="P65:P162"/>
+      <selection pane="bottomLeft" activeCell="N167" sqref="N167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5490,16 +5487,16 @@
         <v>1065</v>
       </c>
       <c r="P1" s="43" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>1232</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>1244</v>
+      </c>
+      <c r="S1" s="43" t="s">
         <v>1231</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>1234</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>1246</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6393,16 +6390,16 @@
       </c>
       <c r="O20" s="21"/>
       <c r="P20" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q20" s="46">
         <v>44166</v>
       </c>
       <c r="R20" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6450,16 +6447,16 @@
       </c>
       <c r="O21" s="21"/>
       <c r="P21" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q21" s="46">
         <v>44166</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6507,16 +6504,16 @@
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q22" s="46">
         <v>44166</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6564,16 +6561,16 @@
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q23" s="46">
         <v>44166</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6621,16 +6618,16 @@
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q24" s="46">
         <v>44166</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6678,16 +6675,16 @@
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q25" s="46">
         <v>44166</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6735,16 +6732,16 @@
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q26" s="46">
         <v>44166</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6792,16 +6789,16 @@
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q27" s="46">
         <v>44166</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6849,16 +6846,16 @@
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q28" s="46">
         <v>44166</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6906,16 +6903,16 @@
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q29" s="46">
         <v>44166</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6963,16 +6960,16 @@
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q30" s="46">
         <v>44166</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7020,16 +7017,16 @@
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q31" s="46">
         <v>44166</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7077,16 +7074,16 @@
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q32" s="46">
         <v>44166</v>
       </c>
       <c r="R32" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7134,16 +7131,16 @@
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q33" s="46">
         <v>44166</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7387,7 +7384,7 @@
         <v>25</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>1066</v>
@@ -7400,7 +7397,7 @@
       </c>
       <c r="R38" s="46"/>
       <c r="S38" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7444,7 +7441,7 @@
         <v>25</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>1066</v>
@@ -7457,7 +7454,7 @@
       </c>
       <c r="R39" s="46"/>
       <c r="S39" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7501,7 +7498,7 @@
         <v>25</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>1066</v>
@@ -7514,7 +7511,7 @@
       </c>
       <c r="R40" s="46"/>
       <c r="S40" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7558,7 +7555,7 @@
         <v>25</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>1066</v>
@@ -7571,7 +7568,7 @@
       </c>
       <c r="R41" s="46"/>
       <c r="S41" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7615,7 +7612,7 @@
         <v>25</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>1066</v>
@@ -7628,7 +7625,7 @@
       </c>
       <c r="R42" s="46"/>
       <c r="S42" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7672,7 +7669,7 @@
         <v>25</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>1066</v>
@@ -7685,7 +7682,7 @@
       </c>
       <c r="R43" s="46"/>
       <c r="S43" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7729,7 +7726,7 @@
         <v>25</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>1066</v>
@@ -7742,7 +7739,7 @@
       </c>
       <c r="R44" s="46"/>
       <c r="S44" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7786,7 +7783,7 @@
         <v>25</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>1066</v>
@@ -7799,7 +7796,7 @@
       </c>
       <c r="R45" s="46"/>
       <c r="S45" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7849,16 +7846,16 @@
         <v>1067</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q46" s="46">
         <v>44166</v>
       </c>
       <c r="R46" s="46" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7908,16 +7905,16 @@
         <v>1067</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q47" s="46">
         <v>44166</v>
       </c>
       <c r="R47" s="46" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7961,7 +7958,7 @@
         <v>25</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>1066</v>
@@ -7974,7 +7971,7 @@
       </c>
       <c r="R48" s="46"/>
       <c r="S48" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8024,16 +8021,16 @@
         <v>1067</v>
       </c>
       <c r="P49" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q49" s="46">
         <v>44166</v>
       </c>
       <c r="R49" s="46" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8083,16 +8080,16 @@
         <v>1067</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="Q50" s="46">
         <v>44166</v>
       </c>
       <c r="R50" s="46" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8136,7 +8133,7 @@
         <v>25</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>1066</v>
@@ -8149,7 +8146,7 @@
       </c>
       <c r="R51" s="46"/>
       <c r="S51" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8199,14 +8196,14 @@
         <v>1067</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q52" s="46">
         <v>44166</v>
       </c>
       <c r="R52" s="46"/>
       <c r="S52" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8256,14 +8253,14 @@
         <v>1067</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q53" s="46">
         <v>44166</v>
       </c>
       <c r="R53" s="46"/>
       <c r="S53" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8313,14 +8310,14 @@
         <v>1067</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q54" s="46">
         <v>44166</v>
       </c>
       <c r="R54" s="46"/>
       <c r="S54" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8370,14 +8367,14 @@
         <v>1067</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q55" s="46">
         <v>44166</v>
       </c>
       <c r="R55" s="46"/>
       <c r="S55" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8427,14 +8424,14 @@
         <v>1067</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q56" s="46">
         <v>44166</v>
       </c>
       <c r="R56" s="46"/>
       <c r="S56" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8484,14 +8481,14 @@
         <v>1067</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q57" s="46">
         <v>44166</v>
       </c>
       <c r="R57" s="46"/>
       <c r="S57" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8535,7 +8532,7 @@
         <v>25</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>1067</v>
@@ -8548,7 +8545,7 @@
       </c>
       <c r="R58" s="46"/>
       <c r="S58" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8592,7 +8589,7 @@
         <v>25</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="O59" s="21" t="s">
         <v>1067</v>
@@ -8605,7 +8602,7 @@
       </c>
       <c r="R59" s="46"/>
       <c r="S59" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8749,7 +8746,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>2</v>
       </c>
@@ -8803,7 +8800,7 @@
       </c>
       <c r="R63" s="46"/>
       <c r="S63" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8853,7 +8850,7 @@
       <c r="R64" s="46"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>2</v>
       </c>
@@ -8907,7 +8904,7 @@
       </c>
       <c r="R65" s="46"/>
       <c r="S65" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9016,7 +9013,7 @@
       <c r="A68" s="29">
         <v>2</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="15" t="s">
         <v>156</v>
       </c>
       <c r="C68" s="21" t="s">
@@ -9353,7 +9350,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>2</v>
       </c>
@@ -9407,7 +9404,7 @@
       </c>
       <c r="R75" s="46"/>
       <c r="S75" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9826,9 +9823,7 @@
       <c r="M84" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N84" s="11" t="s">
-        <v>1216</v>
-      </c>
+      <c r="N84" s="11"/>
       <c r="O84" s="11" t="s">
         <v>1067</v>
       </c>
@@ -9931,14 +9926,14 @@
         <v>1067</v>
       </c>
       <c r="P86" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q86" s="46">
         <v>44166</v>
       </c>
       <c r="R86" s="46"/>
       <c r="S86" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9988,7 +9983,7 @@
       <c r="R87" s="46"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>2</v>
       </c>
@@ -10042,10 +10037,10 @@
       </c>
       <c r="R88" s="46"/>
       <c r="S88" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>2</v>
       </c>
@@ -10099,10 +10094,10 @@
       </c>
       <c r="R89" s="46"/>
       <c r="S89" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>2</v>
       </c>
@@ -10156,10 +10151,10 @@
       </c>
       <c r="R90" s="46"/>
       <c r="S90" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>2</v>
       </c>
@@ -10213,10 +10208,10 @@
       </c>
       <c r="R91" s="46"/>
       <c r="S91" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>2</v>
       </c>
@@ -10270,10 +10265,10 @@
       </c>
       <c r="R92" s="46"/>
       <c r="S92" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>2</v>
       </c>
@@ -10327,10 +10322,10 @@
       </c>
       <c r="R93" s="46"/>
       <c r="S93" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -10384,10 +10379,10 @@
       </c>
       <c r="R94" s="46"/>
       <c r="S94" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>2</v>
       </c>
@@ -10441,10 +10436,10 @@
       </c>
       <c r="R95" s="46"/>
       <c r="S95" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>2</v>
       </c>
@@ -10498,10 +10493,10 @@
       </c>
       <c r="R96" s="46"/>
       <c r="S96" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>2</v>
       </c>
@@ -10555,10 +10550,10 @@
       </c>
       <c r="R97" s="46"/>
       <c r="S97" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>2</v>
       </c>
@@ -10612,10 +10607,10 @@
       </c>
       <c r="R98" s="46"/>
       <c r="S98" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>2</v>
       </c>
@@ -10669,10 +10664,10 @@
       </c>
       <c r="R99" s="46"/>
       <c r="S99" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28">
         <v>2</v>
       </c>
@@ -10726,10 +10721,10 @@
       </c>
       <c r="R100" s="46"/>
       <c r="S100" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
         <v>2</v>
       </c>
@@ -10783,10 +10778,10 @@
       </c>
       <c r="R101" s="46"/>
       <c r="S101" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28">
         <v>2</v>
       </c>
@@ -10840,10 +10835,10 @@
       </c>
       <c r="R102" s="46"/>
       <c r="S102" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>2</v>
       </c>
@@ -10897,7 +10892,7 @@
       </c>
       <c r="R103" s="46"/>
       <c r="S103" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11276,14 +11271,14 @@
         <v>1067</v>
       </c>
       <c r="P111" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q111" s="46">
         <v>44166</v>
       </c>
       <c r="R111" s="46"/>
       <c r="S111" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11333,7 +11328,7 @@
       <c r="R112" s="46"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="29">
         <v>2</v>
       </c>
@@ -11387,7 +11382,7 @@
       </c>
       <c r="R113" s="46"/>
       <c r="S113" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11437,14 +11432,14 @@
         <v>1067</v>
       </c>
       <c r="P114" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q114" s="46">
         <v>44166</v>
       </c>
       <c r="R114" s="46"/>
       <c r="S114" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11494,14 +11489,14 @@
         <v>1067</v>
       </c>
       <c r="P115" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q115" s="46">
         <v>44166</v>
       </c>
       <c r="R115" s="46"/>
       <c r="S115" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11551,14 +11546,14 @@
         <v>1067</v>
       </c>
       <c r="P116" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q116" s="46">
         <v>44166</v>
       </c>
       <c r="R116" s="46"/>
       <c r="S116" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11702,14 +11697,14 @@
         <v>1067</v>
       </c>
       <c r="P119" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q119" s="46">
         <v>44166</v>
       </c>
       <c r="R119" s="46"/>
       <c r="S119" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11759,14 +11754,14 @@
         <v>1067</v>
       </c>
       <c r="P120" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q120" s="46">
         <v>44166</v>
       </c>
       <c r="R120" s="46"/>
       <c r="S120" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11816,14 +11811,14 @@
         <v>1067</v>
       </c>
       <c r="P121" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q121" s="46">
         <v>44166</v>
       </c>
       <c r="R121" s="46"/>
       <c r="S121" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11873,14 +11868,14 @@
         <v>1067</v>
       </c>
       <c r="P122" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q122" s="46">
         <v>44166</v>
       </c>
       <c r="R122" s="46"/>
       <c r="S122" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11930,14 +11925,14 @@
         <v>1067</v>
       </c>
       <c r="P123" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q123" s="46">
         <v>44166</v>
       </c>
       <c r="R123" s="46"/>
       <c r="S123" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12034,17 +12029,17 @@
         <v>1067</v>
       </c>
       <c r="P125" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q125" s="46">
         <v>44166</v>
       </c>
       <c r="R125" s="46"/>
       <c r="S125" s="21" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28">
         <v>2</v>
       </c>
@@ -12098,10 +12093,10 @@
       </c>
       <c r="R126" s="46"/>
       <c r="S126" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28">
         <v>2</v>
       </c>
@@ -12155,10 +12150,10 @@
       </c>
       <c r="R127" s="46"/>
       <c r="S127" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28">
         <v>2</v>
       </c>
@@ -12212,10 +12207,10 @@
       </c>
       <c r="R128" s="46"/>
       <c r="S128" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28">
         <v>2</v>
       </c>
@@ -12269,10 +12264,10 @@
       </c>
       <c r="R129" s="46"/>
       <c r="S129" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28">
         <v>2</v>
       </c>
@@ -12326,7 +12321,7 @@
       </c>
       <c r="R130" s="46"/>
       <c r="S130" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12380,7 +12375,7 @@
       <c r="A132" s="28">
         <v>2</v>
       </c>
-      <c r="B132" s="26" t="s">
+      <c r="B132" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C132" s="21" t="s">
@@ -12416,9 +12411,7 @@
       <c r="M132" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N132" s="11" t="s">
-        <v>1217</v>
-      </c>
+      <c r="N132" s="11"/>
       <c r="O132" s="11" t="s">
         <v>1067</v>
       </c>
@@ -12474,7 +12467,7 @@
       <c r="R133" s="46"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28">
         <v>2</v>
       </c>
@@ -12528,10 +12521,10 @@
       </c>
       <c r="R134" s="46"/>
       <c r="S134" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28">
         <v>2</v>
       </c>
@@ -12585,7 +12578,7 @@
       </c>
       <c r="R135" s="46"/>
       <c r="S135" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12678,7 +12671,7 @@
       <c r="N137" s="12"/>
       <c r="O137" s="12"/>
       <c r="P137" s="21" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q137" s="46"/>
       <c r="R137" s="46"/>
@@ -12970,7 +12963,7 @@
       <c r="R143" s="46"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -13024,7 +13017,7 @@
       </c>
       <c r="R144" s="46"/>
       <c r="S144" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13074,7 +13067,7 @@
       <c r="R145" s="46"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28">
         <v>2</v>
       </c>
@@ -13128,10 +13121,10 @@
       </c>
       <c r="R146" s="46"/>
       <c r="S146" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28">
         <v>2</v>
       </c>
@@ -13185,10 +13178,10 @@
       </c>
       <c r="R147" s="46"/>
       <c r="S147" s="21" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28">
         <v>2</v>
       </c>
@@ -13229,23 +13222,23 @@
         <v>25</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O148" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="P148" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q148" s="46">
         <v>44166</v>
       </c>
       <c r="R148" s="46"/>
       <c r="S148" s="21" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28">
         <v>2</v>
       </c>
@@ -13286,23 +13279,23 @@
         <v>25</v>
       </c>
       <c r="N149" s="21" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O149" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="P149" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q149" s="46">
         <v>44166</v>
       </c>
       <c r="R149" s="46"/>
       <c r="S149" s="21" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28">
         <v>2</v>
       </c>
@@ -13343,20 +13336,20 @@
         <v>25</v>
       </c>
       <c r="N150" s="21" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O150" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="P150" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q150" s="46">
         <v>44166</v>
       </c>
       <c r="R150" s="46"/>
       <c r="S150" s="21" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13406,7 +13399,7 @@
       <c r="R151" s="46"/>
       <c r="S151" s="21"/>
     </row>
-    <row r="152" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28">
         <v>2</v>
       </c>
@@ -13447,20 +13440,20 @@
         <v>25</v>
       </c>
       <c r="N152" s="21" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O152" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="P152" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q152" s="46">
         <v>44166</v>
       </c>
       <c r="R152" s="46"/>
       <c r="S152" s="21" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13598,7 +13591,7 @@
         <v>25</v>
       </c>
       <c r="N155" s="21" t="s">
-        <v>1217</v>
+        <v>1250</v>
       </c>
       <c r="O155" s="25" t="s">
         <v>1067</v>
@@ -13649,7 +13642,7 @@
         <v>25</v>
       </c>
       <c r="N156" s="21" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O156" s="25" t="s">
         <v>1067</v>
@@ -13700,7 +13693,7 @@
         <v>25</v>
       </c>
       <c r="N157" s="21" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O157" s="25" t="s">
         <v>1067</v>
@@ -13756,7 +13749,7 @@
       <c r="R158" s="46"/>
       <c r="S158" s="21"/>
     </row>
-    <row r="159" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="32">
         <v>2</v>
       </c>
@@ -13797,7 +13790,7 @@
         <v>25</v>
       </c>
       <c r="N159" s="21" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>1067</v>
@@ -13901,7 +13894,7 @@
       <c r="R161" s="46"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32">
         <v>2</v>
       </c>
@@ -13955,7 +13948,7 @@
       </c>
       <c r="R162" s="46"/>
       <c r="S162" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -14099,7 +14092,7 @@
       <c r="R165" s="46"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="27">
         <v>5</v>
       </c>
@@ -14139,24 +14132,24 @@
       <c r="M166" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N166" s="11" t="s">
-        <v>1219</v>
+      <c r="N166" s="21" t="s">
+        <v>1218</v>
       </c>
       <c r="O166" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="P166" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q166" s="46">
         <v>44166</v>
       </c>
       <c r="R166" s="46"/>
       <c r="S166" s="21" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="27">
         <v>5</v>
       </c>
@@ -14197,20 +14190,20 @@
         <v>25</v>
       </c>
       <c r="N167" s="21" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O167" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="P167" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q167" s="46">
         <v>44166</v>
       </c>
       <c r="R167" s="46"/>
       <c r="S167" s="21" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -14352,7 +14345,7 @@
         <v>25</v>
       </c>
       <c r="N170" s="11" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="O170" s="11" t="s">
         <v>1067</v>
@@ -14403,7 +14396,7 @@
         <v>25</v>
       </c>
       <c r="N171" s="21" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="O171" s="21" t="s">
         <v>1067</v>
@@ -14454,7 +14447,7 @@
         <v>25</v>
       </c>
       <c r="N172" s="21" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="O172" s="21" t="s">
         <v>1067</v>
@@ -14472,7 +14465,7 @@
         <v>558</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D173" s="21" t="s">
         <v>503</v>
@@ -16720,14 +16713,14 @@
         <v>1067</v>
       </c>
       <c r="P220" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q220" s="46">
         <v>44166</v>
       </c>
       <c r="R220" s="46"/>
       <c r="S220" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16818,20 +16811,20 @@
         <v>25</v>
       </c>
       <c r="N222" s="11" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O222" s="11" t="s">
         <v>1067</v>
       </c>
       <c r="P222" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q222" s="46">
         <v>44166</v>
       </c>
       <c r="R222" s="46"/>
       <c r="S222" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16875,20 +16868,20 @@
         <v>26</v>
       </c>
       <c r="N223" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O223" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P223" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q223" s="46">
         <v>44166</v>
       </c>
       <c r="R223" s="46"/>
       <c r="S223" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16932,20 +16925,20 @@
         <v>25</v>
       </c>
       <c r="N224" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O224" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P224" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q224" s="46">
         <v>44166</v>
       </c>
       <c r="R224" s="46"/>
       <c r="S224" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16989,20 +16982,20 @@
         <v>26</v>
       </c>
       <c r="N225" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O225" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P225" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q225" s="46">
         <v>44166</v>
       </c>
       <c r="R225" s="46"/>
       <c r="S225" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17013,7 +17006,7 @@
         <v>284</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D226" s="21" t="s">
         <v>462</v>
@@ -17046,20 +17039,20 @@
         <v>25</v>
       </c>
       <c r="N226" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O226" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P226" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q226" s="46">
         <v>44166</v>
       </c>
       <c r="R226" s="46"/>
       <c r="S226" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17103,20 +17096,20 @@
         <v>26</v>
       </c>
       <c r="N227" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O227" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P227" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q227" s="46">
         <v>44166</v>
       </c>
       <c r="R227" s="46"/>
       <c r="S227" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17160,20 +17153,20 @@
         <v>26</v>
       </c>
       <c r="N228" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O228" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P228" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q228" s="46">
         <v>44166</v>
       </c>
       <c r="R228" s="46"/>
       <c r="S228" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17217,20 +17210,20 @@
         <v>26</v>
       </c>
       <c r="N229" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O229" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P229" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q229" s="46">
         <v>44166</v>
       </c>
       <c r="R229" s="46"/>
       <c r="S229" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17274,20 +17267,20 @@
         <v>26</v>
       </c>
       <c r="N230" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O230" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P230" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q230" s="46">
         <v>44166</v>
       </c>
       <c r="R230" s="46"/>
       <c r="S230" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17331,20 +17324,20 @@
         <v>26</v>
       </c>
       <c r="N231" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O231" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P231" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q231" s="46">
         <v>44166</v>
       </c>
       <c r="R231" s="46"/>
       <c r="S231" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17388,20 +17381,20 @@
         <v>26</v>
       </c>
       <c r="N232" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O232" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P232" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q232" s="46">
         <v>44166</v>
       </c>
       <c r="R232" s="46"/>
       <c r="S232" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17445,20 +17438,20 @@
         <v>26</v>
       </c>
       <c r="N233" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O233" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P233" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q233" s="46">
         <v>44166</v>
       </c>
       <c r="R233" s="46"/>
       <c r="S233" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17502,20 +17495,20 @@
         <v>26</v>
       </c>
       <c r="N234" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O234" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P234" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q234" s="46">
         <v>44166</v>
       </c>
       <c r="R234" s="46"/>
       <c r="S234" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17559,20 +17552,20 @@
         <v>26</v>
       </c>
       <c r="N235" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O235" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P235" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q235" s="46">
         <v>44166</v>
       </c>
       <c r="R235" s="46"/>
       <c r="S235" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17616,20 +17609,20 @@
         <v>26</v>
       </c>
       <c r="N236" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O236" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P236" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q236" s="46">
         <v>44166</v>
       </c>
       <c r="R236" s="46"/>
       <c r="S236" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17673,20 +17666,20 @@
         <v>26</v>
       </c>
       <c r="N237" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O237" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P237" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q237" s="46">
         <v>44166</v>
       </c>
       <c r="R237" s="46"/>
       <c r="S237" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17730,20 +17723,20 @@
         <v>26</v>
       </c>
       <c r="N238" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O238" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P238" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q238" s="46">
         <v>44166</v>
       </c>
       <c r="R238" s="46"/>
       <c r="S238" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17787,20 +17780,20 @@
         <v>26</v>
       </c>
       <c r="N239" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O239" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P239" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q239" s="46">
         <v>44166</v>
       </c>
       <c r="R239" s="46"/>
       <c r="S239" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17844,20 +17837,20 @@
         <v>26</v>
       </c>
       <c r="N240" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O240" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P240" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q240" s="46">
         <v>44166</v>
       </c>
       <c r="R240" s="46"/>
       <c r="S240" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17901,20 +17894,20 @@
         <v>26</v>
       </c>
       <c r="N241" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O241" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P241" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q241" s="46">
         <v>44166</v>
       </c>
       <c r="R241" s="46"/>
       <c r="S241" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17958,20 +17951,20 @@
         <v>26</v>
       </c>
       <c r="N242" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O242" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P242" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q242" s="46">
         <v>44166</v>
       </c>
       <c r="R242" s="46"/>
       <c r="S242" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18015,20 +18008,20 @@
         <v>25</v>
       </c>
       <c r="N243" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O243" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P243" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q243" s="46">
         <v>44166</v>
       </c>
       <c r="R243" s="46"/>
       <c r="S243" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18072,20 +18065,20 @@
         <v>25</v>
       </c>
       <c r="N244" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O244" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P244" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q244" s="46">
         <v>44166</v>
       </c>
       <c r="R244" s="46"/>
       <c r="S244" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18129,20 +18122,20 @@
         <v>25</v>
       </c>
       <c r="N245" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O245" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P245" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q245" s="46">
         <v>44166</v>
       </c>
       <c r="R245" s="46"/>
       <c r="S245" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18186,20 +18179,20 @@
         <v>25</v>
       </c>
       <c r="N246" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O246" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P246" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q246" s="46">
         <v>44166</v>
       </c>
       <c r="R246" s="46"/>
       <c r="S246" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18243,20 +18236,20 @@
         <v>25</v>
       </c>
       <c r="N247" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O247" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P247" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q247" s="46">
         <v>44166</v>
       </c>
       <c r="R247" s="46"/>
       <c r="S247" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18300,20 +18293,20 @@
         <v>25</v>
       </c>
       <c r="N248" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O248" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P248" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q248" s="46">
         <v>44166</v>
       </c>
       <c r="R248" s="46"/>
       <c r="S248" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18357,20 +18350,20 @@
         <v>25</v>
       </c>
       <c r="N249" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O249" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P249" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q249" s="46">
         <v>44166</v>
       </c>
       <c r="R249" s="46"/>
       <c r="S249" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18414,20 +18407,20 @@
         <v>25</v>
       </c>
       <c r="N250" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O250" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P250" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q250" s="46">
         <v>44166</v>
       </c>
       <c r="R250" s="46"/>
       <c r="S250" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18471,20 +18464,20 @@
         <v>26</v>
       </c>
       <c r="N251" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O251" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P251" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q251" s="46">
         <v>44166</v>
       </c>
       <c r="R251" s="46"/>
       <c r="S251" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18528,20 +18521,20 @@
         <v>26</v>
       </c>
       <c r="N252" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O252" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P252" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q252" s="46">
         <v>44166</v>
       </c>
       <c r="R252" s="46"/>
       <c r="S252" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18585,20 +18578,20 @@
         <v>26</v>
       </c>
       <c r="N253" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O253" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P253" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q253" s="46">
         <v>44166</v>
       </c>
       <c r="R253" s="46"/>
       <c r="S253" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18642,20 +18635,20 @@
         <v>26</v>
       </c>
       <c r="N254" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O254" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P254" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q254" s="46">
         <v>44166</v>
       </c>
       <c r="R254" s="46"/>
       <c r="S254" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18699,20 +18692,20 @@
         <v>26</v>
       </c>
       <c r="N255" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O255" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P255" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q255" s="46">
         <v>44166</v>
       </c>
       <c r="R255" s="46"/>
       <c r="S255" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18756,20 +18749,20 @@
         <v>26</v>
       </c>
       <c r="N256" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O256" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P256" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q256" s="46">
         <v>44166</v>
       </c>
       <c r="R256" s="46"/>
       <c r="S256" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18813,20 +18806,20 @@
         <v>25</v>
       </c>
       <c r="N257" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O257" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P257" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q257" s="46">
         <v>44166</v>
       </c>
       <c r="R257" s="46"/>
       <c r="S257" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18870,20 +18863,20 @@
         <v>26</v>
       </c>
       <c r="N258" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O258" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P258" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q258" s="46">
         <v>44166</v>
       </c>
       <c r="R258" s="46"/>
       <c r="S258" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18927,20 +18920,20 @@
         <v>26</v>
       </c>
       <c r="N259" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O259" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P259" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q259" s="46">
         <v>44166</v>
       </c>
       <c r="R259" s="46"/>
       <c r="S259" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18984,20 +18977,20 @@
         <v>26</v>
       </c>
       <c r="N260" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O260" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P260" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q260" s="46">
         <v>44166</v>
       </c>
       <c r="R260" s="46"/>
       <c r="S260" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19041,20 +19034,20 @@
         <v>25</v>
       </c>
       <c r="N261" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O261" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P261" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q261" s="46">
         <v>44166</v>
       </c>
       <c r="R261" s="46"/>
       <c r="S261" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19098,20 +19091,20 @@
         <v>26</v>
       </c>
       <c r="N262" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O262" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P262" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q262" s="46">
         <v>44166</v>
       </c>
       <c r="R262" s="46"/>
       <c r="S262" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19155,20 +19148,20 @@
         <v>26</v>
       </c>
       <c r="N263" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O263" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P263" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q263" s="46">
         <v>44166</v>
       </c>
       <c r="R263" s="46"/>
       <c r="S263" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19212,20 +19205,20 @@
         <v>26</v>
       </c>
       <c r="N264" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O264" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P264" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q264" s="46">
         <v>44166</v>
       </c>
       <c r="R264" s="46"/>
       <c r="S264" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19269,20 +19262,20 @@
         <v>26</v>
       </c>
       <c r="N265" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O265" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P265" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q265" s="46">
         <v>44166</v>
       </c>
       <c r="R265" s="46"/>
       <c r="S265" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19326,20 +19319,20 @@
         <v>25</v>
       </c>
       <c r="N266" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O266" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P266" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q266" s="46">
         <v>44166</v>
       </c>
       <c r="R266" s="46"/>
       <c r="S266" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19383,20 +19376,20 @@
         <v>25</v>
       </c>
       <c r="N267" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O267" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P267" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q267" s="46">
         <v>44166</v>
       </c>
       <c r="R267" s="46"/>
       <c r="S267" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19407,7 +19400,7 @@
         <v>359</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D268" s="21" t="s">
         <v>462</v>
@@ -19454,7 +19447,7 @@
         <v>360</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D269" s="21" t="s">
         <v>462</v>
@@ -19640,20 +19633,20 @@
         <v>26</v>
       </c>
       <c r="N272" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O272" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P272" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q272" s="46">
         <v>44166</v>
       </c>
       <c r="R272" s="46"/>
       <c r="S272" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19697,20 +19690,20 @@
         <v>26</v>
       </c>
       <c r="N273" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O273" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P273" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q273" s="46">
         <v>44166</v>
       </c>
       <c r="R273" s="46"/>
       <c r="S273" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19848,20 +19841,20 @@
         <v>26</v>
       </c>
       <c r="N276" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O276" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P276" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q276" s="46">
         <v>44166</v>
       </c>
       <c r="R276" s="46"/>
       <c r="S276" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19905,20 +19898,20 @@
         <v>26</v>
       </c>
       <c r="N277" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O277" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P277" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q277" s="46">
         <v>44166</v>
       </c>
       <c r="R277" s="46"/>
       <c r="S277" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19962,20 +19955,20 @@
         <v>25</v>
       </c>
       <c r="N278" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O278" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P278" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q278" s="46">
         <v>44166</v>
       </c>
       <c r="R278" s="46"/>
       <c r="S278" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20019,20 +20012,20 @@
         <v>25</v>
       </c>
       <c r="N279" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O279" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P279" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q279" s="46">
         <v>44166</v>
       </c>
       <c r="R279" s="46"/>
       <c r="S279" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20264,20 +20257,20 @@
         <v>25</v>
       </c>
       <c r="N284" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O284" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P284" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q284" s="46">
         <v>44166</v>
       </c>
       <c r="R284" s="46"/>
       <c r="S284" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20462,20 +20455,20 @@
         <v>25</v>
       </c>
       <c r="N288" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O288" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P288" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q288" s="46">
         <v>44166</v>
       </c>
       <c r="R288" s="46"/>
       <c r="S288" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20519,20 +20512,20 @@
         <v>25</v>
       </c>
       <c r="N289" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O289" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P289" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q289" s="46">
         <v>44166</v>
       </c>
       <c r="R289" s="46"/>
       <c r="S289" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20576,20 +20569,20 @@
         <v>25</v>
       </c>
       <c r="N290" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O290" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P290" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q290" s="46">
         <v>44166</v>
       </c>
       <c r="R290" s="46"/>
       <c r="S290" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20633,20 +20626,20 @@
         <v>25</v>
       </c>
       <c r="N291" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O291" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P291" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q291" s="46">
         <v>44166</v>
       </c>
       <c r="R291" s="46"/>
       <c r="S291" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20690,20 +20683,20 @@
         <v>25</v>
       </c>
       <c r="N292" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O292" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P292" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q292" s="46">
         <v>44166</v>
       </c>
       <c r="R292" s="46"/>
       <c r="S292" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20714,7 +20707,7 @@
         <v>617</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D293" s="21" t="s">
         <v>462</v>
@@ -20747,20 +20740,20 @@
         <v>25</v>
       </c>
       <c r="N293" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O293" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P293" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q293" s="46">
         <v>44166</v>
       </c>
       <c r="R293" s="46"/>
       <c r="S293" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20804,20 +20797,20 @@
         <v>25</v>
       </c>
       <c r="N294" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O294" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P294" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q294" s="46">
         <v>44166</v>
       </c>
       <c r="R294" s="46"/>
       <c r="S294" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20912,20 +20905,20 @@
         <v>25</v>
       </c>
       <c r="N296" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O296" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P296" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q296" s="46">
         <v>44166</v>
       </c>
       <c r="R296" s="46"/>
       <c r="S296" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21208,20 +21201,20 @@
         <v>25</v>
       </c>
       <c r="N302" s="11" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="O302" s="11" t="s">
         <v>1067</v>
       </c>
       <c r="P302" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q302" s="46">
         <v>44166</v>
       </c>
       <c r="R302" s="46"/>
       <c r="S302" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21265,20 +21258,20 @@
         <v>25</v>
       </c>
       <c r="N303" s="11" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O303" s="11" t="s">
         <v>1067</v>
       </c>
       <c r="P303" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q303" s="46">
         <v>44166</v>
       </c>
       <c r="R303" s="46"/>
       <c r="S303" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21322,20 +21315,20 @@
         <v>25</v>
       </c>
       <c r="N304" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O304" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P304" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q304" s="46">
         <v>44166</v>
       </c>
       <c r="R304" s="46"/>
       <c r="S304" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21379,20 +21372,20 @@
         <v>25</v>
       </c>
       <c r="N305" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O305" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P305" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q305" s="46">
         <v>44166</v>
       </c>
       <c r="R305" s="46"/>
       <c r="S305" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21906,20 +21899,20 @@
         <v>26</v>
       </c>
       <c r="N316" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O316" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P316" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q316" s="46">
         <v>44166</v>
       </c>
       <c r="R316" s="46"/>
       <c r="S316" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21963,20 +21956,20 @@
         <v>26</v>
       </c>
       <c r="N317" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O317" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P317" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q317" s="46">
         <v>44166</v>
       </c>
       <c r="R317" s="46"/>
       <c r="S317" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22020,20 +22013,20 @@
         <v>26</v>
       </c>
       <c r="N318" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O318" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P318" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q318" s="46">
         <v>44166</v>
       </c>
       <c r="R318" s="46"/>
       <c r="S318" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22077,20 +22070,20 @@
         <v>26</v>
       </c>
       <c r="N319" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O319" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P319" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q319" s="46">
         <v>44166</v>
       </c>
       <c r="R319" s="46"/>
       <c r="S319" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22134,20 +22127,20 @@
         <v>26</v>
       </c>
       <c r="N320" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O320" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P320" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q320" s="46">
         <v>44166</v>
       </c>
       <c r="R320" s="46"/>
       <c r="S320" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22285,20 +22278,20 @@
         <v>26</v>
       </c>
       <c r="N323" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O323" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P323" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q323" s="46">
         <v>44166</v>
       </c>
       <c r="R323" s="46"/>
       <c r="S323" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22440,20 +22433,20 @@
         <v>26</v>
       </c>
       <c r="N326" s="11" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="O326" s="11" t="s">
         <v>1067</v>
       </c>
       <c r="P326" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q326" s="46">
         <v>44166</v>
       </c>
       <c r="R326" s="46"/>
       <c r="S326" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22497,20 +22490,20 @@
         <v>26</v>
       </c>
       <c r="N327" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O327" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P327" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q327" s="46">
         <v>44166</v>
       </c>
       <c r="R327" s="46"/>
       <c r="S327" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22605,20 +22598,20 @@
         <v>25</v>
       </c>
       <c r="N329" s="21" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="O329" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P329" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q329" s="46">
         <v>44166</v>
       </c>
       <c r="R329" s="46"/>
       <c r="S329" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22662,20 +22655,20 @@
         <v>25</v>
       </c>
       <c r="N330" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O330" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P330" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q330" s="46">
         <v>44166</v>
       </c>
       <c r="R330" s="46"/>
       <c r="S330" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22770,20 +22763,20 @@
         <v>25</v>
       </c>
       <c r="N332" s="21" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="O332" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P332" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q332" s="46">
         <v>44166</v>
       </c>
       <c r="R332" s="46"/>
       <c r="S332" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22827,20 +22820,20 @@
         <v>25</v>
       </c>
       <c r="N333" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O333" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P333" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q333" s="46">
         <v>44166</v>
       </c>
       <c r="R333" s="46"/>
       <c r="S333" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22884,20 +22877,20 @@
         <v>25</v>
       </c>
       <c r="N334" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O334" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P334" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q334" s="46">
         <v>44166</v>
       </c>
       <c r="R334" s="46"/>
       <c r="S334" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22941,20 +22934,20 @@
         <v>25</v>
       </c>
       <c r="N335" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O335" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P335" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q335" s="46">
         <v>44166</v>
       </c>
       <c r="R335" s="46"/>
       <c r="S335" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22998,20 +22991,20 @@
         <v>25</v>
       </c>
       <c r="N336" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O336" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P336" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q336" s="46">
         <v>44166</v>
       </c>
       <c r="R336" s="46"/>
       <c r="S336" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31271,20 +31264,20 @@
         <v>85</v>
       </c>
       <c r="N513" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O513" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P513" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q513" s="46">
         <v>44166</v>
       </c>
       <c r="R513" s="46"/>
       <c r="S513" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31328,20 +31321,20 @@
         <v>85</v>
       </c>
       <c r="N514" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O514" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P514" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q514" s="46">
         <v>44166</v>
       </c>
       <c r="R514" s="46"/>
       <c r="S514" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31385,20 +31378,20 @@
         <v>85</v>
       </c>
       <c r="N515" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O515" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P515" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q515" s="46">
         <v>44166</v>
       </c>
       <c r="R515" s="46"/>
       <c r="S515" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31442,20 +31435,20 @@
         <v>85</v>
       </c>
       <c r="N516" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O516" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P516" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q516" s="46">
         <v>44166</v>
       </c>
       <c r="R516" s="46"/>
       <c r="S516" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31499,20 +31492,20 @@
         <v>85</v>
       </c>
       <c r="N517" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O517" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P517" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q517" s="46">
         <v>44166</v>
       </c>
       <c r="R517" s="46"/>
       <c r="S517" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31556,20 +31549,20 @@
         <v>85</v>
       </c>
       <c r="N518" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O518" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P518" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q518" s="46">
         <v>44166</v>
       </c>
       <c r="R518" s="46"/>
       <c r="S518" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31613,20 +31606,20 @@
         <v>85</v>
       </c>
       <c r="N519" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O519" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P519" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q519" s="46">
         <v>44166</v>
       </c>
       <c r="R519" s="46"/>
       <c r="S519" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31670,20 +31663,20 @@
         <v>25</v>
       </c>
       <c r="N520" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O520" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P520" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q520" s="46">
         <v>44166</v>
       </c>
       <c r="R520" s="46"/>
       <c r="S520" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31727,7 +31720,7 @@
         <v>85</v>
       </c>
       <c r="N521" s="11" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="O521" s="21" t="s">
         <v>1067</v>
@@ -31829,20 +31822,20 @@
         <v>26</v>
       </c>
       <c r="N523" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O523" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P523" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q523" s="46">
         <v>44166</v>
       </c>
       <c r="R523" s="46"/>
       <c r="S523" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31886,20 +31879,20 @@
         <v>26</v>
       </c>
       <c r="N524" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O524" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P524" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q524" s="46">
         <v>44166</v>
       </c>
       <c r="R524" s="46"/>
       <c r="S524" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31943,20 +31936,20 @@
         <v>85</v>
       </c>
       <c r="N525" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O525" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P525" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q525" s="46">
         <v>44166</v>
       </c>
       <c r="R525" s="46"/>
       <c r="S525" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32000,20 +31993,20 @@
         <v>25</v>
       </c>
       <c r="N526" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O526" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P526" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q526" s="46">
         <v>44166</v>
       </c>
       <c r="R526" s="46"/>
       <c r="S526" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32057,20 +32050,20 @@
         <v>25</v>
       </c>
       <c r="N527" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O527" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P527" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q527" s="46">
         <v>44166</v>
       </c>
       <c r="R527" s="46"/>
       <c r="S527" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32114,20 +32107,20 @@
         <v>25</v>
       </c>
       <c r="N528" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O528" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P528" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q528" s="46">
         <v>44166</v>
       </c>
       <c r="R528" s="46"/>
       <c r="S528" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32171,20 +32164,20 @@
         <v>25</v>
       </c>
       <c r="N529" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O529" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P529" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q529" s="46">
         <v>44166</v>
       </c>
       <c r="R529" s="46"/>
       <c r="S529" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32228,20 +32221,20 @@
         <v>25</v>
       </c>
       <c r="N530" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O530" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P530" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q530" s="46">
         <v>44166</v>
       </c>
       <c r="R530" s="46"/>
       <c r="S530" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32332,20 +32325,20 @@
         <v>25</v>
       </c>
       <c r="N532" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O532" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P532" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q532" s="46">
         <v>44166</v>
       </c>
       <c r="R532" s="46"/>
       <c r="S532" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32389,20 +32382,20 @@
         <v>25</v>
       </c>
       <c r="N533" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O533" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P533" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q533" s="46">
         <v>44166</v>
       </c>
       <c r="R533" s="46"/>
       <c r="S533" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32446,20 +32439,20 @@
         <v>25</v>
       </c>
       <c r="N534" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O534" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P534" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q534" s="46">
         <v>44166</v>
       </c>
       <c r="R534" s="46"/>
       <c r="S534" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32503,20 +32496,20 @@
         <v>25</v>
       </c>
       <c r="N535" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O535" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P535" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q535" s="46">
         <v>44166</v>
       </c>
       <c r="R535" s="46"/>
       <c r="S535" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32560,20 +32553,20 @@
         <v>25</v>
       </c>
       <c r="N536" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O536" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="P536" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q536" s="46">
         <v>44166</v>
       </c>
       <c r="R536" s="46"/>
       <c r="S536" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32617,20 +32610,20 @@
         <v>25</v>
       </c>
       <c r="N537" s="25" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O537" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="P537" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q537" s="46">
         <v>44166</v>
       </c>
       <c r="R537" s="46"/>
       <c r="S537" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34898,7 +34891,7 @@
     </filterColumn>
     <filterColumn colId="13">
       <filters>
-        <filter val="opdracht_7"/>
+        <filter val="opdracht_11"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F580DB-291E-4917-AC41-88B0A4E83F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499B9DE-B283-4C61-ABAE-C2E6C0A23E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Legenda!$A:$B,Legenda!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7834" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7834" uniqueCount="1263">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3807,9 +3806,6 @@
     <t>opdracht_1</t>
   </si>
   <si>
-    <t>opdracht_3</t>
-  </si>
-  <si>
     <t>Request entity too large (413 http fout)</t>
   </si>
   <si>
@@ -3874,6 +3870,12 @@
   </si>
   <si>
     <t>Internal server error</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1022</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1023</t>
   </si>
 </sst>
 </file>
@@ -5421,7 +5423,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N167" sqref="N167"/>
+      <selection pane="bottomLeft" activeCell="N148" sqref="N148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5493,7 +5495,7 @@
         <v>1232</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S1" s="43" t="s">
         <v>1231</v>
@@ -6396,7 +6398,7 @@
         <v>44166</v>
       </c>
       <c r="R20" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S20" s="21" t="s">
         <v>1234</v>
@@ -6453,7 +6455,7 @@
         <v>44166</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S21" s="21" t="s">
         <v>1234</v>
@@ -6510,7 +6512,7 @@
         <v>44166</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S22" s="21" t="s">
         <v>1234</v>
@@ -6567,7 +6569,7 @@
         <v>44166</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S23" s="21" t="s">
         <v>1234</v>
@@ -6624,7 +6626,7 @@
         <v>44166</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S24" s="21" t="s">
         <v>1234</v>
@@ -6681,7 +6683,7 @@
         <v>44166</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S25" s="21" t="s">
         <v>1234</v>
@@ -6738,7 +6740,7 @@
         <v>44166</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S26" s="21" t="s">
         <v>1234</v>
@@ -6795,7 +6797,7 @@
         <v>44166</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S27" s="21" t="s">
         <v>1234</v>
@@ -6852,7 +6854,7 @@
         <v>44166</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S28" s="21" t="s">
         <v>1234</v>
@@ -6909,7 +6911,7 @@
         <v>44166</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S29" s="21" t="s">
         <v>1234</v>
@@ -6966,7 +6968,7 @@
         <v>44166</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S30" s="21" t="s">
         <v>1234</v>
@@ -7023,7 +7025,7 @@
         <v>44166</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S31" s="21" t="s">
         <v>1234</v>
@@ -7080,7 +7082,7 @@
         <v>44166</v>
       </c>
       <c r="R32" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S32" s="21" t="s">
         <v>1234</v>
@@ -7137,7 +7139,7 @@
         <v>44166</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S33" s="21" t="s">
         <v>1234</v>
@@ -7397,7 +7399,7 @@
       </c>
       <c r="R38" s="46"/>
       <c r="S38" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7441,7 +7443,7 @@
         <v>25</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>1066</v>
@@ -7454,7 +7456,7 @@
       </c>
       <c r="R39" s="46"/>
       <c r="S39" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7498,7 +7500,7 @@
         <v>25</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>1066</v>
@@ -7511,7 +7513,7 @@
       </c>
       <c r="R40" s="46"/>
       <c r="S40" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7555,7 +7557,7 @@
         <v>25</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>1066</v>
@@ -7568,7 +7570,7 @@
       </c>
       <c r="R41" s="46"/>
       <c r="S41" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7612,7 +7614,7 @@
         <v>25</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>1066</v>
@@ -7625,7 +7627,7 @@
       </c>
       <c r="R42" s="46"/>
       <c r="S42" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7669,7 +7671,7 @@
         <v>25</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>1066</v>
@@ -7682,7 +7684,7 @@
       </c>
       <c r="R43" s="46"/>
       <c r="S43" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7726,7 +7728,7 @@
         <v>25</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>1066</v>
@@ -7739,7 +7741,7 @@
       </c>
       <c r="R44" s="46"/>
       <c r="S44" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7783,7 +7785,7 @@
         <v>25</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>1066</v>
@@ -7796,7 +7798,7 @@
       </c>
       <c r="R45" s="46"/>
       <c r="S45" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7852,7 +7854,7 @@
         <v>44166</v>
       </c>
       <c r="R46" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S46" s="21" t="s">
         <v>1235</v>
@@ -7911,7 +7913,7 @@
         <v>44166</v>
       </c>
       <c r="R47" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S47" s="21" t="s">
         <v>1236</v>
@@ -7958,7 +7960,7 @@
         <v>25</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>1066</v>
@@ -7971,7 +7973,7 @@
       </c>
       <c r="R48" s="46"/>
       <c r="S48" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8027,10 +8029,10 @@
         <v>44166</v>
       </c>
       <c r="R49" s="46" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8086,10 +8088,10 @@
         <v>44166</v>
       </c>
       <c r="R50" s="46" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8133,7 +8135,7 @@
         <v>25</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>1066</v>
@@ -8146,7 +8148,7 @@
       </c>
       <c r="R51" s="46"/>
       <c r="S51" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8491,7 +8493,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>1</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>25</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>1239</v>
+        <v>1261</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>1067</v>
@@ -8545,10 +8547,10 @@
       </c>
       <c r="R58" s="46"/>
       <c r="S58" s="21" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>1</v>
       </c>
@@ -8589,7 +8591,7 @@
         <v>25</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>1239</v>
+        <v>1262</v>
       </c>
       <c r="O59" s="21" t="s">
         <v>1067</v>
@@ -8602,7 +8604,7 @@
       </c>
       <c r="R59" s="46"/>
       <c r="S59" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8800,7 +8802,7 @@
       </c>
       <c r="R63" s="46"/>
       <c r="S63" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8904,7 +8906,7 @@
       </c>
       <c r="R65" s="46"/>
       <c r="S65" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9404,7 +9406,7 @@
       </c>
       <c r="R75" s="46"/>
       <c r="S75" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10037,7 +10039,7 @@
       </c>
       <c r="R88" s="46"/>
       <c r="S88" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10094,7 +10096,7 @@
       </c>
       <c r="R89" s="46"/>
       <c r="S89" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10151,7 +10153,7 @@
       </c>
       <c r="R90" s="46"/>
       <c r="S90" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10208,7 +10210,7 @@
       </c>
       <c r="R91" s="46"/>
       <c r="S91" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10265,7 +10267,7 @@
       </c>
       <c r="R92" s="46"/>
       <c r="S92" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10322,7 +10324,7 @@
       </c>
       <c r="R93" s="46"/>
       <c r="S93" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10379,7 +10381,7 @@
       </c>
       <c r="R94" s="46"/>
       <c r="S94" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10436,7 +10438,7 @@
       </c>
       <c r="R95" s="46"/>
       <c r="S95" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10493,7 +10495,7 @@
       </c>
       <c r="R96" s="46"/>
       <c r="S96" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10550,7 +10552,7 @@
       </c>
       <c r="R97" s="46"/>
       <c r="S97" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10607,7 +10609,7 @@
       </c>
       <c r="R98" s="46"/>
       <c r="S98" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10664,7 +10666,7 @@
       </c>
       <c r="R99" s="46"/>
       <c r="S99" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10721,7 +10723,7 @@
       </c>
       <c r="R100" s="46"/>
       <c r="S100" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10778,7 +10780,7 @@
       </c>
       <c r="R101" s="46"/>
       <c r="S101" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10835,7 +10837,7 @@
       </c>
       <c r="R102" s="46"/>
       <c r="S102" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10892,7 +10894,7 @@
       </c>
       <c r="R103" s="46"/>
       <c r="S103" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11382,7 +11384,7 @@
       </c>
       <c r="R113" s="46"/>
       <c r="S113" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12093,7 +12095,7 @@
       </c>
       <c r="R126" s="46"/>
       <c r="S126" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12150,7 +12152,7 @@
       </c>
       <c r="R127" s="46"/>
       <c r="S127" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12207,7 +12209,7 @@
       </c>
       <c r="R128" s="46"/>
       <c r="S128" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12264,7 +12266,7 @@
       </c>
       <c r="R129" s="46"/>
       <c r="S129" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12321,7 +12323,7 @@
       </c>
       <c r="R130" s="46"/>
       <c r="S130" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12521,7 +12523,7 @@
       </c>
       <c r="R134" s="46"/>
       <c r="S134" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12578,7 +12580,7 @@
       </c>
       <c r="R135" s="46"/>
       <c r="S135" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13017,7 +13019,7 @@
       </c>
       <c r="R144" s="46"/>
       <c r="S144" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13121,7 +13123,7 @@
       </c>
       <c r="R146" s="46"/>
       <c r="S146" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13178,7 +13180,7 @@
       </c>
       <c r="R147" s="46"/>
       <c r="S147" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13235,7 +13237,7 @@
       </c>
       <c r="R148" s="46"/>
       <c r="S148" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13292,7 +13294,7 @@
       </c>
       <c r="R149" s="46"/>
       <c r="S149" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13349,7 +13351,7 @@
       </c>
       <c r="R150" s="46"/>
       <c r="S150" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13453,7 +13455,7 @@
       </c>
       <c r="R152" s="46"/>
       <c r="S152" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -13591,7 +13593,7 @@
         <v>25</v>
       </c>
       <c r="N155" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O155" s="25" t="s">
         <v>1067</v>
@@ -13948,7 +13950,7 @@
       </c>
       <c r="R162" s="46"/>
       <c r="S162" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -14146,7 +14148,7 @@
       </c>
       <c r="R166" s="46"/>
       <c r="S166" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14203,7 +14205,7 @@
       </c>
       <c r="R167" s="46"/>
       <c r="S167" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16824,7 +16826,7 @@
       </c>
       <c r="R222" s="46"/>
       <c r="S222" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16881,7 +16883,7 @@
       </c>
       <c r="R223" s="46"/>
       <c r="S223" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16938,7 +16940,7 @@
       </c>
       <c r="R224" s="46"/>
       <c r="S224" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16995,7 +16997,7 @@
       </c>
       <c r="R225" s="46"/>
       <c r="S225" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17052,7 +17054,7 @@
       </c>
       <c r="R226" s="46"/>
       <c r="S226" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17109,7 +17111,7 @@
       </c>
       <c r="R227" s="46"/>
       <c r="S227" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17166,7 +17168,7 @@
       </c>
       <c r="R228" s="46"/>
       <c r="S228" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17223,7 +17225,7 @@
       </c>
       <c r="R229" s="46"/>
       <c r="S229" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17280,7 +17282,7 @@
       </c>
       <c r="R230" s="46"/>
       <c r="S230" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17337,7 +17339,7 @@
       </c>
       <c r="R231" s="46"/>
       <c r="S231" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17394,7 +17396,7 @@
       </c>
       <c r="R232" s="46"/>
       <c r="S232" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17451,7 +17453,7 @@
       </c>
       <c r="R233" s="46"/>
       <c r="S233" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17508,7 +17510,7 @@
       </c>
       <c r="R234" s="46"/>
       <c r="S234" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17565,7 +17567,7 @@
       </c>
       <c r="R235" s="46"/>
       <c r="S235" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17622,7 +17624,7 @@
       </c>
       <c r="R236" s="46"/>
       <c r="S236" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17679,7 +17681,7 @@
       </c>
       <c r="R237" s="46"/>
       <c r="S237" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17736,7 +17738,7 @@
       </c>
       <c r="R238" s="46"/>
       <c r="S238" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17793,7 +17795,7 @@
       </c>
       <c r="R239" s="46"/>
       <c r="S239" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17850,7 +17852,7 @@
       </c>
       <c r="R240" s="46"/>
       <c r="S240" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17907,7 +17909,7 @@
       </c>
       <c r="R241" s="46"/>
       <c r="S241" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -17964,7 +17966,7 @@
       </c>
       <c r="R242" s="46"/>
       <c r="S242" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18021,7 +18023,7 @@
       </c>
       <c r="R243" s="46"/>
       <c r="S243" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18078,7 +18080,7 @@
       </c>
       <c r="R244" s="46"/>
       <c r="S244" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18135,7 +18137,7 @@
       </c>
       <c r="R245" s="46"/>
       <c r="S245" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18192,7 +18194,7 @@
       </c>
       <c r="R246" s="46"/>
       <c r="S246" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18249,7 +18251,7 @@
       </c>
       <c r="R247" s="46"/>
       <c r="S247" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18306,7 +18308,7 @@
       </c>
       <c r="R248" s="46"/>
       <c r="S248" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18363,7 +18365,7 @@
       </c>
       <c r="R249" s="46"/>
       <c r="S249" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18420,7 +18422,7 @@
       </c>
       <c r="R250" s="46"/>
       <c r="S250" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18477,7 +18479,7 @@
       </c>
       <c r="R251" s="46"/>
       <c r="S251" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18534,7 +18536,7 @@
       </c>
       <c r="R252" s="46"/>
       <c r="S252" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18591,7 +18593,7 @@
       </c>
       <c r="R253" s="46"/>
       <c r="S253" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18648,7 +18650,7 @@
       </c>
       <c r="R254" s="46"/>
       <c r="S254" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18705,7 +18707,7 @@
       </c>
       <c r="R255" s="46"/>
       <c r="S255" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18762,7 +18764,7 @@
       </c>
       <c r="R256" s="46"/>
       <c r="S256" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18819,7 +18821,7 @@
       </c>
       <c r="R257" s="46"/>
       <c r="S257" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18876,7 +18878,7 @@
       </c>
       <c r="R258" s="46"/>
       <c r="S258" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18933,7 +18935,7 @@
       </c>
       <c r="R259" s="46"/>
       <c r="S259" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18990,7 +18992,7 @@
       </c>
       <c r="R260" s="46"/>
       <c r="S260" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19047,7 +19049,7 @@
       </c>
       <c r="R261" s="46"/>
       <c r="S261" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19104,7 +19106,7 @@
       </c>
       <c r="R262" s="46"/>
       <c r="S262" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19161,7 +19163,7 @@
       </c>
       <c r="R263" s="46"/>
       <c r="S263" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19218,7 +19220,7 @@
       </c>
       <c r="R264" s="46"/>
       <c r="S264" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19275,7 +19277,7 @@
       </c>
       <c r="R265" s="46"/>
       <c r="S265" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19332,7 +19334,7 @@
       </c>
       <c r="R266" s="46"/>
       <c r="S266" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19389,7 +19391,7 @@
       </c>
       <c r="R267" s="46"/>
       <c r="S267" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19646,7 +19648,7 @@
       </c>
       <c r="R272" s="46"/>
       <c r="S272" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19703,7 +19705,7 @@
       </c>
       <c r="R273" s="46"/>
       <c r="S273" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19854,7 +19856,7 @@
       </c>
       <c r="R276" s="46"/>
       <c r="S276" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19911,7 +19913,7 @@
       </c>
       <c r="R277" s="46"/>
       <c r="S277" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -19968,7 +19970,7 @@
       </c>
       <c r="R278" s="46"/>
       <c r="S278" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20025,7 +20027,7 @@
       </c>
       <c r="R279" s="46"/>
       <c r="S279" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20270,7 +20272,7 @@
       </c>
       <c r="R284" s="46"/>
       <c r="S284" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20468,7 +20470,7 @@
       </c>
       <c r="R288" s="46"/>
       <c r="S288" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20525,7 +20527,7 @@
       </c>
       <c r="R289" s="46"/>
       <c r="S289" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20582,7 +20584,7 @@
       </c>
       <c r="R290" s="46"/>
       <c r="S290" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20639,7 +20641,7 @@
       </c>
       <c r="R291" s="46"/>
       <c r="S291" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20696,7 +20698,7 @@
       </c>
       <c r="R292" s="46"/>
       <c r="S292" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20753,7 +20755,7 @@
       </c>
       <c r="R293" s="46"/>
       <c r="S293" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20810,7 +20812,7 @@
       </c>
       <c r="R294" s="46"/>
       <c r="S294" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20918,7 +20920,7 @@
       </c>
       <c r="R296" s="46"/>
       <c r="S296" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21214,7 +21216,7 @@
       </c>
       <c r="R302" s="46"/>
       <c r="S302" s="21" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21271,7 +21273,7 @@
       </c>
       <c r="R303" s="46"/>
       <c r="S303" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21328,7 +21330,7 @@
       </c>
       <c r="R304" s="46"/>
       <c r="S304" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21385,7 +21387,7 @@
       </c>
       <c r="R305" s="46"/>
       <c r="S305" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21912,7 +21914,7 @@
       </c>
       <c r="R316" s="46"/>
       <c r="S316" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21969,7 +21971,7 @@
       </c>
       <c r="R317" s="46"/>
       <c r="S317" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22026,7 +22028,7 @@
       </c>
       <c r="R318" s="46"/>
       <c r="S318" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22083,7 +22085,7 @@
       </c>
       <c r="R319" s="46"/>
       <c r="S319" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22140,7 +22142,7 @@
       </c>
       <c r="R320" s="46"/>
       <c r="S320" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22291,7 +22293,7 @@
       </c>
       <c r="R323" s="46"/>
       <c r="S323" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22446,7 +22448,7 @@
       </c>
       <c r="R326" s="46"/>
       <c r="S326" s="21" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22503,7 +22505,7 @@
       </c>
       <c r="R327" s="46"/>
       <c r="S327" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22611,7 +22613,7 @@
       </c>
       <c r="R329" s="46"/>
       <c r="S329" s="21" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22668,7 +22670,7 @@
       </c>
       <c r="R330" s="46"/>
       <c r="S330" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22776,7 +22778,7 @@
       </c>
       <c r="R332" s="46"/>
       <c r="S332" s="21" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22833,7 +22835,7 @@
       </c>
       <c r="R333" s="46"/>
       <c r="S333" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22890,7 +22892,7 @@
       </c>
       <c r="R334" s="46"/>
       <c r="S334" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22947,7 +22949,7 @@
       </c>
       <c r="R335" s="46"/>
       <c r="S335" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23004,7 +23006,7 @@
       </c>
       <c r="R336" s="46"/>
       <c r="S336" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31277,7 +31279,7 @@
       </c>
       <c r="R513" s="46"/>
       <c r="S513" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31334,7 +31336,7 @@
       </c>
       <c r="R514" s="46"/>
       <c r="S514" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31391,7 +31393,7 @@
       </c>
       <c r="R515" s="46"/>
       <c r="S515" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31448,7 +31450,7 @@
       </c>
       <c r="R516" s="46"/>
       <c r="S516" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31505,7 +31507,7 @@
       </c>
       <c r="R517" s="46"/>
       <c r="S517" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31562,7 +31564,7 @@
       </c>
       <c r="R518" s="46"/>
       <c r="S518" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31619,7 +31621,7 @@
       </c>
       <c r="R519" s="46"/>
       <c r="S519" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31676,7 +31678,7 @@
       </c>
       <c r="R520" s="46"/>
       <c r="S520" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31835,7 +31837,7 @@
       </c>
       <c r="R523" s="46"/>
       <c r="S523" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31892,7 +31894,7 @@
       </c>
       <c r="R524" s="46"/>
       <c r="S524" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31949,7 +31951,7 @@
       </c>
       <c r="R525" s="46"/>
       <c r="S525" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32006,7 +32008,7 @@
       </c>
       <c r="R526" s="46"/>
       <c r="S526" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32063,7 +32065,7 @@
       </c>
       <c r="R527" s="46"/>
       <c r="S527" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32120,7 +32122,7 @@
       </c>
       <c r="R528" s="46"/>
       <c r="S528" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32177,7 +32179,7 @@
       </c>
       <c r="R529" s="46"/>
       <c r="S529" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32234,7 +32236,7 @@
       </c>
       <c r="R530" s="46"/>
       <c r="S530" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32338,7 +32340,7 @@
       </c>
       <c r="R532" s="46"/>
       <c r="S532" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32395,7 +32397,7 @@
       </c>
       <c r="R533" s="46"/>
       <c r="S533" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32452,7 +32454,7 @@
       </c>
       <c r="R534" s="46"/>
       <c r="S534" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32509,7 +32511,7 @@
       </c>
       <c r="R535" s="46"/>
       <c r="S535" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32566,7 +32568,7 @@
       </c>
       <c r="R536" s="46"/>
       <c r="S536" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32623,7 +32625,7 @@
       </c>
       <c r="R537" s="46"/>
       <c r="S537" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34892,6 +34894,7 @@
     <filterColumn colId="13">
       <filters>
         <filter val="opdracht_11"/>
+        <filter val="opdracht_3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -35708,18 +35711,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35742,14 +35745,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -35764,4 +35759,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499B9DE-B283-4C61-ABAE-C2E6C0A23E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1300BD3A-36D3-4B40-A75E-0C74B020C3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5422,8 +5422,8 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N148" sqref="N148"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6347,7 +6347,7 @@
       <c r="R19" s="46"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>4</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>4</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>4</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>4</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>4</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>4</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>4</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>4</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>4</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>4</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>4</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>4</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>4</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>4</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>4</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="R34" s="46"/>
       <c r="S34" s="21"/>
     </row>
-    <row r="35" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>4</v>
       </c>
@@ -7243,7 +7243,7 @@
       <c r="R35" s="46"/>
       <c r="S35" s="21"/>
     </row>
-    <row r="36" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>1</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="R36" s="46"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27">
         <v>1</v>
       </c>
@@ -7345,7 +7345,7 @@
       <c r="R37" s="46"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
         <v>1</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <v>1</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <v>1</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>1</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27">
         <v>1</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27">
         <v>1</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27">
         <v>1</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27">
         <v>1</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27">
         <v>1</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27">
         <v>1</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>1</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27">
         <v>1</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <v>1</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27">
         <v>1</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27">
         <v>1</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27">
         <v>1</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>1</v>
       </c>
@@ -8748,7 +8748,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>2</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>2</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="R64" s="46"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>2</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
         <v>2</v>
       </c>
@@ -8960,7 +8960,7 @@
       <c r="R66" s="46"/>
       <c r="S66" s="21"/>
     </row>
-    <row r="67" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
         <v>2</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="R67" s="46"/>
       <c r="S67" s="21"/>
     </row>
-    <row r="68" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
         <v>2</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="R68" s="46"/>
       <c r="S68" s="21"/>
     </row>
-    <row r="69" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="29">
         <v>2</v>
       </c>
@@ -9109,7 +9109,7 @@
       <c r="R69" s="46"/>
       <c r="S69" s="21"/>
     </row>
-    <row r="70" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="29">
         <v>2</v>
       </c>
@@ -9156,7 +9156,7 @@
       <c r="R70" s="46"/>
       <c r="S70" s="21"/>
     </row>
-    <row r="71" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="29">
         <v>2</v>
       </c>
@@ -9207,7 +9207,7 @@
       <c r="R71" s="46"/>
       <c r="S71" s="21"/>
     </row>
-    <row r="72" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29">
         <v>2</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="R72" s="46"/>
       <c r="S72" s="21"/>
     </row>
-    <row r="73" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -9305,7 +9305,7 @@
       <c r="R73" s="46"/>
       <c r="S73" s="21"/>
     </row>
-    <row r="74" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30">
         <v>2</v>
       </c>
@@ -9352,7 +9352,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>2</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="29">
         <v>2</v>
       </c>
@@ -9456,7 +9456,7 @@
       <c r="R76" s="46"/>
       <c r="S76" s="21"/>
     </row>
-    <row r="77" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29">
         <v>2</v>
       </c>
@@ -9503,7 +9503,7 @@
       <c r="R77" s="46"/>
       <c r="S77" s="21"/>
     </row>
-    <row r="78" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="29">
         <v>2</v>
       </c>
@@ -9550,7 +9550,7 @@
       <c r="R78" s="46"/>
       <c r="S78" s="21"/>
     </row>
-    <row r="79" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
         <v>2</v>
       </c>
@@ -9597,7 +9597,7 @@
       <c r="R79" s="46"/>
       <c r="S79" s="21"/>
     </row>
-    <row r="80" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>2</v>
       </c>
@@ -9644,7 +9644,7 @@
       <c r="R80" s="46"/>
       <c r="S80" s="21"/>
     </row>
-    <row r="81" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
         <v>2</v>
       </c>
@@ -9691,7 +9691,7 @@
       <c r="R81" s="46"/>
       <c r="S81" s="21"/>
     </row>
-    <row r="82" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="29">
         <v>2</v>
       </c>
@@ -9738,7 +9738,7 @@
       <c r="R82" s="46"/>
       <c r="S82" s="21"/>
     </row>
-    <row r="83" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29">
         <v>2</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="R83" s="46"/>
       <c r="S83" s="21"/>
     </row>
-    <row r="84" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="29">
         <v>2</v>
       </c>
@@ -9834,7 +9834,7 @@
       <c r="R84" s="46"/>
       <c r="S84" s="21"/>
     </row>
-    <row r="85" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28">
         <v>2</v>
       </c>
@@ -9881,7 +9881,7 @@
       <c r="R85" s="46"/>
       <c r="S85" s="21"/>
     </row>
-    <row r="86" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="28">
         <v>2</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28">
         <v>2</v>
       </c>
@@ -9985,7 +9985,7 @@
       <c r="R87" s="46"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>2</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>2</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>2</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>2</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>2</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>2</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>2</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>2</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>2</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>2</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>2</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28">
         <v>2</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
         <v>2</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28">
         <v>2</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>2</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>2</v>
       </c>
@@ -10944,7 +10944,7 @@
       <c r="R104" s="46"/>
       <c r="S104" s="21"/>
     </row>
-    <row r="105" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>2</v>
       </c>
@@ -10991,7 +10991,7 @@
       <c r="R105" s="46"/>
       <c r="S105" s="21"/>
     </row>
-    <row r="106" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="29">
         <v>2</v>
       </c>
@@ -11038,7 +11038,7 @@
       <c r="R106" s="46"/>
       <c r="S106" s="21"/>
     </row>
-    <row r="107" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>2</v>
       </c>
@@ -11085,7 +11085,7 @@
       <c r="R107" s="46"/>
       <c r="S107" s="21"/>
     </row>
-    <row r="108" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>2</v>
       </c>
@@ -11179,7 +11179,7 @@
       <c r="R109" s="46"/>
       <c r="S109" s="21"/>
     </row>
-    <row r="110" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>2</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="R110" s="46"/>
       <c r="S110" s="21"/>
     </row>
-    <row r="111" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="30">
         <v>2</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="29">
         <v>2</v>
       </c>
@@ -11330,7 +11330,7 @@
       <c r="R112" s="46"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="29">
         <v>2</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="29">
         <v>2</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="30">
         <v>2</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="30">
         <v>2</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>2</v>
       </c>
@@ -11605,7 +11605,7 @@
       <c r="R117" s="46"/>
       <c r="S117" s="21"/>
     </row>
-    <row r="118" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="29">
         <v>2</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="R118" s="46"/>
       <c r="S118" s="21"/>
     </row>
-    <row r="119" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="29">
         <v>2</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="29">
         <v>2</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>2</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="28">
         <v>2</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="28">
         <v>2</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28">
         <v>2</v>
       </c>
@@ -11984,7 +11984,7 @@
       <c r="R124" s="46"/>
       <c r="S124" s="21"/>
     </row>
-    <row r="125" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="28">
         <v>2</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28">
         <v>2</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28">
         <v>2</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28">
         <v>2</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28">
         <v>2</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28">
         <v>2</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28">
         <v>2</v>
       </c>
@@ -12373,7 +12373,7 @@
       <c r="R131" s="46"/>
       <c r="S131" s="21"/>
     </row>
-    <row r="132" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28">
         <v>2</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="R132" s="46"/>
       <c r="S132" s="21"/>
     </row>
-    <row r="133" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="28">
         <v>2</v>
       </c>
@@ -12469,7 +12469,7 @@
       <c r="R133" s="46"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28">
         <v>2</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28">
         <v>2</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28">
         <v>2</v>
       </c>
@@ -12630,7 +12630,7 @@
       <c r="R136" s="46"/>
       <c r="S136" s="21"/>
     </row>
-    <row r="137" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28">
         <v>2</v>
       </c>
@@ -12679,7 +12679,7 @@
       <c r="R137" s="46"/>
       <c r="S137" s="21"/>
     </row>
-    <row r="138" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -12726,7 +12726,7 @@
       <c r="R138" s="46"/>
       <c r="S138" s="21"/>
     </row>
-    <row r="139" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>5</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="R140" s="46"/>
       <c r="S140" s="21"/>
     </row>
-    <row r="141" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>5</v>
       </c>
@@ -12871,7 +12871,7 @@
       <c r="R141" s="46"/>
       <c r="S141" s="21"/>
     </row>
-    <row r="142" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>5</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="R143" s="46"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="28">
         <v>2</v>
       </c>
@@ -13069,7 +13069,7 @@
       <c r="R145" s="46"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28">
         <v>2</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28">
         <v>2</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28">
         <v>2</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
         <v>2</v>
       </c>
@@ -13505,7 +13505,7 @@
       <c r="R153" s="46"/>
       <c r="S153" s="21"/>
     </row>
-    <row r="154" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28">
         <v>2</v>
       </c>
@@ -13552,7 +13552,7 @@
       <c r="R154" s="46"/>
       <c r="S154" s="21"/>
     </row>
-    <row r="155" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="28">
         <v>2</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="R155" s="46"/>
       <c r="S155" s="21"/>
     </row>
-    <row r="156" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28">
         <v>2</v>
       </c>
@@ -13654,7 +13654,7 @@
       <c r="R156" s="46"/>
       <c r="S156" s="21"/>
     </row>
-    <row r="157" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="32">
         <v>2</v>
       </c>
@@ -13705,7 +13705,7 @@
       <c r="R157" s="46"/>
       <c r="S157" s="21"/>
     </row>
-    <row r="158" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="32">
         <v>2</v>
       </c>
@@ -13802,7 +13802,7 @@
       <c r="R159" s="46"/>
       <c r="S159" s="21"/>
     </row>
-    <row r="160" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28">
         <v>2</v>
       </c>
@@ -13849,7 +13849,7 @@
       <c r="R160" s="46"/>
       <c r="S160" s="21"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="32">
         <v>2</v>
       </c>
@@ -13896,7 +13896,7 @@
       <c r="R161" s="46"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32">
         <v>2</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="32">
         <v>2</v>
       </c>
@@ -14047,7 +14047,7 @@
       <c r="R164" s="46"/>
       <c r="S164" s="21"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="27">
         <v>5</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="27">
         <v>5</v>
       </c>
@@ -14259,7 +14259,7 @@
       <c r="R168" s="46"/>
       <c r="S168" s="21"/>
     </row>
-    <row r="169" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="27">
         <v>5</v>
       </c>
@@ -14306,7 +14306,7 @@
       <c r="R169" s="46"/>
       <c r="S169" s="21"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
         <v>5</v>
       </c>
@@ -14357,7 +14357,7 @@
       <c r="R170" s="46"/>
       <c r="S170" s="21"/>
     </row>
-    <row r="171" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="27">
         <v>5</v>
       </c>
@@ -14408,7 +14408,7 @@
       <c r="R171" s="46"/>
       <c r="S171" s="21"/>
     </row>
-    <row r="172" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="27">
         <v>5</v>
       </c>
@@ -14459,7 +14459,7 @@
       <c r="R172" s="46"/>
       <c r="S172" s="21"/>
     </row>
-    <row r="173" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="27">
         <v>5</v>
       </c>
@@ -14506,7 +14506,7 @@
       <c r="R173" s="46"/>
       <c r="S173" s="21"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="27">
         <v>5</v>
       </c>
@@ -14553,7 +14553,7 @@
       <c r="R174" s="46"/>
       <c r="S174" s="21"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="27">
         <v>5</v>
       </c>
@@ -14600,7 +14600,7 @@
       <c r="R175" s="46"/>
       <c r="S175" s="21"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="27">
         <v>5</v>
       </c>
@@ -14647,7 +14647,7 @@
       <c r="R176" s="46"/>
       <c r="S176" s="21"/>
     </row>
-    <row r="177" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="27">
         <v>5</v>
       </c>
@@ -14694,7 +14694,7 @@
       <c r="R177" s="46"/>
       <c r="S177" s="21"/>
     </row>
-    <row r="178" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="27">
         <v>5</v>
       </c>
@@ -14741,7 +14741,7 @@
       <c r="R178" s="46"/>
       <c r="S178" s="21"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="27">
         <v>5</v>
       </c>
@@ -14788,7 +14788,7 @@
       <c r="R179" s="46"/>
       <c r="S179" s="21"/>
     </row>
-    <row r="180" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="27">
         <v>5</v>
       </c>
@@ -14835,7 +14835,7 @@
       <c r="R180" s="46"/>
       <c r="S180" s="21"/>
     </row>
-    <row r="181" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="27">
         <v>5</v>
       </c>
@@ -14882,7 +14882,7 @@
       <c r="R181" s="46"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="27">
         <v>5</v>
       </c>
@@ -14929,7 +14929,7 @@
       <c r="R182" s="46"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="27">
         <v>5</v>
       </c>
@@ -14976,7 +14976,7 @@
       <c r="R183" s="46"/>
       <c r="S183" s="21"/>
     </row>
-    <row r="184" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="27">
         <v>5</v>
       </c>
@@ -15023,7 +15023,7 @@
       <c r="R184" s="46"/>
       <c r="S184" s="21"/>
     </row>
-    <row r="185" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="27">
         <v>5</v>
       </c>
@@ -15070,7 +15070,7 @@
       <c r="R185" s="46"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="27">
         <v>5</v>
       </c>
@@ -15117,7 +15117,7 @@
       <c r="R186" s="46"/>
       <c r="S186" s="21"/>
     </row>
-    <row r="187" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="27">
         <v>5</v>
       </c>
@@ -15164,7 +15164,7 @@
       <c r="R187" s="46"/>
       <c r="S187" s="21"/>
     </row>
-    <row r="188" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="27">
         <v>5</v>
       </c>
@@ -15211,7 +15211,7 @@
       <c r="R188" s="46"/>
       <c r="S188" s="21"/>
     </row>
-    <row r="189" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="27">
         <v>5</v>
       </c>
@@ -15258,7 +15258,7 @@
       <c r="R189" s="46"/>
       <c r="S189" s="21"/>
     </row>
-    <row r="190" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="27">
         <v>5</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="R190" s="46"/>
       <c r="S190" s="21"/>
     </row>
-    <row r="191" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="27">
         <v>5</v>
       </c>
@@ -15352,7 +15352,7 @@
       <c r="R191" s="46"/>
       <c r="S191" s="21"/>
     </row>
-    <row r="192" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="27">
         <v>5</v>
       </c>
@@ -15399,7 +15399,7 @@
       <c r="R192" s="46"/>
       <c r="S192" s="21"/>
     </row>
-    <row r="193" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="27">
         <v>5</v>
       </c>
@@ -15446,7 +15446,7 @@
       <c r="R193" s="46"/>
       <c r="S193" s="21"/>
     </row>
-    <row r="194" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="27">
         <v>5</v>
       </c>
@@ -15493,7 +15493,7 @@
       <c r="R194" s="46"/>
       <c r="S194" s="21"/>
     </row>
-    <row r="195" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="27">
         <v>5</v>
       </c>
@@ -15540,7 +15540,7 @@
       <c r="R195" s="46"/>
       <c r="S195" s="21"/>
     </row>
-    <row r="196" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="27">
         <v>5</v>
       </c>
@@ -15587,7 +15587,7 @@
       <c r="R196" s="46"/>
       <c r="S196" s="21"/>
     </row>
-    <row r="197" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="27">
         <v>5</v>
       </c>
@@ -15634,7 +15634,7 @@
       <c r="R197" s="46"/>
       <c r="S197" s="21"/>
     </row>
-    <row r="198" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="27">
         <v>5</v>
       </c>
@@ -15681,7 +15681,7 @@
       <c r="R198" s="46"/>
       <c r="S198" s="21"/>
     </row>
-    <row r="199" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="27">
         <v>5</v>
       </c>
@@ -15728,7 +15728,7 @@
       <c r="R199" s="46"/>
       <c r="S199" s="21"/>
     </row>
-    <row r="200" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="27">
         <v>5</v>
       </c>
@@ -15775,7 +15775,7 @@
       <c r="R200" s="46"/>
       <c r="S200" s="21"/>
     </row>
-    <row r="201" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="27">
         <v>5</v>
       </c>
@@ -15822,7 +15822,7 @@
       <c r="R201" s="46"/>
       <c r="S201" s="21"/>
     </row>
-    <row r="202" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="27">
         <v>5</v>
       </c>
@@ -15869,7 +15869,7 @@
       <c r="R202" s="46"/>
       <c r="S202" s="21"/>
     </row>
-    <row r="203" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="27">
         <v>5</v>
       </c>
@@ -15916,7 +15916,7 @@
       <c r="R203" s="46"/>
       <c r="S203" s="21"/>
     </row>
-    <row r="204" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="27">
         <v>5</v>
       </c>
@@ -15963,7 +15963,7 @@
       <c r="R204" s="46"/>
       <c r="S204" s="21"/>
     </row>
-    <row r="205" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="27">
         <v>5</v>
       </c>
@@ -16010,7 +16010,7 @@
       <c r="R205" s="46"/>
       <c r="S205" s="21"/>
     </row>
-    <row r="206" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="27">
         <v>5</v>
       </c>
@@ -16057,7 +16057,7 @@
       <c r="R206" s="46"/>
       <c r="S206" s="21"/>
     </row>
-    <row r="207" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="27">
         <v>5</v>
       </c>
@@ -16104,7 +16104,7 @@
       <c r="R207" s="46"/>
       <c r="S207" s="21"/>
     </row>
-    <row r="208" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="27">
         <v>5</v>
       </c>
@@ -16151,7 +16151,7 @@
       <c r="R208" s="46"/>
       <c r="S208" s="21"/>
     </row>
-    <row r="209" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="27">
         <v>5</v>
       </c>
@@ -16198,7 +16198,7 @@
       <c r="R209" s="46"/>
       <c r="S209" s="21"/>
     </row>
-    <row r="210" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="27">
         <v>5</v>
       </c>
@@ -16245,7 +16245,7 @@
       <c r="R210" s="46"/>
       <c r="S210" s="21"/>
     </row>
-    <row r="211" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="27">
         <v>5</v>
       </c>
@@ -16292,7 +16292,7 @@
       <c r="R211" s="46"/>
       <c r="S211" s="21"/>
     </row>
-    <row r="212" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="27">
         <v>5</v>
       </c>
@@ -16339,7 +16339,7 @@
       <c r="R212" s="46"/>
       <c r="S212" s="21"/>
     </row>
-    <row r="213" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="27">
         <v>5</v>
       </c>
@@ -16386,7 +16386,7 @@
       <c r="R213" s="46"/>
       <c r="S213" s="21"/>
     </row>
-    <row r="214" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="27">
         <v>5</v>
       </c>
@@ -16433,7 +16433,7 @@
       <c r="R214" s="46"/>
       <c r="S214" s="21"/>
     </row>
-    <row r="215" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="27">
         <v>5</v>
       </c>
@@ -16480,7 +16480,7 @@
       <c r="R215" s="46"/>
       <c r="S215" s="21"/>
     </row>
-    <row r="216" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="27">
         <v>5</v>
       </c>
@@ -16527,7 +16527,7 @@
       <c r="R216" s="46"/>
       <c r="S216" s="21"/>
     </row>
-    <row r="217" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="27">
         <v>5</v>
       </c>
@@ -16574,7 +16574,7 @@
       <c r="R217" s="46"/>
       <c r="S217" s="21"/>
     </row>
-    <row r="218" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="27">
         <v>5</v>
       </c>
@@ -16621,7 +16621,7 @@
       <c r="R218" s="46"/>
       <c r="S218" s="21"/>
     </row>
-    <row r="219" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="27">
         <v>5</v>
       </c>
@@ -16668,7 +16668,7 @@
       <c r="R219" s="46"/>
       <c r="S219" s="21"/>
     </row>
-    <row r="220" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="27">
         <v>1</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="27">
         <v>5</v>
       </c>
@@ -16772,7 +16772,7 @@
       <c r="R221" s="46"/>
       <c r="S221" s="21"/>
     </row>
-    <row r="222" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="29">
         <v>8</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="29">
         <v>8</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="29">
         <v>8</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="29">
         <v>8</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="29">
         <v>8</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="29">
         <v>8</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="29">
         <v>8</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="29">
         <v>8</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="29">
         <v>8</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="29">
         <v>8</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="29">
         <v>8</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="29">
         <v>8</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="29">
         <v>8</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="29">
         <v>8</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="29">
         <v>8</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="29">
         <v>8</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="29">
         <v>8</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="29">
         <v>8</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="29">
         <v>8</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="29">
         <v>8</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="29">
         <v>8</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="29">
         <v>8</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="29">
         <v>8</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="29">
         <v>8</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="29">
         <v>8</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="29">
         <v>8</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="29">
         <v>8</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="29">
         <v>8</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="29">
         <v>8</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="29">
         <v>8</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="29">
         <v>8</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="29">
         <v>8</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="28">
         <v>8</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="29">
         <v>8</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="29">
         <v>8</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="29">
         <v>8</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="29">
         <v>8</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="29">
         <v>8</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="29">
         <v>8</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="29">
         <v>8</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="29">
         <v>8</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="29">
         <v>8</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="28">
         <v>8</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="29">
         <v>8</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="29">
         <v>8</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="29">
         <v>8</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="29">
         <v>8</v>
       </c>
@@ -19441,7 +19441,7 @@
       <c r="R268" s="46"/>
       <c r="S268" s="21"/>
     </row>
-    <row r="269" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="29">
         <v>8</v>
       </c>
@@ -19492,7 +19492,7 @@
       <c r="R269" s="46"/>
       <c r="S269" s="21"/>
     </row>
-    <row r="270" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="29">
         <v>8</v>
       </c>
@@ -19543,7 +19543,7 @@
       <c r="R270" s="46"/>
       <c r="S270" s="21"/>
     </row>
-    <row r="271" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="29">
         <v>8</v>
       </c>
@@ -19594,7 +19594,7 @@
       <c r="R271" s="46"/>
       <c r="S271" s="21"/>
     </row>
-    <row r="272" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="29">
         <v>8</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="29">
         <v>8</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="29">
         <v>8</v>
       </c>
@@ -19755,7 +19755,7 @@
       <c r="R274" s="46"/>
       <c r="S274" s="21"/>
     </row>
-    <row r="275" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="29">
         <v>8</v>
       </c>
@@ -19802,7 +19802,7 @@
       <c r="R275" s="46"/>
       <c r="S275" s="21"/>
     </row>
-    <row r="276" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="29">
         <v>8</v>
       </c>
@@ -19859,7 +19859,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="29">
         <v>8</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="29">
         <v>8</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="29">
         <v>8</v>
       </c>
@@ -20124,7 +20124,7 @@
       <c r="R281" s="46"/>
       <c r="S281" s="21"/>
     </row>
-    <row r="282" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="29">
         <v>8</v>
       </c>
@@ -20171,7 +20171,7 @@
       <c r="R282" s="46"/>
       <c r="S282" s="21"/>
     </row>
-    <row r="283" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="29">
         <v>8</v>
       </c>
@@ -20218,7 +20218,7 @@
       <c r="R283" s="46"/>
       <c r="S283" s="21"/>
     </row>
-    <row r="284" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="29">
         <v>8</v>
       </c>
@@ -20322,7 +20322,7 @@
       <c r="R285" s="46"/>
       <c r="S285" s="21"/>
     </row>
-    <row r="286" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="29">
         <v>8</v>
       </c>
@@ -20369,7 +20369,7 @@
       <c r="R286" s="46"/>
       <c r="S286" s="21"/>
     </row>
-    <row r="287" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="29">
         <v>8</v>
       </c>
@@ -20416,7 +20416,7 @@
       <c r="R287" s="46"/>
       <c r="S287" s="21"/>
     </row>
-    <row r="288" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="29">
         <v>8</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="29">
         <v>8</v>
       </c>
@@ -20530,7 +20530,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="29">
         <v>8</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="29">
         <v>8</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="29">
         <v>8</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="29">
         <v>8</v>
       </c>
@@ -20758,7 +20758,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="29">
         <v>8</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="29">
         <v>8</v>
       </c>
@@ -20866,7 +20866,7 @@
       <c r="R295" s="46"/>
       <c r="S295" s="21"/>
     </row>
-    <row r="296" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="27">
         <v>8</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="29">
         <v>8</v>
       </c>
@@ -20970,7 +20970,7 @@
       <c r="R297" s="46"/>
       <c r="S297" s="21"/>
     </row>
-    <row r="298" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="29">
         <v>8</v>
       </c>
@@ -21017,7 +21017,7 @@
       <c r="R298" s="46"/>
       <c r="S298" s="21"/>
     </row>
-    <row r="299" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="29">
         <v>8</v>
       </c>
@@ -21064,7 +21064,7 @@
       <c r="R299" s="46"/>
       <c r="S299" s="21"/>
     </row>
-    <row r="300" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="29">
         <v>8</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="29">
         <v>8</v>
       </c>
@@ -21333,7 +21333,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="29">
         <v>8</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="29">
         <v>8</v>
       </c>
@@ -21437,7 +21437,7 @@
       <c r="R306" s="46"/>
       <c r="S306" s="21"/>
     </row>
-    <row r="307" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="29">
         <v>8</v>
       </c>
@@ -21484,7 +21484,7 @@
       <c r="R307" s="46"/>
       <c r="S307" s="21"/>
     </row>
-    <row r="308" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="29">
         <v>8</v>
       </c>
@@ -21531,7 +21531,7 @@
       <c r="R308" s="46"/>
       <c r="S308" s="21"/>
     </row>
-    <row r="309" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="29">
         <v>8</v>
       </c>
@@ -21625,7 +21625,7 @@
       <c r="R310" s="46"/>
       <c r="S310" s="21"/>
     </row>
-    <row r="311" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="29">
         <v>8</v>
       </c>
@@ -21672,7 +21672,7 @@
       <c r="R311" s="46"/>
       <c r="S311" s="21"/>
     </row>
-    <row r="312" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="29">
         <v>8</v>
       </c>
@@ -21719,7 +21719,7 @@
       <c r="R312" s="46"/>
       <c r="S312" s="21"/>
     </row>
-    <row r="313" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="29">
         <v>8</v>
       </c>
@@ -21766,7 +21766,7 @@
       <c r="R313" s="46"/>
       <c r="S313" s="21"/>
     </row>
-    <row r="314" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="29">
         <v>8</v>
       </c>
@@ -21813,7 +21813,7 @@
       <c r="R314" s="46"/>
       <c r="S314" s="21"/>
     </row>
-    <row r="315" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="29">
         <v>8</v>
       </c>
@@ -34889,12 +34889,6 @@
     <filterColumn colId="5">
       <filters>
         <filter val="Ja"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="opdracht_11"/>
-        <filter val="opdracht_3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -35711,18 +35705,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35745,6 +35739,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -35759,12 +35761,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1300BD3A-36D3-4B40-A75E-0C74B020C3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F3C25-23B9-4355-9F2B-580095936079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7834" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7953" uniqueCount="1266">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3869,13 +3869,22 @@
     <t>Deze fout kwam terug via OOW-web, maar op het foute bestand</t>
   </si>
   <si>
-    <t>Internal server error</t>
-  </si>
-  <si>
     <t>opdracht_lvbb1022</t>
   </si>
   <si>
     <t>opdracht_lvbb1023</t>
+  </si>
+  <si>
+    <t>De enige fout die getriggerd wordt is LVBB1010</t>
+  </si>
+  <si>
+    <t>TestAanpassen</t>
+  </si>
+  <si>
+    <t>Interne fout opgetreden in het portaal (?)</t>
+  </si>
+  <si>
+    <t>LVBB1501 - Datum bekendmaking 2020-01-22 ligt in het verleden</t>
   </si>
 </sst>
 </file>
@@ -5422,27 +5431,27 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I249" sqref="I249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="13" customWidth="1"/>
     <col min="9" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
     <col min="17" max="18" width="11" style="44" customWidth="1"/>
-    <col min="19" max="19" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>449</v>
       </c>
@@ -5501,7 +5510,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -5548,7 +5557,7 @@
       <c r="R2" s="46"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5595,7 +5604,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -5642,7 +5651,7 @@
       <c r="R4" s="46"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -5689,7 +5698,7 @@
       <c r="R5" s="46"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -5736,7 +5745,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="21"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -5783,7 +5792,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>2</v>
       </c>
@@ -5830,7 +5839,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -5877,7 +5886,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
@@ -5924,7 +5933,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -5971,7 +5980,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>2</v>
       </c>
@@ -6018,7 +6027,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -6065,7 +6074,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>2</v>
       </c>
@@ -6112,7 +6121,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>2</v>
       </c>
@@ -6159,7 +6168,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>2</v>
       </c>
@@ -6206,7 +6215,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -6253,7 +6262,7 @@
       <c r="R17" s="46"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>2</v>
       </c>
@@ -6300,7 +6309,7 @@
       <c r="R18" s="46"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>2</v>
       </c>
@@ -6347,7 +6356,7 @@
       <c r="R19" s="46"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>4</v>
       </c>
@@ -6404,7 +6413,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>4</v>
       </c>
@@ -6461,7 +6470,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>4</v>
       </c>
@@ -6518,7 +6527,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>4</v>
       </c>
@@ -6575,7 +6584,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>4</v>
       </c>
@@ -6632,7 +6641,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>4</v>
       </c>
@@ -6689,7 +6698,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>4</v>
       </c>
@@ -6746,7 +6755,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>4</v>
       </c>
@@ -6803,7 +6812,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>4</v>
       </c>
@@ -6860,7 +6869,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>4</v>
       </c>
@@ -6917,7 +6926,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>4</v>
       </c>
@@ -6974,7 +6983,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>4</v>
       </c>
@@ -7031,7 +7040,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>4</v>
       </c>
@@ -7088,7 +7097,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>4</v>
       </c>
@@ -7145,7 +7154,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>4</v>
       </c>
@@ -7187,14 +7196,14 @@
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="P34" s="21" t="s">
-        <v>1215</v>
-      </c>
+      <c r="P34" s="21"/>
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
-      <c r="S34" s="21"/>
-    </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S34" s="21" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>4</v>
       </c>
@@ -7236,14 +7245,14 @@
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="21" t="s">
-        <v>1215</v>
-      </c>
+      <c r="P35" s="21"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
-      <c r="S35" s="21"/>
-    </row>
-    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S35" s="21" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>1</v>
       </c>
@@ -7294,7 +7303,7 @@
       <c r="R36" s="46"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>1</v>
       </c>
@@ -7345,7 +7354,7 @@
       <c r="R37" s="46"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>1</v>
       </c>
@@ -7402,7 +7411,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -7459,7 +7468,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -7516,7 +7525,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>1</v>
       </c>
@@ -7573,7 +7582,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -7630,7 +7639,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>1</v>
       </c>
@@ -7687,7 +7696,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>1</v>
       </c>
@@ -7744,7 +7753,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>1</v>
       </c>
@@ -7801,7 +7810,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>1</v>
       </c>
@@ -7860,7 +7869,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>1</v>
       </c>
@@ -7919,7 +7928,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>1</v>
       </c>
@@ -7976,7 +7985,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>1</v>
       </c>
@@ -8035,7 +8044,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>1</v>
       </c>
@@ -8094,7 +8103,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>1</v>
       </c>
@@ -8151,7 +8160,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>1</v>
       </c>
@@ -8208,7 +8217,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>1</v>
       </c>
@@ -8265,7 +8274,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>1</v>
       </c>
@@ -8322,7 +8331,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>1</v>
       </c>
@@ -8379,7 +8388,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>1</v>
       </c>
@@ -8436,7 +8445,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>1</v>
       </c>
@@ -8493,7 +8502,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>1</v>
       </c>
@@ -8534,7 +8543,7 @@
         <v>25</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>1067</v>
@@ -8550,7 +8559,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>1</v>
       </c>
@@ -8591,7 +8600,7 @@
         <v>25</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="O59" s="21" t="s">
         <v>1067</v>
@@ -8607,7 +8616,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>1</v>
       </c>
@@ -8654,7 +8663,7 @@
       <c r="R60" s="46"/>
       <c r="S60" s="21"/>
     </row>
-    <row r="61" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>1</v>
       </c>
@@ -8701,7 +8710,7 @@
       <c r="R61" s="46"/>
       <c r="S61" s="21"/>
     </row>
-    <row r="62" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>1</v>
       </c>
@@ -8748,7 +8757,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>2</v>
       </c>
@@ -8794,18 +8803,20 @@
       <c r="O63" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P63" s="21">
-        <v>500</v>
+      <c r="P63" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q63" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R63" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R63" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S63" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>2</v>
       </c>
@@ -8852,7 +8863,7 @@
       <c r="R64" s="46"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>2</v>
       </c>
@@ -8898,18 +8909,20 @@
       <c r="O65" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P65" s="21">
-        <v>500</v>
+      <c r="P65" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q65" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R65" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R65" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S65" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>2</v>
       </c>
@@ -8955,12 +8968,20 @@
       <c r="O66" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="21"/>
-    </row>
-    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P66" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q66" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R66" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S66" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>2</v>
       </c>
@@ -9006,12 +9027,20 @@
       <c r="O67" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="21"/>
-    </row>
-    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P67" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q67" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R67" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S67" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>2</v>
       </c>
@@ -9057,12 +9086,20 @@
       <c r="O68" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="21"/>
-    </row>
-    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P68" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q68" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R68" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S68" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>2</v>
       </c>
@@ -9109,7 +9146,7 @@
       <c r="R69" s="46"/>
       <c r="S69" s="21"/>
     </row>
-    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>2</v>
       </c>
@@ -9156,7 +9193,7 @@
       <c r="R70" s="46"/>
       <c r="S70" s="21"/>
     </row>
-    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>2</v>
       </c>
@@ -9202,12 +9239,20 @@
       <c r="O71" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="21"/>
-    </row>
-    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P71" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q71" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R71" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S71" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>2</v>
       </c>
@@ -9253,12 +9298,20 @@
       <c r="O72" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="21"/>
-    </row>
-    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P72" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q72" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R72" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S72" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -9305,7 +9358,7 @@
       <c r="R73" s="46"/>
       <c r="S73" s="21"/>
     </row>
-    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>2</v>
       </c>
@@ -9352,7 +9405,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>2</v>
       </c>
@@ -9398,18 +9451,20 @@
       <c r="O75" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P75" s="21">
-        <v>500</v>
+      <c r="P75" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q75" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R75" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R75" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S75" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>2</v>
       </c>
@@ -9456,7 +9511,7 @@
       <c r="R76" s="46"/>
       <c r="S76" s="21"/>
     </row>
-    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>2</v>
       </c>
@@ -9503,7 +9558,7 @@
       <c r="R77" s="46"/>
       <c r="S77" s="21"/>
     </row>
-    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>2</v>
       </c>
@@ -9550,7 +9605,7 @@
       <c r="R78" s="46"/>
       <c r="S78" s="21"/>
     </row>
-    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>2</v>
       </c>
@@ -9597,7 +9652,7 @@
       <c r="R79" s="46"/>
       <c r="S79" s="21"/>
     </row>
-    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>2</v>
       </c>
@@ -9644,7 +9699,7 @@
       <c r="R80" s="46"/>
       <c r="S80" s="21"/>
     </row>
-    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>2</v>
       </c>
@@ -9691,7 +9746,7 @@
       <c r="R81" s="46"/>
       <c r="S81" s="21"/>
     </row>
-    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>2</v>
       </c>
@@ -9738,7 +9793,7 @@
       <c r="R82" s="46"/>
       <c r="S82" s="21"/>
     </row>
-    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>2</v>
       </c>
@@ -9785,7 +9840,7 @@
       <c r="R83" s="46"/>
       <c r="S83" s="21"/>
     </row>
-    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>2</v>
       </c>
@@ -9834,7 +9889,7 @@
       <c r="R84" s="46"/>
       <c r="S84" s="21"/>
     </row>
-    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>2</v>
       </c>
@@ -9881,7 +9936,7 @@
       <c r="R85" s="46"/>
       <c r="S85" s="21"/>
     </row>
-    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>2</v>
       </c>
@@ -9938,7 +9993,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>2</v>
       </c>
@@ -9985,7 +10040,7 @@
       <c r="R87" s="46"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
         <v>2</v>
       </c>
@@ -10031,18 +10086,20 @@
       <c r="O88" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P88" s="21">
-        <v>500</v>
+      <c r="P88" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q88" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R88" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R88" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S88" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26">
         <v>2</v>
       </c>
@@ -10088,18 +10145,20 @@
       <c r="O89" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P89" s="21">
-        <v>500</v>
+      <c r="P89" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q89" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R89" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R89" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S89" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26">
         <v>2</v>
       </c>
@@ -10145,18 +10204,20 @@
       <c r="O90" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P90" s="21">
-        <v>500</v>
+      <c r="P90" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q90" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R90" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R90" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S90" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26">
         <v>2</v>
       </c>
@@ -10202,18 +10263,20 @@
       <c r="O91" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P91" s="21">
-        <v>500</v>
+      <c r="P91" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q91" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R91" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R91" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S91" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26">
         <v>2</v>
       </c>
@@ -10259,18 +10322,20 @@
       <c r="O92" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P92" s="21">
-        <v>500</v>
+      <c r="P92" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q92" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R92" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R92" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S92" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26">
         <v>2</v>
       </c>
@@ -10316,18 +10381,20 @@
       <c r="O93" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P93" s="21">
-        <v>500</v>
+      <c r="P93" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q93" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R93" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R93" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S93" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -10373,18 +10440,20 @@
       <c r="O94" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P94" s="21">
-        <v>500</v>
+      <c r="P94" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q94" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R94" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R94" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S94" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26">
         <v>2</v>
       </c>
@@ -10430,18 +10499,20 @@
       <c r="O95" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P95" s="21">
-        <v>500</v>
+      <c r="P95" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q95" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R95" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R95" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S95" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26">
         <v>2</v>
       </c>
@@ -10487,18 +10558,20 @@
       <c r="O96" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P96" s="21">
-        <v>500</v>
+      <c r="P96" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q96" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R96" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R96" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S96" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26">
         <v>2</v>
       </c>
@@ -10544,18 +10617,20 @@
       <c r="O97" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P97" s="21">
-        <v>500</v>
+      <c r="P97" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q97" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R97" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R97" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S97" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>2</v>
       </c>
@@ -10601,18 +10676,20 @@
       <c r="O98" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P98" s="21">
-        <v>500</v>
+      <c r="P98" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q98" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R98" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R98" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S98" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26">
         <v>2</v>
       </c>
@@ -10658,18 +10735,20 @@
       <c r="O99" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P99" s="21">
-        <v>500</v>
+      <c r="P99" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q99" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R99" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R99" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S99" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>2</v>
       </c>
@@ -10715,18 +10794,20 @@
       <c r="O100" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P100" s="21">
-        <v>500</v>
+      <c r="P100" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q100" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R100" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R100" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S100" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>2</v>
       </c>
@@ -10772,18 +10853,20 @@
       <c r="O101" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P101" s="21">
-        <v>500</v>
+      <c r="P101" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q101" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R101" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R101" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S101" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>2</v>
       </c>
@@ -10829,18 +10912,20 @@
       <c r="O102" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P102" s="21">
-        <v>500</v>
+      <c r="P102" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q102" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R102" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R102" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S102" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>2</v>
       </c>
@@ -10886,18 +10971,20 @@
       <c r="O103" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P103" s="21">
-        <v>500</v>
+      <c r="P103" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q103" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R103" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R103" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S103" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>2</v>
       </c>
@@ -10944,7 +11031,7 @@
       <c r="R104" s="46"/>
       <c r="S104" s="21"/>
     </row>
-    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>2</v>
       </c>
@@ -10991,7 +11078,7 @@
       <c r="R105" s="46"/>
       <c r="S105" s="21"/>
     </row>
-    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="29">
         <v>2</v>
       </c>
@@ -11038,7 +11125,7 @@
       <c r="R106" s="46"/>
       <c r="S106" s="21"/>
     </row>
-    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>2</v>
       </c>
@@ -11085,7 +11172,7 @@
       <c r="R107" s="46"/>
       <c r="S107" s="21"/>
     </row>
-    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>2</v>
       </c>
@@ -11132,7 +11219,7 @@
       <c r="R108" s="46"/>
       <c r="S108" s="21"/>
     </row>
-    <row r="109" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
         <v>2</v>
       </c>
@@ -11179,7 +11266,7 @@
       <c r="R109" s="46"/>
       <c r="S109" s="21"/>
     </row>
-    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>2</v>
       </c>
@@ -11226,7 +11313,7 @@
       <c r="R110" s="46"/>
       <c r="S110" s="21"/>
     </row>
-    <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30">
         <v>2</v>
       </c>
@@ -11283,7 +11370,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="29">
         <v>2</v>
       </c>
@@ -11330,7 +11417,7 @@
       <c r="R112" s="46"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="29">
         <v>2</v>
       </c>
@@ -11376,18 +11463,20 @@
       <c r="O113" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P113" s="21">
-        <v>500</v>
+      <c r="P113" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q113" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R113" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R113" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S113" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="29">
         <v>2</v>
       </c>
@@ -11444,7 +11533,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30">
         <v>2</v>
       </c>
@@ -11501,7 +11590,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30">
         <v>2</v>
       </c>
@@ -11558,7 +11647,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>2</v>
       </c>
@@ -11605,7 +11694,7 @@
       <c r="R117" s="46"/>
       <c r="S117" s="21"/>
     </row>
-    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="29">
         <v>2</v>
       </c>
@@ -11652,7 +11741,7 @@
       <c r="R118" s="46"/>
       <c r="S118" s="21"/>
     </row>
-    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="29">
         <v>2</v>
       </c>
@@ -11709,7 +11798,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="29">
         <v>2</v>
       </c>
@@ -11766,7 +11855,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>2</v>
       </c>
@@ -11823,7 +11912,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>2</v>
       </c>
@@ -11880,7 +11969,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>2</v>
       </c>
@@ -11937,7 +12026,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="28">
         <v>2</v>
       </c>
@@ -11984,7 +12073,7 @@
       <c r="R124" s="46"/>
       <c r="S124" s="21"/>
     </row>
-    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>2</v>
       </c>
@@ -12041,7 +12130,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>2</v>
       </c>
@@ -12087,18 +12176,20 @@
       <c r="O126" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P126" s="21">
-        <v>500</v>
+      <c r="P126" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q126" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R126" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R126" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S126" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>2</v>
       </c>
@@ -12144,18 +12235,20 @@
       <c r="O127" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P127" s="21">
-        <v>500</v>
+      <c r="P127" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q127" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R127" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R127" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S127" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>2</v>
       </c>
@@ -12201,18 +12294,20 @@
       <c r="O128" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P128" s="21">
-        <v>500</v>
+      <c r="P128" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q128" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R128" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R128" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S128" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>2</v>
       </c>
@@ -12258,18 +12353,20 @@
       <c r="O129" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P129" s="21">
-        <v>500</v>
+      <c r="P129" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q129" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R129" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R129" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S129" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>2</v>
       </c>
@@ -12315,18 +12412,20 @@
       <c r="O130" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P130" s="21">
-        <v>500</v>
+      <c r="P130" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q130" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R130" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R130" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S130" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>2</v>
       </c>
@@ -12373,7 +12472,7 @@
       <c r="R131" s="46"/>
       <c r="S131" s="21"/>
     </row>
-    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>2</v>
       </c>
@@ -12422,7 +12521,7 @@
       <c r="R132" s="46"/>
       <c r="S132" s="21"/>
     </row>
-    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="28">
         <v>2</v>
       </c>
@@ -12469,7 +12568,7 @@
       <c r="R133" s="46"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>2</v>
       </c>
@@ -12515,18 +12614,20 @@
       <c r="O134" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P134" s="21">
-        <v>500</v>
+      <c r="P134" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q134" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R134" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R134" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S134" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>2</v>
       </c>
@@ -12572,18 +12673,20 @@
       <c r="O135" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P135" s="21">
-        <v>500</v>
+      <c r="P135" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q135" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R135" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R135" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S135" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>2</v>
       </c>
@@ -12630,7 +12733,7 @@
       <c r="R136" s="46"/>
       <c r="S136" s="21"/>
     </row>
-    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>2</v>
       </c>
@@ -12672,14 +12775,14 @@
       </c>
       <c r="N137" s="12"/>
       <c r="O137" s="12"/>
-      <c r="P137" s="21" t="s">
-        <v>1217</v>
-      </c>
+      <c r="P137" s="21"/>
       <c r="Q137" s="46"/>
       <c r="R137" s="46"/>
-      <c r="S137" s="21"/>
-    </row>
-    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S137" s="21" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -12726,7 +12829,7 @@
       <c r="R138" s="46"/>
       <c r="S138" s="21"/>
     </row>
-    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26">
         <v>5</v>
       </c>
@@ -12773,7 +12876,7 @@
       <c r="R139" s="46"/>
       <c r="S139" s="21"/>
     </row>
-    <row r="140" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="26">
         <v>5</v>
       </c>
@@ -12820,7 +12923,7 @@
       <c r="R140" s="46"/>
       <c r="S140" s="21"/>
     </row>
-    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="26">
         <v>5</v>
       </c>
@@ -12866,12 +12969,20 @@
       <c r="O141" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P141" s="21"/>
-      <c r="Q141" s="46"/>
-      <c r="R141" s="46"/>
-      <c r="S141" s="21"/>
-    </row>
-    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P141" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q141" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R141" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S141" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="26">
         <v>5</v>
       </c>
@@ -12918,7 +13029,7 @@
       <c r="R142" s="46"/>
       <c r="S142" s="21"/>
     </row>
-    <row r="143" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="26">
         <v>5</v>
       </c>
@@ -12965,7 +13076,7 @@
       <c r="R143" s="46"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -13011,18 +13122,20 @@
       <c r="O144" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P144" s="21">
-        <v>500</v>
+      <c r="P144" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q144" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R144" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R144" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S144" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>2</v>
       </c>
@@ -13069,7 +13182,7 @@
       <c r="R145" s="46"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>2</v>
       </c>
@@ -13115,18 +13228,20 @@
       <c r="O146" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P146" s="21">
-        <v>500</v>
+      <c r="P146" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q146" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R146" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R146" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S146" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>2</v>
       </c>
@@ -13172,18 +13287,20 @@
       <c r="O147" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P147" s="21">
-        <v>500</v>
+      <c r="P147" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q147" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R147" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R147" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S147" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>2</v>
       </c>
@@ -13230,17 +13347,19 @@
         <v>1067</v>
       </c>
       <c r="P148" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q148" s="46">
         <v>44166</v>
       </c>
-      <c r="R148" s="46"/>
+      <c r="R148" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S148" s="21" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>2</v>
       </c>
@@ -13287,17 +13406,19 @@
         <v>1067</v>
       </c>
       <c r="P149" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q149" s="46">
         <v>44166</v>
       </c>
-      <c r="R149" s="46"/>
+      <c r="R149" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S149" s="21" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>2</v>
       </c>
@@ -13344,17 +13465,19 @@
         <v>1067</v>
       </c>
       <c r="P150" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q150" s="46">
         <v>44166</v>
       </c>
-      <c r="R150" s="46"/>
+      <c r="R150" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S150" s="21" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28">
         <v>2</v>
       </c>
@@ -13401,7 +13524,7 @@
       <c r="R151" s="46"/>
       <c r="S151" s="21"/>
     </row>
-    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="28">
         <v>2</v>
       </c>
@@ -13448,17 +13571,19 @@
         <v>1067</v>
       </c>
       <c r="P152" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q152" s="46">
         <v>44166</v>
       </c>
-      <c r="R152" s="46"/>
+      <c r="R152" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S152" s="21" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>2</v>
       </c>
@@ -13505,7 +13630,7 @@
       <c r="R153" s="46"/>
       <c r="S153" s="21"/>
     </row>
-    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>2</v>
       </c>
@@ -13552,7 +13677,7 @@
       <c r="R154" s="46"/>
       <c r="S154" s="21"/>
     </row>
-    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>2</v>
       </c>
@@ -13603,7 +13728,7 @@
       <c r="R155" s="46"/>
       <c r="S155" s="21"/>
     </row>
-    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>2</v>
       </c>
@@ -13649,12 +13774,20 @@
       <c r="O156" s="25" t="s">
         <v>1067</v>
       </c>
-      <c r="P156" s="21"/>
-      <c r="Q156" s="46"/>
-      <c r="R156" s="46"/>
-      <c r="S156" s="21"/>
-    </row>
-    <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P156" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q156" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R156" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S156" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="32">
         <v>2</v>
       </c>
@@ -13700,12 +13833,20 @@
       <c r="O157" s="25" t="s">
         <v>1067</v>
       </c>
-      <c r="P157" s="21"/>
-      <c r="Q157" s="46"/>
-      <c r="R157" s="46"/>
-      <c r="S157" s="21"/>
-    </row>
-    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P157" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q157" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R157" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S157" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="32">
         <v>2</v>
       </c>
@@ -13751,7 +13892,7 @@
       <c r="R158" s="46"/>
       <c r="S158" s="21"/>
     </row>
-    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="32">
         <v>2</v>
       </c>
@@ -13797,12 +13938,20 @@
       <c r="O159" s="25" t="s">
         <v>1067</v>
       </c>
-      <c r="P159" s="21"/>
-      <c r="Q159" s="46"/>
-      <c r="R159" s="46"/>
-      <c r="S159" s="21"/>
-    </row>
-    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P159" s="21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Q159" s="46">
+        <v>44166</v>
+      </c>
+      <c r="R159" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S159" s="21" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="28">
         <v>2</v>
       </c>
@@ -13849,7 +13998,7 @@
       <c r="R160" s="46"/>
       <c r="S160" s="21"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="32">
         <v>2</v>
       </c>
@@ -13896,7 +14045,7 @@
       <c r="R161" s="46"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="32">
         <v>2</v>
       </c>
@@ -13939,21 +14088,23 @@
       <c r="N162" s="11" t="s">
         <v>1213</v>
       </c>
-      <c r="O162" s="25" t="s">
+      <c r="O162" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P162" s="21">
-        <v>500</v>
+      <c r="P162" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="Q162" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R162" s="46"/>
+        <v>44182</v>
+      </c>
+      <c r="R162" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S162" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="32">
         <v>2</v>
       </c>
@@ -14000,7 +14151,7 @@
       <c r="R163" s="46"/>
       <c r="S163" s="21"/>
     </row>
-    <row r="164" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27">
         <v>5</v>
       </c>
@@ -14047,7 +14198,7 @@
       <c r="R164" s="46"/>
       <c r="S164" s="21"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27">
         <v>5</v>
       </c>
@@ -14094,7 +14245,7 @@
       <c r="R165" s="46"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27">
         <v>5</v>
       </c>
@@ -14141,17 +14292,19 @@
         <v>1067</v>
       </c>
       <c r="P166" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q166" s="46">
         <v>44166</v>
       </c>
-      <c r="R166" s="46"/>
+      <c r="R166" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S166" s="21" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27">
         <v>5</v>
       </c>
@@ -14198,17 +14351,19 @@
         <v>1067</v>
       </c>
       <c r="P167" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q167" s="46">
         <v>44166</v>
       </c>
-      <c r="R167" s="46"/>
+      <c r="R167" s="46" t="s">
+        <v>1246</v>
+      </c>
       <c r="S167" s="21" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27">
         <v>5</v>
       </c>
@@ -14254,12 +14409,20 @@
       <c r="O168" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P168" s="21"/>
-      <c r="Q168" s="46"/>
-      <c r="R168" s="46"/>
-      <c r="S168" s="21"/>
-    </row>
-    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P168" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q168" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R168" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S168" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27">
         <v>5</v>
       </c>
@@ -14306,7 +14469,7 @@
       <c r="R169" s="46"/>
       <c r="S169" s="21"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="26">
         <v>5</v>
       </c>
@@ -14352,12 +14515,20 @@
       <c r="O170" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P170" s="21"/>
-      <c r="Q170" s="46"/>
-      <c r="R170" s="46"/>
-      <c r="S170" s="21"/>
-    </row>
-    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P170" s="21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Q170" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R170" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S170" s="21" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27">
         <v>5</v>
       </c>
@@ -14403,12 +14574,20 @@
       <c r="O171" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P171" s="21"/>
-      <c r="Q171" s="46"/>
-      <c r="R171" s="46"/>
-      <c r="S171" s="21"/>
-    </row>
-    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P171" s="21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Q171" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R171" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S171" s="21" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27">
         <v>5</v>
       </c>
@@ -14454,12 +14633,20 @@
       <c r="O172" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P172" s="21"/>
-      <c r="Q172" s="46"/>
-      <c r="R172" s="46"/>
-      <c r="S172" s="21"/>
-    </row>
-    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P172" s="21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Q172" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R172" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S172" s="21" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27">
         <v>5</v>
       </c>
@@ -14506,7 +14693,7 @@
       <c r="R173" s="46"/>
       <c r="S173" s="21"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27">
         <v>5</v>
       </c>
@@ -14553,7 +14740,7 @@
       <c r="R174" s="46"/>
       <c r="S174" s="21"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27">
         <v>5</v>
       </c>
@@ -14600,7 +14787,7 @@
       <c r="R175" s="46"/>
       <c r="S175" s="21"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27">
         <v>5</v>
       </c>
@@ -14647,7 +14834,7 @@
       <c r="R176" s="46"/>
       <c r="S176" s="21"/>
     </row>
-    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27">
         <v>5</v>
       </c>
@@ -14694,7 +14881,7 @@
       <c r="R177" s="46"/>
       <c r="S177" s="21"/>
     </row>
-    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27">
         <v>5</v>
       </c>
@@ -14741,7 +14928,7 @@
       <c r="R178" s="46"/>
       <c r="S178" s="21"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="27">
         <v>5</v>
       </c>
@@ -14788,7 +14975,7 @@
       <c r="R179" s="46"/>
       <c r="S179" s="21"/>
     </row>
-    <row r="180" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27">
         <v>5</v>
       </c>
@@ -14835,7 +15022,7 @@
       <c r="R180" s="46"/>
       <c r="S180" s="21"/>
     </row>
-    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27">
         <v>5</v>
       </c>
@@ -14882,7 +15069,7 @@
       <c r="R181" s="46"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="27">
         <v>5</v>
       </c>
@@ -14929,7 +15116,7 @@
       <c r="R182" s="46"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="27">
         <v>5</v>
       </c>
@@ -14976,7 +15163,7 @@
       <c r="R183" s="46"/>
       <c r="S183" s="21"/>
     </row>
-    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="27">
         <v>5</v>
       </c>
@@ -15023,7 +15210,7 @@
       <c r="R184" s="46"/>
       <c r="S184" s="21"/>
     </row>
-    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27">
         <v>5</v>
       </c>
@@ -15070,7 +15257,7 @@
       <c r="R185" s="46"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27">
         <v>5</v>
       </c>
@@ -15117,7 +15304,7 @@
       <c r="R186" s="46"/>
       <c r="S186" s="21"/>
     </row>
-    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="27">
         <v>5</v>
       </c>
@@ -15164,7 +15351,7 @@
       <c r="R187" s="46"/>
       <c r="S187" s="21"/>
     </row>
-    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="27">
         <v>5</v>
       </c>
@@ -15211,7 +15398,7 @@
       <c r="R188" s="46"/>
       <c r="S188" s="21"/>
     </row>
-    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="27">
         <v>5</v>
       </c>
@@ -15258,7 +15445,7 @@
       <c r="R189" s="46"/>
       <c r="S189" s="21"/>
     </row>
-    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="27">
         <v>5</v>
       </c>
@@ -15305,7 +15492,7 @@
       <c r="R190" s="46"/>
       <c r="S190" s="21"/>
     </row>
-    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="27">
         <v>5</v>
       </c>
@@ -15352,7 +15539,7 @@
       <c r="R191" s="46"/>
       <c r="S191" s="21"/>
     </row>
-    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="27">
         <v>5</v>
       </c>
@@ -15399,7 +15586,7 @@
       <c r="R192" s="46"/>
       <c r="S192" s="21"/>
     </row>
-    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="27">
         <v>5</v>
       </c>
@@ -15446,7 +15633,7 @@
       <c r="R193" s="46"/>
       <c r="S193" s="21"/>
     </row>
-    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="27">
         <v>5</v>
       </c>
@@ -15493,7 +15680,7 @@
       <c r="R194" s="46"/>
       <c r="S194" s="21"/>
     </row>
-    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="27">
         <v>5</v>
       </c>
@@ -15540,7 +15727,7 @@
       <c r="R195" s="46"/>
       <c r="S195" s="21"/>
     </row>
-    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="27">
         <v>5</v>
       </c>
@@ -15587,7 +15774,7 @@
       <c r="R196" s="46"/>
       <c r="S196" s="21"/>
     </row>
-    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="27">
         <v>5</v>
       </c>
@@ -15634,7 +15821,7 @@
       <c r="R197" s="46"/>
       <c r="S197" s="21"/>
     </row>
-    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="27">
         <v>5</v>
       </c>
@@ -15681,7 +15868,7 @@
       <c r="R198" s="46"/>
       <c r="S198" s="21"/>
     </row>
-    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="27">
         <v>5</v>
       </c>
@@ -15728,7 +15915,7 @@
       <c r="R199" s="46"/>
       <c r="S199" s="21"/>
     </row>
-    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="27">
         <v>5</v>
       </c>
@@ -15775,7 +15962,7 @@
       <c r="R200" s="46"/>
       <c r="S200" s="21"/>
     </row>
-    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="27">
         <v>5</v>
       </c>
@@ -15822,7 +16009,7 @@
       <c r="R201" s="46"/>
       <c r="S201" s="21"/>
     </row>
-    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="27">
         <v>5</v>
       </c>
@@ -15869,7 +16056,7 @@
       <c r="R202" s="46"/>
       <c r="S202" s="21"/>
     </row>
-    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="27">
         <v>5</v>
       </c>
@@ -15916,7 +16103,7 @@
       <c r="R203" s="46"/>
       <c r="S203" s="21"/>
     </row>
-    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="27">
         <v>5</v>
       </c>
@@ -15963,7 +16150,7 @@
       <c r="R204" s="46"/>
       <c r="S204" s="21"/>
     </row>
-    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="27">
         <v>5</v>
       </c>
@@ -16010,7 +16197,7 @@
       <c r="R205" s="46"/>
       <c r="S205" s="21"/>
     </row>
-    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="27">
         <v>5</v>
       </c>
@@ -16057,7 +16244,7 @@
       <c r="R206" s="46"/>
       <c r="S206" s="21"/>
     </row>
-    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="27">
         <v>5</v>
       </c>
@@ -16104,7 +16291,7 @@
       <c r="R207" s="46"/>
       <c r="S207" s="21"/>
     </row>
-    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="27">
         <v>5</v>
       </c>
@@ -16151,7 +16338,7 @@
       <c r="R208" s="46"/>
       <c r="S208" s="21"/>
     </row>
-    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27">
         <v>5</v>
       </c>
@@ -16198,7 +16385,7 @@
       <c r="R209" s="46"/>
       <c r="S209" s="21"/>
     </row>
-    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27">
         <v>5</v>
       </c>
@@ -16245,7 +16432,7 @@
       <c r="R210" s="46"/>
       <c r="S210" s="21"/>
     </row>
-    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="27">
         <v>5</v>
       </c>
@@ -16292,7 +16479,7 @@
       <c r="R211" s="46"/>
       <c r="S211" s="21"/>
     </row>
-    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="27">
         <v>5</v>
       </c>
@@ -16339,7 +16526,7 @@
       <c r="R212" s="46"/>
       <c r="S212" s="21"/>
     </row>
-    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="27">
         <v>5</v>
       </c>
@@ -16386,7 +16573,7 @@
       <c r="R213" s="46"/>
       <c r="S213" s="21"/>
     </row>
-    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="27">
         <v>5</v>
       </c>
@@ -16433,7 +16620,7 @@
       <c r="R214" s="46"/>
       <c r="S214" s="21"/>
     </row>
-    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="27">
         <v>5</v>
       </c>
@@ -16480,7 +16667,7 @@
       <c r="R215" s="46"/>
       <c r="S215" s="21"/>
     </row>
-    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="27">
         <v>5</v>
       </c>
@@ -16527,7 +16714,7 @@
       <c r="R216" s="46"/>
       <c r="S216" s="21"/>
     </row>
-    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="27">
         <v>5</v>
       </c>
@@ -16574,7 +16761,7 @@
       <c r="R217" s="46"/>
       <c r="S217" s="21"/>
     </row>
-    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="27">
         <v>5</v>
       </c>
@@ -16621,7 +16808,7 @@
       <c r="R218" s="46"/>
       <c r="S218" s="21"/>
     </row>
-    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27">
         <v>5</v>
       </c>
@@ -16668,7 +16855,7 @@
       <c r="R219" s="46"/>
       <c r="S219" s="21"/>
     </row>
-    <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="27">
         <v>1</v>
       </c>
@@ -16725,7 +16912,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27">
         <v>5</v>
       </c>
@@ -16772,7 +16959,7 @@
       <c r="R221" s="46"/>
       <c r="S221" s="21"/>
     </row>
-    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="29">
         <v>8</v>
       </c>
@@ -16819,7 +17006,7 @@
         <v>1067</v>
       </c>
       <c r="P222" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q222" s="46">
         <v>44166</v>
@@ -16829,7 +17016,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="29">
         <v>8</v>
       </c>
@@ -16876,7 +17063,7 @@
         <v>1067</v>
       </c>
       <c r="P223" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q223" s="46">
         <v>44166</v>
@@ -16886,7 +17073,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="29">
         <v>8</v>
       </c>
@@ -16933,7 +17120,7 @@
         <v>1067</v>
       </c>
       <c r="P224" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q224" s="46">
         <v>44166</v>
@@ -16943,7 +17130,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="29">
         <v>8</v>
       </c>
@@ -16990,7 +17177,7 @@
         <v>1067</v>
       </c>
       <c r="P225" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q225" s="46">
         <v>44166</v>
@@ -17000,7 +17187,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="29">
         <v>8</v>
       </c>
@@ -17047,7 +17234,7 @@
         <v>1067</v>
       </c>
       <c r="P226" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q226" s="46">
         <v>44166</v>
@@ -17057,7 +17244,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="29">
         <v>8</v>
       </c>
@@ -17104,7 +17291,7 @@
         <v>1067</v>
       </c>
       <c r="P227" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q227" s="46">
         <v>44166</v>
@@ -17114,7 +17301,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="29">
         <v>8</v>
       </c>
@@ -17161,7 +17348,7 @@
         <v>1067</v>
       </c>
       <c r="P228" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q228" s="46">
         <v>44166</v>
@@ -17171,7 +17358,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="29">
         <v>8</v>
       </c>
@@ -17218,7 +17405,7 @@
         <v>1067</v>
       </c>
       <c r="P229" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q229" s="46">
         <v>44166</v>
@@ -17228,7 +17415,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="29">
         <v>8</v>
       </c>
@@ -17275,7 +17462,7 @@
         <v>1067</v>
       </c>
       <c r="P230" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q230" s="46">
         <v>44166</v>
@@ -17285,7 +17472,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="29">
         <v>8</v>
       </c>
@@ -17332,7 +17519,7 @@
         <v>1067</v>
       </c>
       <c r="P231" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q231" s="46">
         <v>44166</v>
@@ -17342,7 +17529,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="29">
         <v>8</v>
       </c>
@@ -17389,7 +17576,7 @@
         <v>1067</v>
       </c>
       <c r="P232" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q232" s="46">
         <v>44166</v>
@@ -17399,7 +17586,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="29">
         <v>8</v>
       </c>
@@ -17446,7 +17633,7 @@
         <v>1067</v>
       </c>
       <c r="P233" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q233" s="46">
         <v>44166</v>
@@ -17456,7 +17643,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="29">
         <v>8</v>
       </c>
@@ -17503,7 +17690,7 @@
         <v>1067</v>
       </c>
       <c r="P234" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q234" s="46">
         <v>44166</v>
@@ -17513,7 +17700,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="29">
         <v>8</v>
       </c>
@@ -17560,7 +17747,7 @@
         <v>1067</v>
       </c>
       <c r="P235" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q235" s="46">
         <v>44166</v>
@@ -17570,7 +17757,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="29">
         <v>8</v>
       </c>
@@ -17617,7 +17804,7 @@
         <v>1067</v>
       </c>
       <c r="P236" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q236" s="46">
         <v>44166</v>
@@ -17627,7 +17814,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="29">
         <v>8</v>
       </c>
@@ -17674,7 +17861,7 @@
         <v>1067</v>
       </c>
       <c r="P237" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q237" s="46">
         <v>44166</v>
@@ -17684,7 +17871,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="29">
         <v>8</v>
       </c>
@@ -17731,7 +17918,7 @@
         <v>1067</v>
       </c>
       <c r="P238" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q238" s="46">
         <v>44166</v>
@@ -17741,7 +17928,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="29">
         <v>8</v>
       </c>
@@ -17788,7 +17975,7 @@
         <v>1067</v>
       </c>
       <c r="P239" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q239" s="46">
         <v>44166</v>
@@ -17798,7 +17985,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="29">
         <v>8</v>
       </c>
@@ -17845,7 +18032,7 @@
         <v>1067</v>
       </c>
       <c r="P240" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q240" s="46">
         <v>44166</v>
@@ -17855,7 +18042,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="29">
         <v>8</v>
       </c>
@@ -17902,7 +18089,7 @@
         <v>1067</v>
       </c>
       <c r="P241" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q241" s="46">
         <v>44166</v>
@@ -17912,7 +18099,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="29">
         <v>8</v>
       </c>
@@ -17959,7 +18146,7 @@
         <v>1067</v>
       </c>
       <c r="P242" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q242" s="46">
         <v>44166</v>
@@ -17969,7 +18156,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="29">
         <v>8</v>
       </c>
@@ -18016,7 +18203,7 @@
         <v>1067</v>
       </c>
       <c r="P243" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q243" s="46">
         <v>44166</v>
@@ -18026,7 +18213,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="29">
         <v>8</v>
       </c>
@@ -18073,7 +18260,7 @@
         <v>1067</v>
       </c>
       <c r="P244" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q244" s="46">
         <v>44166</v>
@@ -18083,7 +18270,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="29">
         <v>8</v>
       </c>
@@ -18130,7 +18317,7 @@
         <v>1067</v>
       </c>
       <c r="P245" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q245" s="46">
         <v>44166</v>
@@ -18140,7 +18327,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="29">
         <v>8</v>
       </c>
@@ -18187,7 +18374,7 @@
         <v>1067</v>
       </c>
       <c r="P246" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q246" s="46">
         <v>44166</v>
@@ -18197,7 +18384,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="29">
         <v>8</v>
       </c>
@@ -18244,7 +18431,7 @@
         <v>1067</v>
       </c>
       <c r="P247" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q247" s="46">
         <v>44166</v>
@@ -18254,7 +18441,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="29">
         <v>8</v>
       </c>
@@ -18301,7 +18488,7 @@
         <v>1067</v>
       </c>
       <c r="P248" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q248" s="46">
         <v>44166</v>
@@ -18311,7 +18498,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="29">
         <v>8</v>
       </c>
@@ -18358,7 +18545,7 @@
         <v>1067</v>
       </c>
       <c r="P249" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q249" s="46">
         <v>44166</v>
@@ -18368,7 +18555,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="29">
         <v>8</v>
       </c>
@@ -18415,7 +18602,7 @@
         <v>1067</v>
       </c>
       <c r="P250" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q250" s="46">
         <v>44166</v>
@@ -18425,7 +18612,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="29">
         <v>8</v>
       </c>
@@ -18472,7 +18659,7 @@
         <v>1067</v>
       </c>
       <c r="P251" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q251" s="46">
         <v>44166</v>
@@ -18482,7 +18669,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="29">
         <v>8</v>
       </c>
@@ -18529,7 +18716,7 @@
         <v>1067</v>
       </c>
       <c r="P252" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q252" s="46">
         <v>44166</v>
@@ -18539,7 +18726,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="29">
         <v>8</v>
       </c>
@@ -18586,7 +18773,7 @@
         <v>1067</v>
       </c>
       <c r="P253" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q253" s="46">
         <v>44166</v>
@@ -18596,7 +18783,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="28">
         <v>8</v>
       </c>
@@ -18643,7 +18830,7 @@
         <v>1067</v>
       </c>
       <c r="P254" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q254" s="46">
         <v>44166</v>
@@ -18653,7 +18840,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="29">
         <v>8</v>
       </c>
@@ -18700,7 +18887,7 @@
         <v>1067</v>
       </c>
       <c r="P255" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q255" s="46">
         <v>44166</v>
@@ -18710,7 +18897,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="29">
         <v>8</v>
       </c>
@@ -18757,7 +18944,7 @@
         <v>1067</v>
       </c>
       <c r="P256" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q256" s="46">
         <v>44166</v>
@@ -18767,7 +18954,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="29">
         <v>8</v>
       </c>
@@ -18814,7 +19001,7 @@
         <v>1067</v>
       </c>
       <c r="P257" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q257" s="46">
         <v>44166</v>
@@ -18824,7 +19011,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="29">
         <v>8</v>
       </c>
@@ -18871,7 +19058,7 @@
         <v>1067</v>
       </c>
       <c r="P258" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q258" s="46">
         <v>44166</v>
@@ -18881,7 +19068,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="29">
         <v>8</v>
       </c>
@@ -18928,7 +19115,7 @@
         <v>1067</v>
       </c>
       <c r="P259" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q259" s="46">
         <v>44166</v>
@@ -18938,7 +19125,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="29">
         <v>8</v>
       </c>
@@ -18985,7 +19172,7 @@
         <v>1067</v>
       </c>
       <c r="P260" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q260" s="46">
         <v>44166</v>
@@ -18995,7 +19182,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="29">
         <v>8</v>
       </c>
@@ -19042,7 +19229,7 @@
         <v>1067</v>
       </c>
       <c r="P261" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q261" s="46">
         <v>44166</v>
@@ -19052,7 +19239,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="29">
         <v>8</v>
       </c>
@@ -19099,7 +19286,7 @@
         <v>1067</v>
       </c>
       <c r="P262" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q262" s="46">
         <v>44166</v>
@@ -19109,7 +19296,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="29">
         <v>8</v>
       </c>
@@ -19156,7 +19343,7 @@
         <v>1067</v>
       </c>
       <c r="P263" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q263" s="46">
         <v>44166</v>
@@ -19166,7 +19353,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="28">
         <v>8</v>
       </c>
@@ -19213,7 +19400,7 @@
         <v>1067</v>
       </c>
       <c r="P264" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q264" s="46">
         <v>44166</v>
@@ -19223,7 +19410,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="29">
         <v>8</v>
       </c>
@@ -19270,7 +19457,7 @@
         <v>1067</v>
       </c>
       <c r="P265" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q265" s="46">
         <v>44166</v>
@@ -19280,7 +19467,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="29">
         <v>8</v>
       </c>
@@ -19327,7 +19514,7 @@
         <v>1067</v>
       </c>
       <c r="P266" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q266" s="46">
         <v>44166</v>
@@ -19337,7 +19524,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="29">
         <v>8</v>
       </c>
@@ -19384,7 +19571,7 @@
         <v>1067</v>
       </c>
       <c r="P267" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q267" s="46">
         <v>44166</v>
@@ -19394,7 +19581,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="29">
         <v>8</v>
       </c>
@@ -19441,7 +19628,7 @@
       <c r="R268" s="46"/>
       <c r="S268" s="21"/>
     </row>
-    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="29">
         <v>8</v>
       </c>
@@ -19487,12 +19674,20 @@
       <c r="O269" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="P269" s="21"/>
-      <c r="Q269" s="46"/>
-      <c r="R269" s="46"/>
-      <c r="S269" s="21"/>
-    </row>
-    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P269" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q269" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R269" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S269" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="29">
         <v>8</v>
       </c>
@@ -19538,12 +19733,20 @@
       <c r="O270" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P270" s="21"/>
-      <c r="Q270" s="46"/>
-      <c r="R270" s="46"/>
-      <c r="S270" s="21"/>
-    </row>
-    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P270" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q270" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R270" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S270" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="29">
         <v>8</v>
       </c>
@@ -19589,12 +19792,20 @@
       <c r="O271" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P271" s="21"/>
-      <c r="Q271" s="46"/>
-      <c r="R271" s="46"/>
-      <c r="S271" s="21"/>
-    </row>
-    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P271" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q271" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R271" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S271" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="29">
         <v>8</v>
       </c>
@@ -19641,7 +19852,7 @@
         <v>1067</v>
       </c>
       <c r="P272" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q272" s="46">
         <v>44166</v>
@@ -19651,7 +19862,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="29">
         <v>8</v>
       </c>
@@ -19698,7 +19909,7 @@
         <v>1067</v>
       </c>
       <c r="P273" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q273" s="46">
         <v>44166</v>
@@ -19708,7 +19919,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="29">
         <v>8</v>
       </c>
@@ -19755,7 +19966,7 @@
       <c r="R274" s="46"/>
       <c r="S274" s="21"/>
     </row>
-    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="29">
         <v>8</v>
       </c>
@@ -19802,7 +20013,7 @@
       <c r="R275" s="46"/>
       <c r="S275" s="21"/>
     </row>
-    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="29">
         <v>8</v>
       </c>
@@ -19849,7 +20060,7 @@
         <v>1067</v>
       </c>
       <c r="P276" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q276" s="46">
         <v>44166</v>
@@ -19859,7 +20070,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="29">
         <v>8</v>
       </c>
@@ -19906,7 +20117,7 @@
         <v>1067</v>
       </c>
       <c r="P277" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q277" s="46">
         <v>44166</v>
@@ -19916,7 +20127,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="29">
         <v>8</v>
       </c>
@@ -19963,7 +20174,7 @@
         <v>1067</v>
       </c>
       <c r="P278" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q278" s="46">
         <v>44166</v>
@@ -19973,7 +20184,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="29">
         <v>8</v>
       </c>
@@ -20020,7 +20231,7 @@
         <v>1067</v>
       </c>
       <c r="P279" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q279" s="46">
         <v>44166</v>
@@ -20030,7 +20241,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="29">
         <v>8</v>
       </c>
@@ -20077,7 +20288,7 @@
       <c r="R280" s="46"/>
       <c r="S280" s="21"/>
     </row>
-    <row r="281" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="29">
         <v>8</v>
       </c>
@@ -20124,7 +20335,7 @@
       <c r="R281" s="46"/>
       <c r="S281" s="21"/>
     </row>
-    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="29">
         <v>8</v>
       </c>
@@ -20171,7 +20382,7 @@
       <c r="R282" s="46"/>
       <c r="S282" s="21"/>
     </row>
-    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="29">
         <v>8</v>
       </c>
@@ -20218,7 +20429,7 @@
       <c r="R283" s="46"/>
       <c r="S283" s="21"/>
     </row>
-    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="29">
         <v>8</v>
       </c>
@@ -20265,7 +20476,7 @@
         <v>1067</v>
       </c>
       <c r="P284" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q284" s="46">
         <v>44166</v>
@@ -20275,7 +20486,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="29">
         <v>8</v>
       </c>
@@ -20322,7 +20533,7 @@
       <c r="R285" s="46"/>
       <c r="S285" s="21"/>
     </row>
-    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="29">
         <v>8</v>
       </c>
@@ -20369,7 +20580,7 @@
       <c r="R286" s="46"/>
       <c r="S286" s="21"/>
     </row>
-    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="29">
         <v>8</v>
       </c>
@@ -20416,7 +20627,7 @@
       <c r="R287" s="46"/>
       <c r="S287" s="21"/>
     </row>
-    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="29">
         <v>8</v>
       </c>
@@ -20463,7 +20674,7 @@
         <v>1067</v>
       </c>
       <c r="P288" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q288" s="46">
         <v>44166</v>
@@ -20473,7 +20684,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="29">
         <v>8</v>
       </c>
@@ -20520,7 +20731,7 @@
         <v>1067</v>
       </c>
       <c r="P289" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q289" s="46">
         <v>44166</v>
@@ -20530,7 +20741,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="29">
         <v>8</v>
       </c>
@@ -20577,7 +20788,7 @@
         <v>1067</v>
       </c>
       <c r="P290" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q290" s="46">
         <v>44166</v>
@@ -20587,7 +20798,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="29">
         <v>8</v>
       </c>
@@ -20634,7 +20845,7 @@
         <v>1067</v>
       </c>
       <c r="P291" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q291" s="46">
         <v>44166</v>
@@ -20644,7 +20855,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="29">
         <v>8</v>
       </c>
@@ -20691,7 +20902,7 @@
         <v>1067</v>
       </c>
       <c r="P292" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q292" s="46">
         <v>44166</v>
@@ -20701,7 +20912,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="29">
         <v>8</v>
       </c>
@@ -20748,7 +20959,7 @@
         <v>1067</v>
       </c>
       <c r="P293" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q293" s="46">
         <v>44166</v>
@@ -20758,7 +20969,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="29">
         <v>8</v>
       </c>
@@ -20805,7 +21016,7 @@
         <v>1067</v>
       </c>
       <c r="P294" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q294" s="46">
         <v>44166</v>
@@ -20815,7 +21026,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="29">
         <v>8</v>
       </c>
@@ -20861,12 +21072,20 @@
       <c r="O295" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="P295" s="21"/>
-      <c r="Q295" s="46"/>
-      <c r="R295" s="46"/>
-      <c r="S295" s="21"/>
-    </row>
-    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P295" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q295" s="46">
+        <v>44182</v>
+      </c>
+      <c r="R295" s="46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S295" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="27">
         <v>8</v>
       </c>
@@ -20913,7 +21132,7 @@
         <v>1067</v>
       </c>
       <c r="P296" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q296" s="46">
         <v>44166</v>
@@ -20923,7 +21142,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="29">
         <v>8</v>
       </c>
@@ -20970,7 +21189,7 @@
       <c r="R297" s="46"/>
       <c r="S297" s="21"/>
     </row>
-    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="29">
         <v>8</v>
       </c>
@@ -21017,7 +21236,7 @@
       <c r="R298" s="46"/>
       <c r="S298" s="21"/>
     </row>
-    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="29">
         <v>8</v>
       </c>
@@ -21064,7 +21283,7 @@
       <c r="R299" s="46"/>
       <c r="S299" s="21"/>
     </row>
-    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="29">
         <v>8</v>
       </c>
@@ -21111,7 +21330,7 @@
       <c r="R300" s="46"/>
       <c r="S300" s="21"/>
     </row>
-    <row r="301" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="29">
         <v>8</v>
       </c>
@@ -21162,7 +21381,7 @@
       <c r="R301" s="46"/>
       <c r="S301" s="21"/>
     </row>
-    <row r="302" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="29">
         <v>8</v>
       </c>
@@ -21219,7 +21438,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="29">
         <v>8</v>
       </c>
@@ -21276,7 +21495,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="29">
         <v>8</v>
       </c>
@@ -21323,17 +21542,17 @@
         <v>1067</v>
       </c>
       <c r="P304" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q304" s="46">
-        <v>44166</v>
+        <v>44182</v>
       </c>
       <c r="R304" s="46"/>
       <c r="S304" s="21" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="29">
         <v>8</v>
       </c>
@@ -21380,17 +21599,17 @@
         <v>1067</v>
       </c>
       <c r="P305" s="21" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="Q305" s="46">
-        <v>44166</v>
+        <v>44182</v>
       </c>
       <c r="R305" s="46"/>
       <c r="S305" s="21" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="29">
         <v>8</v>
       </c>
@@ -21437,7 +21656,7 @@
       <c r="R306" s="46"/>
       <c r="S306" s="21"/>
     </row>
-    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="29">
         <v>8</v>
       </c>
@@ -21484,7 +21703,7 @@
       <c r="R307" s="46"/>
       <c r="S307" s="21"/>
     </row>
-    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="29">
         <v>8</v>
       </c>
@@ -21531,7 +21750,7 @@
       <c r="R308" s="46"/>
       <c r="S308" s="21"/>
     </row>
-    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="29">
         <v>8</v>
       </c>
@@ -21578,7 +21797,7 @@
       <c r="R309" s="46"/>
       <c r="S309" s="21"/>
     </row>
-    <row r="310" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="29">
         <v>8</v>
       </c>
@@ -21625,7 +21844,7 @@
       <c r="R310" s="46"/>
       <c r="S310" s="21"/>
     </row>
-    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="29">
         <v>8</v>
       </c>
@@ -21672,7 +21891,7 @@
       <c r="R311" s="46"/>
       <c r="S311" s="21"/>
     </row>
-    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="29">
         <v>8</v>
       </c>
@@ -21719,7 +21938,7 @@
       <c r="R312" s="46"/>
       <c r="S312" s="21"/>
     </row>
-    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="29">
         <v>8</v>
       </c>
@@ -21766,7 +21985,7 @@
       <c r="R313" s="46"/>
       <c r="S313" s="21"/>
     </row>
-    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="29">
         <v>8</v>
       </c>
@@ -21813,7 +22032,7 @@
       <c r="R314" s="46"/>
       <c r="S314" s="21"/>
     </row>
-    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="29">
         <v>8</v>
       </c>
@@ -21860,7 +22079,7 @@
       <c r="R315" s="46"/>
       <c r="S315" s="21"/>
     </row>
-    <row r="316" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="29">
         <v>8</v>
       </c>
@@ -21917,7 +22136,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="29">
         <v>8</v>
       </c>
@@ -21974,7 +22193,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="27">
         <v>8</v>
       </c>
@@ -22031,7 +22250,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="27">
         <v>8</v>
       </c>
@@ -22088,7 +22307,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="27">
         <v>8</v>
       </c>
@@ -22145,7 +22364,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="27">
         <v>8</v>
       </c>
@@ -22192,7 +22411,7 @@
       <c r="R321" s="46"/>
       <c r="S321" s="21"/>
     </row>
-    <row r="322" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="27">
         <v>8</v>
       </c>
@@ -22239,7 +22458,7 @@
       <c r="R322" s="46"/>
       <c r="S322" s="21"/>
     </row>
-    <row r="323" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="27">
         <v>8</v>
       </c>
@@ -22296,7 +22515,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="27">
         <v>8</v>
       </c>
@@ -22343,7 +22562,7 @@
       <c r="R324" s="46"/>
       <c r="S324" s="21"/>
     </row>
-    <row r="325" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="27">
         <v>8</v>
       </c>
@@ -22394,7 +22613,7 @@
       <c r="R325" s="46"/>
       <c r="S325" s="21"/>
     </row>
-    <row r="326" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="27">
         <v>8</v>
       </c>
@@ -22451,7 +22670,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="27">
         <v>8</v>
       </c>
@@ -22508,7 +22727,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="27">
         <v>8</v>
       </c>
@@ -22559,7 +22778,7 @@
       <c r="R328" s="46"/>
       <c r="S328" s="21"/>
     </row>
-    <row r="329" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="27">
         <v>8</v>
       </c>
@@ -22616,7 +22835,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="27">
         <v>8</v>
       </c>
@@ -22673,7 +22892,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="27">
         <v>8</v>
       </c>
@@ -22724,7 +22943,7 @@
       <c r="R331" s="46"/>
       <c r="S331" s="21"/>
     </row>
-    <row r="332" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="27">
         <v>8</v>
       </c>
@@ -22781,7 +23000,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="27">
         <v>8</v>
       </c>
@@ -22838,7 +23057,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="27">
         <v>8</v>
       </c>
@@ -22895,7 +23114,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="27">
         <v>8</v>
       </c>
@@ -22952,7 +23171,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="27">
         <v>8</v>
       </c>
@@ -23009,7 +23228,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="37">
         <v>2</v>
       </c>
@@ -23056,7 +23275,7 @@
       <c r="R337" s="46"/>
       <c r="S337" s="21"/>
     </row>
-    <row r="338" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="37">
         <v>2</v>
       </c>
@@ -23103,7 +23322,7 @@
       <c r="R338" s="46"/>
       <c r="S338" s="21"/>
     </row>
-    <row r="339" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="37">
         <v>2</v>
       </c>
@@ -23150,7 +23369,7 @@
       <c r="R339" s="46"/>
       <c r="S339" s="21"/>
     </row>
-    <row r="340" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="37">
         <v>2</v>
       </c>
@@ -23197,7 +23416,7 @@
       <c r="R340" s="46"/>
       <c r="S340" s="21"/>
     </row>
-    <row r="341" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="37">
         <v>2</v>
       </c>
@@ -23244,7 +23463,7 @@
       <c r="R341" s="46"/>
       <c r="S341" s="21"/>
     </row>
-    <row r="342" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="37">
         <v>2</v>
       </c>
@@ -23291,7 +23510,7 @@
       <c r="R342" s="46"/>
       <c r="S342" s="21"/>
     </row>
-    <row r="343" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="37">
         <v>2</v>
       </c>
@@ -23338,7 +23557,7 @@
       <c r="R343" s="46"/>
       <c r="S343" s="21"/>
     </row>
-    <row r="344" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="20">
         <v>2</v>
       </c>
@@ -23385,7 +23604,7 @@
       <c r="R344" s="46"/>
       <c r="S344" s="21"/>
     </row>
-    <row r="345" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="37">
         <v>2</v>
       </c>
@@ -23432,7 +23651,7 @@
       <c r="R345" s="46"/>
       <c r="S345" s="21"/>
     </row>
-    <row r="346" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="37">
         <v>2</v>
       </c>
@@ -23479,7 +23698,7 @@
       <c r="R346" s="46"/>
       <c r="S346" s="21"/>
     </row>
-    <row r="347" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="37">
         <v>2</v>
       </c>
@@ -23526,7 +23745,7 @@
       <c r="R347" s="46"/>
       <c r="S347" s="21"/>
     </row>
-    <row r="348" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="37">
         <v>2</v>
       </c>
@@ -23573,7 +23792,7 @@
       <c r="R348" s="46"/>
       <c r="S348" s="21"/>
     </row>
-    <row r="349" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="37">
         <v>2</v>
       </c>
@@ -23620,7 +23839,7 @@
       <c r="R349" s="46"/>
       <c r="S349" s="21"/>
     </row>
-    <row r="350" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="37">
         <v>2</v>
       </c>
@@ -23667,7 +23886,7 @@
       <c r="R350" s="46"/>
       <c r="S350" s="21"/>
     </row>
-    <row r="351" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="37">
         <v>2</v>
       </c>
@@ -23714,7 +23933,7 @@
       <c r="R351" s="46"/>
       <c r="S351" s="21"/>
     </row>
-    <row r="352" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="37">
         <v>2</v>
       </c>
@@ -23761,7 +23980,7 @@
       <c r="R352" s="46"/>
       <c r="S352" s="21"/>
     </row>
-    <row r="353" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="37">
         <v>2</v>
       </c>
@@ -23808,7 +24027,7 @@
       <c r="R353" s="46"/>
       <c r="S353" s="21"/>
     </row>
-    <row r="354" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="37">
         <v>2</v>
       </c>
@@ -23855,7 +24074,7 @@
       <c r="R354" s="46"/>
       <c r="S354" s="21"/>
     </row>
-    <row r="355" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="37">
         <v>2</v>
       </c>
@@ -23902,7 +24121,7 @@
       <c r="R355" s="46"/>
       <c r="S355" s="21"/>
     </row>
-    <row r="356" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="37">
         <v>2</v>
       </c>
@@ -23949,7 +24168,7 @@
       <c r="R356" s="46"/>
       <c r="S356" s="21"/>
     </row>
-    <row r="357" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="37">
         <v>2</v>
       </c>
@@ -23996,7 +24215,7 @@
       <c r="R357" s="46"/>
       <c r="S357" s="21"/>
     </row>
-    <row r="358" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="37">
         <v>2</v>
       </c>
@@ -24043,7 +24262,7 @@
       <c r="R358" s="46"/>
       <c r="S358" s="21"/>
     </row>
-    <row r="359" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="37">
         <v>2</v>
       </c>
@@ -24090,7 +24309,7 @@
       <c r="R359" s="46"/>
       <c r="S359" s="21"/>
     </row>
-    <row r="360" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="37">
         <v>2</v>
       </c>
@@ -24137,7 +24356,7 @@
       <c r="R360" s="46"/>
       <c r="S360" s="21"/>
     </row>
-    <row r="361" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="37">
         <v>2</v>
       </c>
@@ -24184,7 +24403,7 @@
       <c r="R361" s="46"/>
       <c r="S361" s="21"/>
     </row>
-    <row r="362" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="37">
         <v>2</v>
       </c>
@@ -24231,7 +24450,7 @@
       <c r="R362" s="46"/>
       <c r="S362" s="21"/>
     </row>
-    <row r="363" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="37">
         <v>2</v>
       </c>
@@ -24278,7 +24497,7 @@
       <c r="R363" s="46"/>
       <c r="S363" s="21"/>
     </row>
-    <row r="364" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="37">
         <v>2</v>
       </c>
@@ -24325,7 +24544,7 @@
       <c r="R364" s="46"/>
       <c r="S364" s="21"/>
     </row>
-    <row r="365" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="37">
         <v>2</v>
       </c>
@@ -24372,7 +24591,7 @@
       <c r="R365" s="46"/>
       <c r="S365" s="21"/>
     </row>
-    <row r="366" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="37">
         <v>2</v>
       </c>
@@ -24419,7 +24638,7 @@
       <c r="R366" s="46"/>
       <c r="S366" s="21"/>
     </row>
-    <row r="367" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="37">
         <v>2</v>
       </c>
@@ -24466,7 +24685,7 @@
       <c r="R367" s="46"/>
       <c r="S367" s="21"/>
     </row>
-    <row r="368" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="37">
         <v>2</v>
       </c>
@@ -24513,7 +24732,7 @@
       <c r="R368" s="46"/>
       <c r="S368" s="21"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="37">
         <v>2</v>
       </c>
@@ -24560,7 +24779,7 @@
       <c r="R369" s="46"/>
       <c r="S369" s="21"/>
     </row>
-    <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="37">
         <v>2</v>
       </c>
@@ -24607,7 +24826,7 @@
       <c r="R370" s="46"/>
       <c r="S370" s="21"/>
     </row>
-    <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="37">
         <v>2</v>
       </c>
@@ -24654,7 +24873,7 @@
       <c r="R371" s="46"/>
       <c r="S371" s="21"/>
     </row>
-    <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="37">
         <v>2</v>
       </c>
@@ -24701,7 +24920,7 @@
       <c r="R372" s="46"/>
       <c r="S372" s="21"/>
     </row>
-    <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="37">
         <v>2</v>
       </c>
@@ -24748,7 +24967,7 @@
       <c r="R373" s="46"/>
       <c r="S373" s="21"/>
     </row>
-    <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="20">
         <v>2</v>
       </c>
@@ -24795,7 +25014,7 @@
       <c r="R374" s="46"/>
       <c r="S374" s="21"/>
     </row>
-    <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="20">
         <v>2</v>
       </c>
@@ -24842,7 +25061,7 @@
       <c r="R375" s="46"/>
       <c r="S375" s="21"/>
     </row>
-    <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="20">
         <v>2</v>
       </c>
@@ -24889,7 +25108,7 @@
       <c r="R376" s="46"/>
       <c r="S376" s="21"/>
     </row>
-    <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="20">
         <v>2</v>
       </c>
@@ -24936,7 +25155,7 @@
       <c r="R377" s="46"/>
       <c r="S377" s="21"/>
     </row>
-    <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="20">
         <v>2</v>
       </c>
@@ -24983,7 +25202,7 @@
       <c r="R378" s="46"/>
       <c r="S378" s="21"/>
     </row>
-    <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="20">
         <v>2</v>
       </c>
@@ -25030,7 +25249,7 @@
       <c r="R379" s="46"/>
       <c r="S379" s="21"/>
     </row>
-    <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="20">
         <v>2</v>
       </c>
@@ -25077,7 +25296,7 @@
       <c r="R380" s="46"/>
       <c r="S380" s="21"/>
     </row>
-    <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="20">
         <v>2</v>
       </c>
@@ -25124,7 +25343,7 @@
       <c r="R381" s="46"/>
       <c r="S381" s="21"/>
     </row>
-    <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="20">
         <v>2</v>
       </c>
@@ -25171,7 +25390,7 @@
       <c r="R382" s="46"/>
       <c r="S382" s="21"/>
     </row>
-    <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="20">
         <v>2</v>
       </c>
@@ -25218,7 +25437,7 @@
       <c r="R383" s="46"/>
       <c r="S383" s="21"/>
     </row>
-    <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="20">
         <v>2</v>
       </c>
@@ -25265,7 +25484,7 @@
       <c r="R384" s="46"/>
       <c r="S384" s="21"/>
     </row>
-    <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="20">
         <v>2</v>
       </c>
@@ -25312,7 +25531,7 @@
       <c r="R385" s="46"/>
       <c r="S385" s="21"/>
     </row>
-    <row r="386" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="20">
         <v>2</v>
       </c>
@@ -25359,7 +25578,7 @@
       <c r="R386" s="46"/>
       <c r="S386" s="21"/>
     </row>
-    <row r="387" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="20">
         <v>2</v>
       </c>
@@ -25406,7 +25625,7 @@
       <c r="R387" s="46"/>
       <c r="S387" s="21"/>
     </row>
-    <row r="388" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="20">
         <v>2</v>
       </c>
@@ -25453,7 +25672,7 @@
       <c r="R388" s="46"/>
       <c r="S388" s="21"/>
     </row>
-    <row r="389" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="20">
         <v>2</v>
       </c>
@@ -25500,7 +25719,7 @@
       <c r="R389" s="46"/>
       <c r="S389" s="21"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="20">
         <v>2</v>
       </c>
@@ -25547,7 +25766,7 @@
       <c r="R390" s="46"/>
       <c r="S390" s="21"/>
     </row>
-    <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="20">
         <v>2</v>
       </c>
@@ -25594,7 +25813,7 @@
       <c r="R391" s="46"/>
       <c r="S391" s="21"/>
     </row>
-    <row r="392" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="20">
         <v>2</v>
       </c>
@@ -25641,7 +25860,7 @@
       <c r="R392" s="46"/>
       <c r="S392" s="21"/>
     </row>
-    <row r="393" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="20">
         <v>2</v>
       </c>
@@ -25688,7 +25907,7 @@
       <c r="R393" s="46"/>
       <c r="S393" s="21"/>
     </row>
-    <row r="394" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="20">
         <v>2</v>
       </c>
@@ -25735,7 +25954,7 @@
       <c r="R394" s="46"/>
       <c r="S394" s="21"/>
     </row>
-    <row r="395" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="20">
         <v>2</v>
       </c>
@@ -25782,7 +26001,7 @@
       <c r="R395" s="46"/>
       <c r="S395" s="21"/>
     </row>
-    <row r="396" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="20">
         <v>2</v>
       </c>
@@ -25829,7 +26048,7 @@
       <c r="R396" s="46"/>
       <c r="S396" s="21"/>
     </row>
-    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="20">
         <v>2</v>
       </c>
@@ -25876,7 +26095,7 @@
       <c r="R397" s="46"/>
       <c r="S397" s="21"/>
     </row>
-    <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="20">
         <v>2</v>
       </c>
@@ -25923,7 +26142,7 @@
       <c r="R398" s="46"/>
       <c r="S398" s="21"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="20">
         <v>2</v>
       </c>
@@ -25970,7 +26189,7 @@
       <c r="R399" s="46"/>
       <c r="S399" s="21"/>
     </row>
-    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="20">
         <v>2</v>
       </c>
@@ -26017,7 +26236,7 @@
       <c r="R400" s="46"/>
       <c r="S400" s="21"/>
     </row>
-    <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="20">
         <v>2</v>
       </c>
@@ -26064,7 +26283,7 @@
       <c r="R401" s="46"/>
       <c r="S401" s="21"/>
     </row>
-    <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="20">
         <v>2</v>
       </c>
@@ -26111,7 +26330,7 @@
       <c r="R402" s="46"/>
       <c r="S402" s="21"/>
     </row>
-    <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="20">
         <v>2</v>
       </c>
@@ -26158,7 +26377,7 @@
       <c r="R403" s="46"/>
       <c r="S403" s="21"/>
     </row>
-    <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="20">
         <v>2</v>
       </c>
@@ -26205,7 +26424,7 @@
       <c r="R404" s="46"/>
       <c r="S404" s="21"/>
     </row>
-    <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="20">
         <v>2</v>
       </c>
@@ -26252,7 +26471,7 @@
       <c r="R405" s="46"/>
       <c r="S405" s="21"/>
     </row>
-    <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="20">
         <v>2</v>
       </c>
@@ -26299,7 +26518,7 @@
       <c r="R406" s="46"/>
       <c r="S406" s="21"/>
     </row>
-    <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="20">
         <v>2</v>
       </c>
@@ -26346,7 +26565,7 @@
       <c r="R407" s="46"/>
       <c r="S407" s="21"/>
     </row>
-    <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="20">
         <v>2</v>
       </c>
@@ -26393,7 +26612,7 @@
       <c r="R408" s="46"/>
       <c r="S408" s="21"/>
     </row>
-    <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="20">
         <v>2</v>
       </c>
@@ -26440,7 +26659,7 @@
       <c r="R409" s="46"/>
       <c r="S409" s="21"/>
     </row>
-    <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="20">
         <v>2</v>
       </c>
@@ -26487,7 +26706,7 @@
       <c r="R410" s="46"/>
       <c r="S410" s="21"/>
     </row>
-    <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="20">
         <v>2</v>
       </c>
@@ -26534,7 +26753,7 @@
       <c r="R411" s="46"/>
       <c r="S411" s="21"/>
     </row>
-    <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="20">
         <v>2</v>
       </c>
@@ -26581,7 +26800,7 @@
       <c r="R412" s="46"/>
       <c r="S412" s="21"/>
     </row>
-    <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="20">
         <v>2</v>
       </c>
@@ -26628,7 +26847,7 @@
       <c r="R413" s="46"/>
       <c r="S413" s="21"/>
     </row>
-    <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="20">
         <v>2</v>
       </c>
@@ -26675,7 +26894,7 @@
       <c r="R414" s="46"/>
       <c r="S414" s="21"/>
     </row>
-    <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="20">
         <v>2</v>
       </c>
@@ -26722,7 +26941,7 @@
       <c r="R415" s="46"/>
       <c r="S415" s="21"/>
     </row>
-    <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="20">
         <v>2</v>
       </c>
@@ -26769,7 +26988,7 @@
       <c r="R416" s="46"/>
       <c r="S416" s="21"/>
     </row>
-    <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="20">
         <v>4</v>
       </c>
@@ -26816,7 +27035,7 @@
       <c r="R417" s="46"/>
       <c r="S417" s="21"/>
     </row>
-    <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="20">
         <v>4</v>
       </c>
@@ -26863,7 +27082,7 @@
       <c r="R418" s="46"/>
       <c r="S418" s="21"/>
     </row>
-    <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="20">
         <v>4</v>
       </c>
@@ -26910,7 +27129,7 @@
       <c r="R419" s="46"/>
       <c r="S419" s="21"/>
     </row>
-    <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="20">
         <v>4</v>
       </c>
@@ -26957,7 +27176,7 @@
       <c r="R420" s="46"/>
       <c r="S420" s="21"/>
     </row>
-    <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="20">
         <v>4</v>
       </c>
@@ -27004,7 +27223,7 @@
       <c r="R421" s="46"/>
       <c r="S421" s="21"/>
     </row>
-    <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="20">
         <v>4</v>
       </c>
@@ -27051,7 +27270,7 @@
       <c r="R422" s="46"/>
       <c r="S422" s="21"/>
     </row>
-    <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="20">
         <v>4</v>
       </c>
@@ -27098,7 +27317,7 @@
       <c r="R423" s="46"/>
       <c r="S423" s="21"/>
     </row>
-    <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="20">
         <v>4</v>
       </c>
@@ -27145,7 +27364,7 @@
       <c r="R424" s="46"/>
       <c r="S424" s="21"/>
     </row>
-    <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="20">
         <v>4</v>
       </c>
@@ -27192,7 +27411,7 @@
       <c r="R425" s="46"/>
       <c r="S425" s="21"/>
     </row>
-    <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="20">
         <v>4</v>
       </c>
@@ -27239,7 +27458,7 @@
       <c r="R426" s="46"/>
       <c r="S426" s="21"/>
     </row>
-    <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="20">
         <v>4</v>
       </c>
@@ -27286,7 +27505,7 @@
       <c r="R427" s="46"/>
       <c r="S427" s="21"/>
     </row>
-    <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="20">
         <v>4</v>
       </c>
@@ -27333,7 +27552,7 @@
       <c r="R428" s="46"/>
       <c r="S428" s="21"/>
     </row>
-    <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="20">
         <v>4</v>
       </c>
@@ -27380,7 +27599,7 @@
       <c r="R429" s="46"/>
       <c r="S429" s="21"/>
     </row>
-    <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="20">
         <v>4</v>
       </c>
@@ -27427,7 +27646,7 @@
       <c r="R430" s="46"/>
       <c r="S430" s="21"/>
     </row>
-    <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="20">
         <v>4</v>
       </c>
@@ -27474,7 +27693,7 @@
       <c r="R431" s="46"/>
       <c r="S431" s="21"/>
     </row>
-    <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="20">
         <v>2</v>
       </c>
@@ -27521,7 +27740,7 @@
       <c r="R432" s="46"/>
       <c r="S432" s="21"/>
     </row>
-    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="20">
         <v>4</v>
       </c>
@@ -27568,7 +27787,7 @@
       <c r="R433" s="46"/>
       <c r="S433" s="21"/>
     </row>
-    <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="20">
         <v>4</v>
       </c>
@@ -27615,7 +27834,7 @@
       <c r="R434" s="46"/>
       <c r="S434" s="21"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="20">
         <v>4</v>
       </c>
@@ -27662,7 +27881,7 @@
       <c r="R435" s="46"/>
       <c r="S435" s="21"/>
     </row>
-    <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="20">
         <v>4</v>
       </c>
@@ -27709,7 +27928,7 @@
       <c r="R436" s="46"/>
       <c r="S436" s="21"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="20">
         <v>4</v>
       </c>
@@ -27756,7 +27975,7 @@
       <c r="R437" s="46"/>
       <c r="S437" s="21"/>
     </row>
-    <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="20">
         <v>4</v>
       </c>
@@ -27803,7 +28022,7 @@
       <c r="R438" s="46"/>
       <c r="S438" s="21"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="20">
         <v>4</v>
       </c>
@@ -27850,7 +28069,7 @@
       <c r="R439" s="46"/>
       <c r="S439" s="21"/>
     </row>
-    <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="20">
         <v>4</v>
       </c>
@@ -27897,7 +28116,7 @@
       <c r="R440" s="46"/>
       <c r="S440" s="21"/>
     </row>
-    <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="20">
         <v>4</v>
       </c>
@@ -27944,7 +28163,7 @@
       <c r="R441" s="46"/>
       <c r="S441" s="21"/>
     </row>
-    <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="20">
         <v>4</v>
       </c>
@@ -27991,7 +28210,7 @@
       <c r="R442" s="46"/>
       <c r="S442" s="21"/>
     </row>
-    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="20">
         <v>4</v>
       </c>
@@ -28038,7 +28257,7 @@
       <c r="R443" s="46"/>
       <c r="S443" s="21"/>
     </row>
-    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="20">
         <v>4</v>
       </c>
@@ -28085,7 +28304,7 @@
       <c r="R444" s="46"/>
       <c r="S444" s="21"/>
     </row>
-    <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="20">
         <v>4</v>
       </c>
@@ -28132,7 +28351,7 @@
       <c r="R445" s="46"/>
       <c r="S445" s="21"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="20">
         <v>4</v>
       </c>
@@ -28179,7 +28398,7 @@
       <c r="R446" s="46"/>
       <c r="S446" s="21"/>
     </row>
-    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="20">
         <v>4</v>
       </c>
@@ -28226,7 +28445,7 @@
       <c r="R447" s="46"/>
       <c r="S447" s="21"/>
     </row>
-    <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="20">
         <v>4</v>
       </c>
@@ -28273,7 +28492,7 @@
       <c r="R448" s="46"/>
       <c r="S448" s="21"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="20">
         <v>4</v>
       </c>
@@ -28320,7 +28539,7 @@
       <c r="R449" s="46"/>
       <c r="S449" s="21"/>
     </row>
-    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="20">
         <v>4</v>
       </c>
@@ -28367,7 +28586,7 @@
       <c r="R450" s="46"/>
       <c r="S450" s="21"/>
     </row>
-    <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="20">
         <v>4</v>
       </c>
@@ -28414,7 +28633,7 @@
       <c r="R451" s="46"/>
       <c r="S451" s="21"/>
     </row>
-    <row r="452" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="20">
         <v>4</v>
       </c>
@@ -28461,7 +28680,7 @@
       <c r="R452" s="46"/>
       <c r="S452" s="21"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="20">
         <v>4</v>
       </c>
@@ -28508,7 +28727,7 @@
       <c r="R453" s="46"/>
       <c r="S453" s="21"/>
     </row>
-    <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="20">
         <v>4</v>
       </c>
@@ -28555,7 +28774,7 @@
       <c r="R454" s="46"/>
       <c r="S454" s="21"/>
     </row>
-    <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="20">
         <v>4</v>
       </c>
@@ -28602,7 +28821,7 @@
       <c r="R455" s="46"/>
       <c r="S455" s="21"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="20">
         <v>4</v>
       </c>
@@ -28649,7 +28868,7 @@
       <c r="R456" s="46"/>
       <c r="S456" s="21"/>
     </row>
-    <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="20">
         <v>4</v>
       </c>
@@ -28696,7 +28915,7 @@
       <c r="R457" s="46"/>
       <c r="S457" s="21"/>
     </row>
-    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="20">
         <v>4</v>
       </c>
@@ -28743,7 +28962,7 @@
       <c r="R458" s="46"/>
       <c r="S458" s="21"/>
     </row>
-    <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="20">
         <v>4</v>
       </c>
@@ -28790,7 +29009,7 @@
       <c r="R459" s="46"/>
       <c r="S459" s="21"/>
     </row>
-    <row r="460" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="20">
         <v>4</v>
       </c>
@@ -28837,7 +29056,7 @@
       <c r="R460" s="46"/>
       <c r="S460" s="21"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="20">
         <v>4</v>
       </c>
@@ -28884,7 +29103,7 @@
       <c r="R461" s="46"/>
       <c r="S461" s="21"/>
     </row>
-    <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="20">
         <v>4</v>
       </c>
@@ -28931,7 +29150,7 @@
       <c r="R462" s="46"/>
       <c r="S462" s="21"/>
     </row>
-    <row r="463" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="26">
         <v>2</v>
       </c>
@@ -28978,7 +29197,7 @@
       <c r="R463" s="46"/>
       <c r="S463" s="21"/>
     </row>
-    <row r="464" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="28">
         <v>2</v>
       </c>
@@ -29025,7 +29244,7 @@
       <c r="R464" s="46"/>
       <c r="S464" s="21"/>
     </row>
-    <row r="465" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="38">
         <v>2</v>
       </c>
@@ -29072,7 +29291,7 @@
       <c r="R465" s="46"/>
       <c r="S465" s="21"/>
     </row>
-    <row r="466" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="28">
         <v>2</v>
       </c>
@@ -29119,7 +29338,7 @@
       <c r="R466" s="46"/>
       <c r="S466" s="21"/>
     </row>
-    <row r="467" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="28">
         <v>2</v>
       </c>
@@ -29166,7 +29385,7 @@
       <c r="R467" s="46"/>
       <c r="S467" s="21"/>
     </row>
-    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="28">
         <v>2</v>
       </c>
@@ -29213,7 +29432,7 @@
       <c r="R468" s="46"/>
       <c r="S468" s="21"/>
     </row>
-    <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="38">
         <v>2</v>
       </c>
@@ -29260,7 +29479,7 @@
       <c r="R469" s="46"/>
       <c r="S469" s="21"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="28">
         <v>2</v>
       </c>
@@ -29307,7 +29526,7 @@
       <c r="R470" s="46"/>
       <c r="S470" s="21"/>
     </row>
-    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="28">
         <v>2</v>
       </c>
@@ -29354,7 +29573,7 @@
       <c r="R471" s="46"/>
       <c r="S471" s="21"/>
     </row>
-    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="28">
         <v>2</v>
       </c>
@@ -29401,7 +29620,7 @@
       <c r="R472" s="46"/>
       <c r="S472" s="21"/>
     </row>
-    <row r="473" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="28">
         <v>2</v>
       </c>
@@ -29448,7 +29667,7 @@
       <c r="R473" s="46"/>
       <c r="S473" s="21"/>
     </row>
-    <row r="474" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="28" t="s">
         <v>450</v>
       </c>
@@ -29495,7 +29714,7 @@
       <c r="R474" s="46"/>
       <c r="S474" s="21"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="28">
         <v>2</v>
       </c>
@@ -29542,7 +29761,7 @@
       <c r="R475" s="46"/>
       <c r="S475" s="21"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="28">
         <v>2</v>
       </c>
@@ -29589,7 +29808,7 @@
       <c r="R476" s="46"/>
       <c r="S476" s="21"/>
     </row>
-    <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="28">
         <v>2</v>
       </c>
@@ -29636,7 +29855,7 @@
       <c r="R477" s="46"/>
       <c r="S477" s="21"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="38">
         <v>2</v>
       </c>
@@ -29683,7 +29902,7 @@
       <c r="R478" s="46"/>
       <c r="S478" s="21"/>
     </row>
-    <row r="479" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="28" t="s">
         <v>450</v>
       </c>
@@ -29730,7 +29949,7 @@
       <c r="R479" s="46"/>
       <c r="S479" s="21"/>
     </row>
-    <row r="480" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="28">
         <v>2</v>
       </c>
@@ -29777,7 +29996,7 @@
       <c r="R480" s="46"/>
       <c r="S480" s="21"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="28">
         <v>2</v>
       </c>
@@ -29824,7 +30043,7 @@
       <c r="R481" s="46"/>
       <c r="S481" s="21"/>
     </row>
-    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="38">
         <v>2</v>
       </c>
@@ -29871,7 +30090,7 @@
       <c r="R482" s="46"/>
       <c r="S482" s="21"/>
     </row>
-    <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="28" t="s">
         <v>450</v>
       </c>
@@ -29918,7 +30137,7 @@
       <c r="R483" s="46"/>
       <c r="S483" s="21"/>
     </row>
-    <row r="484" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="28">
         <v>2</v>
       </c>
@@ -29965,7 +30184,7 @@
       <c r="R484" s="46"/>
       <c r="S484" s="21"/>
     </row>
-    <row r="485" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="28">
         <v>2</v>
       </c>
@@ -30012,7 +30231,7 @@
       <c r="R485" s="46"/>
       <c r="S485" s="21"/>
     </row>
-    <row r="486" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="38">
         <v>2</v>
       </c>
@@ -30059,7 +30278,7 @@
       <c r="R486" s="46"/>
       <c r="S486" s="21"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="28">
         <v>2</v>
       </c>
@@ -30106,7 +30325,7 @@
       <c r="R487" s="46"/>
       <c r="S487" s="21"/>
     </row>
-    <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="28">
         <v>2</v>
       </c>
@@ -30153,7 +30372,7 @@
       <c r="R488" s="46"/>
       <c r="S488" s="21"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="28" t="s">
         <v>450</v>
       </c>
@@ -30200,7 +30419,7 @@
       <c r="R489" s="46"/>
       <c r="S489" s="21"/>
     </row>
-    <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="28">
         <v>2</v>
       </c>
@@ -30247,7 +30466,7 @@
       <c r="R490" s="46"/>
       <c r="S490" s="21"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="28">
         <v>2</v>
       </c>
@@ -30294,7 +30513,7 @@
       <c r="R491" s="46"/>
       <c r="S491" s="21"/>
     </row>
-    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="28" t="s">
         <v>450</v>
       </c>
@@ -30341,7 +30560,7 @@
       <c r="R492" s="46"/>
       <c r="S492" s="21"/>
     </row>
-    <row r="493" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="28">
         <v>2</v>
       </c>
@@ -30388,7 +30607,7 @@
       <c r="R493" s="46"/>
       <c r="S493" s="21"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="28">
         <v>2</v>
       </c>
@@ -30435,7 +30654,7 @@
       <c r="R494" s="46"/>
       <c r="S494" s="21"/>
     </row>
-    <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="28" t="s">
         <v>450</v>
       </c>
@@ -30482,7 +30701,7 @@
       <c r="R495" s="46"/>
       <c r="S495" s="21"/>
     </row>
-    <row r="496" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="28">
         <v>2</v>
       </c>
@@ -30529,7 +30748,7 @@
       <c r="R496" s="46"/>
       <c r="S496" s="21"/>
     </row>
-    <row r="497" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="28" t="s">
         <v>450</v>
       </c>
@@ -30576,7 +30795,7 @@
       <c r="R497" s="46"/>
       <c r="S497" s="21"/>
     </row>
-    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="28">
         <v>2</v>
       </c>
@@ -30623,7 +30842,7 @@
       <c r="R498" s="46"/>
       <c r="S498" s="21"/>
     </row>
-    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="28" t="s">
         <v>450</v>
       </c>
@@ -30670,7 +30889,7 @@
       <c r="R499" s="46"/>
       <c r="S499" s="21"/>
     </row>
-    <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="28">
         <v>2</v>
       </c>
@@ -30717,7 +30936,7 @@
       <c r="R500" s="46"/>
       <c r="S500" s="21"/>
     </row>
-    <row r="501" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="28">
         <v>4</v>
       </c>
@@ -30764,7 +30983,7 @@
       <c r="R501" s="46"/>
       <c r="S501" s="21"/>
     </row>
-    <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="28">
         <v>4</v>
       </c>
@@ -30811,7 +31030,7 @@
       <c r="R502" s="46"/>
       <c r="S502" s="21"/>
     </row>
-    <row r="503" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="28" t="s">
         <v>450</v>
       </c>
@@ -30858,7 +31077,7 @@
       <c r="R503" s="46"/>
       <c r="S503" s="21"/>
     </row>
-    <row r="504" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="38">
         <v>2</v>
       </c>
@@ -30905,7 +31124,7 @@
       <c r="R504" s="46"/>
       <c r="S504" s="21"/>
     </row>
-    <row r="505" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="28" t="s">
         <v>450</v>
       </c>
@@ -30952,7 +31171,7 @@
       <c r="R505" s="46"/>
       <c r="S505" s="21"/>
     </row>
-    <row r="506" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="28" t="s">
         <v>450</v>
       </c>
@@ -30999,7 +31218,7 @@
       <c r="R506" s="46"/>
       <c r="S506" s="21"/>
     </row>
-    <row r="507" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="28" t="s">
         <v>450</v>
       </c>
@@ -31046,7 +31265,7 @@
       <c r="R507" s="46"/>
       <c r="S507" s="21"/>
     </row>
-    <row r="508" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="38">
         <v>2</v>
       </c>
@@ -31079,7 +31298,7 @@
       <c r="R508" s="46"/>
       <c r="S508" s="21"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="38">
         <v>2</v>
       </c>
@@ -31112,7 +31331,7 @@
       <c r="R509" s="46"/>
       <c r="S509" s="21"/>
     </row>
-    <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="38">
         <v>2</v>
       </c>
@@ -31145,7 +31364,7 @@
       <c r="R510" s="46"/>
       <c r="S510" s="21"/>
     </row>
-    <row r="511" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="38">
         <v>2</v>
       </c>
@@ -31178,7 +31397,7 @@
       <c r="R511" s="46"/>
       <c r="S511" s="21"/>
     </row>
-    <row r="512" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="28" t="s">
         <v>450</v>
       </c>
@@ -31225,7 +31444,7 @@
       <c r="R512" s="46"/>
       <c r="S512" s="21"/>
     </row>
-    <row r="513" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="28">
         <v>8</v>
       </c>
@@ -31282,7 +31501,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="28">
         <v>8</v>
       </c>
@@ -31339,7 +31558,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="28">
         <v>8</v>
       </c>
@@ -31396,7 +31615,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="28">
         <v>8</v>
       </c>
@@ -31453,7 +31672,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="28">
         <v>8</v>
       </c>
@@ -31510,7 +31729,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="28">
         <v>8</v>
       </c>
@@ -31567,7 +31786,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="28">
         <v>8</v>
       </c>
@@ -31624,7 +31843,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="28">
         <v>8</v>
       </c>
@@ -31681,7 +31900,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="28">
         <v>8</v>
       </c>
@@ -31732,7 +31951,7 @@
       <c r="R521" s="46"/>
       <c r="S521" s="21"/>
     </row>
-    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="28">
         <v>8</v>
       </c>
@@ -31783,7 +32002,7 @@
       <c r="R522" s="46"/>
       <c r="S522" s="21"/>
     </row>
-    <row r="523" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="28">
         <v>8</v>
       </c>
@@ -31840,7 +32059,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="28">
         <v>8</v>
       </c>
@@ -31897,7 +32116,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="28">
         <v>8</v>
       </c>
@@ -31954,7 +32173,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="28">
         <v>8</v>
       </c>
@@ -32011,7 +32230,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="28">
         <v>8</v>
       </c>
@@ -32068,7 +32287,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="28">
         <v>8</v>
       </c>
@@ -32125,7 +32344,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="28">
         <v>8</v>
       </c>
@@ -32182,7 +32401,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="28">
         <v>8</v>
       </c>
@@ -32239,7 +32458,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="26">
         <v>1</v>
       </c>
@@ -32286,7 +32505,7 @@
       <c r="R531" s="46"/>
       <c r="S531" s="21"/>
     </row>
-    <row r="532" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="28">
         <v>8</v>
       </c>
@@ -32343,7 +32562,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="28">
         <v>8</v>
       </c>
@@ -32400,7 +32619,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="28">
         <v>8</v>
       </c>
@@ -32457,7 +32676,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="28">
         <v>8</v>
       </c>
@@ -32514,7 +32733,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="28">
         <v>8</v>
       </c>
@@ -32571,7 +32790,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="28">
         <v>8</v>
       </c>
@@ -32628,7 +32847,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="28">
         <v>8</v>
       </c>
@@ -32675,7 +32894,7 @@
       <c r="R538" s="46"/>
       <c r="S538" s="21"/>
     </row>
-    <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="28">
         <v>8</v>
       </c>
@@ -32722,7 +32941,7 @@
       <c r="R539" s="46"/>
       <c r="S539" s="21"/>
     </row>
-    <row r="540" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="28">
         <v>8</v>
       </c>
@@ -32769,7 +32988,7 @@
       <c r="R540" s="46"/>
       <c r="S540" s="21"/>
     </row>
-    <row r="541" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="26">
         <v>1</v>
       </c>
@@ -32816,7 +33035,7 @@
       <c r="R541" s="46"/>
       <c r="S541" s="21"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="28">
         <v>8</v>
       </c>
@@ -32863,7 +33082,7 @@
       <c r="R542" s="46"/>
       <c r="S542" s="21"/>
     </row>
-    <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="28">
         <v>8</v>
       </c>
@@ -32910,7 +33129,7 @@
       <c r="R543" s="46"/>
       <c r="S543" s="21"/>
     </row>
-    <row r="544" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="28">
         <v>8</v>
       </c>
@@ -32957,7 +33176,7 @@
       <c r="R544" s="46"/>
       <c r="S544" s="21"/>
     </row>
-    <row r="545" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="28">
         <v>8</v>
       </c>
@@ -33004,7 +33223,7 @@
       <c r="R545" s="46"/>
       <c r="S545" s="21"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="28">
         <v>8</v>
       </c>
@@ -33051,7 +33270,7 @@
       <c r="R546" s="46"/>
       <c r="S546" s="21"/>
     </row>
-    <row r="547" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="28">
         <v>8</v>
       </c>
@@ -33098,7 +33317,7 @@
       <c r="R547" s="46"/>
       <c r="S547" s="21"/>
     </row>
-    <row r="548" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="28">
         <v>8</v>
       </c>
@@ -33145,7 +33364,7 @@
       <c r="R548" s="46"/>
       <c r="S548" s="21"/>
     </row>
-    <row r="549" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="28">
         <v>8</v>
       </c>
@@ -33192,7 +33411,7 @@
       <c r="R549" s="46"/>
       <c r="S549" s="21"/>
     </row>
-    <row r="550" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="28">
         <v>8</v>
       </c>
@@ -33239,7 +33458,7 @@
       <c r="R550" s="46"/>
       <c r="S550" s="21"/>
     </row>
-    <row r="551" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="28">
         <v>8</v>
       </c>
@@ -33286,7 +33505,7 @@
       <c r="R551" s="46"/>
       <c r="S551" s="21"/>
     </row>
-    <row r="552" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="28">
         <v>8</v>
       </c>
@@ -33333,7 +33552,7 @@
       <c r="R552" s="46"/>
       <c r="S552" s="21"/>
     </row>
-    <row r="553" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="28">
         <v>8</v>
       </c>
@@ -33380,7 +33599,7 @@
       <c r="R553" s="46"/>
       <c r="S553" s="21"/>
     </row>
-    <row r="554" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="28">
         <v>3</v>
       </c>
@@ -33427,7 +33646,7 @@
       <c r="R554" s="46"/>
       <c r="S554" s="21"/>
     </row>
-    <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="28">
         <v>3</v>
       </c>
@@ -33474,7 +33693,7 @@
       <c r="R555" s="46"/>
       <c r="S555" s="21"/>
     </row>
-    <row r="556" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="26">
         <v>8</v>
       </c>
@@ -33521,7 +33740,7 @@
       <c r="R556" s="46"/>
       <c r="S556" s="21"/>
     </row>
-    <row r="557" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="26">
         <v>8</v>
       </c>
@@ -33568,7 +33787,7 @@
       <c r="R557" s="46"/>
       <c r="S557" s="21"/>
     </row>
-    <row r="558" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="26">
         <v>8</v>
       </c>
@@ -33615,7 +33834,7 @@
       <c r="R558" s="46"/>
       <c r="S558" s="21"/>
     </row>
-    <row r="559" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="26">
         <v>8</v>
       </c>
@@ -33662,7 +33881,7 @@
       <c r="R559" s="46"/>
       <c r="S559" s="21"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="26">
         <v>8</v>
       </c>
@@ -33709,7 +33928,7 @@
       <c r="R560" s="46"/>
       <c r="S560" s="21"/>
     </row>
-    <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="26">
         <v>8</v>
       </c>
@@ -33756,7 +33975,7 @@
       <c r="R561" s="46"/>
       <c r="S561" s="21"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="26">
         <v>8</v>
       </c>
@@ -33803,7 +34022,7 @@
       <c r="R562" s="46"/>
       <c r="S562" s="21"/>
     </row>
-    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="26">
         <v>8</v>
       </c>
@@ -33850,7 +34069,7 @@
       <c r="R563" s="46"/>
       <c r="S563" s="21"/>
     </row>
-    <row r="564" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="26">
         <v>8</v>
       </c>
@@ -33897,7 +34116,7 @@
       <c r="R564" s="46"/>
       <c r="S564" s="21"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="26">
         <v>8</v>
       </c>
@@ -33944,7 +34163,7 @@
       <c r="R565" s="46"/>
       <c r="S565" s="21"/>
     </row>
-    <row r="566" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="26">
         <v>8</v>
       </c>
@@ -33991,7 +34210,7 @@
       <c r="R566" s="46"/>
       <c r="S566" s="21"/>
     </row>
-    <row r="567" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="26">
         <v>8</v>
       </c>
@@ -34038,7 +34257,7 @@
       <c r="R567" s="46"/>
       <c r="S567" s="21"/>
     </row>
-    <row r="568" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="26">
         <v>8</v>
       </c>
@@ -34085,7 +34304,7 @@
       <c r="R568" s="46"/>
       <c r="S568" s="21"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="26">
         <v>8</v>
       </c>
@@ -34132,7 +34351,7 @@
       <c r="R569" s="46"/>
       <c r="S569" s="21"/>
     </row>
-    <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="26">
         <v>8</v>
       </c>
@@ -34179,7 +34398,7 @@
       <c r="R570" s="46"/>
       <c r="S570" s="21"/>
     </row>
-    <row r="571" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="26">
         <v>8</v>
       </c>
@@ -34226,7 +34445,7 @@
       <c r="R571" s="46"/>
       <c r="S571" s="21"/>
     </row>
-    <row r="572" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="26">
         <v>8</v>
       </c>
@@ -34273,7 +34492,7 @@
       <c r="R572" s="46"/>
       <c r="S572" s="21"/>
     </row>
-    <row r="573" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="26">
         <v>8</v>
       </c>
@@ -34320,7 +34539,7 @@
       <c r="R573" s="46"/>
       <c r="S573" s="21"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="26">
         <v>8</v>
       </c>
@@ -34367,7 +34586,7 @@
       <c r="R574" s="46"/>
       <c r="S574" s="21"/>
     </row>
-    <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="26">
         <v>8</v>
       </c>
@@ -34414,7 +34633,7 @@
       <c r="R575" s="46"/>
       <c r="S575" s="21"/>
     </row>
-    <row r="576" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="26">
         <v>8</v>
       </c>
@@ -34461,7 +34680,7 @@
       <c r="R576" s="46"/>
       <c r="S576" s="21"/>
     </row>
-    <row r="577" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="26">
         <v>8</v>
       </c>
@@ -34508,7 +34727,7 @@
       <c r="R577" s="46"/>
       <c r="S577" s="21"/>
     </row>
-    <row r="578" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="26">
         <v>8</v>
       </c>
@@ -34555,7 +34774,7 @@
       <c r="R578" s="46"/>
       <c r="S578" s="21"/>
     </row>
-    <row r="579" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="26">
         <v>8</v>
       </c>
@@ -34602,7 +34821,7 @@
       <c r="R579" s="46"/>
       <c r="S579" s="21"/>
     </row>
-    <row r="580" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="26">
         <v>8</v>
       </c>
@@ -34649,7 +34868,7 @@
       <c r="R580" s="46"/>
       <c r="S580" s="21"/>
     </row>
-    <row r="581" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="26">
         <v>8</v>
       </c>
@@ -34696,7 +34915,7 @@
       <c r="R581" s="46"/>
       <c r="S581" s="21"/>
     </row>
-    <row r="582" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="26">
         <v>8</v>
       </c>
@@ -34743,7 +34962,7 @@
       <c r="R582" s="46"/>
       <c r="S582" s="21"/>
     </row>
-    <row r="583" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="26">
         <v>8</v>
       </c>
@@ -34790,7 +35009,7 @@
       <c r="R583" s="46"/>
       <c r="S583" s="21"/>
     </row>
-    <row r="584" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="26">
         <v>8</v>
       </c>
@@ -34837,7 +35056,7 @@
       <c r="R584" s="46"/>
       <c r="S584" s="21"/>
     </row>
-    <row r="585" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="26">
         <v>8</v>
       </c>
@@ -34886,9 +35105,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S585" xr:uid="{462B357B-D08B-41C7-9173-012688EAF9F7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Ja"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="TestAanpassen"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -35138,7 +35367,7 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H136)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O148:O167">
+  <conditionalFormatting sqref="O148:O161 O163:O167">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O148)))</formula>
     </cfRule>
@@ -35152,11 +35381,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D231E93-822A-41C5-B72A-B0566D93B022}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35171,17 +35400,17 @@
       <selection activeCell="A22" sqref="A22:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="117.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="9.109375" style="1"/>
+    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="117.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="9.140625" style="1"/>
     <col min="26" max="45" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.109375" style="1"/>
+    <col min="46" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>65</v>
       </c>
@@ -35190,7 +35419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>449</v>
       </c>
@@ -35198,7 +35427,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -35206,7 +35435,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -35214,7 +35443,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -35222,7 +35451,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -35230,7 +35459,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -35238,7 +35467,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -35246,7 +35475,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -35254,7 +35483,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -35262,7 +35491,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>450</v>
       </c>
@@ -35270,8 +35499,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -35279,7 +35508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>453</v>
       </c>
@@ -35287,8 +35516,8 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
@@ -35296,7 +35525,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>503</v>
       </c>
@@ -35304,7 +35533,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>462</v>
       </c>
@@ -35312,7 +35541,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>159</v>
       </c>
@@ -35320,7 +35549,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1014</v>
       </c>
@@ -35328,10 +35557,10 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>66</v>
       </c>
@@ -35339,7 +35568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -35347,7 +35576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>160</v>
       </c>
@@ -35355,10 +35584,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1035</v>
       </c>
@@ -35366,7 +35595,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -35374,7 +35603,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -35382,10 +35611,10 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
@@ -35393,7 +35622,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1016</v>
       </c>
@@ -35401,7 +35630,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1017</v>
       </c>
@@ -35409,7 +35638,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1018</v>
       </c>
@@ -35417,7 +35646,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1019</v>
       </c>
@@ -35425,7 +35654,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1020</v>
       </c>
@@ -35433,7 +35662,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1022</v>
       </c>
@@ -35441,7 +35670,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1021</v>
       </c>
@@ -35449,20 +35678,20 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
   </sheetData>

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A61FD8-ABEF-48D6-8A39-5E9AC4752204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4224C7-BDF7-48F5-A4D9-7DFCE92909E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -4054,7 +4054,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4136,6 +4136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4311,7 +4317,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4452,6 +4458,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5427,18 +5436,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" customWidth="1"/>
+    <col min="3" max="3" width="68.77734375" customWidth="1"/>
     <col min="6" max="6" width="7.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" style="13" customWidth="1"/>
@@ -5509,7 +5519,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -5556,7 +5566,7 @@
       <c r="R2" s="46"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5603,7 +5613,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -5650,7 +5660,7 @@
       <c r="R4" s="46"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -5697,7 +5707,7 @@
       <c r="R5" s="46"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -5744,7 +5754,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="21"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -5791,7 +5801,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>2</v>
       </c>
@@ -5838,7 +5848,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -5885,7 +5895,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>2</v>
       </c>
@@ -5932,7 +5942,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -5979,7 +5989,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>2</v>
       </c>
@@ -6026,7 +6036,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -6073,7 +6083,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>2</v>
       </c>
@@ -6120,7 +6130,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>2</v>
       </c>
@@ -6167,7 +6177,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>2</v>
       </c>
@@ -6214,7 +6224,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -6261,7 +6271,7 @@
       <c r="R17" s="46"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>2</v>
       </c>
@@ -6308,7 +6318,7 @@
       <c r="R18" s="46"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>2</v>
       </c>
@@ -7153,7 +7163,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>4</v>
       </c>
@@ -7202,7 +7212,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>4</v>
       </c>
@@ -7251,7 +7261,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>1</v>
       </c>
@@ -7302,7 +7312,7 @@
       <c r="R36" s="46"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27">
         <v>1</v>
       </c>
@@ -7353,7 +7363,7 @@
       <c r="R37" s="46"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
         <v>1</v>
       </c>
@@ -7410,7 +7420,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -7467,7 +7477,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -7524,7 +7534,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <v>1</v>
       </c>
@@ -7581,7 +7591,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -7638,7 +7648,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <v>1</v>
       </c>
@@ -7695,7 +7705,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>1</v>
       </c>
@@ -7752,7 +7762,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27">
         <v>1</v>
       </c>
@@ -7927,7 +7937,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27">
         <v>1</v>
       </c>
@@ -7988,7 +7998,7 @@
       <c r="A49" s="27">
         <v>1</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="48" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="21" t="s">
@@ -8102,7 +8112,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>1</v>
       </c>
@@ -8501,7 +8511,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>1</v>
       </c>
@@ -8558,7 +8568,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>1</v>
       </c>
@@ -8615,7 +8625,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <v>1</v>
       </c>
@@ -8662,7 +8672,7 @@
       <c r="R60" s="46"/>
       <c r="S60" s="21"/>
     </row>
-    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>1</v>
       </c>
@@ -8709,7 +8719,7 @@
       <c r="R61" s="46"/>
       <c r="S61" s="21"/>
     </row>
-    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>1</v>
       </c>
@@ -8756,7 +8766,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>2</v>
       </c>
@@ -8815,7 +8825,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>2</v>
       </c>
@@ -8862,7 +8872,7 @@
       <c r="R64" s="46"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>2</v>
       </c>
@@ -8921,7 +8931,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
         <v>2</v>
       </c>
@@ -8980,7 +8990,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
         <v>2</v>
       </c>
@@ -9039,7 +9049,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
         <v>2</v>
       </c>
@@ -9098,7 +9108,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="29">
         <v>2</v>
       </c>
@@ -9145,7 +9155,7 @@
       <c r="R69" s="46"/>
       <c r="S69" s="21"/>
     </row>
-    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="29">
         <v>2</v>
       </c>
@@ -9192,7 +9202,7 @@
       <c r="R70" s="46"/>
       <c r="S70" s="21"/>
     </row>
-    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="29">
         <v>2</v>
       </c>
@@ -9251,7 +9261,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29">
         <v>2</v>
       </c>
@@ -9310,7 +9320,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -9357,7 +9367,7 @@
       <c r="R73" s="46"/>
       <c r="S73" s="21"/>
     </row>
-    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30">
         <v>2</v>
       </c>
@@ -9404,7 +9414,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>2</v>
       </c>
@@ -9463,7 +9473,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="29">
         <v>2</v>
       </c>
@@ -9510,7 +9520,7 @@
       <c r="R76" s="46"/>
       <c r="S76" s="21"/>
     </row>
-    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29">
         <v>2</v>
       </c>
@@ -9557,7 +9567,7 @@
       <c r="R77" s="46"/>
       <c r="S77" s="21"/>
     </row>
-    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="29">
         <v>2</v>
       </c>
@@ -9604,7 +9614,7 @@
       <c r="R78" s="46"/>
       <c r="S78" s="21"/>
     </row>
-    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
         <v>2</v>
       </c>
@@ -9651,7 +9661,7 @@
       <c r="R79" s="46"/>
       <c r="S79" s="21"/>
     </row>
-    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>2</v>
       </c>
@@ -9698,7 +9708,7 @@
       <c r="R80" s="46"/>
       <c r="S80" s="21"/>
     </row>
-    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
         <v>2</v>
       </c>
@@ -9745,7 +9755,7 @@
       <c r="R81" s="46"/>
       <c r="S81" s="21"/>
     </row>
-    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="29">
         <v>2</v>
       </c>
@@ -9792,7 +9802,7 @@
       <c r="R82" s="46"/>
       <c r="S82" s="21"/>
     </row>
-    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29">
         <v>2</v>
       </c>
@@ -9839,7 +9849,7 @@
       <c r="R83" s="46"/>
       <c r="S83" s="21"/>
     </row>
-    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="29">
         <v>2</v>
       </c>
@@ -9888,7 +9898,7 @@
       <c r="R84" s="46"/>
       <c r="S84" s="21"/>
     </row>
-    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28">
         <v>2</v>
       </c>
@@ -9992,7 +10002,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28">
         <v>2</v>
       </c>
@@ -10039,7 +10049,7 @@
       <c r="R87" s="46"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>2</v>
       </c>
@@ -10098,7 +10108,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>2</v>
       </c>
@@ -10157,7 +10167,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>2</v>
       </c>
@@ -10216,7 +10226,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>2</v>
       </c>
@@ -10275,7 +10285,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>2</v>
       </c>
@@ -10334,7 +10344,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>2</v>
       </c>
@@ -10393,7 +10403,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -10452,7 +10462,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>2</v>
       </c>
@@ -10511,7 +10521,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>2</v>
       </c>
@@ -10570,7 +10580,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>2</v>
       </c>
@@ -10629,7 +10639,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>2</v>
       </c>
@@ -10688,7 +10698,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>2</v>
       </c>
@@ -10747,7 +10757,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28">
         <v>2</v>
       </c>
@@ -10806,7 +10816,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
         <v>2</v>
       </c>
@@ -10865,7 +10875,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28">
         <v>2</v>
       </c>
@@ -10924,7 +10934,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>2</v>
       </c>
@@ -10983,7 +10993,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>2</v>
       </c>
@@ -11030,7 +11040,7 @@
       <c r="R104" s="46"/>
       <c r="S104" s="21"/>
     </row>
-    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>2</v>
       </c>
@@ -11077,7 +11087,7 @@
       <c r="R105" s="46"/>
       <c r="S105" s="21"/>
     </row>
-    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="29">
         <v>2</v>
       </c>
@@ -11124,7 +11134,7 @@
       <c r="R106" s="46"/>
       <c r="S106" s="21"/>
     </row>
-    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>2</v>
       </c>
@@ -11171,7 +11181,7 @@
       <c r="R107" s="46"/>
       <c r="S107" s="21"/>
     </row>
-    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>2</v>
       </c>
@@ -11218,7 +11228,7 @@
       <c r="R108" s="46"/>
       <c r="S108" s="21"/>
     </row>
-    <row r="109" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="30">
         <v>2</v>
       </c>
@@ -11265,7 +11275,7 @@
       <c r="R109" s="46"/>
       <c r="S109" s="21"/>
     </row>
-    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>2</v>
       </c>
@@ -11369,7 +11379,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="29">
         <v>2</v>
       </c>
@@ -11416,7 +11426,7 @@
       <c r="R112" s="46"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="29">
         <v>2</v>
       </c>
@@ -11646,7 +11656,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>2</v>
       </c>
@@ -11693,7 +11703,7 @@
       <c r="R117" s="46"/>
       <c r="S117" s="21"/>
     </row>
-    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="29">
         <v>2</v>
       </c>
@@ -12025,7 +12035,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28">
         <v>2</v>
       </c>
@@ -12129,7 +12139,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28">
         <v>2</v>
       </c>
@@ -12188,7 +12198,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28">
         <v>2</v>
       </c>
@@ -12247,7 +12257,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28">
         <v>2</v>
       </c>
@@ -12306,7 +12316,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28">
         <v>2</v>
       </c>
@@ -12365,7 +12375,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28">
         <v>2</v>
       </c>
@@ -12424,7 +12434,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28">
         <v>2</v>
       </c>
@@ -12471,7 +12481,7 @@
       <c r="R131" s="46"/>
       <c r="S131" s="21"/>
     </row>
-    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28">
         <v>2</v>
       </c>
@@ -12520,7 +12530,7 @@
       <c r="R132" s="46"/>
       <c r="S132" s="21"/>
     </row>
-    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="28">
         <v>2</v>
       </c>
@@ -12567,7 +12577,7 @@
       <c r="R133" s="46"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28">
         <v>2</v>
       </c>
@@ -12626,7 +12636,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28">
         <v>2</v>
       </c>
@@ -12685,7 +12695,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28">
         <v>2</v>
       </c>
@@ -12732,7 +12742,7 @@
       <c r="R136" s="46"/>
       <c r="S136" s="21"/>
     </row>
-    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28">
         <v>2</v>
       </c>
@@ -12781,7 +12791,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -12828,7 +12838,7 @@
       <c r="R138" s="46"/>
       <c r="S138" s="21"/>
     </row>
-    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>5</v>
       </c>
@@ -12875,7 +12885,7 @@
       <c r="R139" s="46"/>
       <c r="S139" s="21"/>
     </row>
-    <row r="140" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>5</v>
       </c>
@@ -12922,7 +12932,7 @@
       <c r="R140" s="46"/>
       <c r="S140" s="21"/>
     </row>
-    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>5</v>
       </c>
@@ -12981,7 +12991,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>5</v>
       </c>
@@ -13028,7 +13038,7 @@
       <c r="R142" s="46"/>
       <c r="S142" s="21"/>
     </row>
-    <row r="143" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>5</v>
       </c>
@@ -13075,7 +13085,7 @@
       <c r="R143" s="46"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -13134,7 +13144,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="28">
         <v>2</v>
       </c>
@@ -13181,7 +13191,7 @@
       <c r="R145" s="46"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28">
         <v>2</v>
       </c>
@@ -13240,7 +13250,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28">
         <v>2</v>
       </c>
@@ -13299,7 +13309,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28">
         <v>2</v>
       </c>
@@ -13358,7 +13368,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28">
         <v>2</v>
       </c>
@@ -13417,7 +13427,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28">
         <v>2</v>
       </c>
@@ -13476,7 +13486,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28">
         <v>2</v>
       </c>
@@ -13523,7 +13533,7 @@
       <c r="R151" s="46"/>
       <c r="S151" s="21"/>
     </row>
-    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28">
         <v>2</v>
       </c>
@@ -13582,7 +13592,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
         <v>2</v>
       </c>
@@ -13629,7 +13639,7 @@
       <c r="R153" s="46"/>
       <c r="S153" s="21"/>
     </row>
-    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28">
         <v>2</v>
       </c>
@@ -13676,7 +13686,7 @@
       <c r="R154" s="46"/>
       <c r="S154" s="21"/>
     </row>
-    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="28">
         <v>2</v>
       </c>
@@ -13727,7 +13737,7 @@
       <c r="R155" s="46"/>
       <c r="S155" s="21"/>
     </row>
-    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28">
         <v>2</v>
       </c>
@@ -13786,7 +13796,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="32">
         <v>2</v>
       </c>
@@ -13845,7 +13855,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="32">
         <v>2</v>
       </c>
@@ -13891,7 +13901,7 @@
       <c r="R158" s="46"/>
       <c r="S158" s="21"/>
     </row>
-    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="32">
         <v>2</v>
       </c>
@@ -13950,7 +13960,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28">
         <v>2</v>
       </c>
@@ -13997,7 +14007,7 @@
       <c r="R160" s="46"/>
       <c r="S160" s="21"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="32">
         <v>2</v>
       </c>
@@ -14044,7 +14054,7 @@
       <c r="R161" s="46"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32">
         <v>2</v>
       </c>
@@ -14103,7 +14113,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="32">
         <v>2</v>
       </c>
@@ -14150,7 +14160,7 @@
       <c r="R163" s="46"/>
       <c r="S163" s="21"/>
     </row>
-    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="27">
         <v>5</v>
       </c>
@@ -14197,7 +14207,7 @@
       <c r="R164" s="46"/>
       <c r="S164" s="21"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="27">
         <v>5</v>
       </c>
@@ -14244,7 +14254,7 @@
       <c r="R165" s="46"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="27">
         <v>5</v>
       </c>
@@ -14303,7 +14313,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="27">
         <v>5</v>
       </c>
@@ -14362,7 +14372,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="27">
         <v>5</v>
       </c>
@@ -14421,7 +14431,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="27">
         <v>5</v>
       </c>
@@ -14468,7 +14478,7 @@
       <c r="R169" s="46"/>
       <c r="S169" s="21"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
         <v>5</v>
       </c>
@@ -14527,7 +14537,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="27">
         <v>5</v>
       </c>
@@ -14586,7 +14596,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="27">
         <v>5</v>
       </c>
@@ -14645,7 +14655,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="27">
         <v>5</v>
       </c>
@@ -14692,7 +14702,7 @@
       <c r="R173" s="46"/>
       <c r="S173" s="21"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="27">
         <v>5</v>
       </c>
@@ -14739,7 +14749,7 @@
       <c r="R174" s="46"/>
       <c r="S174" s="21"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="27">
         <v>5</v>
       </c>
@@ -14786,7 +14796,7 @@
       <c r="R175" s="46"/>
       <c r="S175" s="21"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="27">
         <v>5</v>
       </c>
@@ -14833,7 +14843,7 @@
       <c r="R176" s="46"/>
       <c r="S176" s="21"/>
     </row>
-    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="27">
         <v>5</v>
       </c>
@@ -14880,7 +14890,7 @@
       <c r="R177" s="46"/>
       <c r="S177" s="21"/>
     </row>
-    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="27">
         <v>5</v>
       </c>
@@ -14927,7 +14937,7 @@
       <c r="R178" s="46"/>
       <c r="S178" s="21"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="27">
         <v>5</v>
       </c>
@@ -14974,7 +14984,7 @@
       <c r="R179" s="46"/>
       <c r="S179" s="21"/>
     </row>
-    <row r="180" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="27">
         <v>5</v>
       </c>
@@ -15021,7 +15031,7 @@
       <c r="R180" s="46"/>
       <c r="S180" s="21"/>
     </row>
-    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="27">
         <v>5</v>
       </c>
@@ -15068,7 +15078,7 @@
       <c r="R181" s="46"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="27">
         <v>5</v>
       </c>
@@ -15115,7 +15125,7 @@
       <c r="R182" s="46"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="27">
         <v>5</v>
       </c>
@@ -15162,7 +15172,7 @@
       <c r="R183" s="46"/>
       <c r="S183" s="21"/>
     </row>
-    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="27">
         <v>5</v>
       </c>
@@ -15209,7 +15219,7 @@
       <c r="R184" s="46"/>
       <c r="S184" s="21"/>
     </row>
-    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="27">
         <v>5</v>
       </c>
@@ -15256,7 +15266,7 @@
       <c r="R185" s="46"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="27">
         <v>5</v>
       </c>
@@ -15303,7 +15313,7 @@
       <c r="R186" s="46"/>
       <c r="S186" s="21"/>
     </row>
-    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="27">
         <v>5</v>
       </c>
@@ -15350,7 +15360,7 @@
       <c r="R187" s="46"/>
       <c r="S187" s="21"/>
     </row>
-    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="27">
         <v>5</v>
       </c>
@@ -15397,7 +15407,7 @@
       <c r="R188" s="46"/>
       <c r="S188" s="21"/>
     </row>
-    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="27">
         <v>5</v>
       </c>
@@ -15444,7 +15454,7 @@
       <c r="R189" s="46"/>
       <c r="S189" s="21"/>
     </row>
-    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="27">
         <v>5</v>
       </c>
@@ -15491,7 +15501,7 @@
       <c r="R190" s="46"/>
       <c r="S190" s="21"/>
     </row>
-    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="27">
         <v>5</v>
       </c>
@@ -15538,7 +15548,7 @@
       <c r="R191" s="46"/>
       <c r="S191" s="21"/>
     </row>
-    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="27">
         <v>5</v>
       </c>
@@ -15585,7 +15595,7 @@
       <c r="R192" s="46"/>
       <c r="S192" s="21"/>
     </row>
-    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="27">
         <v>5</v>
       </c>
@@ -15632,7 +15642,7 @@
       <c r="R193" s="46"/>
       <c r="S193" s="21"/>
     </row>
-    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="27">
         <v>5</v>
       </c>
@@ -15679,7 +15689,7 @@
       <c r="R194" s="46"/>
       <c r="S194" s="21"/>
     </row>
-    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="27">
         <v>5</v>
       </c>
@@ -15726,7 +15736,7 @@
       <c r="R195" s="46"/>
       <c r="S195" s="21"/>
     </row>
-    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="27">
         <v>5</v>
       </c>
@@ -15773,7 +15783,7 @@
       <c r="R196" s="46"/>
       <c r="S196" s="21"/>
     </row>
-    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="27">
         <v>5</v>
       </c>
@@ -15820,7 +15830,7 @@
       <c r="R197" s="46"/>
       <c r="S197" s="21"/>
     </row>
-    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="27">
         <v>5</v>
       </c>
@@ -15867,7 +15877,7 @@
       <c r="R198" s="46"/>
       <c r="S198" s="21"/>
     </row>
-    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="27">
         <v>5</v>
       </c>
@@ -15914,7 +15924,7 @@
       <c r="R199" s="46"/>
       <c r="S199" s="21"/>
     </row>
-    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="27">
         <v>5</v>
       </c>
@@ -15961,7 +15971,7 @@
       <c r="R200" s="46"/>
       <c r="S200" s="21"/>
     </row>
-    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="27">
         <v>5</v>
       </c>
@@ -16008,7 +16018,7 @@
       <c r="R201" s="46"/>
       <c r="S201" s="21"/>
     </row>
-    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="27">
         <v>5</v>
       </c>
@@ -16055,7 +16065,7 @@
       <c r="R202" s="46"/>
       <c r="S202" s="21"/>
     </row>
-    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="27">
         <v>5</v>
       </c>
@@ -16102,7 +16112,7 @@
       <c r="R203" s="46"/>
       <c r="S203" s="21"/>
     </row>
-    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="27">
         <v>5</v>
       </c>
@@ -16149,7 +16159,7 @@
       <c r="R204" s="46"/>
       <c r="S204" s="21"/>
     </row>
-    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="27">
         <v>5</v>
       </c>
@@ -16196,7 +16206,7 @@
       <c r="R205" s="46"/>
       <c r="S205" s="21"/>
     </row>
-    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="27">
         <v>5</v>
       </c>
@@ -16243,7 +16253,7 @@
       <c r="R206" s="46"/>
       <c r="S206" s="21"/>
     </row>
-    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="27">
         <v>5</v>
       </c>
@@ -16290,7 +16300,7 @@
       <c r="R207" s="46"/>
       <c r="S207" s="21"/>
     </row>
-    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="27">
         <v>5</v>
       </c>
@@ -16337,7 +16347,7 @@
       <c r="R208" s="46"/>
       <c r="S208" s="21"/>
     </row>
-    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="27">
         <v>5</v>
       </c>
@@ -16384,7 +16394,7 @@
       <c r="R209" s="46"/>
       <c r="S209" s="21"/>
     </row>
-    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="27">
         <v>5</v>
       </c>
@@ -16431,7 +16441,7 @@
       <c r="R210" s="46"/>
       <c r="S210" s="21"/>
     </row>
-    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="27">
         <v>5</v>
       </c>
@@ -16478,7 +16488,7 @@
       <c r="R211" s="46"/>
       <c r="S211" s="21"/>
     </row>
-    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="27">
         <v>5</v>
       </c>
@@ -16525,7 +16535,7 @@
       <c r="R212" s="46"/>
       <c r="S212" s="21"/>
     </row>
-    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="27">
         <v>5</v>
       </c>
@@ -16572,7 +16582,7 @@
       <c r="R213" s="46"/>
       <c r="S213" s="21"/>
     </row>
-    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="27">
         <v>5</v>
       </c>
@@ -16619,7 +16629,7 @@
       <c r="R214" s="46"/>
       <c r="S214" s="21"/>
     </row>
-    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="27">
         <v>5</v>
       </c>
@@ -16666,7 +16676,7 @@
       <c r="R215" s="46"/>
       <c r="S215" s="21"/>
     </row>
-    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="27">
         <v>5</v>
       </c>
@@ -16713,7 +16723,7 @@
       <c r="R216" s="46"/>
       <c r="S216" s="21"/>
     </row>
-    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="27">
         <v>5</v>
       </c>
@@ -16760,7 +16770,7 @@
       <c r="R217" s="46"/>
       <c r="S217" s="21"/>
     </row>
-    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="27">
         <v>5</v>
       </c>
@@ -16807,7 +16817,7 @@
       <c r="R218" s="46"/>
       <c r="S218" s="21"/>
     </row>
-    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="27">
         <v>5</v>
       </c>
@@ -16911,7 +16921,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="27">
         <v>5</v>
       </c>
@@ -16958,7 +16968,7 @@
       <c r="R221" s="46"/>
       <c r="S221" s="21"/>
     </row>
-    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="29">
         <v>8</v>
       </c>
@@ -17015,7 +17025,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="29">
         <v>8</v>
       </c>
@@ -17072,7 +17082,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="29">
         <v>8</v>
       </c>
@@ -17129,7 +17139,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="29">
         <v>8</v>
       </c>
@@ -17186,7 +17196,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="29">
         <v>8</v>
       </c>
@@ -17243,7 +17253,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="29">
         <v>8</v>
       </c>
@@ -17300,7 +17310,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="29">
         <v>8</v>
       </c>
@@ -17357,7 +17367,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="29">
         <v>8</v>
       </c>
@@ -17414,7 +17424,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="29">
         <v>8</v>
       </c>
@@ -17471,7 +17481,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="29">
         <v>8</v>
       </c>
@@ -17528,7 +17538,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="29">
         <v>8</v>
       </c>
@@ -17585,7 +17595,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="29">
         <v>8</v>
       </c>
@@ -17642,7 +17652,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="29">
         <v>8</v>
       </c>
@@ -17699,7 +17709,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="29">
         <v>8</v>
       </c>
@@ -17756,7 +17766,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="29">
         <v>8</v>
       </c>
@@ -17813,7 +17823,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="29">
         <v>8</v>
       </c>
@@ -17870,7 +17880,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="29">
         <v>8</v>
       </c>
@@ -17927,7 +17937,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="29">
         <v>8</v>
       </c>
@@ -17984,7 +17994,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="29">
         <v>8</v>
       </c>
@@ -18041,7 +18051,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="29">
         <v>8</v>
       </c>
@@ -18098,7 +18108,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="29">
         <v>8</v>
       </c>
@@ -18155,7 +18165,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="29">
         <v>8</v>
       </c>
@@ -18212,7 +18222,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="29">
         <v>8</v>
       </c>
@@ -18269,7 +18279,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="29">
         <v>8</v>
       </c>
@@ -18326,7 +18336,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="29">
         <v>8</v>
       </c>
@@ -18383,7 +18393,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="29">
         <v>8</v>
       </c>
@@ -18440,7 +18450,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="29">
         <v>8</v>
       </c>
@@ -18497,7 +18507,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="29">
         <v>8</v>
       </c>
@@ -18554,7 +18564,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="29">
         <v>8</v>
       </c>
@@ -18611,7 +18621,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="29">
         <v>8</v>
       </c>
@@ -18668,7 +18678,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="29">
         <v>8</v>
       </c>
@@ -18725,7 +18735,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="29">
         <v>8</v>
       </c>
@@ -18782,7 +18792,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="28">
         <v>8</v>
       </c>
@@ -18839,7 +18849,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="29">
         <v>8</v>
       </c>
@@ -18896,7 +18906,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="29">
         <v>8</v>
       </c>
@@ -18953,7 +18963,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="29">
         <v>8</v>
       </c>
@@ -19010,7 +19020,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="29">
         <v>8</v>
       </c>
@@ -19067,7 +19077,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="29">
         <v>8</v>
       </c>
@@ -19124,7 +19134,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="29">
         <v>8</v>
       </c>
@@ -19181,7 +19191,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="29">
         <v>8</v>
       </c>
@@ -19238,7 +19248,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="29">
         <v>8</v>
       </c>
@@ -19295,7 +19305,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="29">
         <v>8</v>
       </c>
@@ -19352,7 +19362,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="28">
         <v>8</v>
       </c>
@@ -19409,7 +19419,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="29">
         <v>8</v>
       </c>
@@ -19466,7 +19476,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="29">
         <v>8</v>
       </c>
@@ -19523,7 +19533,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="29">
         <v>8</v>
       </c>
@@ -19580,7 +19590,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="29">
         <v>8</v>
       </c>
@@ -19627,7 +19637,7 @@
       <c r="R268" s="46"/>
       <c r="S268" s="21"/>
     </row>
-    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="29">
         <v>8</v>
       </c>
@@ -19686,7 +19696,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="29">
         <v>8</v>
       </c>
@@ -19745,7 +19755,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="29">
         <v>8</v>
       </c>
@@ -19804,7 +19814,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="29">
         <v>8</v>
       </c>
@@ -19861,7 +19871,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="29">
         <v>8</v>
       </c>
@@ -19918,7 +19928,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="29">
         <v>8</v>
       </c>
@@ -19965,7 +19975,7 @@
       <c r="R274" s="46"/>
       <c r="S274" s="21"/>
     </row>
-    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="29">
         <v>8</v>
       </c>
@@ -20012,7 +20022,7 @@
       <c r="R275" s="46"/>
       <c r="S275" s="21"/>
     </row>
-    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="29">
         <v>8</v>
       </c>
@@ -20069,7 +20079,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="29">
         <v>8</v>
       </c>
@@ -20126,7 +20136,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="29">
         <v>8</v>
       </c>
@@ -20183,7 +20193,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="29">
         <v>8</v>
       </c>
@@ -20240,7 +20250,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="29">
         <v>8</v>
       </c>
@@ -20287,7 +20297,7 @@
       <c r="R280" s="46"/>
       <c r="S280" s="21"/>
     </row>
-    <row r="281" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="29">
         <v>8</v>
       </c>
@@ -20334,7 +20344,7 @@
       <c r="R281" s="46"/>
       <c r="S281" s="21"/>
     </row>
-    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="29">
         <v>8</v>
       </c>
@@ -20381,7 +20391,7 @@
       <c r="R282" s="46"/>
       <c r="S282" s="21"/>
     </row>
-    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="29">
         <v>8</v>
       </c>
@@ -20428,7 +20438,7 @@
       <c r="R283" s="46"/>
       <c r="S283" s="21"/>
     </row>
-    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="29">
         <v>8</v>
       </c>
@@ -20485,7 +20495,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="29">
         <v>8</v>
       </c>
@@ -20532,7 +20542,7 @@
       <c r="R285" s="46"/>
       <c r="S285" s="21"/>
     </row>
-    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="29">
         <v>8</v>
       </c>
@@ -20579,7 +20589,7 @@
       <c r="R286" s="46"/>
       <c r="S286" s="21"/>
     </row>
-    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="29">
         <v>8</v>
       </c>
@@ -20626,7 +20636,7 @@
       <c r="R287" s="46"/>
       <c r="S287" s="21"/>
     </row>
-    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="29">
         <v>8</v>
       </c>
@@ -20683,7 +20693,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="29">
         <v>8</v>
       </c>
@@ -20740,7 +20750,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="29">
         <v>8</v>
       </c>
@@ -20797,7 +20807,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="29">
         <v>8</v>
       </c>
@@ -20854,7 +20864,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="29">
         <v>8</v>
       </c>
@@ -20911,7 +20921,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="29">
         <v>8</v>
       </c>
@@ -20968,7 +20978,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="29">
         <v>8</v>
       </c>
@@ -21025,7 +21035,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="29">
         <v>8</v>
       </c>
@@ -21084,7 +21094,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="27">
         <v>8</v>
       </c>
@@ -21141,7 +21151,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="29">
         <v>8</v>
       </c>
@@ -21188,7 +21198,7 @@
       <c r="R297" s="46"/>
       <c r="S297" s="21"/>
     </row>
-    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="29">
         <v>8</v>
       </c>
@@ -21235,7 +21245,7 @@
       <c r="R298" s="46"/>
       <c r="S298" s="21"/>
     </row>
-    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="29">
         <v>8</v>
       </c>
@@ -21282,7 +21292,7 @@
       <c r="R299" s="46"/>
       <c r="S299" s="21"/>
     </row>
-    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="29">
         <v>8</v>
       </c>
@@ -21329,7 +21339,7 @@
       <c r="R300" s="46"/>
       <c r="S300" s="21"/>
     </row>
-    <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="29">
         <v>8</v>
       </c>
@@ -21380,7 +21390,7 @@
       <c r="R301" s="46"/>
       <c r="S301" s="21"/>
     </row>
-    <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="29">
         <v>8</v>
       </c>
@@ -21437,7 +21447,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="29">
         <v>8</v>
       </c>
@@ -21494,7 +21504,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="29">
         <v>8</v>
       </c>
@@ -21551,7 +21561,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="29">
         <v>8</v>
       </c>
@@ -21608,7 +21618,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="29">
         <v>8</v>
       </c>
@@ -21655,7 +21665,7 @@
       <c r="R306" s="46"/>
       <c r="S306" s="21"/>
     </row>
-    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="29">
         <v>8</v>
       </c>
@@ -21702,7 +21712,7 @@
       <c r="R307" s="46"/>
       <c r="S307" s="21"/>
     </row>
-    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="29">
         <v>8</v>
       </c>
@@ -21749,7 +21759,7 @@
       <c r="R308" s="46"/>
       <c r="S308" s="21"/>
     </row>
-    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="29">
         <v>8</v>
       </c>
@@ -21796,7 +21806,7 @@
       <c r="R309" s="46"/>
       <c r="S309" s="21"/>
     </row>
-    <row r="310" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="29">
         <v>8</v>
       </c>
@@ -21843,7 +21853,7 @@
       <c r="R310" s="46"/>
       <c r="S310" s="21"/>
     </row>
-    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="29">
         <v>8</v>
       </c>
@@ -21890,7 +21900,7 @@
       <c r="R311" s="46"/>
       <c r="S311" s="21"/>
     </row>
-    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="29">
         <v>8</v>
       </c>
@@ -21937,7 +21947,7 @@
       <c r="R312" s="46"/>
       <c r="S312" s="21"/>
     </row>
-    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="29">
         <v>8</v>
       </c>
@@ -21984,7 +21994,7 @@
       <c r="R313" s="46"/>
       <c r="S313" s="21"/>
     </row>
-    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="29">
         <v>8</v>
       </c>
@@ -22031,7 +22041,7 @@
       <c r="R314" s="46"/>
       <c r="S314" s="21"/>
     </row>
-    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="29">
         <v>8</v>
       </c>
@@ -22078,7 +22088,7 @@
       <c r="R315" s="46"/>
       <c r="S315" s="21"/>
     </row>
-    <row r="316" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="29">
         <v>8</v>
       </c>
@@ -22135,7 +22145,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="29">
         <v>8</v>
       </c>
@@ -22192,7 +22202,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="27">
         <v>8</v>
       </c>
@@ -22249,7 +22259,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="27">
         <v>8</v>
       </c>
@@ -22306,7 +22316,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="27">
         <v>8</v>
       </c>
@@ -22363,7 +22373,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="27">
         <v>8</v>
       </c>
@@ -22410,7 +22420,7 @@
       <c r="R321" s="46"/>
       <c r="S321" s="21"/>
     </row>
-    <row r="322" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="27">
         <v>8</v>
       </c>
@@ -22457,7 +22467,7 @@
       <c r="R322" s="46"/>
       <c r="S322" s="21"/>
     </row>
-    <row r="323" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="27">
         <v>8</v>
       </c>
@@ -22514,7 +22524,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="27">
         <v>8</v>
       </c>
@@ -22561,7 +22571,7 @@
       <c r="R324" s="46"/>
       <c r="S324" s="21"/>
     </row>
-    <row r="325" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="27">
         <v>8</v>
       </c>
@@ -22612,7 +22622,7 @@
       <c r="R325" s="46"/>
       <c r="S325" s="21"/>
     </row>
-    <row r="326" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="27">
         <v>8</v>
       </c>
@@ -22669,7 +22679,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="27">
         <v>8</v>
       </c>
@@ -22726,7 +22736,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="27">
         <v>8</v>
       </c>
@@ -22777,7 +22787,7 @@
       <c r="R328" s="46"/>
       <c r="S328" s="21"/>
     </row>
-    <row r="329" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="27">
         <v>8</v>
       </c>
@@ -22834,7 +22844,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="27">
         <v>8</v>
       </c>
@@ -22891,7 +22901,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="27">
         <v>8</v>
       </c>
@@ -22942,7 +22952,7 @@
       <c r="R331" s="46"/>
       <c r="S331" s="21"/>
     </row>
-    <row r="332" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="27">
         <v>8</v>
       </c>
@@ -22999,7 +23009,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="27">
         <v>8</v>
       </c>
@@ -23056,7 +23066,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="27">
         <v>8</v>
       </c>
@@ -23113,7 +23123,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="27">
         <v>8</v>
       </c>
@@ -23170,7 +23180,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="27">
         <v>8</v>
       </c>
@@ -23227,7 +23237,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="37">
         <v>2</v>
       </c>
@@ -23274,7 +23284,7 @@
       <c r="R337" s="46"/>
       <c r="S337" s="21"/>
     </row>
-    <row r="338" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="37">
         <v>2</v>
       </c>
@@ -23321,7 +23331,7 @@
       <c r="R338" s="46"/>
       <c r="S338" s="21"/>
     </row>
-    <row r="339" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="37">
         <v>2</v>
       </c>
@@ -23368,7 +23378,7 @@
       <c r="R339" s="46"/>
       <c r="S339" s="21"/>
     </row>
-    <row r="340" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="37">
         <v>2</v>
       </c>
@@ -23415,7 +23425,7 @@
       <c r="R340" s="46"/>
       <c r="S340" s="21"/>
     </row>
-    <row r="341" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="37">
         <v>2</v>
       </c>
@@ -23462,7 +23472,7 @@
       <c r="R341" s="46"/>
       <c r="S341" s="21"/>
     </row>
-    <row r="342" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="37">
         <v>2</v>
       </c>
@@ -23509,7 +23519,7 @@
       <c r="R342" s="46"/>
       <c r="S342" s="21"/>
     </row>
-    <row r="343" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="37">
         <v>2</v>
       </c>
@@ -23556,7 +23566,7 @@
       <c r="R343" s="46"/>
       <c r="S343" s="21"/>
     </row>
-    <row r="344" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="20">
         <v>2</v>
       </c>
@@ -23603,7 +23613,7 @@
       <c r="R344" s="46"/>
       <c r="S344" s="21"/>
     </row>
-    <row r="345" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="37">
         <v>2</v>
       </c>
@@ -23650,7 +23660,7 @@
       <c r="R345" s="46"/>
       <c r="S345" s="21"/>
     </row>
-    <row r="346" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="37">
         <v>2</v>
       </c>
@@ -23697,7 +23707,7 @@
       <c r="R346" s="46"/>
       <c r="S346" s="21"/>
     </row>
-    <row r="347" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="37">
         <v>2</v>
       </c>
@@ -23744,7 +23754,7 @@
       <c r="R347" s="46"/>
       <c r="S347" s="21"/>
     </row>
-    <row r="348" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="37">
         <v>2</v>
       </c>
@@ -23791,7 +23801,7 @@
       <c r="R348" s="46"/>
       <c r="S348" s="21"/>
     </row>
-    <row r="349" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="37">
         <v>2</v>
       </c>
@@ -23838,7 +23848,7 @@
       <c r="R349" s="46"/>
       <c r="S349" s="21"/>
     </row>
-    <row r="350" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="37">
         <v>2</v>
       </c>
@@ -23885,7 +23895,7 @@
       <c r="R350" s="46"/>
       <c r="S350" s="21"/>
     </row>
-    <row r="351" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="37">
         <v>2</v>
       </c>
@@ -23932,7 +23942,7 @@
       <c r="R351" s="46"/>
       <c r="S351" s="21"/>
     </row>
-    <row r="352" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="37">
         <v>2</v>
       </c>
@@ -23979,7 +23989,7 @@
       <c r="R352" s="46"/>
       <c r="S352" s="21"/>
     </row>
-    <row r="353" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="37">
         <v>2</v>
       </c>
@@ -24026,7 +24036,7 @@
       <c r="R353" s="46"/>
       <c r="S353" s="21"/>
     </row>
-    <row r="354" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="37">
         <v>2</v>
       </c>
@@ -24073,7 +24083,7 @@
       <c r="R354" s="46"/>
       <c r="S354" s="21"/>
     </row>
-    <row r="355" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="37">
         <v>2</v>
       </c>
@@ -24120,7 +24130,7 @@
       <c r="R355" s="46"/>
       <c r="S355" s="21"/>
     </row>
-    <row r="356" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="37">
         <v>2</v>
       </c>
@@ -24167,7 +24177,7 @@
       <c r="R356" s="46"/>
       <c r="S356" s="21"/>
     </row>
-    <row r="357" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="37">
         <v>2</v>
       </c>
@@ -24214,7 +24224,7 @@
       <c r="R357" s="46"/>
       <c r="S357" s="21"/>
     </row>
-    <row r="358" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="37">
         <v>2</v>
       </c>
@@ -24261,7 +24271,7 @@
       <c r="R358" s="46"/>
       <c r="S358" s="21"/>
     </row>
-    <row r="359" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="37">
         <v>2</v>
       </c>
@@ -24308,7 +24318,7 @@
       <c r="R359" s="46"/>
       <c r="S359" s="21"/>
     </row>
-    <row r="360" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="37">
         <v>2</v>
       </c>
@@ -24355,7 +24365,7 @@
       <c r="R360" s="46"/>
       <c r="S360" s="21"/>
     </row>
-    <row r="361" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="37">
         <v>2</v>
       </c>
@@ -24402,7 +24412,7 @@
       <c r="R361" s="46"/>
       <c r="S361" s="21"/>
     </row>
-    <row r="362" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="37">
         <v>2</v>
       </c>
@@ -24449,7 +24459,7 @@
       <c r="R362" s="46"/>
       <c r="S362" s="21"/>
     </row>
-    <row r="363" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="37">
         <v>2</v>
       </c>
@@ -24496,7 +24506,7 @@
       <c r="R363" s="46"/>
       <c r="S363" s="21"/>
     </row>
-    <row r="364" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="37">
         <v>2</v>
       </c>
@@ -24543,7 +24553,7 @@
       <c r="R364" s="46"/>
       <c r="S364" s="21"/>
     </row>
-    <row r="365" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="37">
         <v>2</v>
       </c>
@@ -24590,7 +24600,7 @@
       <c r="R365" s="46"/>
       <c r="S365" s="21"/>
     </row>
-    <row r="366" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="37">
         <v>2</v>
       </c>
@@ -24637,7 +24647,7 @@
       <c r="R366" s="46"/>
       <c r="S366" s="21"/>
     </row>
-    <row r="367" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="37">
         <v>2</v>
       </c>
@@ -24684,7 +24694,7 @@
       <c r="R367" s="46"/>
       <c r="S367" s="21"/>
     </row>
-    <row r="368" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="37">
         <v>2</v>
       </c>
@@ -24731,7 +24741,7 @@
       <c r="R368" s="46"/>
       <c r="S368" s="21"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="37">
         <v>2</v>
       </c>
@@ -24778,7 +24788,7 @@
       <c r="R369" s="46"/>
       <c r="S369" s="21"/>
     </row>
-    <row r="370" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="37">
         <v>2</v>
       </c>
@@ -24825,7 +24835,7 @@
       <c r="R370" s="46"/>
       <c r="S370" s="21"/>
     </row>
-    <row r="371" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="37">
         <v>2</v>
       </c>
@@ -24872,7 +24882,7 @@
       <c r="R371" s="46"/>
       <c r="S371" s="21"/>
     </row>
-    <row r="372" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="37">
         <v>2</v>
       </c>
@@ -24919,7 +24929,7 @@
       <c r="R372" s="46"/>
       <c r="S372" s="21"/>
     </row>
-    <row r="373" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="37">
         <v>2</v>
       </c>
@@ -24966,7 +24976,7 @@
       <c r="R373" s="46"/>
       <c r="S373" s="21"/>
     </row>
-    <row r="374" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="20">
         <v>2</v>
       </c>
@@ -25013,7 +25023,7 @@
       <c r="R374" s="46"/>
       <c r="S374" s="21"/>
     </row>
-    <row r="375" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="20">
         <v>2</v>
       </c>
@@ -25060,7 +25070,7 @@
       <c r="R375" s="46"/>
       <c r="S375" s="21"/>
     </row>
-    <row r="376" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="20">
         <v>2</v>
       </c>
@@ -25107,7 +25117,7 @@
       <c r="R376" s="46"/>
       <c r="S376" s="21"/>
     </row>
-    <row r="377" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="20">
         <v>2</v>
       </c>
@@ -25154,7 +25164,7 @@
       <c r="R377" s="46"/>
       <c r="S377" s="21"/>
     </row>
-    <row r="378" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="20">
         <v>2</v>
       </c>
@@ -25201,7 +25211,7 @@
       <c r="R378" s="46"/>
       <c r="S378" s="21"/>
     </row>
-    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="20">
         <v>2</v>
       </c>
@@ -25248,7 +25258,7 @@
       <c r="R379" s="46"/>
       <c r="S379" s="21"/>
     </row>
-    <row r="380" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="20">
         <v>2</v>
       </c>
@@ -25295,7 +25305,7 @@
       <c r="R380" s="46"/>
       <c r="S380" s="21"/>
     </row>
-    <row r="381" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="20">
         <v>2</v>
       </c>
@@ -25342,7 +25352,7 @@
       <c r="R381" s="46"/>
       <c r="S381" s="21"/>
     </row>
-    <row r="382" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="20">
         <v>2</v>
       </c>
@@ -25389,7 +25399,7 @@
       <c r="R382" s="46"/>
       <c r="S382" s="21"/>
     </row>
-    <row r="383" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="20">
         <v>2</v>
       </c>
@@ -25436,7 +25446,7 @@
       <c r="R383" s="46"/>
       <c r="S383" s="21"/>
     </row>
-    <row r="384" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="20">
         <v>2</v>
       </c>
@@ -25483,7 +25493,7 @@
       <c r="R384" s="46"/>
       <c r="S384" s="21"/>
     </row>
-    <row r="385" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="20">
         <v>2</v>
       </c>
@@ -25530,7 +25540,7 @@
       <c r="R385" s="46"/>
       <c r="S385" s="21"/>
     </row>
-    <row r="386" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="20">
         <v>2</v>
       </c>
@@ -25577,7 +25587,7 @@
       <c r="R386" s="46"/>
       <c r="S386" s="21"/>
     </row>
-    <row r="387" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="20">
         <v>2</v>
       </c>
@@ -25624,7 +25634,7 @@
       <c r="R387" s="46"/>
       <c r="S387" s="21"/>
     </row>
-    <row r="388" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="20">
         <v>2</v>
       </c>
@@ -25671,7 +25681,7 @@
       <c r="R388" s="46"/>
       <c r="S388" s="21"/>
     </row>
-    <row r="389" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="20">
         <v>2</v>
       </c>
@@ -25718,7 +25728,7 @@
       <c r="R389" s="46"/>
       <c r="S389" s="21"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="20">
         <v>2</v>
       </c>
@@ -25765,7 +25775,7 @@
       <c r="R390" s="46"/>
       <c r="S390" s="21"/>
     </row>
-    <row r="391" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="20">
         <v>2</v>
       </c>
@@ -25812,7 +25822,7 @@
       <c r="R391" s="46"/>
       <c r="S391" s="21"/>
     </row>
-    <row r="392" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="20">
         <v>2</v>
       </c>
@@ -25859,7 +25869,7 @@
       <c r="R392" s="46"/>
       <c r="S392" s="21"/>
     </row>
-    <row r="393" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="20">
         <v>2</v>
       </c>
@@ -25906,7 +25916,7 @@
       <c r="R393" s="46"/>
       <c r="S393" s="21"/>
     </row>
-    <row r="394" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="20">
         <v>2</v>
       </c>
@@ -25953,7 +25963,7 @@
       <c r="R394" s="46"/>
       <c r="S394" s="21"/>
     </row>
-    <row r="395" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="20">
         <v>2</v>
       </c>
@@ -26000,7 +26010,7 @@
       <c r="R395" s="46"/>
       <c r="S395" s="21"/>
     </row>
-    <row r="396" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="20">
         <v>2</v>
       </c>
@@ -26047,7 +26057,7 @@
       <c r="R396" s="46"/>
       <c r="S396" s="21"/>
     </row>
-    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="20">
         <v>2</v>
       </c>
@@ -26094,7 +26104,7 @@
       <c r="R397" s="46"/>
       <c r="S397" s="21"/>
     </row>
-    <row r="398" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="20">
         <v>2</v>
       </c>
@@ -26141,7 +26151,7 @@
       <c r="R398" s="46"/>
       <c r="S398" s="21"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="20">
         <v>2</v>
       </c>
@@ -26188,7 +26198,7 @@
       <c r="R399" s="46"/>
       <c r="S399" s="21"/>
     </row>
-    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="20">
         <v>2</v>
       </c>
@@ -26235,7 +26245,7 @@
       <c r="R400" s="46"/>
       <c r="S400" s="21"/>
     </row>
-    <row r="401" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="20">
         <v>2</v>
       </c>
@@ -26282,7 +26292,7 @@
       <c r="R401" s="46"/>
       <c r="S401" s="21"/>
     </row>
-    <row r="402" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="20">
         <v>2</v>
       </c>
@@ -26329,7 +26339,7 @@
       <c r="R402" s="46"/>
       <c r="S402" s="21"/>
     </row>
-    <row r="403" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="20">
         <v>2</v>
       </c>
@@ -26376,7 +26386,7 @@
       <c r="R403" s="46"/>
       <c r="S403" s="21"/>
     </row>
-    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="20">
         <v>2</v>
       </c>
@@ -26423,7 +26433,7 @@
       <c r="R404" s="46"/>
       <c r="S404" s="21"/>
     </row>
-    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="20">
         <v>2</v>
       </c>
@@ -26470,7 +26480,7 @@
       <c r="R405" s="46"/>
       <c r="S405" s="21"/>
     </row>
-    <row r="406" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="20">
         <v>2</v>
       </c>
@@ -26517,7 +26527,7 @@
       <c r="R406" s="46"/>
       <c r="S406" s="21"/>
     </row>
-    <row r="407" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="20">
         <v>2</v>
       </c>
@@ -26564,7 +26574,7 @@
       <c r="R407" s="46"/>
       <c r="S407" s="21"/>
     </row>
-    <row r="408" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="20">
         <v>2</v>
       </c>
@@ -26611,7 +26621,7 @@
       <c r="R408" s="46"/>
       <c r="S408" s="21"/>
     </row>
-    <row r="409" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="20">
         <v>2</v>
       </c>
@@ -26658,7 +26668,7 @@
       <c r="R409" s="46"/>
       <c r="S409" s="21"/>
     </row>
-    <row r="410" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="20">
         <v>2</v>
       </c>
@@ -26705,7 +26715,7 @@
       <c r="R410" s="46"/>
       <c r="S410" s="21"/>
     </row>
-    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="20">
         <v>2</v>
       </c>
@@ -26752,7 +26762,7 @@
       <c r="R411" s="46"/>
       <c r="S411" s="21"/>
     </row>
-    <row r="412" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20">
         <v>2</v>
       </c>
@@ -26799,7 +26809,7 @@
       <c r="R412" s="46"/>
       <c r="S412" s="21"/>
     </row>
-    <row r="413" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="20">
         <v>2</v>
       </c>
@@ -26846,7 +26856,7 @@
       <c r="R413" s="46"/>
       <c r="S413" s="21"/>
     </row>
-    <row r="414" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="20">
         <v>2</v>
       </c>
@@ -26893,7 +26903,7 @@
       <c r="R414" s="46"/>
       <c r="S414" s="21"/>
     </row>
-    <row r="415" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="20">
         <v>2</v>
       </c>
@@ -26940,7 +26950,7 @@
       <c r="R415" s="46"/>
       <c r="S415" s="21"/>
     </row>
-    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="20">
         <v>2</v>
       </c>
@@ -26987,7 +26997,7 @@
       <c r="R416" s="46"/>
       <c r="S416" s="21"/>
     </row>
-    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="20">
         <v>4</v>
       </c>
@@ -27034,7 +27044,7 @@
       <c r="R417" s="46"/>
       <c r="S417" s="21"/>
     </row>
-    <row r="418" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="20">
         <v>4</v>
       </c>
@@ -27081,7 +27091,7 @@
       <c r="R418" s="46"/>
       <c r="S418" s="21"/>
     </row>
-    <row r="419" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="20">
         <v>4</v>
       </c>
@@ -27128,7 +27138,7 @@
       <c r="R419" s="46"/>
       <c r="S419" s="21"/>
     </row>
-    <row r="420" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="20">
         <v>4</v>
       </c>
@@ -27175,7 +27185,7 @@
       <c r="R420" s="46"/>
       <c r="S420" s="21"/>
     </row>
-    <row r="421" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="20">
         <v>4</v>
       </c>
@@ -27222,7 +27232,7 @@
       <c r="R421" s="46"/>
       <c r="S421" s="21"/>
     </row>
-    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="20">
         <v>4</v>
       </c>
@@ -27269,7 +27279,7 @@
       <c r="R422" s="46"/>
       <c r="S422" s="21"/>
     </row>
-    <row r="423" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="20">
         <v>4</v>
       </c>
@@ -27316,7 +27326,7 @@
       <c r="R423" s="46"/>
       <c r="S423" s="21"/>
     </row>
-    <row r="424" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="20">
         <v>4</v>
       </c>
@@ -27363,7 +27373,7 @@
       <c r="R424" s="46"/>
       <c r="S424" s="21"/>
     </row>
-    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="20">
         <v>4</v>
       </c>
@@ -27410,7 +27420,7 @@
       <c r="R425" s="46"/>
       <c r="S425" s="21"/>
     </row>
-    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="20">
         <v>4</v>
       </c>
@@ -27457,7 +27467,7 @@
       <c r="R426" s="46"/>
       <c r="S426" s="21"/>
     </row>
-    <row r="427" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="20">
         <v>4</v>
       </c>
@@ -27504,7 +27514,7 @@
       <c r="R427" s="46"/>
       <c r="S427" s="21"/>
     </row>
-    <row r="428" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="20">
         <v>4</v>
       </c>
@@ -27551,7 +27561,7 @@
       <c r="R428" s="46"/>
       <c r="S428" s="21"/>
     </row>
-    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="20">
         <v>4</v>
       </c>
@@ -27598,7 +27608,7 @@
       <c r="R429" s="46"/>
       <c r="S429" s="21"/>
     </row>
-    <row r="430" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="20">
         <v>4</v>
       </c>
@@ -27645,7 +27655,7 @@
       <c r="R430" s="46"/>
       <c r="S430" s="21"/>
     </row>
-    <row r="431" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="20">
         <v>4</v>
       </c>
@@ -27692,7 +27702,7 @@
       <c r="R431" s="46"/>
       <c r="S431" s="21"/>
     </row>
-    <row r="432" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="20">
         <v>2</v>
       </c>
@@ -27739,7 +27749,7 @@
       <c r="R432" s="46"/>
       <c r="S432" s="21"/>
     </row>
-    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="20">
         <v>4</v>
       </c>
@@ -27786,7 +27796,7 @@
       <c r="R433" s="46"/>
       <c r="S433" s="21"/>
     </row>
-    <row r="434" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="20">
         <v>4</v>
       </c>
@@ -27833,7 +27843,7 @@
       <c r="R434" s="46"/>
       <c r="S434" s="21"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="20">
         <v>4</v>
       </c>
@@ -27880,7 +27890,7 @@
       <c r="R435" s="46"/>
       <c r="S435" s="21"/>
     </row>
-    <row r="436" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="20">
         <v>4</v>
       </c>
@@ -27927,7 +27937,7 @@
       <c r="R436" s="46"/>
       <c r="S436" s="21"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="20">
         <v>4</v>
       </c>
@@ -27974,7 +27984,7 @@
       <c r="R437" s="46"/>
       <c r="S437" s="21"/>
     </row>
-    <row r="438" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="20">
         <v>4</v>
       </c>
@@ -28021,7 +28031,7 @@
       <c r="R438" s="46"/>
       <c r="S438" s="21"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="20">
         <v>4</v>
       </c>
@@ -28068,7 +28078,7 @@
       <c r="R439" s="46"/>
       <c r="S439" s="21"/>
     </row>
-    <row r="440" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="20">
         <v>4</v>
       </c>
@@ -28115,7 +28125,7 @@
       <c r="R440" s="46"/>
       <c r="S440" s="21"/>
     </row>
-    <row r="441" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="20">
         <v>4</v>
       </c>
@@ -28162,7 +28172,7 @@
       <c r="R441" s="46"/>
       <c r="S441" s="21"/>
     </row>
-    <row r="442" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="20">
         <v>4</v>
       </c>
@@ -28209,7 +28219,7 @@
       <c r="R442" s="46"/>
       <c r="S442" s="21"/>
     </row>
-    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="20">
         <v>4</v>
       </c>
@@ -28256,7 +28266,7 @@
       <c r="R443" s="46"/>
       <c r="S443" s="21"/>
     </row>
-    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="20">
         <v>4</v>
       </c>
@@ -28303,7 +28313,7 @@
       <c r="R444" s="46"/>
       <c r="S444" s="21"/>
     </row>
-    <row r="445" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="20">
         <v>4</v>
       </c>
@@ -28350,7 +28360,7 @@
       <c r="R445" s="46"/>
       <c r="S445" s="21"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="20">
         <v>4</v>
       </c>
@@ -28397,7 +28407,7 @@
       <c r="R446" s="46"/>
       <c r="S446" s="21"/>
     </row>
-    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="20">
         <v>4</v>
       </c>
@@ -28444,7 +28454,7 @@
       <c r="R447" s="46"/>
       <c r="S447" s="21"/>
     </row>
-    <row r="448" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="20">
         <v>4</v>
       </c>
@@ -28491,7 +28501,7 @@
       <c r="R448" s="46"/>
       <c r="S448" s="21"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="20">
         <v>4</v>
       </c>
@@ -28538,7 +28548,7 @@
       <c r="R449" s="46"/>
       <c r="S449" s="21"/>
     </row>
-    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="20">
         <v>4</v>
       </c>
@@ -28585,7 +28595,7 @@
       <c r="R450" s="46"/>
       <c r="S450" s="21"/>
     </row>
-    <row r="451" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="20">
         <v>4</v>
       </c>
@@ -28632,7 +28642,7 @@
       <c r="R451" s="46"/>
       <c r="S451" s="21"/>
     </row>
-    <row r="452" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="20">
         <v>4</v>
       </c>
@@ -28679,7 +28689,7 @@
       <c r="R452" s="46"/>
       <c r="S452" s="21"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="20">
         <v>4</v>
       </c>
@@ -28726,7 +28736,7 @@
       <c r="R453" s="46"/>
       <c r="S453" s="21"/>
     </row>
-    <row r="454" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="20">
         <v>4</v>
       </c>
@@ -28773,7 +28783,7 @@
       <c r="R454" s="46"/>
       <c r="S454" s="21"/>
     </row>
-    <row r="455" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="20">
         <v>4</v>
       </c>
@@ -28820,7 +28830,7 @@
       <c r="R455" s="46"/>
       <c r="S455" s="21"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="20">
         <v>4</v>
       </c>
@@ -28867,7 +28877,7 @@
       <c r="R456" s="46"/>
       <c r="S456" s="21"/>
     </row>
-    <row r="457" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="20">
         <v>4</v>
       </c>
@@ -28914,7 +28924,7 @@
       <c r="R457" s="46"/>
       <c r="S457" s="21"/>
     </row>
-    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="20">
         <v>4</v>
       </c>
@@ -28961,7 +28971,7 @@
       <c r="R458" s="46"/>
       <c r="S458" s="21"/>
     </row>
-    <row r="459" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="20">
         <v>4</v>
       </c>
@@ -29008,7 +29018,7 @@
       <c r="R459" s="46"/>
       <c r="S459" s="21"/>
     </row>
-    <row r="460" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="20">
         <v>4</v>
       </c>
@@ -29055,7 +29065,7 @@
       <c r="R460" s="46"/>
       <c r="S460" s="21"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="20">
         <v>4</v>
       </c>
@@ -29102,7 +29112,7 @@
       <c r="R461" s="46"/>
       <c r="S461" s="21"/>
     </row>
-    <row r="462" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="20">
         <v>4</v>
       </c>
@@ -29149,7 +29159,7 @@
       <c r="R462" s="46"/>
       <c r="S462" s="21"/>
     </row>
-    <row r="463" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="26">
         <v>2</v>
       </c>
@@ -29196,7 +29206,7 @@
       <c r="R463" s="46"/>
       <c r="S463" s="21"/>
     </row>
-    <row r="464" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="28">
         <v>2</v>
       </c>
@@ -29243,7 +29253,7 @@
       <c r="R464" s="46"/>
       <c r="S464" s="21"/>
     </row>
-    <row r="465" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="38">
         <v>2</v>
       </c>
@@ -29290,7 +29300,7 @@
       <c r="R465" s="46"/>
       <c r="S465" s="21"/>
     </row>
-    <row r="466" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="28">
         <v>2</v>
       </c>
@@ -29337,7 +29347,7 @@
       <c r="R466" s="46"/>
       <c r="S466" s="21"/>
     </row>
-    <row r="467" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="28">
         <v>2</v>
       </c>
@@ -29384,7 +29394,7 @@
       <c r="R467" s="46"/>
       <c r="S467" s="21"/>
     </row>
-    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="28">
         <v>2</v>
       </c>
@@ -29431,7 +29441,7 @@
       <c r="R468" s="46"/>
       <c r="S468" s="21"/>
     </row>
-    <row r="469" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="38">
         <v>2</v>
       </c>
@@ -29478,7 +29488,7 @@
       <c r="R469" s="46"/>
       <c r="S469" s="21"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="28">
         <v>2</v>
       </c>
@@ -29525,7 +29535,7 @@
       <c r="R470" s="46"/>
       <c r="S470" s="21"/>
     </row>
-    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="28">
         <v>2</v>
       </c>
@@ -29572,7 +29582,7 @@
       <c r="R471" s="46"/>
       <c r="S471" s="21"/>
     </row>
-    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="28">
         <v>2</v>
       </c>
@@ -29619,7 +29629,7 @@
       <c r="R472" s="46"/>
       <c r="S472" s="21"/>
     </row>
-    <row r="473" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="28">
         <v>2</v>
       </c>
@@ -29666,7 +29676,7 @@
       <c r="R473" s="46"/>
       <c r="S473" s="21"/>
     </row>
-    <row r="474" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="28" t="s">
         <v>449</v>
       </c>
@@ -29713,7 +29723,7 @@
       <c r="R474" s="46"/>
       <c r="S474" s="21"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="28">
         <v>2</v>
       </c>
@@ -29760,7 +29770,7 @@
       <c r="R475" s="46"/>
       <c r="S475" s="21"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="28">
         <v>2</v>
       </c>
@@ -29807,7 +29817,7 @@
       <c r="R476" s="46"/>
       <c r="S476" s="21"/>
     </row>
-    <row r="477" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="28">
         <v>2</v>
       </c>
@@ -29854,7 +29864,7 @@
       <c r="R477" s="46"/>
       <c r="S477" s="21"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="38">
         <v>2</v>
       </c>
@@ -29901,7 +29911,7 @@
       <c r="R478" s="46"/>
       <c r="S478" s="21"/>
     </row>
-    <row r="479" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="28" t="s">
         <v>449</v>
       </c>
@@ -29948,7 +29958,7 @@
       <c r="R479" s="46"/>
       <c r="S479" s="21"/>
     </row>
-    <row r="480" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="28">
         <v>2</v>
       </c>
@@ -29995,7 +30005,7 @@
       <c r="R480" s="46"/>
       <c r="S480" s="21"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="28">
         <v>2</v>
       </c>
@@ -30042,7 +30052,7 @@
       <c r="R481" s="46"/>
       <c r="S481" s="21"/>
     </row>
-    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="38">
         <v>2</v>
       </c>
@@ -30089,7 +30099,7 @@
       <c r="R482" s="46"/>
       <c r="S482" s="21"/>
     </row>
-    <row r="483" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="28" t="s">
         <v>449</v>
       </c>
@@ -30136,7 +30146,7 @@
       <c r="R483" s="46"/>
       <c r="S483" s="21"/>
     </row>
-    <row r="484" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="28">
         <v>2</v>
       </c>
@@ -30183,7 +30193,7 @@
       <c r="R484" s="46"/>
       <c r="S484" s="21"/>
     </row>
-    <row r="485" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="28">
         <v>2</v>
       </c>
@@ -30230,7 +30240,7 @@
       <c r="R485" s="46"/>
       <c r="S485" s="21"/>
     </row>
-    <row r="486" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="38">
         <v>2</v>
       </c>
@@ -30277,7 +30287,7 @@
       <c r="R486" s="46"/>
       <c r="S486" s="21"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="28">
         <v>2</v>
       </c>
@@ -30324,7 +30334,7 @@
       <c r="R487" s="46"/>
       <c r="S487" s="21"/>
     </row>
-    <row r="488" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="28">
         <v>2</v>
       </c>
@@ -30371,7 +30381,7 @@
       <c r="R488" s="46"/>
       <c r="S488" s="21"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="28" t="s">
         <v>449</v>
       </c>
@@ -30418,7 +30428,7 @@
       <c r="R489" s="46"/>
       <c r="S489" s="21"/>
     </row>
-    <row r="490" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="28">
         <v>2</v>
       </c>
@@ -30465,7 +30475,7 @@
       <c r="R490" s="46"/>
       <c r="S490" s="21"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="28">
         <v>2</v>
       </c>
@@ -30512,7 +30522,7 @@
       <c r="R491" s="46"/>
       <c r="S491" s="21"/>
     </row>
-    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="28" t="s">
         <v>449</v>
       </c>
@@ -30559,7 +30569,7 @@
       <c r="R492" s="46"/>
       <c r="S492" s="21"/>
     </row>
-    <row r="493" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="28">
         <v>2</v>
       </c>
@@ -30606,7 +30616,7 @@
       <c r="R493" s="46"/>
       <c r="S493" s="21"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="28">
         <v>2</v>
       </c>
@@ -30653,7 +30663,7 @@
       <c r="R494" s="46"/>
       <c r="S494" s="21"/>
     </row>
-    <row r="495" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="28" t="s">
         <v>449</v>
       </c>
@@ -30700,7 +30710,7 @@
       <c r="R495" s="46"/>
       <c r="S495" s="21"/>
     </row>
-    <row r="496" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="28">
         <v>2</v>
       </c>
@@ -30747,7 +30757,7 @@
       <c r="R496" s="46"/>
       <c r="S496" s="21"/>
     </row>
-    <row r="497" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="28" t="s">
         <v>449</v>
       </c>
@@ -30794,7 +30804,7 @@
       <c r="R497" s="46"/>
       <c r="S497" s="21"/>
     </row>
-    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="28">
         <v>2</v>
       </c>
@@ -30841,7 +30851,7 @@
       <c r="R498" s="46"/>
       <c r="S498" s="21"/>
     </row>
-    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="28" t="s">
         <v>449</v>
       </c>
@@ -30888,7 +30898,7 @@
       <c r="R499" s="46"/>
       <c r="S499" s="21"/>
     </row>
-    <row r="500" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="28">
         <v>2</v>
       </c>
@@ -30935,7 +30945,7 @@
       <c r="R500" s="46"/>
       <c r="S500" s="21"/>
     </row>
-    <row r="501" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="28">
         <v>4</v>
       </c>
@@ -30982,7 +30992,7 @@
       <c r="R501" s="46"/>
       <c r="S501" s="21"/>
     </row>
-    <row r="502" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="28">
         <v>4</v>
       </c>
@@ -31029,7 +31039,7 @@
       <c r="R502" s="46"/>
       <c r="S502" s="21"/>
     </row>
-    <row r="503" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="28" t="s">
         <v>449</v>
       </c>
@@ -31076,7 +31086,7 @@
       <c r="R503" s="46"/>
       <c r="S503" s="21"/>
     </row>
-    <row r="504" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="38">
         <v>2</v>
       </c>
@@ -31123,7 +31133,7 @@
       <c r="R504" s="46"/>
       <c r="S504" s="21"/>
     </row>
-    <row r="505" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="28" t="s">
         <v>449</v>
       </c>
@@ -31170,7 +31180,7 @@
       <c r="R505" s="46"/>
       <c r="S505" s="21"/>
     </row>
-    <row r="506" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="28" t="s">
         <v>449</v>
       </c>
@@ -31217,7 +31227,7 @@
       <c r="R506" s="46"/>
       <c r="S506" s="21"/>
     </row>
-    <row r="507" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="28" t="s">
         <v>449</v>
       </c>
@@ -31264,7 +31274,7 @@
       <c r="R507" s="46"/>
       <c r="S507" s="21"/>
     </row>
-    <row r="508" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="38">
         <v>2</v>
       </c>
@@ -31297,7 +31307,7 @@
       <c r="R508" s="46"/>
       <c r="S508" s="21"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="38">
         <v>2</v>
       </c>
@@ -31330,7 +31340,7 @@
       <c r="R509" s="46"/>
       <c r="S509" s="21"/>
     </row>
-    <row r="510" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="38">
         <v>2</v>
       </c>
@@ -31363,7 +31373,7 @@
       <c r="R510" s="46"/>
       <c r="S510" s="21"/>
     </row>
-    <row r="511" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="38">
         <v>2</v>
       </c>
@@ -31396,7 +31406,7 @@
       <c r="R511" s="46"/>
       <c r="S511" s="21"/>
     </row>
-    <row r="512" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="28" t="s">
         <v>449</v>
       </c>
@@ -31443,7 +31453,7 @@
       <c r="R512" s="46"/>
       <c r="S512" s="21"/>
     </row>
-    <row r="513" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="28">
         <v>8</v>
       </c>
@@ -31500,7 +31510,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="28">
         <v>8</v>
       </c>
@@ -31557,7 +31567,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="28">
         <v>8</v>
       </c>
@@ -31614,7 +31624,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="28">
         <v>8</v>
       </c>
@@ -31671,7 +31681,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="28">
         <v>8</v>
       </c>
@@ -31728,7 +31738,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="28">
         <v>8</v>
       </c>
@@ -31785,7 +31795,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="28">
         <v>8</v>
       </c>
@@ -31842,7 +31852,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="28">
         <v>8</v>
       </c>
@@ -31899,7 +31909,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="28">
         <v>8</v>
       </c>
@@ -31950,7 +31960,7 @@
       <c r="R521" s="46"/>
       <c r="S521" s="21"/>
     </row>
-    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="28">
         <v>8</v>
       </c>
@@ -32001,7 +32011,7 @@
       <c r="R522" s="46"/>
       <c r="S522" s="21"/>
     </row>
-    <row r="523" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="28">
         <v>8</v>
       </c>
@@ -32058,7 +32068,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="28">
         <v>8</v>
       </c>
@@ -32115,7 +32125,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="28">
         <v>8</v>
       </c>
@@ -32172,7 +32182,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="28">
         <v>8</v>
       </c>
@@ -32229,7 +32239,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="28">
         <v>8</v>
       </c>
@@ -32286,7 +32296,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="28">
         <v>8</v>
       </c>
@@ -32343,7 +32353,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="28">
         <v>8</v>
       </c>
@@ -32400,7 +32410,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="28">
         <v>8</v>
       </c>
@@ -32457,7 +32467,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="26">
         <v>1</v>
       </c>
@@ -32504,7 +32514,7 @@
       <c r="R531" s="46"/>
       <c r="S531" s="21"/>
     </row>
-    <row r="532" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="28">
         <v>8</v>
       </c>
@@ -32561,7 +32571,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="28">
         <v>8</v>
       </c>
@@ -32618,7 +32628,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="28">
         <v>8</v>
       </c>
@@ -32675,7 +32685,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="28">
         <v>8</v>
       </c>
@@ -32732,7 +32742,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="28">
         <v>8</v>
       </c>
@@ -32789,7 +32799,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="28">
         <v>8</v>
       </c>
@@ -32846,7 +32856,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="28">
         <v>8</v>
       </c>
@@ -32893,7 +32903,7 @@
       <c r="R538" s="46"/>
       <c r="S538" s="21"/>
     </row>
-    <row r="539" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="28">
         <v>8</v>
       </c>
@@ -32940,7 +32950,7 @@
       <c r="R539" s="46"/>
       <c r="S539" s="21"/>
     </row>
-    <row r="540" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="28">
         <v>8</v>
       </c>
@@ -32987,7 +32997,7 @@
       <c r="R540" s="46"/>
       <c r="S540" s="21"/>
     </row>
-    <row r="541" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="26">
         <v>1</v>
       </c>
@@ -33034,7 +33044,7 @@
       <c r="R541" s="46"/>
       <c r="S541" s="21"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="28">
         <v>8</v>
       </c>
@@ -33081,7 +33091,7 @@
       <c r="R542" s="46"/>
       <c r="S542" s="21"/>
     </row>
-    <row r="543" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="28">
         <v>8</v>
       </c>
@@ -33128,7 +33138,7 @@
       <c r="R543" s="46"/>
       <c r="S543" s="21"/>
     </row>
-    <row r="544" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="28">
         <v>8</v>
       </c>
@@ -33175,7 +33185,7 @@
       <c r="R544" s="46"/>
       <c r="S544" s="21"/>
     </row>
-    <row r="545" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="28">
         <v>8</v>
       </c>
@@ -33222,7 +33232,7 @@
       <c r="R545" s="46"/>
       <c r="S545" s="21"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="28">
         <v>8</v>
       </c>
@@ -33269,7 +33279,7 @@
       <c r="R546" s="46"/>
       <c r="S546" s="21"/>
     </row>
-    <row r="547" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="28">
         <v>8</v>
       </c>
@@ -33316,7 +33326,7 @@
       <c r="R547" s="46"/>
       <c r="S547" s="21"/>
     </row>
-    <row r="548" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="28">
         <v>8</v>
       </c>
@@ -33363,7 +33373,7 @@
       <c r="R548" s="46"/>
       <c r="S548" s="21"/>
     </row>
-    <row r="549" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="28">
         <v>8</v>
       </c>
@@ -33410,7 +33420,7 @@
       <c r="R549" s="46"/>
       <c r="S549" s="21"/>
     </row>
-    <row r="550" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="28">
         <v>8</v>
       </c>
@@ -33457,7 +33467,7 @@
       <c r="R550" s="46"/>
       <c r="S550" s="21"/>
     </row>
-    <row r="551" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="28">
         <v>8</v>
       </c>
@@ -33504,7 +33514,7 @@
       <c r="R551" s="46"/>
       <c r="S551" s="21"/>
     </row>
-    <row r="552" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="28">
         <v>8</v>
       </c>
@@ -33551,7 +33561,7 @@
       <c r="R552" s="46"/>
       <c r="S552" s="21"/>
     </row>
-    <row r="553" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="28">
         <v>8</v>
       </c>
@@ -33598,7 +33608,7 @@
       <c r="R553" s="46"/>
       <c r="S553" s="21"/>
     </row>
-    <row r="554" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="28">
         <v>3</v>
       </c>
@@ -33645,7 +33655,7 @@
       <c r="R554" s="46"/>
       <c r="S554" s="21"/>
     </row>
-    <row r="555" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="28">
         <v>3</v>
       </c>
@@ -33692,7 +33702,7 @@
       <c r="R555" s="46"/>
       <c r="S555" s="21"/>
     </row>
-    <row r="556" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="26">
         <v>8</v>
       </c>
@@ -33739,7 +33749,7 @@
       <c r="R556" s="46"/>
       <c r="S556" s="21"/>
     </row>
-    <row r="557" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="26">
         <v>8</v>
       </c>
@@ -33786,7 +33796,7 @@
       <c r="R557" s="46"/>
       <c r="S557" s="21"/>
     </row>
-    <row r="558" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="26">
         <v>8</v>
       </c>
@@ -33833,7 +33843,7 @@
       <c r="R558" s="46"/>
       <c r="S558" s="21"/>
     </row>
-    <row r="559" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="26">
         <v>8</v>
       </c>
@@ -33880,7 +33890,7 @@
       <c r="R559" s="46"/>
       <c r="S559" s="21"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="26">
         <v>8</v>
       </c>
@@ -33927,7 +33937,7 @@
       <c r="R560" s="46"/>
       <c r="S560" s="21"/>
     </row>
-    <row r="561" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="26">
         <v>8</v>
       </c>
@@ -33974,7 +33984,7 @@
       <c r="R561" s="46"/>
       <c r="S561" s="21"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="26">
         <v>8</v>
       </c>
@@ -34021,7 +34031,7 @@
       <c r="R562" s="46"/>
       <c r="S562" s="21"/>
     </row>
-    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="26">
         <v>8</v>
       </c>
@@ -34068,7 +34078,7 @@
       <c r="R563" s="46"/>
       <c r="S563" s="21"/>
     </row>
-    <row r="564" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="26">
         <v>8</v>
       </c>
@@ -34115,7 +34125,7 @@
       <c r="R564" s="46"/>
       <c r="S564" s="21"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="26">
         <v>8</v>
       </c>
@@ -34162,7 +34172,7 @@
       <c r="R565" s="46"/>
       <c r="S565" s="21"/>
     </row>
-    <row r="566" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="26">
         <v>8</v>
       </c>
@@ -34209,7 +34219,7 @@
       <c r="R566" s="46"/>
       <c r="S566" s="21"/>
     </row>
-    <row r="567" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="26">
         <v>8</v>
       </c>
@@ -34256,7 +34266,7 @@
       <c r="R567" s="46"/>
       <c r="S567" s="21"/>
     </row>
-    <row r="568" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="26">
         <v>8</v>
       </c>
@@ -34303,7 +34313,7 @@
       <c r="R568" s="46"/>
       <c r="S568" s="21"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="26">
         <v>8</v>
       </c>
@@ -34350,7 +34360,7 @@
       <c r="R569" s="46"/>
       <c r="S569" s="21"/>
     </row>
-    <row r="570" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="26">
         <v>8</v>
       </c>
@@ -34397,7 +34407,7 @@
       <c r="R570" s="46"/>
       <c r="S570" s="21"/>
     </row>
-    <row r="571" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="26">
         <v>8</v>
       </c>
@@ -34444,7 +34454,7 @@
       <c r="R571" s="46"/>
       <c r="S571" s="21"/>
     </row>
-    <row r="572" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="26">
         <v>8</v>
       </c>
@@ -34491,7 +34501,7 @@
       <c r="R572" s="46"/>
       <c r="S572" s="21"/>
     </row>
-    <row r="573" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="26">
         <v>8</v>
       </c>
@@ -34538,7 +34548,7 @@
       <c r="R573" s="46"/>
       <c r="S573" s="21"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="26">
         <v>8</v>
       </c>
@@ -34585,7 +34595,7 @@
       <c r="R574" s="46"/>
       <c r="S574" s="21"/>
     </row>
-    <row r="575" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="26">
         <v>8</v>
       </c>
@@ -34632,7 +34642,7 @@
       <c r="R575" s="46"/>
       <c r="S575" s="21"/>
     </row>
-    <row r="576" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="26">
         <v>8</v>
       </c>
@@ -34679,7 +34689,7 @@
       <c r="R576" s="46"/>
       <c r="S576" s="21"/>
     </row>
-    <row r="577" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="26">
         <v>8</v>
       </c>
@@ -34726,7 +34736,7 @@
       <c r="R577" s="46"/>
       <c r="S577" s="21"/>
     </row>
-    <row r="578" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="26">
         <v>8</v>
       </c>
@@ -34773,7 +34783,7 @@
       <c r="R578" s="46"/>
       <c r="S578" s="21"/>
     </row>
-    <row r="579" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="26">
         <v>8</v>
       </c>
@@ -34820,7 +34830,7 @@
       <c r="R579" s="46"/>
       <c r="S579" s="21"/>
     </row>
-    <row r="580" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="26">
         <v>8</v>
       </c>
@@ -34867,7 +34877,7 @@
       <c r="R580" s="46"/>
       <c r="S580" s="21"/>
     </row>
-    <row r="581" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="26">
         <v>8</v>
       </c>
@@ -34914,7 +34924,7 @@
       <c r="R581" s="46"/>
       <c r="S581" s="21"/>
     </row>
-    <row r="582" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="26">
         <v>8</v>
       </c>
@@ -34961,7 +34971,7 @@
       <c r="R582" s="46"/>
       <c r="S582" s="21"/>
     </row>
-    <row r="583" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="26">
         <v>8</v>
       </c>
@@ -35008,7 +35018,7 @@
       <c r="R583" s="46"/>
       <c r="S583" s="21"/>
     </row>
-    <row r="584" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="26">
         <v>8</v>
       </c>
@@ -35055,7 +35065,7 @@
       <c r="R584" s="46"/>
       <c r="S584" s="21"/>
     </row>
-    <row r="585" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="26">
         <v>8</v>
       </c>
@@ -35103,7 +35113,13 @@
       <c r="S585" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S585" xr:uid="{462B357B-D08B-41C7-9173-012688EAF9F7}"/>
+  <autoFilter ref="A1:S585" xr:uid="{462B357B-D08B-41C7-9173-012688EAF9F7}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="opdracht_6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137 F1:S1">
     <cfRule type="containsText" dxfId="51" priority="135" operator="containsText" text="&lt;?&gt;">
@@ -35917,18 +35933,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35951,6 +35967,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -35965,12 +35989,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4224C7-BDF7-48F5-A4D9-7DFCE92909E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39D0B5D-42D6-4502-B269-011A1F8574CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4317,7 +4317,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4461,6 +4461,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5436,12 +5439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5519,7 +5521,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -5566,7 +5568,7 @@
       <c r="R2" s="46"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5613,7 +5615,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -5660,7 +5662,7 @@
       <c r="R4" s="46"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -5707,7 +5709,7 @@
       <c r="R5" s="46"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -5754,7 +5756,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="21"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -5801,7 +5803,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>2</v>
       </c>
@@ -5848,7 +5850,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -5895,7 +5897,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>2</v>
       </c>
@@ -5942,7 +5944,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -5989,7 +5991,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>2</v>
       </c>
@@ -6036,7 +6038,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -6083,7 +6085,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>2</v>
       </c>
@@ -6130,7 +6132,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>2</v>
       </c>
@@ -6177,7 +6179,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>2</v>
       </c>
@@ -6224,7 +6226,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -6271,7 +6273,7 @@
       <c r="R17" s="46"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>2</v>
       </c>
@@ -6318,7 +6320,7 @@
       <c r="R18" s="46"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>2</v>
       </c>
@@ -7163,7 +7165,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>4</v>
       </c>
@@ -7212,7 +7214,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>4</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>1</v>
       </c>
@@ -7312,7 +7314,7 @@
       <c r="R36" s="46"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27">
         <v>1</v>
       </c>
@@ -7363,7 +7365,7 @@
       <c r="R37" s="46"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
         <v>1</v>
       </c>
@@ -7420,7 +7422,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -7477,7 +7479,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -7534,7 +7536,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <v>1</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -7648,7 +7650,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <v>1</v>
       </c>
@@ -7705,7 +7707,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>1</v>
       </c>
@@ -7762,7 +7764,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27">
         <v>1</v>
       </c>
@@ -7937,7 +7939,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27">
         <v>1</v>
       </c>
@@ -8112,7 +8114,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>1</v>
       </c>
@@ -8511,7 +8513,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>1</v>
       </c>
@@ -8568,7 +8570,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>1</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <v>1</v>
       </c>
@@ -8672,7 +8674,7 @@
       <c r="R60" s="46"/>
       <c r="S60" s="21"/>
     </row>
-    <row r="61" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>1</v>
       </c>
@@ -8719,7 +8721,7 @@
       <c r="R61" s="46"/>
       <c r="S61" s="21"/>
     </row>
-    <row r="62" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>1</v>
       </c>
@@ -8766,7 +8768,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>2</v>
       </c>
@@ -8825,7 +8827,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>2</v>
       </c>
@@ -8872,7 +8874,7 @@
       <c r="R64" s="46"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>2</v>
       </c>
@@ -8931,7 +8933,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
         <v>2</v>
       </c>
@@ -8990,7 +8992,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
         <v>2</v>
       </c>
@@ -9049,7 +9051,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
         <v>2</v>
       </c>
@@ -9108,7 +9110,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="29">
         <v>2</v>
       </c>
@@ -9155,7 +9157,7 @@
       <c r="R69" s="46"/>
       <c r="S69" s="21"/>
     </row>
-    <row r="70" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="29">
         <v>2</v>
       </c>
@@ -9202,7 +9204,7 @@
       <c r="R70" s="46"/>
       <c r="S70" s="21"/>
     </row>
-    <row r="71" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="29">
         <v>2</v>
       </c>
@@ -9261,7 +9263,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29">
         <v>2</v>
       </c>
@@ -9320,7 +9322,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -9367,11 +9369,11 @@
       <c r="R73" s="46"/>
       <c r="S73" s="21"/>
     </row>
-    <row r="74" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30">
         <v>2</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="40" t="s">
         <v>1075</v>
       </c>
       <c r="C74" s="21" t="s">
@@ -9414,7 +9416,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>2</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="29">
         <v>2</v>
       </c>
@@ -9520,7 +9522,7 @@
       <c r="R76" s="46"/>
       <c r="S76" s="21"/>
     </row>
-    <row r="77" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29">
         <v>2</v>
       </c>
@@ -9567,7 +9569,7 @@
       <c r="R77" s="46"/>
       <c r="S77" s="21"/>
     </row>
-    <row r="78" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="29">
         <v>2</v>
       </c>
@@ -9614,7 +9616,7 @@
       <c r="R78" s="46"/>
       <c r="S78" s="21"/>
     </row>
-    <row r="79" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
         <v>2</v>
       </c>
@@ -9661,7 +9663,7 @@
       <c r="R79" s="46"/>
       <c r="S79" s="21"/>
     </row>
-    <row r="80" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>2</v>
       </c>
@@ -9708,7 +9710,7 @@
       <c r="R80" s="46"/>
       <c r="S80" s="21"/>
     </row>
-    <row r="81" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
         <v>2</v>
       </c>
@@ -9755,7 +9757,7 @@
       <c r="R81" s="46"/>
       <c r="S81" s="21"/>
     </row>
-    <row r="82" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="29">
         <v>2</v>
       </c>
@@ -9802,7 +9804,7 @@
       <c r="R82" s="46"/>
       <c r="S82" s="21"/>
     </row>
-    <row r="83" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29">
         <v>2</v>
       </c>
@@ -9849,7 +9851,7 @@
       <c r="R83" s="46"/>
       <c r="S83" s="21"/>
     </row>
-    <row r="84" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="29">
         <v>2</v>
       </c>
@@ -9898,7 +9900,7 @@
       <c r="R84" s="46"/>
       <c r="S84" s="21"/>
     </row>
-    <row r="85" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28">
         <v>2</v>
       </c>
@@ -10002,7 +10004,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28">
         <v>2</v>
       </c>
@@ -10049,7 +10051,7 @@
       <c r="R87" s="46"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>2</v>
       </c>
@@ -10108,7 +10110,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>2</v>
       </c>
@@ -10167,7 +10169,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>2</v>
       </c>
@@ -10226,7 +10228,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>2</v>
       </c>
@@ -10285,7 +10287,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>2</v>
       </c>
@@ -10344,7 +10346,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>2</v>
       </c>
@@ -10403,7 +10405,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -10462,7 +10464,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>2</v>
       </c>
@@ -10521,7 +10523,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>2</v>
       </c>
@@ -10580,7 +10582,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>2</v>
       </c>
@@ -10639,7 +10641,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>2</v>
       </c>
@@ -10698,7 +10700,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>2</v>
       </c>
@@ -10757,7 +10759,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28">
         <v>2</v>
       </c>
@@ -10816,7 +10818,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
         <v>2</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28">
         <v>2</v>
       </c>
@@ -10934,7 +10936,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>2</v>
       </c>
@@ -10993,7 +10995,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>2</v>
       </c>
@@ -11040,7 +11042,7 @@
       <c r="R104" s="46"/>
       <c r="S104" s="21"/>
     </row>
-    <row r="105" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>2</v>
       </c>
@@ -11087,7 +11089,7 @@
       <c r="R105" s="46"/>
       <c r="S105" s="21"/>
     </row>
-    <row r="106" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="29">
         <v>2</v>
       </c>
@@ -11134,7 +11136,7 @@
       <c r="R106" s="46"/>
       <c r="S106" s="21"/>
     </row>
-    <row r="107" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>2</v>
       </c>
@@ -11181,7 +11183,7 @@
       <c r="R107" s="46"/>
       <c r="S107" s="21"/>
     </row>
-    <row r="108" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>2</v>
       </c>
@@ -11228,7 +11230,7 @@
       <c r="R108" s="46"/>
       <c r="S108" s="21"/>
     </row>
-    <row r="109" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="30">
         <v>2</v>
       </c>
@@ -11275,7 +11277,7 @@
       <c r="R109" s="46"/>
       <c r="S109" s="21"/>
     </row>
-    <row r="110" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>2</v>
       </c>
@@ -11379,7 +11381,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="29">
         <v>2</v>
       </c>
@@ -11426,7 +11428,7 @@
       <c r="R112" s="46"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="29">
         <v>2</v>
       </c>
@@ -11656,7 +11658,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>2</v>
       </c>
@@ -11703,7 +11705,7 @@
       <c r="R117" s="46"/>
       <c r="S117" s="21"/>
     </row>
-    <row r="118" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="29">
         <v>2</v>
       </c>
@@ -12035,7 +12037,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28">
         <v>2</v>
       </c>
@@ -12139,7 +12141,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28">
         <v>2</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28">
         <v>2</v>
       </c>
@@ -12257,7 +12259,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28">
         <v>2</v>
       </c>
@@ -12316,7 +12318,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28">
         <v>2</v>
       </c>
@@ -12375,7 +12377,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28">
         <v>2</v>
       </c>
@@ -12434,7 +12436,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28">
         <v>2</v>
       </c>
@@ -12481,7 +12483,7 @@
       <c r="R131" s="46"/>
       <c r="S131" s="21"/>
     </row>
-    <row r="132" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28">
         <v>2</v>
       </c>
@@ -12530,7 +12532,7 @@
       <c r="R132" s="46"/>
       <c r="S132" s="21"/>
     </row>
-    <row r="133" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="28">
         <v>2</v>
       </c>
@@ -12577,7 +12579,7 @@
       <c r="R133" s="46"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28">
         <v>2</v>
       </c>
@@ -12636,7 +12638,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28">
         <v>2</v>
       </c>
@@ -12695,7 +12697,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28">
         <v>2</v>
       </c>
@@ -12742,7 +12744,7 @@
       <c r="R136" s="46"/>
       <c r="S136" s="21"/>
     </row>
-    <row r="137" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28">
         <v>2</v>
       </c>
@@ -12791,7 +12793,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -12838,7 +12840,7 @@
       <c r="R138" s="46"/>
       <c r="S138" s="21"/>
     </row>
-    <row r="139" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>5</v>
       </c>
@@ -12885,7 +12887,7 @@
       <c r="R139" s="46"/>
       <c r="S139" s="21"/>
     </row>
-    <row r="140" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>5</v>
       </c>
@@ -12932,7 +12934,7 @@
       <c r="R140" s="46"/>
       <c r="S140" s="21"/>
     </row>
-    <row r="141" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>5</v>
       </c>
@@ -12991,7 +12993,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>5</v>
       </c>
@@ -13038,7 +13040,7 @@
       <c r="R142" s="46"/>
       <c r="S142" s="21"/>
     </row>
-    <row r="143" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>5</v>
       </c>
@@ -13085,7 +13087,7 @@
       <c r="R143" s="46"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -13144,7 +13146,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="28">
         <v>2</v>
       </c>
@@ -13191,7 +13193,7 @@
       <c r="R145" s="46"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28">
         <v>2</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28">
         <v>2</v>
       </c>
@@ -13309,7 +13311,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28">
         <v>2</v>
       </c>
@@ -13368,7 +13370,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28">
         <v>2</v>
       </c>
@@ -13427,7 +13429,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28">
         <v>2</v>
       </c>
@@ -13486,7 +13488,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28">
         <v>2</v>
       </c>
@@ -13533,7 +13535,7 @@
       <c r="R151" s="46"/>
       <c r="S151" s="21"/>
     </row>
-    <row r="152" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28">
         <v>2</v>
       </c>
@@ -13592,7 +13594,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
         <v>2</v>
       </c>
@@ -13639,7 +13641,7 @@
       <c r="R153" s="46"/>
       <c r="S153" s="21"/>
     </row>
-    <row r="154" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28">
         <v>2</v>
       </c>
@@ -13686,7 +13688,7 @@
       <c r="R154" s="46"/>
       <c r="S154" s="21"/>
     </row>
-    <row r="155" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="28">
         <v>2</v>
       </c>
@@ -13737,7 +13739,7 @@
       <c r="R155" s="46"/>
       <c r="S155" s="21"/>
     </row>
-    <row r="156" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28">
         <v>2</v>
       </c>
@@ -13796,7 +13798,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="32">
         <v>2</v>
       </c>
@@ -13855,7 +13857,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="32">
         <v>2</v>
       </c>
@@ -13901,7 +13903,7 @@
       <c r="R158" s="46"/>
       <c r="S158" s="21"/>
     </row>
-    <row r="159" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="32">
         <v>2</v>
       </c>
@@ -13960,7 +13962,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28">
         <v>2</v>
       </c>
@@ -14007,7 +14009,7 @@
       <c r="R160" s="46"/>
       <c r="S160" s="21"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="32">
         <v>2</v>
       </c>
@@ -14054,7 +14056,7 @@
       <c r="R161" s="46"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32">
         <v>2</v>
       </c>
@@ -14113,7 +14115,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="32">
         <v>2</v>
       </c>
@@ -14160,7 +14162,7 @@
       <c r="R163" s="46"/>
       <c r="S163" s="21"/>
     </row>
-    <row r="164" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="27">
         <v>5</v>
       </c>
@@ -14207,7 +14209,7 @@
       <c r="R164" s="46"/>
       <c r="S164" s="21"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="27">
         <v>5</v>
       </c>
@@ -14254,7 +14256,7 @@
       <c r="R165" s="46"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="27">
         <v>5</v>
       </c>
@@ -14313,7 +14315,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="27">
         <v>5</v>
       </c>
@@ -14372,7 +14374,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="27">
         <v>5</v>
       </c>
@@ -14431,7 +14433,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="27">
         <v>5</v>
       </c>
@@ -14478,7 +14480,7 @@
       <c r="R169" s="46"/>
       <c r="S169" s="21"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
         <v>5</v>
       </c>
@@ -14537,7 +14539,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="27">
         <v>5</v>
       </c>
@@ -14596,7 +14598,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="27">
         <v>5</v>
       </c>
@@ -14655,7 +14657,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="27">
         <v>5</v>
       </c>
@@ -14702,7 +14704,7 @@
       <c r="R173" s="46"/>
       <c r="S173" s="21"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="27">
         <v>5</v>
       </c>
@@ -14749,7 +14751,7 @@
       <c r="R174" s="46"/>
       <c r="S174" s="21"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="27">
         <v>5</v>
       </c>
@@ -14796,7 +14798,7 @@
       <c r="R175" s="46"/>
       <c r="S175" s="21"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="27">
         <v>5</v>
       </c>
@@ -14843,7 +14845,7 @@
       <c r="R176" s="46"/>
       <c r="S176" s="21"/>
     </row>
-    <row r="177" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="27">
         <v>5</v>
       </c>
@@ -14890,7 +14892,7 @@
       <c r="R177" s="46"/>
       <c r="S177" s="21"/>
     </row>
-    <row r="178" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="27">
         <v>5</v>
       </c>
@@ -14937,7 +14939,7 @@
       <c r="R178" s="46"/>
       <c r="S178" s="21"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="27">
         <v>5</v>
       </c>
@@ -14984,7 +14986,7 @@
       <c r="R179" s="46"/>
       <c r="S179" s="21"/>
     </row>
-    <row r="180" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="27">
         <v>5</v>
       </c>
@@ -15031,7 +15033,7 @@
       <c r="R180" s="46"/>
       <c r="S180" s="21"/>
     </row>
-    <row r="181" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="27">
         <v>5</v>
       </c>
@@ -15078,7 +15080,7 @@
       <c r="R181" s="46"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="27">
         <v>5</v>
       </c>
@@ -15125,7 +15127,7 @@
       <c r="R182" s="46"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="27">
         <v>5</v>
       </c>
@@ -15172,7 +15174,7 @@
       <c r="R183" s="46"/>
       <c r="S183" s="21"/>
     </row>
-    <row r="184" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="27">
         <v>5</v>
       </c>
@@ -15219,7 +15221,7 @@
       <c r="R184" s="46"/>
       <c r="S184" s="21"/>
     </row>
-    <row r="185" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="27">
         <v>5</v>
       </c>
@@ -15266,7 +15268,7 @@
       <c r="R185" s="46"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="27">
         <v>5</v>
       </c>
@@ -15313,7 +15315,7 @@
       <c r="R186" s="46"/>
       <c r="S186" s="21"/>
     </row>
-    <row r="187" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="27">
         <v>5</v>
       </c>
@@ -15360,7 +15362,7 @@
       <c r="R187" s="46"/>
       <c r="S187" s="21"/>
     </row>
-    <row r="188" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="27">
         <v>5</v>
       </c>
@@ -15407,7 +15409,7 @@
       <c r="R188" s="46"/>
       <c r="S188" s="21"/>
     </row>
-    <row r="189" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="27">
         <v>5</v>
       </c>
@@ -15454,7 +15456,7 @@
       <c r="R189" s="46"/>
       <c r="S189" s="21"/>
     </row>
-    <row r="190" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="27">
         <v>5</v>
       </c>
@@ -15501,7 +15503,7 @@
       <c r="R190" s="46"/>
       <c r="S190" s="21"/>
     </row>
-    <row r="191" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="27">
         <v>5</v>
       </c>
@@ -15548,7 +15550,7 @@
       <c r="R191" s="46"/>
       <c r="S191" s="21"/>
     </row>
-    <row r="192" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="27">
         <v>5</v>
       </c>
@@ -15595,7 +15597,7 @@
       <c r="R192" s="46"/>
       <c r="S192" s="21"/>
     </row>
-    <row r="193" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="27">
         <v>5</v>
       </c>
@@ -15642,7 +15644,7 @@
       <c r="R193" s="46"/>
       <c r="S193" s="21"/>
     </row>
-    <row r="194" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="27">
         <v>5</v>
       </c>
@@ -15689,7 +15691,7 @@
       <c r="R194" s="46"/>
       <c r="S194" s="21"/>
     </row>
-    <row r="195" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="27">
         <v>5</v>
       </c>
@@ -15736,7 +15738,7 @@
       <c r="R195" s="46"/>
       <c r="S195" s="21"/>
     </row>
-    <row r="196" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="27">
         <v>5</v>
       </c>
@@ -15783,7 +15785,7 @@
       <c r="R196" s="46"/>
       <c r="S196" s="21"/>
     </row>
-    <row r="197" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="27">
         <v>5</v>
       </c>
@@ -15830,7 +15832,7 @@
       <c r="R197" s="46"/>
       <c r="S197" s="21"/>
     </row>
-    <row r="198" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="27">
         <v>5</v>
       </c>
@@ -15877,7 +15879,7 @@
       <c r="R198" s="46"/>
       <c r="S198" s="21"/>
     </row>
-    <row r="199" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="27">
         <v>5</v>
       </c>
@@ -15924,7 +15926,7 @@
       <c r="R199" s="46"/>
       <c r="S199" s="21"/>
     </row>
-    <row r="200" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="27">
         <v>5</v>
       </c>
@@ -15971,7 +15973,7 @@
       <c r="R200" s="46"/>
       <c r="S200" s="21"/>
     </row>
-    <row r="201" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="27">
         <v>5</v>
       </c>
@@ -16018,7 +16020,7 @@
       <c r="R201" s="46"/>
       <c r="S201" s="21"/>
     </row>
-    <row r="202" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="27">
         <v>5</v>
       </c>
@@ -16065,7 +16067,7 @@
       <c r="R202" s="46"/>
       <c r="S202" s="21"/>
     </row>
-    <row r="203" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="27">
         <v>5</v>
       </c>
@@ -16112,7 +16114,7 @@
       <c r="R203" s="46"/>
       <c r="S203" s="21"/>
     </row>
-    <row r="204" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="27">
         <v>5</v>
       </c>
@@ -16159,7 +16161,7 @@
       <c r="R204" s="46"/>
       <c r="S204" s="21"/>
     </row>
-    <row r="205" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="27">
         <v>5</v>
       </c>
@@ -16206,7 +16208,7 @@
       <c r="R205" s="46"/>
       <c r="S205" s="21"/>
     </row>
-    <row r="206" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="27">
         <v>5</v>
       </c>
@@ -16253,7 +16255,7 @@
       <c r="R206" s="46"/>
       <c r="S206" s="21"/>
     </row>
-    <row r="207" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="27">
         <v>5</v>
       </c>
@@ -16300,7 +16302,7 @@
       <c r="R207" s="46"/>
       <c r="S207" s="21"/>
     </row>
-    <row r="208" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="27">
         <v>5</v>
       </c>
@@ -16347,7 +16349,7 @@
       <c r="R208" s="46"/>
       <c r="S208" s="21"/>
     </row>
-    <row r="209" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="27">
         <v>5</v>
       </c>
@@ -16394,7 +16396,7 @@
       <c r="R209" s="46"/>
       <c r="S209" s="21"/>
     </row>
-    <row r="210" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="27">
         <v>5</v>
       </c>
@@ -16441,7 +16443,7 @@
       <c r="R210" s="46"/>
       <c r="S210" s="21"/>
     </row>
-    <row r="211" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="27">
         <v>5</v>
       </c>
@@ -16488,7 +16490,7 @@
       <c r="R211" s="46"/>
       <c r="S211" s="21"/>
     </row>
-    <row r="212" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="27">
         <v>5</v>
       </c>
@@ -16535,7 +16537,7 @@
       <c r="R212" s="46"/>
       <c r="S212" s="21"/>
     </row>
-    <row r="213" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="27">
         <v>5</v>
       </c>
@@ -16582,7 +16584,7 @@
       <c r="R213" s="46"/>
       <c r="S213" s="21"/>
     </row>
-    <row r="214" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="27">
         <v>5</v>
       </c>
@@ -16629,7 +16631,7 @@
       <c r="R214" s="46"/>
       <c r="S214" s="21"/>
     </row>
-    <row r="215" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="27">
         <v>5</v>
       </c>
@@ -16676,7 +16678,7 @@
       <c r="R215" s="46"/>
       <c r="S215" s="21"/>
     </row>
-    <row r="216" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="27">
         <v>5</v>
       </c>
@@ -16723,7 +16725,7 @@
       <c r="R216" s="46"/>
       <c r="S216" s="21"/>
     </row>
-    <row r="217" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="27">
         <v>5</v>
       </c>
@@ -16770,7 +16772,7 @@
       <c r="R217" s="46"/>
       <c r="S217" s="21"/>
     </row>
-    <row r="218" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="27">
         <v>5</v>
       </c>
@@ -16817,7 +16819,7 @@
       <c r="R218" s="46"/>
       <c r="S218" s="21"/>
     </row>
-    <row r="219" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="27">
         <v>5</v>
       </c>
@@ -16868,7 +16870,7 @@
       <c r="A220" s="27">
         <v>1</v>
       </c>
-      <c r="B220" s="21" t="s">
+      <c r="B220" s="49" t="s">
         <v>790</v>
       </c>
       <c r="C220" s="21" t="s">
@@ -16921,7 +16923,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="27">
         <v>5</v>
       </c>
@@ -16968,7 +16970,7 @@
       <c r="R221" s="46"/>
       <c r="S221" s="21"/>
     </row>
-    <row r="222" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="29">
         <v>8</v>
       </c>
@@ -17025,7 +17027,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="29">
         <v>8</v>
       </c>
@@ -17082,7 +17084,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="29">
         <v>8</v>
       </c>
@@ -17139,7 +17141,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="29">
         <v>8</v>
       </c>
@@ -17196,7 +17198,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="29">
         <v>8</v>
       </c>
@@ -17253,7 +17255,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="29">
         <v>8</v>
       </c>
@@ -17310,7 +17312,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="29">
         <v>8</v>
       </c>
@@ -17367,7 +17369,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="29">
         <v>8</v>
       </c>
@@ -17424,7 +17426,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="29">
         <v>8</v>
       </c>
@@ -17481,7 +17483,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="29">
         <v>8</v>
       </c>
@@ -17538,7 +17540,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="29">
         <v>8</v>
       </c>
@@ -17595,7 +17597,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="29">
         <v>8</v>
       </c>
@@ -17652,7 +17654,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="29">
         <v>8</v>
       </c>
@@ -17709,7 +17711,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="29">
         <v>8</v>
       </c>
@@ -17766,7 +17768,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="29">
         <v>8</v>
       </c>
@@ -17823,7 +17825,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="29">
         <v>8</v>
       </c>
@@ -17880,7 +17882,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="29">
         <v>8</v>
       </c>
@@ -17937,7 +17939,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="29">
         <v>8</v>
       </c>
@@ -17994,7 +17996,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="29">
         <v>8</v>
       </c>
@@ -18051,7 +18053,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="29">
         <v>8</v>
       </c>
@@ -18108,7 +18110,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="29">
         <v>8</v>
       </c>
@@ -18165,7 +18167,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="29">
         <v>8</v>
       </c>
@@ -18222,7 +18224,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="29">
         <v>8</v>
       </c>
@@ -18279,7 +18281,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="29">
         <v>8</v>
       </c>
@@ -18336,7 +18338,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="29">
         <v>8</v>
       </c>
@@ -18393,7 +18395,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="29">
         <v>8</v>
       </c>
@@ -18450,7 +18452,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="29">
         <v>8</v>
       </c>
@@ -18507,7 +18509,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="29">
         <v>8</v>
       </c>
@@ -18564,7 +18566,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="29">
         <v>8</v>
       </c>
@@ -18621,7 +18623,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="29">
         <v>8</v>
       </c>
@@ -18678,7 +18680,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="29">
         <v>8</v>
       </c>
@@ -18735,7 +18737,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="29">
         <v>8</v>
       </c>
@@ -18792,7 +18794,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="28">
         <v>8</v>
       </c>
@@ -18849,7 +18851,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="29">
         <v>8</v>
       </c>
@@ -18906,7 +18908,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="29">
         <v>8</v>
       </c>
@@ -18963,7 +18965,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="29">
         <v>8</v>
       </c>
@@ -19020,7 +19022,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="29">
         <v>8</v>
       </c>
@@ -19077,7 +19079,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="29">
         <v>8</v>
       </c>
@@ -19134,7 +19136,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="29">
         <v>8</v>
       </c>
@@ -19191,7 +19193,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="29">
         <v>8</v>
       </c>
@@ -19248,7 +19250,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="29">
         <v>8</v>
       </c>
@@ -19305,7 +19307,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="29">
         <v>8</v>
       </c>
@@ -19362,7 +19364,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="28">
         <v>8</v>
       </c>
@@ -19419,7 +19421,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="29">
         <v>8</v>
       </c>
@@ -19476,7 +19478,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="29">
         <v>8</v>
       </c>
@@ -19533,7 +19535,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="29">
         <v>8</v>
       </c>
@@ -19590,7 +19592,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="29">
         <v>8</v>
       </c>
@@ -19637,7 +19639,7 @@
       <c r="R268" s="46"/>
       <c r="S268" s="21"/>
     </row>
-    <row r="269" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="29">
         <v>8</v>
       </c>
@@ -19696,7 +19698,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="29">
         <v>8</v>
       </c>
@@ -19755,7 +19757,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="29">
         <v>8</v>
       </c>
@@ -19814,7 +19816,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="29">
         <v>8</v>
       </c>
@@ -19871,7 +19873,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="29">
         <v>8</v>
       </c>
@@ -19928,7 +19930,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="29">
         <v>8</v>
       </c>
@@ -19975,7 +19977,7 @@
       <c r="R274" s="46"/>
       <c r="S274" s="21"/>
     </row>
-    <row r="275" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="29">
         <v>8</v>
       </c>
@@ -20022,7 +20024,7 @@
       <c r="R275" s="46"/>
       <c r="S275" s="21"/>
     </row>
-    <row r="276" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="29">
         <v>8</v>
       </c>
@@ -20079,7 +20081,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="29">
         <v>8</v>
       </c>
@@ -20136,7 +20138,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="29">
         <v>8</v>
       </c>
@@ -20193,7 +20195,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="29">
         <v>8</v>
       </c>
@@ -20250,7 +20252,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="29">
         <v>8</v>
       </c>
@@ -20297,7 +20299,7 @@
       <c r="R280" s="46"/>
       <c r="S280" s="21"/>
     </row>
-    <row r="281" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="29">
         <v>8</v>
       </c>
@@ -20344,7 +20346,7 @@
       <c r="R281" s="46"/>
       <c r="S281" s="21"/>
     </row>
-    <row r="282" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="29">
         <v>8</v>
       </c>
@@ -20391,7 +20393,7 @@
       <c r="R282" s="46"/>
       <c r="S282" s="21"/>
     </row>
-    <row r="283" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="29">
         <v>8</v>
       </c>
@@ -20438,7 +20440,7 @@
       <c r="R283" s="46"/>
       <c r="S283" s="21"/>
     </row>
-    <row r="284" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="29">
         <v>8</v>
       </c>
@@ -20495,7 +20497,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="29">
         <v>8</v>
       </c>
@@ -20542,7 +20544,7 @@
       <c r="R285" s="46"/>
       <c r="S285" s="21"/>
     </row>
-    <row r="286" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="29">
         <v>8</v>
       </c>
@@ -20589,7 +20591,7 @@
       <c r="R286" s="46"/>
       <c r="S286" s="21"/>
     </row>
-    <row r="287" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="29">
         <v>8</v>
       </c>
@@ -20636,7 +20638,7 @@
       <c r="R287" s="46"/>
       <c r="S287" s="21"/>
     </row>
-    <row r="288" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="29">
         <v>8</v>
       </c>
@@ -20693,7 +20695,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="29">
         <v>8</v>
       </c>
@@ -20750,7 +20752,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="29">
         <v>8</v>
       </c>
@@ -20807,7 +20809,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="29">
         <v>8</v>
       </c>
@@ -20864,7 +20866,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="29">
         <v>8</v>
       </c>
@@ -20921,7 +20923,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="29">
         <v>8</v>
       </c>
@@ -20978,7 +20980,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="29">
         <v>8</v>
       </c>
@@ -21035,7 +21037,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="29">
         <v>8</v>
       </c>
@@ -21094,7 +21096,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="27">
         <v>8</v>
       </c>
@@ -21151,7 +21153,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="29">
         <v>8</v>
       </c>
@@ -21198,7 +21200,7 @@
       <c r="R297" s="46"/>
       <c r="S297" s="21"/>
     </row>
-    <row r="298" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="29">
         <v>8</v>
       </c>
@@ -21245,7 +21247,7 @@
       <c r="R298" s="46"/>
       <c r="S298" s="21"/>
     </row>
-    <row r="299" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="29">
         <v>8</v>
       </c>
@@ -21292,7 +21294,7 @@
       <c r="R299" s="46"/>
       <c r="S299" s="21"/>
     </row>
-    <row r="300" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="29">
         <v>8</v>
       </c>
@@ -21339,7 +21341,7 @@
       <c r="R300" s="46"/>
       <c r="S300" s="21"/>
     </row>
-    <row r="301" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="29">
         <v>8</v>
       </c>
@@ -21390,7 +21392,7 @@
       <c r="R301" s="46"/>
       <c r="S301" s="21"/>
     </row>
-    <row r="302" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="29">
         <v>8</v>
       </c>
@@ -21447,7 +21449,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="29">
         <v>8</v>
       </c>
@@ -21504,7 +21506,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="29">
         <v>8</v>
       </c>
@@ -21561,7 +21563,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="29">
         <v>8</v>
       </c>
@@ -21618,7 +21620,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="29">
         <v>8</v>
       </c>
@@ -21665,7 +21667,7 @@
       <c r="R306" s="46"/>
       <c r="S306" s="21"/>
     </row>
-    <row r="307" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="29">
         <v>8</v>
       </c>
@@ -21712,7 +21714,7 @@
       <c r="R307" s="46"/>
       <c r="S307" s="21"/>
     </row>
-    <row r="308" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="29">
         <v>8</v>
       </c>
@@ -21759,7 +21761,7 @@
       <c r="R308" s="46"/>
       <c r="S308" s="21"/>
     </row>
-    <row r="309" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="29">
         <v>8</v>
       </c>
@@ -21806,7 +21808,7 @@
       <c r="R309" s="46"/>
       <c r="S309" s="21"/>
     </row>
-    <row r="310" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="29">
         <v>8</v>
       </c>
@@ -21853,7 +21855,7 @@
       <c r="R310" s="46"/>
       <c r="S310" s="21"/>
     </row>
-    <row r="311" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="29">
         <v>8</v>
       </c>
@@ -21900,7 +21902,7 @@
       <c r="R311" s="46"/>
       <c r="S311" s="21"/>
     </row>
-    <row r="312" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="29">
         <v>8</v>
       </c>
@@ -21947,7 +21949,7 @@
       <c r="R312" s="46"/>
       <c r="S312" s="21"/>
     </row>
-    <row r="313" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="29">
         <v>8</v>
       </c>
@@ -21994,7 +21996,7 @@
       <c r="R313" s="46"/>
       <c r="S313" s="21"/>
     </row>
-    <row r="314" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="29">
         <v>8</v>
       </c>
@@ -22041,7 +22043,7 @@
       <c r="R314" s="46"/>
       <c r="S314" s="21"/>
     </row>
-    <row r="315" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="29">
         <v>8</v>
       </c>
@@ -22088,7 +22090,7 @@
       <c r="R315" s="46"/>
       <c r="S315" s="21"/>
     </row>
-    <row r="316" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="29">
         <v>8</v>
       </c>
@@ -22145,7 +22147,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="29">
         <v>8</v>
       </c>
@@ -22202,7 +22204,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="27">
         <v>8</v>
       </c>
@@ -22259,7 +22261,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="27">
         <v>8</v>
       </c>
@@ -22316,7 +22318,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="27">
         <v>8</v>
       </c>
@@ -22373,7 +22375,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="27">
         <v>8</v>
       </c>
@@ -22420,7 +22422,7 @@
       <c r="R321" s="46"/>
       <c r="S321" s="21"/>
     </row>
-    <row r="322" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="27">
         <v>8</v>
       </c>
@@ -22467,7 +22469,7 @@
       <c r="R322" s="46"/>
       <c r="S322" s="21"/>
     </row>
-    <row r="323" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="27">
         <v>8</v>
       </c>
@@ -22524,7 +22526,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="27">
         <v>8</v>
       </c>
@@ -22571,7 +22573,7 @@
       <c r="R324" s="46"/>
       <c r="S324" s="21"/>
     </row>
-    <row r="325" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="27">
         <v>8</v>
       </c>
@@ -22622,7 +22624,7 @@
       <c r="R325" s="46"/>
       <c r="S325" s="21"/>
     </row>
-    <row r="326" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="27">
         <v>8</v>
       </c>
@@ -22679,7 +22681,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="27">
         <v>8</v>
       </c>
@@ -22736,7 +22738,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="27">
         <v>8</v>
       </c>
@@ -22787,7 +22789,7 @@
       <c r="R328" s="46"/>
       <c r="S328" s="21"/>
     </row>
-    <row r="329" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="27">
         <v>8</v>
       </c>
@@ -22844,7 +22846,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="27">
         <v>8</v>
       </c>
@@ -22901,7 +22903,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="27">
         <v>8</v>
       </c>
@@ -22952,7 +22954,7 @@
       <c r="R331" s="46"/>
       <c r="S331" s="21"/>
     </row>
-    <row r="332" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="27">
         <v>8</v>
       </c>
@@ -23009,7 +23011,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="27">
         <v>8</v>
       </c>
@@ -23066,7 +23068,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="27">
         <v>8</v>
       </c>
@@ -23123,7 +23125,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="27">
         <v>8</v>
       </c>
@@ -23180,7 +23182,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="27">
         <v>8</v>
       </c>
@@ -23237,7 +23239,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="37">
         <v>2</v>
       </c>
@@ -23284,7 +23286,7 @@
       <c r="R337" s="46"/>
       <c r="S337" s="21"/>
     </row>
-    <row r="338" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="37">
         <v>2</v>
       </c>
@@ -23331,7 +23333,7 @@
       <c r="R338" s="46"/>
       <c r="S338" s="21"/>
     </row>
-    <row r="339" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="37">
         <v>2</v>
       </c>
@@ -23378,7 +23380,7 @@
       <c r="R339" s="46"/>
       <c r="S339" s="21"/>
     </row>
-    <row r="340" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="37">
         <v>2</v>
       </c>
@@ -23425,7 +23427,7 @@
       <c r="R340" s="46"/>
       <c r="S340" s="21"/>
     </row>
-    <row r="341" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="37">
         <v>2</v>
       </c>
@@ -23472,7 +23474,7 @@
       <c r="R341" s="46"/>
       <c r="S341" s="21"/>
     </row>
-    <row r="342" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="37">
         <v>2</v>
       </c>
@@ -23519,7 +23521,7 @@
       <c r="R342" s="46"/>
       <c r="S342" s="21"/>
     </row>
-    <row r="343" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="37">
         <v>2</v>
       </c>
@@ -23566,7 +23568,7 @@
       <c r="R343" s="46"/>
       <c r="S343" s="21"/>
     </row>
-    <row r="344" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="20">
         <v>2</v>
       </c>
@@ -23613,7 +23615,7 @@
       <c r="R344" s="46"/>
       <c r="S344" s="21"/>
     </row>
-    <row r="345" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="37">
         <v>2</v>
       </c>
@@ -23660,7 +23662,7 @@
       <c r="R345" s="46"/>
       <c r="S345" s="21"/>
     </row>
-    <row r="346" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="37">
         <v>2</v>
       </c>
@@ -23707,7 +23709,7 @@
       <c r="R346" s="46"/>
       <c r="S346" s="21"/>
     </row>
-    <row r="347" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="37">
         <v>2</v>
       </c>
@@ -23754,7 +23756,7 @@
       <c r="R347" s="46"/>
       <c r="S347" s="21"/>
     </row>
-    <row r="348" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="37">
         <v>2</v>
       </c>
@@ -23801,7 +23803,7 @@
       <c r="R348" s="46"/>
       <c r="S348" s="21"/>
     </row>
-    <row r="349" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="37">
         <v>2</v>
       </c>
@@ -23848,7 +23850,7 @@
       <c r="R349" s="46"/>
       <c r="S349" s="21"/>
     </row>
-    <row r="350" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="37">
         <v>2</v>
       </c>
@@ -23895,7 +23897,7 @@
       <c r="R350" s="46"/>
       <c r="S350" s="21"/>
     </row>
-    <row r="351" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="37">
         <v>2</v>
       </c>
@@ -23942,7 +23944,7 @@
       <c r="R351" s="46"/>
       <c r="S351" s="21"/>
     </row>
-    <row r="352" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="37">
         <v>2</v>
       </c>
@@ -23989,7 +23991,7 @@
       <c r="R352" s="46"/>
       <c r="S352" s="21"/>
     </row>
-    <row r="353" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="37">
         <v>2</v>
       </c>
@@ -24036,7 +24038,7 @@
       <c r="R353" s="46"/>
       <c r="S353" s="21"/>
     </row>
-    <row r="354" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="37">
         <v>2</v>
       </c>
@@ -24083,7 +24085,7 @@
       <c r="R354" s="46"/>
       <c r="S354" s="21"/>
     </row>
-    <row r="355" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="37">
         <v>2</v>
       </c>
@@ -24130,7 +24132,7 @@
       <c r="R355" s="46"/>
       <c r="S355" s="21"/>
     </row>
-    <row r="356" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="37">
         <v>2</v>
       </c>
@@ -24177,7 +24179,7 @@
       <c r="R356" s="46"/>
       <c r="S356" s="21"/>
     </row>
-    <row r="357" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="37">
         <v>2</v>
       </c>
@@ -24224,7 +24226,7 @@
       <c r="R357" s="46"/>
       <c r="S357" s="21"/>
     </row>
-    <row r="358" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="37">
         <v>2</v>
       </c>
@@ -24271,7 +24273,7 @@
       <c r="R358" s="46"/>
       <c r="S358" s="21"/>
     </row>
-    <row r="359" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="37">
         <v>2</v>
       </c>
@@ -24318,7 +24320,7 @@
       <c r="R359" s="46"/>
       <c r="S359" s="21"/>
     </row>
-    <row r="360" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="37">
         <v>2</v>
       </c>
@@ -24365,7 +24367,7 @@
       <c r="R360" s="46"/>
       <c r="S360" s="21"/>
     </row>
-    <row r="361" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="37">
         <v>2</v>
       </c>
@@ -24412,7 +24414,7 @@
       <c r="R361" s="46"/>
       <c r="S361" s="21"/>
     </row>
-    <row r="362" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="37">
         <v>2</v>
       </c>
@@ -24459,7 +24461,7 @@
       <c r="R362" s="46"/>
       <c r="S362" s="21"/>
     </row>
-    <row r="363" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="37">
         <v>2</v>
       </c>
@@ -24506,7 +24508,7 @@
       <c r="R363" s="46"/>
       <c r="S363" s="21"/>
     </row>
-    <row r="364" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="37">
         <v>2</v>
       </c>
@@ -24553,7 +24555,7 @@
       <c r="R364" s="46"/>
       <c r="S364" s="21"/>
     </row>
-    <row r="365" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="37">
         <v>2</v>
       </c>
@@ -24600,7 +24602,7 @@
       <c r="R365" s="46"/>
       <c r="S365" s="21"/>
     </row>
-    <row r="366" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="37">
         <v>2</v>
       </c>
@@ -24647,7 +24649,7 @@
       <c r="R366" s="46"/>
       <c r="S366" s="21"/>
     </row>
-    <row r="367" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="37">
         <v>2</v>
       </c>
@@ -24694,7 +24696,7 @@
       <c r="R367" s="46"/>
       <c r="S367" s="21"/>
     </row>
-    <row r="368" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="37">
         <v>2</v>
       </c>
@@ -24741,7 +24743,7 @@
       <c r="R368" s="46"/>
       <c r="S368" s="21"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="37">
         <v>2</v>
       </c>
@@ -24788,7 +24790,7 @@
       <c r="R369" s="46"/>
       <c r="S369" s="21"/>
     </row>
-    <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="37">
         <v>2</v>
       </c>
@@ -24835,7 +24837,7 @@
       <c r="R370" s="46"/>
       <c r="S370" s="21"/>
     </row>
-    <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="37">
         <v>2</v>
       </c>
@@ -24882,7 +24884,7 @@
       <c r="R371" s="46"/>
       <c r="S371" s="21"/>
     </row>
-    <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="37">
         <v>2</v>
       </c>
@@ -24929,7 +24931,7 @@
       <c r="R372" s="46"/>
       <c r="S372" s="21"/>
     </row>
-    <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="37">
         <v>2</v>
       </c>
@@ -24976,7 +24978,7 @@
       <c r="R373" s="46"/>
       <c r="S373" s="21"/>
     </row>
-    <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="20">
         <v>2</v>
       </c>
@@ -25023,7 +25025,7 @@
       <c r="R374" s="46"/>
       <c r="S374" s="21"/>
     </row>
-    <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="20">
         <v>2</v>
       </c>
@@ -25070,7 +25072,7 @@
       <c r="R375" s="46"/>
       <c r="S375" s="21"/>
     </row>
-    <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="20">
         <v>2</v>
       </c>
@@ -25117,7 +25119,7 @@
       <c r="R376" s="46"/>
       <c r="S376" s="21"/>
     </row>
-    <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="20">
         <v>2</v>
       </c>
@@ -25164,7 +25166,7 @@
       <c r="R377" s="46"/>
       <c r="S377" s="21"/>
     </row>
-    <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="20">
         <v>2</v>
       </c>
@@ -25211,7 +25213,7 @@
       <c r="R378" s="46"/>
       <c r="S378" s="21"/>
     </row>
-    <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="20">
         <v>2</v>
       </c>
@@ -25258,7 +25260,7 @@
       <c r="R379" s="46"/>
       <c r="S379" s="21"/>
     </row>
-    <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="20">
         <v>2</v>
       </c>
@@ -25305,7 +25307,7 @@
       <c r="R380" s="46"/>
       <c r="S380" s="21"/>
     </row>
-    <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="20">
         <v>2</v>
       </c>
@@ -25352,7 +25354,7 @@
       <c r="R381" s="46"/>
       <c r="S381" s="21"/>
     </row>
-    <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="20">
         <v>2</v>
       </c>
@@ -25399,7 +25401,7 @@
       <c r="R382" s="46"/>
       <c r="S382" s="21"/>
     </row>
-    <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="20">
         <v>2</v>
       </c>
@@ -25446,7 +25448,7 @@
       <c r="R383" s="46"/>
       <c r="S383" s="21"/>
     </row>
-    <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="20">
         <v>2</v>
       </c>
@@ -25493,7 +25495,7 @@
       <c r="R384" s="46"/>
       <c r="S384" s="21"/>
     </row>
-    <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="20">
         <v>2</v>
       </c>
@@ -25540,7 +25542,7 @@
       <c r="R385" s="46"/>
       <c r="S385" s="21"/>
     </row>
-    <row r="386" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="20">
         <v>2</v>
       </c>
@@ -25587,7 +25589,7 @@
       <c r="R386" s="46"/>
       <c r="S386" s="21"/>
     </row>
-    <row r="387" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="20">
         <v>2</v>
       </c>
@@ -25634,7 +25636,7 @@
       <c r="R387" s="46"/>
       <c r="S387" s="21"/>
     </row>
-    <row r="388" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="20">
         <v>2</v>
       </c>
@@ -25681,7 +25683,7 @@
       <c r="R388" s="46"/>
       <c r="S388" s="21"/>
     </row>
-    <row r="389" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="20">
         <v>2</v>
       </c>
@@ -25728,7 +25730,7 @@
       <c r="R389" s="46"/>
       <c r="S389" s="21"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="20">
         <v>2</v>
       </c>
@@ -25775,7 +25777,7 @@
       <c r="R390" s="46"/>
       <c r="S390" s="21"/>
     </row>
-    <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="20">
         <v>2</v>
       </c>
@@ -25822,7 +25824,7 @@
       <c r="R391" s="46"/>
       <c r="S391" s="21"/>
     </row>
-    <row r="392" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="20">
         <v>2</v>
       </c>
@@ -25869,7 +25871,7 @@
       <c r="R392" s="46"/>
       <c r="S392" s="21"/>
     </row>
-    <row r="393" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="20">
         <v>2</v>
       </c>
@@ -25916,7 +25918,7 @@
       <c r="R393" s="46"/>
       <c r="S393" s="21"/>
     </row>
-    <row r="394" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="20">
         <v>2</v>
       </c>
@@ -25963,7 +25965,7 @@
       <c r="R394" s="46"/>
       <c r="S394" s="21"/>
     </row>
-    <row r="395" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="20">
         <v>2</v>
       </c>
@@ -26010,7 +26012,7 @@
       <c r="R395" s="46"/>
       <c r="S395" s="21"/>
     </row>
-    <row r="396" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="20">
         <v>2</v>
       </c>
@@ -26057,7 +26059,7 @@
       <c r="R396" s="46"/>
       <c r="S396" s="21"/>
     </row>
-    <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="20">
         <v>2</v>
       </c>
@@ -26104,7 +26106,7 @@
       <c r="R397" s="46"/>
       <c r="S397" s="21"/>
     </row>
-    <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="20">
         <v>2</v>
       </c>
@@ -26151,7 +26153,7 @@
       <c r="R398" s="46"/>
       <c r="S398" s="21"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="20">
         <v>2</v>
       </c>
@@ -26198,7 +26200,7 @@
       <c r="R399" s="46"/>
       <c r="S399" s="21"/>
     </row>
-    <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="20">
         <v>2</v>
       </c>
@@ -26245,7 +26247,7 @@
       <c r="R400" s="46"/>
       <c r="S400" s="21"/>
     </row>
-    <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="20">
         <v>2</v>
       </c>
@@ -26292,7 +26294,7 @@
       <c r="R401" s="46"/>
       <c r="S401" s="21"/>
     </row>
-    <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="20">
         <v>2</v>
       </c>
@@ -26339,7 +26341,7 @@
       <c r="R402" s="46"/>
       <c r="S402" s="21"/>
     </row>
-    <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="20">
         <v>2</v>
       </c>
@@ -26386,7 +26388,7 @@
       <c r="R403" s="46"/>
       <c r="S403" s="21"/>
     </row>
-    <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="20">
         <v>2</v>
       </c>
@@ -26433,7 +26435,7 @@
       <c r="R404" s="46"/>
       <c r="S404" s="21"/>
     </row>
-    <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="20">
         <v>2</v>
       </c>
@@ -26480,7 +26482,7 @@
       <c r="R405" s="46"/>
       <c r="S405" s="21"/>
     </row>
-    <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="20">
         <v>2</v>
       </c>
@@ -26527,7 +26529,7 @@
       <c r="R406" s="46"/>
       <c r="S406" s="21"/>
     </row>
-    <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="20">
         <v>2</v>
       </c>
@@ -26574,7 +26576,7 @@
       <c r="R407" s="46"/>
       <c r="S407" s="21"/>
     </row>
-    <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="20">
         <v>2</v>
       </c>
@@ -26621,7 +26623,7 @@
       <c r="R408" s="46"/>
       <c r="S408" s="21"/>
     </row>
-    <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="20">
         <v>2</v>
       </c>
@@ -26668,7 +26670,7 @@
       <c r="R409" s="46"/>
       <c r="S409" s="21"/>
     </row>
-    <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="20">
         <v>2</v>
       </c>
@@ -26715,7 +26717,7 @@
       <c r="R410" s="46"/>
       <c r="S410" s="21"/>
     </row>
-    <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="20">
         <v>2</v>
       </c>
@@ -26762,7 +26764,7 @@
       <c r="R411" s="46"/>
       <c r="S411" s="21"/>
     </row>
-    <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20">
         <v>2</v>
       </c>
@@ -26809,7 +26811,7 @@
       <c r="R412" s="46"/>
       <c r="S412" s="21"/>
     </row>
-    <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="20">
         <v>2</v>
       </c>
@@ -26856,7 +26858,7 @@
       <c r="R413" s="46"/>
       <c r="S413" s="21"/>
     </row>
-    <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="20">
         <v>2</v>
       </c>
@@ -26903,7 +26905,7 @@
       <c r="R414" s="46"/>
       <c r="S414" s="21"/>
     </row>
-    <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="20">
         <v>2</v>
       </c>
@@ -26950,7 +26952,7 @@
       <c r="R415" s="46"/>
       <c r="S415" s="21"/>
     </row>
-    <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="20">
         <v>2</v>
       </c>
@@ -26997,7 +26999,7 @@
       <c r="R416" s="46"/>
       <c r="S416" s="21"/>
     </row>
-    <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="20">
         <v>4</v>
       </c>
@@ -27044,7 +27046,7 @@
       <c r="R417" s="46"/>
       <c r="S417" s="21"/>
     </row>
-    <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="20">
         <v>4</v>
       </c>
@@ -27091,7 +27093,7 @@
       <c r="R418" s="46"/>
       <c r="S418" s="21"/>
     </row>
-    <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="20">
         <v>4</v>
       </c>
@@ -27138,7 +27140,7 @@
       <c r="R419" s="46"/>
       <c r="S419" s="21"/>
     </row>
-    <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="20">
         <v>4</v>
       </c>
@@ -27185,7 +27187,7 @@
       <c r="R420" s="46"/>
       <c r="S420" s="21"/>
     </row>
-    <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="20">
         <v>4</v>
       </c>
@@ -27232,7 +27234,7 @@
       <c r="R421" s="46"/>
       <c r="S421" s="21"/>
     </row>
-    <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="20">
         <v>4</v>
       </c>
@@ -27279,7 +27281,7 @@
       <c r="R422" s="46"/>
       <c r="S422" s="21"/>
     </row>
-    <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="20">
         <v>4</v>
       </c>
@@ -27326,7 +27328,7 @@
       <c r="R423" s="46"/>
       <c r="S423" s="21"/>
     </row>
-    <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="20">
         <v>4</v>
       </c>
@@ -27373,7 +27375,7 @@
       <c r="R424" s="46"/>
       <c r="S424" s="21"/>
     </row>
-    <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="20">
         <v>4</v>
       </c>
@@ -27420,7 +27422,7 @@
       <c r="R425" s="46"/>
       <c r="S425" s="21"/>
     </row>
-    <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="20">
         <v>4</v>
       </c>
@@ -27467,7 +27469,7 @@
       <c r="R426" s="46"/>
       <c r="S426" s="21"/>
     </row>
-    <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="20">
         <v>4</v>
       </c>
@@ -27514,7 +27516,7 @@
       <c r="R427" s="46"/>
       <c r="S427" s="21"/>
     </row>
-    <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="20">
         <v>4</v>
       </c>
@@ -27561,7 +27563,7 @@
       <c r="R428" s="46"/>
       <c r="S428" s="21"/>
     </row>
-    <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="20">
         <v>4</v>
       </c>
@@ -27608,7 +27610,7 @@
       <c r="R429" s="46"/>
       <c r="S429" s="21"/>
     </row>
-    <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="20">
         <v>4</v>
       </c>
@@ -27655,7 +27657,7 @@
       <c r="R430" s="46"/>
       <c r="S430" s="21"/>
     </row>
-    <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="20">
         <v>4</v>
       </c>
@@ -27702,7 +27704,7 @@
       <c r="R431" s="46"/>
       <c r="S431" s="21"/>
     </row>
-    <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="20">
         <v>2</v>
       </c>
@@ -27749,7 +27751,7 @@
       <c r="R432" s="46"/>
       <c r="S432" s="21"/>
     </row>
-    <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="20">
         <v>4</v>
       </c>
@@ -27796,7 +27798,7 @@
       <c r="R433" s="46"/>
       <c r="S433" s="21"/>
     </row>
-    <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="20">
         <v>4</v>
       </c>
@@ -27843,7 +27845,7 @@
       <c r="R434" s="46"/>
       <c r="S434" s="21"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="20">
         <v>4</v>
       </c>
@@ -27890,7 +27892,7 @@
       <c r="R435" s="46"/>
       <c r="S435" s="21"/>
     </row>
-    <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="20">
         <v>4</v>
       </c>
@@ -27937,7 +27939,7 @@
       <c r="R436" s="46"/>
       <c r="S436" s="21"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="20">
         <v>4</v>
       </c>
@@ -27984,7 +27986,7 @@
       <c r="R437" s="46"/>
       <c r="S437" s="21"/>
     </row>
-    <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="20">
         <v>4</v>
       </c>
@@ -28031,7 +28033,7 @@
       <c r="R438" s="46"/>
       <c r="S438" s="21"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="20">
         <v>4</v>
       </c>
@@ -28078,7 +28080,7 @@
       <c r="R439" s="46"/>
       <c r="S439" s="21"/>
     </row>
-    <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="20">
         <v>4</v>
       </c>
@@ -28125,7 +28127,7 @@
       <c r="R440" s="46"/>
       <c r="S440" s="21"/>
     </row>
-    <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="20">
         <v>4</v>
       </c>
@@ -28172,7 +28174,7 @@
       <c r="R441" s="46"/>
       <c r="S441" s="21"/>
     </row>
-    <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="20">
         <v>4</v>
       </c>
@@ -28219,7 +28221,7 @@
       <c r="R442" s="46"/>
       <c r="S442" s="21"/>
     </row>
-    <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="20">
         <v>4</v>
       </c>
@@ -28266,7 +28268,7 @@
       <c r="R443" s="46"/>
       <c r="S443" s="21"/>
     </row>
-    <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="20">
         <v>4</v>
       </c>
@@ -28313,7 +28315,7 @@
       <c r="R444" s="46"/>
       <c r="S444" s="21"/>
     </row>
-    <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="20">
         <v>4</v>
       </c>
@@ -28360,7 +28362,7 @@
       <c r="R445" s="46"/>
       <c r="S445" s="21"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="20">
         <v>4</v>
       </c>
@@ -28407,7 +28409,7 @@
       <c r="R446" s="46"/>
       <c r="S446" s="21"/>
     </row>
-    <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="20">
         <v>4</v>
       </c>
@@ -28454,7 +28456,7 @@
       <c r="R447" s="46"/>
       <c r="S447" s="21"/>
     </row>
-    <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="20">
         <v>4</v>
       </c>
@@ -28501,7 +28503,7 @@
       <c r="R448" s="46"/>
       <c r="S448" s="21"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="20">
         <v>4</v>
       </c>
@@ -28548,7 +28550,7 @@
       <c r="R449" s="46"/>
       <c r="S449" s="21"/>
     </row>
-    <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="20">
         <v>4</v>
       </c>
@@ -28595,7 +28597,7 @@
       <c r="R450" s="46"/>
       <c r="S450" s="21"/>
     </row>
-    <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="20">
         <v>4</v>
       </c>
@@ -28642,7 +28644,7 @@
       <c r="R451" s="46"/>
       <c r="S451" s="21"/>
     </row>
-    <row r="452" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="20">
         <v>4</v>
       </c>
@@ -28689,7 +28691,7 @@
       <c r="R452" s="46"/>
       <c r="S452" s="21"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="20">
         <v>4</v>
       </c>
@@ -28736,7 +28738,7 @@
       <c r="R453" s="46"/>
       <c r="S453" s="21"/>
     </row>
-    <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="20">
         <v>4</v>
       </c>
@@ -28783,7 +28785,7 @@
       <c r="R454" s="46"/>
       <c r="S454" s="21"/>
     </row>
-    <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="20">
         <v>4</v>
       </c>
@@ -28830,7 +28832,7 @@
       <c r="R455" s="46"/>
       <c r="S455" s="21"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="20">
         <v>4</v>
       </c>
@@ -28877,7 +28879,7 @@
       <c r="R456" s="46"/>
       <c r="S456" s="21"/>
     </row>
-    <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="20">
         <v>4</v>
       </c>
@@ -28924,7 +28926,7 @@
       <c r="R457" s="46"/>
       <c r="S457" s="21"/>
     </row>
-    <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="20">
         <v>4</v>
       </c>
@@ -28971,7 +28973,7 @@
       <c r="R458" s="46"/>
       <c r="S458" s="21"/>
     </row>
-    <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="20">
         <v>4</v>
       </c>
@@ -29018,7 +29020,7 @@
       <c r="R459" s="46"/>
       <c r="S459" s="21"/>
     </row>
-    <row r="460" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="20">
         <v>4</v>
       </c>
@@ -29065,7 +29067,7 @@
       <c r="R460" s="46"/>
       <c r="S460" s="21"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="20">
         <v>4</v>
       </c>
@@ -29112,7 +29114,7 @@
       <c r="R461" s="46"/>
       <c r="S461" s="21"/>
     </row>
-    <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="20">
         <v>4</v>
       </c>
@@ -29159,7 +29161,7 @@
       <c r="R462" s="46"/>
       <c r="S462" s="21"/>
     </row>
-    <row r="463" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="26">
         <v>2</v>
       </c>
@@ -29206,7 +29208,7 @@
       <c r="R463" s="46"/>
       <c r="S463" s="21"/>
     </row>
-    <row r="464" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="28">
         <v>2</v>
       </c>
@@ -29253,7 +29255,7 @@
       <c r="R464" s="46"/>
       <c r="S464" s="21"/>
     </row>
-    <row r="465" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="38">
         <v>2</v>
       </c>
@@ -29300,7 +29302,7 @@
       <c r="R465" s="46"/>
       <c r="S465" s="21"/>
     </row>
-    <row r="466" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="28">
         <v>2</v>
       </c>
@@ -29347,7 +29349,7 @@
       <c r="R466" s="46"/>
       <c r="S466" s="21"/>
     </row>
-    <row r="467" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="28">
         <v>2</v>
       </c>
@@ -29394,7 +29396,7 @@
       <c r="R467" s="46"/>
       <c r="S467" s="21"/>
     </row>
-    <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="28">
         <v>2</v>
       </c>
@@ -29441,7 +29443,7 @@
       <c r="R468" s="46"/>
       <c r="S468" s="21"/>
     </row>
-    <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="38">
         <v>2</v>
       </c>
@@ -29488,7 +29490,7 @@
       <c r="R469" s="46"/>
       <c r="S469" s="21"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="28">
         <v>2</v>
       </c>
@@ -29535,7 +29537,7 @@
       <c r="R470" s="46"/>
       <c r="S470" s="21"/>
     </row>
-    <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="28">
         <v>2</v>
       </c>
@@ -29582,7 +29584,7 @@
       <c r="R471" s="46"/>
       <c r="S471" s="21"/>
     </row>
-    <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="28">
         <v>2</v>
       </c>
@@ -29629,7 +29631,7 @@
       <c r="R472" s="46"/>
       <c r="S472" s="21"/>
     </row>
-    <row r="473" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="28">
         <v>2</v>
       </c>
@@ -29676,7 +29678,7 @@
       <c r="R473" s="46"/>
       <c r="S473" s="21"/>
     </row>
-    <row r="474" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="28" t="s">
         <v>449</v>
       </c>
@@ -29723,7 +29725,7 @@
       <c r="R474" s="46"/>
       <c r="S474" s="21"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="28">
         <v>2</v>
       </c>
@@ -29770,7 +29772,7 @@
       <c r="R475" s="46"/>
       <c r="S475" s="21"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="28">
         <v>2</v>
       </c>
@@ -29817,7 +29819,7 @@
       <c r="R476" s="46"/>
       <c r="S476" s="21"/>
     </row>
-    <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="28">
         <v>2</v>
       </c>
@@ -29864,7 +29866,7 @@
       <c r="R477" s="46"/>
       <c r="S477" s="21"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="38">
         <v>2</v>
       </c>
@@ -29911,7 +29913,7 @@
       <c r="R478" s="46"/>
       <c r="S478" s="21"/>
     </row>
-    <row r="479" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="28" t="s">
         <v>449</v>
       </c>
@@ -29958,7 +29960,7 @@
       <c r="R479" s="46"/>
       <c r="S479" s="21"/>
     </row>
-    <row r="480" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="28">
         <v>2</v>
       </c>
@@ -30005,7 +30007,7 @@
       <c r="R480" s="46"/>
       <c r="S480" s="21"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="28">
         <v>2</v>
       </c>
@@ -30052,7 +30054,7 @@
       <c r="R481" s="46"/>
       <c r="S481" s="21"/>
     </row>
-    <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="38">
         <v>2</v>
       </c>
@@ -30099,7 +30101,7 @@
       <c r="R482" s="46"/>
       <c r="S482" s="21"/>
     </row>
-    <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="28" t="s">
         <v>449</v>
       </c>
@@ -30146,7 +30148,7 @@
       <c r="R483" s="46"/>
       <c r="S483" s="21"/>
     </row>
-    <row r="484" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="28">
         <v>2</v>
       </c>
@@ -30193,7 +30195,7 @@
       <c r="R484" s="46"/>
       <c r="S484" s="21"/>
     </row>
-    <row r="485" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="28">
         <v>2</v>
       </c>
@@ -30240,7 +30242,7 @@
       <c r="R485" s="46"/>
       <c r="S485" s="21"/>
     </row>
-    <row r="486" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="38">
         <v>2</v>
       </c>
@@ -30287,7 +30289,7 @@
       <c r="R486" s="46"/>
       <c r="S486" s="21"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="28">
         <v>2</v>
       </c>
@@ -30334,7 +30336,7 @@
       <c r="R487" s="46"/>
       <c r="S487" s="21"/>
     </row>
-    <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="28">
         <v>2</v>
       </c>
@@ -30381,7 +30383,7 @@
       <c r="R488" s="46"/>
       <c r="S488" s="21"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="28" t="s">
         <v>449</v>
       </c>
@@ -30428,7 +30430,7 @@
       <c r="R489" s="46"/>
       <c r="S489" s="21"/>
     </row>
-    <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="28">
         <v>2</v>
       </c>
@@ -30475,7 +30477,7 @@
       <c r="R490" s="46"/>
       <c r="S490" s="21"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="28">
         <v>2</v>
       </c>
@@ -30522,7 +30524,7 @@
       <c r="R491" s="46"/>
       <c r="S491" s="21"/>
     </row>
-    <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="28" t="s">
         <v>449</v>
       </c>
@@ -30569,7 +30571,7 @@
       <c r="R492" s="46"/>
       <c r="S492" s="21"/>
     </row>
-    <row r="493" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="28">
         <v>2</v>
       </c>
@@ -30616,7 +30618,7 @@
       <c r="R493" s="46"/>
       <c r="S493" s="21"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="28">
         <v>2</v>
       </c>
@@ -30663,7 +30665,7 @@
       <c r="R494" s="46"/>
       <c r="S494" s="21"/>
     </row>
-    <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="28" t="s">
         <v>449</v>
       </c>
@@ -30710,7 +30712,7 @@
       <c r="R495" s="46"/>
       <c r="S495" s="21"/>
     </row>
-    <row r="496" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="28">
         <v>2</v>
       </c>
@@ -30757,7 +30759,7 @@
       <c r="R496" s="46"/>
       <c r="S496" s="21"/>
     </row>
-    <row r="497" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="28" t="s">
         <v>449</v>
       </c>
@@ -30804,7 +30806,7 @@
       <c r="R497" s="46"/>
       <c r="S497" s="21"/>
     </row>
-    <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="28">
         <v>2</v>
       </c>
@@ -30851,7 +30853,7 @@
       <c r="R498" s="46"/>
       <c r="S498" s="21"/>
     </row>
-    <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="28" t="s">
         <v>449</v>
       </c>
@@ -30898,7 +30900,7 @@
       <c r="R499" s="46"/>
       <c r="S499" s="21"/>
     </row>
-    <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="28">
         <v>2</v>
       </c>
@@ -30945,7 +30947,7 @@
       <c r="R500" s="46"/>
       <c r="S500" s="21"/>
     </row>
-    <row r="501" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="28">
         <v>4</v>
       </c>
@@ -30992,7 +30994,7 @@
       <c r="R501" s="46"/>
       <c r="S501" s="21"/>
     </row>
-    <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="28">
         <v>4</v>
       </c>
@@ -31039,7 +31041,7 @@
       <c r="R502" s="46"/>
       <c r="S502" s="21"/>
     </row>
-    <row r="503" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="28" t="s">
         <v>449</v>
       </c>
@@ -31086,7 +31088,7 @@
       <c r="R503" s="46"/>
       <c r="S503" s="21"/>
     </row>
-    <row r="504" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="38">
         <v>2</v>
       </c>
@@ -31133,7 +31135,7 @@
       <c r="R504" s="46"/>
       <c r="S504" s="21"/>
     </row>
-    <row r="505" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="28" t="s">
         <v>449</v>
       </c>
@@ -31180,7 +31182,7 @@
       <c r="R505" s="46"/>
       <c r="S505" s="21"/>
     </row>
-    <row r="506" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="28" t="s">
         <v>449</v>
       </c>
@@ -31227,7 +31229,7 @@
       <c r="R506" s="46"/>
       <c r="S506" s="21"/>
     </row>
-    <row r="507" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="28" t="s">
         <v>449</v>
       </c>
@@ -31274,7 +31276,7 @@
       <c r="R507" s="46"/>
       <c r="S507" s="21"/>
     </row>
-    <row r="508" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="38">
         <v>2</v>
       </c>
@@ -31307,7 +31309,7 @@
       <c r="R508" s="46"/>
       <c r="S508" s="21"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="38">
         <v>2</v>
       </c>
@@ -31340,7 +31342,7 @@
       <c r="R509" s="46"/>
       <c r="S509" s="21"/>
     </row>
-    <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="38">
         <v>2</v>
       </c>
@@ -31373,7 +31375,7 @@
       <c r="R510" s="46"/>
       <c r="S510" s="21"/>
     </row>
-    <row r="511" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="38">
         <v>2</v>
       </c>
@@ -31406,7 +31408,7 @@
       <c r="R511" s="46"/>
       <c r="S511" s="21"/>
     </row>
-    <row r="512" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="28" t="s">
         <v>449</v>
       </c>
@@ -31453,7 +31455,7 @@
       <c r="R512" s="46"/>
       <c r="S512" s="21"/>
     </row>
-    <row r="513" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="28">
         <v>8</v>
       </c>
@@ -31510,7 +31512,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="28">
         <v>8</v>
       </c>
@@ -31567,7 +31569,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="28">
         <v>8</v>
       </c>
@@ -31624,7 +31626,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="28">
         <v>8</v>
       </c>
@@ -31681,7 +31683,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="28">
         <v>8</v>
       </c>
@@ -31738,7 +31740,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="28">
         <v>8</v>
       </c>
@@ -31795,7 +31797,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="28">
         <v>8</v>
       </c>
@@ -31852,7 +31854,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="28">
         <v>8</v>
       </c>
@@ -31909,7 +31911,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="28">
         <v>8</v>
       </c>
@@ -31960,7 +31962,7 @@
       <c r="R521" s="46"/>
       <c r="S521" s="21"/>
     </row>
-    <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="28">
         <v>8</v>
       </c>
@@ -32011,7 +32013,7 @@
       <c r="R522" s="46"/>
       <c r="S522" s="21"/>
     </row>
-    <row r="523" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="28">
         <v>8</v>
       </c>
@@ -32068,7 +32070,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="28">
         <v>8</v>
       </c>
@@ -32125,7 +32127,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="28">
         <v>8</v>
       </c>
@@ -32182,7 +32184,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="28">
         <v>8</v>
       </c>
@@ -32239,7 +32241,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="28">
         <v>8</v>
       </c>
@@ -32296,7 +32298,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="28">
         <v>8</v>
       </c>
@@ -32353,7 +32355,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="28">
         <v>8</v>
       </c>
@@ -32410,7 +32412,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="28">
         <v>8</v>
       </c>
@@ -32467,7 +32469,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="26">
         <v>1</v>
       </c>
@@ -32514,7 +32516,7 @@
       <c r="R531" s="46"/>
       <c r="S531" s="21"/>
     </row>
-    <row r="532" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="28">
         <v>8</v>
       </c>
@@ -32571,7 +32573,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="28">
         <v>8</v>
       </c>
@@ -32628,7 +32630,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="28">
         <v>8</v>
       </c>
@@ -32685,7 +32687,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="28">
         <v>8</v>
       </c>
@@ -32742,7 +32744,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="28">
         <v>8</v>
       </c>
@@ -32799,7 +32801,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="28">
         <v>8</v>
       </c>
@@ -32856,7 +32858,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="28">
         <v>8</v>
       </c>
@@ -32903,7 +32905,7 @@
       <c r="R538" s="46"/>
       <c r="S538" s="21"/>
     </row>
-    <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="28">
         <v>8</v>
       </c>
@@ -32950,7 +32952,7 @@
       <c r="R539" s="46"/>
       <c r="S539" s="21"/>
     </row>
-    <row r="540" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="28">
         <v>8</v>
       </c>
@@ -32997,7 +32999,7 @@
       <c r="R540" s="46"/>
       <c r="S540" s="21"/>
     </row>
-    <row r="541" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="26">
         <v>1</v>
       </c>
@@ -33044,7 +33046,7 @@
       <c r="R541" s="46"/>
       <c r="S541" s="21"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="28">
         <v>8</v>
       </c>
@@ -33091,7 +33093,7 @@
       <c r="R542" s="46"/>
       <c r="S542" s="21"/>
     </row>
-    <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="28">
         <v>8</v>
       </c>
@@ -33138,7 +33140,7 @@
       <c r="R543" s="46"/>
       <c r="S543" s="21"/>
     </row>
-    <row r="544" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="28">
         <v>8</v>
       </c>
@@ -33185,7 +33187,7 @@
       <c r="R544" s="46"/>
       <c r="S544" s="21"/>
     </row>
-    <row r="545" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="28">
         <v>8</v>
       </c>
@@ -33232,7 +33234,7 @@
       <c r="R545" s="46"/>
       <c r="S545" s="21"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="28">
         <v>8</v>
       </c>
@@ -33279,7 +33281,7 @@
       <c r="R546" s="46"/>
       <c r="S546" s="21"/>
     </row>
-    <row r="547" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="28">
         <v>8</v>
       </c>
@@ -33326,7 +33328,7 @@
       <c r="R547" s="46"/>
       <c r="S547" s="21"/>
     </row>
-    <row r="548" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="28">
         <v>8</v>
       </c>
@@ -33373,7 +33375,7 @@
       <c r="R548" s="46"/>
       <c r="S548" s="21"/>
     </row>
-    <row r="549" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="28">
         <v>8</v>
       </c>
@@ -33420,7 +33422,7 @@
       <c r="R549" s="46"/>
       <c r="S549" s="21"/>
     </row>
-    <row r="550" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="28">
         <v>8</v>
       </c>
@@ -33467,7 +33469,7 @@
       <c r="R550" s="46"/>
       <c r="S550" s="21"/>
     </row>
-    <row r="551" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="28">
         <v>8</v>
       </c>
@@ -33514,7 +33516,7 @@
       <c r="R551" s="46"/>
       <c r="S551" s="21"/>
     </row>
-    <row r="552" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="28">
         <v>8</v>
       </c>
@@ -33561,7 +33563,7 @@
       <c r="R552" s="46"/>
       <c r="S552" s="21"/>
     </row>
-    <row r="553" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="28">
         <v>8</v>
       </c>
@@ -33608,7 +33610,7 @@
       <c r="R553" s="46"/>
       <c r="S553" s="21"/>
     </row>
-    <row r="554" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="28">
         <v>3</v>
       </c>
@@ -33655,7 +33657,7 @@
       <c r="R554" s="46"/>
       <c r="S554" s="21"/>
     </row>
-    <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="28">
         <v>3</v>
       </c>
@@ -33702,7 +33704,7 @@
       <c r="R555" s="46"/>
       <c r="S555" s="21"/>
     </row>
-    <row r="556" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="26">
         <v>8</v>
       </c>
@@ -33749,7 +33751,7 @@
       <c r="R556" s="46"/>
       <c r="S556" s="21"/>
     </row>
-    <row r="557" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="26">
         <v>8</v>
       </c>
@@ -33796,7 +33798,7 @@
       <c r="R557" s="46"/>
       <c r="S557" s="21"/>
     </row>
-    <row r="558" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="26">
         <v>8</v>
       </c>
@@ -33843,7 +33845,7 @@
       <c r="R558" s="46"/>
       <c r="S558" s="21"/>
     </row>
-    <row r="559" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="26">
         <v>8</v>
       </c>
@@ -33890,7 +33892,7 @@
       <c r="R559" s="46"/>
       <c r="S559" s="21"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="26">
         <v>8</v>
       </c>
@@ -33937,7 +33939,7 @@
       <c r="R560" s="46"/>
       <c r="S560" s="21"/>
     </row>
-    <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="26">
         <v>8</v>
       </c>
@@ -33984,7 +33986,7 @@
       <c r="R561" s="46"/>
       <c r="S561" s="21"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="26">
         <v>8</v>
       </c>
@@ -34031,7 +34033,7 @@
       <c r="R562" s="46"/>
       <c r="S562" s="21"/>
     </row>
-    <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="26">
         <v>8</v>
       </c>
@@ -34078,7 +34080,7 @@
       <c r="R563" s="46"/>
       <c r="S563" s="21"/>
     </row>
-    <row r="564" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="26">
         <v>8</v>
       </c>
@@ -34125,7 +34127,7 @@
       <c r="R564" s="46"/>
       <c r="S564" s="21"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="26">
         <v>8</v>
       </c>
@@ -34172,7 +34174,7 @@
       <c r="R565" s="46"/>
       <c r="S565" s="21"/>
     </row>
-    <row r="566" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="26">
         <v>8</v>
       </c>
@@ -34219,7 +34221,7 @@
       <c r="R566" s="46"/>
       <c r="S566" s="21"/>
     </row>
-    <row r="567" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="26">
         <v>8</v>
       </c>
@@ -34266,7 +34268,7 @@
       <c r="R567" s="46"/>
       <c r="S567" s="21"/>
     </row>
-    <row r="568" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="26">
         <v>8</v>
       </c>
@@ -34313,7 +34315,7 @@
       <c r="R568" s="46"/>
       <c r="S568" s="21"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="26">
         <v>8</v>
       </c>
@@ -34360,7 +34362,7 @@
       <c r="R569" s="46"/>
       <c r="S569" s="21"/>
     </row>
-    <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="26">
         <v>8</v>
       </c>
@@ -34407,7 +34409,7 @@
       <c r="R570" s="46"/>
       <c r="S570" s="21"/>
     </row>
-    <row r="571" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="26">
         <v>8</v>
       </c>
@@ -34454,7 +34456,7 @@
       <c r="R571" s="46"/>
       <c r="S571" s="21"/>
     </row>
-    <row r="572" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="26">
         <v>8</v>
       </c>
@@ -34501,7 +34503,7 @@
       <c r="R572" s="46"/>
       <c r="S572" s="21"/>
     </row>
-    <row r="573" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="26">
         <v>8</v>
       </c>
@@ -34548,7 +34550,7 @@
       <c r="R573" s="46"/>
       <c r="S573" s="21"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="26">
         <v>8</v>
       </c>
@@ -34595,7 +34597,7 @@
       <c r="R574" s="46"/>
       <c r="S574" s="21"/>
     </row>
-    <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="26">
         <v>8</v>
       </c>
@@ -34642,7 +34644,7 @@
       <c r="R575" s="46"/>
       <c r="S575" s="21"/>
     </row>
-    <row r="576" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="26">
         <v>8</v>
       </c>
@@ -34689,7 +34691,7 @@
       <c r="R576" s="46"/>
       <c r="S576" s="21"/>
     </row>
-    <row r="577" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="26">
         <v>8</v>
       </c>
@@ -34736,7 +34738,7 @@
       <c r="R577" s="46"/>
       <c r="S577" s="21"/>
     </row>
-    <row r="578" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="26">
         <v>8</v>
       </c>
@@ -34783,7 +34785,7 @@
       <c r="R578" s="46"/>
       <c r="S578" s="21"/>
     </row>
-    <row r="579" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="26">
         <v>8</v>
       </c>
@@ -34830,7 +34832,7 @@
       <c r="R579" s="46"/>
       <c r="S579" s="21"/>
     </row>
-    <row r="580" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="26">
         <v>8</v>
       </c>
@@ -34877,7 +34879,7 @@
       <c r="R580" s="46"/>
       <c r="S580" s="21"/>
     </row>
-    <row r="581" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="26">
         <v>8</v>
       </c>
@@ -34924,7 +34926,7 @@
       <c r="R581" s="46"/>
       <c r="S581" s="21"/>
     </row>
-    <row r="582" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="26">
         <v>8</v>
       </c>
@@ -34971,7 +34973,7 @@
       <c r="R582" s="46"/>
       <c r="S582" s="21"/>
     </row>
-    <row r="583" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="26">
         <v>8</v>
       </c>
@@ -35018,7 +35020,7 @@
       <c r="R583" s="46"/>
       <c r="S583" s="21"/>
     </row>
-    <row r="584" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="26">
         <v>8</v>
       </c>
@@ -35065,7 +35067,7 @@
       <c r="R584" s="46"/>
       <c r="S584" s="21"/>
     </row>
-    <row r="585" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="26">
         <v>8</v>
       </c>
@@ -35113,13 +35115,7 @@
       <c r="S585" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S585" xr:uid="{462B357B-D08B-41C7-9173-012688EAF9F7}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="opdracht_6"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S585" xr:uid="{462B357B-D08B-41C7-9173-012688EAF9F7}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137 F1:S1">
     <cfRule type="containsText" dxfId="51" priority="135" operator="containsText" text="&lt;?&gt;">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39D0B5D-42D6-4502-B269-011A1F8574CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2112F576-E80B-4584-AC25-D52E63C4C653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7953" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7939" uniqueCount="1267">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3788,9 +3788,6 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>Wss werd Geovalidatie niet aangeroepen (?)</t>
-  </si>
-  <si>
     <t>bestaat_niet.xml geeft geen fout terug?</t>
   </si>
   <si>
@@ -3827,9 +3824,6 @@
     <t>Geonovum</t>
   </si>
   <si>
-    <t>Voltooid</t>
-  </si>
-  <si>
     <t>Internal Server Error</t>
   </si>
   <si>
@@ -3860,12 +3854,6 @@
     <t>opdracht_lvbb1011</t>
   </si>
   <si>
-    <t>opdracht_lvbb1015</t>
-  </si>
-  <si>
-    <t>Deze fout kwam terug via OOW-web, maar op het foute bestand</t>
-  </si>
-  <si>
     <t>opdracht_lvbb1022</t>
   </si>
   <si>
@@ -3885,6 +3873,21 @@
   </si>
   <si>
     <t>(TPOD2050)Zijn alle bestanden genoemd in manifest aanwezig in zip?</t>
+  </si>
+  <si>
+    <t>DatumBekendmaking ligt in het verleden</t>
+  </si>
+  <si>
+    <t>We krijgen hier een andere fout terug (1018, die onterecht is.)</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1013.zip</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB1015-foutmelding</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1015.zip</t>
   </si>
 </sst>
 </file>
@@ -4456,14 +4459,14 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -4495,7 +4498,56 @@
     <cellStyle name="Standaard 8" xfId="6" xr:uid="{4492B760-AE1B-46F5-BB01-F20D2648A2DB}"/>
     <cellStyle name="Title 2" xfId="10" xr:uid="{7E65A99B-BE5B-4D5A-90AB-4BE5E71E069B}"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -5070,10 +5122,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project Timeline" pivot="0" count="4" xr9:uid="{94F838F7-CCC6-442C-9CDB-4977D3904284}">
-      <tableStyleElement type="wholeTable" dxfId="55"/>
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="firstRowStripe" dxfId="53"/>
-      <tableStyleElement type="secondRowStripe" dxfId="52"/>
+      <tableStyleElement type="wholeTable" dxfId="62"/>
+      <tableStyleElement type="headerRow" dxfId="61"/>
+      <tableStyleElement type="firstRowStripe" dxfId="60"/>
+      <tableStyleElement type="secondRowStripe" dxfId="59"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5442,27 +5494,27 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="13" customWidth="1"/>
     <col min="9" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
     <col min="17" max="18" width="11" style="44" customWidth="1"/>
-    <col min="19" max="19" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>448</v>
       </c>
@@ -5515,13 +5567,13 @@
         <v>1231</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="S1" s="43" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -5568,7 +5620,7 @@
       <c r="R2" s="46"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5615,7 +5667,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -5662,7 +5714,7 @@
       <c r="R4" s="46"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -5709,7 +5761,7 @@
       <c r="R5" s="46"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -5756,7 +5808,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="21"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -5803,7 +5855,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>2</v>
       </c>
@@ -5850,7 +5902,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -5897,7 +5949,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
@@ -5944,7 +5996,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -5991,7 +6043,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>2</v>
       </c>
@@ -6038,7 +6090,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -6085,7 +6137,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>2</v>
       </c>
@@ -6132,7 +6184,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>2</v>
       </c>
@@ -6179,7 +6231,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>2</v>
       </c>
@@ -6226,7 +6278,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -6273,7 +6325,7 @@
       <c r="R17" s="46"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>2</v>
       </c>
@@ -6320,7 +6372,7 @@
       <c r="R18" s="46"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>2</v>
       </c>
@@ -6367,7 +6419,7 @@
       <c r="R19" s="46"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>4</v>
       </c>
@@ -6415,16 +6467,14 @@
         <v>1232</v>
       </c>
       <c r="Q20" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R20" s="46" t="s">
-        <v>1244</v>
-      </c>
+        <v>44208</v>
+      </c>
+      <c r="R20" s="46"/>
       <c r="S20" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>4</v>
       </c>
@@ -6475,13 +6525,11 @@
         <v>44166</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>4</v>
       </c>
@@ -6532,13 +6580,11 @@
         <v>44166</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S22" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>4</v>
       </c>
@@ -6589,13 +6635,11 @@
         <v>44166</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S23" s="21"/>
+    </row>
+    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>4</v>
       </c>
@@ -6646,13 +6690,11 @@
         <v>44166</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S24" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>4</v>
       </c>
@@ -6703,13 +6745,11 @@
         <v>44166</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S25" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>4</v>
       </c>
@@ -6760,13 +6800,11 @@
         <v>44166</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>4</v>
       </c>
@@ -6817,13 +6855,11 @@
         <v>44166</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S27" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>4</v>
       </c>
@@ -6874,13 +6910,11 @@
         <v>44166</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S28" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>4</v>
       </c>
@@ -6931,13 +6965,11 @@
         <v>44166</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S29" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>4</v>
       </c>
@@ -6988,13 +7020,11 @@
         <v>44166</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S30" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>4</v>
       </c>
@@ -7045,13 +7075,11 @@
         <v>44166</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S31" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S31" s="21"/>
+    </row>
+    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>4</v>
       </c>
@@ -7102,13 +7130,11 @@
         <v>44166</v>
       </c>
       <c r="R32" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S32" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S32" s="21"/>
+    </row>
+    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>4</v>
       </c>
@@ -7159,13 +7185,11 @@
         <v>44166</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S33" s="21" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>4</v>
       </c>
@@ -7214,7 +7238,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>4</v>
       </c>
@@ -7263,7 +7287,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>1</v>
       </c>
@@ -7314,7 +7338,7 @@
       <c r="R36" s="46"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>1</v>
       </c>
@@ -7365,7 +7389,7 @@
       <c r="R37" s="46"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>1</v>
       </c>
@@ -7406,7 +7430,7 @@
         <v>24</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>1065</v>
@@ -7419,10 +7443,10 @@
       </c>
       <c r="R38" s="46"/>
       <c r="S38" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -7463,7 +7487,7 @@
         <v>24</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>1065</v>
@@ -7476,10 +7500,10 @@
       </c>
       <c r="R39" s="46"/>
       <c r="S39" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -7520,7 +7544,7 @@
         <v>24</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>1065</v>
@@ -7533,10 +7557,10 @@
       </c>
       <c r="R40" s="46"/>
       <c r="S40" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>1</v>
       </c>
@@ -7577,7 +7601,7 @@
         <v>24</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>1065</v>
@@ -7590,10 +7614,10 @@
       </c>
       <c r="R41" s="46"/>
       <c r="S41" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -7634,7 +7658,7 @@
         <v>24</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>1065</v>
@@ -7647,10 +7671,10 @@
       </c>
       <c r="R42" s="46"/>
       <c r="S42" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>1</v>
       </c>
@@ -7691,7 +7715,7 @@
         <v>24</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>1065</v>
@@ -7704,10 +7728,10 @@
       </c>
       <c r="R43" s="46"/>
       <c r="S43" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>1</v>
       </c>
@@ -7748,7 +7772,7 @@
         <v>24</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>1065</v>
@@ -7761,10 +7785,10 @@
       </c>
       <c r="R44" s="46"/>
       <c r="S44" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>1</v>
       </c>
@@ -7805,7 +7829,7 @@
         <v>24</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>1065</v>
@@ -7818,10 +7842,10 @@
       </c>
       <c r="R45" s="46"/>
       <c r="S45" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>1</v>
       </c>
@@ -7829,7 +7853,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>502</v>
@@ -7874,13 +7898,13 @@
         <v>44166</v>
       </c>
       <c r="R46" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>1</v>
       </c>
@@ -7933,13 +7957,13 @@
         <v>44166</v>
       </c>
       <c r="R47" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>1</v>
       </c>
@@ -7980,7 +8004,7 @@
         <v>24</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>1065</v>
@@ -7993,14 +8017,14 @@
       </c>
       <c r="R48" s="46"/>
       <c r="S48" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>1</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="21" t="s">
@@ -8049,13 +8073,13 @@
         <v>44166</v>
       </c>
       <c r="R49" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>1</v>
       </c>
@@ -8096,25 +8120,23 @@
         <v>24</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>1211</v>
+        <v>1264</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="Q50" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R50" s="46" t="s">
-        <v>1246</v>
-      </c>
+        <v>44208</v>
+      </c>
+      <c r="R50" s="46"/>
       <c r="S50" s="21" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>1</v>
       </c>
@@ -8155,23 +8177,23 @@
         <v>24</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>1257</v>
+        <v>1266</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P51" s="21">
-        <v>500</v>
+      <c r="P51" s="21" t="s">
+        <v>1229</v>
       </c>
       <c r="Q51" s="46">
-        <v>44167</v>
+        <v>44208</v>
       </c>
       <c r="R51" s="46"/>
       <c r="S51" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>1</v>
       </c>
@@ -8225,10 +8247,10 @@
       </c>
       <c r="R52" s="46"/>
       <c r="S52" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>1</v>
       </c>
@@ -8282,10 +8304,10 @@
       </c>
       <c r="R53" s="46"/>
       <c r="S53" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>1</v>
       </c>
@@ -8339,10 +8361,10 @@
       </c>
       <c r="R54" s="46"/>
       <c r="S54" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>1</v>
       </c>
@@ -8396,10 +8418,10 @@
       </c>
       <c r="R55" s="46"/>
       <c r="S55" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>1</v>
       </c>
@@ -8453,10 +8475,10 @@
       </c>
       <c r="R56" s="46"/>
       <c r="S56" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>1</v>
       </c>
@@ -8510,10 +8532,10 @@
       </c>
       <c r="R57" s="46"/>
       <c r="S57" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>1</v>
       </c>
@@ -8554,7 +8576,7 @@
         <v>24</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>1066</v>
@@ -8567,10 +8589,10 @@
       </c>
       <c r="R58" s="46"/>
       <c r="S58" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>1</v>
       </c>
@@ -8611,7 +8633,7 @@
         <v>24</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="O59" s="21" t="s">
         <v>1066</v>
@@ -8624,10 +8646,10 @@
       </c>
       <c r="R59" s="46"/>
       <c r="S59" s="21" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>1</v>
       </c>
@@ -8674,7 +8696,7 @@
       <c r="R60" s="46"/>
       <c r="S60" s="21"/>
     </row>
-    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>1</v>
       </c>
@@ -8721,7 +8743,7 @@
       <c r="R61" s="46"/>
       <c r="S61" s="21"/>
     </row>
-    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>1</v>
       </c>
@@ -8768,7 +8790,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>2</v>
       </c>
@@ -8815,19 +8837,19 @@
         <v>1066</v>
       </c>
       <c r="P63" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q63" s="46">
         <v>44182</v>
       </c>
       <c r="R63" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>2</v>
       </c>
@@ -8874,7 +8896,7 @@
       <c r="R64" s="46"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>2</v>
       </c>
@@ -8921,19 +8943,19 @@
         <v>1066</v>
       </c>
       <c r="P65" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q65" s="46">
         <v>44182</v>
       </c>
       <c r="R65" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>2</v>
       </c>
@@ -8986,13 +9008,13 @@
         <v>44182</v>
       </c>
       <c r="R66" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>2</v>
       </c>
@@ -9045,13 +9067,13 @@
         <v>44182</v>
       </c>
       <c r="R67" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>2</v>
       </c>
@@ -9104,13 +9126,13 @@
         <v>44182</v>
       </c>
       <c r="R68" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>2</v>
       </c>
@@ -9157,7 +9179,7 @@
       <c r="R69" s="46"/>
       <c r="S69" s="21"/>
     </row>
-    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>2</v>
       </c>
@@ -9204,7 +9226,7 @@
       <c r="R70" s="46"/>
       <c r="S70" s="21"/>
     </row>
-    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>2</v>
       </c>
@@ -9257,13 +9279,13 @@
         <v>44182</v>
       </c>
       <c r="R71" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>2</v>
       </c>
@@ -9316,13 +9338,13 @@
         <v>44182</v>
       </c>
       <c r="R72" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -9369,7 +9391,7 @@
       <c r="R73" s="46"/>
       <c r="S73" s="21"/>
     </row>
-    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>2</v>
       </c>
@@ -9416,7 +9438,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>2</v>
       </c>
@@ -9463,19 +9485,19 @@
         <v>1066</v>
       </c>
       <c r="P75" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q75" s="46">
         <v>44182</v>
       </c>
       <c r="R75" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>2</v>
       </c>
@@ -9522,7 +9544,7 @@
       <c r="R76" s="46"/>
       <c r="S76" s="21"/>
     </row>
-    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>2</v>
       </c>
@@ -9569,7 +9591,7 @@
       <c r="R77" s="46"/>
       <c r="S77" s="21"/>
     </row>
-    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>2</v>
       </c>
@@ -9616,7 +9638,7 @@
       <c r="R78" s="46"/>
       <c r="S78" s="21"/>
     </row>
-    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>2</v>
       </c>
@@ -9663,7 +9685,7 @@
       <c r="R79" s="46"/>
       <c r="S79" s="21"/>
     </row>
-    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>2</v>
       </c>
@@ -9710,7 +9732,7 @@
       <c r="R80" s="46"/>
       <c r="S80" s="21"/>
     </row>
-    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>2</v>
       </c>
@@ -9757,7 +9779,7 @@
       <c r="R81" s="46"/>
       <c r="S81" s="21"/>
     </row>
-    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>2</v>
       </c>
@@ -9804,7 +9826,7 @@
       <c r="R82" s="46"/>
       <c r="S82" s="21"/>
     </row>
-    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>2</v>
       </c>
@@ -9851,7 +9873,7 @@
       <c r="R83" s="46"/>
       <c r="S83" s="21"/>
     </row>
-    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>2</v>
       </c>
@@ -9900,7 +9922,7 @@
       <c r="R84" s="46"/>
       <c r="S84" s="21"/>
     </row>
-    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>2</v>
       </c>
@@ -9947,7 +9969,7 @@
       <c r="R85" s="46"/>
       <c r="S85" s="21"/>
     </row>
-    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>2</v>
       </c>
@@ -10001,10 +10023,10 @@
       </c>
       <c r="R86" s="46"/>
       <c r="S86" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>2</v>
       </c>
@@ -10051,7 +10073,7 @@
       <c r="R87" s="46"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
         <v>2</v>
       </c>
@@ -10098,19 +10120,19 @@
         <v>1066</v>
       </c>
       <c r="P88" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q88" s="46">
         <v>44182</v>
       </c>
       <c r="R88" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26">
         <v>2</v>
       </c>
@@ -10157,19 +10179,19 @@
         <v>1066</v>
       </c>
       <c r="P89" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q89" s="46">
         <v>44182</v>
       </c>
       <c r="R89" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S89" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26">
         <v>2</v>
       </c>
@@ -10216,19 +10238,19 @@
         <v>1066</v>
       </c>
       <c r="P90" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q90" s="46">
         <v>44182</v>
       </c>
       <c r="R90" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S90" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26">
         <v>2</v>
       </c>
@@ -10275,19 +10297,19 @@
         <v>1066</v>
       </c>
       <c r="P91" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q91" s="46">
         <v>44182</v>
       </c>
       <c r="R91" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26">
         <v>2</v>
       </c>
@@ -10334,19 +10356,19 @@
         <v>1066</v>
       </c>
       <c r="P92" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q92" s="46">
         <v>44182</v>
       </c>
       <c r="R92" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26">
         <v>2</v>
       </c>
@@ -10393,19 +10415,19 @@
         <v>1066</v>
       </c>
       <c r="P93" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q93" s="46">
         <v>44182</v>
       </c>
       <c r="R93" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -10452,19 +10474,19 @@
         <v>1066</v>
       </c>
       <c r="P94" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q94" s="46">
         <v>44182</v>
       </c>
       <c r="R94" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26">
         <v>2</v>
       </c>
@@ -10511,19 +10533,19 @@
         <v>1066</v>
       </c>
       <c r="P95" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q95" s="46">
         <v>44182</v>
       </c>
       <c r="R95" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S95" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26">
         <v>2</v>
       </c>
@@ -10570,19 +10592,19 @@
         <v>1066</v>
       </c>
       <c r="P96" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q96" s="46">
         <v>44182</v>
       </c>
       <c r="R96" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S96" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26">
         <v>2</v>
       </c>
@@ -10629,19 +10651,19 @@
         <v>1066</v>
       </c>
       <c r="P97" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q97" s="46">
         <v>44182</v>
       </c>
       <c r="R97" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S97" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>2</v>
       </c>
@@ -10688,19 +10710,19 @@
         <v>1066</v>
       </c>
       <c r="P98" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q98" s="46">
         <v>44182</v>
       </c>
       <c r="R98" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S98" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26">
         <v>2</v>
       </c>
@@ -10747,19 +10769,19 @@
         <v>1066</v>
       </c>
       <c r="P99" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q99" s="46">
         <v>44182</v>
       </c>
       <c r="R99" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S99" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>2</v>
       </c>
@@ -10806,19 +10828,19 @@
         <v>1066</v>
       </c>
       <c r="P100" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q100" s="46">
         <v>44182</v>
       </c>
       <c r="R100" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S100" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>2</v>
       </c>
@@ -10865,19 +10887,19 @@
         <v>1066</v>
       </c>
       <c r="P101" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q101" s="46">
         <v>44182</v>
       </c>
       <c r="R101" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S101" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>2</v>
       </c>
@@ -10924,19 +10946,19 @@
         <v>1066</v>
       </c>
       <c r="P102" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q102" s="46">
         <v>44182</v>
       </c>
       <c r="R102" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S102" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>2</v>
       </c>
@@ -10983,19 +11005,19 @@
         <v>1066</v>
       </c>
       <c r="P103" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q103" s="46">
         <v>44182</v>
       </c>
       <c r="R103" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>2</v>
       </c>
@@ -11042,7 +11064,7 @@
       <c r="R104" s="46"/>
       <c r="S104" s="21"/>
     </row>
-    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>2</v>
       </c>
@@ -11089,7 +11111,7 @@
       <c r="R105" s="46"/>
       <c r="S105" s="21"/>
     </row>
-    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="29">
         <v>2</v>
       </c>
@@ -11136,7 +11158,7 @@
       <c r="R106" s="46"/>
       <c r="S106" s="21"/>
     </row>
-    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>2</v>
       </c>
@@ -11183,7 +11205,7 @@
       <c r="R107" s="46"/>
       <c r="S107" s="21"/>
     </row>
-    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>2</v>
       </c>
@@ -11230,7 +11252,7 @@
       <c r="R108" s="46"/>
       <c r="S108" s="21"/>
     </row>
-    <row r="109" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
         <v>2</v>
       </c>
@@ -11277,7 +11299,7 @@
       <c r="R109" s="46"/>
       <c r="S109" s="21"/>
     </row>
-    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>2</v>
       </c>
@@ -11324,7 +11346,7 @@
       <c r="R110" s="46"/>
       <c r="S110" s="21"/>
     </row>
-    <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30">
         <v>2</v>
       </c>
@@ -11378,10 +11400,10 @@
       </c>
       <c r="R111" s="46"/>
       <c r="S111" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="29">
         <v>2</v>
       </c>
@@ -11428,7 +11450,7 @@
       <c r="R112" s="46"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="29">
         <v>2</v>
       </c>
@@ -11475,19 +11497,19 @@
         <v>1066</v>
       </c>
       <c r="P113" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q113" s="46">
         <v>44182</v>
       </c>
       <c r="R113" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="29">
         <v>2</v>
       </c>
@@ -11541,10 +11563,10 @@
       </c>
       <c r="R114" s="46"/>
       <c r="S114" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30">
         <v>2</v>
       </c>
@@ -11598,10 +11620,10 @@
       </c>
       <c r="R115" s="46"/>
       <c r="S115" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30">
         <v>2</v>
       </c>
@@ -11655,10 +11677,10 @@
       </c>
       <c r="R116" s="46"/>
       <c r="S116" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>2</v>
       </c>
@@ -11705,7 +11727,7 @@
       <c r="R117" s="46"/>
       <c r="S117" s="21"/>
     </row>
-    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="29">
         <v>2</v>
       </c>
@@ -11752,7 +11774,7 @@
       <c r="R118" s="46"/>
       <c r="S118" s="21"/>
     </row>
-    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="29">
         <v>2</v>
       </c>
@@ -11806,10 +11828,10 @@
       </c>
       <c r="R119" s="46"/>
       <c r="S119" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="29">
         <v>2</v>
       </c>
@@ -11863,10 +11885,10 @@
       </c>
       <c r="R120" s="46"/>
       <c r="S120" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>2</v>
       </c>
@@ -11920,10 +11942,10 @@
       </c>
       <c r="R121" s="46"/>
       <c r="S121" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>2</v>
       </c>
@@ -11977,10 +11999,10 @@
       </c>
       <c r="R122" s="46"/>
       <c r="S122" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>2</v>
       </c>
@@ -12034,10 +12056,10 @@
       </c>
       <c r="R123" s="46"/>
       <c r="S123" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="28">
         <v>2</v>
       </c>
@@ -12084,7 +12106,7 @@
       <c r="R124" s="46"/>
       <c r="S124" s="21"/>
     </row>
-    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>2</v>
       </c>
@@ -12138,10 +12160,10 @@
       </c>
       <c r="R125" s="46"/>
       <c r="S125" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>2</v>
       </c>
@@ -12188,19 +12210,19 @@
         <v>1066</v>
       </c>
       <c r="P126" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q126" s="46">
         <v>44182</v>
       </c>
       <c r="R126" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S126" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>2</v>
       </c>
@@ -12247,19 +12269,19 @@
         <v>1066</v>
       </c>
       <c r="P127" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q127" s="46">
         <v>44182</v>
       </c>
       <c r="R127" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S127" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>2</v>
       </c>
@@ -12306,19 +12328,19 @@
         <v>1066</v>
       </c>
       <c r="P128" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q128" s="46">
         <v>44182</v>
       </c>
       <c r="R128" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S128" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>2</v>
       </c>
@@ -12365,19 +12387,19 @@
         <v>1066</v>
       </c>
       <c r="P129" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q129" s="46">
         <v>44182</v>
       </c>
       <c r="R129" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>2</v>
       </c>
@@ -12424,19 +12446,19 @@
         <v>1066</v>
       </c>
       <c r="P130" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q130" s="46">
         <v>44182</v>
       </c>
       <c r="R130" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S130" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>2</v>
       </c>
@@ -12483,7 +12505,7 @@
       <c r="R131" s="46"/>
       <c r="S131" s="21"/>
     </row>
-    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>2</v>
       </c>
@@ -12532,7 +12554,7 @@
       <c r="R132" s="46"/>
       <c r="S132" s="21"/>
     </row>
-    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="28">
         <v>2</v>
       </c>
@@ -12579,7 +12601,7 @@
       <c r="R133" s="46"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>2</v>
       </c>
@@ -12626,19 +12648,19 @@
         <v>1066</v>
       </c>
       <c r="P134" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q134" s="46">
         <v>44182</v>
       </c>
       <c r="R134" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S134" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>2</v>
       </c>
@@ -12685,19 +12707,19 @@
         <v>1066</v>
       </c>
       <c r="P135" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q135" s="46">
         <v>44182</v>
       </c>
       <c r="R135" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S135" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>2</v>
       </c>
@@ -12744,7 +12766,7 @@
       <c r="R136" s="46"/>
       <c r="S136" s="21"/>
     </row>
-    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>2</v>
       </c>
@@ -12793,7 +12815,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -12840,7 +12862,7 @@
       <c r="R138" s="46"/>
       <c r="S138" s="21"/>
     </row>
-    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26">
         <v>5</v>
       </c>
@@ -12887,7 +12909,7 @@
       <c r="R139" s="46"/>
       <c r="S139" s="21"/>
     </row>
-    <row r="140" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="26">
         <v>5</v>
       </c>
@@ -12934,7 +12956,7 @@
       <c r="R140" s="46"/>
       <c r="S140" s="21"/>
     </row>
-    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="26">
         <v>5</v>
       </c>
@@ -12987,13 +13009,13 @@
         <v>44182</v>
       </c>
       <c r="R141" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S141" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="26">
         <v>5</v>
       </c>
@@ -13040,7 +13062,7 @@
       <c r="R142" s="46"/>
       <c r="S142" s="21"/>
     </row>
-    <row r="143" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="26">
         <v>5</v>
       </c>
@@ -13087,7 +13109,7 @@
       <c r="R143" s="46"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -13134,19 +13156,19 @@
         <v>1066</v>
       </c>
       <c r="P144" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q144" s="46">
         <v>44182</v>
       </c>
       <c r="R144" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S144" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>2</v>
       </c>
@@ -13193,7 +13215,7 @@
       <c r="R145" s="46"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>2</v>
       </c>
@@ -13240,19 +13262,19 @@
         <v>1066</v>
       </c>
       <c r="P146" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q146" s="46">
         <v>44182</v>
       </c>
       <c r="R146" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S146" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>2</v>
       </c>
@@ -13299,19 +13321,19 @@
         <v>1066</v>
       </c>
       <c r="P147" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q147" s="46">
         <v>44182</v>
       </c>
       <c r="R147" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S147" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>2</v>
       </c>
@@ -13358,19 +13380,19 @@
         <v>1066</v>
       </c>
       <c r="P148" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q148" s="46">
         <v>44166</v>
       </c>
       <c r="R148" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S148" s="21" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>2</v>
       </c>
@@ -13417,19 +13439,19 @@
         <v>1066</v>
       </c>
       <c r="P149" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q149" s="46">
         <v>44166</v>
       </c>
       <c r="R149" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S149" s="21" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>2</v>
       </c>
@@ -13476,19 +13498,19 @@
         <v>1066</v>
       </c>
       <c r="P150" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q150" s="46">
         <v>44166</v>
       </c>
       <c r="R150" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S150" s="21" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28">
         <v>2</v>
       </c>
@@ -13535,7 +13557,7 @@
       <c r="R151" s="46"/>
       <c r="S151" s="21"/>
     </row>
-    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="28">
         <v>2</v>
       </c>
@@ -13582,19 +13604,19 @@
         <v>1066</v>
       </c>
       <c r="P152" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q152" s="46">
         <v>44166</v>
       </c>
       <c r="R152" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S152" s="21" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>2</v>
       </c>
@@ -13641,7 +13663,7 @@
       <c r="R153" s="46"/>
       <c r="S153" s="21"/>
     </row>
-    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>2</v>
       </c>
@@ -13688,7 +13710,7 @@
       <c r="R154" s="46"/>
       <c r="S154" s="21"/>
     </row>
-    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>2</v>
       </c>
@@ -13729,7 +13751,7 @@
         <v>24</v>
       </c>
       <c r="N155" s="21" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="O155" s="25" t="s">
         <v>1066</v>
@@ -13739,7 +13761,7 @@
       <c r="R155" s="46"/>
       <c r="S155" s="21"/>
     </row>
-    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>2</v>
       </c>
@@ -13792,13 +13814,13 @@
         <v>44182</v>
       </c>
       <c r="R156" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S156" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="32">
         <v>2</v>
       </c>
@@ -13851,13 +13873,13 @@
         <v>44182</v>
       </c>
       <c r="R157" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S157" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="32">
         <v>2</v>
       </c>
@@ -13903,7 +13925,7 @@
       <c r="R158" s="46"/>
       <c r="S158" s="21"/>
     </row>
-    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="32">
         <v>2</v>
       </c>
@@ -13950,19 +13972,19 @@
         <v>1066</v>
       </c>
       <c r="P159" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q159" s="46">
         <v>44166</v>
       </c>
       <c r="R159" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S159" s="21" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="28">
         <v>2</v>
       </c>
@@ -14009,7 +14031,7 @@
       <c r="R160" s="46"/>
       <c r="S160" s="21"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="32">
         <v>2</v>
       </c>
@@ -14056,7 +14078,7 @@
       <c r="R161" s="46"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="32">
         <v>2</v>
       </c>
@@ -14103,19 +14125,19 @@
         <v>1066</v>
       </c>
       <c r="P162" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q162" s="46">
         <v>44182</v>
       </c>
       <c r="R162" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S162" s="21" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="32">
         <v>2</v>
       </c>
@@ -14162,7 +14184,7 @@
       <c r="R163" s="46"/>
       <c r="S163" s="21"/>
     </row>
-    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27">
         <v>5</v>
       </c>
@@ -14209,7 +14231,7 @@
       <c r="R164" s="46"/>
       <c r="S164" s="21"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27">
         <v>5</v>
       </c>
@@ -14256,7 +14278,7 @@
       <c r="R165" s="46"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27">
         <v>5</v>
       </c>
@@ -14303,19 +14325,19 @@
         <v>1066</v>
       </c>
       <c r="P166" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q166" s="46">
         <v>44166</v>
       </c>
       <c r="R166" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S166" s="21" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27">
         <v>5</v>
       </c>
@@ -14362,19 +14384,19 @@
         <v>1066</v>
       </c>
       <c r="P167" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q167" s="46">
         <v>44166</v>
       </c>
       <c r="R167" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S167" s="21" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27">
         <v>5</v>
       </c>
@@ -14427,13 +14449,13 @@
         <v>44182</v>
       </c>
       <c r="R168" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S168" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27">
         <v>5</v>
       </c>
@@ -14480,7 +14502,7 @@
       <c r="R169" s="46"/>
       <c r="S169" s="21"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="26">
         <v>5</v>
       </c>
@@ -14527,19 +14549,19 @@
         <v>1066</v>
       </c>
       <c r="P170" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q170" s="46">
         <v>44182</v>
       </c>
       <c r="R170" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S170" s="21" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27">
         <v>5</v>
       </c>
@@ -14586,19 +14608,19 @@
         <v>1066</v>
       </c>
       <c r="P171" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q171" s="46">
         <v>44182</v>
       </c>
       <c r="R171" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S171" s="21" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27">
         <v>5</v>
       </c>
@@ -14645,19 +14667,19 @@
         <v>1066</v>
       </c>
       <c r="P172" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q172" s="46">
         <v>44182</v>
       </c>
       <c r="R172" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S172" s="21" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27">
         <v>5</v>
       </c>
@@ -14704,7 +14726,7 @@
       <c r="R173" s="46"/>
       <c r="S173" s="21"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27">
         <v>5</v>
       </c>
@@ -14751,7 +14773,7 @@
       <c r="R174" s="46"/>
       <c r="S174" s="21"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27">
         <v>5</v>
       </c>
@@ -14798,7 +14820,7 @@
       <c r="R175" s="46"/>
       <c r="S175" s="21"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27">
         <v>5</v>
       </c>
@@ -14845,7 +14867,7 @@
       <c r="R176" s="46"/>
       <c r="S176" s="21"/>
     </row>
-    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27">
         <v>5</v>
       </c>
@@ -14892,7 +14914,7 @@
       <c r="R177" s="46"/>
       <c r="S177" s="21"/>
     </row>
-    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27">
         <v>5</v>
       </c>
@@ -14939,7 +14961,7 @@
       <c r="R178" s="46"/>
       <c r="S178" s="21"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="27">
         <v>5</v>
       </c>
@@ -14986,7 +15008,7 @@
       <c r="R179" s="46"/>
       <c r="S179" s="21"/>
     </row>
-    <row r="180" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27">
         <v>5</v>
       </c>
@@ -15033,7 +15055,7 @@
       <c r="R180" s="46"/>
       <c r="S180" s="21"/>
     </row>
-    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27">
         <v>5</v>
       </c>
@@ -15080,7 +15102,7 @@
       <c r="R181" s="46"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="27">
         <v>5</v>
       </c>
@@ -15127,7 +15149,7 @@
       <c r="R182" s="46"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="27">
         <v>5</v>
       </c>
@@ -15174,7 +15196,7 @@
       <c r="R183" s="46"/>
       <c r="S183" s="21"/>
     </row>
-    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="27">
         <v>5</v>
       </c>
@@ -15221,7 +15243,7 @@
       <c r="R184" s="46"/>
       <c r="S184" s="21"/>
     </row>
-    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27">
         <v>5</v>
       </c>
@@ -15268,7 +15290,7 @@
       <c r="R185" s="46"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27">
         <v>5</v>
       </c>
@@ -15315,7 +15337,7 @@
       <c r="R186" s="46"/>
       <c r="S186" s="21"/>
     </row>
-    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="27">
         <v>5</v>
       </c>
@@ -15362,7 +15384,7 @@
       <c r="R187" s="46"/>
       <c r="S187" s="21"/>
     </row>
-    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="27">
         <v>5</v>
       </c>
@@ -15409,7 +15431,7 @@
       <c r="R188" s="46"/>
       <c r="S188" s="21"/>
     </row>
-    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="27">
         <v>5</v>
       </c>
@@ -15456,7 +15478,7 @@
       <c r="R189" s="46"/>
       <c r="S189" s="21"/>
     </row>
-    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="27">
         <v>5</v>
       </c>
@@ -15503,7 +15525,7 @@
       <c r="R190" s="46"/>
       <c r="S190" s="21"/>
     </row>
-    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="27">
         <v>5</v>
       </c>
@@ -15550,7 +15572,7 @@
       <c r="R191" s="46"/>
       <c r="S191" s="21"/>
     </row>
-    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="27">
         <v>5</v>
       </c>
@@ -15597,7 +15619,7 @@
       <c r="R192" s="46"/>
       <c r="S192" s="21"/>
     </row>
-    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="27">
         <v>5</v>
       </c>
@@ -15644,7 +15666,7 @@
       <c r="R193" s="46"/>
       <c r="S193" s="21"/>
     </row>
-    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="27">
         <v>5</v>
       </c>
@@ -15691,7 +15713,7 @@
       <c r="R194" s="46"/>
       <c r="S194" s="21"/>
     </row>
-    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="27">
         <v>5</v>
       </c>
@@ -15738,7 +15760,7 @@
       <c r="R195" s="46"/>
       <c r="S195" s="21"/>
     </row>
-    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="27">
         <v>5</v>
       </c>
@@ -15785,7 +15807,7 @@
       <c r="R196" s="46"/>
       <c r="S196" s="21"/>
     </row>
-    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="27">
         <v>5</v>
       </c>
@@ -15832,7 +15854,7 @@
       <c r="R197" s="46"/>
       <c r="S197" s="21"/>
     </row>
-    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="27">
         <v>5</v>
       </c>
@@ -15879,7 +15901,7 @@
       <c r="R198" s="46"/>
       <c r="S198" s="21"/>
     </row>
-    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="27">
         <v>5</v>
       </c>
@@ -15926,7 +15948,7 @@
       <c r="R199" s="46"/>
       <c r="S199" s="21"/>
     </row>
-    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="27">
         <v>5</v>
       </c>
@@ -15973,7 +15995,7 @@
       <c r="R200" s="46"/>
       <c r="S200" s="21"/>
     </row>
-    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="27">
         <v>5</v>
       </c>
@@ -16020,7 +16042,7 @@
       <c r="R201" s="46"/>
       <c r="S201" s="21"/>
     </row>
-    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="27">
         <v>5</v>
       </c>
@@ -16067,7 +16089,7 @@
       <c r="R202" s="46"/>
       <c r="S202" s="21"/>
     </row>
-    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="27">
         <v>5</v>
       </c>
@@ -16114,7 +16136,7 @@
       <c r="R203" s="46"/>
       <c r="S203" s="21"/>
     </row>
-    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="27">
         <v>5</v>
       </c>
@@ -16161,7 +16183,7 @@
       <c r="R204" s="46"/>
       <c r="S204" s="21"/>
     </row>
-    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="27">
         <v>5</v>
       </c>
@@ -16208,7 +16230,7 @@
       <c r="R205" s="46"/>
       <c r="S205" s="21"/>
     </row>
-    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="27">
         <v>5</v>
       </c>
@@ -16255,7 +16277,7 @@
       <c r="R206" s="46"/>
       <c r="S206" s="21"/>
     </row>
-    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="27">
         <v>5</v>
       </c>
@@ -16302,7 +16324,7 @@
       <c r="R207" s="46"/>
       <c r="S207" s="21"/>
     </row>
-    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="27">
         <v>5</v>
       </c>
@@ -16349,7 +16371,7 @@
       <c r="R208" s="46"/>
       <c r="S208" s="21"/>
     </row>
-    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27">
         <v>5</v>
       </c>
@@ -16396,7 +16418,7 @@
       <c r="R209" s="46"/>
       <c r="S209" s="21"/>
     </row>
-    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27">
         <v>5</v>
       </c>
@@ -16443,7 +16465,7 @@
       <c r="R210" s="46"/>
       <c r="S210" s="21"/>
     </row>
-    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="27">
         <v>5</v>
       </c>
@@ -16490,7 +16512,7 @@
       <c r="R211" s="46"/>
       <c r="S211" s="21"/>
     </row>
-    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="27">
         <v>5</v>
       </c>
@@ -16537,7 +16559,7 @@
       <c r="R212" s="46"/>
       <c r="S212" s="21"/>
     </row>
-    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="27">
         <v>5</v>
       </c>
@@ -16584,7 +16606,7 @@
       <c r="R213" s="46"/>
       <c r="S213" s="21"/>
     </row>
-    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="27">
         <v>5</v>
       </c>
@@ -16631,7 +16653,7 @@
       <c r="R214" s="46"/>
       <c r="S214" s="21"/>
     </row>
-    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="27">
         <v>5</v>
       </c>
@@ -16678,7 +16700,7 @@
       <c r="R215" s="46"/>
       <c r="S215" s="21"/>
     </row>
-    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="27">
         <v>5</v>
       </c>
@@ -16725,7 +16747,7 @@
       <c r="R216" s="46"/>
       <c r="S216" s="21"/>
     </row>
-    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="27">
         <v>5</v>
       </c>
@@ -16772,7 +16794,7 @@
       <c r="R217" s="46"/>
       <c r="S217" s="21"/>
     </row>
-    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="27">
         <v>5</v>
       </c>
@@ -16819,7 +16841,7 @@
       <c r="R218" s="46"/>
       <c r="S218" s="21"/>
     </row>
-    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27">
         <v>5</v>
       </c>
@@ -16866,11 +16888,11 @@
       <c r="R219" s="46"/>
       <c r="S219" s="21"/>
     </row>
-    <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="27">
         <v>1</v>
       </c>
-      <c r="B220" s="49" t="s">
+      <c r="B220" s="48" t="s">
         <v>790</v>
       </c>
       <c r="C220" s="21" t="s">
@@ -16920,10 +16942,10 @@
       </c>
       <c r="R220" s="46"/>
       <c r="S220" s="21" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27">
         <v>5</v>
       </c>
@@ -16970,7 +16992,7 @@
       <c r="R221" s="46"/>
       <c r="S221" s="21"/>
     </row>
-    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="29">
         <v>8</v>
       </c>
@@ -17017,17 +17039,17 @@
         <v>1066</v>
       </c>
       <c r="P222" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q222" s="46">
         <v>44166</v>
       </c>
       <c r="R222" s="46"/>
       <c r="S222" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="29">
         <v>8</v>
       </c>
@@ -17074,17 +17096,17 @@
         <v>1066</v>
       </c>
       <c r="P223" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q223" s="46">
         <v>44166</v>
       </c>
       <c r="R223" s="46"/>
       <c r="S223" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="29">
         <v>8</v>
       </c>
@@ -17131,17 +17153,17 @@
         <v>1066</v>
       </c>
       <c r="P224" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q224" s="46">
         <v>44166</v>
       </c>
       <c r="R224" s="46"/>
       <c r="S224" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="29">
         <v>8</v>
       </c>
@@ -17188,17 +17210,17 @@
         <v>1066</v>
       </c>
       <c r="P225" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q225" s="46">
         <v>44166</v>
       </c>
       <c r="R225" s="46"/>
       <c r="S225" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="29">
         <v>8</v>
       </c>
@@ -17245,17 +17267,17 @@
         <v>1066</v>
       </c>
       <c r="P226" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q226" s="46">
         <v>44166</v>
       </c>
       <c r="R226" s="46"/>
       <c r="S226" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="29">
         <v>8</v>
       </c>
@@ -17302,17 +17324,17 @@
         <v>1066</v>
       </c>
       <c r="P227" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q227" s="46">
         <v>44166</v>
       </c>
       <c r="R227" s="46"/>
       <c r="S227" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="29">
         <v>8</v>
       </c>
@@ -17359,17 +17381,17 @@
         <v>1066</v>
       </c>
       <c r="P228" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q228" s="46">
         <v>44166</v>
       </c>
       <c r="R228" s="46"/>
       <c r="S228" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="29">
         <v>8</v>
       </c>
@@ -17416,17 +17438,17 @@
         <v>1066</v>
       </c>
       <c r="P229" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q229" s="46">
         <v>44166</v>
       </c>
       <c r="R229" s="46"/>
       <c r="S229" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="29">
         <v>8</v>
       </c>
@@ -17473,17 +17495,17 @@
         <v>1066</v>
       </c>
       <c r="P230" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q230" s="46">
         <v>44166</v>
       </c>
       <c r="R230" s="46"/>
       <c r="S230" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="29">
         <v>8</v>
       </c>
@@ -17530,17 +17552,17 @@
         <v>1066</v>
       </c>
       <c r="P231" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q231" s="46">
         <v>44166</v>
       </c>
       <c r="R231" s="46"/>
       <c r="S231" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="29">
         <v>8</v>
       </c>
@@ -17587,17 +17609,17 @@
         <v>1066</v>
       </c>
       <c r="P232" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q232" s="46">
         <v>44166</v>
       </c>
       <c r="R232" s="46"/>
       <c r="S232" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="29">
         <v>8</v>
       </c>
@@ -17644,17 +17666,17 @@
         <v>1066</v>
       </c>
       <c r="P233" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q233" s="46">
         <v>44166</v>
       </c>
       <c r="R233" s="46"/>
       <c r="S233" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="29">
         <v>8</v>
       </c>
@@ -17701,17 +17723,17 @@
         <v>1066</v>
       </c>
       <c r="P234" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q234" s="46">
         <v>44166</v>
       </c>
       <c r="R234" s="46"/>
       <c r="S234" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="29">
         <v>8</v>
       </c>
@@ -17758,17 +17780,17 @@
         <v>1066</v>
       </c>
       <c r="P235" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q235" s="46">
         <v>44166</v>
       </c>
       <c r="R235" s="46"/>
       <c r="S235" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="29">
         <v>8</v>
       </c>
@@ -17815,17 +17837,17 @@
         <v>1066</v>
       </c>
       <c r="P236" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q236" s="46">
         <v>44166</v>
       </c>
       <c r="R236" s="46"/>
       <c r="S236" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="29">
         <v>8</v>
       </c>
@@ -17872,17 +17894,17 @@
         <v>1066</v>
       </c>
       <c r="P237" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q237" s="46">
         <v>44166</v>
       </c>
       <c r="R237" s="46"/>
       <c r="S237" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="29">
         <v>8</v>
       </c>
@@ -17929,17 +17951,17 @@
         <v>1066</v>
       </c>
       <c r="P238" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q238" s="46">
         <v>44166</v>
       </c>
       <c r="R238" s="46"/>
       <c r="S238" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="29">
         <v>8</v>
       </c>
@@ -17986,17 +18008,17 @@
         <v>1066</v>
       </c>
       <c r="P239" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q239" s="46">
         <v>44166</v>
       </c>
       <c r="R239" s="46"/>
       <c r="S239" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="29">
         <v>8</v>
       </c>
@@ -18043,17 +18065,17 @@
         <v>1066</v>
       </c>
       <c r="P240" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q240" s="46">
         <v>44166</v>
       </c>
       <c r="R240" s="46"/>
       <c r="S240" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="29">
         <v>8</v>
       </c>
@@ -18100,17 +18122,17 @@
         <v>1066</v>
       </c>
       <c r="P241" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q241" s="46">
         <v>44166</v>
       </c>
       <c r="R241" s="46"/>
       <c r="S241" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="29">
         <v>8</v>
       </c>
@@ -18157,17 +18179,17 @@
         <v>1066</v>
       </c>
       <c r="P242" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q242" s="46">
         <v>44166</v>
       </c>
       <c r="R242" s="46"/>
       <c r="S242" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="29">
         <v>8</v>
       </c>
@@ -18214,17 +18236,17 @@
         <v>1066</v>
       </c>
       <c r="P243" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q243" s="46">
         <v>44166</v>
       </c>
       <c r="R243" s="46"/>
       <c r="S243" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="29">
         <v>8</v>
       </c>
@@ -18271,17 +18293,17 @@
         <v>1066</v>
       </c>
       <c r="P244" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q244" s="46">
         <v>44166</v>
       </c>
       <c r="R244" s="46"/>
       <c r="S244" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="29">
         <v>8</v>
       </c>
@@ -18328,17 +18350,17 @@
         <v>1066</v>
       </c>
       <c r="P245" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q245" s="46">
         <v>44166</v>
       </c>
       <c r="R245" s="46"/>
       <c r="S245" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="29">
         <v>8</v>
       </c>
@@ -18385,17 +18407,17 @@
         <v>1066</v>
       </c>
       <c r="P246" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q246" s="46">
         <v>44166</v>
       </c>
       <c r="R246" s="46"/>
       <c r="S246" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="29">
         <v>8</v>
       </c>
@@ -18442,17 +18464,17 @@
         <v>1066</v>
       </c>
       <c r="P247" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q247" s="46">
         <v>44166</v>
       </c>
       <c r="R247" s="46"/>
       <c r="S247" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="29">
         <v>8</v>
       </c>
@@ -18499,17 +18521,17 @@
         <v>1066</v>
       </c>
       <c r="P248" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q248" s="46">
         <v>44166</v>
       </c>
       <c r="R248" s="46"/>
       <c r="S248" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="29">
         <v>8</v>
       </c>
@@ -18556,17 +18578,17 @@
         <v>1066</v>
       </c>
       <c r="P249" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q249" s="46">
         <v>44166</v>
       </c>
       <c r="R249" s="46"/>
       <c r="S249" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="29">
         <v>8</v>
       </c>
@@ -18613,17 +18635,17 @@
         <v>1066</v>
       </c>
       <c r="P250" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q250" s="46">
         <v>44166</v>
       </c>
       <c r="R250" s="46"/>
       <c r="S250" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="29">
         <v>8</v>
       </c>
@@ -18670,17 +18692,17 @@
         <v>1066</v>
       </c>
       <c r="P251" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q251" s="46">
         <v>44166</v>
       </c>
       <c r="R251" s="46"/>
       <c r="S251" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="29">
         <v>8</v>
       </c>
@@ -18727,17 +18749,17 @@
         <v>1066</v>
       </c>
       <c r="P252" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q252" s="46">
         <v>44166</v>
       </c>
       <c r="R252" s="46"/>
       <c r="S252" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="29">
         <v>8</v>
       </c>
@@ -18784,17 +18806,17 @@
         <v>1066</v>
       </c>
       <c r="P253" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q253" s="46">
         <v>44166</v>
       </c>
       <c r="R253" s="46"/>
       <c r="S253" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="28">
         <v>8</v>
       </c>
@@ -18841,17 +18863,17 @@
         <v>1066</v>
       </c>
       <c r="P254" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q254" s="46">
         <v>44166</v>
       </c>
       <c r="R254" s="46"/>
       <c r="S254" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="29">
         <v>8</v>
       </c>
@@ -18898,17 +18920,17 @@
         <v>1066</v>
       </c>
       <c r="P255" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q255" s="46">
         <v>44166</v>
       </c>
       <c r="R255" s="46"/>
       <c r="S255" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="29">
         <v>8</v>
       </c>
@@ -18955,17 +18977,17 @@
         <v>1066</v>
       </c>
       <c r="P256" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q256" s="46">
         <v>44166</v>
       </c>
       <c r="R256" s="46"/>
       <c r="S256" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="29">
         <v>8</v>
       </c>
@@ -19012,17 +19034,17 @@
         <v>1066</v>
       </c>
       <c r="P257" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q257" s="46">
         <v>44166</v>
       </c>
       <c r="R257" s="46"/>
       <c r="S257" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="29">
         <v>8</v>
       </c>
@@ -19069,17 +19091,17 @@
         <v>1066</v>
       </c>
       <c r="P258" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q258" s="46">
         <v>44166</v>
       </c>
       <c r="R258" s="46"/>
       <c r="S258" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="29">
         <v>8</v>
       </c>
@@ -19126,17 +19148,17 @@
         <v>1066</v>
       </c>
       <c r="P259" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q259" s="46">
         <v>44166</v>
       </c>
       <c r="R259" s="46"/>
       <c r="S259" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="29">
         <v>8</v>
       </c>
@@ -19183,17 +19205,17 @@
         <v>1066</v>
       </c>
       <c r="P260" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q260" s="46">
         <v>44166</v>
       </c>
       <c r="R260" s="46"/>
       <c r="S260" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="29">
         <v>8</v>
       </c>
@@ -19240,17 +19262,17 @@
         <v>1066</v>
       </c>
       <c r="P261" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q261" s="46">
         <v>44166</v>
       </c>
       <c r="R261" s="46"/>
       <c r="S261" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="29">
         <v>8</v>
       </c>
@@ -19297,17 +19319,17 @@
         <v>1066</v>
       </c>
       <c r="P262" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q262" s="46">
         <v>44166</v>
       </c>
       <c r="R262" s="46"/>
       <c r="S262" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="29">
         <v>8</v>
       </c>
@@ -19354,17 +19376,17 @@
         <v>1066</v>
       </c>
       <c r="P263" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q263" s="46">
         <v>44166</v>
       </c>
       <c r="R263" s="46"/>
       <c r="S263" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="28">
         <v>8</v>
       </c>
@@ -19411,17 +19433,17 @@
         <v>1066</v>
       </c>
       <c r="P264" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q264" s="46">
         <v>44166</v>
       </c>
       <c r="R264" s="46"/>
       <c r="S264" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="29">
         <v>8</v>
       </c>
@@ -19468,17 +19490,17 @@
         <v>1066</v>
       </c>
       <c r="P265" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q265" s="46">
         <v>44166</v>
       </c>
       <c r="R265" s="46"/>
       <c r="S265" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="29">
         <v>8</v>
       </c>
@@ -19525,17 +19547,17 @@
         <v>1066</v>
       </c>
       <c r="P266" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q266" s="46">
         <v>44166</v>
       </c>
       <c r="R266" s="46"/>
       <c r="S266" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="29">
         <v>8</v>
       </c>
@@ -19582,17 +19604,17 @@
         <v>1066</v>
       </c>
       <c r="P267" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q267" s="46">
         <v>44166</v>
       </c>
       <c r="R267" s="46"/>
       <c r="S267" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="29">
         <v>8</v>
       </c>
@@ -19639,7 +19661,7 @@
       <c r="R268" s="46"/>
       <c r="S268" s="21"/>
     </row>
-    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="29">
         <v>8</v>
       </c>
@@ -19692,13 +19714,13 @@
         <v>44182</v>
       </c>
       <c r="R269" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S269" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="29">
         <v>8</v>
       </c>
@@ -19751,13 +19773,13 @@
         <v>44182</v>
       </c>
       <c r="R270" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S270" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="29">
         <v>8</v>
       </c>
@@ -19810,13 +19832,13 @@
         <v>44182</v>
       </c>
       <c r="R271" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S271" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="29">
         <v>8</v>
       </c>
@@ -19863,17 +19885,17 @@
         <v>1066</v>
       </c>
       <c r="P272" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q272" s="46">
         <v>44166</v>
       </c>
       <c r="R272" s="46"/>
       <c r="S272" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="29">
         <v>8</v>
       </c>
@@ -19920,17 +19942,17 @@
         <v>1066</v>
       </c>
       <c r="P273" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q273" s="46">
         <v>44166</v>
       </c>
       <c r="R273" s="46"/>
       <c r="S273" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="29">
         <v>8</v>
       </c>
@@ -19977,7 +19999,7 @@
       <c r="R274" s="46"/>
       <c r="S274" s="21"/>
     </row>
-    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="29">
         <v>8</v>
       </c>
@@ -20024,7 +20046,7 @@
       <c r="R275" s="46"/>
       <c r="S275" s="21"/>
     </row>
-    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="29">
         <v>8</v>
       </c>
@@ -20071,17 +20093,17 @@
         <v>1066</v>
       </c>
       <c r="P276" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q276" s="46">
         <v>44166</v>
       </c>
       <c r="R276" s="46"/>
       <c r="S276" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="29">
         <v>8</v>
       </c>
@@ -20128,17 +20150,17 @@
         <v>1066</v>
       </c>
       <c r="P277" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q277" s="46">
         <v>44166</v>
       </c>
       <c r="R277" s="46"/>
       <c r="S277" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="29">
         <v>8</v>
       </c>
@@ -20185,17 +20207,17 @@
         <v>1066</v>
       </c>
       <c r="P278" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q278" s="46">
         <v>44166</v>
       </c>
       <c r="R278" s="46"/>
       <c r="S278" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="29">
         <v>8</v>
       </c>
@@ -20242,17 +20264,17 @@
         <v>1066</v>
       </c>
       <c r="P279" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q279" s="46">
         <v>44166</v>
       </c>
       <c r="R279" s="46"/>
       <c r="S279" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="29">
         <v>8</v>
       </c>
@@ -20299,7 +20321,7 @@
       <c r="R280" s="46"/>
       <c r="S280" s="21"/>
     </row>
-    <row r="281" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="29">
         <v>8</v>
       </c>
@@ -20346,7 +20368,7 @@
       <c r="R281" s="46"/>
       <c r="S281" s="21"/>
     </row>
-    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="29">
         <v>8</v>
       </c>
@@ -20393,7 +20415,7 @@
       <c r="R282" s="46"/>
       <c r="S282" s="21"/>
     </row>
-    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="29">
         <v>8</v>
       </c>
@@ -20440,7 +20462,7 @@
       <c r="R283" s="46"/>
       <c r="S283" s="21"/>
     </row>
-    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="29">
         <v>8</v>
       </c>
@@ -20487,17 +20509,17 @@
         <v>1066</v>
       </c>
       <c r="P284" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q284" s="46">
         <v>44166</v>
       </c>
       <c r="R284" s="46"/>
       <c r="S284" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="29">
         <v>8</v>
       </c>
@@ -20544,7 +20566,7 @@
       <c r="R285" s="46"/>
       <c r="S285" s="21"/>
     </row>
-    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="29">
         <v>8</v>
       </c>
@@ -20591,7 +20613,7 @@
       <c r="R286" s="46"/>
       <c r="S286" s="21"/>
     </row>
-    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="29">
         <v>8</v>
       </c>
@@ -20638,7 +20660,7 @@
       <c r="R287" s="46"/>
       <c r="S287" s="21"/>
     </row>
-    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="29">
         <v>8</v>
       </c>
@@ -20685,17 +20707,17 @@
         <v>1066</v>
       </c>
       <c r="P288" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q288" s="46">
         <v>44166</v>
       </c>
       <c r="R288" s="46"/>
       <c r="S288" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="29">
         <v>8</v>
       </c>
@@ -20742,17 +20764,17 @@
         <v>1066</v>
       </c>
       <c r="P289" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q289" s="46">
         <v>44166</v>
       </c>
       <c r="R289" s="46"/>
       <c r="S289" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="29">
         <v>8</v>
       </c>
@@ -20799,17 +20821,17 @@
         <v>1066</v>
       </c>
       <c r="P290" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q290" s="46">
         <v>44166</v>
       </c>
       <c r="R290" s="46"/>
       <c r="S290" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="29">
         <v>8</v>
       </c>
@@ -20856,17 +20878,17 @@
         <v>1066</v>
       </c>
       <c r="P291" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q291" s="46">
         <v>44166</v>
       </c>
       <c r="R291" s="46"/>
       <c r="S291" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="29">
         <v>8</v>
       </c>
@@ -20913,17 +20935,17 @@
         <v>1066</v>
       </c>
       <c r="P292" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q292" s="46">
         <v>44166</v>
       </c>
       <c r="R292" s="46"/>
       <c r="S292" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="29">
         <v>8</v>
       </c>
@@ -20970,17 +20992,17 @@
         <v>1066</v>
       </c>
       <c r="P293" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q293" s="46">
         <v>44166</v>
       </c>
       <c r="R293" s="46"/>
       <c r="S293" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="29">
         <v>8</v>
       </c>
@@ -21027,17 +21049,17 @@
         <v>1066</v>
       </c>
       <c r="P294" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q294" s="46">
         <v>44166</v>
       </c>
       <c r="R294" s="46"/>
       <c r="S294" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="29">
         <v>8</v>
       </c>
@@ -21090,13 +21112,13 @@
         <v>44182</v>
       </c>
       <c r="R295" s="46" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S295" s="21" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="27">
         <v>8</v>
       </c>
@@ -21143,17 +21165,17 @@
         <v>1066</v>
       </c>
       <c r="P296" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q296" s="46">
         <v>44166</v>
       </c>
       <c r="R296" s="46"/>
       <c r="S296" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="29">
         <v>8</v>
       </c>
@@ -21200,7 +21222,7 @@
       <c r="R297" s="46"/>
       <c r="S297" s="21"/>
     </row>
-    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="29">
         <v>8</v>
       </c>
@@ -21247,7 +21269,7 @@
       <c r="R298" s="46"/>
       <c r="S298" s="21"/>
     </row>
-    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="29">
         <v>8</v>
       </c>
@@ -21294,7 +21316,7 @@
       <c r="R299" s="46"/>
       <c r="S299" s="21"/>
     </row>
-    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="29">
         <v>8</v>
       </c>
@@ -21341,7 +21363,7 @@
       <c r="R300" s="46"/>
       <c r="S300" s="21"/>
     </row>
-    <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="29">
         <v>8</v>
       </c>
@@ -21392,7 +21414,7 @@
       <c r="R301" s="46"/>
       <c r="S301" s="21"/>
     </row>
-    <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="29">
         <v>8</v>
       </c>
@@ -21446,10 +21468,10 @@
       </c>
       <c r="R302" s="46"/>
       <c r="S302" s="21" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="29">
         <v>8</v>
       </c>
@@ -21503,10 +21525,10 @@
       </c>
       <c r="R303" s="46"/>
       <c r="S303" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="29">
         <v>8</v>
       </c>
@@ -21553,17 +21575,17 @@
         <v>1066</v>
       </c>
       <c r="P304" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q304" s="46">
         <v>44182</v>
       </c>
       <c r="R304" s="46"/>
       <c r="S304" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="29">
         <v>8</v>
       </c>
@@ -21610,17 +21632,17 @@
         <v>1066</v>
       </c>
       <c r="P305" s="21" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q305" s="46">
         <v>44182</v>
       </c>
       <c r="R305" s="46"/>
       <c r="S305" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="29">
         <v>8</v>
       </c>
@@ -21667,7 +21689,7 @@
       <c r="R306" s="46"/>
       <c r="S306" s="21"/>
     </row>
-    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="29">
         <v>8</v>
       </c>
@@ -21714,7 +21736,7 @@
       <c r="R307" s="46"/>
       <c r="S307" s="21"/>
     </row>
-    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="29">
         <v>8</v>
       </c>
@@ -21761,7 +21783,7 @@
       <c r="R308" s="46"/>
       <c r="S308" s="21"/>
     </row>
-    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="29">
         <v>8</v>
       </c>
@@ -21808,7 +21830,7 @@
       <c r="R309" s="46"/>
       <c r="S309" s="21"/>
     </row>
-    <row r="310" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="29">
         <v>8</v>
       </c>
@@ -21855,7 +21877,7 @@
       <c r="R310" s="46"/>
       <c r="S310" s="21"/>
     </row>
-    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="29">
         <v>8</v>
       </c>
@@ -21902,7 +21924,7 @@
       <c r="R311" s="46"/>
       <c r="S311" s="21"/>
     </row>
-    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="29">
         <v>8</v>
       </c>
@@ -21949,7 +21971,7 @@
       <c r="R312" s="46"/>
       <c r="S312" s="21"/>
     </row>
-    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="29">
         <v>8</v>
       </c>
@@ -21996,7 +22018,7 @@
       <c r="R313" s="46"/>
       <c r="S313" s="21"/>
     </row>
-    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="29">
         <v>8</v>
       </c>
@@ -22043,7 +22065,7 @@
       <c r="R314" s="46"/>
       <c r="S314" s="21"/>
     </row>
-    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="29">
         <v>8</v>
       </c>
@@ -22090,7 +22112,7 @@
       <c r="R315" s="46"/>
       <c r="S315" s="21"/>
     </row>
-    <row r="316" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="29">
         <v>8</v>
       </c>
@@ -22144,10 +22166,10 @@
       </c>
       <c r="R316" s="46"/>
       <c r="S316" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="29">
         <v>8</v>
       </c>
@@ -22201,10 +22223,10 @@
       </c>
       <c r="R317" s="46"/>
       <c r="S317" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="27">
         <v>8</v>
       </c>
@@ -22258,10 +22280,10 @@
       </c>
       <c r="R318" s="46"/>
       <c r="S318" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="27">
         <v>8</v>
       </c>
@@ -22315,10 +22337,10 @@
       </c>
       <c r="R319" s="46"/>
       <c r="S319" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="27">
         <v>8</v>
       </c>
@@ -22372,10 +22394,10 @@
       </c>
       <c r="R320" s="46"/>
       <c r="S320" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="27">
         <v>8</v>
       </c>
@@ -22422,7 +22444,7 @@
       <c r="R321" s="46"/>
       <c r="S321" s="21"/>
     </row>
-    <row r="322" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="27">
         <v>8</v>
       </c>
@@ -22469,7 +22491,7 @@
       <c r="R322" s="46"/>
       <c r="S322" s="21"/>
     </row>
-    <row r="323" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="27">
         <v>8</v>
       </c>
@@ -22523,10 +22545,10 @@
       </c>
       <c r="R323" s="46"/>
       <c r="S323" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="27">
         <v>8</v>
       </c>
@@ -22573,7 +22595,7 @@
       <c r="R324" s="46"/>
       <c r="S324" s="21"/>
     </row>
-    <row r="325" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="27">
         <v>8</v>
       </c>
@@ -22624,7 +22646,7 @@
       <c r="R325" s="46"/>
       <c r="S325" s="21"/>
     </row>
-    <row r="326" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="27">
         <v>8</v>
       </c>
@@ -22678,10 +22700,10 @@
       </c>
       <c r="R326" s="46"/>
       <c r="S326" s="21" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="27">
         <v>8</v>
       </c>
@@ -22735,10 +22757,10 @@
       </c>
       <c r="R327" s="46"/>
       <c r="S327" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="27">
         <v>8</v>
       </c>
@@ -22789,7 +22811,7 @@
       <c r="R328" s="46"/>
       <c r="S328" s="21"/>
     </row>
-    <row r="329" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="27">
         <v>8</v>
       </c>
@@ -22843,10 +22865,10 @@
       </c>
       <c r="R329" s="46"/>
       <c r="S329" s="21" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="330" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="27">
         <v>8</v>
       </c>
@@ -22900,10 +22922,10 @@
       </c>
       <c r="R330" s="46"/>
       <c r="S330" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="331" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="27">
         <v>8</v>
       </c>
@@ -22954,7 +22976,7 @@
       <c r="R331" s="46"/>
       <c r="S331" s="21"/>
     </row>
-    <row r="332" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="27">
         <v>8</v>
       </c>
@@ -23008,10 +23030,10 @@
       </c>
       <c r="R332" s="46"/>
       <c r="S332" s="21" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="333" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="27">
         <v>8</v>
       </c>
@@ -23065,10 +23087,10 @@
       </c>
       <c r="R333" s="46"/>
       <c r="S333" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="334" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="27">
         <v>8</v>
       </c>
@@ -23122,10 +23144,10 @@
       </c>
       <c r="R334" s="46"/>
       <c r="S334" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="27">
         <v>8</v>
       </c>
@@ -23179,10 +23201,10 @@
       </c>
       <c r="R335" s="46"/>
       <c r="S335" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="27">
         <v>8</v>
       </c>
@@ -23236,10 +23258,10 @@
       </c>
       <c r="R336" s="46"/>
       <c r="S336" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="337" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="37">
         <v>2</v>
       </c>
@@ -23286,7 +23308,7 @@
       <c r="R337" s="46"/>
       <c r="S337" s="21"/>
     </row>
-    <row r="338" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="37">
         <v>2</v>
       </c>
@@ -23333,7 +23355,7 @@
       <c r="R338" s="46"/>
       <c r="S338" s="21"/>
     </row>
-    <row r="339" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="37">
         <v>2</v>
       </c>
@@ -23380,7 +23402,7 @@
       <c r="R339" s="46"/>
       <c r="S339" s="21"/>
     </row>
-    <row r="340" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="37">
         <v>2</v>
       </c>
@@ -23427,7 +23449,7 @@
       <c r="R340" s="46"/>
       <c r="S340" s="21"/>
     </row>
-    <row r="341" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="37">
         <v>2</v>
       </c>
@@ -23474,7 +23496,7 @@
       <c r="R341" s="46"/>
       <c r="S341" s="21"/>
     </row>
-    <row r="342" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="37">
         <v>2</v>
       </c>
@@ -23521,7 +23543,7 @@
       <c r="R342" s="46"/>
       <c r="S342" s="21"/>
     </row>
-    <row r="343" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="37">
         <v>2</v>
       </c>
@@ -23568,7 +23590,7 @@
       <c r="R343" s="46"/>
       <c r="S343" s="21"/>
     </row>
-    <row r="344" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="20">
         <v>2</v>
       </c>
@@ -23615,7 +23637,7 @@
       <c r="R344" s="46"/>
       <c r="S344" s="21"/>
     </row>
-    <row r="345" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="37">
         <v>2</v>
       </c>
@@ -23662,7 +23684,7 @@
       <c r="R345" s="46"/>
       <c r="S345" s="21"/>
     </row>
-    <row r="346" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="37">
         <v>2</v>
       </c>
@@ -23709,7 +23731,7 @@
       <c r="R346" s="46"/>
       <c r="S346" s="21"/>
     </row>
-    <row r="347" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="37">
         <v>2</v>
       </c>
@@ -23756,7 +23778,7 @@
       <c r="R347" s="46"/>
       <c r="S347" s="21"/>
     </row>
-    <row r="348" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="37">
         <v>2</v>
       </c>
@@ -23803,7 +23825,7 @@
       <c r="R348" s="46"/>
       <c r="S348" s="21"/>
     </row>
-    <row r="349" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="37">
         <v>2</v>
       </c>
@@ -23850,7 +23872,7 @@
       <c r="R349" s="46"/>
       <c r="S349" s="21"/>
     </row>
-    <row r="350" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="37">
         <v>2</v>
       </c>
@@ -23897,7 +23919,7 @@
       <c r="R350" s="46"/>
       <c r="S350" s="21"/>
     </row>
-    <row r="351" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="37">
         <v>2</v>
       </c>
@@ -23944,7 +23966,7 @@
       <c r="R351" s="46"/>
       <c r="S351" s="21"/>
     </row>
-    <row r="352" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="37">
         <v>2</v>
       </c>
@@ -23991,7 +24013,7 @@
       <c r="R352" s="46"/>
       <c r="S352" s="21"/>
     </row>
-    <row r="353" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="37">
         <v>2</v>
       </c>
@@ -24038,7 +24060,7 @@
       <c r="R353" s="46"/>
       <c r="S353" s="21"/>
     </row>
-    <row r="354" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="37">
         <v>2</v>
       </c>
@@ -24085,7 +24107,7 @@
       <c r="R354" s="46"/>
       <c r="S354" s="21"/>
     </row>
-    <row r="355" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="37">
         <v>2</v>
       </c>
@@ -24132,7 +24154,7 @@
       <c r="R355" s="46"/>
       <c r="S355" s="21"/>
     </row>
-    <row r="356" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="37">
         <v>2</v>
       </c>
@@ -24179,7 +24201,7 @@
       <c r="R356" s="46"/>
       <c r="S356" s="21"/>
     </row>
-    <row r="357" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="37">
         <v>2</v>
       </c>
@@ -24226,7 +24248,7 @@
       <c r="R357" s="46"/>
       <c r="S357" s="21"/>
     </row>
-    <row r="358" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="37">
         <v>2</v>
       </c>
@@ -24273,7 +24295,7 @@
       <c r="R358" s="46"/>
       <c r="S358" s="21"/>
     </row>
-    <row r="359" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="37">
         <v>2</v>
       </c>
@@ -24320,7 +24342,7 @@
       <c r="R359" s="46"/>
       <c r="S359" s="21"/>
     </row>
-    <row r="360" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="37">
         <v>2</v>
       </c>
@@ -24367,7 +24389,7 @@
       <c r="R360" s="46"/>
       <c r="S360" s="21"/>
     </row>
-    <row r="361" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="37">
         <v>2</v>
       </c>
@@ -24414,7 +24436,7 @@
       <c r="R361" s="46"/>
       <c r="S361" s="21"/>
     </row>
-    <row r="362" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="37">
         <v>2</v>
       </c>
@@ -24461,7 +24483,7 @@
       <c r="R362" s="46"/>
       <c r="S362" s="21"/>
     </row>
-    <row r="363" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="37">
         <v>2</v>
       </c>
@@ -24508,7 +24530,7 @@
       <c r="R363" s="46"/>
       <c r="S363" s="21"/>
     </row>
-    <row r="364" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="37">
         <v>2</v>
       </c>
@@ -24555,7 +24577,7 @@
       <c r="R364" s="46"/>
       <c r="S364" s="21"/>
     </row>
-    <row r="365" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="37">
         <v>2</v>
       </c>
@@ -24602,7 +24624,7 @@
       <c r="R365" s="46"/>
       <c r="S365" s="21"/>
     </row>
-    <row r="366" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="37">
         <v>2</v>
       </c>
@@ -24649,7 +24671,7 @@
       <c r="R366" s="46"/>
       <c r="S366" s="21"/>
     </row>
-    <row r="367" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="37">
         <v>2</v>
       </c>
@@ -24696,7 +24718,7 @@
       <c r="R367" s="46"/>
       <c r="S367" s="21"/>
     </row>
-    <row r="368" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="37">
         <v>2</v>
       </c>
@@ -24743,7 +24765,7 @@
       <c r="R368" s="46"/>
       <c r="S368" s="21"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="37">
         <v>2</v>
       </c>
@@ -24790,7 +24812,7 @@
       <c r="R369" s="46"/>
       <c r="S369" s="21"/>
     </row>
-    <row r="370" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="37">
         <v>2</v>
       </c>
@@ -24837,7 +24859,7 @@
       <c r="R370" s="46"/>
       <c r="S370" s="21"/>
     </row>
-    <row r="371" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="37">
         <v>2</v>
       </c>
@@ -24884,7 +24906,7 @@
       <c r="R371" s="46"/>
       <c r="S371" s="21"/>
     </row>
-    <row r="372" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="37">
         <v>2</v>
       </c>
@@ -24931,7 +24953,7 @@
       <c r="R372" s="46"/>
       <c r="S372" s="21"/>
     </row>
-    <row r="373" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="37">
         <v>2</v>
       </c>
@@ -24978,7 +25000,7 @@
       <c r="R373" s="46"/>
       <c r="S373" s="21"/>
     </row>
-    <row r="374" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="20">
         <v>2</v>
       </c>
@@ -25025,7 +25047,7 @@
       <c r="R374" s="46"/>
       <c r="S374" s="21"/>
     </row>
-    <row r="375" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="20">
         <v>2</v>
       </c>
@@ -25072,7 +25094,7 @@
       <c r="R375" s="46"/>
       <c r="S375" s="21"/>
     </row>
-    <row r="376" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="20">
         <v>2</v>
       </c>
@@ -25119,7 +25141,7 @@
       <c r="R376" s="46"/>
       <c r="S376" s="21"/>
     </row>
-    <row r="377" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="20">
         <v>2</v>
       </c>
@@ -25166,7 +25188,7 @@
       <c r="R377" s="46"/>
       <c r="S377" s="21"/>
     </row>
-    <row r="378" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="20">
         <v>2</v>
       </c>
@@ -25213,7 +25235,7 @@
       <c r="R378" s="46"/>
       <c r="S378" s="21"/>
     </row>
-    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="20">
         <v>2</v>
       </c>
@@ -25260,7 +25282,7 @@
       <c r="R379" s="46"/>
       <c r="S379" s="21"/>
     </row>
-    <row r="380" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="20">
         <v>2</v>
       </c>
@@ -25307,7 +25329,7 @@
       <c r="R380" s="46"/>
       <c r="S380" s="21"/>
     </row>
-    <row r="381" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="20">
         <v>2</v>
       </c>
@@ -25354,7 +25376,7 @@
       <c r="R381" s="46"/>
       <c r="S381" s="21"/>
     </row>
-    <row r="382" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="20">
         <v>2</v>
       </c>
@@ -25401,7 +25423,7 @@
       <c r="R382" s="46"/>
       <c r="S382" s="21"/>
     </row>
-    <row r="383" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="20">
         <v>2</v>
       </c>
@@ -25448,7 +25470,7 @@
       <c r="R383" s="46"/>
       <c r="S383" s="21"/>
     </row>
-    <row r="384" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="20">
         <v>2</v>
       </c>
@@ -25495,7 +25517,7 @@
       <c r="R384" s="46"/>
       <c r="S384" s="21"/>
     </row>
-    <row r="385" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="20">
         <v>2</v>
       </c>
@@ -25542,7 +25564,7 @@
       <c r="R385" s="46"/>
       <c r="S385" s="21"/>
     </row>
-    <row r="386" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="20">
         <v>2</v>
       </c>
@@ -25589,7 +25611,7 @@
       <c r="R386" s="46"/>
       <c r="S386" s="21"/>
     </row>
-    <row r="387" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="20">
         <v>2</v>
       </c>
@@ -25636,7 +25658,7 @@
       <c r="R387" s="46"/>
       <c r="S387" s="21"/>
     </row>
-    <row r="388" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="20">
         <v>2</v>
       </c>
@@ -25683,7 +25705,7 @@
       <c r="R388" s="46"/>
       <c r="S388" s="21"/>
     </row>
-    <row r="389" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="20">
         <v>2</v>
       </c>
@@ -25730,7 +25752,7 @@
       <c r="R389" s="46"/>
       <c r="S389" s="21"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="20">
         <v>2</v>
       </c>
@@ -25777,7 +25799,7 @@
       <c r="R390" s="46"/>
       <c r="S390" s="21"/>
     </row>
-    <row r="391" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="20">
         <v>2</v>
       </c>
@@ -25824,7 +25846,7 @@
       <c r="R391" s="46"/>
       <c r="S391" s="21"/>
     </row>
-    <row r="392" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="20">
         <v>2</v>
       </c>
@@ -25871,7 +25893,7 @@
       <c r="R392" s="46"/>
       <c r="S392" s="21"/>
     </row>
-    <row r="393" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="20">
         <v>2</v>
       </c>
@@ -25918,7 +25940,7 @@
       <c r="R393" s="46"/>
       <c r="S393" s="21"/>
     </row>
-    <row r="394" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="20">
         <v>2</v>
       </c>
@@ -25965,7 +25987,7 @@
       <c r="R394" s="46"/>
       <c r="S394" s="21"/>
     </row>
-    <row r="395" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="20">
         <v>2</v>
       </c>
@@ -26012,7 +26034,7 @@
       <c r="R395" s="46"/>
       <c r="S395" s="21"/>
     </row>
-    <row r="396" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="20">
         <v>2</v>
       </c>
@@ -26059,7 +26081,7 @@
       <c r="R396" s="46"/>
       <c r="S396" s="21"/>
     </row>
-    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="20">
         <v>2</v>
       </c>
@@ -26106,7 +26128,7 @@
       <c r="R397" s="46"/>
       <c r="S397" s="21"/>
     </row>
-    <row r="398" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="20">
         <v>2</v>
       </c>
@@ -26153,7 +26175,7 @@
       <c r="R398" s="46"/>
       <c r="S398" s="21"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="20">
         <v>2</v>
       </c>
@@ -26200,7 +26222,7 @@
       <c r="R399" s="46"/>
       <c r="S399" s="21"/>
     </row>
-    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="20">
         <v>2</v>
       </c>
@@ -26247,7 +26269,7 @@
       <c r="R400" s="46"/>
       <c r="S400" s="21"/>
     </row>
-    <row r="401" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="20">
         <v>2</v>
       </c>
@@ -26294,7 +26316,7 @@
       <c r="R401" s="46"/>
       <c r="S401" s="21"/>
     </row>
-    <row r="402" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="20">
         <v>2</v>
       </c>
@@ -26341,7 +26363,7 @@
       <c r="R402" s="46"/>
       <c r="S402" s="21"/>
     </row>
-    <row r="403" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="20">
         <v>2</v>
       </c>
@@ -26388,7 +26410,7 @@
       <c r="R403" s="46"/>
       <c r="S403" s="21"/>
     </row>
-    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="20">
         <v>2</v>
       </c>
@@ -26435,7 +26457,7 @@
       <c r="R404" s="46"/>
       <c r="S404" s="21"/>
     </row>
-    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="20">
         <v>2</v>
       </c>
@@ -26482,7 +26504,7 @@
       <c r="R405" s="46"/>
       <c r="S405" s="21"/>
     </row>
-    <row r="406" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="20">
         <v>2</v>
       </c>
@@ -26529,7 +26551,7 @@
       <c r="R406" s="46"/>
       <c r="S406" s="21"/>
     </row>
-    <row r="407" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="20">
         <v>2</v>
       </c>
@@ -26576,7 +26598,7 @@
       <c r="R407" s="46"/>
       <c r="S407" s="21"/>
     </row>
-    <row r="408" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="20">
         <v>2</v>
       </c>
@@ -26623,7 +26645,7 @@
       <c r="R408" s="46"/>
       <c r="S408" s="21"/>
     </row>
-    <row r="409" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="20">
         <v>2</v>
       </c>
@@ -26670,7 +26692,7 @@
       <c r="R409" s="46"/>
       <c r="S409" s="21"/>
     </row>
-    <row r="410" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="20">
         <v>2</v>
       </c>
@@ -26717,7 +26739,7 @@
       <c r="R410" s="46"/>
       <c r="S410" s="21"/>
     </row>
-    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="20">
         <v>2</v>
       </c>
@@ -26764,7 +26786,7 @@
       <c r="R411" s="46"/>
       <c r="S411" s="21"/>
     </row>
-    <row r="412" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="20">
         <v>2</v>
       </c>
@@ -26811,7 +26833,7 @@
       <c r="R412" s="46"/>
       <c r="S412" s="21"/>
     </row>
-    <row r="413" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="20">
         <v>2</v>
       </c>
@@ -26858,7 +26880,7 @@
       <c r="R413" s="46"/>
       <c r="S413" s="21"/>
     </row>
-    <row r="414" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="20">
         <v>2</v>
       </c>
@@ -26905,7 +26927,7 @@
       <c r="R414" s="46"/>
       <c r="S414" s="21"/>
     </row>
-    <row r="415" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="20">
         <v>2</v>
       </c>
@@ -26952,7 +26974,7 @@
       <c r="R415" s="46"/>
       <c r="S415" s="21"/>
     </row>
-    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="20">
         <v>2</v>
       </c>
@@ -26999,7 +27021,7 @@
       <c r="R416" s="46"/>
       <c r="S416" s="21"/>
     </row>
-    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="20">
         <v>4</v>
       </c>
@@ -27046,7 +27068,7 @@
       <c r="R417" s="46"/>
       <c r="S417" s="21"/>
     </row>
-    <row r="418" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="20">
         <v>4</v>
       </c>
@@ -27093,7 +27115,7 @@
       <c r="R418" s="46"/>
       <c r="S418" s="21"/>
     </row>
-    <row r="419" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="20">
         <v>4</v>
       </c>
@@ -27140,7 +27162,7 @@
       <c r="R419" s="46"/>
       <c r="S419" s="21"/>
     </row>
-    <row r="420" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="20">
         <v>4</v>
       </c>
@@ -27187,7 +27209,7 @@
       <c r="R420" s="46"/>
       <c r="S420" s="21"/>
     </row>
-    <row r="421" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="20">
         <v>4</v>
       </c>
@@ -27234,7 +27256,7 @@
       <c r="R421" s="46"/>
       <c r="S421" s="21"/>
     </row>
-    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="20">
         <v>4</v>
       </c>
@@ -27281,7 +27303,7 @@
       <c r="R422" s="46"/>
       <c r="S422" s="21"/>
     </row>
-    <row r="423" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="20">
         <v>4</v>
       </c>
@@ -27328,7 +27350,7 @@
       <c r="R423" s="46"/>
       <c r="S423" s="21"/>
     </row>
-    <row r="424" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="20">
         <v>4</v>
       </c>
@@ -27375,7 +27397,7 @@
       <c r="R424" s="46"/>
       <c r="S424" s="21"/>
     </row>
-    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="20">
         <v>4</v>
       </c>
@@ -27422,7 +27444,7 @@
       <c r="R425" s="46"/>
       <c r="S425" s="21"/>
     </row>
-    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="20">
         <v>4</v>
       </c>
@@ -27469,7 +27491,7 @@
       <c r="R426" s="46"/>
       <c r="S426" s="21"/>
     </row>
-    <row r="427" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="20">
         <v>4</v>
       </c>
@@ -27516,7 +27538,7 @@
       <c r="R427" s="46"/>
       <c r="S427" s="21"/>
     </row>
-    <row r="428" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="20">
         <v>4</v>
       </c>
@@ -27563,7 +27585,7 @@
       <c r="R428" s="46"/>
       <c r="S428" s="21"/>
     </row>
-    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="20">
         <v>4</v>
       </c>
@@ -27610,7 +27632,7 @@
       <c r="R429" s="46"/>
       <c r="S429" s="21"/>
     </row>
-    <row r="430" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="20">
         <v>4</v>
       </c>
@@ -27657,7 +27679,7 @@
       <c r="R430" s="46"/>
       <c r="S430" s="21"/>
     </row>
-    <row r="431" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="20">
         <v>4</v>
       </c>
@@ -27704,7 +27726,7 @@
       <c r="R431" s="46"/>
       <c r="S431" s="21"/>
     </row>
-    <row r="432" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="20">
         <v>2</v>
       </c>
@@ -27751,7 +27773,7 @@
       <c r="R432" s="46"/>
       <c r="S432" s="21"/>
     </row>
-    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="20">
         <v>4</v>
       </c>
@@ -27798,7 +27820,7 @@
       <c r="R433" s="46"/>
       <c r="S433" s="21"/>
     </row>
-    <row r="434" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="20">
         <v>4</v>
       </c>
@@ -27845,7 +27867,7 @@
       <c r="R434" s="46"/>
       <c r="S434" s="21"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="20">
         <v>4</v>
       </c>
@@ -27892,7 +27914,7 @@
       <c r="R435" s="46"/>
       <c r="S435" s="21"/>
     </row>
-    <row r="436" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="20">
         <v>4</v>
       </c>
@@ -27939,7 +27961,7 @@
       <c r="R436" s="46"/>
       <c r="S436" s="21"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="20">
         <v>4</v>
       </c>
@@ -27986,7 +28008,7 @@
       <c r="R437" s="46"/>
       <c r="S437" s="21"/>
     </row>
-    <row r="438" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="20">
         <v>4</v>
       </c>
@@ -28033,7 +28055,7 @@
       <c r="R438" s="46"/>
       <c r="S438" s="21"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="20">
         <v>4</v>
       </c>
@@ -28080,7 +28102,7 @@
       <c r="R439" s="46"/>
       <c r="S439" s="21"/>
     </row>
-    <row r="440" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="20">
         <v>4</v>
       </c>
@@ -28127,7 +28149,7 @@
       <c r="R440" s="46"/>
       <c r="S440" s="21"/>
     </row>
-    <row r="441" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="20">
         <v>4</v>
       </c>
@@ -28174,7 +28196,7 @@
       <c r="R441" s="46"/>
       <c r="S441" s="21"/>
     </row>
-    <row r="442" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="20">
         <v>4</v>
       </c>
@@ -28221,7 +28243,7 @@
       <c r="R442" s="46"/>
       <c r="S442" s="21"/>
     </row>
-    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="20">
         <v>4</v>
       </c>
@@ -28268,7 +28290,7 @@
       <c r="R443" s="46"/>
       <c r="S443" s="21"/>
     </row>
-    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="20">
         <v>4</v>
       </c>
@@ -28315,7 +28337,7 @@
       <c r="R444" s="46"/>
       <c r="S444" s="21"/>
     </row>
-    <row r="445" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="20">
         <v>4</v>
       </c>
@@ -28362,7 +28384,7 @@
       <c r="R445" s="46"/>
       <c r="S445" s="21"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="20">
         <v>4</v>
       </c>
@@ -28409,7 +28431,7 @@
       <c r="R446" s="46"/>
       <c r="S446" s="21"/>
     </row>
-    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="20">
         <v>4</v>
       </c>
@@ -28456,7 +28478,7 @@
       <c r="R447" s="46"/>
       <c r="S447" s="21"/>
     </row>
-    <row r="448" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="20">
         <v>4</v>
       </c>
@@ -28503,7 +28525,7 @@
       <c r="R448" s="46"/>
       <c r="S448" s="21"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="20">
         <v>4</v>
       </c>
@@ -28550,7 +28572,7 @@
       <c r="R449" s="46"/>
       <c r="S449" s="21"/>
     </row>
-    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="20">
         <v>4</v>
       </c>
@@ -28597,7 +28619,7 @@
       <c r="R450" s="46"/>
       <c r="S450" s="21"/>
     </row>
-    <row r="451" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="20">
         <v>4</v>
       </c>
@@ -28644,7 +28666,7 @@
       <c r="R451" s="46"/>
       <c r="S451" s="21"/>
     </row>
-    <row r="452" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="20">
         <v>4</v>
       </c>
@@ -28691,7 +28713,7 @@
       <c r="R452" s="46"/>
       <c r="S452" s="21"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="20">
         <v>4</v>
       </c>
@@ -28738,7 +28760,7 @@
       <c r="R453" s="46"/>
       <c r="S453" s="21"/>
     </row>
-    <row r="454" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="20">
         <v>4</v>
       </c>
@@ -28785,7 +28807,7 @@
       <c r="R454" s="46"/>
       <c r="S454" s="21"/>
     </row>
-    <row r="455" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="20">
         <v>4</v>
       </c>
@@ -28832,7 +28854,7 @@
       <c r="R455" s="46"/>
       <c r="S455" s="21"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="20">
         <v>4</v>
       </c>
@@ -28879,7 +28901,7 @@
       <c r="R456" s="46"/>
       <c r="S456" s="21"/>
     </row>
-    <row r="457" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="20">
         <v>4</v>
       </c>
@@ -28926,7 +28948,7 @@
       <c r="R457" s="46"/>
       <c r="S457" s="21"/>
     </row>
-    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="20">
         <v>4</v>
       </c>
@@ -28973,7 +28995,7 @@
       <c r="R458" s="46"/>
       <c r="S458" s="21"/>
     </row>
-    <row r="459" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="20">
         <v>4</v>
       </c>
@@ -29020,7 +29042,7 @@
       <c r="R459" s="46"/>
       <c r="S459" s="21"/>
     </row>
-    <row r="460" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="20">
         <v>4</v>
       </c>
@@ -29067,7 +29089,7 @@
       <c r="R460" s="46"/>
       <c r="S460" s="21"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="20">
         <v>4</v>
       </c>
@@ -29114,7 +29136,7 @@
       <c r="R461" s="46"/>
       <c r="S461" s="21"/>
     </row>
-    <row r="462" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="20">
         <v>4</v>
       </c>
@@ -29161,7 +29183,7 @@
       <c r="R462" s="46"/>
       <c r="S462" s="21"/>
     </row>
-    <row r="463" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="26">
         <v>2</v>
       </c>
@@ -29208,7 +29230,7 @@
       <c r="R463" s="46"/>
       <c r="S463" s="21"/>
     </row>
-    <row r="464" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="28">
         <v>2</v>
       </c>
@@ -29255,7 +29277,7 @@
       <c r="R464" s="46"/>
       <c r="S464" s="21"/>
     </row>
-    <row r="465" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="38">
         <v>2</v>
       </c>
@@ -29302,7 +29324,7 @@
       <c r="R465" s="46"/>
       <c r="S465" s="21"/>
     </row>
-    <row r="466" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="28">
         <v>2</v>
       </c>
@@ -29349,7 +29371,7 @@
       <c r="R466" s="46"/>
       <c r="S466" s="21"/>
     </row>
-    <row r="467" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="28">
         <v>2</v>
       </c>
@@ -29396,7 +29418,7 @@
       <c r="R467" s="46"/>
       <c r="S467" s="21"/>
     </row>
-    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="28">
         <v>2</v>
       </c>
@@ -29443,7 +29465,7 @@
       <c r="R468" s="46"/>
       <c r="S468" s="21"/>
     </row>
-    <row r="469" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="38">
         <v>2</v>
       </c>
@@ -29490,7 +29512,7 @@
       <c r="R469" s="46"/>
       <c r="S469" s="21"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="28">
         <v>2</v>
       </c>
@@ -29537,7 +29559,7 @@
       <c r="R470" s="46"/>
       <c r="S470" s="21"/>
     </row>
-    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="28">
         <v>2</v>
       </c>
@@ -29584,7 +29606,7 @@
       <c r="R471" s="46"/>
       <c r="S471" s="21"/>
     </row>
-    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="28">
         <v>2</v>
       </c>
@@ -29631,7 +29653,7 @@
       <c r="R472" s="46"/>
       <c r="S472" s="21"/>
     </row>
-    <row r="473" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="28">
         <v>2</v>
       </c>
@@ -29678,7 +29700,7 @@
       <c r="R473" s="46"/>
       <c r="S473" s="21"/>
     </row>
-    <row r="474" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="28" t="s">
         <v>449</v>
       </c>
@@ -29725,7 +29747,7 @@
       <c r="R474" s="46"/>
       <c r="S474" s="21"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="28">
         <v>2</v>
       </c>
@@ -29772,7 +29794,7 @@
       <c r="R475" s="46"/>
       <c r="S475" s="21"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="28">
         <v>2</v>
       </c>
@@ -29819,7 +29841,7 @@
       <c r="R476" s="46"/>
       <c r="S476" s="21"/>
     </row>
-    <row r="477" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="28">
         <v>2</v>
       </c>
@@ -29866,7 +29888,7 @@
       <c r="R477" s="46"/>
       <c r="S477" s="21"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="38">
         <v>2</v>
       </c>
@@ -29913,7 +29935,7 @@
       <c r="R478" s="46"/>
       <c r="S478" s="21"/>
     </row>
-    <row r="479" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="28" t="s">
         <v>449</v>
       </c>
@@ -29960,7 +29982,7 @@
       <c r="R479" s="46"/>
       <c r="S479" s="21"/>
     </row>
-    <row r="480" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="28">
         <v>2</v>
       </c>
@@ -30007,7 +30029,7 @@
       <c r="R480" s="46"/>
       <c r="S480" s="21"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="28">
         <v>2</v>
       </c>
@@ -30054,7 +30076,7 @@
       <c r="R481" s="46"/>
       <c r="S481" s="21"/>
     </row>
-    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="38">
         <v>2</v>
       </c>
@@ -30101,7 +30123,7 @@
       <c r="R482" s="46"/>
       <c r="S482" s="21"/>
     </row>
-    <row r="483" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="28" t="s">
         <v>449</v>
       </c>
@@ -30148,7 +30170,7 @@
       <c r="R483" s="46"/>
       <c r="S483" s="21"/>
     </row>
-    <row r="484" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="28">
         <v>2</v>
       </c>
@@ -30195,7 +30217,7 @@
       <c r="R484" s="46"/>
       <c r="S484" s="21"/>
     </row>
-    <row r="485" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="28">
         <v>2</v>
       </c>
@@ -30242,7 +30264,7 @@
       <c r="R485" s="46"/>
       <c r="S485" s="21"/>
     </row>
-    <row r="486" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="38">
         <v>2</v>
       </c>
@@ -30289,7 +30311,7 @@
       <c r="R486" s="46"/>
       <c r="S486" s="21"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="28">
         <v>2</v>
       </c>
@@ -30336,7 +30358,7 @@
       <c r="R487" s="46"/>
       <c r="S487" s="21"/>
     </row>
-    <row r="488" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="28">
         <v>2</v>
       </c>
@@ -30383,7 +30405,7 @@
       <c r="R488" s="46"/>
       <c r="S488" s="21"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="28" t="s">
         <v>449</v>
       </c>
@@ -30430,7 +30452,7 @@
       <c r="R489" s="46"/>
       <c r="S489" s="21"/>
     </row>
-    <row r="490" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="28">
         <v>2</v>
       </c>
@@ -30477,7 +30499,7 @@
       <c r="R490" s="46"/>
       <c r="S490" s="21"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="28">
         <v>2</v>
       </c>
@@ -30524,7 +30546,7 @@
       <c r="R491" s="46"/>
       <c r="S491" s="21"/>
     </row>
-    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="28" t="s">
         <v>449</v>
       </c>
@@ -30571,7 +30593,7 @@
       <c r="R492" s="46"/>
       <c r="S492" s="21"/>
     </row>
-    <row r="493" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="28">
         <v>2</v>
       </c>
@@ -30618,7 +30640,7 @@
       <c r="R493" s="46"/>
       <c r="S493" s="21"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="28">
         <v>2</v>
       </c>
@@ -30665,7 +30687,7 @@
       <c r="R494" s="46"/>
       <c r="S494" s="21"/>
     </row>
-    <row r="495" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="28" t="s">
         <v>449</v>
       </c>
@@ -30712,7 +30734,7 @@
       <c r="R495" s="46"/>
       <c r="S495" s="21"/>
     </row>
-    <row r="496" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="28">
         <v>2</v>
       </c>
@@ -30759,7 +30781,7 @@
       <c r="R496" s="46"/>
       <c r="S496" s="21"/>
     </row>
-    <row r="497" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="28" t="s">
         <v>449</v>
       </c>
@@ -30806,7 +30828,7 @@
       <c r="R497" s="46"/>
       <c r="S497" s="21"/>
     </row>
-    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="28">
         <v>2</v>
       </c>
@@ -30853,7 +30875,7 @@
       <c r="R498" s="46"/>
       <c r="S498" s="21"/>
     </row>
-    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="28" t="s">
         <v>449</v>
       </c>
@@ -30900,7 +30922,7 @@
       <c r="R499" s="46"/>
       <c r="S499" s="21"/>
     </row>
-    <row r="500" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="28">
         <v>2</v>
       </c>
@@ -30947,7 +30969,7 @@
       <c r="R500" s="46"/>
       <c r="S500" s="21"/>
     </row>
-    <row r="501" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="28">
         <v>4</v>
       </c>
@@ -30994,7 +31016,7 @@
       <c r="R501" s="46"/>
       <c r="S501" s="21"/>
     </row>
-    <row r="502" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="28">
         <v>4</v>
       </c>
@@ -31041,7 +31063,7 @@
       <c r="R502" s="46"/>
       <c r="S502" s="21"/>
     </row>
-    <row r="503" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="28" t="s">
         <v>449</v>
       </c>
@@ -31088,7 +31110,7 @@
       <c r="R503" s="46"/>
       <c r="S503" s="21"/>
     </row>
-    <row r="504" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="38">
         <v>2</v>
       </c>
@@ -31135,7 +31157,7 @@
       <c r="R504" s="46"/>
       <c r="S504" s="21"/>
     </row>
-    <row r="505" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="28" t="s">
         <v>449</v>
       </c>
@@ -31182,7 +31204,7 @@
       <c r="R505" s="46"/>
       <c r="S505" s="21"/>
     </row>
-    <row r="506" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="28" t="s">
         <v>449</v>
       </c>
@@ -31229,7 +31251,7 @@
       <c r="R506" s="46"/>
       <c r="S506" s="21"/>
     </row>
-    <row r="507" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="28" t="s">
         <v>449</v>
       </c>
@@ -31276,7 +31298,7 @@
       <c r="R507" s="46"/>
       <c r="S507" s="21"/>
     </row>
-    <row r="508" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="38">
         <v>2</v>
       </c>
@@ -31309,7 +31331,7 @@
       <c r="R508" s="46"/>
       <c r="S508" s="21"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="38">
         <v>2</v>
       </c>
@@ -31342,7 +31364,7 @@
       <c r="R509" s="46"/>
       <c r="S509" s="21"/>
     </row>
-    <row r="510" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="38">
         <v>2</v>
       </c>
@@ -31375,7 +31397,7 @@
       <c r="R510" s="46"/>
       <c r="S510" s="21"/>
     </row>
-    <row r="511" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="38">
         <v>2</v>
       </c>
@@ -31408,7 +31430,7 @@
       <c r="R511" s="46"/>
       <c r="S511" s="21"/>
     </row>
-    <row r="512" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="28" t="s">
         <v>449</v>
       </c>
@@ -31455,7 +31477,7 @@
       <c r="R512" s="46"/>
       <c r="S512" s="21"/>
     </row>
-    <row r="513" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="28">
         <v>8</v>
       </c>
@@ -31509,10 +31531,10 @@
       </c>
       <c r="R513" s="46"/>
       <c r="S513" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="514" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="514" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="28">
         <v>8</v>
       </c>
@@ -31566,10 +31588,10 @@
       </c>
       <c r="R514" s="46"/>
       <c r="S514" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="515" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="515" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="28">
         <v>8</v>
       </c>
@@ -31623,10 +31645,10 @@
       </c>
       <c r="R515" s="46"/>
       <c r="S515" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="516" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="516" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="28">
         <v>8</v>
       </c>
@@ -31680,10 +31702,10 @@
       </c>
       <c r="R516" s="46"/>
       <c r="S516" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="517" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="517" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="28">
         <v>8</v>
       </c>
@@ -31737,10 +31759,10 @@
       </c>
       <c r="R517" s="46"/>
       <c r="S517" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="518" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="518" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="28">
         <v>8</v>
       </c>
@@ -31794,10 +31816,10 @@
       </c>
       <c r="R518" s="46"/>
       <c r="S518" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="519" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="519" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="28">
         <v>8</v>
       </c>
@@ -31851,10 +31873,10 @@
       </c>
       <c r="R519" s="46"/>
       <c r="S519" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="28">
         <v>8</v>
       </c>
@@ -31908,10 +31930,10 @@
       </c>
       <c r="R520" s="46"/>
       <c r="S520" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="28">
         <v>8</v>
       </c>
@@ -31962,7 +31984,7 @@
       <c r="R521" s="46"/>
       <c r="S521" s="21"/>
     </row>
-    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="28">
         <v>8</v>
       </c>
@@ -32013,7 +32035,7 @@
       <c r="R522" s="46"/>
       <c r="S522" s="21"/>
     </row>
-    <row r="523" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="28">
         <v>8</v>
       </c>
@@ -32067,10 +32089,10 @@
       </c>
       <c r="R523" s="46"/>
       <c r="S523" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="524" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="524" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="28">
         <v>8</v>
       </c>
@@ -32124,10 +32146,10 @@
       </c>
       <c r="R524" s="46"/>
       <c r="S524" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="28">
         <v>8</v>
       </c>
@@ -32181,10 +32203,10 @@
       </c>
       <c r="R525" s="46"/>
       <c r="S525" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="28">
         <v>8</v>
       </c>
@@ -32238,10 +32260,10 @@
       </c>
       <c r="R526" s="46"/>
       <c r="S526" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="527" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="527" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="28">
         <v>8</v>
       </c>
@@ -32295,10 +32317,10 @@
       </c>
       <c r="R527" s="46"/>
       <c r="S527" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="528" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="28">
         <v>8</v>
       </c>
@@ -32352,10 +32374,10 @@
       </c>
       <c r="R528" s="46"/>
       <c r="S528" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="529" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="529" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="28">
         <v>8</v>
       </c>
@@ -32409,10 +32431,10 @@
       </c>
       <c r="R529" s="46"/>
       <c r="S529" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="530" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="530" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="28">
         <v>8</v>
       </c>
@@ -32466,10 +32488,10 @@
       </c>
       <c r="R530" s="46"/>
       <c r="S530" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="531" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="531" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="26">
         <v>1</v>
       </c>
@@ -32516,7 +32538,7 @@
       <c r="R531" s="46"/>
       <c r="S531" s="21"/>
     </row>
-    <row r="532" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="28">
         <v>8</v>
       </c>
@@ -32570,10 +32592,10 @@
       </c>
       <c r="R532" s="46"/>
       <c r="S532" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="533" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="533" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="28">
         <v>8</v>
       </c>
@@ -32627,10 +32649,10 @@
       </c>
       <c r="R533" s="46"/>
       <c r="S533" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="534" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="534" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="28">
         <v>8</v>
       </c>
@@ -32684,10 +32706,10 @@
       </c>
       <c r="R534" s="46"/>
       <c r="S534" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="28">
         <v>8</v>
       </c>
@@ -32741,10 +32763,10 @@
       </c>
       <c r="R535" s="46"/>
       <c r="S535" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="536" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="536" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="28">
         <v>8</v>
       </c>
@@ -32798,10 +32820,10 @@
       </c>
       <c r="R536" s="46"/>
       <c r="S536" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="537" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="537" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="28">
         <v>8</v>
       </c>
@@ -32855,10 +32877,10 @@
       </c>
       <c r="R537" s="46"/>
       <c r="S537" s="21" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="28">
         <v>8</v>
       </c>
@@ -32905,7 +32927,7 @@
       <c r="R538" s="46"/>
       <c r="S538" s="21"/>
     </row>
-    <row r="539" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="28">
         <v>8</v>
       </c>
@@ -32952,7 +32974,7 @@
       <c r="R539" s="46"/>
       <c r="S539" s="21"/>
     </row>
-    <row r="540" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="28">
         <v>8</v>
       </c>
@@ -32999,7 +33021,7 @@
       <c r="R540" s="46"/>
       <c r="S540" s="21"/>
     </row>
-    <row r="541" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="26">
         <v>1</v>
       </c>
@@ -33046,7 +33068,7 @@
       <c r="R541" s="46"/>
       <c r="S541" s="21"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="28">
         <v>8</v>
       </c>
@@ -33093,7 +33115,7 @@
       <c r="R542" s="46"/>
       <c r="S542" s="21"/>
     </row>
-    <row r="543" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="28">
         <v>8</v>
       </c>
@@ -33140,7 +33162,7 @@
       <c r="R543" s="46"/>
       <c r="S543" s="21"/>
     </row>
-    <row r="544" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="28">
         <v>8</v>
       </c>
@@ -33187,7 +33209,7 @@
       <c r="R544" s="46"/>
       <c r="S544" s="21"/>
     </row>
-    <row r="545" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="28">
         <v>8</v>
       </c>
@@ -33234,7 +33256,7 @@
       <c r="R545" s="46"/>
       <c r="S545" s="21"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="28">
         <v>8</v>
       </c>
@@ -33281,7 +33303,7 @@
       <c r="R546" s="46"/>
       <c r="S546" s="21"/>
     </row>
-    <row r="547" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="28">
         <v>8</v>
       </c>
@@ -33328,7 +33350,7 @@
       <c r="R547" s="46"/>
       <c r="S547" s="21"/>
     </row>
-    <row r="548" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="28">
         <v>8</v>
       </c>
@@ -33375,7 +33397,7 @@
       <c r="R548" s="46"/>
       <c r="S548" s="21"/>
     </row>
-    <row r="549" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="28">
         <v>8</v>
       </c>
@@ -33422,7 +33444,7 @@
       <c r="R549" s="46"/>
       <c r="S549" s="21"/>
     </row>
-    <row r="550" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="28">
         <v>8</v>
       </c>
@@ -33469,7 +33491,7 @@
       <c r="R550" s="46"/>
       <c r="S550" s="21"/>
     </row>
-    <row r="551" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="28">
         <v>8</v>
       </c>
@@ -33516,7 +33538,7 @@
       <c r="R551" s="46"/>
       <c r="S551" s="21"/>
     </row>
-    <row r="552" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="28">
         <v>8</v>
       </c>
@@ -33563,7 +33585,7 @@
       <c r="R552" s="46"/>
       <c r="S552" s="21"/>
     </row>
-    <row r="553" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="28">
         <v>8</v>
       </c>
@@ -33610,7 +33632,7 @@
       <c r="R553" s="46"/>
       <c r="S553" s="21"/>
     </row>
-    <row r="554" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="28">
         <v>3</v>
       </c>
@@ -33657,7 +33679,7 @@
       <c r="R554" s="46"/>
       <c r="S554" s="21"/>
     </row>
-    <row r="555" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="28">
         <v>3</v>
       </c>
@@ -33704,7 +33726,7 @@
       <c r="R555" s="46"/>
       <c r="S555" s="21"/>
     </row>
-    <row r="556" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="26">
         <v>8</v>
       </c>
@@ -33751,7 +33773,7 @@
       <c r="R556" s="46"/>
       <c r="S556" s="21"/>
     </row>
-    <row r="557" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="26">
         <v>8</v>
       </c>
@@ -33798,7 +33820,7 @@
       <c r="R557" s="46"/>
       <c r="S557" s="21"/>
     </row>
-    <row r="558" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="26">
         <v>8</v>
       </c>
@@ -33845,7 +33867,7 @@
       <c r="R558" s="46"/>
       <c r="S558" s="21"/>
     </row>
-    <row r="559" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="26">
         <v>8</v>
       </c>
@@ -33892,7 +33914,7 @@
       <c r="R559" s="46"/>
       <c r="S559" s="21"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="26">
         <v>8</v>
       </c>
@@ -33939,7 +33961,7 @@
       <c r="R560" s="46"/>
       <c r="S560" s="21"/>
     </row>
-    <row r="561" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="26">
         <v>8</v>
       </c>
@@ -33986,7 +34008,7 @@
       <c r="R561" s="46"/>
       <c r="S561" s="21"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="26">
         <v>8</v>
       </c>
@@ -34033,7 +34055,7 @@
       <c r="R562" s="46"/>
       <c r="S562" s="21"/>
     </row>
-    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="26">
         <v>8</v>
       </c>
@@ -34080,7 +34102,7 @@
       <c r="R563" s="46"/>
       <c r="S563" s="21"/>
     </row>
-    <row r="564" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="26">
         <v>8</v>
       </c>
@@ -34127,7 +34149,7 @@
       <c r="R564" s="46"/>
       <c r="S564" s="21"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="26">
         <v>8</v>
       </c>
@@ -34174,7 +34196,7 @@
       <c r="R565" s="46"/>
       <c r="S565" s="21"/>
     </row>
-    <row r="566" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="26">
         <v>8</v>
       </c>
@@ -34221,7 +34243,7 @@
       <c r="R566" s="46"/>
       <c r="S566" s="21"/>
     </row>
-    <row r="567" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="26">
         <v>8</v>
       </c>
@@ -34268,7 +34290,7 @@
       <c r="R567" s="46"/>
       <c r="S567" s="21"/>
     </row>
-    <row r="568" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="26">
         <v>8</v>
       </c>
@@ -34315,7 +34337,7 @@
       <c r="R568" s="46"/>
       <c r="S568" s="21"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="26">
         <v>8</v>
       </c>
@@ -34362,7 +34384,7 @@
       <c r="R569" s="46"/>
       <c r="S569" s="21"/>
     </row>
-    <row r="570" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="26">
         <v>8</v>
       </c>
@@ -34409,7 +34431,7 @@
       <c r="R570" s="46"/>
       <c r="S570" s="21"/>
     </row>
-    <row r="571" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="26">
         <v>8</v>
       </c>
@@ -34456,7 +34478,7 @@
       <c r="R571" s="46"/>
       <c r="S571" s="21"/>
     </row>
-    <row r="572" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="26">
         <v>8</v>
       </c>
@@ -34503,7 +34525,7 @@
       <c r="R572" s="46"/>
       <c r="S572" s="21"/>
     </row>
-    <row r="573" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="26">
         <v>8</v>
       </c>
@@ -34550,7 +34572,7 @@
       <c r="R573" s="46"/>
       <c r="S573" s="21"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="26">
         <v>8</v>
       </c>
@@ -34597,7 +34619,7 @@
       <c r="R574" s="46"/>
       <c r="S574" s="21"/>
     </row>
-    <row r="575" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="26">
         <v>8</v>
       </c>
@@ -34644,7 +34666,7 @@
       <c r="R575" s="46"/>
       <c r="S575" s="21"/>
     </row>
-    <row r="576" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="26">
         <v>8</v>
       </c>
@@ -34691,7 +34713,7 @@
       <c r="R576" s="46"/>
       <c r="S576" s="21"/>
     </row>
-    <row r="577" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="26">
         <v>8</v>
       </c>
@@ -34738,7 +34760,7 @@
       <c r="R577" s="46"/>
       <c r="S577" s="21"/>
     </row>
-    <row r="578" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="26">
         <v>8</v>
       </c>
@@ -34785,7 +34807,7 @@
       <c r="R578" s="46"/>
       <c r="S578" s="21"/>
     </row>
-    <row r="579" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="26">
         <v>8</v>
       </c>
@@ -34832,7 +34854,7 @@
       <c r="R579" s="46"/>
       <c r="S579" s="21"/>
     </row>
-    <row r="580" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="26">
         <v>8</v>
       </c>
@@ -34879,7 +34901,7 @@
       <c r="R580" s="46"/>
       <c r="S580" s="21"/>
     </row>
-    <row r="581" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="26">
         <v>8</v>
       </c>
@@ -34926,7 +34948,7 @@
       <c r="R581" s="46"/>
       <c r="S581" s="21"/>
     </row>
-    <row r="582" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="26">
         <v>8</v>
       </c>
@@ -34973,7 +34995,7 @@
       <c r="R582" s="46"/>
       <c r="S582" s="21"/>
     </row>
-    <row r="583" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="26">
         <v>8</v>
       </c>
@@ -35020,7 +35042,7 @@
       <c r="R583" s="46"/>
       <c r="S583" s="21"/>
     </row>
-    <row r="584" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="26">
         <v>8</v>
       </c>
@@ -35067,7 +35089,7 @@
       <c r="R584" s="46"/>
       <c r="S584" s="21"/>
     </row>
-    <row r="585" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="26">
         <v>8</v>
       </c>
@@ -35117,254 +35139,12 @@
   </sheetData>
   <autoFilter ref="A1:S585" xr:uid="{462B357B-D08B-41C7-9173-012688EAF9F7}"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137 F1:S1">
-    <cfRule type="containsText" dxfId="51" priority="135" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A206:A214 A139:A204">
-    <cfRule type="containsText" dxfId="50" priority="230" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G270:G272">
-    <cfRule type="containsText" dxfId="49" priority="220" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G270)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I322:M322">
-    <cfRule type="containsText" dxfId="48" priority="218" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I322)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H322:M322">
-    <cfRule type="containsText" dxfId="47" priority="217" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H322)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I321:M321">
-    <cfRule type="containsText" dxfId="46" priority="214" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I321)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H321:M321">
-    <cfRule type="containsText" dxfId="45" priority="213" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H321)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G242">
-    <cfRule type="containsText" dxfId="44" priority="210" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G242)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G259:G269">
-    <cfRule type="containsText" dxfId="43" priority="209" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G259)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H327">
-    <cfRule type="containsText" dxfId="42" priority="204" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H327)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H342:H344">
-    <cfRule type="containsText" dxfId="41" priority="157" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A335">
-    <cfRule type="containsText" dxfId="40" priority="194" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A335)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H335:H341">
-    <cfRule type="containsText" dxfId="39" priority="182" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H335)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H333">
-    <cfRule type="containsText" dxfId="38" priority="181" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H333)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H334">
-    <cfRule type="containsText" dxfId="37" priority="180" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H334)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A333:A334">
-    <cfRule type="containsText" dxfId="36" priority="193" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A333)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H26">
-    <cfRule type="containsText" dxfId="35" priority="151" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T248:X250">
-    <cfRule type="containsText" dxfId="34" priority="134" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F248:G250">
-    <cfRule type="containsText" dxfId="33" priority="133" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I248:I250">
-    <cfRule type="containsText" dxfId="32" priority="132" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J248:J250">
-    <cfRule type="containsText" dxfId="31" priority="131" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K248:K250">
-    <cfRule type="containsText" dxfId="30" priority="130" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L248:L250">
-    <cfRule type="containsText" dxfId="29" priority="129" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M248:M250">
-    <cfRule type="containsText" dxfId="28" priority="128" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N285:O285 T285:X285">
-    <cfRule type="containsText" dxfId="27" priority="125" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N285)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G285">
-    <cfRule type="containsText" dxfId="26" priority="124" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G285)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J285">
-    <cfRule type="containsText" dxfId="25" priority="122" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J285)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K285">
-    <cfRule type="containsText" dxfId="24" priority="121" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K285)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L285">
-    <cfRule type="containsText" dxfId="23" priority="120" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L285)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M285">
-    <cfRule type="containsText" dxfId="22" priority="119" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M285)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A375:A383">
-    <cfRule type="containsText" dxfId="21" priority="115" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A375)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A328:A332">
-    <cfRule type="containsText" dxfId="20" priority="105" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A328)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A384">
-    <cfRule type="containsText" dxfId="19" priority="94" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A384)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:A103">
-    <cfRule type="containsText" dxfId="18" priority="82" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215 A205">
-    <cfRule type="containsText" dxfId="17" priority="83" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A205)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A336:A344">
-    <cfRule type="containsText" dxfId="16" priority="80" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A336)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A216:A229">
-    <cfRule type="containsText" dxfId="15" priority="81" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A216)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A385:A399">
-    <cfRule type="containsText" dxfId="14" priority="79" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A385)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="13" priority="78" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A304)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A327">
-    <cfRule type="containsText" dxfId="12" priority="77" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A327)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A326">
-    <cfRule type="containsText" dxfId="11" priority="76" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A326)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A305:A325 A230:A303">
-    <cfRule type="containsText" dxfId="10" priority="75" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A230)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H374">
-    <cfRule type="containsText" dxfId="9" priority="55" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H374)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A345:A374">
-    <cfRule type="containsText" dxfId="8" priority="52" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A345)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B35">
-    <cfRule type="containsText" dxfId="7" priority="50" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F285">
-    <cfRule type="containsText" dxfId="6" priority="48" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F285)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99:H103">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H99)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:A137">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A136)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H136:H137">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H136)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O148:O161 O163:O167">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O148)))</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35380,7 +35160,7 @@
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35395,26 +35175,26 @@
       <selection activeCell="A22" sqref="A22:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="117.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="9.109375" style="1"/>
+    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="117.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="9.140625" style="1"/>
     <col min="26" max="45" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.109375" style="1"/>
+    <col min="46" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>448</v>
       </c>
@@ -35422,7 +35202,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -35430,7 +35210,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -35438,7 +35218,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -35446,7 +35226,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -35454,7 +35234,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -35462,7 +35242,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -35470,7 +35250,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -35478,7 +35258,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -35486,7 +35266,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>449</v>
       </c>
@@ -35494,8 +35274,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -35503,7 +35283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>452</v>
       </c>
@@ -35511,8 +35291,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>69</v>
       </c>
@@ -35520,7 +35300,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>502</v>
       </c>
@@ -35528,7 +35308,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>461</v>
       </c>
@@ -35536,7 +35316,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>158</v>
       </c>
@@ -35544,7 +35324,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1013</v>
       </c>
@@ -35552,10 +35332,10 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -35563,7 +35343,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -35571,7 +35351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>159</v>
       </c>
@@ -35579,10 +35359,10 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1034</v>
       </c>
@@ -35590,7 +35370,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -35598,7 +35378,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -35606,10 +35386,10 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
@@ -35617,7 +35397,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1015</v>
       </c>
@@ -35625,7 +35405,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1016</v>
       </c>
@@ -35633,7 +35413,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1017</v>
       </c>
@@ -35641,7 +35421,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1018</v>
       </c>
@@ -35649,7 +35429,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1019</v>
       </c>
@@ -35657,7 +35437,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1021</v>
       </c>
@@ -35665,7 +35445,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1020</v>
       </c>
@@ -35673,20 +35453,20 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
   </sheetData>
@@ -35694,12 +35474,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35929,18 +35709,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35963,14 +35743,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -35985,4 +35757,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2112F576-E80B-4584-AC25-D52E63C4C653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368ACCD-2EFC-4CB1-9D40-C69A443457E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7939" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7943" uniqueCount="1273">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3809,9 +3809,6 @@
     <t>(Geonovum) kijken hoe en wat.</t>
   </si>
   <si>
-    <t>Hoe is deze bedoeld?</t>
-  </si>
-  <si>
     <t>Actiehouder</t>
   </si>
   <si>
@@ -3851,9 +3848,6 @@
     <t>opdracht_lvbb1004</t>
   </si>
   <si>
-    <t>opdracht_lvbb1011</t>
-  </si>
-  <si>
     <t>opdracht_lvbb1022</t>
   </si>
   <si>
@@ -3888,6 +3882,30 @@
   </si>
   <si>
     <t>opdracht_lvbb1015.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1024.zip</t>
+  </si>
+  <si>
+    <t>Deze fout kan niet volgens OW-schema's, we krijgen LVBB1015 terug.</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB1016-foutmelding</t>
+  </si>
+  <si>
+    <t>Kunnen we niet testen met OOW-portaal.</t>
+  </si>
+  <si>
+    <t>Hier komt een LVBB1021-fout terug ipv een LVBB-1011</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1011.zip</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB1018-foutmelding</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB1008-foutmelding, Test opnieuw draaien.</t>
   </si>
 </sst>
 </file>
@@ -4320,7 +4338,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4460,9 +4478,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4498,7 +4513,77 @@
     <cellStyle name="Standaard 8" xfId="6" xr:uid="{4492B760-AE1B-46F5-BB01-F20D2648A2DB}"/>
     <cellStyle name="Title 2" xfId="10" xr:uid="{7E65A99B-BE5B-4D5A-90AB-4BE5E71E069B}"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="73">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5122,10 +5207,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project Timeline" pivot="0" count="4" xr9:uid="{94F838F7-CCC6-442C-9CDB-4977D3904284}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="firstRowStripe" dxfId="60"/>
-      <tableStyleElement type="secondRowStripe" dxfId="59"/>
+      <tableStyleElement type="wholeTable" dxfId="72"/>
+      <tableStyleElement type="headerRow" dxfId="71"/>
+      <tableStyleElement type="firstRowStripe" dxfId="70"/>
+      <tableStyleElement type="secondRowStripe" dxfId="69"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5493,9 +5578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5511,7 +5596,7 @@
     <col min="15" max="15" width="5.28515625" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" customWidth="1"/>
     <col min="17" max="18" width="11" style="44" customWidth="1"/>
-    <col min="19" max="19" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5567,7 +5652,7 @@
         <v>1231</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S1" s="43" t="s">
         <v>1230</v>
@@ -6471,7 +6556,7 @@
       </c>
       <c r="R20" s="46"/>
       <c r="S20" s="21" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6525,7 +6610,7 @@
         <v>44166</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S21" s="21"/>
     </row>
@@ -6580,7 +6665,7 @@
         <v>44166</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S22" s="21"/>
     </row>
@@ -6635,7 +6720,7 @@
         <v>44166</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S23" s="21"/>
     </row>
@@ -6690,7 +6775,7 @@
         <v>44166</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S24" s="21"/>
     </row>
@@ -6745,7 +6830,7 @@
         <v>44166</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S25" s="21"/>
     </row>
@@ -6800,7 +6885,7 @@
         <v>44166</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S26" s="21"/>
     </row>
@@ -6855,7 +6940,7 @@
         <v>44166</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S27" s="21"/>
     </row>
@@ -6910,7 +6995,7 @@
         <v>44166</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S28" s="21"/>
     </row>
@@ -6965,7 +7050,7 @@
         <v>44166</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S29" s="21"/>
     </row>
@@ -7020,7 +7105,7 @@
         <v>44166</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S30" s="21"/>
     </row>
@@ -7075,7 +7160,7 @@
         <v>44166</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S31" s="21"/>
     </row>
@@ -7130,7 +7215,7 @@
         <v>44166</v>
       </c>
       <c r="R32" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S32" s="21"/>
     </row>
@@ -7185,7 +7270,7 @@
         <v>44166</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S33" s="21"/>
     </row>
@@ -7443,7 +7528,7 @@
       </c>
       <c r="R38" s="46"/>
       <c r="S38" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7487,7 +7572,7 @@
         <v>24</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>1065</v>
@@ -7500,7 +7585,7 @@
       </c>
       <c r="R39" s="46"/>
       <c r="S39" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7544,7 +7629,7 @@
         <v>24</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>1065</v>
@@ -7557,7 +7642,7 @@
       </c>
       <c r="R40" s="46"/>
       <c r="S40" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7601,7 +7686,7 @@
         <v>24</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>1065</v>
@@ -7614,7 +7699,7 @@
       </c>
       <c r="R41" s="46"/>
       <c r="S41" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7658,7 +7743,7 @@
         <v>24</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>1065</v>
@@ -7671,7 +7756,7 @@
       </c>
       <c r="R42" s="46"/>
       <c r="S42" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7715,7 +7800,7 @@
         <v>24</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>1065</v>
@@ -7728,7 +7813,7 @@
       </c>
       <c r="R43" s="46"/>
       <c r="S43" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7772,7 +7857,7 @@
         <v>24</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>1065</v>
@@ -7785,7 +7870,7 @@
       </c>
       <c r="R44" s="46"/>
       <c r="S44" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7829,7 +7914,7 @@
         <v>24</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>1065</v>
@@ -7842,7 +7927,7 @@
       </c>
       <c r="R45" s="46"/>
       <c r="S45" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7853,7 +7938,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>502</v>
@@ -7898,7 +7983,7 @@
         <v>44166</v>
       </c>
       <c r="R46" s="46" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="S46" s="21" t="s">
         <v>1233</v>
@@ -7957,7 +8042,7 @@
         <v>44166</v>
       </c>
       <c r="R47" s="46" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="S47" s="21" t="s">
         <v>1234</v>
@@ -8004,27 +8089,27 @@
         <v>24</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>1254</v>
+        <v>1270</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P48" s="21">
-        <v>500</v>
+      <c r="P48" s="21" t="s">
+        <v>1232</v>
       </c>
       <c r="Q48" s="46">
-        <v>44167</v>
+        <v>44208</v>
       </c>
       <c r="R48" s="46"/>
       <c r="S48" s="21" t="s">
-        <v>1245</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>1</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="21" t="s">
@@ -8067,16 +8152,14 @@
         <v>1066</v>
       </c>
       <c r="P49" s="21" t="s">
-        <v>1232</v>
+        <v>84</v>
       </c>
       <c r="Q49" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R49" s="46" t="s">
-        <v>1244</v>
-      </c>
+        <v>44208</v>
+      </c>
+      <c r="R49" s="46"/>
       <c r="S49" s="21" t="s">
-        <v>1240</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8120,7 +8203,7 @@
         <v>24</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>1066</v>
@@ -8133,7 +8216,7 @@
       </c>
       <c r="R50" s="46"/>
       <c r="S50" s="21" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8177,7 +8260,7 @@
         <v>24</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>1065</v>
@@ -8190,7 +8273,7 @@
       </c>
       <c r="R51" s="46"/>
       <c r="S51" s="21" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8240,14 +8323,14 @@
         <v>1066</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="Q52" s="46">
-        <v>44166</v>
+        <v>44208</v>
       </c>
       <c r="R52" s="46"/>
       <c r="S52" s="21" t="s">
-        <v>1235</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8300,11 +8383,13 @@
         <v>1232</v>
       </c>
       <c r="Q53" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R53" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R53" s="46" t="s">
+        <v>1241</v>
+      </c>
       <c r="S53" s="21" t="s">
-        <v>1235</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8354,14 +8439,14 @@
         <v>1066</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="Q54" s="46">
-        <v>44166</v>
+        <v>44208</v>
       </c>
       <c r="R54" s="46"/>
       <c r="S54" s="21" t="s">
-        <v>1235</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8411,12 +8496,14 @@
         <v>1066</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>1232</v>
+        <v>1256</v>
       </c>
       <c r="Q55" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R55" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R55" s="46" t="s">
+        <v>1243</v>
+      </c>
       <c r="S55" s="21" t="s">
         <v>1235</v>
       </c>
@@ -8467,15 +8554,13 @@
       <c r="O56" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P56" s="21" t="s">
-        <v>1232</v>
-      </c>
+      <c r="P56" s="21"/>
       <c r="Q56" s="46">
-        <v>44166</v>
+        <v>44208</v>
       </c>
       <c r="R56" s="46"/>
       <c r="S56" s="21" t="s">
-        <v>1235</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8576,7 +8661,7 @@
         <v>24</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>1066</v>
@@ -8589,7 +8674,7 @@
       </c>
       <c r="R58" s="46"/>
       <c r="S58" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8633,7 +8718,7 @@
         <v>24</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="O59" s="21" t="s">
         <v>1066</v>
@@ -8646,7 +8731,7 @@
       </c>
       <c r="R59" s="46"/>
       <c r="S59" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8689,12 +8774,20 @@
       <c r="M60" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="11"/>
+      <c r="N60" s="11" t="s">
+        <v>1265</v>
+      </c>
       <c r="O60" s="11"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="46"/>
+      <c r="P60" s="21" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Q60" s="46">
+        <v>44208</v>
+      </c>
       <c r="R60" s="46"/>
-      <c r="S60" s="21"/>
+      <c r="S60" s="21" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
@@ -8837,16 +8930,16 @@
         <v>1066</v>
       </c>
       <c r="P63" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q63" s="46">
         <v>44182</v>
       </c>
       <c r="R63" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8943,16 +9036,16 @@
         <v>1066</v>
       </c>
       <c r="P65" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q65" s="46">
         <v>44182</v>
       </c>
       <c r="R65" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9008,10 +9101,10 @@
         <v>44182</v>
       </c>
       <c r="R66" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9067,10 +9160,10 @@
         <v>44182</v>
       </c>
       <c r="R67" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9126,10 +9219,10 @@
         <v>44182</v>
       </c>
       <c r="R68" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9279,10 +9372,10 @@
         <v>44182</v>
       </c>
       <c r="R71" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9338,10 +9431,10 @@
         <v>44182</v>
       </c>
       <c r="R72" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9485,16 +9578,16 @@
         <v>1066</v>
       </c>
       <c r="P75" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q75" s="46">
         <v>44182</v>
       </c>
       <c r="R75" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,16 +10213,16 @@
         <v>1066</v>
       </c>
       <c r="P88" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q88" s="46">
         <v>44182</v>
       </c>
       <c r="R88" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10179,16 +10272,16 @@
         <v>1066</v>
       </c>
       <c r="P89" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q89" s="46">
         <v>44182</v>
       </c>
       <c r="R89" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S89" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10238,16 +10331,16 @@
         <v>1066</v>
       </c>
       <c r="P90" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q90" s="46">
         <v>44182</v>
       </c>
       <c r="R90" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S90" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10297,16 +10390,16 @@
         <v>1066</v>
       </c>
       <c r="P91" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q91" s="46">
         <v>44182</v>
       </c>
       <c r="R91" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10356,16 +10449,16 @@
         <v>1066</v>
       </c>
       <c r="P92" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q92" s="46">
         <v>44182</v>
       </c>
       <c r="R92" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10415,16 +10508,16 @@
         <v>1066</v>
       </c>
       <c r="P93" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q93" s="46">
         <v>44182</v>
       </c>
       <c r="R93" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10474,16 +10567,16 @@
         <v>1066</v>
       </c>
       <c r="P94" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q94" s="46">
         <v>44182</v>
       </c>
       <c r="R94" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10533,16 +10626,16 @@
         <v>1066</v>
       </c>
       <c r="P95" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q95" s="46">
         <v>44182</v>
       </c>
       <c r="R95" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S95" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10592,16 +10685,16 @@
         <v>1066</v>
       </c>
       <c r="P96" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q96" s="46">
         <v>44182</v>
       </c>
       <c r="R96" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S96" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10651,16 +10744,16 @@
         <v>1066</v>
       </c>
       <c r="P97" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q97" s="46">
         <v>44182</v>
       </c>
       <c r="R97" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S97" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10710,16 +10803,16 @@
         <v>1066</v>
       </c>
       <c r="P98" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q98" s="46">
         <v>44182</v>
       </c>
       <c r="R98" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S98" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10769,16 +10862,16 @@
         <v>1066</v>
       </c>
       <c r="P99" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q99" s="46">
         <v>44182</v>
       </c>
       <c r="R99" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S99" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10828,16 +10921,16 @@
         <v>1066</v>
       </c>
       <c r="P100" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q100" s="46">
         <v>44182</v>
       </c>
       <c r="R100" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S100" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10887,16 +10980,16 @@
         <v>1066</v>
       </c>
       <c r="P101" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q101" s="46">
         <v>44182</v>
       </c>
       <c r="R101" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S101" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10946,16 +11039,16 @@
         <v>1066</v>
       </c>
       <c r="P102" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q102" s="46">
         <v>44182</v>
       </c>
       <c r="R102" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S102" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11005,16 +11098,16 @@
         <v>1066</v>
       </c>
       <c r="P103" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q103" s="46">
         <v>44182</v>
       </c>
       <c r="R103" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11497,16 +11590,16 @@
         <v>1066</v>
       </c>
       <c r="P113" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q113" s="46">
         <v>44182</v>
       </c>
       <c r="R113" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12210,16 +12303,16 @@
         <v>1066</v>
       </c>
       <c r="P126" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q126" s="46">
         <v>44182</v>
       </c>
       <c r="R126" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S126" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12269,16 +12362,16 @@
         <v>1066</v>
       </c>
       <c r="P127" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q127" s="46">
         <v>44182</v>
       </c>
       <c r="R127" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S127" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12328,16 +12421,16 @@
         <v>1066</v>
       </c>
       <c r="P128" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q128" s="46">
         <v>44182</v>
       </c>
       <c r="R128" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S128" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12387,16 +12480,16 @@
         <v>1066</v>
       </c>
       <c r="P129" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q129" s="46">
         <v>44182</v>
       </c>
       <c r="R129" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12446,16 +12539,16 @@
         <v>1066</v>
       </c>
       <c r="P130" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q130" s="46">
         <v>44182</v>
       </c>
       <c r="R130" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S130" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12648,16 +12741,16 @@
         <v>1066</v>
       </c>
       <c r="P134" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q134" s="46">
         <v>44182</v>
       </c>
       <c r="R134" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S134" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12707,16 +12800,16 @@
         <v>1066</v>
       </c>
       <c r="P135" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q135" s="46">
         <v>44182</v>
       </c>
       <c r="R135" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S135" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13009,10 +13102,10 @@
         <v>44182</v>
       </c>
       <c r="R141" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S141" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13156,16 +13249,16 @@
         <v>1066</v>
       </c>
       <c r="P144" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q144" s="46">
         <v>44182</v>
       </c>
       <c r="R144" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S144" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13262,16 +13355,16 @@
         <v>1066</v>
       </c>
       <c r="P146" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q146" s="46">
         <v>44182</v>
       </c>
       <c r="R146" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S146" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13321,16 +13414,16 @@
         <v>1066</v>
       </c>
       <c r="P147" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q147" s="46">
         <v>44182</v>
       </c>
       <c r="R147" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S147" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13380,13 +13473,13 @@
         <v>1066</v>
       </c>
       <c r="P148" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q148" s="46">
         <v>44166</v>
       </c>
       <c r="R148" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S148" s="21" t="s">
         <v>1238</v>
@@ -13439,13 +13532,13 @@
         <v>1066</v>
       </c>
       <c r="P149" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q149" s="46">
         <v>44166</v>
       </c>
       <c r="R149" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S149" s="21" t="s">
         <v>1238</v>
@@ -13498,13 +13591,13 @@
         <v>1066</v>
       </c>
       <c r="P150" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q150" s="46">
         <v>44166</v>
       </c>
       <c r="R150" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S150" s="21" t="s">
         <v>1238</v>
@@ -13604,13 +13697,13 @@
         <v>1066</v>
       </c>
       <c r="P152" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q152" s="46">
         <v>44166</v>
       </c>
       <c r="R152" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S152" s="21" t="s">
         <v>1238</v>
@@ -13751,7 +13844,7 @@
         <v>24</v>
       </c>
       <c r="N155" s="21" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="O155" s="25" t="s">
         <v>1066</v>
@@ -13814,10 +13907,10 @@
         <v>44182</v>
       </c>
       <c r="R156" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S156" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13873,10 +13966,10 @@
         <v>44182</v>
       </c>
       <c r="R157" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S157" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13972,13 +14065,13 @@
         <v>1066</v>
       </c>
       <c r="P159" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q159" s="46">
         <v>44166</v>
       </c>
       <c r="R159" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S159" s="21" t="s">
         <v>1238</v>
@@ -14125,16 +14218,16 @@
         <v>1066</v>
       </c>
       <c r="P162" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q162" s="46">
         <v>44182</v>
       </c>
       <c r="R162" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S162" s="21" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14325,13 +14418,13 @@
         <v>1066</v>
       </c>
       <c r="P166" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q166" s="46">
         <v>44166</v>
       </c>
       <c r="R166" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S166" s="21" t="s">
         <v>1238</v>
@@ -14384,13 +14477,13 @@
         <v>1066</v>
       </c>
       <c r="P167" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q167" s="46">
         <v>44166</v>
       </c>
       <c r="R167" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S167" s="21" t="s">
         <v>1238</v>
@@ -14449,10 +14542,10 @@
         <v>44182</v>
       </c>
       <c r="R168" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S168" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14549,16 +14642,16 @@
         <v>1066</v>
       </c>
       <c r="P170" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q170" s="46">
         <v>44182</v>
       </c>
       <c r="R170" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S170" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14608,16 +14701,16 @@
         <v>1066</v>
       </c>
       <c r="P171" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q171" s="46">
         <v>44182</v>
       </c>
       <c r="R171" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S171" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14667,16 +14760,16 @@
         <v>1066</v>
       </c>
       <c r="P172" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q172" s="46">
         <v>44182</v>
       </c>
       <c r="R172" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S172" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16892,7 +16985,7 @@
       <c r="A220" s="27">
         <v>1</v>
       </c>
-      <c r="B220" s="48" t="s">
+      <c r="B220" s="47" t="s">
         <v>790</v>
       </c>
       <c r="C220" s="21" t="s">
@@ -17039,7 +17132,7 @@
         <v>1066</v>
       </c>
       <c r="P222" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q222" s="46">
         <v>44166</v>
@@ -17096,7 +17189,7 @@
         <v>1066</v>
       </c>
       <c r="P223" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q223" s="46">
         <v>44166</v>
@@ -17153,7 +17246,7 @@
         <v>1066</v>
       </c>
       <c r="P224" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q224" s="46">
         <v>44166</v>
@@ -17210,7 +17303,7 @@
         <v>1066</v>
       </c>
       <c r="P225" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q225" s="46">
         <v>44166</v>
@@ -17267,7 +17360,7 @@
         <v>1066</v>
       </c>
       <c r="P226" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q226" s="46">
         <v>44166</v>
@@ -17324,7 +17417,7 @@
         <v>1066</v>
       </c>
       <c r="P227" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q227" s="46">
         <v>44166</v>
@@ -17381,7 +17474,7 @@
         <v>1066</v>
       </c>
       <c r="P228" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q228" s="46">
         <v>44166</v>
@@ -17438,7 +17531,7 @@
         <v>1066</v>
       </c>
       <c r="P229" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q229" s="46">
         <v>44166</v>
@@ -17495,7 +17588,7 @@
         <v>1066</v>
       </c>
       <c r="P230" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q230" s="46">
         <v>44166</v>
@@ -17552,7 +17645,7 @@
         <v>1066</v>
       </c>
       <c r="P231" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q231" s="46">
         <v>44166</v>
@@ -17609,7 +17702,7 @@
         <v>1066</v>
       </c>
       <c r="P232" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q232" s="46">
         <v>44166</v>
@@ -17666,7 +17759,7 @@
         <v>1066</v>
       </c>
       <c r="P233" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q233" s="46">
         <v>44166</v>
@@ -17723,7 +17816,7 @@
         <v>1066</v>
       </c>
       <c r="P234" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q234" s="46">
         <v>44166</v>
@@ -17780,7 +17873,7 @@
         <v>1066</v>
       </c>
       <c r="P235" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q235" s="46">
         <v>44166</v>
@@ -17837,7 +17930,7 @@
         <v>1066</v>
       </c>
       <c r="P236" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q236" s="46">
         <v>44166</v>
@@ -17894,7 +17987,7 @@
         <v>1066</v>
       </c>
       <c r="P237" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q237" s="46">
         <v>44166</v>
@@ -17951,7 +18044,7 @@
         <v>1066</v>
       </c>
       <c r="P238" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q238" s="46">
         <v>44166</v>
@@ -18008,7 +18101,7 @@
         <v>1066</v>
       </c>
       <c r="P239" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q239" s="46">
         <v>44166</v>
@@ -18065,7 +18158,7 @@
         <v>1066</v>
       </c>
       <c r="P240" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q240" s="46">
         <v>44166</v>
@@ -18122,7 +18215,7 @@
         <v>1066</v>
       </c>
       <c r="P241" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q241" s="46">
         <v>44166</v>
@@ -18179,7 +18272,7 @@
         <v>1066</v>
       </c>
       <c r="P242" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q242" s="46">
         <v>44166</v>
@@ -18236,7 +18329,7 @@
         <v>1066</v>
       </c>
       <c r="P243" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q243" s="46">
         <v>44166</v>
@@ -18293,7 +18386,7 @@
         <v>1066</v>
       </c>
       <c r="P244" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q244" s="46">
         <v>44166</v>
@@ -18350,7 +18443,7 @@
         <v>1066</v>
       </c>
       <c r="P245" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q245" s="46">
         <v>44166</v>
@@ -18407,7 +18500,7 @@
         <v>1066</v>
       </c>
       <c r="P246" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q246" s="46">
         <v>44166</v>
@@ -18464,7 +18557,7 @@
         <v>1066</v>
       </c>
       <c r="P247" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q247" s="46">
         <v>44166</v>
@@ -18521,7 +18614,7 @@
         <v>1066</v>
       </c>
       <c r="P248" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q248" s="46">
         <v>44166</v>
@@ -18578,7 +18671,7 @@
         <v>1066</v>
       </c>
       <c r="P249" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q249" s="46">
         <v>44166</v>
@@ -18635,7 +18728,7 @@
         <v>1066</v>
       </c>
       <c r="P250" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q250" s="46">
         <v>44166</v>
@@ -18692,7 +18785,7 @@
         <v>1066</v>
       </c>
       <c r="P251" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q251" s="46">
         <v>44166</v>
@@ -18749,7 +18842,7 @@
         <v>1066</v>
       </c>
       <c r="P252" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q252" s="46">
         <v>44166</v>
@@ -18806,7 +18899,7 @@
         <v>1066</v>
       </c>
       <c r="P253" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q253" s="46">
         <v>44166</v>
@@ -18863,7 +18956,7 @@
         <v>1066</v>
       </c>
       <c r="P254" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q254" s="46">
         <v>44166</v>
@@ -18920,7 +19013,7 @@
         <v>1066</v>
       </c>
       <c r="P255" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q255" s="46">
         <v>44166</v>
@@ -18977,7 +19070,7 @@
         <v>1066</v>
       </c>
       <c r="P256" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q256" s="46">
         <v>44166</v>
@@ -19034,7 +19127,7 @@
         <v>1066</v>
       </c>
       <c r="P257" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q257" s="46">
         <v>44166</v>
@@ -19091,7 +19184,7 @@
         <v>1066</v>
       </c>
       <c r="P258" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q258" s="46">
         <v>44166</v>
@@ -19148,7 +19241,7 @@
         <v>1066</v>
       </c>
       <c r="P259" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q259" s="46">
         <v>44166</v>
@@ -19205,7 +19298,7 @@
         <v>1066</v>
       </c>
       <c r="P260" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q260" s="46">
         <v>44166</v>
@@ -19262,7 +19355,7 @@
         <v>1066</v>
       </c>
       <c r="P261" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q261" s="46">
         <v>44166</v>
@@ -19319,7 +19412,7 @@
         <v>1066</v>
       </c>
       <c r="P262" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q262" s="46">
         <v>44166</v>
@@ -19376,7 +19469,7 @@
         <v>1066</v>
       </c>
       <c r="P263" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q263" s="46">
         <v>44166</v>
@@ -19433,7 +19526,7 @@
         <v>1066</v>
       </c>
       <c r="P264" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q264" s="46">
         <v>44166</v>
@@ -19490,7 +19583,7 @@
         <v>1066</v>
       </c>
       <c r="P265" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q265" s="46">
         <v>44166</v>
@@ -19547,7 +19640,7 @@
         <v>1066</v>
       </c>
       <c r="P266" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q266" s="46">
         <v>44166</v>
@@ -19604,7 +19697,7 @@
         <v>1066</v>
       </c>
       <c r="P267" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q267" s="46">
         <v>44166</v>
@@ -19714,10 +19807,10 @@
         <v>44182</v>
       </c>
       <c r="R269" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S269" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19773,10 +19866,10 @@
         <v>44182</v>
       </c>
       <c r="R270" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S270" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19832,10 +19925,10 @@
         <v>44182</v>
       </c>
       <c r="R271" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S271" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19885,7 +19978,7 @@
         <v>1066</v>
       </c>
       <c r="P272" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q272" s="46">
         <v>44166</v>
@@ -19942,7 +20035,7 @@
         <v>1066</v>
       </c>
       <c r="P273" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q273" s="46">
         <v>44166</v>
@@ -20093,7 +20186,7 @@
         <v>1066</v>
       </c>
       <c r="P276" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q276" s="46">
         <v>44166</v>
@@ -20150,7 +20243,7 @@
         <v>1066</v>
       </c>
       <c r="P277" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q277" s="46">
         <v>44166</v>
@@ -20207,7 +20300,7 @@
         <v>1066</v>
       </c>
       <c r="P278" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q278" s="46">
         <v>44166</v>
@@ -20264,7 +20357,7 @@
         <v>1066</v>
       </c>
       <c r="P279" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q279" s="46">
         <v>44166</v>
@@ -20509,7 +20602,7 @@
         <v>1066</v>
       </c>
       <c r="P284" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q284" s="46">
         <v>44166</v>
@@ -20707,7 +20800,7 @@
         <v>1066</v>
       </c>
       <c r="P288" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q288" s="46">
         <v>44166</v>
@@ -20764,7 +20857,7 @@
         <v>1066</v>
       </c>
       <c r="P289" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q289" s="46">
         <v>44166</v>
@@ -20821,7 +20914,7 @@
         <v>1066</v>
       </c>
       <c r="P290" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q290" s="46">
         <v>44166</v>
@@ -20878,7 +20971,7 @@
         <v>1066</v>
       </c>
       <c r="P291" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q291" s="46">
         <v>44166</v>
@@ -20935,7 +21028,7 @@
         <v>1066</v>
       </c>
       <c r="P292" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q292" s="46">
         <v>44166</v>
@@ -20992,7 +21085,7 @@
         <v>1066</v>
       </c>
       <c r="P293" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q293" s="46">
         <v>44166</v>
@@ -21049,7 +21142,7 @@
         <v>1066</v>
       </c>
       <c r="P294" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q294" s="46">
         <v>44166</v>
@@ -21112,10 +21205,10 @@
         <v>44182</v>
       </c>
       <c r="R295" s="46" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S295" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21165,7 +21258,7 @@
         <v>1066</v>
       </c>
       <c r="P296" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q296" s="46">
         <v>44166</v>
@@ -21575,7 +21668,7 @@
         <v>1066</v>
       </c>
       <c r="P304" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q304" s="46">
         <v>44182</v>
@@ -21632,7 +21725,7 @@
         <v>1066</v>
       </c>
       <c r="P305" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q305" s="46">
         <v>44182</v>
@@ -35140,11 +35233,22 @@
   <autoFilter ref="A1:S585" xr:uid="{462B357B-D08B-41C7-9173-012688EAF9F7}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"TestAanpassen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"nvt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P54">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"nvt"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35186,10 +35290,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
@@ -35474,12 +35578,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="58" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368ACCD-2EFC-4CB1-9D40-C69A443457E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF85CE2-C0DB-4417-8A11-7212555E9437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7943" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7984" uniqueCount="1287">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3788,12 +3788,6 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>bestaat_niet.xml geeft geen fout terug?</t>
-  </si>
-  <si>
-    <t>zit_niet_in_manifest.xml geeft geen fout (?)</t>
-  </si>
-  <si>
     <t>Nog uitzoeken wat hier gebeurd is.</t>
   </si>
   <si>
@@ -3821,39 +3815,9 @@
     <t>Geonovum</t>
   </si>
   <si>
-    <t>Internal Server Error</t>
-  </si>
-  <si>
     <t>opdracht_17</t>
   </si>
   <si>
-    <t>opdracht_lvbb1002</t>
-  </si>
-  <si>
-    <t>opdracht_lvbb1003</t>
-  </si>
-  <si>
-    <t>opdracht_lvbb1005</t>
-  </si>
-  <si>
-    <t>opdracht_lvbb1006</t>
-  </si>
-  <si>
-    <t>opdracht_lvbb1007</t>
-  </si>
-  <si>
-    <t>opdracht_lvbb1008</t>
-  </si>
-  <si>
-    <t>opdracht_lvbb1004</t>
-  </si>
-  <si>
-    <t>opdracht_lvbb1022</t>
-  </si>
-  <si>
-    <t>opdracht_lvbb1023</t>
-  </si>
-  <si>
     <t>De enige fout die getriggerd wordt is LVBB1010</t>
   </si>
   <si>
@@ -3872,9 +3836,6 @@
     <t>DatumBekendmaking ligt in het verleden</t>
   </si>
   <si>
-    <t>We krijgen hier een andere fout terug (1018, die onterecht is.)</t>
-  </si>
-  <si>
     <t>opdracht_lvbb1013.zip</t>
   </si>
   <si>
@@ -3887,7 +3848,10 @@
     <t>opdracht_lvbb1024.zip</t>
   </si>
   <si>
-    <t>Deze fout kan niet volgens OW-schema's, we krijgen LVBB1015 terug.</t>
+    <t>opdracht_lvbb1025.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1026.zip</t>
   </si>
   <si>
     <t>Geeft een LVBB1016-foutmelding</t>
@@ -3896,16 +3860,94 @@
     <t>Kunnen we niet testen met OOW-portaal.</t>
   </si>
   <si>
-    <t>Hier komt een LVBB1021-fout terug ipv een LVBB-1011</t>
-  </si>
-  <si>
     <t>opdracht_lvbb1011.zip</t>
   </si>
   <si>
     <t>Geeft een LVBB1018-foutmelding</t>
   </si>
   <si>
-    <t>Geeft een LVBB1008-foutmelding, Test opnieuw draaien.</t>
+    <t>Geeft een LVBB1019-foutmelding</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB1512-foutmelding</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB1010-foutmelding</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB1015-foutmelding (kan ook niet volgens OW-schema's).</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1016.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1017.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1018.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1019.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1020.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1021.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1022.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1023.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1002.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1003.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1004.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1005.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1006.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1007.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1008.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1009.zip</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1010.zip</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB1021-foutmelding</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1501.zip</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB1006-foutmelding</t>
+  </si>
+  <si>
+    <t>opdracht_lvbb1503.zip</t>
+  </si>
+  <si>
+    <t>We weten niet wat hier exact gevalideerd wordt.</t>
+  </si>
+  <si>
+    <t>Maken zodra wijzigingsbesluiten überhaupt kunnen.</t>
+  </si>
+  <si>
+    <t>Test moet nog gemaakt worden.</t>
   </si>
 </sst>
 </file>
@@ -4513,7 +4555,7 @@
     <cellStyle name="Standaard 8" xfId="6" xr:uid="{4492B760-AE1B-46F5-BB01-F20D2648A2DB}"/>
     <cellStyle name="Title 2" xfId="10" xr:uid="{7E65A99B-BE5B-4D5A-90AB-4BE5E71E069B}"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -4546,590 +4588,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5207,10 +4665,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project Timeline" pivot="0" count="4" xr9:uid="{94F838F7-CCC6-442C-9CDB-4977D3904284}">
-      <tableStyleElement type="wholeTable" dxfId="72"/>
-      <tableStyleElement type="headerRow" dxfId="71"/>
-      <tableStyleElement type="firstRowStripe" dxfId="70"/>
-      <tableStyleElement type="secondRowStripe" dxfId="69"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5578,9 +5036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R56" sqref="R56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5652,7 +5110,7 @@
         <v>1231</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="S1" s="43" t="s">
         <v>1230</v>
@@ -6556,7 +6014,7 @@
       </c>
       <c r="R20" s="46"/>
       <c r="S20" s="21" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6610,7 +6068,7 @@
         <v>44166</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S21" s="21"/>
     </row>
@@ -6665,7 +6123,7 @@
         <v>44166</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S22" s="21"/>
     </row>
@@ -6720,7 +6178,7 @@
         <v>44166</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S23" s="21"/>
     </row>
@@ -6775,7 +6233,7 @@
         <v>44166</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S24" s="21"/>
     </row>
@@ -6830,7 +6288,7 @@
         <v>44166</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S25" s="21"/>
     </row>
@@ -6885,7 +6343,7 @@
         <v>44166</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S26" s="21"/>
     </row>
@@ -6940,7 +6398,7 @@
         <v>44166</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S27" s="21"/>
     </row>
@@ -6995,7 +6453,7 @@
         <v>44166</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S28" s="21"/>
     </row>
@@ -7050,7 +6508,7 @@
         <v>44166</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S29" s="21"/>
     </row>
@@ -7105,7 +6563,7 @@
         <v>44166</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S30" s="21"/>
     </row>
@@ -7160,7 +6618,7 @@
         <v>44166</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S31" s="21"/>
     </row>
@@ -7215,7 +6673,7 @@
         <v>44166</v>
       </c>
       <c r="R32" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S32" s="21"/>
     </row>
@@ -7270,7 +6728,7 @@
         <v>44166</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="S33" s="21"/>
     </row>
@@ -7515,20 +6973,20 @@
         <v>24</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P38" s="21">
-        <v>500</v>
-      </c>
-      <c r="Q38" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R38" s="46"/>
+      <c r="P38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46" t="s">
+        <v>1241</v>
+      </c>
       <c r="S38" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7572,20 +7030,22 @@
         <v>24</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>1246</v>
+        <v>1271</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P39" s="21">
-        <v>500</v>
+      <c r="P39" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="Q39" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R39" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R39" s="46" t="s">
+        <v>1241</v>
+      </c>
       <c r="S39" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7629,20 +7089,22 @@
         <v>24</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1247</v>
+        <v>1272</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P40" s="21">
-        <v>500</v>
+      <c r="P40" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="Q40" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R40" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R40" s="46" t="s">
+        <v>1241</v>
+      </c>
       <c r="S40" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7686,20 +7148,22 @@
         <v>24</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1252</v>
+        <v>1273</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P41" s="21">
-        <v>500</v>
+      <c r="P41" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="Q41" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R41" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R41" s="46" t="s">
+        <v>1241</v>
+      </c>
       <c r="S41" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7743,20 +7207,22 @@
         <v>24</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>1248</v>
+        <v>1274</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P42" s="21">
-        <v>500</v>
+      <c r="P42" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="Q42" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R42" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R42" s="46" t="s">
+        <v>1241</v>
+      </c>
       <c r="S42" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7800,20 +7266,22 @@
         <v>24</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>1249</v>
+        <v>1275</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P43" s="21">
-        <v>500</v>
+      <c r="P43" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="Q43" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R43" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R43" s="46" t="s">
+        <v>1241</v>
+      </c>
       <c r="S43" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7857,20 +7325,22 @@
         <v>24</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>1250</v>
+        <v>1276</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P44" s="21">
-        <v>500</v>
+      <c r="P44" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="Q44" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R44" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R44" s="46" t="s">
+        <v>1241</v>
+      </c>
       <c r="S44" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7914,20 +7384,22 @@
         <v>24</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>1251</v>
+        <v>1277</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="P45" s="21">
-        <v>500</v>
+      <c r="P45" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="Q45" s="46">
-        <v>44167</v>
-      </c>
-      <c r="R45" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R45" s="46" t="s">
+        <v>1241</v>
+      </c>
       <c r="S45" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7938,7 +7410,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>502</v>
@@ -7971,7 +7443,7 @@
         <v>24</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>1211</v>
+        <v>1278</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>1066</v>
@@ -7980,13 +7452,13 @@
         <v>1232</v>
       </c>
       <c r="Q46" s="46">
-        <v>44166</v>
+        <v>44208</v>
       </c>
       <c r="R46" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8030,22 +7502,20 @@
         <v>24</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>1211</v>
+        <v>1279</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="Q47" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R47" s="46" t="s">
-        <v>1241</v>
-      </c>
+        <v>44208</v>
+      </c>
+      <c r="R47" s="46"/>
       <c r="S47" s="21" t="s">
-        <v>1234</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8089,7 +7559,7 @@
         <v>24</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>1065</v>
@@ -8100,9 +7570,11 @@
       <c r="Q48" s="46">
         <v>44208</v>
       </c>
-      <c r="R48" s="46"/>
+      <c r="R48" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S48" s="21" t="s">
-        <v>1269</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8159,7 +7631,7 @@
       </c>
       <c r="R49" s="46"/>
       <c r="S49" s="21" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8203,7 +7675,7 @@
         <v>24</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>1066</v>
@@ -8214,9 +7686,11 @@
       <c r="Q50" s="46">
         <v>44208</v>
       </c>
-      <c r="R50" s="46"/>
+      <c r="R50" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S50" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8260,7 +7734,7 @@
         <v>24</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>1065</v>
@@ -8273,7 +7747,7 @@
       </c>
       <c r="R51" s="46"/>
       <c r="S51" s="21" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8316,8 +7790,8 @@
       <c r="M52" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="11" t="s">
-        <v>1211</v>
+      <c r="N52" s="21" t="s">
+        <v>1263</v>
       </c>
       <c r="O52" s="11" t="s">
         <v>1066</v>
@@ -8330,7 +7804,7 @@
       </c>
       <c r="R52" s="46"/>
       <c r="S52" s="21" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8373,8 +7847,8 @@
       <c r="M53" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N53" s="11" t="s">
-        <v>1211</v>
+      <c r="N53" s="21" t="s">
+        <v>1264</v>
       </c>
       <c r="O53" s="11" t="s">
         <v>1066</v>
@@ -8386,10 +7860,10 @@
         <v>44208</v>
       </c>
       <c r="R53" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8432,8 +7906,8 @@
       <c r="M54" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N54" s="11" t="s">
-        <v>1211</v>
+      <c r="N54" s="21" t="s">
+        <v>1265</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>1066</v>
@@ -8446,7 +7920,7 @@
       </c>
       <c r="R54" s="46"/>
       <c r="S54" s="21" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8489,23 +7963,23 @@
       <c r="M55" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N55" s="11" t="s">
-        <v>1211</v>
+      <c r="N55" s="21" t="s">
+        <v>1266</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>1256</v>
+        <v>1229</v>
       </c>
       <c r="Q55" s="46">
         <v>44208</v>
       </c>
       <c r="R55" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>1235</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8548,19 +8022,23 @@
       <c r="M56" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N56" s="11" t="s">
-        <v>1211</v>
+      <c r="N56" s="21" t="s">
+        <v>1267</v>
       </c>
       <c r="O56" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P56" s="21"/>
+      <c r="P56" s="21" t="s">
+        <v>1232</v>
+      </c>
       <c r="Q56" s="46">
         <v>44208</v>
       </c>
-      <c r="R56" s="46"/>
+      <c r="R56" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S56" s="21" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8603,8 +8081,8 @@
       <c r="M57" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="11" t="s">
-        <v>1211</v>
+      <c r="N57" s="21" t="s">
+        <v>1268</v>
       </c>
       <c r="O57" s="11" t="s">
         <v>1066</v>
@@ -8613,11 +8091,13 @@
         <v>1232</v>
       </c>
       <c r="Q57" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R57" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R57" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S57" s="21" t="s">
-        <v>1235</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8661,20 +8141,20 @@
         <v>24</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>1253</v>
+        <v>1269</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>1066</v>
       </c>
-      <c r="P58" s="21">
-        <v>500</v>
+      <c r="P58" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="Q58" s="46">
-        <v>44167</v>
+        <v>44208</v>
       </c>
       <c r="R58" s="46"/>
       <c r="S58" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8718,20 +8198,20 @@
         <v>24</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>1254</v>
+        <v>1270</v>
       </c>
       <c r="O59" s="21" t="s">
         <v>1066</v>
       </c>
-      <c r="P59" s="21">
-        <v>500</v>
+      <c r="P59" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="Q59" s="46">
-        <v>44167</v>
+        <v>44208</v>
       </c>
       <c r="R59" s="46"/>
       <c r="S59" s="21" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8775,7 +8255,7 @@
         <v>24</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="O60" s="11"/>
       <c r="P60" s="21" t="s">
@@ -8784,9 +8264,11 @@
       <c r="Q60" s="46">
         <v>44208</v>
       </c>
-      <c r="R60" s="46"/>
+      <c r="R60" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S60" s="21" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8829,12 +8311,22 @@
       <c r="M61" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="11"/>
+      <c r="N61" s="11" t="s">
+        <v>1253</v>
+      </c>
       <c r="O61" s="11"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="21"/>
+      <c r="P61" s="21" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Q61" s="46">
+        <v>44208</v>
+      </c>
+      <c r="R61" s="46" t="s">
+        <v>1239</v>
+      </c>
+      <c r="S61" s="21" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
@@ -8876,12 +8368,22 @@
       <c r="M62" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="11"/>
+      <c r="N62" s="11" t="s">
+        <v>1254</v>
+      </c>
       <c r="O62" s="11"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="21"/>
+      <c r="P62" s="21" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Q62" s="46">
+        <v>44208</v>
+      </c>
+      <c r="R62" s="46" t="s">
+        <v>1239</v>
+      </c>
+      <c r="S62" s="21" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
@@ -8924,22 +8426,22 @@
         <v>24</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>1212</v>
+        <v>1281</v>
       </c>
       <c r="O63" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P63" s="21" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="Q63" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R63" s="46" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>1255</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8984,10 +8486,16 @@
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="46"/>
+      <c r="P64" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q64" s="46">
+        <v>44208</v>
+      </c>
       <c r="R64" s="46"/>
-      <c r="S64" s="21"/>
+      <c r="S64" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
@@ -9030,22 +8538,22 @@
         <v>24</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>1212</v>
+        <v>1283</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P65" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q65" s="46">
+        <v>44208</v>
+      </c>
+      <c r="R65" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S65" s="21" t="s">
         <v>1256</v>
-      </c>
-      <c r="Q65" s="46">
-        <v>44182</v>
-      </c>
-      <c r="R65" s="46" t="s">
-        <v>1243</v>
-      </c>
-      <c r="S65" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9088,8 +8596,9 @@
       <c r="M66" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N66" s="11" t="s">
-        <v>1213</v>
+      <c r="N66" s="11" t="str">
+        <f>"opdracht_"&amp;B66&amp;".zip"</f>
+        <v>opdracht_LVBB1505.zip</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>1066</v>
@@ -9098,13 +8607,13 @@
         <v>84</v>
       </c>
       <c r="Q66" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R66" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9147,23 +8656,24 @@
       <c r="M67" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N67" s="21" t="s">
-        <v>1213</v>
+      <c r="N67" s="21" t="str">
+        <f t="shared" ref="N67:N91" si="0">"opdracht_"&amp;B67&amp;".zip"</f>
+        <v>opdracht_LVBB1506.zip</v>
       </c>
       <c r="O67" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P67" s="21" t="s">
-        <v>84</v>
+        <v>1232</v>
       </c>
       <c r="Q67" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R67" s="46" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9206,23 +8716,17 @@
       <c r="M68" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N68" s="21" t="s">
-        <v>1213</v>
-      </c>
+      <c r="N68" s="21"/>
       <c r="O68" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P68" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q68" s="46">
-        <v>44182</v>
-      </c>
-      <c r="R68" s="46" t="s">
-        <v>1243</v>
-      </c>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
       <c r="S68" s="21" t="s">
-        <v>1257</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9265,12 +8769,16 @@
       <c r="M69" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N69" s="11"/>
+      <c r="N69" s="21"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="21"/>
+      <c r="P69" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q69" s="46"/>
       <c r="R69" s="46"/>
-      <c r="S69" s="21"/>
+      <c r="S69" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
@@ -9312,12 +8820,16 @@
       <c r="M70" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="21"/>
       <c r="O70" s="11"/>
-      <c r="P70" s="21"/>
+      <c r="P70" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q70" s="46"/>
       <c r="R70" s="46"/>
-      <c r="S70" s="21"/>
+      <c r="S70" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
@@ -9359,8 +8871,9 @@
       <c r="M71" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N71" s="21" t="s">
-        <v>1213</v>
+      <c r="N71" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>opdracht_LVBB1510.zip</v>
       </c>
       <c r="O71" s="21" t="s">
         <v>1066</v>
@@ -9369,13 +8882,13 @@
         <v>84</v>
       </c>
       <c r="Q71" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R71" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9418,23 +8931,24 @@
       <c r="M72" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N72" s="21" t="s">
-        <v>1213</v>
+      <c r="N72" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>opdracht_LVBB1511.zip</v>
       </c>
       <c r="O72" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>84</v>
+        <v>1232</v>
       </c>
       <c r="Q72" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R72" s="46" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>1257</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9477,18 +8991,22 @@
       <c r="M73" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N73" s="11"/>
+      <c r="N73" s="21"/>
       <c r="O73" s="11"/>
-      <c r="P73" s="21"/>
+      <c r="P73" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q73" s="46"/>
       <c r="R73" s="46"/>
-      <c r="S73" s="21"/>
+      <c r="S73" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>2</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="15" t="s">
         <v>1075</v>
       </c>
       <c r="C74" s="21" t="s">
@@ -9524,12 +9042,16 @@
       <c r="M74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N74" s="11"/>
+      <c r="N74" s="21"/>
       <c r="O74" s="11"/>
-      <c r="P74" s="21"/>
+      <c r="P74" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q74" s="46"/>
       <c r="R74" s="46"/>
-      <c r="S74" s="21"/>
+      <c r="S74" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
@@ -9571,23 +9093,24 @@
       <c r="M75" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="21" t="s">
-        <v>1212</v>
+      <c r="N75" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>opdracht_LVBB1514.zip</v>
       </c>
       <c r="O75" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P75" s="21" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="Q75" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R75" s="46" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9630,12 +9153,16 @@
       <c r="M76" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="11"/>
+      <c r="N76" s="21"/>
       <c r="O76" s="11"/>
-      <c r="P76" s="21"/>
+      <c r="P76" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q76" s="46"/>
       <c r="R76" s="46"/>
-      <c r="S76" s="21"/>
+      <c r="S76" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
@@ -9677,12 +9204,16 @@
       <c r="M77" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N77" s="11"/>
+      <c r="N77" s="21"/>
       <c r="O77" s="11"/>
-      <c r="P77" s="21"/>
+      <c r="P77" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q77" s="46"/>
       <c r="R77" s="46"/>
-      <c r="S77" s="21"/>
+      <c r="S77" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
@@ -9724,12 +9255,16 @@
       <c r="M78" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N78" s="11"/>
+      <c r="N78" s="21"/>
       <c r="O78" s="11"/>
-      <c r="P78" s="21"/>
+      <c r="P78" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q78" s="46"/>
       <c r="R78" s="46"/>
-      <c r="S78" s="21"/>
+      <c r="S78" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
@@ -9771,12 +9306,16 @@
       <c r="M79" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N79" s="11"/>
+      <c r="N79" s="21"/>
       <c r="O79" s="11"/>
-      <c r="P79" s="21"/>
+      <c r="P79" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q79" s="46"/>
       <c r="R79" s="46"/>
-      <c r="S79" s="21"/>
+      <c r="S79" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
@@ -9818,12 +9357,16 @@
       <c r="M80" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N80" s="11"/>
+      <c r="N80" s="21"/>
       <c r="O80" s="11"/>
-      <c r="P80" s="21"/>
+      <c r="P80" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q80" s="46"/>
       <c r="R80" s="46"/>
-      <c r="S80" s="21"/>
+      <c r="S80" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
@@ -9865,12 +9408,16 @@
       <c r="M81" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N81" s="11"/>
+      <c r="N81" s="21"/>
       <c r="O81" s="11"/>
-      <c r="P81" s="21"/>
+      <c r="P81" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q81" s="46"/>
       <c r="R81" s="46"/>
-      <c r="S81" s="21"/>
+      <c r="S81" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
@@ -9912,12 +9459,16 @@
       <c r="M82" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N82" s="11"/>
+      <c r="N82" s="21"/>
       <c r="O82" s="11"/>
-      <c r="P82" s="21"/>
+      <c r="P82" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q82" s="46"/>
       <c r="R82" s="46"/>
-      <c r="S82" s="21"/>
+      <c r="S82" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
@@ -9959,12 +9510,16 @@
       <c r="M83" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N83" s="11"/>
+      <c r="N83" s="21"/>
       <c r="O83" s="11"/>
-      <c r="P83" s="21"/>
+      <c r="P83" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q83" s="46"/>
       <c r="R83" s="46"/>
-      <c r="S83" s="21"/>
+      <c r="S83" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
@@ -10006,14 +9561,22 @@
       <c r="M84" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N84" s="11"/>
+      <c r="N84" s="21"/>
       <c r="O84" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="46"/>
-      <c r="S84" s="21"/>
+      <c r="P84" s="21" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q84" s="46">
+        <v>44208</v>
+      </c>
+      <c r="R84" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S84" s="21" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
@@ -10055,12 +9618,16 @@
       <c r="M85" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N85" s="11"/>
+      <c r="N85" s="21"/>
       <c r="O85" s="11"/>
-      <c r="P85" s="21"/>
+      <c r="P85" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q85" s="46"/>
       <c r="R85" s="46"/>
-      <c r="S85" s="21"/>
+      <c r="S85" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
@@ -10102,8 +9669,9 @@
       <c r="M86" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N86" s="11" t="s">
-        <v>1211</v>
+      <c r="N86" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>opdracht_LVBB2003.zip</v>
       </c>
       <c r="O86" s="11" t="s">
         <v>1066</v>
@@ -10112,11 +9680,13 @@
         <v>1232</v>
       </c>
       <c r="Q86" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R86" s="46"/>
+        <v>44208</v>
+      </c>
+      <c r="R86" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S86" s="21" t="s">
-        <v>1235</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10159,12 +9729,16 @@
       <c r="M87" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N87" s="11"/>
+      <c r="N87" s="21"/>
       <c r="O87" s="11"/>
-      <c r="P87" s="21"/>
+      <c r="P87" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="Q87" s="46"/>
       <c r="R87" s="46"/>
-      <c r="S87" s="21"/>
+      <c r="S87" s="21" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
@@ -10206,23 +9780,24 @@
       <c r="M88" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N88" s="21" t="s">
-        <v>1212</v>
+      <c r="N88" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>opdracht_LVBB2006.zip</v>
       </c>
       <c r="O88" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P88" s="21" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="Q88" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R88" s="46" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10265,23 +9840,24 @@
       <c r="M89" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N89" s="21" t="s">
-        <v>1212</v>
+      <c r="N89" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>opdracht_LVBB2007.zip</v>
       </c>
       <c r="O89" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P89" s="21" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="Q89" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R89" s="46" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="S89" s="21" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10324,23 +9900,24 @@
       <c r="M90" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N90" s="21" t="s">
-        <v>1212</v>
+      <c r="N90" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>opdracht_LVBB2008.zip</v>
       </c>
       <c r="O90" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P90" s="21" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="Q90" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R90" s="46" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="S90" s="21" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10383,23 +9960,24 @@
       <c r="M91" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N91" s="21" t="s">
-        <v>1212</v>
+      <c r="N91" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>opdracht_LVBB2009.zip</v>
       </c>
       <c r="O91" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P91" s="21" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="Q91" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R91" s="46" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10442,23 +10020,19 @@
       <c r="M92" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N92" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N92" s="21"/>
       <c r="O92" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P92" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q92" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q92" s="46"/>
       <c r="R92" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10501,23 +10075,19 @@
       <c r="M93" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N93" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N93" s="21"/>
       <c r="O93" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P93" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q93" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q93" s="46"/>
       <c r="R93" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10560,23 +10130,19 @@
       <c r="M94" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N94" s="21"/>
       <c r="O94" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P94" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q94" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q94" s="46"/>
       <c r="R94" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10619,23 +10185,19 @@
       <c r="M95" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N95" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N95" s="21"/>
       <c r="O95" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P95" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q95" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q95" s="46"/>
       <c r="R95" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S95" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10678,23 +10240,19 @@
       <c r="M96" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N96" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N96" s="21"/>
       <c r="O96" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P96" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q96" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q96" s="46"/>
       <c r="R96" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S96" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10737,23 +10295,19 @@
       <c r="M97" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N97" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N97" s="21"/>
       <c r="O97" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P97" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q97" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q97" s="46"/>
       <c r="R97" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S97" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10796,23 +10350,19 @@
       <c r="M98" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N98" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N98" s="21"/>
       <c r="O98" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P98" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q98" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q98" s="46"/>
       <c r="R98" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S98" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10855,23 +10405,19 @@
       <c r="M99" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N99" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N99" s="21"/>
       <c r="O99" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P99" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q99" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q99" s="46"/>
       <c r="R99" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S99" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10914,23 +10460,19 @@
       <c r="M100" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N100" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N100" s="21"/>
       <c r="O100" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P100" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q100" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q100" s="46"/>
       <c r="R100" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S100" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10973,23 +10515,19 @@
       <c r="M101" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N101" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N101" s="21"/>
       <c r="O101" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P101" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q101" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q101" s="46"/>
       <c r="R101" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S101" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11032,23 +10570,19 @@
       <c r="M102" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N102" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N102" s="21"/>
       <c r="O102" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P102" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q102" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q102" s="46"/>
       <c r="R102" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S102" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11091,23 +10625,19 @@
       <c r="M103" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N103" s="21" t="s">
-        <v>1212</v>
-      </c>
+      <c r="N103" s="21"/>
       <c r="O103" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P103" s="21" t="s">
-        <v>1256</v>
-      </c>
-      <c r="Q103" s="46">
-        <v>44182</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="Q103" s="46"/>
       <c r="R103" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11493,7 +11023,7 @@
       </c>
       <c r="R111" s="46"/>
       <c r="S111" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11590,16 +11120,16 @@
         <v>1066</v>
       </c>
       <c r="P113" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q113" s="46">
         <v>44182</v>
       </c>
       <c r="R113" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S113" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S113" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11656,7 +11186,7 @@
       </c>
       <c r="R114" s="46"/>
       <c r="S114" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11713,7 +11243,7 @@
       </c>
       <c r="R115" s="46"/>
       <c r="S115" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11770,7 +11300,7 @@
       </c>
       <c r="R116" s="46"/>
       <c r="S116" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11921,7 +11451,7 @@
       </c>
       <c r="R119" s="46"/>
       <c r="S119" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11978,7 +11508,7 @@
       </c>
       <c r="R120" s="46"/>
       <c r="S120" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12035,7 +11565,7 @@
       </c>
       <c r="R121" s="46"/>
       <c r="S121" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12092,7 +11622,7 @@
       </c>
       <c r="R122" s="46"/>
       <c r="S122" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12149,7 +11679,7 @@
       </c>
       <c r="R123" s="46"/>
       <c r="S123" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12253,7 +11783,7 @@
       </c>
       <c r="R125" s="46"/>
       <c r="S125" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12303,16 +11833,16 @@
         <v>1066</v>
       </c>
       <c r="P126" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q126" s="46">
         <v>44182</v>
       </c>
       <c r="R126" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S126" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S126" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12362,16 +11892,16 @@
         <v>1066</v>
       </c>
       <c r="P127" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q127" s="46">
         <v>44182</v>
       </c>
       <c r="R127" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S127" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S127" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12421,16 +11951,16 @@
         <v>1066</v>
       </c>
       <c r="P128" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q128" s="46">
         <v>44182</v>
       </c>
       <c r="R128" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S128" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S128" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12480,16 +12010,16 @@
         <v>1066</v>
       </c>
       <c r="P129" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q129" s="46">
         <v>44182</v>
       </c>
       <c r="R129" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S129" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S129" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12539,16 +12069,16 @@
         <v>1066</v>
       </c>
       <c r="P130" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q130" s="46">
         <v>44182</v>
       </c>
       <c r="R130" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S130" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S130" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12741,16 +12271,16 @@
         <v>1066</v>
       </c>
       <c r="P134" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q134" s="46">
         <v>44182</v>
       </c>
       <c r="R134" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S134" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S134" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12800,16 +12330,16 @@
         <v>1066</v>
       </c>
       <c r="P135" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q135" s="46">
         <v>44182</v>
       </c>
       <c r="R135" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S135" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S135" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13102,10 +12632,10 @@
         <v>44182</v>
       </c>
       <c r="R141" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S141" s="21" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13249,16 +12779,16 @@
         <v>1066</v>
       </c>
       <c r="P144" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q144" s="46">
         <v>44182</v>
       </c>
       <c r="R144" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S144" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S144" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13355,16 +12885,16 @@
         <v>1066</v>
       </c>
       <c r="P146" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q146" s="46">
         <v>44182</v>
       </c>
       <c r="R146" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S146" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S146" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13414,16 +12944,16 @@
         <v>1066</v>
       </c>
       <c r="P147" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q147" s="46">
         <v>44182</v>
       </c>
       <c r="R147" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S147" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S147" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13473,16 +13003,16 @@
         <v>1066</v>
       </c>
       <c r="P148" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q148" s="46">
         <v>44166</v>
       </c>
       <c r="R148" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S148" s="21" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13532,16 +13062,16 @@
         <v>1066</v>
       </c>
       <c r="P149" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q149" s="46">
         <v>44166</v>
       </c>
       <c r="R149" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S149" s="21" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13591,16 +13121,16 @@
         <v>1066</v>
       </c>
       <c r="P150" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q150" s="46">
         <v>44166</v>
       </c>
       <c r="R150" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S150" s="21" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13697,16 +13227,16 @@
         <v>1066</v>
       </c>
       <c r="P152" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q152" s="46">
         <v>44166</v>
       </c>
       <c r="R152" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S152" s="21" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13844,7 +13374,7 @@
         <v>24</v>
       </c>
       <c r="N155" s="21" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="O155" s="25" t="s">
         <v>1066</v>
@@ -13907,10 +13437,10 @@
         <v>44182</v>
       </c>
       <c r="R156" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S156" s="21" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13966,10 +13496,10 @@
         <v>44182</v>
       </c>
       <c r="R157" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S157" s="21" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14065,16 +13595,16 @@
         <v>1066</v>
       </c>
       <c r="P159" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q159" s="46">
         <v>44166</v>
       </c>
       <c r="R159" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S159" s="21" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14218,16 +13748,16 @@
         <v>1066</v>
       </c>
       <c r="P162" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q162" s="46">
         <v>44182</v>
       </c>
       <c r="R162" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S162" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="S162" s="21" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14418,16 +13948,16 @@
         <v>1066</v>
       </c>
       <c r="P166" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q166" s="46">
         <v>44166</v>
       </c>
       <c r="R166" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S166" s="21" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14477,16 +14007,16 @@
         <v>1066</v>
       </c>
       <c r="P167" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q167" s="46">
         <v>44166</v>
       </c>
       <c r="R167" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S167" s="21" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14542,10 +14072,10 @@
         <v>44182</v>
       </c>
       <c r="R168" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S168" s="21" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14642,16 +14172,16 @@
         <v>1066</v>
       </c>
       <c r="P170" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q170" s="46">
         <v>44182</v>
       </c>
       <c r="R170" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S170" s="21" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14701,16 +14231,16 @@
         <v>1066</v>
       </c>
       <c r="P171" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q171" s="46">
         <v>44182</v>
       </c>
       <c r="R171" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S171" s="21" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14760,16 +14290,16 @@
         <v>1066</v>
       </c>
       <c r="P172" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q172" s="46">
         <v>44182</v>
       </c>
       <c r="R172" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S172" s="21" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17035,7 +16565,7 @@
       </c>
       <c r="R220" s="46"/>
       <c r="S220" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17132,14 +16662,14 @@
         <v>1066</v>
       </c>
       <c r="P222" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q222" s="46">
         <v>44166</v>
       </c>
       <c r="R222" s="46"/>
       <c r="S222" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17189,14 +16719,14 @@
         <v>1066</v>
       </c>
       <c r="P223" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q223" s="46">
         <v>44166</v>
       </c>
       <c r="R223" s="46"/>
       <c r="S223" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17246,14 +16776,14 @@
         <v>1066</v>
       </c>
       <c r="P224" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q224" s="46">
         <v>44166</v>
       </c>
       <c r="R224" s="46"/>
       <c r="S224" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17303,14 +16833,14 @@
         <v>1066</v>
       </c>
       <c r="P225" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q225" s="46">
         <v>44166</v>
       </c>
       <c r="R225" s="46"/>
       <c r="S225" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17360,14 +16890,14 @@
         <v>1066</v>
       </c>
       <c r="P226" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q226" s="46">
         <v>44166</v>
       </c>
       <c r="R226" s="46"/>
       <c r="S226" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17417,14 +16947,14 @@
         <v>1066</v>
       </c>
       <c r="P227" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q227" s="46">
         <v>44166</v>
       </c>
       <c r="R227" s="46"/>
       <c r="S227" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17474,14 +17004,14 @@
         <v>1066</v>
       </c>
       <c r="P228" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q228" s="46">
         <v>44166</v>
       </c>
       <c r="R228" s="46"/>
       <c r="S228" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17531,14 +17061,14 @@
         <v>1066</v>
       </c>
       <c r="P229" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q229" s="46">
         <v>44166</v>
       </c>
       <c r="R229" s="46"/>
       <c r="S229" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17588,14 +17118,14 @@
         <v>1066</v>
       </c>
       <c r="P230" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q230" s="46">
         <v>44166</v>
       </c>
       <c r="R230" s="46"/>
       <c r="S230" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17645,14 +17175,14 @@
         <v>1066</v>
       </c>
       <c r="P231" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q231" s="46">
         <v>44166</v>
       </c>
       <c r="R231" s="46"/>
       <c r="S231" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17702,14 +17232,14 @@
         <v>1066</v>
       </c>
       <c r="P232" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q232" s="46">
         <v>44166</v>
       </c>
       <c r="R232" s="46"/>
       <c r="S232" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17759,14 +17289,14 @@
         <v>1066</v>
       </c>
       <c r="P233" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q233" s="46">
         <v>44166</v>
       </c>
       <c r="R233" s="46"/>
       <c r="S233" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17816,14 +17346,14 @@
         <v>1066</v>
       </c>
       <c r="P234" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q234" s="46">
         <v>44166</v>
       </c>
       <c r="R234" s="46"/>
       <c r="S234" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17873,14 +17403,14 @@
         <v>1066</v>
       </c>
       <c r="P235" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q235" s="46">
         <v>44166</v>
       </c>
       <c r="R235" s="46"/>
       <c r="S235" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17930,14 +17460,14 @@
         <v>1066</v>
       </c>
       <c r="P236" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q236" s="46">
         <v>44166</v>
       </c>
       <c r="R236" s="46"/>
       <c r="S236" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17987,14 +17517,14 @@
         <v>1066</v>
       </c>
       <c r="P237" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q237" s="46">
         <v>44166</v>
       </c>
       <c r="R237" s="46"/>
       <c r="S237" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18044,14 +17574,14 @@
         <v>1066</v>
       </c>
       <c r="P238" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q238" s="46">
         <v>44166</v>
       </c>
       <c r="R238" s="46"/>
       <c r="S238" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18101,14 +17631,14 @@
         <v>1066</v>
       </c>
       <c r="P239" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q239" s="46">
         <v>44166</v>
       </c>
       <c r="R239" s="46"/>
       <c r="S239" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18158,14 +17688,14 @@
         <v>1066</v>
       </c>
       <c r="P240" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q240" s="46">
         <v>44166</v>
       </c>
       <c r="R240" s="46"/>
       <c r="S240" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18215,14 +17745,14 @@
         <v>1066</v>
       </c>
       <c r="P241" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q241" s="46">
         <v>44166</v>
       </c>
       <c r="R241" s="46"/>
       <c r="S241" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18272,14 +17802,14 @@
         <v>1066</v>
       </c>
       <c r="P242" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q242" s="46">
         <v>44166</v>
       </c>
       <c r="R242" s="46"/>
       <c r="S242" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18329,14 +17859,14 @@
         <v>1066</v>
       </c>
       <c r="P243" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q243" s="46">
         <v>44166</v>
       </c>
       <c r="R243" s="46"/>
       <c r="S243" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18386,14 +17916,14 @@
         <v>1066</v>
       </c>
       <c r="P244" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q244" s="46">
         <v>44166</v>
       </c>
       <c r="R244" s="46"/>
       <c r="S244" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18443,14 +17973,14 @@
         <v>1066</v>
       </c>
       <c r="P245" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q245" s="46">
         <v>44166</v>
       </c>
       <c r="R245" s="46"/>
       <c r="S245" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18500,14 +18030,14 @@
         <v>1066</v>
       </c>
       <c r="P246" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q246" s="46">
         <v>44166</v>
       </c>
       <c r="R246" s="46"/>
       <c r="S246" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18557,14 +18087,14 @@
         <v>1066</v>
       </c>
       <c r="P247" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q247" s="46">
         <v>44166</v>
       </c>
       <c r="R247" s="46"/>
       <c r="S247" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18614,14 +18144,14 @@
         <v>1066</v>
       </c>
       <c r="P248" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q248" s="46">
         <v>44166</v>
       </c>
       <c r="R248" s="46"/>
       <c r="S248" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18671,14 +18201,14 @@
         <v>1066</v>
       </c>
       <c r="P249" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q249" s="46">
         <v>44166</v>
       </c>
       <c r="R249" s="46"/>
       <c r="S249" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18728,14 +18258,14 @@
         <v>1066</v>
       </c>
       <c r="P250" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q250" s="46">
         <v>44166</v>
       </c>
       <c r="R250" s="46"/>
       <c r="S250" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18785,14 +18315,14 @@
         <v>1066</v>
       </c>
       <c r="P251" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q251" s="46">
         <v>44166</v>
       </c>
       <c r="R251" s="46"/>
       <c r="S251" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18842,14 +18372,14 @@
         <v>1066</v>
       </c>
       <c r="P252" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q252" s="46">
         <v>44166</v>
       </c>
       <c r="R252" s="46"/>
       <c r="S252" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18899,14 +18429,14 @@
         <v>1066</v>
       </c>
       <c r="P253" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q253" s="46">
         <v>44166</v>
       </c>
       <c r="R253" s="46"/>
       <c r="S253" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18956,14 +18486,14 @@
         <v>1066</v>
       </c>
       <c r="P254" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q254" s="46">
         <v>44166</v>
       </c>
       <c r="R254" s="46"/>
       <c r="S254" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19013,14 +18543,14 @@
         <v>1066</v>
       </c>
       <c r="P255" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q255" s="46">
         <v>44166</v>
       </c>
       <c r="R255" s="46"/>
       <c r="S255" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19070,14 +18600,14 @@
         <v>1066</v>
       </c>
       <c r="P256" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q256" s="46">
         <v>44166</v>
       </c>
       <c r="R256" s="46"/>
       <c r="S256" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19127,14 +18657,14 @@
         <v>1066</v>
       </c>
       <c r="P257" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q257" s="46">
         <v>44166</v>
       </c>
       <c r="R257" s="46"/>
       <c r="S257" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19184,14 +18714,14 @@
         <v>1066</v>
       </c>
       <c r="P258" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q258" s="46">
         <v>44166</v>
       </c>
       <c r="R258" s="46"/>
       <c r="S258" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19241,14 +18771,14 @@
         <v>1066</v>
       </c>
       <c r="P259" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q259" s="46">
         <v>44166</v>
       </c>
       <c r="R259" s="46"/>
       <c r="S259" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19298,14 +18828,14 @@
         <v>1066</v>
       </c>
       <c r="P260" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q260" s="46">
         <v>44166</v>
       </c>
       <c r="R260" s="46"/>
       <c r="S260" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19355,14 +18885,14 @@
         <v>1066</v>
       </c>
       <c r="P261" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q261" s="46">
         <v>44166</v>
       </c>
       <c r="R261" s="46"/>
       <c r="S261" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19412,14 +18942,14 @@
         <v>1066</v>
       </c>
       <c r="P262" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q262" s="46">
         <v>44166</v>
       </c>
       <c r="R262" s="46"/>
       <c r="S262" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19469,14 +18999,14 @@
         <v>1066</v>
       </c>
       <c r="P263" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q263" s="46">
         <v>44166</v>
       </c>
       <c r="R263" s="46"/>
       <c r="S263" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19526,14 +19056,14 @@
         <v>1066</v>
       </c>
       <c r="P264" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q264" s="46">
         <v>44166</v>
       </c>
       <c r="R264" s="46"/>
       <c r="S264" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19583,14 +19113,14 @@
         <v>1066</v>
       </c>
       <c r="P265" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q265" s="46">
         <v>44166</v>
       </c>
       <c r="R265" s="46"/>
       <c r="S265" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19640,14 +19170,14 @@
         <v>1066</v>
       </c>
       <c r="P266" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q266" s="46">
         <v>44166</v>
       </c>
       <c r="R266" s="46"/>
       <c r="S266" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19697,14 +19227,14 @@
         <v>1066</v>
       </c>
       <c r="P267" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q267" s="46">
         <v>44166</v>
       </c>
       <c r="R267" s="46"/>
       <c r="S267" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19807,10 +19337,10 @@
         <v>44182</v>
       </c>
       <c r="R269" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S269" s="21" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19866,10 +19396,10 @@
         <v>44182</v>
       </c>
       <c r="R270" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S270" s="21" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19925,10 +19455,10 @@
         <v>44182</v>
       </c>
       <c r="R271" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S271" s="21" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19978,14 +19508,14 @@
         <v>1066</v>
       </c>
       <c r="P272" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q272" s="46">
         <v>44166</v>
       </c>
       <c r="R272" s="46"/>
       <c r="S272" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20035,14 +19565,14 @@
         <v>1066</v>
       </c>
       <c r="P273" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q273" s="46">
         <v>44166</v>
       </c>
       <c r="R273" s="46"/>
       <c r="S273" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20186,14 +19716,14 @@
         <v>1066</v>
       </c>
       <c r="P276" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q276" s="46">
         <v>44166</v>
       </c>
       <c r="R276" s="46"/>
       <c r="S276" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20243,14 +19773,14 @@
         <v>1066</v>
       </c>
       <c r="P277" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q277" s="46">
         <v>44166</v>
       </c>
       <c r="R277" s="46"/>
       <c r="S277" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20300,14 +19830,14 @@
         <v>1066</v>
       </c>
       <c r="P278" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q278" s="46">
         <v>44166</v>
       </c>
       <c r="R278" s="46"/>
       <c r="S278" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20357,14 +19887,14 @@
         <v>1066</v>
       </c>
       <c r="P279" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q279" s="46">
         <v>44166</v>
       </c>
       <c r="R279" s="46"/>
       <c r="S279" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20602,14 +20132,14 @@
         <v>1066</v>
       </c>
       <c r="P284" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q284" s="46">
         <v>44166</v>
       </c>
       <c r="R284" s="46"/>
       <c r="S284" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20800,14 +20330,14 @@
         <v>1066</v>
       </c>
       <c r="P288" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q288" s="46">
         <v>44166</v>
       </c>
       <c r="R288" s="46"/>
       <c r="S288" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20857,14 +20387,14 @@
         <v>1066</v>
       </c>
       <c r="P289" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q289" s="46">
         <v>44166</v>
       </c>
       <c r="R289" s="46"/>
       <c r="S289" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20914,14 +20444,14 @@
         <v>1066</v>
       </c>
       <c r="P290" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q290" s="46">
         <v>44166</v>
       </c>
       <c r="R290" s="46"/>
       <c r="S290" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20971,14 +20501,14 @@
         <v>1066</v>
       </c>
       <c r="P291" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q291" s="46">
         <v>44166</v>
       </c>
       <c r="R291" s="46"/>
       <c r="S291" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21028,14 +20558,14 @@
         <v>1066</v>
       </c>
       <c r="P292" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q292" s="46">
         <v>44166</v>
       </c>
       <c r="R292" s="46"/>
       <c r="S292" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21085,14 +20615,14 @@
         <v>1066</v>
       </c>
       <c r="P293" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q293" s="46">
         <v>44166</v>
       </c>
       <c r="R293" s="46"/>
       <c r="S293" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21142,14 +20672,14 @@
         <v>1066</v>
       </c>
       <c r="P294" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q294" s="46">
         <v>44166</v>
       </c>
       <c r="R294" s="46"/>
       <c r="S294" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21205,10 +20735,10 @@
         <v>44182</v>
       </c>
       <c r="R295" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S295" s="21" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21258,14 +20788,14 @@
         <v>1066</v>
       </c>
       <c r="P296" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q296" s="46">
         <v>44166</v>
       </c>
       <c r="R296" s="46"/>
       <c r="S296" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21561,7 +21091,7 @@
       </c>
       <c r="R302" s="46"/>
       <c r="S302" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21618,7 +21148,7 @@
       </c>
       <c r="R303" s="46"/>
       <c r="S303" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21668,14 +21198,14 @@
         <v>1066</v>
       </c>
       <c r="P304" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q304" s="46">
         <v>44182</v>
       </c>
       <c r="R304" s="46"/>
       <c r="S304" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21725,14 +21255,14 @@
         <v>1066</v>
       </c>
       <c r="P305" s="21" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="Q305" s="46">
         <v>44182</v>
       </c>
       <c r="R305" s="46"/>
       <c r="S305" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22259,7 +21789,7 @@
       </c>
       <c r="R316" s="46"/>
       <c r="S316" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22316,7 +21846,7 @@
       </c>
       <c r="R317" s="46"/>
       <c r="S317" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22373,7 +21903,7 @@
       </c>
       <c r="R318" s="46"/>
       <c r="S318" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22430,7 +21960,7 @@
       </c>
       <c r="R319" s="46"/>
       <c r="S319" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22487,7 +22017,7 @@
       </c>
       <c r="R320" s="46"/>
       <c r="S320" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22638,7 +22168,7 @@
       </c>
       <c r="R323" s="46"/>
       <c r="S323" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22793,7 +22323,7 @@
       </c>
       <c r="R326" s="46"/>
       <c r="S326" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22850,7 +22380,7 @@
       </c>
       <c r="R327" s="46"/>
       <c r="S327" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22958,7 +22488,7 @@
       </c>
       <c r="R329" s="46"/>
       <c r="S329" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="330" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23015,7 +22545,7 @@
       </c>
       <c r="R330" s="46"/>
       <c r="S330" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="331" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23123,7 +22653,7 @@
       </c>
       <c r="R332" s="46"/>
       <c r="S332" s="21" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="333" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23180,7 +22710,7 @@
       </c>
       <c r="R333" s="46"/>
       <c r="S333" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="334" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23237,7 +22767,7 @@
       </c>
       <c r="R334" s="46"/>
       <c r="S334" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23294,7 +22824,7 @@
       </c>
       <c r="R335" s="46"/>
       <c r="S335" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23351,7 +22881,7 @@
       </c>
       <c r="R336" s="46"/>
       <c r="S336" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="337" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31624,7 +31154,7 @@
       </c>
       <c r="R513" s="46"/>
       <c r="S513" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="514" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31681,7 +31211,7 @@
       </c>
       <c r="R514" s="46"/>
       <c r="S514" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="515" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31738,7 +31268,7 @@
       </c>
       <c r="R515" s="46"/>
       <c r="S515" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="516" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31795,7 +31325,7 @@
       </c>
       <c r="R516" s="46"/>
       <c r="S516" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="517" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31852,7 +31382,7 @@
       </c>
       <c r="R517" s="46"/>
       <c r="S517" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="518" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31909,7 +31439,7 @@
       </c>
       <c r="R518" s="46"/>
       <c r="S518" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="519" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31966,7 +31496,7 @@
       </c>
       <c r="R519" s="46"/>
       <c r="S519" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32023,7 +31553,7 @@
       </c>
       <c r="R520" s="46"/>
       <c r="S520" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32182,7 +31712,7 @@
       </c>
       <c r="R523" s="46"/>
       <c r="S523" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="524" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32239,7 +31769,7 @@
       </c>
       <c r="R524" s="46"/>
       <c r="S524" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32296,7 +31826,7 @@
       </c>
       <c r="R525" s="46"/>
       <c r="S525" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32353,7 +31883,7 @@
       </c>
       <c r="R526" s="46"/>
       <c r="S526" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="527" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32410,7 +31940,7 @@
       </c>
       <c r="R527" s="46"/>
       <c r="S527" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="528" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32467,7 +31997,7 @@
       </c>
       <c r="R528" s="46"/>
       <c r="S528" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="529" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32524,7 +32054,7 @@
       </c>
       <c r="R529" s="46"/>
       <c r="S529" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="530" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32581,7 +32111,7 @@
       </c>
       <c r="R530" s="46"/>
       <c r="S530" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="531" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32685,7 +32215,7 @@
       </c>
       <c r="R532" s="46"/>
       <c r="S532" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="533" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32742,7 +32272,7 @@
       </c>
       <c r="R533" s="46"/>
       <c r="S533" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="534" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32799,7 +32329,7 @@
       </c>
       <c r="R534" s="46"/>
       <c r="S534" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32856,7 +32386,7 @@
       </c>
       <c r="R535" s="46"/>
       <c r="S535" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="536" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32913,7 +32443,7 @@
       </c>
       <c r="R536" s="46"/>
       <c r="S536" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="537" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32970,7 +32500,7 @@
       </c>
       <c r="R537" s="46"/>
       <c r="S537" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -35247,7 +34777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"nvt"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35578,12 +35108,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="68" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="67" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_validatietestcontent\1.0.4-rc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF85CE2-C0DB-4417-8A11-7212555E9437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B6866-9F7B-4538-873E-06074AAD671C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -4557,6 +4557,33 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -4581,33 +4608,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5037,27 +5037,30 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N95" sqref="N95:S95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="13" customWidth="1"/>
     <col min="9" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="18" width="11" style="44" customWidth="1"/>
-    <col min="19" max="19" width="44.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="44" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="44" customWidth="1"/>
+    <col min="19" max="19" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>448</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -5163,7 +5166,7 @@
       <c r="R2" s="46"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5210,7 +5213,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -5257,7 +5260,7 @@
       <c r="R4" s="46"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -5304,7 +5307,7 @@
       <c r="R5" s="46"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -5351,7 +5354,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="21"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -5398,7 +5401,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>2</v>
       </c>
@@ -5445,7 +5448,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -5492,7 +5495,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>2</v>
       </c>
@@ -5539,7 +5542,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -5586,7 +5589,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>2</v>
       </c>
@@ -5633,7 +5636,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -5680,7 +5683,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>2</v>
       </c>
@@ -5727,7 +5730,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>2</v>
       </c>
@@ -5774,7 +5777,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>2</v>
       </c>
@@ -5821,7 +5824,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>2</v>
       </c>
@@ -5868,7 +5871,7 @@
       <c r="R17" s="46"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>2</v>
       </c>
@@ -5915,7 +5918,7 @@
       <c r="R18" s="46"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>2</v>
       </c>
@@ -5962,7 +5965,7 @@
       <c r="R19" s="46"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>4</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>4</v>
       </c>
@@ -6072,7 +6075,7 @@
       </c>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>4</v>
       </c>
@@ -6127,7 +6130,7 @@
       </c>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>4</v>
       </c>
@@ -6182,7 +6185,7 @@
       </c>
       <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>4</v>
       </c>
@@ -6237,7 +6240,7 @@
       </c>
       <c r="S24" s="21"/>
     </row>
-    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>4</v>
       </c>
@@ -6292,7 +6295,7 @@
       </c>
       <c r="S25" s="21"/>
     </row>
-    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>4</v>
       </c>
@@ -6347,7 +6350,7 @@
       </c>
       <c r="S26" s="21"/>
     </row>
-    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>4</v>
       </c>
@@ -6402,7 +6405,7 @@
       </c>
       <c r="S27" s="21"/>
     </row>
-    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>4</v>
       </c>
@@ -6457,7 +6460,7 @@
       </c>
       <c r="S28" s="21"/>
     </row>
-    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>4</v>
       </c>
@@ -6512,7 +6515,7 @@
       </c>
       <c r="S29" s="21"/>
     </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>4</v>
       </c>
@@ -6567,7 +6570,7 @@
       </c>
       <c r="S30" s="21"/>
     </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>4</v>
       </c>
@@ -6622,7 +6625,7 @@
       </c>
       <c r="S31" s="21"/>
     </row>
-    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>4</v>
       </c>
@@ -6677,7 +6680,7 @@
       </c>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>4</v>
       </c>
@@ -6732,7 +6735,7 @@
       </c>
       <c r="S33" s="21"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>4</v>
       </c>
@@ -6781,7 +6784,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>4</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>1</v>
       </c>
@@ -6881,7 +6884,7 @@
       <c r="R36" s="46"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27">
         <v>1</v>
       </c>
@@ -6932,7 +6935,7 @@
       <c r="R37" s="46"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
         <v>1</v>
       </c>
@@ -6989,7 +6992,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>1</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <v>1</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>1</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <v>1</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>1</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27">
         <v>1</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27">
         <v>1</v>
       </c>
@@ -7461,7 +7464,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27">
         <v>1</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27">
         <v>1</v>
       </c>
@@ -7577,7 +7580,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27">
         <v>1</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27">
         <v>1</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>1</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27">
         <v>1</v>
       </c>
@@ -7807,7 +7810,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <v>1</v>
       </c>
@@ -7866,7 +7869,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27">
         <v>1</v>
       </c>
@@ -7923,7 +7926,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27">
         <v>1</v>
       </c>
@@ -7982,7 +7985,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27">
         <v>1</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>1</v>
       </c>
@@ -8100,7 +8103,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>1</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>1</v>
       </c>
@@ -8214,7 +8217,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <v>1</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>1</v>
       </c>
@@ -8328,7 +8331,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>1</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>2</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>2</v>
       </c>
@@ -8497,7 +8500,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>2</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
         <v>2</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
         <v>2</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>24</v>
       </c>
       <c r="N67" s="21" t="str">
-        <f t="shared" ref="N67:N91" si="0">"opdracht_"&amp;B67&amp;".zip"</f>
+        <f t="shared" ref="N67:N92" si="0">"opdracht_"&amp;B67&amp;".zip"</f>
         <v>opdracht_LVBB1506.zip</v>
       </c>
       <c r="O67" s="21" t="s">
@@ -8676,7 +8679,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
         <v>2</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="29">
         <v>2</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="29">
         <v>2</v>
       </c>
@@ -8831,7 +8834,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="29">
         <v>2</v>
       </c>
@@ -8891,7 +8894,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29">
         <v>2</v>
       </c>
@@ -8951,7 +8954,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30">
         <v>2</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>2</v>
       </c>
@@ -9113,7 +9116,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="29">
         <v>2</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29">
         <v>2</v>
       </c>
@@ -9215,7 +9218,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="29">
         <v>2</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
         <v>2</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>2</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
         <v>2</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="29">
         <v>2</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29">
         <v>2</v>
       </c>
@@ -9521,11 +9524,11 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="29">
         <v>2</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="41" t="s">
         <v>729</v>
       </c>
       <c r="C84" s="21" t="s">
@@ -9578,7 +9581,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28">
         <v>2</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="28">
         <v>2</v>
       </c>
@@ -9689,7 +9692,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28">
         <v>2</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>2</v>
       </c>
@@ -9800,7 +9803,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>2</v>
       </c>
@@ -9860,7 +9863,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>2</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>2</v>
       </c>
@@ -9980,7 +9983,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>2</v>
       </c>
@@ -10020,22 +10023,27 @@
       <c r="M92" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N92" s="21"/>
+      <c r="N92" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>opdracht_LVBB2010.zip</v>
+      </c>
       <c r="O92" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P92" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q92" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q92" s="46">
+        <v>44209</v>
+      </c>
       <c r="R92" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>2</v>
       </c>
@@ -10075,22 +10083,27 @@
       <c r="M93" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N93" s="21"/>
+      <c r="N93" s="21" t="str">
+        <f t="shared" ref="N93:N95" si="1">"opdracht_"&amp;B93&amp;".zip"</f>
+        <v>opdracht_LVBB2011.zip</v>
+      </c>
       <c r="O93" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P93" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q93" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q93" s="46">
+        <v>44209</v>
+      </c>
       <c r="R93" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -10130,22 +10143,27 @@
       <c r="M94" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="21"/>
+      <c r="N94" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>opdracht_LVBB2012.zip</v>
+      </c>
       <c r="O94" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P94" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q94" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q94" s="46">
+        <v>44209</v>
+      </c>
       <c r="R94" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>2</v>
       </c>
@@ -10185,22 +10203,27 @@
       <c r="M95" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N95" s="21"/>
+      <c r="N95" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>opdracht_LVBB2013.zip</v>
+      </c>
       <c r="O95" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P95" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q95" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q95" s="46">
+        <v>44209</v>
+      </c>
       <c r="R95" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S95" s="21" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>2</v>
       </c>
@@ -10255,7 +10278,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>2</v>
       </c>
@@ -10310,7 +10333,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>2</v>
       </c>
@@ -10365,7 +10388,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>2</v>
       </c>
@@ -10420,7 +10443,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28">
         <v>2</v>
       </c>
@@ -10475,7 +10498,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
         <v>2</v>
       </c>
@@ -10530,7 +10553,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28">
         <v>2</v>
       </c>
@@ -10585,7 +10608,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>2</v>
       </c>
@@ -10640,7 +10663,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>2</v>
       </c>
@@ -10687,7 +10710,7 @@
       <c r="R104" s="46"/>
       <c r="S104" s="21"/>
     </row>
-    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>2</v>
       </c>
@@ -10734,7 +10757,7 @@
       <c r="R105" s="46"/>
       <c r="S105" s="21"/>
     </row>
-    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="29">
         <v>2</v>
       </c>
@@ -10781,7 +10804,7 @@
       <c r="R106" s="46"/>
       <c r="S106" s="21"/>
     </row>
-    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>2</v>
       </c>
@@ -10828,7 +10851,7 @@
       <c r="R107" s="46"/>
       <c r="S107" s="21"/>
     </row>
-    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>2</v>
       </c>
@@ -10875,7 +10898,7 @@
       <c r="R108" s="46"/>
       <c r="S108" s="21"/>
     </row>
-    <row r="109" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="30">
         <v>2</v>
       </c>
@@ -10922,7 +10945,7 @@
       <c r="R109" s="46"/>
       <c r="S109" s="21"/>
     </row>
-    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>2</v>
       </c>
@@ -10969,7 +10992,7 @@
       <c r="R110" s="46"/>
       <c r="S110" s="21"/>
     </row>
-    <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="30">
         <v>2</v>
       </c>
@@ -11026,7 +11049,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="29">
         <v>2</v>
       </c>
@@ -11073,7 +11096,7 @@
       <c r="R112" s="46"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="29">
         <v>2</v>
       </c>
@@ -11132,7 +11155,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="29">
         <v>2</v>
       </c>
@@ -11189,7 +11212,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="30">
         <v>2</v>
       </c>
@@ -11246,7 +11269,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="30">
         <v>2</v>
       </c>
@@ -11303,7 +11326,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>2</v>
       </c>
@@ -11350,7 +11373,7 @@
       <c r="R117" s="46"/>
       <c r="S117" s="21"/>
     </row>
-    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="29">
         <v>2</v>
       </c>
@@ -11397,7 +11420,7 @@
       <c r="R118" s="46"/>
       <c r="S118" s="21"/>
     </row>
-    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="29">
         <v>2</v>
       </c>
@@ -11454,7 +11477,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="29">
         <v>2</v>
       </c>
@@ -11511,7 +11534,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>2</v>
       </c>
@@ -11568,7 +11591,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="28">
         <v>2</v>
       </c>
@@ -11625,7 +11648,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="28">
         <v>2</v>
       </c>
@@ -11682,7 +11705,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28">
         <v>2</v>
       </c>
@@ -11729,7 +11752,7 @@
       <c r="R124" s="46"/>
       <c r="S124" s="21"/>
     </row>
-    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="28">
         <v>2</v>
       </c>
@@ -11786,7 +11809,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28">
         <v>2</v>
       </c>
@@ -11845,7 +11868,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28">
         <v>2</v>
       </c>
@@ -11904,7 +11927,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28">
         <v>2</v>
       </c>
@@ -11963,7 +11986,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28">
         <v>2</v>
       </c>
@@ -12022,7 +12045,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28">
         <v>2</v>
       </c>
@@ -12081,7 +12104,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28">
         <v>2</v>
       </c>
@@ -12128,7 +12151,7 @@
       <c r="R131" s="46"/>
       <c r="S131" s="21"/>
     </row>
-    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28">
         <v>2</v>
       </c>
@@ -12177,7 +12200,7 @@
       <c r="R132" s="46"/>
       <c r="S132" s="21"/>
     </row>
-    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="28">
         <v>2</v>
       </c>
@@ -12224,7 +12247,7 @@
       <c r="R133" s="46"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28">
         <v>2</v>
       </c>
@@ -12283,7 +12306,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28">
         <v>2</v>
       </c>
@@ -12342,7 +12365,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28">
         <v>2</v>
       </c>
@@ -12389,7 +12412,7 @@
       <c r="R136" s="46"/>
       <c r="S136" s="21"/>
     </row>
-    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28">
         <v>2</v>
       </c>
@@ -12438,7 +12461,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>5</v>
       </c>
@@ -12485,7 +12508,7 @@
       <c r="R138" s="46"/>
       <c r="S138" s="21"/>
     </row>
-    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>5</v>
       </c>
@@ -12532,7 +12555,7 @@
       <c r="R139" s="46"/>
       <c r="S139" s="21"/>
     </row>
-    <row r="140" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>5</v>
       </c>
@@ -12579,7 +12602,7 @@
       <c r="R140" s="46"/>
       <c r="S140" s="21"/>
     </row>
-    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>5</v>
       </c>
@@ -12638,7 +12661,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>5</v>
       </c>
@@ -12685,7 +12708,7 @@
       <c r="R142" s="46"/>
       <c r="S142" s="21"/>
     </row>
-    <row r="143" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>5</v>
       </c>
@@ -12732,7 +12755,7 @@
       <c r="R143" s="46"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -12791,7 +12814,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="28">
         <v>2</v>
       </c>
@@ -12838,7 +12861,7 @@
       <c r="R145" s="46"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28">
         <v>2</v>
       </c>
@@ -12897,7 +12920,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28">
         <v>2</v>
       </c>
@@ -12956,7 +12979,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28">
         <v>2</v>
       </c>
@@ -13015,7 +13038,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28">
         <v>2</v>
       </c>
@@ -13074,7 +13097,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28">
         <v>2</v>
       </c>
@@ -13133,7 +13156,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28">
         <v>2</v>
       </c>
@@ -13180,7 +13203,7 @@
       <c r="R151" s="46"/>
       <c r="S151" s="21"/>
     </row>
-    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28">
         <v>2</v>
       </c>
@@ -13239,7 +13262,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
         <v>2</v>
       </c>
@@ -13286,7 +13309,7 @@
       <c r="R153" s="46"/>
       <c r="S153" s="21"/>
     </row>
-    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28">
         <v>2</v>
       </c>
@@ -13333,7 +13356,7 @@
       <c r="R154" s="46"/>
       <c r="S154" s="21"/>
     </row>
-    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="28">
         <v>2</v>
       </c>
@@ -13384,7 +13407,7 @@
       <c r="R155" s="46"/>
       <c r="S155" s="21"/>
     </row>
-    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28">
         <v>2</v>
       </c>
@@ -13443,7 +13466,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="32">
         <v>2</v>
       </c>
@@ -13502,7 +13525,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="32">
         <v>2</v>
       </c>
@@ -13548,7 +13571,7 @@
       <c r="R158" s="46"/>
       <c r="S158" s="21"/>
     </row>
-    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="32">
         <v>2</v>
       </c>
@@ -13607,7 +13630,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28">
         <v>2</v>
       </c>
@@ -13654,7 +13677,7 @@
       <c r="R160" s="46"/>
       <c r="S160" s="21"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="32">
         <v>2</v>
       </c>
@@ -13701,7 +13724,7 @@
       <c r="R161" s="46"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32">
         <v>2</v>
       </c>
@@ -13760,7 +13783,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="32">
         <v>2</v>
       </c>
@@ -13807,7 +13830,7 @@
       <c r="R163" s="46"/>
       <c r="S163" s="21"/>
     </row>
-    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="27">
         <v>5</v>
       </c>
@@ -13854,7 +13877,7 @@
       <c r="R164" s="46"/>
       <c r="S164" s="21"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="27">
         <v>5</v>
       </c>
@@ -13901,7 +13924,7 @@
       <c r="R165" s="46"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="27">
         <v>5</v>
       </c>
@@ -13960,7 +13983,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="27">
         <v>5</v>
       </c>
@@ -14019,7 +14042,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="27">
         <v>5</v>
       </c>
@@ -14078,7 +14101,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="27">
         <v>5</v>
       </c>
@@ -14125,7 +14148,7 @@
       <c r="R169" s="46"/>
       <c r="S169" s="21"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
         <v>5</v>
       </c>
@@ -14184,7 +14207,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="27">
         <v>5</v>
       </c>
@@ -14243,7 +14266,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="27">
         <v>5</v>
       </c>
@@ -14302,7 +14325,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="27">
         <v>5</v>
       </c>
@@ -14349,7 +14372,7 @@
       <c r="R173" s="46"/>
       <c r="S173" s="21"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="27">
         <v>5</v>
       </c>
@@ -14396,7 +14419,7 @@
       <c r="R174" s="46"/>
       <c r="S174" s="21"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="27">
         <v>5</v>
       </c>
@@ -14443,7 +14466,7 @@
       <c r="R175" s="46"/>
       <c r="S175" s="21"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="27">
         <v>5</v>
       </c>
@@ -14490,7 +14513,7 @@
       <c r="R176" s="46"/>
       <c r="S176" s="21"/>
     </row>
-    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="27">
         <v>5</v>
       </c>
@@ -14537,7 +14560,7 @@
       <c r="R177" s="46"/>
       <c r="S177" s="21"/>
     </row>
-    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="27">
         <v>5</v>
       </c>
@@ -14584,7 +14607,7 @@
       <c r="R178" s="46"/>
       <c r="S178" s="21"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="27">
         <v>5</v>
       </c>
@@ -14631,7 +14654,7 @@
       <c r="R179" s="46"/>
       <c r="S179" s="21"/>
     </row>
-    <row r="180" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="27">
         <v>5</v>
       </c>
@@ -14678,7 +14701,7 @@
       <c r="R180" s="46"/>
       <c r="S180" s="21"/>
     </row>
-    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="27">
         <v>5</v>
       </c>
@@ -14725,7 +14748,7 @@
       <c r="R181" s="46"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="27">
         <v>5</v>
       </c>
@@ -14772,7 +14795,7 @@
       <c r="R182" s="46"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="27">
         <v>5</v>
       </c>
@@ -14819,7 +14842,7 @@
       <c r="R183" s="46"/>
       <c r="S183" s="21"/>
     </row>
-    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="27">
         <v>5</v>
       </c>
@@ -14866,7 +14889,7 @@
       <c r="R184" s="46"/>
       <c r="S184" s="21"/>
     </row>
-    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="27">
         <v>5</v>
       </c>
@@ -14913,7 +14936,7 @@
       <c r="R185" s="46"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="27">
         <v>5</v>
       </c>
@@ -14960,7 +14983,7 @@
       <c r="R186" s="46"/>
       <c r="S186" s="21"/>
     </row>
-    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="27">
         <v>5</v>
       </c>
@@ -15007,7 +15030,7 @@
       <c r="R187" s="46"/>
       <c r="S187" s="21"/>
     </row>
-    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="27">
         <v>5</v>
       </c>
@@ -15054,7 +15077,7 @@
       <c r="R188" s="46"/>
       <c r="S188" s="21"/>
     </row>
-    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="27">
         <v>5</v>
       </c>
@@ -15101,7 +15124,7 @@
       <c r="R189" s="46"/>
       <c r="S189" s="21"/>
     </row>
-    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="27">
         <v>5</v>
       </c>
@@ -15148,7 +15171,7 @@
       <c r="R190" s="46"/>
       <c r="S190" s="21"/>
     </row>
-    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="27">
         <v>5</v>
       </c>
@@ -15195,7 +15218,7 @@
       <c r="R191" s="46"/>
       <c r="S191" s="21"/>
     </row>
-    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="27">
         <v>5</v>
       </c>
@@ -15242,7 +15265,7 @@
       <c r="R192" s="46"/>
       <c r="S192" s="21"/>
     </row>
-    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="27">
         <v>5</v>
       </c>
@@ -15289,7 +15312,7 @@
       <c r="R193" s="46"/>
       <c r="S193" s="21"/>
     </row>
-    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="27">
         <v>5</v>
       </c>
@@ -15336,7 +15359,7 @@
       <c r="R194" s="46"/>
       <c r="S194" s="21"/>
     </row>
-    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="27">
         <v>5</v>
       </c>
@@ -15383,7 +15406,7 @@
       <c r="R195" s="46"/>
       <c r="S195" s="21"/>
     </row>
-    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="27">
         <v>5</v>
       </c>
@@ -15430,7 +15453,7 @@
       <c r="R196" s="46"/>
       <c r="S196" s="21"/>
     </row>
-    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="27">
         <v>5</v>
       </c>
@@ -15477,7 +15500,7 @@
       <c r="R197" s="46"/>
       <c r="S197" s="21"/>
     </row>
-    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="27">
         <v>5</v>
       </c>
@@ -15524,7 +15547,7 @@
       <c r="R198" s="46"/>
       <c r="S198" s="21"/>
     </row>
-    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="27">
         <v>5</v>
       </c>
@@ -15571,7 +15594,7 @@
       <c r="R199" s="46"/>
       <c r="S199" s="21"/>
     </row>
-    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="27">
         <v>5</v>
       </c>
@@ -15618,7 +15641,7 @@
       <c r="R200" s="46"/>
       <c r="S200" s="21"/>
     </row>
-    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="27">
         <v>5</v>
       </c>
@@ -15665,7 +15688,7 @@
       <c r="R201" s="46"/>
       <c r="S201" s="21"/>
     </row>
-    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="27">
         <v>5</v>
       </c>
@@ -15712,7 +15735,7 @@
       <c r="R202" s="46"/>
       <c r="S202" s="21"/>
     </row>
-    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="27">
         <v>5</v>
       </c>
@@ -15759,7 +15782,7 @@
       <c r="R203" s="46"/>
       <c r="S203" s="21"/>
     </row>
-    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="27">
         <v>5</v>
       </c>
@@ -15806,7 +15829,7 @@
       <c r="R204" s="46"/>
       <c r="S204" s="21"/>
     </row>
-    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="27">
         <v>5</v>
       </c>
@@ -15853,7 +15876,7 @@
       <c r="R205" s="46"/>
       <c r="S205" s="21"/>
     </row>
-    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="27">
         <v>5</v>
       </c>
@@ -15900,7 +15923,7 @@
       <c r="R206" s="46"/>
       <c r="S206" s="21"/>
     </row>
-    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="27">
         <v>5</v>
       </c>
@@ -15947,7 +15970,7 @@
       <c r="R207" s="46"/>
       <c r="S207" s="21"/>
     </row>
-    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="27">
         <v>5</v>
       </c>
@@ -15994,7 +16017,7 @@
       <c r="R208" s="46"/>
       <c r="S208" s="21"/>
     </row>
-    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="27">
         <v>5</v>
       </c>
@@ -16041,7 +16064,7 @@
       <c r="R209" s="46"/>
       <c r="S209" s="21"/>
     </row>
-    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="27">
         <v>5</v>
       </c>
@@ -16088,7 +16111,7 @@
       <c r="R210" s="46"/>
       <c r="S210" s="21"/>
     </row>
-    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="27">
         <v>5</v>
       </c>
@@ -16135,7 +16158,7 @@
       <c r="R211" s="46"/>
       <c r="S211" s="21"/>
     </row>
-    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="27">
         <v>5</v>
       </c>
@@ -16182,7 +16205,7 @@
       <c r="R212" s="46"/>
       <c r="S212" s="21"/>
     </row>
-    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="27">
         <v>5</v>
       </c>
@@ -16229,7 +16252,7 @@
       <c r="R213" s="46"/>
       <c r="S213" s="21"/>
     </row>
-    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="27">
         <v>5</v>
       </c>
@@ -16276,7 +16299,7 @@
       <c r="R214" s="46"/>
       <c r="S214" s="21"/>
     </row>
-    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="27">
         <v>5</v>
       </c>
@@ -16323,7 +16346,7 @@
       <c r="R215" s="46"/>
       <c r="S215" s="21"/>
     </row>
-    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="27">
         <v>5</v>
       </c>
@@ -16370,7 +16393,7 @@
       <c r="R216" s="46"/>
       <c r="S216" s="21"/>
     </row>
-    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="27">
         <v>5</v>
       </c>
@@ -16417,7 +16440,7 @@
       <c r="R217" s="46"/>
       <c r="S217" s="21"/>
     </row>
-    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="27">
         <v>5</v>
       </c>
@@ -16464,7 +16487,7 @@
       <c r="R218" s="46"/>
       <c r="S218" s="21"/>
     </row>
-    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="27">
         <v>5</v>
       </c>
@@ -16511,7 +16534,7 @@
       <c r="R219" s="46"/>
       <c r="S219" s="21"/>
     </row>
-    <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="27">
         <v>1</v>
       </c>
@@ -16568,7 +16591,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="27">
         <v>5</v>
       </c>
@@ -16615,7 +16638,7 @@
       <c r="R221" s="46"/>
       <c r="S221" s="21"/>
     </row>
-    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="29">
         <v>8</v>
       </c>
@@ -16672,7 +16695,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="29">
         <v>8</v>
       </c>
@@ -16729,7 +16752,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="29">
         <v>8</v>
       </c>
@@ -16786,7 +16809,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="29">
         <v>8</v>
       </c>
@@ -16843,7 +16866,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="29">
         <v>8</v>
       </c>
@@ -16900,7 +16923,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="29">
         <v>8</v>
       </c>
@@ -16957,7 +16980,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="29">
         <v>8</v>
       </c>
@@ -17014,7 +17037,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="29">
         <v>8</v>
       </c>
@@ -17071,7 +17094,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="29">
         <v>8</v>
       </c>
@@ -17128,7 +17151,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="29">
         <v>8</v>
       </c>
@@ -17185,7 +17208,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="29">
         <v>8</v>
       </c>
@@ -17242,7 +17265,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="29">
         <v>8</v>
       </c>
@@ -17299,7 +17322,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="29">
         <v>8</v>
       </c>
@@ -17356,7 +17379,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="29">
         <v>8</v>
       </c>
@@ -17413,7 +17436,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="29">
         <v>8</v>
       </c>
@@ -17470,7 +17493,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="29">
         <v>8</v>
       </c>
@@ -17527,7 +17550,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="29">
         <v>8</v>
       </c>
@@ -17584,7 +17607,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="29">
         <v>8</v>
       </c>
@@ -17641,7 +17664,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="29">
         <v>8</v>
       </c>
@@ -17698,7 +17721,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="29">
         <v>8</v>
       </c>
@@ -17755,7 +17778,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="29">
         <v>8</v>
       </c>
@@ -17812,7 +17835,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="29">
         <v>8</v>
       </c>
@@ -17869,7 +17892,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="29">
         <v>8</v>
       </c>
@@ -17926,7 +17949,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="29">
         <v>8</v>
       </c>
@@ -17983,7 +18006,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="29">
         <v>8</v>
       </c>
@@ -18040,7 +18063,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="29">
         <v>8</v>
       </c>
@@ -18097,7 +18120,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="29">
         <v>8</v>
       </c>
@@ -18154,7 +18177,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="29">
         <v>8</v>
       </c>
@@ -18211,7 +18234,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="29">
         <v>8</v>
       </c>
@@ -18268,7 +18291,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="29">
         <v>8</v>
       </c>
@@ -18325,7 +18348,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="29">
         <v>8</v>
       </c>
@@ -18382,7 +18405,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="29">
         <v>8</v>
       </c>
@@ -18439,7 +18462,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="28">
         <v>8</v>
       </c>
@@ -18496,7 +18519,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="29">
         <v>8</v>
       </c>
@@ -18553,7 +18576,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="29">
         <v>8</v>
       </c>
@@ -18610,7 +18633,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="29">
         <v>8</v>
       </c>
@@ -18667,7 +18690,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="29">
         <v>8</v>
       </c>
@@ -18724,7 +18747,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="29">
         <v>8</v>
       </c>
@@ -18781,7 +18804,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="29">
         <v>8</v>
       </c>
@@ -18838,7 +18861,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="29">
         <v>8</v>
       </c>
@@ -18895,7 +18918,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="29">
         <v>8</v>
       </c>
@@ -18952,7 +18975,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="29">
         <v>8</v>
       </c>
@@ -19009,7 +19032,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="28">
         <v>8</v>
       </c>
@@ -19066,7 +19089,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="29">
         <v>8</v>
       </c>
@@ -19123,7 +19146,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="29">
         <v>8</v>
       </c>
@@ -19180,7 +19203,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="29">
         <v>8</v>
       </c>
@@ -19237,7 +19260,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="29">
         <v>8</v>
       </c>
@@ -19284,7 +19307,7 @@
       <c r="R268" s="46"/>
       <c r="S268" s="21"/>
     </row>
-    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="29">
         <v>8</v>
       </c>
@@ -19343,7 +19366,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="29">
         <v>8</v>
       </c>
@@ -19402,7 +19425,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="29">
         <v>8</v>
       </c>
@@ -19461,7 +19484,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="29">
         <v>8</v>
       </c>
@@ -19518,7 +19541,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="29">
         <v>8</v>
       </c>
@@ -19575,7 +19598,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="29">
         <v>8</v>
       </c>
@@ -19622,7 +19645,7 @@
       <c r="R274" s="46"/>
       <c r="S274" s="21"/>
     </row>
-    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="29">
         <v>8</v>
       </c>
@@ -19669,7 +19692,7 @@
       <c r="R275" s="46"/>
       <c r="S275" s="21"/>
     </row>
-    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="29">
         <v>8</v>
       </c>
@@ -19726,7 +19749,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="29">
         <v>8</v>
       </c>
@@ -19783,7 +19806,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="29">
         <v>8</v>
       </c>
@@ -19840,7 +19863,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="29">
         <v>8</v>
       </c>
@@ -19897,7 +19920,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="29">
         <v>8</v>
       </c>
@@ -19944,7 +19967,7 @@
       <c r="R280" s="46"/>
       <c r="S280" s="21"/>
     </row>
-    <row r="281" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="29">
         <v>8</v>
       </c>
@@ -19991,7 +20014,7 @@
       <c r="R281" s="46"/>
       <c r="S281" s="21"/>
     </row>
-    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="29">
         <v>8</v>
       </c>
@@ -20038,7 +20061,7 @@
       <c r="R282" s="46"/>
       <c r="S282" s="21"/>
     </row>
-    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="29">
         <v>8</v>
       </c>
@@ -20085,7 +20108,7 @@
       <c r="R283" s="46"/>
       <c r="S283" s="21"/>
     </row>
-    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="29">
         <v>8</v>
       </c>
@@ -20142,7 +20165,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="29">
         <v>8</v>
       </c>
@@ -20189,7 +20212,7 @@
       <c r="R285" s="46"/>
       <c r="S285" s="21"/>
     </row>
-    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="29">
         <v>8</v>
       </c>
@@ -20236,7 +20259,7 @@
       <c r="R286" s="46"/>
       <c r="S286" s="21"/>
     </row>
-    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="29">
         <v>8</v>
       </c>
@@ -20283,7 +20306,7 @@
       <c r="R287" s="46"/>
       <c r="S287" s="21"/>
     </row>
-    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="29">
         <v>8</v>
       </c>
@@ -20340,7 +20363,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="29">
         <v>8</v>
       </c>
@@ -20397,7 +20420,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="29">
         <v>8</v>
       </c>
@@ -20454,7 +20477,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="29">
         <v>8</v>
       </c>
@@ -20511,7 +20534,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="29">
         <v>8</v>
       </c>
@@ -20568,7 +20591,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="29">
         <v>8</v>
       </c>
@@ -20625,7 +20648,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="29">
         <v>8</v>
       </c>
@@ -20682,7 +20705,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="29">
         <v>8</v>
       </c>
@@ -20741,7 +20764,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="27">
         <v>8</v>
       </c>
@@ -20798,7 +20821,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="29">
         <v>8</v>
       </c>
@@ -20845,7 +20868,7 @@
       <c r="R297" s="46"/>
       <c r="S297" s="21"/>
     </row>
-    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="29">
         <v>8</v>
       </c>
@@ -20892,7 +20915,7 @@
       <c r="R298" s="46"/>
       <c r="S298" s="21"/>
     </row>
-    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="29">
         <v>8</v>
       </c>
@@ -20939,7 +20962,7 @@
       <c r="R299" s="46"/>
       <c r="S299" s="21"/>
     </row>
-    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="29">
         <v>8</v>
       </c>
@@ -20986,7 +21009,7 @@
       <c r="R300" s="46"/>
       <c r="S300" s="21"/>
     </row>
-    <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="29">
         <v>8</v>
       </c>
@@ -21037,7 +21060,7 @@
       <c r="R301" s="46"/>
       <c r="S301" s="21"/>
     </row>
-    <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="29">
         <v>8</v>
       </c>
@@ -21094,7 +21117,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="29">
         <v>8</v>
       </c>
@@ -21151,7 +21174,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="29">
         <v>8</v>
       </c>
@@ -21208,7 +21231,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="29">
         <v>8</v>
       </c>
@@ -21265,7 +21288,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="29">
         <v>8</v>
       </c>
@@ -21312,7 +21335,7 @@
       <c r="R306" s="46"/>
       <c r="S306" s="21"/>
     </row>
-    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="29">
         <v>8</v>
       </c>
@@ -21359,7 +21382,7 @@
       <c r="R307" s="46"/>
       <c r="S307" s="21"/>
     </row>
-    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="29">
         <v>8</v>
       </c>
@@ -21406,7 +21429,7 @@
       <c r="R308" s="46"/>
       <c r="S308" s="21"/>
     </row>
-    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="29">
         <v>8</v>
       </c>
@@ -21453,7 +21476,7 @@
       <c r="R309" s="46"/>
       <c r="S309" s="21"/>
     </row>
-    <row r="310" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="29">
         <v>8</v>
       </c>
@@ -21500,7 +21523,7 @@
       <c r="R310" s="46"/>
       <c r="S310" s="21"/>
     </row>
-    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="29">
         <v>8</v>
       </c>
@@ -21547,7 +21570,7 @@
       <c r="R311" s="46"/>
       <c r="S311" s="21"/>
     </row>
-    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="29">
         <v>8</v>
       </c>
@@ -21594,7 +21617,7 @@
       <c r="R312" s="46"/>
       <c r="S312" s="21"/>
     </row>
-    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="29">
         <v>8</v>
       </c>
@@ -21641,7 +21664,7 @@
       <c r="R313" s="46"/>
       <c r="S313" s="21"/>
     </row>
-    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="29">
         <v>8</v>
       </c>
@@ -21688,7 +21711,7 @@
       <c r="R314" s="46"/>
       <c r="S314" s="21"/>
     </row>
-    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="29">
         <v>8</v>
       </c>
@@ -21735,7 +21758,7 @@
       <c r="R315" s="46"/>
       <c r="S315" s="21"/>
     </row>
-    <row r="316" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="29">
         <v>8</v>
       </c>
@@ -21792,7 +21815,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="29">
         <v>8</v>
       </c>
@@ -21849,7 +21872,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="27">
         <v>8</v>
       </c>
@@ -21906,7 +21929,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="27">
         <v>8</v>
       </c>
@@ -21963,7 +21986,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="27">
         <v>8</v>
       </c>
@@ -22020,7 +22043,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="27">
         <v>8</v>
       </c>
@@ -22067,7 +22090,7 @@
       <c r="R321" s="46"/>
       <c r="S321" s="21"/>
     </row>
-    <row r="322" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="27">
         <v>8</v>
       </c>
@@ -22114,7 +22137,7 @@
       <c r="R322" s="46"/>
       <c r="S322" s="21"/>
     </row>
-    <row r="323" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="27">
         <v>8</v>
       </c>
@@ -22171,7 +22194,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="27">
         <v>8</v>
       </c>
@@ -22218,7 +22241,7 @@
       <c r="R324" s="46"/>
       <c r="S324" s="21"/>
     </row>
-    <row r="325" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="27">
         <v>8</v>
       </c>
@@ -22269,7 +22292,7 @@
       <c r="R325" s="46"/>
       <c r="S325" s="21"/>
     </row>
-    <row r="326" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="27">
         <v>8</v>
       </c>
@@ -22326,7 +22349,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="27">
         <v>8</v>
       </c>
@@ -22383,7 +22406,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="27">
         <v>8</v>
       </c>
@@ -22434,7 +22457,7 @@
       <c r="R328" s="46"/>
       <c r="S328" s="21"/>
     </row>
-    <row r="329" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="27">
         <v>8</v>
       </c>
@@ -22491,7 +22514,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="27">
         <v>8</v>
       </c>
@@ -22548,7 +22571,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="27">
         <v>8</v>
       </c>
@@ -22599,7 +22622,7 @@
       <c r="R331" s="46"/>
       <c r="S331" s="21"/>
     </row>
-    <row r="332" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="27">
         <v>8</v>
       </c>
@@ -22656,7 +22679,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="27">
         <v>8</v>
       </c>
@@ -22713,7 +22736,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="27">
         <v>8</v>
       </c>
@@ -22770,7 +22793,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="27">
         <v>8</v>
       </c>
@@ -22827,7 +22850,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="27">
         <v>8</v>
       </c>
@@ -22884,7 +22907,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="37">
         <v>2</v>
       </c>
@@ -22931,7 +22954,7 @@
       <c r="R337" s="46"/>
       <c r="S337" s="21"/>
     </row>
-    <row r="338" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="37">
         <v>2</v>
       </c>
@@ -22978,7 +23001,7 @@
       <c r="R338" s="46"/>
       <c r="S338" s="21"/>
     </row>
-    <row r="339" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="37">
         <v>2</v>
       </c>
@@ -23025,7 +23048,7 @@
       <c r="R339" s="46"/>
       <c r="S339" s="21"/>
     </row>
-    <row r="340" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="37">
         <v>2</v>
       </c>
@@ -23072,7 +23095,7 @@
       <c r="R340" s="46"/>
       <c r="S340" s="21"/>
     </row>
-    <row r="341" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="37">
         <v>2</v>
       </c>
@@ -23119,7 +23142,7 @@
       <c r="R341" s="46"/>
       <c r="S341" s="21"/>
     </row>
-    <row r="342" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="37">
         <v>2</v>
       </c>
@@ -23166,7 +23189,7 @@
       <c r="R342" s="46"/>
       <c r="S342" s="21"/>
     </row>
-    <row r="343" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="37">
         <v>2</v>
       </c>
@@ -23213,7 +23236,7 @@
       <c r="R343" s="46"/>
       <c r="S343" s="21"/>
     </row>
-    <row r="344" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="20">
         <v>2</v>
       </c>
@@ -23260,7 +23283,7 @@
       <c r="R344" s="46"/>
       <c r="S344" s="21"/>
     </row>
-    <row r="345" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="37">
         <v>2</v>
       </c>
@@ -23307,7 +23330,7 @@
       <c r="R345" s="46"/>
       <c r="S345" s="21"/>
     </row>
-    <row r="346" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="37">
         <v>2</v>
       </c>
@@ -23354,7 +23377,7 @@
       <c r="R346" s="46"/>
       <c r="S346" s="21"/>
     </row>
-    <row r="347" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="37">
         <v>2</v>
       </c>
@@ -23401,7 +23424,7 @@
       <c r="R347" s="46"/>
       <c r="S347" s="21"/>
     </row>
-    <row r="348" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="37">
         <v>2</v>
       </c>
@@ -23448,7 +23471,7 @@
       <c r="R348" s="46"/>
       <c r="S348" s="21"/>
     </row>
-    <row r="349" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="37">
         <v>2</v>
       </c>
@@ -23495,7 +23518,7 @@
       <c r="R349" s="46"/>
       <c r="S349" s="21"/>
     </row>
-    <row r="350" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="37">
         <v>2</v>
       </c>
@@ -23542,7 +23565,7 @@
       <c r="R350" s="46"/>
       <c r="S350" s="21"/>
     </row>
-    <row r="351" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="37">
         <v>2</v>
       </c>
@@ -23589,7 +23612,7 @@
       <c r="R351" s="46"/>
       <c r="S351" s="21"/>
     </row>
-    <row r="352" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="37">
         <v>2</v>
       </c>
@@ -23636,7 +23659,7 @@
       <c r="R352" s="46"/>
       <c r="S352" s="21"/>
     </row>
-    <row r="353" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="37">
         <v>2</v>
       </c>
@@ -23683,7 +23706,7 @@
       <c r="R353" s="46"/>
       <c r="S353" s="21"/>
     </row>
-    <row r="354" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="37">
         <v>2</v>
       </c>
@@ -23730,7 +23753,7 @@
       <c r="R354" s="46"/>
       <c r="S354" s="21"/>
     </row>
-    <row r="355" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="37">
         <v>2</v>
       </c>
@@ -23777,7 +23800,7 @@
       <c r="R355" s="46"/>
       <c r="S355" s="21"/>
     </row>
-    <row r="356" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="37">
         <v>2</v>
       </c>
@@ -23824,7 +23847,7 @@
       <c r="R356" s="46"/>
       <c r="S356" s="21"/>
     </row>
-    <row r="357" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="37">
         <v>2</v>
       </c>
@@ -23871,7 +23894,7 @@
       <c r="R357" s="46"/>
       <c r="S357" s="21"/>
     </row>
-    <row r="358" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="37">
         <v>2</v>
       </c>
@@ -23918,7 +23941,7 @@
       <c r="R358" s="46"/>
       <c r="S358" s="21"/>
     </row>
-    <row r="359" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="37">
         <v>2</v>
       </c>
@@ -23965,7 +23988,7 @@
       <c r="R359" s="46"/>
       <c r="S359" s="21"/>
     </row>
-    <row r="360" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="37">
         <v>2</v>
       </c>
@@ -24012,7 +24035,7 @@
       <c r="R360" s="46"/>
       <c r="S360" s="21"/>
     </row>
-    <row r="361" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="37">
         <v>2</v>
       </c>
@@ -24059,7 +24082,7 @@
       <c r="R361" s="46"/>
       <c r="S361" s="21"/>
     </row>
-    <row r="362" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="37">
         <v>2</v>
       </c>
@@ -24106,7 +24129,7 @@
       <c r="R362" s="46"/>
       <c r="S362" s="21"/>
     </row>
-    <row r="363" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="37">
         <v>2</v>
       </c>
@@ -24153,7 +24176,7 @@
       <c r="R363" s="46"/>
       <c r="S363" s="21"/>
     </row>
-    <row r="364" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="37">
         <v>2</v>
       </c>
@@ -24200,7 +24223,7 @@
       <c r="R364" s="46"/>
       <c r="S364" s="21"/>
     </row>
-    <row r="365" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="37">
         <v>2</v>
       </c>
@@ -24247,7 +24270,7 @@
       <c r="R365" s="46"/>
       <c r="S365" s="21"/>
     </row>
-    <row r="366" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="37">
         <v>2</v>
       </c>
@@ -24294,7 +24317,7 @@
       <c r="R366" s="46"/>
       <c r="S366" s="21"/>
     </row>
-    <row r="367" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="37">
         <v>2</v>
       </c>
@@ -24341,7 +24364,7 @@
       <c r="R367" s="46"/>
       <c r="S367" s="21"/>
     </row>
-    <row r="368" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="37">
         <v>2</v>
       </c>
@@ -24388,7 +24411,7 @@
       <c r="R368" s="46"/>
       <c r="S368" s="21"/>
     </row>
-    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="37">
         <v>2</v>
       </c>
@@ -24435,7 +24458,7 @@
       <c r="R369" s="46"/>
       <c r="S369" s="21"/>
     </row>
-    <row r="370" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="37">
         <v>2</v>
       </c>
@@ -24482,7 +24505,7 @@
       <c r="R370" s="46"/>
       <c r="S370" s="21"/>
     </row>
-    <row r="371" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="37">
         <v>2</v>
       </c>
@@ -24529,7 +24552,7 @@
       <c r="R371" s="46"/>
       <c r="S371" s="21"/>
     </row>
-    <row r="372" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="37">
         <v>2</v>
       </c>
@@ -24576,7 +24599,7 @@
       <c r="R372" s="46"/>
       <c r="S372" s="21"/>
     </row>
-    <row r="373" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="37">
         <v>2</v>
       </c>
@@ -24623,7 +24646,7 @@
       <c r="R373" s="46"/>
       <c r="S373" s="21"/>
     </row>
-    <row r="374" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="20">
         <v>2</v>
       </c>
@@ -24670,7 +24693,7 @@
       <c r="R374" s="46"/>
       <c r="S374" s="21"/>
     </row>
-    <row r="375" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="20">
         <v>2</v>
       </c>
@@ -24717,7 +24740,7 @@
       <c r="R375" s="46"/>
       <c r="S375" s="21"/>
     </row>
-    <row r="376" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="20">
         <v>2</v>
       </c>
@@ -24764,7 +24787,7 @@
       <c r="R376" s="46"/>
       <c r="S376" s="21"/>
     </row>
-    <row r="377" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="20">
         <v>2</v>
       </c>
@@ -24811,7 +24834,7 @@
       <c r="R377" s="46"/>
       <c r="S377" s="21"/>
     </row>
-    <row r="378" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="20">
         <v>2</v>
       </c>
@@ -24858,7 +24881,7 @@
       <c r="R378" s="46"/>
       <c r="S378" s="21"/>
     </row>
-    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="20">
         <v>2</v>
       </c>
@@ -24905,7 +24928,7 @@
       <c r="R379" s="46"/>
       <c r="S379" s="21"/>
     </row>
-    <row r="380" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="20">
         <v>2</v>
       </c>
@@ -24952,7 +24975,7 @@
       <c r="R380" s="46"/>
       <c r="S380" s="21"/>
     </row>
-    <row r="381" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="20">
         <v>2</v>
       </c>
@@ -24999,7 +25022,7 @@
       <c r="R381" s="46"/>
       <c r="S381" s="21"/>
     </row>
-    <row r="382" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="20">
         <v>2</v>
       </c>
@@ -25046,7 +25069,7 @@
       <c r="R382" s="46"/>
       <c r="S382" s="21"/>
     </row>
-    <row r="383" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="20">
         <v>2</v>
       </c>
@@ -25093,7 +25116,7 @@
       <c r="R383" s="46"/>
       <c r="S383" s="21"/>
     </row>
-    <row r="384" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="20">
         <v>2</v>
       </c>
@@ -25140,7 +25163,7 @@
       <c r="R384" s="46"/>
       <c r="S384" s="21"/>
     </row>
-    <row r="385" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="20">
         <v>2</v>
       </c>
@@ -25187,7 +25210,7 @@
       <c r="R385" s="46"/>
       <c r="S385" s="21"/>
     </row>
-    <row r="386" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="20">
         <v>2</v>
       </c>
@@ -25234,7 +25257,7 @@
       <c r="R386" s="46"/>
       <c r="S386" s="21"/>
     </row>
-    <row r="387" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="20">
         <v>2</v>
       </c>
@@ -25281,7 +25304,7 @@
       <c r="R387" s="46"/>
       <c r="S387" s="21"/>
     </row>
-    <row r="388" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="20">
         <v>2</v>
       </c>
@@ -25328,7 +25351,7 @@
       <c r="R388" s="46"/>
       <c r="S388" s="21"/>
     </row>
-    <row r="389" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="20">
         <v>2</v>
       </c>
@@ -25375,7 +25398,7 @@
       <c r="R389" s="46"/>
       <c r="S389" s="21"/>
     </row>
-    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="20">
         <v>2</v>
       </c>
@@ -25422,7 +25445,7 @@
       <c r="R390" s="46"/>
       <c r="S390" s="21"/>
     </row>
-    <row r="391" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="20">
         <v>2</v>
       </c>
@@ -25469,7 +25492,7 @@
       <c r="R391" s="46"/>
       <c r="S391" s="21"/>
     </row>
-    <row r="392" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="20">
         <v>2</v>
       </c>
@@ -25516,7 +25539,7 @@
       <c r="R392" s="46"/>
       <c r="S392" s="21"/>
     </row>
-    <row r="393" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="20">
         <v>2</v>
       </c>
@@ -25563,7 +25586,7 @@
       <c r="R393" s="46"/>
       <c r="S393" s="21"/>
     </row>
-    <row r="394" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="20">
         <v>2</v>
       </c>
@@ -25610,7 +25633,7 @@
       <c r="R394" s="46"/>
       <c r="S394" s="21"/>
     </row>
-    <row r="395" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="20">
         <v>2</v>
       </c>
@@ -25657,7 +25680,7 @@
       <c r="R395" s="46"/>
       <c r="S395" s="21"/>
     </row>
-    <row r="396" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="20">
         <v>2</v>
       </c>
@@ -25704,7 +25727,7 @@
       <c r="R396" s="46"/>
       <c r="S396" s="21"/>
     </row>
-    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="20">
         <v>2</v>
       </c>
@@ -25751,7 +25774,7 @@
       <c r="R397" s="46"/>
       <c r="S397" s="21"/>
     </row>
-    <row r="398" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="20">
         <v>2</v>
       </c>
@@ -25798,7 +25821,7 @@
       <c r="R398" s="46"/>
       <c r="S398" s="21"/>
     </row>
-    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="20">
         <v>2</v>
       </c>
@@ -25845,7 +25868,7 @@
       <c r="R399" s="46"/>
       <c r="S399" s="21"/>
     </row>
-    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="20">
         <v>2</v>
       </c>
@@ -25892,7 +25915,7 @@
       <c r="R400" s="46"/>
       <c r="S400" s="21"/>
     </row>
-    <row r="401" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="20">
         <v>2</v>
       </c>
@@ -25939,7 +25962,7 @@
       <c r="R401" s="46"/>
       <c r="S401" s="21"/>
     </row>
-    <row r="402" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="20">
         <v>2</v>
       </c>
@@ -25986,7 +26009,7 @@
       <c r="R402" s="46"/>
       <c r="S402" s="21"/>
     </row>
-    <row r="403" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="20">
         <v>2</v>
       </c>
@@ -26033,7 +26056,7 @@
       <c r="R403" s="46"/>
       <c r="S403" s="21"/>
     </row>
-    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="20">
         <v>2</v>
       </c>
@@ -26080,7 +26103,7 @@
       <c r="R404" s="46"/>
       <c r="S404" s="21"/>
     </row>
-    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="20">
         <v>2</v>
       </c>
@@ -26127,7 +26150,7 @@
       <c r="R405" s="46"/>
       <c r="S405" s="21"/>
     </row>
-    <row r="406" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="20">
         <v>2</v>
       </c>
@@ -26174,7 +26197,7 @@
       <c r="R406" s="46"/>
       <c r="S406" s="21"/>
     </row>
-    <row r="407" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="20">
         <v>2</v>
       </c>
@@ -26221,7 +26244,7 @@
       <c r="R407" s="46"/>
       <c r="S407" s="21"/>
     </row>
-    <row r="408" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="20">
         <v>2</v>
       </c>
@@ -26268,7 +26291,7 @@
       <c r="R408" s="46"/>
       <c r="S408" s="21"/>
     </row>
-    <row r="409" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="20">
         <v>2</v>
       </c>
@@ -26315,7 +26338,7 @@
       <c r="R409" s="46"/>
       <c r="S409" s="21"/>
     </row>
-    <row r="410" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="20">
         <v>2</v>
       </c>
@@ -26362,7 +26385,7 @@
       <c r="R410" s="46"/>
       <c r="S410" s="21"/>
     </row>
-    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="20">
         <v>2</v>
       </c>
@@ -26409,7 +26432,7 @@
       <c r="R411" s="46"/>
       <c r="S411" s="21"/>
     </row>
-    <row r="412" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20">
         <v>2</v>
       </c>
@@ -26456,7 +26479,7 @@
       <c r="R412" s="46"/>
       <c r="S412" s="21"/>
     </row>
-    <row r="413" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="20">
         <v>2</v>
       </c>
@@ -26503,7 +26526,7 @@
       <c r="R413" s="46"/>
       <c r="S413" s="21"/>
     </row>
-    <row r="414" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="20">
         <v>2</v>
       </c>
@@ -26550,7 +26573,7 @@
       <c r="R414" s="46"/>
       <c r="S414" s="21"/>
     </row>
-    <row r="415" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="20">
         <v>2</v>
       </c>
@@ -26597,7 +26620,7 @@
       <c r="R415" s="46"/>
       <c r="S415" s="21"/>
     </row>
-    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="20">
         <v>2</v>
       </c>
@@ -26644,7 +26667,7 @@
       <c r="R416" s="46"/>
       <c r="S416" s="21"/>
     </row>
-    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="20">
         <v>4</v>
       </c>
@@ -26691,7 +26714,7 @@
       <c r="R417" s="46"/>
       <c r="S417" s="21"/>
     </row>
-    <row r="418" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="20">
         <v>4</v>
       </c>
@@ -26738,7 +26761,7 @@
       <c r="R418" s="46"/>
       <c r="S418" s="21"/>
     </row>
-    <row r="419" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="20">
         <v>4</v>
       </c>
@@ -26785,7 +26808,7 @@
       <c r="R419" s="46"/>
       <c r="S419" s="21"/>
     </row>
-    <row r="420" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="20">
         <v>4</v>
       </c>
@@ -26832,7 +26855,7 @@
       <c r="R420" s="46"/>
       <c r="S420" s="21"/>
     </row>
-    <row r="421" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="20">
         <v>4</v>
       </c>
@@ -26879,7 +26902,7 @@
       <c r="R421" s="46"/>
       <c r="S421" s="21"/>
     </row>
-    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="20">
         <v>4</v>
       </c>
@@ -26926,7 +26949,7 @@
       <c r="R422" s="46"/>
       <c r="S422" s="21"/>
     </row>
-    <row r="423" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="20">
         <v>4</v>
       </c>
@@ -26973,7 +26996,7 @@
       <c r="R423" s="46"/>
       <c r="S423" s="21"/>
     </row>
-    <row r="424" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="20">
         <v>4</v>
       </c>
@@ -27020,7 +27043,7 @@
       <c r="R424" s="46"/>
       <c r="S424" s="21"/>
     </row>
-    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="20">
         <v>4</v>
       </c>
@@ -27067,7 +27090,7 @@
       <c r="R425" s="46"/>
       <c r="S425" s="21"/>
     </row>
-    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="20">
         <v>4</v>
       </c>
@@ -27114,7 +27137,7 @@
       <c r="R426" s="46"/>
       <c r="S426" s="21"/>
     </row>
-    <row r="427" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="20">
         <v>4</v>
       </c>
@@ -27161,7 +27184,7 @@
       <c r="R427" s="46"/>
       <c r="S427" s="21"/>
     </row>
-    <row r="428" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="20">
         <v>4</v>
       </c>
@@ -27208,7 +27231,7 @@
       <c r="R428" s="46"/>
       <c r="S428" s="21"/>
     </row>
-    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="20">
         <v>4</v>
       </c>
@@ -27255,7 +27278,7 @@
       <c r="R429" s="46"/>
       <c r="S429" s="21"/>
     </row>
-    <row r="430" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="20">
         <v>4</v>
       </c>
@@ -27302,7 +27325,7 @@
       <c r="R430" s="46"/>
       <c r="S430" s="21"/>
     </row>
-    <row r="431" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="20">
         <v>4</v>
       </c>
@@ -27349,7 +27372,7 @@
       <c r="R431" s="46"/>
       <c r="S431" s="21"/>
     </row>
-    <row r="432" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="20">
         <v>2</v>
       </c>
@@ -27396,7 +27419,7 @@
       <c r="R432" s="46"/>
       <c r="S432" s="21"/>
     </row>
-    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="20">
         <v>4</v>
       </c>
@@ -27443,7 +27466,7 @@
       <c r="R433" s="46"/>
       <c r="S433" s="21"/>
     </row>
-    <row r="434" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="20">
         <v>4</v>
       </c>
@@ -27490,7 +27513,7 @@
       <c r="R434" s="46"/>
       <c r="S434" s="21"/>
     </row>
-    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="20">
         <v>4</v>
       </c>
@@ -27537,7 +27560,7 @@
       <c r="R435" s="46"/>
       <c r="S435" s="21"/>
     </row>
-    <row r="436" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="20">
         <v>4</v>
       </c>
@@ -27584,7 +27607,7 @@
       <c r="R436" s="46"/>
       <c r="S436" s="21"/>
     </row>
-    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="20">
         <v>4</v>
       </c>
@@ -27631,7 +27654,7 @@
       <c r="R437" s="46"/>
       <c r="S437" s="21"/>
     </row>
-    <row r="438" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="20">
         <v>4</v>
       </c>
@@ -27678,7 +27701,7 @@
       <c r="R438" s="46"/>
       <c r="S438" s="21"/>
     </row>
-    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="20">
         <v>4</v>
       </c>
@@ -27725,7 +27748,7 @@
       <c r="R439" s="46"/>
       <c r="S439" s="21"/>
     </row>
-    <row r="440" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="20">
         <v>4</v>
       </c>
@@ -27772,7 +27795,7 @@
       <c r="R440" s="46"/>
       <c r="S440" s="21"/>
     </row>
-    <row r="441" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="20">
         <v>4</v>
       </c>
@@ -27819,7 +27842,7 @@
       <c r="R441" s="46"/>
       <c r="S441" s="21"/>
     </row>
-    <row r="442" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="20">
         <v>4</v>
       </c>
@@ -27866,7 +27889,7 @@
       <c r="R442" s="46"/>
       <c r="S442" s="21"/>
     </row>
-    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="20">
         <v>4</v>
       </c>
@@ -27913,7 +27936,7 @@
       <c r="R443" s="46"/>
       <c r="S443" s="21"/>
     </row>
-    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="20">
         <v>4</v>
       </c>
@@ -27960,7 +27983,7 @@
       <c r="R444" s="46"/>
       <c r="S444" s="21"/>
     </row>
-    <row r="445" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="20">
         <v>4</v>
       </c>
@@ -28007,7 +28030,7 @@
       <c r="R445" s="46"/>
       <c r="S445" s="21"/>
     </row>
-    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="20">
         <v>4</v>
       </c>
@@ -28054,7 +28077,7 @@
       <c r="R446" s="46"/>
       <c r="S446" s="21"/>
     </row>
-    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="20">
         <v>4</v>
       </c>
@@ -28101,7 +28124,7 @@
       <c r="R447" s="46"/>
       <c r="S447" s="21"/>
     </row>
-    <row r="448" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="20">
         <v>4</v>
       </c>
@@ -28148,7 +28171,7 @@
       <c r="R448" s="46"/>
       <c r="S448" s="21"/>
     </row>
-    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="20">
         <v>4</v>
       </c>
@@ -28195,7 +28218,7 @@
       <c r="R449" s="46"/>
       <c r="S449" s="21"/>
     </row>
-    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="20">
         <v>4</v>
       </c>
@@ -28242,7 +28265,7 @@
       <c r="R450" s="46"/>
       <c r="S450" s="21"/>
     </row>
-    <row r="451" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="20">
         <v>4</v>
       </c>
@@ -28289,7 +28312,7 @@
       <c r="R451" s="46"/>
       <c r="S451" s="21"/>
     </row>
-    <row r="452" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="20">
         <v>4</v>
       </c>
@@ -28336,7 +28359,7 @@
       <c r="R452" s="46"/>
       <c r="S452" s="21"/>
     </row>
-    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="20">
         <v>4</v>
       </c>
@@ -28383,7 +28406,7 @@
       <c r="R453" s="46"/>
       <c r="S453" s="21"/>
     </row>
-    <row r="454" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="20">
         <v>4</v>
       </c>
@@ -28430,7 +28453,7 @@
       <c r="R454" s="46"/>
       <c r="S454" s="21"/>
     </row>
-    <row r="455" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="20">
         <v>4</v>
       </c>
@@ -28477,7 +28500,7 @@
       <c r="R455" s="46"/>
       <c r="S455" s="21"/>
     </row>
-    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="20">
         <v>4</v>
       </c>
@@ -28524,7 +28547,7 @@
       <c r="R456" s="46"/>
       <c r="S456" s="21"/>
     </row>
-    <row r="457" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="20">
         <v>4</v>
       </c>
@@ -28571,7 +28594,7 @@
       <c r="R457" s="46"/>
       <c r="S457" s="21"/>
     </row>
-    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="20">
         <v>4</v>
       </c>
@@ -28618,7 +28641,7 @@
       <c r="R458" s="46"/>
       <c r="S458" s="21"/>
     </row>
-    <row r="459" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="20">
         <v>4</v>
       </c>
@@ -28665,7 +28688,7 @@
       <c r="R459" s="46"/>
       <c r="S459" s="21"/>
     </row>
-    <row r="460" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="20">
         <v>4</v>
       </c>
@@ -28712,7 +28735,7 @@
       <c r="R460" s="46"/>
       <c r="S460" s="21"/>
     </row>
-    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="20">
         <v>4</v>
       </c>
@@ -28759,7 +28782,7 @@
       <c r="R461" s="46"/>
       <c r="S461" s="21"/>
     </row>
-    <row r="462" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="20">
         <v>4</v>
       </c>
@@ -28806,7 +28829,7 @@
       <c r="R462" s="46"/>
       <c r="S462" s="21"/>
     </row>
-    <row r="463" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="26">
         <v>2</v>
       </c>
@@ -28853,7 +28876,7 @@
       <c r="R463" s="46"/>
       <c r="S463" s="21"/>
     </row>
-    <row r="464" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="28">
         <v>2</v>
       </c>
@@ -28900,7 +28923,7 @@
       <c r="R464" s="46"/>
       <c r="S464" s="21"/>
     </row>
-    <row r="465" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="38">
         <v>2</v>
       </c>
@@ -28947,7 +28970,7 @@
       <c r="R465" s="46"/>
       <c r="S465" s="21"/>
     </row>
-    <row r="466" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="28">
         <v>2</v>
       </c>
@@ -28994,7 +29017,7 @@
       <c r="R466" s="46"/>
       <c r="S466" s="21"/>
     </row>
-    <row r="467" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="28">
         <v>2</v>
       </c>
@@ -29041,7 +29064,7 @@
       <c r="R467" s="46"/>
       <c r="S467" s="21"/>
     </row>
-    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="28">
         <v>2</v>
       </c>
@@ -29088,7 +29111,7 @@
       <c r="R468" s="46"/>
       <c r="S468" s="21"/>
     </row>
-    <row r="469" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="38">
         <v>2</v>
       </c>
@@ -29135,7 +29158,7 @@
       <c r="R469" s="46"/>
       <c r="S469" s="21"/>
     </row>
-    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="28">
         <v>2</v>
       </c>
@@ -29182,7 +29205,7 @@
       <c r="R470" s="46"/>
       <c r="S470" s="21"/>
     </row>
-    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="28">
         <v>2</v>
       </c>
@@ -29229,7 +29252,7 @@
       <c r="R471" s="46"/>
       <c r="S471" s="21"/>
     </row>
-    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="28">
         <v>2</v>
       </c>
@@ -29276,7 +29299,7 @@
       <c r="R472" s="46"/>
       <c r="S472" s="21"/>
     </row>
-    <row r="473" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="28">
         <v>2</v>
       </c>
@@ -29323,7 +29346,7 @@
       <c r="R473" s="46"/>
       <c r="S473" s="21"/>
     </row>
-    <row r="474" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="28" t="s">
         <v>449</v>
       </c>
@@ -29370,7 +29393,7 @@
       <c r="R474" s="46"/>
       <c r="S474" s="21"/>
     </row>
-    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="28">
         <v>2</v>
       </c>
@@ -29417,7 +29440,7 @@
       <c r="R475" s="46"/>
       <c r="S475" s="21"/>
     </row>
-    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="28">
         <v>2</v>
       </c>
@@ -29464,7 +29487,7 @@
       <c r="R476" s="46"/>
       <c r="S476" s="21"/>
     </row>
-    <row r="477" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="28">
         <v>2</v>
       </c>
@@ -29511,7 +29534,7 @@
       <c r="R477" s="46"/>
       <c r="S477" s="21"/>
     </row>
-    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="38">
         <v>2</v>
       </c>
@@ -29558,7 +29581,7 @@
       <c r="R478" s="46"/>
       <c r="S478" s="21"/>
     </row>
-    <row r="479" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="28" t="s">
         <v>449</v>
       </c>
@@ -29605,7 +29628,7 @@
       <c r="R479" s="46"/>
       <c r="S479" s="21"/>
     </row>
-    <row r="480" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="28">
         <v>2</v>
       </c>
@@ -29652,7 +29675,7 @@
       <c r="R480" s="46"/>
       <c r="S480" s="21"/>
     </row>
-    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="28">
         <v>2</v>
       </c>
@@ -29699,7 +29722,7 @@
       <c r="R481" s="46"/>
       <c r="S481" s="21"/>
     </row>
-    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="38">
         <v>2</v>
       </c>
@@ -29746,7 +29769,7 @@
       <c r="R482" s="46"/>
       <c r="S482" s="21"/>
     </row>
-    <row r="483" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="28" t="s">
         <v>449</v>
       </c>
@@ -29793,7 +29816,7 @@
       <c r="R483" s="46"/>
       <c r="S483" s="21"/>
     </row>
-    <row r="484" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="28">
         <v>2</v>
       </c>
@@ -29840,7 +29863,7 @@
       <c r="R484" s="46"/>
       <c r="S484" s="21"/>
     </row>
-    <row r="485" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="28">
         <v>2</v>
       </c>
@@ -29887,7 +29910,7 @@
       <c r="R485" s="46"/>
       <c r="S485" s="21"/>
     </row>
-    <row r="486" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="38">
         <v>2</v>
       </c>
@@ -29934,7 +29957,7 @@
       <c r="R486" s="46"/>
       <c r="S486" s="21"/>
     </row>
-    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="28">
         <v>2</v>
       </c>
@@ -29981,7 +30004,7 @@
       <c r="R487" s="46"/>
       <c r="S487" s="21"/>
     </row>
-    <row r="488" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="28">
         <v>2</v>
       </c>
@@ -30028,7 +30051,7 @@
       <c r="R488" s="46"/>
       <c r="S488" s="21"/>
     </row>
-    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="28" t="s">
         <v>449</v>
       </c>
@@ -30075,7 +30098,7 @@
       <c r="R489" s="46"/>
       <c r="S489" s="21"/>
     </row>
-    <row r="490" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="28">
         <v>2</v>
       </c>
@@ -30122,7 +30145,7 @@
       <c r="R490" s="46"/>
       <c r="S490" s="21"/>
     </row>
-    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="28">
         <v>2</v>
       </c>
@@ -30169,7 +30192,7 @@
       <c r="R491" s="46"/>
       <c r="S491" s="21"/>
     </row>
-    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="28" t="s">
         <v>449</v>
       </c>
@@ -30216,7 +30239,7 @@
       <c r="R492" s="46"/>
       <c r="S492" s="21"/>
     </row>
-    <row r="493" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="28">
         <v>2</v>
       </c>
@@ -30263,7 +30286,7 @@
       <c r="R493" s="46"/>
       <c r="S493" s="21"/>
     </row>
-    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="28">
         <v>2</v>
       </c>
@@ -30310,7 +30333,7 @@
       <c r="R494" s="46"/>
       <c r="S494" s="21"/>
     </row>
-    <row r="495" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="28" t="s">
         <v>449</v>
       </c>
@@ -30357,7 +30380,7 @@
       <c r="R495" s="46"/>
       <c r="S495" s="21"/>
     </row>
-    <row r="496" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="28">
         <v>2</v>
       </c>
@@ -30404,7 +30427,7 @@
       <c r="R496" s="46"/>
       <c r="S496" s="21"/>
     </row>
-    <row r="497" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="28" t="s">
         <v>449</v>
       </c>
@@ -30451,7 +30474,7 @@
       <c r="R497" s="46"/>
       <c r="S497" s="21"/>
     </row>
-    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="28">
         <v>2</v>
       </c>
@@ -30498,7 +30521,7 @@
       <c r="R498" s="46"/>
       <c r="S498" s="21"/>
     </row>
-    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="28" t="s">
         <v>449</v>
       </c>
@@ -30545,7 +30568,7 @@
       <c r="R499" s="46"/>
       <c r="S499" s="21"/>
     </row>
-    <row r="500" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="28">
         <v>2</v>
       </c>
@@ -30592,7 +30615,7 @@
       <c r="R500" s="46"/>
       <c r="S500" s="21"/>
     </row>
-    <row r="501" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="28">
         <v>4</v>
       </c>
@@ -30639,7 +30662,7 @@
       <c r="R501" s="46"/>
       <c r="S501" s="21"/>
     </row>
-    <row r="502" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="28">
         <v>4</v>
       </c>
@@ -30686,7 +30709,7 @@
       <c r="R502" s="46"/>
       <c r="S502" s="21"/>
     </row>
-    <row r="503" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="28" t="s">
         <v>449</v>
       </c>
@@ -30733,7 +30756,7 @@
       <c r="R503" s="46"/>
       <c r="S503" s="21"/>
     </row>
-    <row r="504" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="38">
         <v>2</v>
       </c>
@@ -30780,7 +30803,7 @@
       <c r="R504" s="46"/>
       <c r="S504" s="21"/>
     </row>
-    <row r="505" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="28" t="s">
         <v>449</v>
       </c>
@@ -30827,7 +30850,7 @@
       <c r="R505" s="46"/>
       <c r="S505" s="21"/>
     </row>
-    <row r="506" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="28" t="s">
         <v>449</v>
       </c>
@@ -30874,7 +30897,7 @@
       <c r="R506" s="46"/>
       <c r="S506" s="21"/>
     </row>
-    <row r="507" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="28" t="s">
         <v>449</v>
       </c>
@@ -30921,7 +30944,7 @@
       <c r="R507" s="46"/>
       <c r="S507" s="21"/>
     </row>
-    <row r="508" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="38">
         <v>2</v>
       </c>
@@ -30954,7 +30977,7 @@
       <c r="R508" s="46"/>
       <c r="S508" s="21"/>
     </row>
-    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="38">
         <v>2</v>
       </c>
@@ -30987,7 +31010,7 @@
       <c r="R509" s="46"/>
       <c r="S509" s="21"/>
     </row>
-    <row r="510" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="38">
         <v>2</v>
       </c>
@@ -31020,7 +31043,7 @@
       <c r="R510" s="46"/>
       <c r="S510" s="21"/>
     </row>
-    <row r="511" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="38">
         <v>2</v>
       </c>
@@ -31053,7 +31076,7 @@
       <c r="R511" s="46"/>
       <c r="S511" s="21"/>
     </row>
-    <row r="512" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="28" t="s">
         <v>449</v>
       </c>
@@ -31100,7 +31123,7 @@
       <c r="R512" s="46"/>
       <c r="S512" s="21"/>
     </row>
-    <row r="513" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="28">
         <v>8</v>
       </c>
@@ -31157,7 +31180,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="28">
         <v>8</v>
       </c>
@@ -31214,7 +31237,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="28">
         <v>8</v>
       </c>
@@ -31271,7 +31294,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="28">
         <v>8</v>
       </c>
@@ -31328,7 +31351,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="28">
         <v>8</v>
       </c>
@@ -31385,7 +31408,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="28">
         <v>8</v>
       </c>
@@ -31442,7 +31465,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="28">
         <v>8</v>
       </c>
@@ -31499,7 +31522,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="28">
         <v>8</v>
       </c>
@@ -31556,7 +31579,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="28">
         <v>8</v>
       </c>
@@ -31607,7 +31630,7 @@
       <c r="R521" s="46"/>
       <c r="S521" s="21"/>
     </row>
-    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="28">
         <v>8</v>
       </c>
@@ -31658,7 +31681,7 @@
       <c r="R522" s="46"/>
       <c r="S522" s="21"/>
     </row>
-    <row r="523" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="28">
         <v>8</v>
       </c>
@@ -31715,7 +31738,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="28">
         <v>8</v>
       </c>
@@ -31772,7 +31795,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="28">
         <v>8</v>
       </c>
@@ -31829,7 +31852,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="28">
         <v>8</v>
       </c>
@@ -31886,7 +31909,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="28">
         <v>8</v>
       </c>
@@ -31943,7 +31966,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="28">
         <v>8</v>
       </c>
@@ -32000,7 +32023,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="28">
         <v>8</v>
       </c>
@@ -32057,7 +32080,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="28">
         <v>8</v>
       </c>
@@ -32114,7 +32137,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="26">
         <v>1</v>
       </c>
@@ -32161,7 +32184,7 @@
       <c r="R531" s="46"/>
       <c r="S531" s="21"/>
     </row>
-    <row r="532" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="28">
         <v>8</v>
       </c>
@@ -32218,7 +32241,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="28">
         <v>8</v>
       </c>
@@ -32275,7 +32298,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="28">
         <v>8</v>
       </c>
@@ -32332,7 +32355,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="28">
         <v>8</v>
       </c>
@@ -32389,7 +32412,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="28">
         <v>8</v>
       </c>
@@ -32446,7 +32469,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="28">
         <v>8</v>
       </c>
@@ -32503,7 +32526,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="28">
         <v>8</v>
       </c>
@@ -32550,7 +32573,7 @@
       <c r="R538" s="46"/>
       <c r="S538" s="21"/>
     </row>
-    <row r="539" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="28">
         <v>8</v>
       </c>
@@ -32597,7 +32620,7 @@
       <c r="R539" s="46"/>
       <c r="S539" s="21"/>
     </row>
-    <row r="540" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="28">
         <v>8</v>
       </c>
@@ -32644,7 +32667,7 @@
       <c r="R540" s="46"/>
       <c r="S540" s="21"/>
     </row>
-    <row r="541" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="26">
         <v>1</v>
       </c>
@@ -32691,7 +32714,7 @@
       <c r="R541" s="46"/>
       <c r="S541" s="21"/>
     </row>
-    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="28">
         <v>8</v>
       </c>
@@ -32738,7 +32761,7 @@
       <c r="R542" s="46"/>
       <c r="S542" s="21"/>
     </row>
-    <row r="543" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="28">
         <v>8</v>
       </c>
@@ -32785,7 +32808,7 @@
       <c r="R543" s="46"/>
       <c r="S543" s="21"/>
     </row>
-    <row r="544" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="28">
         <v>8</v>
       </c>
@@ -32832,7 +32855,7 @@
       <c r="R544" s="46"/>
       <c r="S544" s="21"/>
     </row>
-    <row r="545" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="28">
         <v>8</v>
       </c>
@@ -32879,7 +32902,7 @@
       <c r="R545" s="46"/>
       <c r="S545" s="21"/>
     </row>
-    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="28">
         <v>8</v>
       </c>
@@ -32926,7 +32949,7 @@
       <c r="R546" s="46"/>
       <c r="S546" s="21"/>
     </row>
-    <row r="547" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="28">
         <v>8</v>
       </c>
@@ -32973,7 +32996,7 @@
       <c r="R547" s="46"/>
       <c r="S547" s="21"/>
     </row>
-    <row r="548" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="28">
         <v>8</v>
       </c>
@@ -33020,7 +33043,7 @@
       <c r="R548" s="46"/>
       <c r="S548" s="21"/>
     </row>
-    <row r="549" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="28">
         <v>8</v>
       </c>
@@ -33067,7 +33090,7 @@
       <c r="R549" s="46"/>
       <c r="S549" s="21"/>
     </row>
-    <row r="550" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="28">
         <v>8</v>
       </c>
@@ -33114,7 +33137,7 @@
       <c r="R550" s="46"/>
       <c r="S550" s="21"/>
     </row>
-    <row r="551" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="28">
         <v>8</v>
       </c>
@@ -33161,7 +33184,7 @@
       <c r="R551" s="46"/>
       <c r="S551" s="21"/>
     </row>
-    <row r="552" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="28">
         <v>8</v>
       </c>
@@ -33208,7 +33231,7 @@
       <c r="R552" s="46"/>
       <c r="S552" s="21"/>
     </row>
-    <row r="553" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="28">
         <v>8</v>
       </c>
@@ -33255,7 +33278,7 @@
       <c r="R553" s="46"/>
       <c r="S553" s="21"/>
     </row>
-    <row r="554" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="28">
         <v>3</v>
       </c>
@@ -33302,7 +33325,7 @@
       <c r="R554" s="46"/>
       <c r="S554" s="21"/>
     </row>
-    <row r="555" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="28">
         <v>3</v>
       </c>
@@ -33349,7 +33372,7 @@
       <c r="R555" s="46"/>
       <c r="S555" s="21"/>
     </row>
-    <row r="556" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="26">
         <v>8</v>
       </c>
@@ -33396,7 +33419,7 @@
       <c r="R556" s="46"/>
       <c r="S556" s="21"/>
     </row>
-    <row r="557" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="26">
         <v>8</v>
       </c>
@@ -33443,7 +33466,7 @@
       <c r="R557" s="46"/>
       <c r="S557" s="21"/>
     </row>
-    <row r="558" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="26">
         <v>8</v>
       </c>
@@ -33490,7 +33513,7 @@
       <c r="R558" s="46"/>
       <c r="S558" s="21"/>
     </row>
-    <row r="559" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="26">
         <v>8</v>
       </c>
@@ -33537,7 +33560,7 @@
       <c r="R559" s="46"/>
       <c r="S559" s="21"/>
     </row>
-    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="26">
         <v>8</v>
       </c>
@@ -33584,7 +33607,7 @@
       <c r="R560" s="46"/>
       <c r="S560" s="21"/>
     </row>
-    <row r="561" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="26">
         <v>8</v>
       </c>
@@ -33631,7 +33654,7 @@
       <c r="R561" s="46"/>
       <c r="S561" s="21"/>
     </row>
-    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="26">
         <v>8</v>
       </c>
@@ -33678,7 +33701,7 @@
       <c r="R562" s="46"/>
       <c r="S562" s="21"/>
     </row>
-    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="26">
         <v>8</v>
       </c>
@@ -33725,7 +33748,7 @@
       <c r="R563" s="46"/>
       <c r="S563" s="21"/>
     </row>
-    <row r="564" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="26">
         <v>8</v>
       </c>
@@ -33772,7 +33795,7 @@
       <c r="R564" s="46"/>
       <c r="S564" s="21"/>
     </row>
-    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="26">
         <v>8</v>
       </c>
@@ -33819,7 +33842,7 @@
       <c r="R565" s="46"/>
       <c r="S565" s="21"/>
     </row>
-    <row r="566" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="26">
         <v>8</v>
       </c>
@@ -33866,7 +33889,7 @@
       <c r="R566" s="46"/>
       <c r="S566" s="21"/>
     </row>
-    <row r="567" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="26">
         <v>8</v>
       </c>
@@ -33913,7 +33936,7 @@
       <c r="R567" s="46"/>
       <c r="S567" s="21"/>
     </row>
-    <row r="568" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="26">
         <v>8</v>
       </c>
@@ -33960,7 +33983,7 @@
       <c r="R568" s="46"/>
       <c r="S568" s="21"/>
     </row>
-    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="26">
         <v>8</v>
       </c>
@@ -34007,7 +34030,7 @@
       <c r="R569" s="46"/>
       <c r="S569" s="21"/>
     </row>
-    <row r="570" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="26">
         <v>8</v>
       </c>
@@ -34054,7 +34077,7 @@
       <c r="R570" s="46"/>
       <c r="S570" s="21"/>
     </row>
-    <row r="571" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="26">
         <v>8</v>
       </c>
@@ -34101,7 +34124,7 @@
       <c r="R571" s="46"/>
       <c r="S571" s="21"/>
     </row>
-    <row r="572" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="26">
         <v>8</v>
       </c>
@@ -34148,7 +34171,7 @@
       <c r="R572" s="46"/>
       <c r="S572" s="21"/>
     </row>
-    <row r="573" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="26">
         <v>8</v>
       </c>
@@ -34195,7 +34218,7 @@
       <c r="R573" s="46"/>
       <c r="S573" s="21"/>
     </row>
-    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="26">
         <v>8</v>
       </c>
@@ -34242,7 +34265,7 @@
       <c r="R574" s="46"/>
       <c r="S574" s="21"/>
     </row>
-    <row r="575" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="26">
         <v>8</v>
       </c>
@@ -34289,7 +34312,7 @@
       <c r="R575" s="46"/>
       <c r="S575" s="21"/>
     </row>
-    <row r="576" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="26">
         <v>8</v>
       </c>
@@ -34336,7 +34359,7 @@
       <c r="R576" s="46"/>
       <c r="S576" s="21"/>
     </row>
-    <row r="577" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="26">
         <v>8</v>
       </c>
@@ -34383,7 +34406,7 @@
       <c r="R577" s="46"/>
       <c r="S577" s="21"/>
     </row>
-    <row r="578" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="26">
         <v>8</v>
       </c>
@@ -34430,7 +34453,7 @@
       <c r="R578" s="46"/>
       <c r="S578" s="21"/>
     </row>
-    <row r="579" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="26">
         <v>8</v>
       </c>
@@ -34477,7 +34500,7 @@
       <c r="R579" s="46"/>
       <c r="S579" s="21"/>
     </row>
-    <row r="580" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="26">
         <v>8</v>
       </c>
@@ -34524,7 +34547,7 @@
       <c r="R580" s="46"/>
       <c r="S580" s="21"/>
     </row>
-    <row r="581" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="26">
         <v>8</v>
       </c>
@@ -34571,7 +34594,7 @@
       <c r="R581" s="46"/>
       <c r="S581" s="21"/>
     </row>
-    <row r="582" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="26">
         <v>8</v>
       </c>
@@ -34618,7 +34641,7 @@
       <c r="R582" s="46"/>
       <c r="S582" s="21"/>
     </row>
-    <row r="583" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="26">
         <v>8</v>
       </c>
@@ -34665,7 +34688,7 @@
       <c r="R583" s="46"/>
       <c r="S583" s="21"/>
     </row>
-    <row r="584" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="26">
         <v>8</v>
       </c>
@@ -34712,7 +34735,7 @@
       <c r="R584" s="46"/>
       <c r="S584" s="21"/>
     </row>
-    <row r="585" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="26">
         <v>8</v>
       </c>
@@ -34763,21 +34786,21 @@
   <autoFilter ref="A1:S585" xr:uid="{462B357B-D08B-41C7-9173-012688EAF9F7}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"TestAanpassen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"nvt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"nvt"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34794,7 +34817,7 @@
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34809,17 +34832,17 @@
       <selection activeCell="A22" sqref="A22:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="117.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="117.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="9.109375" style="1"/>
     <col min="26" max="45" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="1"/>
+    <col min="46" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
@@ -34828,7 +34851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>448</v>
       </c>
@@ -34836,7 +34859,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -34844,7 +34867,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -34852,7 +34875,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -34860,7 +34883,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -34868,7 +34891,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -34876,7 +34899,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -34884,7 +34907,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -34892,7 +34915,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -34900,7 +34923,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>449</v>
       </c>
@@ -34908,8 +34931,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -34917,7 +34940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>452</v>
       </c>
@@ -34925,8 +34948,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>69</v>
       </c>
@@ -34934,7 +34957,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>502</v>
       </c>
@@ -34942,7 +34965,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>461</v>
       </c>
@@ -34950,7 +34973,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>158</v>
       </c>
@@ -34958,7 +34981,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1013</v>
       </c>
@@ -34966,10 +34989,10 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -34977,7 +35000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -34985,7 +35008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>159</v>
       </c>
@@ -34993,10 +35016,10 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1034</v>
       </c>
@@ -35004,7 +35027,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -35012,7 +35035,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -35020,10 +35043,10 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
@@ -35031,7 +35054,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1015</v>
       </c>
@@ -35039,7 +35062,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1016</v>
       </c>
@@ -35047,7 +35070,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1017</v>
       </c>
@@ -35055,7 +35078,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1018</v>
       </c>
@@ -35063,7 +35086,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1019</v>
       </c>
@@ -35071,7 +35094,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1021</v>
       </c>
@@ -35079,7 +35102,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1020</v>
       </c>
@@ -35087,20 +35110,20 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
   </sheetData>
@@ -35108,12 +35131,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35126,6 +35149,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="683f33f1965a4281e1148fdccc0154fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97b5ec5cda9bef38850541e6e5484e88" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -35342,36 +35380,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F38BFB-AD7B-44AA-88FE-CF0C131527E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35394,9 +35406,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F38BFB-AD7B-44AA-88FE-CF0C131527E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B6866-9F7B-4538-873E-06074AAD671C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E362C80-8062-4FE7-9F7B-85579B9F2425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5037,8 +5037,8 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N95" sqref="N95:S95"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N98" sqref="N98:S98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10263,19 +10263,24 @@
       <c r="M96" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N96" s="21"/>
+      <c r="N96" s="21" t="str">
+        <f t="shared" ref="N96" si="2">"opdracht_"&amp;B96&amp;".zip"</f>
+        <v>opdracht_LVBB2015.zip</v>
+      </c>
       <c r="O96" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P96" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q96" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q96" s="46">
+        <v>44209</v>
+      </c>
       <c r="R96" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S96" s="21" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10318,19 +10323,24 @@
       <c r="M97" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N97" s="21"/>
+      <c r="N97" s="21" t="str">
+        <f t="shared" ref="N97" si="3">"opdracht_"&amp;B97&amp;".zip"</f>
+        <v>opdracht_LVBB2016.zip</v>
+      </c>
       <c r="O97" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P97" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q97" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q97" s="46">
+        <v>44209</v>
+      </c>
       <c r="R97" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S97" s="21" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10373,19 +10383,24 @@
       <c r="M98" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N98" s="21"/>
+      <c r="N98" s="21" t="str">
+        <f t="shared" ref="N98" si="4">"opdracht_"&amp;B98&amp;".zip"</f>
+        <v>opdracht_LVBB2017.zip</v>
+      </c>
       <c r="O98" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P98" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q98" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q98" s="46">
+        <v>44209</v>
+      </c>
       <c r="R98" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S98" s="21" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E362C80-8062-4FE7-9F7B-85579B9F2425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B673EF2-C85C-4B17-85D0-35B89EE3290C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5038,7 +5038,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N98" sqref="N98:S98"/>
+      <selection pane="bottomLeft" activeCell="N99" sqref="N99:S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10443,19 +10443,24 @@
       <c r="M99" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N99" s="21"/>
+      <c r="N99" s="21" t="str">
+        <f t="shared" ref="N99" si="5">"opdracht_"&amp;B99&amp;".zip"</f>
+        <v>opdracht_LVBB2018.zip</v>
+      </c>
       <c r="O99" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P99" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q99" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q99" s="46">
+        <v>44209</v>
+      </c>
       <c r="R99" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S99" s="21" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B673EF2-C85C-4B17-85D0-35B89EE3290C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBB6E7-B138-4EF4-9765-8D312B99DC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5038,7 +5038,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N99" sqref="N99:S99"/>
+      <selection pane="bottomLeft" activeCell="N100" sqref="N100:S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10503,19 +10503,24 @@
       <c r="M100" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N100" s="21"/>
+      <c r="N100" s="21" t="str">
+        <f t="shared" ref="N100" si="6">"opdracht_"&amp;B100&amp;".zip"</f>
+        <v>opdracht_LVBB2019.zip</v>
+      </c>
       <c r="O100" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P100" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q100" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q100" s="46">
+        <v>44209</v>
+      </c>
       <c r="R100" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S100" s="21" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBB6E7-B138-4EF4-9765-8D312B99DC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A42A833-05B7-451F-8F15-4C706B048631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5038,7 +5038,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N100" sqref="N100:S100"/>
+      <selection pane="bottomLeft" activeCell="N101" sqref="N101:S101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10563,19 +10563,24 @@
       <c r="M101" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N101" s="21"/>
+      <c r="N101" s="21" t="str">
+        <f t="shared" ref="N101" si="7">"opdracht_"&amp;B101&amp;".zip"</f>
+        <v>opdracht_LVBB2020.zip</v>
+      </c>
       <c r="O101" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P101" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q101" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q101" s="46">
+        <v>44209</v>
+      </c>
       <c r="R101" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S101" s="21" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A42A833-05B7-451F-8F15-4C706B048631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672AECA3-9A6B-4B9D-B034-9E5F6B3D74AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5038,7 +5038,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N101" sqref="N101:S101"/>
+      <selection pane="bottomLeft" activeCell="N102" sqref="N102:S102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10623,19 +10623,24 @@
       <c r="M102" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N102" s="21"/>
+      <c r="N102" s="21" t="str">
+        <f t="shared" ref="N102" si="8">"opdracht_"&amp;B102&amp;".zip"</f>
+        <v>opdracht_LVBB2021.zip</v>
+      </c>
       <c r="O102" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P102" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q102" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q102" s="46">
+        <v>44209</v>
+      </c>
       <c r="R102" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S102" s="21" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672AECA3-9A6B-4B9D-B034-9E5F6B3D74AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC023DEE-BF93-43D2-9E62-D59E32F0DA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7984" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7984" uniqueCount="1286">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3945,9 +3945,6 @@
   </si>
   <si>
     <t>Maken zodra wijzigingsbesluiten überhaupt kunnen.</t>
-  </si>
-  <si>
-    <t>Test moet nog gemaakt worden.</t>
   </si>
 </sst>
 </file>
@@ -5038,7 +5035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N102" sqref="N102:S102"/>
+      <selection pane="bottomLeft" activeCell="N103" sqref="N103:S103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10683,19 +10680,24 @@
       <c r="M103" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N103" s="21"/>
+      <c r="N103" s="21" t="str">
+        <f t="shared" ref="N103" si="9">"opdracht_"&amp;B103&amp;".zip"</f>
+        <v>opdracht_LVBB2500.zip</v>
+      </c>
       <c r="O103" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P103" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q103" s="46"/>
+        <v>1232</v>
+      </c>
+      <c r="Q103" s="46">
+        <v>44209</v>
+      </c>
       <c r="R103" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC023DEE-BF93-43D2-9E62-D59E32F0DA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B08403-3181-42F0-AB2E-323B599153AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7984" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7988" uniqueCount="1286">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5034,8 +5034,8 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N103" sqref="N103:S103"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N111" sqref="N111:S111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10975,12 +10975,25 @@
       <c r="M109" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
-      <c r="P109" s="21"/>
-      <c r="Q109" s="46"/>
-      <c r="R109" s="46"/>
-      <c r="S109" s="21"/>
+      <c r="N109" s="21" t="str">
+        <f t="shared" ref="N109" si="10">"opdracht_"&amp;B109&amp;".zip"</f>
+        <v>opdracht_LVBB3000.zip</v>
+      </c>
+      <c r="O109" s="21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P109" s="21" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Q109" s="46">
+        <v>44209</v>
+      </c>
+      <c r="R109" s="46" t="s">
+        <v>1239</v>
+      </c>
+      <c r="S109" s="21" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
@@ -11069,8 +11082,9 @@
       <c r="M111" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N111" s="21" t="s">
-        <v>1211</v>
+      <c r="N111" s="21" t="str">
+        <f t="shared" ref="N111" si="11">"opdracht_"&amp;B111&amp;".zip"</f>
+        <v>opdracht_LVBB3003.zip</v>
       </c>
       <c r="O111" s="21" t="s">
         <v>1066</v>
@@ -11079,11 +11093,13 @@
         <v>1232</v>
       </c>
       <c r="Q111" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R111" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R111" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S111" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B08403-3181-42F0-AB2E-323B599153AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9538485A-26E0-46FC-B1AE-9B2BD0CC2B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7988" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7987" uniqueCount="1286">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5035,7 +5035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N111" sqref="N111:S111"/>
+      <selection pane="bottomLeft" activeCell="N115" sqref="N115:S115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11189,23 +11189,24 @@
       <c r="M113" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N113" s="21" t="s">
-        <v>1212</v>
-      </c>
-      <c r="O113" s="11" t="s">
+      <c r="N113" s="21" t="str">
+        <f t="shared" ref="N113" si="12">"opdracht_"&amp;B113&amp;".zip"</f>
+        <v>opdracht_LVBB3008.zip</v>
+      </c>
+      <c r="O113" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P113" s="21" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="Q113" s="46">
-        <v>44182</v>
+        <v>44209</v>
       </c>
       <c r="R113" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>1243</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11248,8 +11249,9 @@
       <c r="M114" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N114" s="21" t="s">
-        <v>1211</v>
+      <c r="N114" s="21" t="str">
+        <f t="shared" ref="N114" si="13">"opdracht_"&amp;B114&amp;".zip"</f>
+        <v>opdracht_LVBB3009.zip</v>
       </c>
       <c r="O114" s="21" t="s">
         <v>1066</v>
@@ -11258,11 +11260,13 @@
         <v>1232</v>
       </c>
       <c r="Q114" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R114" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R114" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S114" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11305,8 +11309,9 @@
       <c r="M115" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N115" s="21" t="s">
-        <v>1211</v>
+      <c r="N115" s="21" t="str">
+        <f t="shared" ref="N115" si="14">"opdracht_"&amp;B115&amp;".zip"</f>
+        <v>opdracht_LVBB3010.zip</v>
       </c>
       <c r="O115" s="21" t="s">
         <v>1066</v>
@@ -11315,11 +11320,13 @@
         <v>1232</v>
       </c>
       <c r="Q115" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R115" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R115" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S115" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9538485A-26E0-46FC-B1AE-9B2BD0CC2B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE081F5-83E8-42DB-BE86-F13C2C7DCB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5034,8 +5034,8 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N115" sqref="N115:S115"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N116" sqref="N116:S116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11369,8 +11369,9 @@
       <c r="M116" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N116" s="21" t="s">
-        <v>1211</v>
+      <c r="N116" s="21" t="str">
+        <f t="shared" ref="N116" si="15">"opdracht_"&amp;B116&amp;".zip"</f>
+        <v>opdracht_LVBB3011.zip</v>
       </c>
       <c r="O116" s="21" t="s">
         <v>1066</v>
@@ -11379,11 +11380,13 @@
         <v>1232</v>
       </c>
       <c r="Q116" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R116" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R116" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S116" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE081F5-83E8-42DB-BE86-F13C2C7DCB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C33A915-87E7-409B-9AD1-5887DA61F70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5035,7 +5035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N116" sqref="N116:S116"/>
+      <selection pane="bottomLeft" activeCell="N119" sqref="N119:S119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11523,8 +11523,9 @@
       <c r="M119" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N119" s="21" t="s">
-        <v>1211</v>
+      <c r="N119" s="21" t="str">
+        <f t="shared" ref="N119" si="16">"opdracht_"&amp;B119&amp;".zip"</f>
+        <v>opdracht_LVBB3503.zip</v>
       </c>
       <c r="O119" s="21" t="s">
         <v>1066</v>
@@ -11533,11 +11534,13 @@
         <v>1232</v>
       </c>
       <c r="Q119" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R119" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R119" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S119" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C33A915-87E7-409B-9AD1-5887DA61F70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121CAB79-1411-481B-A7A4-DCD8B44A1553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5035,7 +5035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N119" sqref="N119:S119"/>
+      <selection pane="bottomLeft" activeCell="N120" sqref="N120:S120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11583,8 +11583,9 @@
       <c r="M120" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N120" s="21" t="s">
-        <v>1211</v>
+      <c r="N120" s="21" t="str">
+        <f t="shared" ref="N120" si="17">"opdracht_"&amp;B120&amp;".zip"</f>
+        <v>opdracht_LVBB3504.zip</v>
       </c>
       <c r="O120" s="21" t="s">
         <v>1066</v>
@@ -11593,11 +11594,13 @@
         <v>1232</v>
       </c>
       <c r="Q120" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R120" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R120" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S120" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121CAB79-1411-481B-A7A4-DCD8B44A1553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98346750-3E20-4B42-B3CA-7E044A3A11EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5034,8 +5034,8 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N120" sqref="N120:S120"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N122" sqref="N122:S122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11643,8 +11643,9 @@
       <c r="M121" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N121" s="21" t="s">
-        <v>1211</v>
+      <c r="N121" s="21" t="str">
+        <f t="shared" ref="N121" si="18">"opdracht_"&amp;B121&amp;".zip"</f>
+        <v>opdracht_LVBB3505.zip</v>
       </c>
       <c r="O121" s="21" t="s">
         <v>1066</v>
@@ -11653,11 +11654,13 @@
         <v>1232</v>
       </c>
       <c r="Q121" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R121" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R121" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S121" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11700,8 +11703,9 @@
       <c r="M122" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N122" s="21" t="s">
-        <v>1211</v>
+      <c r="N122" s="21" t="str">
+        <f t="shared" ref="N122" si="19">"opdracht_"&amp;B122&amp;".zip"</f>
+        <v>opdracht_LVBB3506.zip</v>
       </c>
       <c r="O122" s="21" t="s">
         <v>1066</v>
@@ -11710,11 +11714,13 @@
         <v>1232</v>
       </c>
       <c r="Q122" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R122" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R122" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S122" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98346750-3E20-4B42-B3CA-7E044A3A11EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92E483-677F-4604-8228-FF3CA9225282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5035,7 +5035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N122" sqref="N122:S122"/>
+      <selection pane="bottomLeft" activeCell="N123" sqref="N123:S123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11763,8 +11763,9 @@
       <c r="M123" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N123" s="21" t="s">
-        <v>1211</v>
+      <c r="N123" s="21" t="str">
+        <f t="shared" ref="N123" si="20">"opdracht_"&amp;B123&amp;".zip"</f>
+        <v>opdracht_LVBB3507.zip</v>
       </c>
       <c r="O123" s="21" t="s">
         <v>1066</v>
@@ -11773,18 +11774,20 @@
         <v>1232</v>
       </c>
       <c r="Q123" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R123" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R123" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S123" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28">
         <v>2</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="41" t="s">
         <v>102</v>
       </c>
       <c r="C124" s="21" t="s">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92E483-677F-4604-8228-FF3CA9225282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90821FDB-078F-435F-BD2D-0BF63E790431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5034,8 +5034,8 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N123" sqref="N123:S123"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N125" sqref="N125:S125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11870,8 +11870,9 @@
       <c r="M125" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N125" s="21" t="s">
-        <v>1211</v>
+      <c r="N125" s="21" t="str">
+        <f t="shared" ref="N125" si="21">"opdracht_"&amp;B125&amp;".zip"</f>
+        <v>opdracht_LVBB3509.zip</v>
       </c>
       <c r="O125" s="21" t="s">
         <v>1066</v>
@@ -11880,11 +11881,13 @@
         <v>1232</v>
       </c>
       <c r="Q125" s="46">
-        <v>44166</v>
-      </c>
-      <c r="R125" s="46"/>
+        <v>44209</v>
+      </c>
+      <c r="R125" s="46" t="s">
+        <v>1239</v>
+      </c>
       <c r="S125" s="21" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90821FDB-078F-435F-BD2D-0BF63E790431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE96736C-437B-412F-AC07-BC1C93E457DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7987" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7986" uniqueCount="1286">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5035,7 +5035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N125" sqref="N125:S125"/>
+      <selection pane="bottomLeft" activeCell="N126" sqref="N126:S126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11930,23 +11930,24 @@
       <c r="M126" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N126" s="21" t="s">
-        <v>1212</v>
+      <c r="N126" s="21" t="str">
+        <f t="shared" ref="N126" si="22">"opdracht_"&amp;B126&amp;".zip"</f>
+        <v>opdracht_LVBB3510.zip</v>
       </c>
       <c r="O126" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P126" s="21" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="Q126" s="46">
-        <v>44182</v>
+        <v>44209</v>
       </c>
       <c r="R126" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S126" s="21" t="s">
-        <v>1243</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE96736C-437B-412F-AC07-BC1C93E457DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED593FF4-5C65-4360-8ECE-2AD081A301C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7986" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7985" uniqueCount="1286">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5034,8 +5034,8 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N126" sqref="N126:S126"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N127" sqref="N127:S127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11990,23 +11990,24 @@
       <c r="M127" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N127" s="21" t="s">
-        <v>1212</v>
+      <c r="N127" s="21" t="str">
+        <f t="shared" ref="N127" si="23">"opdracht_"&amp;B127&amp;".zip"</f>
+        <v>opdracht_LVBB3511.zip</v>
       </c>
       <c r="O127" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P127" s="21" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="Q127" s="46">
-        <v>44182</v>
+        <v>44209</v>
       </c>
       <c r="R127" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S127" s="21" t="s">
-        <v>1243</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED593FF4-5C65-4360-8ECE-2AD081A301C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8760777D-E5F4-40D8-A390-1FE48845C74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7985" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7984" uniqueCount="1286">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5035,7 +5035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N127" sqref="N127:S127"/>
+      <selection pane="bottomLeft" activeCell="N128" sqref="N128:S128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12050,23 +12050,24 @@
       <c r="M128" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N128" s="21" t="s">
-        <v>1212</v>
+      <c r="N128" s="21" t="str">
+        <f t="shared" ref="N128" si="24">"opdracht_"&amp;B128&amp;".zip"</f>
+        <v>opdracht_LVBB3512.zip</v>
       </c>
       <c r="O128" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P128" s="21" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="Q128" s="46">
-        <v>44182</v>
+        <v>44209</v>
       </c>
       <c r="R128" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S128" s="21" t="s">
-        <v>1243</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8760777D-E5F4-40D8-A390-1FE48845C74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ECC984-12F6-47B1-8B8F-6255E31B372F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7984" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7983" uniqueCount="1286">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5035,7 +5035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N128" sqref="N128:S128"/>
+      <selection pane="bottomLeft" activeCell="N129" sqref="N129:S129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12110,23 +12110,24 @@
       <c r="M129" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N129" s="21" t="s">
-        <v>1212</v>
+      <c r="N129" s="21" t="str">
+        <f t="shared" ref="N129" si="25">"opdracht_"&amp;B129&amp;".zip"</f>
+        <v>opdracht_LVBB3513.zip</v>
       </c>
       <c r="O129" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P129" s="21" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="Q129" s="46">
-        <v>44182</v>
+        <v>44209</v>
       </c>
       <c r="R129" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>1243</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ECC984-12F6-47B1-8B8F-6255E31B372F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24FC581-F8FC-4D6B-AEDB-996E28E7EDF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7983" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7982" uniqueCount="1287">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3945,6 +3945,9 @@
   </si>
   <si>
     <t>Maken zodra wijzigingsbesluiten überhaupt kunnen.</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB3504-foutmelding</t>
   </si>
 </sst>
 </file>
@@ -5033,9 +5036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N129" sqref="N129:S129"/>
+      <selection pane="bottomLeft" activeCell="Q130" sqref="Q130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12170,23 +12173,24 @@
       <c r="M130" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N130" s="21" t="s">
-        <v>1212</v>
+      <c r="N130" s="21" t="str">
+        <f t="shared" ref="N130" si="26">"opdracht_"&amp;B130&amp;".zip"</f>
+        <v>opdracht_LVBB3601.zip</v>
       </c>
       <c r="O130" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P130" s="21" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="Q130" s="46">
-        <v>44182</v>
+        <v>44210</v>
       </c>
       <c r="R130" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="S130" s="21" t="s">
-        <v>1243</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24FC581-F8FC-4D6B-AEDB-996E28E7EDF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310B560-FAF8-4EB2-AA82-6CDF68056973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5036,9 +5036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q130" sqref="Q130"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12695,7 +12695,7 @@
       <c r="A141" s="26">
         <v>5</v>
       </c>
-      <c r="B141" s="40" t="s">
+      <c r="B141" s="41" t="s">
         <v>52</v>
       </c>
       <c r="C141" s="21" t="s">

--- a/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
+++ b/1.0.4-rc/Validatiematrix 1 (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310B560-FAF8-4EB2-AA82-6CDF68056973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9767C216-0567-44E8-8644-3CEF2FA097AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7982" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7970" uniqueCount="1286">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3734,9 +3734,6 @@
     <t>geo-validatie</t>
   </si>
   <si>
-    <t>opdracht_10</t>
-  </si>
-  <si>
     <t>zit in besluitmetadata</t>
   </si>
   <si>
@@ -3815,9 +3812,6 @@
     <t>Geonovum</t>
   </si>
   <si>
-    <t>opdracht_17</t>
-  </si>
-  <si>
     <t>De enige fout die getriggerd wordt is LVBB1010</t>
   </si>
   <si>
@@ -3948,6 +3942,9 @@
   </si>
   <si>
     <t>Geeft een LVBB3504-foutmelding</t>
+  </si>
+  <si>
+    <t>Geeft een LVBB4017-foutmelding</t>
   </si>
 </sst>
 </file>
@@ -5036,9 +5033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S144" sqref="S144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5107,16 +5104,16 @@
         <v>1064</v>
       </c>
       <c r="P1" s="43" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="S1" s="43" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6010,14 +6007,14 @@
       </c>
       <c r="O20" s="21"/>
       <c r="P20" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q20" s="46">
         <v>44208</v>
       </c>
       <c r="R20" s="46"/>
       <c r="S20" s="21" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6065,13 +6062,13 @@
       </c>
       <c r="O21" s="21"/>
       <c r="P21" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q21" s="46">
         <v>44166</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S21" s="21"/>
     </row>
@@ -6120,13 +6117,13 @@
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q22" s="46">
         <v>44166</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S22" s="21"/>
     </row>
@@ -6175,13 +6172,13 @@
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q23" s="46">
         <v>44166</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S23" s="21"/>
     </row>
@@ -6230,13 +6227,13 @@
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q24" s="46">
         <v>44166</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S24" s="21"/>
     </row>
@@ -6285,13 +6282,13 @@
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q25" s="46">
         <v>44166</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S25" s="21"/>
     </row>
@@ -6340,13 +6337,13 @@
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q26" s="46">
         <v>44166</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S26" s="21"/>
     </row>
@@ -6395,13 +6392,13 @@
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q27" s="46">
         <v>44166</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S27" s="21"/>
     </row>
@@ -6450,13 +6447,13 @@
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q28" s="46">
         <v>44166</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S28" s="21"/>
     </row>
@@ -6505,13 +6502,13 @@
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q29" s="46">
         <v>44166</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S29" s="21"/>
     </row>
@@ -6560,13 +6557,13 @@
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q30" s="46">
         <v>44166</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S30" s="21"/>
     </row>
@@ -6615,13 +6612,13 @@
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q31" s="46">
         <v>44166</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S31" s="21"/>
     </row>
@@ -6670,13 +6667,13 @@
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q32" s="46">
         <v>44166</v>
       </c>
       <c r="R32" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S32" s="21"/>
     </row>
@@ -6725,13 +6722,13 @@
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q33" s="46">
         <v>44166</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="S33" s="21"/>
     </row>
@@ -6976,7 +6973,7 @@
         <v>24</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>1065</v>
@@ -6986,10 +6983,10 @@
       </c>
       <c r="Q38" s="46"/>
       <c r="R38" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7033,7 +7030,7 @@
         <v>24</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>1065</v>
@@ -7045,10 +7042,10 @@
         <v>44208</v>
       </c>
       <c r="R39" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7092,7 +7089,7 @@
         <v>24</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>1065</v>
@@ -7104,10 +7101,10 @@
         <v>44208</v>
       </c>
       <c r="R40" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7151,7 +7148,7 @@
         <v>24</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>1065</v>
@@ -7163,10 +7160,10 @@
         <v>44208</v>
       </c>
       <c r="R41" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7210,7 +7207,7 @@
         <v>24</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>1065</v>
@@ -7222,10 +7219,10 @@
         <v>44208</v>
       </c>
       <c r="R42" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S42" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7269,7 +7266,7 @@
         <v>24</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>1065</v>
@@ -7281,10 +7278,10 @@
         <v>44208</v>
       </c>
       <c r="R43" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7328,7 +7325,7 @@
         <v>24</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>1065</v>
@@ -7340,10 +7337,10 @@
         <v>44208</v>
       </c>
       <c r="R44" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7387,7 +7384,7 @@
         <v>24</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>1065</v>
@@ -7399,10 +7396,10 @@
         <v>44208</v>
       </c>
       <c r="R45" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7413,7 +7410,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>502</v>
@@ -7446,22 +7443,22 @@
         <v>24</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q46" s="46">
         <v>44208</v>
       </c>
       <c r="R46" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7505,20 +7502,20 @@
         <v>24</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q47" s="46">
         <v>44208</v>
       </c>
       <c r="R47" s="46"/>
       <c r="S47" s="21" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7562,22 +7559,22 @@
         <v>24</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>1065</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q48" s="46">
         <v>44208</v>
       </c>
       <c r="R48" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S48" s="21" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7634,7 +7631,7 @@
       </c>
       <c r="R49" s="46"/>
       <c r="S49" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7678,22 +7675,22 @@
         <v>24</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q50" s="46">
         <v>44208</v>
       </c>
       <c r="R50" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7737,20 +7734,20 @@
         <v>24</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>1065</v>
       </c>
       <c r="P51" s="21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q51" s="46">
         <v>44208</v>
       </c>
       <c r="R51" s="46"/>
       <c r="S51" s="21" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7794,20 +7791,20 @@
         <v>24</v>
       </c>
       <c r="N52" s="21" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="O52" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q52" s="46">
         <v>44208</v>
       </c>
       <c r="R52" s="46"/>
       <c r="S52" s="21" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7851,22 +7848,22 @@
         <v>24</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="O53" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q53" s="46">
         <v>44208</v>
       </c>
       <c r="R53" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7910,20 +7907,20 @@
         <v>24</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q54" s="46">
         <v>44208</v>
       </c>
       <c r="R54" s="46"/>
       <c r="S54" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7967,22 +7964,22 @@
         <v>24</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q55" s="46">
         <v>44208</v>
       </c>
       <c r="R55" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8026,22 +8023,22 @@
         <v>24</v>
       </c>
       <c r="N56" s="21" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="O56" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q56" s="46">
         <v>44208</v>
       </c>
       <c r="R56" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8085,22 +8082,22 @@
         <v>24</v>
       </c>
       <c r="N57" s="21" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="O57" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q57" s="46">
         <v>44208</v>
       </c>
       <c r="R57" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S57" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8144,7 +8141,7 @@
         <v>24</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="O58" s="21" t="s">
         <v>1066</v>
@@ -8157,7 +8154,7 @@
       </c>
       <c r="R58" s="46"/>
       <c r="S58" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8201,7 +8198,7 @@
         <v>24</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="O59" s="21" t="s">
         <v>1066</v>
@@ -8214,7 +8211,7 @@
       </c>
       <c r="R59" s="46"/>
       <c r="S59" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8258,20 +8255,20 @@
         <v>24</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="O60" s="11"/>
       <c r="P60" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q60" s="46">
         <v>44208</v>
       </c>
       <c r="R60" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S60" s="21" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8315,20 +8312,20 @@
         <v>24</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="O61" s="11"/>
       <c r="P61" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q61" s="46">
         <v>44208</v>
       </c>
       <c r="R61" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8372,20 +8369,20 @@
         <v>24</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="O62" s="11"/>
       <c r="P62" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q62" s="46">
         <v>44208</v>
       </c>
       <c r="R62" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S62" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8429,22 +8426,22 @@
         <v>24</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="O63" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P63" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q63" s="46">
         <v>44208</v>
       </c>
       <c r="R63" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8497,7 +8494,7 @@
       </c>
       <c r="R64" s="46"/>
       <c r="S64" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8541,7 +8538,7 @@
         <v>24</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>1066</v>
@@ -8553,10 +8550,10 @@
         <v>44208</v>
       </c>
       <c r="R65" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8613,10 +8610,10 @@
         <v>44208</v>
       </c>
       <c r="R66" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8667,16 +8664,16 @@
         <v>1066</v>
       </c>
       <c r="P67" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q67" s="46">
         <v>44208</v>
       </c>
       <c r="R67" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8729,7 +8726,7 @@
       <c r="Q68" s="46"/>
       <c r="R68" s="46"/>
       <c r="S68" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8780,7 +8777,7 @@
       <c r="Q69" s="46"/>
       <c r="R69" s="46"/>
       <c r="S69" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8831,7 +8828,7 @@
       <c r="Q70" s="46"/>
       <c r="R70" s="46"/>
       <c r="S70" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8888,10 +8885,10 @@
         <v>44208</v>
       </c>
       <c r="R71" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8942,16 +8939,16 @@
         <v>1066</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q72" s="46">
         <v>44208</v>
       </c>
       <c r="R72" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9002,7 +8999,7 @@
       <c r="Q73" s="46"/>
       <c r="R73" s="46"/>
       <c r="S73" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9053,7 +9050,7 @@
       <c r="Q74" s="46"/>
       <c r="R74" s="46"/>
       <c r="S74" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9104,16 +9101,16 @@
         <v>1066</v>
       </c>
       <c r="P75" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q75" s="46">
         <v>44208</v>
       </c>
       <c r="R75" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9164,7 +9161,7 @@
       <c r="Q76" s="46"/>
       <c r="R76" s="46"/>
       <c r="S76" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9215,7 +9212,7 @@
       <c r="Q77" s="46"/>
       <c r="R77" s="46"/>
       <c r="S77" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9266,7 +9263,7 @@
       <c r="Q78" s="46"/>
       <c r="R78" s="46"/>
       <c r="S78" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9317,7 +9314,7 @@
       <c r="Q79" s="46"/>
       <c r="R79" s="46"/>
       <c r="S79" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9368,7 +9365,7 @@
       <c r="Q80" s="46"/>
       <c r="R80" s="46"/>
       <c r="S80" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9419,7 +9416,7 @@
       <c r="Q81" s="46"/>
       <c r="R81" s="46"/>
       <c r="S81" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9470,7 +9467,7 @@
       <c r="Q82" s="46"/>
       <c r="R82" s="46"/>
       <c r="S82" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9521,7 +9518,7 @@
       <c r="Q83" s="46"/>
       <c r="R83" s="46"/>
       <c r="S83" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9569,16 +9566,16 @@
         <v>1066</v>
       </c>
       <c r="P84" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q84" s="46">
         <v>44208</v>
       </c>
       <c r="R84" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S84" s="21" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9629,7 +9626,7 @@
       <c r="Q85" s="46"/>
       <c r="R85" s="46"/>
       <c r="S85" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9680,16 +9677,16 @@
         <v>1066</v>
       </c>
       <c r="P86" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q86" s="46">
         <v>44208</v>
       </c>
       <c r="R86" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S86" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9740,7 +9737,7 @@
       <c r="Q87" s="46"/>
       <c r="R87" s="46"/>
       <c r="S87" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9791,16 +9788,16 @@
         <v>1066</v>
       </c>
       <c r="P88" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q88" s="46">
         <v>44208</v>
       </c>
       <c r="R88" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9851,16 +9848,16 @@
         <v>1066</v>
       </c>
       <c r="P89" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q89" s="46">
         <v>44208</v>
       </c>
       <c r="R89" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S89" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9911,16 +9908,16 @@
         <v>1066</v>
       </c>
       <c r="P90" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q90" s="46">
         <v>44208</v>
       </c>
       <c r="R90" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S90" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9971,16 +9968,16 @@
         <v>1066</v>
       </c>
       <c r="P91" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q91" s="46">
         <v>44208</v>
       </c>
       <c r="R91" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10031,16 +10028,16 @@
         <v>1066</v>
       </c>
       <c r="P92" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q92" s="46">
         <v>44209</v>
       </c>
       <c r="R92" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10091,16 +10088,16 @@
         <v>1066</v>
       </c>
       <c r="P93" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q93" s="46">
         <v>44209</v>
       </c>
       <c r="R93" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10151,16 +10148,16 @@
         <v>1066</v>
       </c>
       <c r="P94" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q94" s="46">
         <v>44209</v>
       </c>
       <c r="R94" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10211,16 +10208,16 @@
         <v>1066</v>
       </c>
       <c r="P95" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q95" s="46">
         <v>44209</v>
       </c>
       <c r="R95" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S95" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10271,16 +10268,16 @@
         <v>1066</v>
       </c>
       <c r="P96" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q96" s="46">
         <v>44209</v>
       </c>
       <c r="R96" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S96" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10331,16 +10328,16 @@
         <v>1066</v>
       </c>
       <c r="P97" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q97" s="46">
         <v>44209</v>
       </c>
       <c r="R97" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S97" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10391,16 +10388,16 @@
         <v>1066</v>
       </c>
       <c r="P98" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q98" s="46">
         <v>44209</v>
       </c>
       <c r="R98" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S98" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10451,16 +10448,16 @@
         <v>1066</v>
       </c>
       <c r="P99" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q99" s="46">
         <v>44209</v>
       </c>
       <c r="R99" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S99" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10511,16 +10508,16 @@
         <v>1066</v>
       </c>
       <c r="P100" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q100" s="46">
         <v>44209</v>
       </c>
       <c r="R100" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S100" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10571,16 +10568,16 @@
         <v>1066</v>
       </c>
       <c r="P101" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q101" s="46">
         <v>44209</v>
       </c>
       <c r="R101" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S101" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10631,16 +10628,16 @@
         <v>1066</v>
       </c>
       <c r="P102" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q102" s="46">
         <v>44209</v>
       </c>
       <c r="R102" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S102" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10691,16 +10688,16 @@
         <v>1066</v>
       </c>
       <c r="P103" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q103" s="46">
         <v>44209</v>
       </c>
       <c r="R103" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10986,16 +10983,16 @@
         <v>1066</v>
       </c>
       <c r="P109" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q109" s="46">
         <v>44209</v>
       </c>
       <c r="R109" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S109" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11093,16 +11090,16 @@
         <v>1066</v>
       </c>
       <c r="P111" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q111" s="46">
         <v>44209</v>
       </c>
       <c r="R111" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S111" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11200,16 +11197,16 @@
         <v>1066</v>
       </c>
       <c r="P113" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q113" s="46">
         <v>44209</v>
       </c>
       <c r="R113" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11260,16 +11257,16 @@
         <v>1066</v>
       </c>
       <c r="P114" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q114" s="46">
         <v>44209</v>
       </c>
       <c r="R114" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S114" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11320,16 +11317,16 @@
         <v>1066</v>
       </c>
       <c r="P115" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q115" s="46">
         <v>44209</v>
       </c>
       <c r="R115" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S115" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11380,16 +11377,16 @@
         <v>1066</v>
       </c>
       <c r="P116" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q116" s="46">
         <v>44209</v>
       </c>
       <c r="R116" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S116" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11534,16 +11531,16 @@
         <v>1066</v>
       </c>
       <c r="P119" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q119" s="46">
         <v>44209</v>
       </c>
       <c r="R119" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S119" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11594,16 +11591,16 @@
         <v>1066</v>
       </c>
       <c r="P120" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q120" s="46">
         <v>44209</v>
       </c>
       <c r="R120" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S120" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11654,16 +11651,16 @@
         <v>1066</v>
       </c>
       <c r="P121" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q121" s="46">
         <v>44209</v>
       </c>
       <c r="R121" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S121" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11714,16 +11711,16 @@
         <v>1066</v>
       </c>
       <c r="P122" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q122" s="46">
         <v>44209</v>
       </c>
       <c r="R122" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S122" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11774,16 +11771,16 @@
         <v>1066</v>
       </c>
       <c r="P123" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q123" s="46">
         <v>44209</v>
       </c>
       <c r="R123" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S123" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11881,16 +11878,16 @@
         <v>1066</v>
       </c>
       <c r="P125" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q125" s="46">
         <v>44209</v>
       </c>
       <c r="R125" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S125" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11941,16 +11938,16 @@
         <v>1066</v>
       </c>
       <c r="P126" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q126" s="46">
         <v>44209</v>
       </c>
       <c r="R126" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S126" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12001,16 +11998,16 @@
         <v>1066</v>
       </c>
       <c r="P127" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q127" s="46">
         <v>44209</v>
       </c>
       <c r="R127" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S127" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12061,16 +12058,16 @@
         <v>1066</v>
       </c>
       <c r="P128" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q128" s="46">
         <v>44209</v>
       </c>
       <c r="R128" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S128" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12121,16 +12118,16 @@
         <v>1066</v>
       </c>
       <c r="P129" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q129" s="46">
         <v>44209</v>
       </c>
       <c r="R129" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12181,16 +12178,16 @@
         <v>1066</v>
       </c>
       <c r="P130" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q130" s="46">
         <v>44210</v>
       </c>
       <c r="R130" s="46" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S130" s="21" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12376,23 +12373,24 @@
       <c r="M134" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N134" s="21" t="s">
-        <v>1212</v>
+      <c r="N134" s="21" t="str">
+        <f t="shared" ref="N134:N135" si="27">"opdracht_"&amp;B134&amp;".zip"</f>
+        <v>opdracht_LVBB4004.zip</v>
       </c>
       <c r="O134" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P134" s="21" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="Q134" s="46">
-        <v>44182</v>
+        <v>44210</v>
       </c>
       <c r="R134" s="46" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="S134" s="21" t="s">
-        <v>1243</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12435,23 +12433,24 @@
       <c r="M135" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N135" s="21" t="s">
-        <v>1212</v>
+      <c r="N135" s="21" t="str">
+        <f t="shared" si="27"/>
+        <v>opdracht_LVBB4005.zip</v>
       </c>
       <c r="O135" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P135" s="21" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="Q135" s="46">
-        <v>44182</v>
+        <v>44210</v>
       </c>
       <c r="R135" s="46" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="S135" s="21" t="s">
-        <v>1243</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12547,7 +12546,7 @@
       <c r="Q137" s="46"/>
       <c r="R137" s="46"/>
       <c r="S137" s="21" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12744,10 +12743,10 @@
         <v>44182</v>
       </c>
       <c r="R141" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S141" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12884,23 +12883,24 @@
       <c r="M144" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N144" s="21" t="s">
-        <v>1212</v>
+      <c r="N144" s="21" t="str">
+        <f t="shared" ref="N144" si="28">"opdracht_"&amp;B144&amp;".zip"</f>
+        <v>opdracht_LVBB4017.zip</v>
       </c>
       <c r="O144" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P144" s="21" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
       <c r="Q144" s="46">
-        <v>44182</v>
+        <v>44208</v>
       </c>
       <c r="R144" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S144" s="21" t="s">
-        <v>1243</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12990,23 +12990,24 @@
       <c r="M146" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N146" s="21" t="s">
-        <v>1212</v>
+      <c r="N146" s="21" t="str">
+        <f t="shared" ref="N146:N150" si="29">"opdracht_"&amp;B146&amp;".zip"</f>
+        <v>opdracht_LVBB4030.zip</v>
       </c>
       <c r="O146" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P146" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q146" s="46">
         <v>44182</v>
       </c>
       <c r="R146" s="46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="S146" s="21" t="s">
         <v>1241</v>
-      </c>
-      <c r="S146" s="21" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13049,23 +13050,24 @@
       <c r="M147" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N147" s="21" t="s">
-        <v>1212</v>
+      <c r="N147" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>opdracht_LVBB4031.zip</v>
       </c>
       <c r="O147" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P147" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q147" s="46">
         <v>44182</v>
       </c>
       <c r="R147" s="46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="S147" s="21" t="s">
         <v>1241</v>
-      </c>
-      <c r="S147" s="21" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13108,23 +13110,24 @@
       <c r="M148" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N148" s="11" t="s">
-        <v>1217</v>
+      <c r="N148" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>opdracht_LVBB4032.zip</v>
       </c>
       <c r="O148" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="P148" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q148" s="46">
         <v>44166</v>
       </c>
       <c r="R148" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S148" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13167,23 +13170,24 @@
       <c r="M149" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N149" s="21" t="s">
-        <v>1217</v>
+      <c r="N149" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>opdracht_LVBB4033.zip</v>
       </c>
       <c r="O149" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="P149" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q149" s="46">
         <v>44166</v>
       </c>
       <c r="R149" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S149" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13226,23 +13230,24 @@
       <c r="M150" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N150" s="21" t="s">
-        <v>1217</v>
+      <c r="N150" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>opdracht_LVBB4034.zip</v>
       </c>
       <c r="O150" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="P150" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q150" s="46">
         <v>44166</v>
       </c>
       <c r="R150" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S150" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13332,23 +13337,24 @@
       <c r="M152" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N152" s="21" t="s">
-        <v>1217</v>
+      <c r="N152" s="21" t="str">
+        <f t="shared" ref="N152" si="30">"opdracht_"&amp;B152&amp;".zip"</f>
+        <v>opdracht_LVBB4037.zip</v>
       </c>
       <c r="O152" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="P152" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q152" s="46">
         <v>44166</v>
       </c>
       <c r="R152" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S152" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13485,8 +13491,9 @@
       <c r="M155" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N155" s="21" t="s">
-        <v>1242</v>
+      <c r="N155" s="21" t="str">
+        <f t="shared" ref="N155:N157" si="31">"opdracht_"&amp;B155&amp;".zip"</f>
+        <v>opdracht_LVBB4040.zip</v>
       </c>
       <c r="O155" s="25" t="s">
         <v>1066</v>
@@ -13536,8 +13543,9 @@
       <c r="M156" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N156" s="21" t="s">
-        <v>1215</v>
+      <c r="N156" s="21" t="str">
+        <f t="shared" si="31"/>
+        <v>opdracht_LVBB4041.zip</v>
       </c>
       <c r="O156" s="25" t="s">
         <v>1066</v>
@@ -13549,10 +13557,10 @@
         <v>44182</v>
       </c>
       <c r="R156" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S156" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13595,8 +13603,9 @@
       <c r="M157" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N157" s="21" t="s">
-        <v>1215</v>
+      <c r="N157" s="21" t="str">
+        <f t="shared" si="31"/>
+        <v>opdracht_LVBB4042.zip</v>
       </c>
       <c r="O157" s="25" t="s">
         <v>1066</v>
@@ -13608,10 +13617,10 @@
         <v>44182</v>
       </c>
       <c r="R157" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S157" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13701,22 +13710,22 @@
         <v>24</v>
       </c>
       <c r="N159" s="21" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="P159" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q159" s="46">
         <v>44166</v>
       </c>
       <c r="R159" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S159" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13860,16 +13869,16 @@
         <v>1066</v>
       </c>
       <c r="P162" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q162" s="46">
         <v>44182</v>
       </c>
       <c r="R162" s="46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="S162" s="21" t="s">
         <v>1241</v>
-      </c>
-      <c r="S162" s="21" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14054,22 +14063,22 @@
         <v>24</v>
       </c>
       <c r="N166" s="21" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O166" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="P166" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q166" s="46">
         <v>44166</v>
       </c>
       <c r="R166" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S166" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14113,22 +14122,22 @@
         <v>24</v>
       </c>
       <c r="N167" s="21" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O167" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="P167" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q167" s="46">
         <v>44166</v>
       </c>
       <c r="R167" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S167" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14184,10 +14193,10 @@
         <v>44182</v>
       </c>
       <c r="R168" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S168" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14278,22 +14287,22 @@
         <v>24</v>
       </c>
       <c r="N170" s="11" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O170" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P170" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q170" s="46">
         <v>44182</v>
       </c>
       <c r="R170" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S170" s="21" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14337,22 +14346,22 @@
         <v>24</v>
       </c>
       <c r="N171" s="21" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O171" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P171" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q171" s="46">
         <v>44182</v>
       </c>
       <c r="R171" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S171" s="21" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14396,22 +14405,22 @@
         <v>24</v>
       </c>
       <c r="N172" s="21" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O172" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P172" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q172" s="46">
         <v>44182</v>
       </c>
       <c r="R172" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S172" s="21" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14422,7 +14431,7 @@
         <v>557</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D173" s="21" t="s">
         <v>502</v>
@@ -16670,14 +16679,14 @@
         <v>1066</v>
       </c>
       <c r="P220" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q220" s="46">
         <v>44166</v>
       </c>
       <c r="R220" s="46"/>
       <c r="S220" s="21" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16768,20 +16777,20 @@
         <v>24</v>
       </c>
       <c r="N222" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O222" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P222" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q222" s="46">
         <v>44166</v>
       </c>
       <c r="R222" s="46"/>
       <c r="S222" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16825,20 +16834,20 @@
         <v>25</v>
       </c>
       <c r="N223" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O223" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P223" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q223" s="46">
         <v>44166</v>
       </c>
       <c r="R223" s="46"/>
       <c r="S223" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16882,20 +16891,20 @@
         <v>24</v>
       </c>
       <c r="N224" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O224" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P224" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q224" s="46">
         <v>44166</v>
       </c>
       <c r="R224" s="46"/>
       <c r="S224" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16939,20 +16948,20 @@
         <v>25</v>
       </c>
       <c r="N225" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O225" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P225" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q225" s="46">
         <v>44166</v>
       </c>
       <c r="R225" s="46"/>
       <c r="S225" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16963,7 +16972,7 @@
         <v>283</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D226" s="21" t="s">
         <v>461</v>
@@ -16996,20 +17005,20 @@
         <v>24</v>
       </c>
       <c r="N226" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O226" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P226" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q226" s="46">
         <v>44166</v>
       </c>
       <c r="R226" s="46"/>
       <c r="S226" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17053,20 +17062,20 @@
         <v>25</v>
       </c>
       <c r="N227" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O227" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P227" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q227" s="46">
         <v>44166</v>
       </c>
       <c r="R227" s="46"/>
       <c r="S227" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17110,20 +17119,20 @@
         <v>25</v>
       </c>
       <c r="N228" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O228" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P228" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q228" s="46">
         <v>44166</v>
       </c>
       <c r="R228" s="46"/>
       <c r="S228" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17167,20 +17176,20 @@
         <v>25</v>
       </c>
       <c r="N229" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O229" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P229" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q229" s="46">
         <v>44166</v>
       </c>
       <c r="R229" s="46"/>
       <c r="S229" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17224,20 +17233,20 @@
         <v>25</v>
       </c>
       <c r="N230" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O230" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P230" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q230" s="46">
         <v>44166</v>
       </c>
       <c r="R230" s="46"/>
       <c r="S230" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17281,20 +17290,20 @@
         <v>25</v>
       </c>
       <c r="N231" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O231" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P231" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q231" s="46">
         <v>44166</v>
       </c>
       <c r="R231" s="46"/>
       <c r="S231" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17338,20 +17347,20 @@
         <v>25</v>
       </c>
       <c r="N232" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O232" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P232" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q232" s="46">
         <v>44166</v>
       </c>
       <c r="R232" s="46"/>
       <c r="S232" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17395,20 +17404,20 @@
         <v>25</v>
       </c>
       <c r="N233" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O233" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P233" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q233" s="46">
         <v>44166</v>
       </c>
       <c r="R233" s="46"/>
       <c r="S233" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17452,20 +17461,20 @@
         <v>25</v>
       </c>
       <c r="N234" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O234" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P234" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q234" s="46">
         <v>44166</v>
       </c>
       <c r="R234" s="46"/>
       <c r="S234" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17509,20 +17518,20 @@
         <v>25</v>
       </c>
       <c r="N235" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O235" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P235" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q235" s="46">
         <v>44166</v>
       </c>
       <c r="R235" s="46"/>
       <c r="S235" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17566,20 +17575,20 @@
         <v>25</v>
       </c>
       <c r="N236" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O236" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P236" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q236" s="46">
         <v>44166</v>
       </c>
       <c r="R236" s="46"/>
       <c r="S236" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17623,20 +17632,20 @@
         <v>25</v>
       </c>
       <c r="N237" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O237" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P237" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q237" s="46">
         <v>44166</v>
       </c>
       <c r="R237" s="46"/>
       <c r="S237" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17680,20 +17689,20 @@
         <v>25</v>
       </c>
       <c r="N238" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O238" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P238" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q238" s="46">
         <v>44166</v>
       </c>
       <c r="R238" s="46"/>
       <c r="S238" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17737,20 +17746,20 @@
         <v>25</v>
       </c>
       <c r="N239" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O239" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P239" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q239" s="46">
         <v>44166</v>
       </c>
       <c r="R239" s="46"/>
       <c r="S239" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17794,20 +17803,20 @@
         <v>25</v>
       </c>
       <c r="N240" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O240" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P240" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q240" s="46">
         <v>44166</v>
       </c>
       <c r="R240" s="46"/>
       <c r="S240" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17851,20 +17860,20 @@
         <v>25</v>
       </c>
       <c r="N241" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O241" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P241" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q241" s="46">
         <v>44166</v>
       </c>
       <c r="R241" s="46"/>
       <c r="S241" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17908,20 +17917,20 @@
         <v>25</v>
       </c>
       <c r="N242" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O242" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P242" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q242" s="46">
         <v>44166</v>
       </c>
       <c r="R242" s="46"/>
       <c r="S242" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17965,20 +17974,20 @@
         <v>24</v>
       </c>
       <c r="N243" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O243" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P243" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q243" s="46">
         <v>44166</v>
       </c>
       <c r="R243" s="46"/>
       <c r="S243" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18022,20 +18031,20 @@
         <v>24</v>
       </c>
       <c r="N244" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O244" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P244" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q244" s="46">
         <v>44166</v>
       </c>
       <c r="R244" s="46"/>
       <c r="S244" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18079,20 +18088,20 @@
         <v>24</v>
       </c>
       <c r="N245" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O245" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P245" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q245" s="46">
         <v>44166</v>
       </c>
       <c r="R245" s="46"/>
       <c r="S245" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18136,20 +18145,20 @@
         <v>24</v>
       </c>
       <c r="N246" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O246" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P246" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q246" s="46">
         <v>44166</v>
       </c>
       <c r="R246" s="46"/>
       <c r="S246" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18193,20 +18202,20 @@
         <v>24</v>
       </c>
       <c r="N247" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O247" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P247" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q247" s="46">
         <v>44166</v>
       </c>
       <c r="R247" s="46"/>
       <c r="S247" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="248" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18250,20 +18259,20 @@
         <v>24</v>
       </c>
       <c r="N248" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O248" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P248" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q248" s="46">
         <v>44166</v>
       </c>
       <c r="R248" s="46"/>
       <c r="S248" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="249" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18307,20 +18316,20 @@
         <v>24</v>
       </c>
       <c r="N249" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O249" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P249" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q249" s="46">
         <v>44166</v>
       </c>
       <c r="R249" s="46"/>
       <c r="S249" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="250" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18364,20 +18373,20 @@
         <v>24</v>
       </c>
       <c r="N250" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O250" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P250" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q250" s="46">
         <v>44166</v>
       </c>
       <c r="R250" s="46"/>
       <c r="S250" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18421,20 +18430,20 @@
         <v>25</v>
       </c>
       <c r="N251" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O251" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P251" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q251" s="46">
         <v>44166</v>
       </c>
       <c r="R251" s="46"/>
       <c r="S251" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18478,20 +18487,20 @@
         <v>25</v>
       </c>
       <c r="N252" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O252" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P252" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q252" s="46">
         <v>44166</v>
       </c>
       <c r="R252" s="46"/>
       <c r="S252" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18535,20 +18544,20 @@
         <v>25</v>
       </c>
       <c r="N253" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O253" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P253" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q253" s="46">
         <v>44166</v>
       </c>
       <c r="R253" s="46"/>
       <c r="S253" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18592,20 +18601,20 @@
         <v>25</v>
       </c>
       <c r="N254" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O254" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P254" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q254" s="46">
         <v>44166</v>
       </c>
       <c r="R254" s="46"/>
       <c r="S254" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18649,20 +18658,20 @@
         <v>25</v>
       </c>
       <c r="N255" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O255" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P255" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q255" s="46">
         <v>44166</v>
       </c>
       <c r="R255" s="46"/>
       <c r="S255" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18706,20 +18715,20 @@
         <v>25</v>
       </c>
       <c r="N256" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O256" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P256" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q256" s="46">
         <v>44166</v>
       </c>
       <c r="R256" s="46"/>
       <c r="S256" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18763,20 +18772,20 @@
         <v>24</v>
       </c>
       <c r="N257" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O257" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P257" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q257" s="46">
         <v>44166</v>
       </c>
       <c r="R257" s="46"/>
       <c r="S257" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18820,20 +18829,20 @@
         <v>25</v>
       </c>
       <c r="N258" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O258" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P258" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q258" s="46">
         <v>44166</v>
       </c>
       <c r="R258" s="46"/>
       <c r="S258" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18877,20 +18886,20 @@
         <v>25</v>
       </c>
       <c r="N259" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O259" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P259" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q259" s="46">
         <v>44166</v>
       </c>
       <c r="R259" s="46"/>
       <c r="S259" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18934,20 +18943,20 @@
         <v>25</v>
       </c>
       <c r="N260" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O260" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P260" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q260" s="46">
         <v>44166</v>
       </c>
       <c r="R260" s="46"/>
       <c r="S260" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18991,20 +19000,20 @@
         <v>24</v>
       </c>
       <c r="N261" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O261" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P261" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q261" s="46">
         <v>44166</v>
       </c>
       <c r="R261" s="46"/>
       <c r="S261" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19048,20 +19057,20 @@
         <v>25</v>
       </c>
       <c r="N262" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O262" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P262" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q262" s="46">
         <v>44166</v>
       </c>
       <c r="R262" s="46"/>
       <c r="S262" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="263" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19105,20 +19114,20 @@
         <v>25</v>
       </c>
       <c r="N263" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O263" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P263" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q263" s="46">
         <v>44166</v>
       </c>
       <c r="R263" s="46"/>
       <c r="S263" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="264" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19162,20 +19171,20 @@
         <v>25</v>
       </c>
       <c r="N264" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O264" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P264" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q264" s="46">
         <v>44166</v>
       </c>
       <c r="R264" s="46"/>
       <c r="S264" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19219,20 +19228,20 @@
         <v>25</v>
       </c>
       <c r="N265" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O265" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P265" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q265" s="46">
         <v>44166</v>
       </c>
       <c r="R265" s="46"/>
       <c r="S265" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19276,20 +19285,20 @@
         <v>24</v>
       </c>
       <c r="N266" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O266" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P266" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q266" s="46">
         <v>44166</v>
       </c>
       <c r="R266" s="46"/>
       <c r="S266" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19333,20 +19342,20 @@
         <v>24</v>
       </c>
       <c r="N267" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O267" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P267" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q267" s="46">
         <v>44166</v>
       </c>
       <c r="R267" s="46"/>
       <c r="S267" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19357,7 +19366,7 @@
         <v>358</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D268" s="21" t="s">
         <v>461</v>
@@ -19404,7 +19413,7 @@
         <v>359</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D269" s="21" t="s">
         <v>461</v>
@@ -19449,10 +19458,10 @@
         <v>44182</v>
       </c>
       <c r="R269" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S269" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19508,10 +19517,10 @@
         <v>44182</v>
       </c>
       <c r="R270" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S270" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19567,10 +19576,10 @@
         <v>44182</v>
       </c>
       <c r="R271" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S271" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19614,20 +19623,20 @@
         <v>25</v>
       </c>
       <c r="N272" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O272" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P272" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q272" s="46">
         <v>44166</v>
       </c>
       <c r="R272" s="46"/>
       <c r="S272" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="273" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19671,20 +19680,20 @@
         <v>25</v>
       </c>
       <c r="N273" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O273" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P273" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q273" s="46">
         <v>44166</v>
       </c>
       <c r="R273" s="46"/>
       <c r="S273" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="274" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19822,20 +19831,20 @@
         <v>25</v>
       </c>
       <c r="N276" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O276" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P276" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q276" s="46">
         <v>44166</v>
       </c>
       <c r="R276" s="46"/>
       <c r="S276" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="277" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19879,20 +19888,20 @@
         <v>25</v>
       </c>
       <c r="N277" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O277" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P277" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q277" s="46">
         <v>44166</v>
       </c>
       <c r="R277" s="46"/>
       <c r="S277" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="278" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19936,20 +19945,20 @@
         <v>24</v>
       </c>
       <c r="N278" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O278" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P278" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q278" s="46">
         <v>44166</v>
       </c>
       <c r="R278" s="46"/>
       <c r="S278" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="279" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19993,20 +20002,20 @@
         <v>24</v>
       </c>
       <c r="N279" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O279" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P279" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q279" s="46">
         <v>44166</v>
       </c>
       <c r="R279" s="46"/>
       <c r="S279" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="280" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20238,20 +20247,20 @@
         <v>24</v>
       </c>
       <c r="N284" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O284" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P284" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q284" s="46">
         <v>44166</v>
       </c>
       <c r="R284" s="46"/>
       <c r="S284" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="285" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20436,20 +20445,20 @@
         <v>24</v>
       </c>
       <c r="N288" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O288" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P288" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q288" s="46">
         <v>44166</v>
       </c>
       <c r="R288" s="46"/>
       <c r="S288" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="289" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20493,20 +20502,20 @@
         <v>24</v>
       </c>
       <c r="N289" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O289" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P289" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q289" s="46">
         <v>44166</v>
       </c>
       <c r="R289" s="46"/>
       <c r="S289" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="290" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20550,20 +20559,20 @@
         <v>24</v>
       </c>
       <c r="N290" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O290" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P290" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q290" s="46">
         <v>44166</v>
       </c>
       <c r="R290" s="46"/>
       <c r="S290" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="291" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20607,20 +20616,20 @@
         <v>24</v>
       </c>
       <c r="N291" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O291" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P291" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q291" s="46">
         <v>44166</v>
       </c>
       <c r="R291" s="46"/>
       <c r="S291" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="292" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20664,20 +20673,20 @@
         <v>24</v>
       </c>
       <c r="N292" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O292" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P292" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q292" s="46">
         <v>44166</v>
       </c>
       <c r="R292" s="46"/>
       <c r="S292" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="293" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20688,7 +20697,7 @@
         <v>616</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D293" s="21" t="s">
         <v>461</v>
@@ -20721,20 +20730,20 @@
         <v>24</v>
       </c>
       <c r="N293" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O293" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P293" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q293" s="46">
         <v>44166</v>
       </c>
       <c r="R293" s="46"/>
       <c r="S293" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="294" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20778,20 +20787,20 @@
         <v>24</v>
       </c>
       <c r="N294" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O294" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P294" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q294" s="46">
         <v>44166</v>
       </c>
       <c r="R294" s="46"/>
       <c r="S294" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="295" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20847,10 +20856,10 @@
         <v>44182</v>
       </c>
       <c r="R295" s="46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S295" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="296" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20894,20 +20903,20 @@
         <v>24</v>
       </c>
       <c r="N296" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O296" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P296" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q296" s="46">
         <v>44166</v>
       </c>
       <c r="R296" s="46"/>
       <c r="S296" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="297" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21190,20 +21199,20 @@
         <v>24</v>
       </c>
       <c r="N302" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O302" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P302" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q302" s="46">
         <v>44166</v>
       </c>
       <c r="R302" s="46"/>
       <c r="S302" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21247,20 +21256,20 @@
         <v>24</v>
       </c>
       <c r="N303" s="11" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O303" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P303" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q303" s="46">
         <v>44166</v>
       </c>
       <c r="R303" s="46"/>
       <c r="S303" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21304,20 +21313,20 @@
         <v>24</v>
       </c>
       <c r="N304" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O304" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P304" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q304" s="46">
         <v>44182</v>
       </c>
       <c r="R304" s="46"/>
       <c r="S304" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21361,20 +21370,20 @@
         <v>24</v>
       </c>
       <c r="N305" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O305" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P305" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q305" s="46">
         <v>44182</v>
       </c>
       <c r="R305" s="46"/>
       <c r="S305" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="306" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21888,20 +21897,20 @@
         <v>25</v>
       </c>
       <c r="N316" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O316" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P316" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q316" s="46">
         <v>44166</v>
       </c>
       <c r="R316" s="46"/>
       <c r="S316" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21945,20 +21954,20 @@
         <v>25</v>
       </c>
       <c r="N317" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O317" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P317" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q317" s="46">
         <v>44166</v>
       </c>
       <c r="R317" s="46"/>
       <c r="S317" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22002,20 +22011,20 @@
         <v>25</v>
       </c>
       <c r="N318" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O318" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P318" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q318" s="46">
         <v>44166</v>
       </c>
       <c r="R318" s="46"/>
       <c r="S318" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22059,20 +22068,20 @@
         <v>25</v>
       </c>
       <c r="N319" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O319" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P319" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q319" s="46">
         <v>44166</v>
       </c>
       <c r="R319" s="46"/>
       <c r="S319" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22116,20 +22125,20 @@
         <v>25</v>
       </c>
       <c r="N320" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O320" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P320" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q320" s="46">
         <v>44166</v>
       </c>
       <c r="R320" s="46"/>
       <c r="S320" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22267,20 +22276,20 @@
         <v>25</v>
       </c>
       <c r="N323" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O323" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P323" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q323" s="46">
         <v>44166</v>
       </c>
       <c r="R323" s="46"/>
       <c r="S323" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="324" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22422,20 +22431,20 @@
         <v>25</v>
       </c>
       <c r="N326" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O326" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="P326" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q326" s="46">
         <v>44166</v>
       </c>
       <c r="R326" s="46"/>
       <c r="S326" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="327" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22479,20 +22488,20 @@
         <v>25</v>
       </c>
       <c r="N327" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O327" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="P327" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q327" s="46">
         <v>44166</v>
       </c>
       <c r="R327" s="46"/>
       <c r="S327" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="328" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22587,20 +22596,20 @@
         <v>24</v>
       </c>
       <c r="N329" s="21" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O329" s="21" t="s">
      